--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8268" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8268"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="158">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -1038,7 +1038,71 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="270">
+  <dxfs count="262">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -1135,14 +1199,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9D2E9"/>
           <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1489,14 +1545,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
@@ -1575,38 +1623,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFCFE2F3"/>
           <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1808,14 +1824,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
@@ -1988,64 +1996,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
           <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2139,14 +2095,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9EAD3"/>
           <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2409,14 +2357,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFC27BA0"/>
       </font>
@@ -2558,14 +2498,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFCFE2F3"/>
           <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3094,14 +3026,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFCFE2F3"/>
           <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4123,11 +4047,11 @@
   </sheetPr>
   <dimension ref="A1:Z1050"/>
   <sheetViews>
-    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
+      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4471,22 +4395,26 @@
         <v>97</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
+      <c r="F10" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="L10" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="M10" s="42" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="1"/>
@@ -4507,10 +4435,10 @@
         <v>97</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
@@ -4522,7 +4450,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="42" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="1"/>
@@ -4543,26 +4471,22 @@
         <v>97</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
-      <c r="F12" s="41" t="s">
-        <v>97</v>
-      </c>
+      <c r="F12" s="41"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
-      <c r="L12" s="42" t="s">
-        <v>132</v>
-      </c>
+      <c r="L12" s="13"/>
       <c r="M12" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="1"/>
@@ -4580,7 +4504,7 @@
     </row>
     <row r="13" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A13" s="41" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>22</v>
@@ -4731,7 +4655,9 @@
       <c r="B17" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="62"/>
+      <c r="C17" s="64" t="s">
+        <v>94</v>
+      </c>
       <c r="D17" s="62"/>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -5811,7 +5737,7 @@
         <v>132</v>
       </c>
       <c r="M49" s="46" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="N49" s="29"/>
       <c r="O49" s="9"/>
@@ -6316,7 +6242,7 @@
         <v>97</v>
       </c>
       <c r="B64" s="46" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C64" s="46" t="s">
         <v>94</v>
@@ -6331,7 +6257,7 @@
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
       <c r="M64" s="2" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="N64" s="13"/>
       <c r="O64" s="1"/>
@@ -6352,7 +6278,7 @@
         <v>97</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="C65" s="46" t="s">
         <v>94</v>
@@ -6367,7 +6293,7 @@
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
       <c r="M65" s="2" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="N65" s="13"/>
       <c r="O65" s="1"/>
@@ -6388,7 +6314,7 @@
         <v>97</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C66" s="46" t="s">
         <v>94</v>
@@ -6403,7 +6329,7 @@
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
       <c r="M66" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="N66" s="13"/>
       <c r="O66" s="1"/>
@@ -34026,1358 +33952,1318 @@
       <c r="Z1050" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C4 A44:C46 A5:B5 A6:C8 B53:C53">
-    <cfRule type="expression" dxfId="269" priority="313">
+  <conditionalFormatting sqref="A2:C4 A44:C46 A5:B5 A6:C8 B53:C53 A10:F16 L10:M10 A64:C70">
+    <cfRule type="expression" dxfId="261" priority="313">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C4 B53:C53 A45:C45 A5:B5 A6:C8">
-    <cfRule type="expression" dxfId="268" priority="314">
+    <cfRule type="expression" dxfId="260" priority="314">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C4 A43:C46 A42 C42 C47 A5:B5 A6:C8 B53:C53 C51">
-    <cfRule type="cellIs" dxfId="267" priority="315" operator="equal">
+  <conditionalFormatting sqref="A2:C4 A43:C46 A42 C42 C47 A5:B5 A6:C8 B53:C53 C51 A10:F16 A64:C70">
+    <cfRule type="cellIs" dxfId="259" priority="315" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B46 B2:B8 B53">
-    <cfRule type="expression" dxfId="266" priority="316">
+  <conditionalFormatting sqref="B44:B46 B2:B8 B53 B10:B16 B64:B70">
+    <cfRule type="expression" dxfId="258" priority="316">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C4 A44:C46 A5:B5 A6:C8 B53:C53">
-    <cfRule type="expression" dxfId="265" priority="318">
+  <conditionalFormatting sqref="A2:C4 A44:C46 A5:B5 A6:C8 B53:C53 A10:F16 L10:M10 A64:C70">
+    <cfRule type="expression" dxfId="257" priority="318">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C4 B53:C53 A45:C45 A5:B5 A6:C8">
-    <cfRule type="expression" dxfId="264" priority="319">
+    <cfRule type="expression" dxfId="256" priority="319">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A59 A2:A8 A42:A46">
-    <cfRule type="containsText" dxfId="263" priority="323" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="A58:A59 A2:A8 A42:A46 A10:A16 A64:A70">
+    <cfRule type="containsText" dxfId="255" priority="323" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C4 C6:C8 C53 C42:C47">
-    <cfRule type="expression" dxfId="262" priority="324">
+  <conditionalFormatting sqref="C2:C4 C6:C8 C53 C42:C47 C10:C16 C64:C70">
+    <cfRule type="expression" dxfId="254" priority="324">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A8 A42:A46">
-    <cfRule type="cellIs" dxfId="261" priority="325" operator="equal">
+  <conditionalFormatting sqref="A2:A8 A42:A46 A10:A16 A64:A70">
+    <cfRule type="cellIs" dxfId="253" priority="325" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:C59">
-    <cfRule type="expression" dxfId="260" priority="326">
+    <cfRule type="expression" dxfId="252" priority="326">
       <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:C59">
-    <cfRule type="expression" dxfId="259" priority="327">
+    <cfRule type="expression" dxfId="251" priority="327">
       <formula>AND($A58="end group", $B58 = "", $C58 = "", $E58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "", $O58 = "", $P58 = "", $Q58 = "", $S58 = "", $T58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:C59">
-    <cfRule type="cellIs" dxfId="258" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="328" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C59">
-    <cfRule type="expression" dxfId="257" priority="329">
+    <cfRule type="expression" dxfId="249" priority="329">
       <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $C58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:B59">
-    <cfRule type="expression" dxfId="256" priority="330">
+    <cfRule type="expression" dxfId="248" priority="330">
       <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $B58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:A59">
-    <cfRule type="cellIs" dxfId="255" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="331" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:C59">
-    <cfRule type="expression" dxfId="254" priority="332">
+    <cfRule type="expression" dxfId="246" priority="332">
       <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:C59">
-    <cfRule type="expression" dxfId="253" priority="333">
+    <cfRule type="expression" dxfId="245" priority="333">
       <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $E58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "", $O58 = "", $P58 = "", $Q58 = "", $S58 = "", $T58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:C54">
-    <cfRule type="containsText" dxfId="252" priority="343" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="244" priority="343" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A54))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:C54">
-    <cfRule type="expression" dxfId="251" priority="344">
+    <cfRule type="expression" dxfId="243" priority="344">
       <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:C54">
-    <cfRule type="expression" dxfId="250" priority="345">
+    <cfRule type="expression" dxfId="242" priority="345">
       <formula>AND($A54="end group", $B54 = "", $C54 = "", $E54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "", $O54 = "", $P54 = "", $Q54 = "", $S54 = "", $T54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:C54">
-    <cfRule type="cellIs" dxfId="249" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="346" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:C54">
-    <cfRule type="cellIs" dxfId="248" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="347" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:C54">
-    <cfRule type="expression" dxfId="247" priority="348">
+    <cfRule type="expression" dxfId="239" priority="348">
       <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:C54">
-    <cfRule type="expression" dxfId="246" priority="349">
+    <cfRule type="expression" dxfId="238" priority="349">
       <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $E54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "", $O54 = "", $P54 = "", $Q54 = "", $S54 = "", $T54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="containsText" dxfId="245" priority="350" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="237" priority="350" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A55))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:C55">
-    <cfRule type="expression" dxfId="244" priority="334">
+    <cfRule type="expression" dxfId="236" priority="334">
       <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:C55">
-    <cfRule type="expression" dxfId="243" priority="335">
+    <cfRule type="expression" dxfId="235" priority="335">
       <formula>AND($A55="end group", $B55 = "", $C55 = "", $E55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "", $O55 = "", $P55 = "", $Q55 = "", $S55 = "", $T55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:C55">
-    <cfRule type="cellIs" dxfId="242" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="336" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="241" priority="337">
+    <cfRule type="expression" dxfId="233" priority="337">
       <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" dxfId="240" priority="338">
+    <cfRule type="expression" dxfId="232" priority="338">
       <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="239" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="339" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:C55">
-    <cfRule type="expression" dxfId="238" priority="341">
+    <cfRule type="expression" dxfId="230" priority="341">
       <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:C55">
-    <cfRule type="expression" dxfId="237" priority="342">
+    <cfRule type="expression" dxfId="229" priority="342">
       <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $E55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "", $O55 = "", $P55 = "", $Q55 = "", $S55 = "", $T55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="236" priority="306" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="228" priority="306" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="235" priority="307">
+    <cfRule type="expression" dxfId="227" priority="307">
       <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="234" priority="308">
+    <cfRule type="expression" dxfId="226" priority="308">
       <formula>AND($A24="end group", $B24 = "", $C24 = "", $E24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="233" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="309" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="232" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="310" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="231" priority="311">
+    <cfRule type="expression" dxfId="223" priority="311">
       <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="230" priority="312">
+    <cfRule type="expression" dxfId="222" priority="312">
       <formula>AND($A24="end repeat", $B24 = "", $C24 = "", $E24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="229" priority="299">
+    <cfRule type="expression" dxfId="221" priority="299">
       <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="228" priority="300">
+    <cfRule type="expression" dxfId="220" priority="300">
       <formula>AND($A24="end group", $B24 = "", $C24 = "", $E24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="227" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="301" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="226" priority="302">
+    <cfRule type="expression" dxfId="218" priority="302">
       <formula>AND(AND(NOT($A24 = "end group"), NOT($A24 = "end repeat"), NOT($A24 = "")), $B24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="225" priority="304">
+    <cfRule type="expression" dxfId="217" priority="304">
       <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="224" priority="305">
+    <cfRule type="expression" dxfId="216" priority="305">
       <formula>AND($A24="end repeat", $B24 = "", $C24 = "", $E24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="expression" dxfId="223" priority="285">
+    <cfRule type="expression" dxfId="215" priority="285">
       <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="expression" dxfId="222" priority="286">
+    <cfRule type="expression" dxfId="214" priority="286">
       <formula>AND($A76="end group", $B76 = "", $C76 = "", $E76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "", $O76 = "", $P76 = "", $Q76 = "", $S76 = "", $T76 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="cellIs" dxfId="221" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="287" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="expression" dxfId="220" priority="288">
+    <cfRule type="expression" dxfId="212" priority="288">
       <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="expression" dxfId="219" priority="289">
+    <cfRule type="expression" dxfId="211" priority="289">
       <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $E76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "", $O76 = "", $P76 = "", $Q76 = "", $S76 = "", $T76 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="containsText" dxfId="218" priority="290" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="210" priority="290" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A76))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:C46 A44:C44">
-    <cfRule type="expression" dxfId="217" priority="467">
+    <cfRule type="expression" dxfId="209" priority="467">
       <formula>AND($A44="end group", $B44 = "", $C44 = "", #REF! = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "", $O44 = "", $P44 = "", $Q44 = "", $S44 = "", $T44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:C46 A44:C44">
-    <cfRule type="expression" dxfId="216" priority="470">
+    <cfRule type="expression" dxfId="208" priority="470">
       <formula>AND($A44="end repeat", $B44 = "", $C44 = "", #REF! = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "", $O44 = "", $P44 = "", $Q44 = "", $S44 = "", $T44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43 C43">
-    <cfRule type="expression" dxfId="215" priority="496">
+    <cfRule type="expression" dxfId="207" priority="496">
       <formula>AND($A43="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43 C43">
-    <cfRule type="expression" dxfId="214" priority="504">
+    <cfRule type="expression" dxfId="206" priority="504">
       <formula>AND($A43="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="213" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="265" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="containsText" dxfId="212" priority="267" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="204" priority="267" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A47))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="211" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="268" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:A62">
-    <cfRule type="expression" dxfId="210" priority="258">
+    <cfRule type="expression" dxfId="202" priority="258">
       <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:A62">
-    <cfRule type="expression" dxfId="209" priority="259">
+    <cfRule type="expression" dxfId="201" priority="259">
       <formula>AND($A61="end group", $B61 = "", $C61 = "", $E61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "", $O61 = "", $P61 = "", $Q61 = "", $S61 = "", $T61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:A62">
-    <cfRule type="cellIs" dxfId="208" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="260" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:A62">
-    <cfRule type="expression" dxfId="207" priority="261">
+    <cfRule type="expression" dxfId="199" priority="261">
       <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:A62">
-    <cfRule type="expression" dxfId="206" priority="262">
+    <cfRule type="expression" dxfId="198" priority="262">
       <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $E61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "", $O61 = "", $P61 = "", $Q61 = "", $S61 = "", $T61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:A62">
-    <cfRule type="containsText" dxfId="205" priority="263" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="197" priority="263" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A61))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A75">
-    <cfRule type="cellIs" dxfId="204" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="245" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A75">
-    <cfRule type="cellIs" dxfId="203" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="246" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="cellIs" dxfId="202" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="247" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="cellIs" dxfId="201" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="248" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="cellIs" dxfId="200" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="249" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="cellIs" dxfId="199" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="250" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55 B43:B46 B53 B58:B59">
-    <cfRule type="expression" dxfId="198" priority="580">
-      <formula>COUNTIF($B$25:$B$1138,B43)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="197" priority="233">
+    <cfRule type="expression" dxfId="190" priority="233">
       <formula>AND($A5="begin group", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="196" priority="236">
+    <cfRule type="expression" dxfId="189" priority="236">
       <formula>AND($A5="begin repeat", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="195" priority="234">
+    <cfRule type="expression" dxfId="188" priority="234">
       <formula>AND($A5="end group", $B5 = "", $C5 = "", $E5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "", $O5 = "", $P5 = "", $Q5 = "", $S5 = "", $T5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="194" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="235" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="193" priority="237">
+    <cfRule type="expression" dxfId="186" priority="237">
       <formula>AND($A5="end repeat", $B5 = "", $C5 = "", $E5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "", $O5 = "", $P5 = "", $Q5 = "", $S5 = "", $T5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="192" priority="238">
+    <cfRule type="expression" dxfId="185" priority="238">
       <formula>AND(AND(NOT($A5 = "end group"), NOT($A5 = "end repeat"), NOT($A5 = "")), $C5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A16">
-    <cfRule type="containsText" dxfId="191" priority="223" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="A9">
+    <cfRule type="containsText" dxfId="184" priority="223" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:F16 B22:F23 E17:F21">
-    <cfRule type="expression" dxfId="190" priority="224">
+  <conditionalFormatting sqref="A9:F9 B22:F23 E17:F21">
+    <cfRule type="expression" dxfId="183" priority="224">
       <formula>AND($A9="begin group", NOT($B9 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:F16 B22:F23 E17:F21">
-    <cfRule type="cellIs" dxfId="189" priority="225" operator="equal">
+  <conditionalFormatting sqref="A9:F9 B22:F23 E17:F21">
+    <cfRule type="cellIs" dxfId="182" priority="225" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C16 C22:C23">
-    <cfRule type="expression" dxfId="188" priority="226">
+  <conditionalFormatting sqref="C9 C22:C23">
+    <cfRule type="expression" dxfId="181" priority="226">
       <formula>AND(AND(NOT($A9 = "end group"), NOT($A9 = "end repeat"), NOT($A9 = "")), $C9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B16 B22:B23">
-    <cfRule type="expression" dxfId="187" priority="227">
+  <conditionalFormatting sqref="B9 B22:B23">
+    <cfRule type="expression" dxfId="180" priority="227">
       <formula>AND(AND(NOT($A9 = "end group"), NOT($A9 = "end repeat"), NOT($A9 = "")), $B9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A16">
-    <cfRule type="cellIs" dxfId="186" priority="228" operator="equal">
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="179" priority="228" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:F16 B22:F23 E17:F21">
-    <cfRule type="expression" dxfId="185" priority="229">
+  <conditionalFormatting sqref="A9:F9 B22:F23 E17:F21">
+    <cfRule type="expression" dxfId="178" priority="229">
       <formula>AND($A9="begin repeat", NOT($B9 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:F16 B22:F23 E17:F21">
-    <cfRule type="expression" dxfId="184" priority="230">
+  <conditionalFormatting sqref="B22:F23 E17:F21 A9:F16 L10:M10 A64:C70">
+    <cfRule type="expression" dxfId="177" priority="230">
       <formula>AND($A9="end group", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:F16 B22:F23 E17:F21">
-    <cfRule type="expression" dxfId="183" priority="231">
+  <conditionalFormatting sqref="B22:F23 E17:F21 A9:F16 L10:M10 A64:C70">
+    <cfRule type="expression" dxfId="176" priority="231">
       <formula>AND($A9="end repeat", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A34">
-    <cfRule type="containsText" dxfId="182" priority="184" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="175" priority="184" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:C34">
-    <cfRule type="expression" dxfId="181" priority="185">
+    <cfRule type="expression" dxfId="174" priority="185">
       <formula>AND($A32="begin group", NOT($B32 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:C34">
-    <cfRule type="cellIs" dxfId="180" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="186" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C34">
-    <cfRule type="expression" dxfId="179" priority="187">
+    <cfRule type="expression" dxfId="172" priority="187">
       <formula>AND(AND(NOT($A32 = "end group"), NOT($A32 = "end repeat"), NOT($A32 = "")), $C32 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:B34">
-    <cfRule type="expression" dxfId="178" priority="188">
+    <cfRule type="expression" dxfId="171" priority="188">
       <formula>AND(AND(NOT($A32 = "end group"), NOT($A32 = "end repeat"), NOT($A32 = "")), $B32 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A34">
-    <cfRule type="cellIs" dxfId="177" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="189" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:C34">
-    <cfRule type="expression" dxfId="176" priority="190">
+    <cfRule type="expression" dxfId="169" priority="190">
       <formula>AND($A32="begin repeat", NOT($B32 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:C34">
-    <cfRule type="expression" dxfId="175" priority="191">
+    <cfRule type="expression" dxfId="168" priority="191">
       <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:C34">
-    <cfRule type="expression" dxfId="174" priority="192">
+    <cfRule type="expression" dxfId="167" priority="192">
       <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A39">
-    <cfRule type="containsText" dxfId="173" priority="168" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="166" priority="168" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A37))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:C39">
-    <cfRule type="expression" dxfId="172" priority="169">
+    <cfRule type="expression" dxfId="165" priority="169">
       <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:C39">
-    <cfRule type="cellIs" dxfId="171" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="170" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39">
-    <cfRule type="expression" dxfId="170" priority="171">
+    <cfRule type="expression" dxfId="163" priority="171">
       <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $C37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B39">
-    <cfRule type="expression" dxfId="169" priority="172">
+    <cfRule type="expression" dxfId="162" priority="172">
       <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A39">
-    <cfRule type="cellIs" dxfId="168" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="173" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:C39">
-    <cfRule type="expression" dxfId="167" priority="174">
+    <cfRule type="expression" dxfId="160" priority="174">
       <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:C39">
-    <cfRule type="expression" dxfId="166" priority="175">
+    <cfRule type="expression" dxfId="159" priority="175">
       <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:C39">
-    <cfRule type="expression" dxfId="165" priority="176">
+    <cfRule type="expression" dxfId="158" priority="176">
       <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="164" priority="150">
+    <cfRule type="expression" dxfId="157" priority="150">
       <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="cellIs" dxfId="163" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="151" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="162" priority="152">
+    <cfRule type="expression" dxfId="155" priority="152">
       <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $B42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="161" priority="153">
+    <cfRule type="expression" dxfId="154" priority="153">
       <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="160" priority="606">
+    <cfRule type="expression" dxfId="153" priority="606">
       <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", #REF! = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="159" priority="607">
+    <cfRule type="expression" dxfId="152" priority="607">
       <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", #REF! = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A51">
-    <cfRule type="containsText" dxfId="158" priority="140" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="151" priority="140" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A48))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:C50 A51:B51">
-    <cfRule type="expression" dxfId="157" priority="141">
+    <cfRule type="expression" dxfId="150" priority="141">
       <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:C50 A51:B51">
-    <cfRule type="cellIs" dxfId="156" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="142" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C50">
-    <cfRule type="expression" dxfId="155" priority="143">
+    <cfRule type="expression" dxfId="148" priority="143">
       <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $C48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B51">
-    <cfRule type="expression" dxfId="154" priority="144">
+    <cfRule type="expression" dxfId="147" priority="144">
       <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $B48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A51">
-    <cfRule type="cellIs" dxfId="153" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="145" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:C50 A51:B51">
-    <cfRule type="expression" dxfId="152" priority="146">
+    <cfRule type="expression" dxfId="145" priority="146">
       <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:C50">
-    <cfRule type="expression" dxfId="151" priority="147">
+    <cfRule type="expression" dxfId="144" priority="147">
       <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:C50">
-    <cfRule type="expression" dxfId="150" priority="148">
+    <cfRule type="expression" dxfId="143" priority="148">
       <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:B51">
-    <cfRule type="expression" dxfId="149" priority="620">
+    <cfRule type="expression" dxfId="142" priority="620">
       <formula>AND($A51="end group", $B51 = "", #REF! = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:B51">
-    <cfRule type="expression" dxfId="148" priority="621">
+    <cfRule type="expression" dxfId="141" priority="621">
       <formula>AND($A51="end repeat", $B51 = "", #REF! = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="147" priority="629">
-      <formula>COUNTIF($B$2:$B$1131,B24)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48:B51">
-    <cfRule type="expression" dxfId="146" priority="635">
-      <formula>COUNTIF($B$2:$B$1015,B48)&gt;1</formula>
+  <conditionalFormatting sqref="B56 B47">
+    <cfRule type="expression" dxfId="140" priority="629">
+      <formula>COUNTIF($B$2:$B$1132,B47)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="145" priority="636">
+    <cfRule type="expression" dxfId="139" priority="636">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="144" priority="637">
+    <cfRule type="expression" dxfId="138" priority="637">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="143" priority="638">
+    <cfRule type="expression" dxfId="137" priority="638">
       <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="142" priority="639">
+    <cfRule type="expression" dxfId="136" priority="639">
       <formula>AND(#REF!="end group", #REF! = "", $C51 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="141" priority="640">
+    <cfRule type="expression" dxfId="135" priority="640">
       <formula>AND(#REF!="end repeat", #REF! = "", $C51 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="containsText" dxfId="140" priority="130" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="134" priority="130" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A52))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="139" priority="131">
+    <cfRule type="expression" dxfId="133" priority="131">
       <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="cellIs" dxfId="138" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="132" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="137" priority="133">
+    <cfRule type="expression" dxfId="131" priority="133">
       <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $C52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="136" priority="134">
+    <cfRule type="expression" dxfId="130" priority="134">
       <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $B52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="135" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="134" priority="136">
+    <cfRule type="expression" dxfId="128" priority="136">
       <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="133" priority="137">
+    <cfRule type="expression" dxfId="127" priority="137">
       <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="132" priority="138">
+    <cfRule type="expression" dxfId="126" priority="138">
       <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="131" priority="139">
-      <formula>COUNTIF($B$2:$B$1015,B52)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F48:F50">
-    <cfRule type="expression" dxfId="130" priority="119">
+    <cfRule type="expression" dxfId="125" priority="119">
       <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:F50">
-    <cfRule type="cellIs" dxfId="129" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="120" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:F50">
-    <cfRule type="expression" dxfId="128" priority="121">
+    <cfRule type="expression" dxfId="123" priority="121">
       <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:F50">
-    <cfRule type="expression" dxfId="127" priority="122">
+    <cfRule type="expression" dxfId="122" priority="122">
       <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:F50">
-    <cfRule type="expression" dxfId="126" priority="123">
+    <cfRule type="expression" dxfId="121" priority="123">
       <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L48:M50">
-    <cfRule type="expression" dxfId="125" priority="114">
+    <cfRule type="expression" dxfId="120" priority="114">
       <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L48:M50">
-    <cfRule type="cellIs" dxfId="124" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="115" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L48:M50">
-    <cfRule type="expression" dxfId="123" priority="116">
+    <cfRule type="expression" dxfId="118" priority="116">
       <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L48:M50">
-    <cfRule type="expression" dxfId="122" priority="117">
+    <cfRule type="expression" dxfId="117" priority="117">
       <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L48:M50">
-    <cfRule type="expression" dxfId="121" priority="118">
+    <cfRule type="expression" dxfId="116" priority="118">
       <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="120" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="107" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="119" priority="110">
+    <cfRule type="expression" dxfId="114" priority="110">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="118" priority="111">
+    <cfRule type="expression" dxfId="113" priority="111">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="117" priority="112">
+    <cfRule type="expression" dxfId="112" priority="112">
       <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", $E54 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="116" priority="113">
+    <cfRule type="expression" dxfId="111" priority="113">
       <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", $E54 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="containsText" dxfId="115" priority="97" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="110" priority="97" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A56))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:C56">
-    <cfRule type="expression" dxfId="114" priority="98">
+    <cfRule type="expression" dxfId="109" priority="98">
       <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:C56">
-    <cfRule type="cellIs" dxfId="113" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="99" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="112" priority="100">
+    <cfRule type="expression" dxfId="107" priority="100">
       <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $C56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="expression" dxfId="111" priority="101">
+    <cfRule type="expression" dxfId="106" priority="101">
       <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $B56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="cellIs" dxfId="110" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="102" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:C56">
-    <cfRule type="expression" dxfId="109" priority="103">
+    <cfRule type="expression" dxfId="104" priority="103">
       <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:C56">
-    <cfRule type="expression" dxfId="108" priority="104">
+    <cfRule type="expression" dxfId="103" priority="104">
       <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $M56 = "", $N56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:C56">
-    <cfRule type="expression" dxfId="107" priority="105">
+    <cfRule type="expression" dxfId="102" priority="105">
       <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $M56 = "", $N56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
-    <cfRule type="expression" dxfId="106" priority="106">
-      <formula>COUNTIF($B$2:$B$1132,B56)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="containsText" dxfId="105" priority="81" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="101" priority="81" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A57))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="104" priority="82">
+    <cfRule type="expression" dxfId="100" priority="82">
       <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="cellIs" dxfId="103" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="83" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="102" priority="84">
+    <cfRule type="expression" dxfId="98" priority="84">
       <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="101" priority="85">
+    <cfRule type="expression" dxfId="97" priority="85">
       <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $B57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" dxfId="100" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="86" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="99" priority="87">
+    <cfRule type="expression" dxfId="95" priority="87">
       <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="98" priority="88">
+    <cfRule type="expression" dxfId="94" priority="88">
       <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="97" priority="89">
+    <cfRule type="expression" dxfId="93" priority="89">
       <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="96" priority="90">
-      <formula>COUNTIF($B$2:$B$1131,B57)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12:M12">
-    <cfRule type="expression" dxfId="95" priority="71">
-      <formula>AND($A12="begin group", NOT($B12 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12:M12">
-    <cfRule type="cellIs" dxfId="94" priority="72" operator="equal">
+  <conditionalFormatting sqref="L10:M10">
+    <cfRule type="cellIs" dxfId="92" priority="72" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:M12">
-    <cfRule type="expression" dxfId="93" priority="73">
-      <formula>AND($A12="begin repeat", NOT($B12 = ""))</formula>
+  <conditionalFormatting sqref="M11:M12">
+    <cfRule type="expression" dxfId="91" priority="66">
+      <formula>AND($A11="begin group", NOT($B11 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:M12">
-    <cfRule type="expression" dxfId="92" priority="74">
-      <formula>AND($A12="end group", $B12 = "", $C12 = "", $D12 = "", $E12 = "", $F12 = "", $G12 = "", $H12 = "", $I12 = "", $J12 = "", $K12 = "", $L12 = "", $M12 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12:M12">
-    <cfRule type="expression" dxfId="91" priority="75">
-      <formula>AND($A12="end repeat", $B12 = "", $C12 = "", $D12 = "", $E12 = "", $F12 = "", $G12 = "", $H12 = "", $I12 = "", $J12 = "", $K12 = "", $L12 = "", $M12 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10:M11">
-    <cfRule type="expression" dxfId="90" priority="66">
-      <formula>AND($A10="begin group", NOT($B10 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10:M11">
-    <cfRule type="cellIs" dxfId="89" priority="67" operator="equal">
+  <conditionalFormatting sqref="M11:M12">
+    <cfRule type="cellIs" dxfId="90" priority="67" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10:M11">
-    <cfRule type="expression" dxfId="88" priority="68">
-      <formula>AND($A10="begin repeat", NOT($B10 = ""))</formula>
+  <conditionalFormatting sqref="M11:M12">
+    <cfRule type="expression" dxfId="89" priority="68">
+      <formula>AND($A11="begin repeat", NOT($B11 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10:M11">
-    <cfRule type="expression" dxfId="87" priority="69">
-      <formula>AND($A10="end group", $B10 = "", $C10 = "", $D10 = "", $E10 = "", $F10 = "", $G10 = "", $H10 = "", $I10 = "", $J10 = "", $K10 = "", $L10 = "", $M10 = "")</formula>
+  <conditionalFormatting sqref="M11:M12">
+    <cfRule type="expression" dxfId="88" priority="69">
+      <formula>AND($A11="end group", $B11 = "", $C11 = "", $D11 = "", $E11 = "", $F11 = "", $G11 = "", $H11 = "", $I11 = "", $J11 = "", $K11 = "", $L11 = "", $M11 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10:M11">
-    <cfRule type="expression" dxfId="86" priority="70">
-      <formula>AND($A10="end repeat", $B10 = "", $C10 = "", $D10 = "", $E10 = "", $F10 = "", $G10 = "", $H10 = "", $I10 = "", $J10 = "", $K10 = "", $L10 = "", $M10 = "")</formula>
+  <conditionalFormatting sqref="M11:M12">
+    <cfRule type="expression" dxfId="87" priority="70">
+      <formula>AND($A11="end repeat", $B11 = "", $C11 = "", $D11 = "", $E11 = "", $F11 = "", $G11 = "", $H11 = "", $I11 = "", $J11 = "", $K11 = "", $L11 = "", $M11 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="85" priority="59" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="86" priority="59" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="84" priority="60">
+    <cfRule type="expression" dxfId="85" priority="60">
       <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="83" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="61" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="82" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="62" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="81" priority="63">
+    <cfRule type="expression" dxfId="82" priority="63">
       <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="80" priority="64">
+    <cfRule type="expression" dxfId="81" priority="64">
       <formula>AND($A23="end group", $B23 = "", $C23 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="79" priority="65">
+    <cfRule type="expression" dxfId="80" priority="65">
       <formula>AND($A23="end repeat", $B23 = "", $C23 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="78" priority="52">
+    <cfRule type="expression" dxfId="79" priority="52">
       <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="77" priority="53">
+    <cfRule type="expression" dxfId="78" priority="53">
       <formula>AND($A47="end group", $B47 = "", $C47 = "", $E47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $M47 = "", $N47 = "", $O47 = "", $Q47 = "", $R47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="cellIs" dxfId="76" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="54" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="75" priority="55">
+    <cfRule type="expression" dxfId="76" priority="55">
       <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $B47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="74" priority="56">
-      <formula>COUNTIF($B$2:$B$1132,B47)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="73" priority="57">
+    <cfRule type="expression" dxfId="75" priority="57">
       <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="72" priority="58">
+    <cfRule type="expression" dxfId="74" priority="58">
       <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $E47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $M47 = "", $N47 = "", $O47 = "", $Q47 = "", $R47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="71" priority="647">
+    <cfRule type="expression" dxfId="73" priority="647">
       <formula>AND(#REF!="begin group", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="70" priority="650">
+    <cfRule type="expression" dxfId="72" priority="650">
       <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="69" priority="651">
+    <cfRule type="expression" dxfId="71" priority="651">
       <formula>AND(#REF!="begin repeat", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="68" priority="654">
+    <cfRule type="expression" dxfId="70" priority="654">
       <formula>AND(#REF!="end group", $B43 = "", #REF! = "", $E45 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43 C43">
-    <cfRule type="expression" dxfId="67" priority="655">
+    <cfRule type="expression" dxfId="69" priority="655">
       <formula>AND($A43="end group", #REF! = "", $C43 = "", $E44 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "", $O43 = "", $P43 = "", $Q43 = "", $S43 = "", $T43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="66" priority="657">
+    <cfRule type="expression" dxfId="68" priority="657">
       <formula>AND(#REF!="end repeat", $B43 = "", #REF! = "", $E45 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43 C43">
-    <cfRule type="expression" dxfId="65" priority="658">
+    <cfRule type="expression" dxfId="67" priority="658">
       <formula>AND($A43="end repeat", #REF! = "", $C43 = "", $E44 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "", $O43 = "", $P43 = "", $Q43 = "", $S43 = "", $T43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42 C42">
-    <cfRule type="expression" dxfId="64" priority="660">
+    <cfRule type="expression" dxfId="66" priority="660">
       <formula>AND($A42="begin group", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42 C42">
-    <cfRule type="expression" dxfId="63" priority="662">
+    <cfRule type="expression" dxfId="65" priority="662">
       <formula>AND($A42="end group", $B47 = "", $C42 = "", $E42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "", $O42 = "", $P42 = "", $Q42 = "", $S42 = "", $T42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42 C42">
-    <cfRule type="expression" dxfId="62" priority="664">
+    <cfRule type="expression" dxfId="64" priority="664">
       <formula>AND($A42="begin repeat", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42 C42">
-    <cfRule type="expression" dxfId="61" priority="666">
+    <cfRule type="expression" dxfId="63" priority="666">
       <formula>AND($A42="end repeat", $B47 = "", $C42 = "", $E42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "", $O42 = "", $P42 = "", $Q42 = "", $S42 = "", $T42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47 A47">
-    <cfRule type="expression" dxfId="60" priority="668">
+    <cfRule type="expression" dxfId="62" priority="668">
       <formula>AND($A47="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47 A47">
-    <cfRule type="expression" dxfId="59" priority="670">
+    <cfRule type="expression" dxfId="61" priority="670">
       <formula>AND($A47="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="58" priority="672">
+    <cfRule type="expression" dxfId="60" priority="672">
       <formula>AND($A47="end group", $B42 = "", $C47 = "", #REF! = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "", $O47 = "", $P47 = "", $Q47 = "", $S47 = "", $T47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47 A47">
-    <cfRule type="expression" dxfId="57" priority="673">
+    <cfRule type="expression" dxfId="59" priority="673">
       <formula>AND($A47="end repeat", $B42 = "", $C47 = "", #REF! = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "", $O47 = "", $P47 = "", $Q47 = "", $S47 = "", $T47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="56" priority="674">
+    <cfRule type="expression" dxfId="58" priority="674">
       <formula>AND($A47="end group", $B42 = "", $C47 = "", #REF! = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "", $O47 = "", $P47 = "", $Q47 = "", $S47 = "", $T47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B16 B22:B23">
-    <cfRule type="expression" dxfId="55" priority="681">
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="57" priority="686">
+      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E42 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $M54 = "", $N54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="56" priority="687">
+      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E42 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $M54 = "", $N54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="containsText" dxfId="55" priority="40" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A60))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:M60">
+    <cfRule type="expression" dxfId="54" priority="41">
+      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:M60">
+    <cfRule type="cellIs" dxfId="53" priority="42" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="52" priority="43">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" dxfId="51" priority="44">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="cellIs" dxfId="50" priority="45" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="expression" dxfId="49" priority="47">
+      <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:M60">
+    <cfRule type="expression" dxfId="48" priority="48">
+      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="expression" dxfId="47" priority="49">
+      <formula>AND($I60 = "", $A60 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:M60">
+    <cfRule type="expression" dxfId="46" priority="50">
+      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:M60">
+    <cfRule type="expression" dxfId="45" priority="51">
+      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="containsText" dxfId="44" priority="30" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A63))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:C63">
+    <cfRule type="expression" dxfId="43" priority="31">
+      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:C63">
+    <cfRule type="cellIs" dxfId="42" priority="32" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="41" priority="33">
+      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $C63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="40" priority="34">
+      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $B63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="cellIs" dxfId="39" priority="35" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:B70">
+    <cfRule type="expression" dxfId="38" priority="36">
+      <formula>COUNTIF($B$2:$B$1123,B63)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:C63">
+    <cfRule type="expression" dxfId="37" priority="37">
+      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:C63">
+    <cfRule type="expression" dxfId="36" priority="38">
+      <formula>AND($A63="end group", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:C63">
+    <cfRule type="expression" dxfId="35" priority="39">
+      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67:L69">
+    <cfRule type="expression" dxfId="34" priority="24">
+      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67:L69">
+    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67:L69">
+    <cfRule type="expression" dxfId="32" priority="26">
+      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67:L69">
+    <cfRule type="expression" dxfId="31" priority="28">
+      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67:L69">
+    <cfRule type="expression" dxfId="30" priority="29">
+      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="expression" dxfId="29" priority="18">
+      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="expression" dxfId="27" priority="20">
+      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $C71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="expression" dxfId="26" priority="21">
+      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="expression" dxfId="25" priority="22">
+      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="expression" dxfId="24" priority="23">
+      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A21">
+    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:D21">
+    <cfRule type="expression" dxfId="22" priority="9">
+      <formula>AND($A17="begin group", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:D21">
+    <cfRule type="expression" dxfId="21" priority="10">
+      <formula>AND($A17="end group", $B17 = "", $C17 = "", $E17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $M17 = "", $N17 = "", $O17 = "", $Q17 = "", $R17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:D21">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:D21">
+    <cfRule type="expression" dxfId="19" priority="12">
+      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $C17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B21">
+    <cfRule type="expression" dxfId="18" priority="13">
+      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $B17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A21">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:D21">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>AND($A17="begin repeat", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:D21">
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>AND($A17="end repeat", $B17 = "", $C17 = "", $E17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $M17 = "", $N17 = "", $O17 = "", $Q17 = "", $R17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="expression" dxfId="13" priority="2">
+      <formula>AND($A22="begin group", NOT($B22 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="expression" dxfId="12" priority="3">
+      <formula>AND($A22="end group", $B22 = "", $C22 = "", $E22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $M22 = "", $N22 = "", $O22 = "", $Q22 = "", $R22 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>AND($A22="begin repeat", NOT($B22 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>AND($A22="end repeat", $B22 = "", $C22 = "", $E22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $M22 = "", $N22 = "", $O22 = "", $Q22 = "", $R22 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24 B57 B60">
+    <cfRule type="expression" dxfId="7" priority="696">
+      <formula>COUNTIF($B$2:$B$1131,B24)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55 B43:B46 B53 B58:B59">
+    <cfRule type="expression" dxfId="6" priority="697">
+      <formula>COUNTIF($B$25:$B$1138,B43)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:B52">
+    <cfRule type="expression" dxfId="5" priority="704">
+      <formula>COUNTIF($B$2:$B$1015,B48)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:B23 B9:B16">
+    <cfRule type="expression" dxfId="4" priority="707">
       <formula>COUNTIF($B$2:$B$1028,B9)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B8">
-    <cfRule type="expression" dxfId="54" priority="682">
-      <formula>COUNTIF($B$2:$B$1130,B2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B32:B34">
-    <cfRule type="expression" dxfId="53" priority="683">
+    <cfRule type="expression" dxfId="3" priority="709">
       <formula>COUNTIF($B$2:$B$1022,B32)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B39 B42">
-    <cfRule type="expression" dxfId="52" priority="684">
+    <cfRule type="expression" dxfId="2" priority="710">
       <formula>COUNTIF($B$2:$B$1019,B37)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="51" priority="686">
-      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E42 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $M54 = "", $N54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="50" priority="687">
-      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E42 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $M54 = "", $N54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="containsText" dxfId="49" priority="40" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A60))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:M60">
-    <cfRule type="expression" dxfId="48" priority="41">
-      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:M60">
-    <cfRule type="cellIs" dxfId="47" priority="42" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="46" priority="43">
-      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="45" priority="44">
-      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="43" priority="46">
-      <formula>COUNTIF($B$2:$B$1131,B60)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="expression" dxfId="42" priority="47">
-      <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:M60">
-    <cfRule type="expression" dxfId="41" priority="48">
-      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
-    <cfRule type="expression" dxfId="40" priority="49">
-      <formula>AND($I60 = "", $A60 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:M60">
-    <cfRule type="expression" dxfId="39" priority="50">
-      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:M60">
-    <cfRule type="expression" dxfId="38" priority="51">
-      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A70">
-    <cfRule type="containsText" dxfId="37" priority="30" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A63))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:C70">
-    <cfRule type="expression" dxfId="36" priority="31">
-      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:C70">
-    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63:C70">
-    <cfRule type="expression" dxfId="34" priority="33">
-      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $C63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B70">
-    <cfRule type="expression" dxfId="33" priority="34">
-      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $B63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A70">
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B70">
-    <cfRule type="expression" dxfId="31" priority="36">
-      <formula>COUNTIF($B$2:$B$1123,B63)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:C70">
-    <cfRule type="expression" dxfId="30" priority="37">
-      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:C70">
-    <cfRule type="expression" dxfId="29" priority="38">
-      <formula>AND($A63="end group", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:C70">
-    <cfRule type="expression" dxfId="28" priority="39">
-      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67:L69">
-    <cfRule type="expression" dxfId="27" priority="24">
-      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67:L69">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67:L69">
-    <cfRule type="expression" dxfId="25" priority="26">
-      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67:L69">
-    <cfRule type="expression" dxfId="24" priority="28">
-      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67:L69">
-    <cfRule type="expression" dxfId="23" priority="29">
-      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="22" priority="18">
-      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $C71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="18" priority="22">
-      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="17" priority="23">
-      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A21">
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:D21">
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>AND($A17="begin group", NOT($B17 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:D21">
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>AND($A17="end group", $B17 = "", $C17 = "", $E17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $M17 = "", $N17 = "", $O17 = "", $Q17 = "", $R17 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:D21">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:D21">
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $C17 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B17:B21">
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $B17 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A21">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B21">
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="1" priority="713">
       <formula>COUNTIF($B$2:$B$1118,B17)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:D21">
-    <cfRule type="expression" dxfId="8" priority="16">
-      <formula>AND($A17="begin repeat", NOT($B17 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:D21">
-    <cfRule type="expression" dxfId="7" priority="17">
-      <formula>AND($A17="end repeat", $B17 = "", $C17 = "", $E17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $M17 = "", $N17 = "", $O17 = "", $Q17 = "", $R17 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>AND($A22="begin group", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>AND($A22="end group", $B22 = "", $C22 = "", $E22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $M22 = "", $N22 = "", $O22 = "", $Q22 = "", $R22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula>AND($A22="begin repeat", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>AND($A22="end repeat", $B22 = "", $C22 = "", $E22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $M22 = "", $N22 = "", $O22 = "", $Q22 = "", $R22 = "")</formula>
+  <conditionalFormatting sqref="B2:B8">
+    <cfRule type="expression" dxfId="0" priority="714">
+      <formula>COUNTIF($B$2:$B$1130,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D60 D9:D16 D22:D23">
+    <dataValidation type="list" allowBlank="1" sqref="D60 D22:D23 D9:D12 D13:D16">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -35542,7 +35428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -35595,7 +35481,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-07 23-19</v>
+        <v>2022-11-08 0-13</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="169">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>register_house_member</t>
-  </si>
-  <si>
-    <t>house_member</t>
   </si>
   <si>
     <t>Create House Hold</t>
@@ -248,12 +245,6 @@
   </si>
   <si>
     <t>Family Members</t>
-  </si>
-  <si>
-    <t>select_one house_member</t>
-  </si>
-  <si>
-    <t>selected(../house_member, 'yes')</t>
   </si>
   <si>
     <t>begin_repeat</t>
@@ -471,11 +462,21 @@
     <t>selected(../knows_dob, 'no')</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(../repeat-relevant/house_member, 'yes') </t>
+    <t>contact:household:create</t>
+  </si>
+  <si>
+    <t>geolocation</t>
+  </si>
+  <si>
+    <t>concat(../../inputs/meta/location/lat, concat(' ', ../../inputs/meta/location/long))</t>
   </si>
   <si>
     <t>&lt;span style="color:#888;font-size:11px;"&gt;**Add another person by pressing the + button.** 
 Remove this person by pressing the - button&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:#888;font-size:11px;"&gt;**Wonjezerani munthu wina potsindikiza batani ili +.** 
+Chotsani munthu uyu potsindikiza batani ili - &lt;/span&gt;</t>
   </si>
   <si>
     <t>household</t>
@@ -484,32 +485,65 @@
     <t>Add Household</t>
   </si>
   <si>
-    <t>geolocation</t>
+    <t>Kuonjezera banja</t>
+  </si>
+  <si>
+    <t>Posayenera kulumphidwa</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>concat('Banja la ',../../contact/name)</t>
   </si>
   <si>
     <t>Location</t>
   </si>
   <si>
-    <t>concat(../../inputs/meta/location/lat, concat(' ', ../../inputs/meta/location/long))</t>
-  </si>
-  <si>
     <t>"NEW"</t>
   </si>
   <si>
-    <t>selected(../../contact/name)</t>
+    <t>selected(../child, 'yes')</t>
   </si>
   <si>
-    <t>hm_gender</t>
+    <t xml:space="preserve">selected(/data/repeat-relevant/child, 'yes') </t>
   </si>
   <si>
-    <t>contact:household:create</t>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>person_age_years</t>
+  </si>
+  <si>
+    <t>if(../dob_calendar != '',floor( difference-in-months( ../dob_iso, today() ) div 12 ),../age_years)</t>
+  </si>
+  <si>
+    <t>c_person_age_in_years</t>
+  </si>
+  <si>
+    <t>../person_age_years</t>
+  </si>
+  <si>
+    <t>primary_phone_number</t>
+  </si>
+  <si>
+    <t>Primary phone number</t>
+  </si>
+  <si>
+    <t>secondary_phone_number</t>
+  </si>
+  <si>
+    <t>Secondary phone number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -668,12 +702,12 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FFCCCCCC"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFCCCCCC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -681,8 +715,23 @@
       <color rgb="FFC27BA0"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFB7B7B7"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -811,30 +860,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFEFEFEF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
@@ -842,7 +867,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -891,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -992,53 +1017,41 @@
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="262">
+  <dxfs count="246">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1100,83 +1113,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1285,28 +1221,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF9900"/>
@@ -1316,34 +1230,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1366,69 +1258,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9D2E9"/>
           <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1505,28 +1334,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF980000"/>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF76A5AF"/>
       </font>
       <fill>
@@ -1573,12 +1380,34 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
           <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1601,6 +1430,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9EAD3"/>
           <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1800,6 +1637,437 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFC27BA0"/>
       </font>
@@ -1864,133 +2132,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
           <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2502,14 +2649,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFC27BA0"/>
       </font>
@@ -2689,61 +2828,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFF2CC"/>
           <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2760,12 +2850,34 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF76A5AF"/>
+        <color rgb="FFB7B7B7"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2804,39 +2916,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFF2CC"/>
           <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2848,110 +2933,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
           <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3348,86 +3329,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
           <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3450,28 +3357,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
           <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3658,50 +3543,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFF2CC"/>
           <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3713,28 +3560,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
           <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4045,13 +3870,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1050"/>
+  <dimension ref="A1:AE1052"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
+      <selection pane="bottomRight" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4079,37 +3904,37 @@
         <v>24</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="F1" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>89</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -4126,13 +3951,13 @@
     </row>
     <row r="2" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A2" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -4160,13 +3985,13 @@
     </row>
     <row r="3" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A3" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -4194,13 +4019,13 @@
     </row>
     <row r="4" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A4" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -4228,13 +4053,13 @@
     </row>
     <row r="5" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A5" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="10"/>
@@ -4262,13 +4087,13 @@
     </row>
     <row r="6" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A6" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -4296,7 +4121,7 @@
     </row>
     <row r="7" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A7" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -4326,7 +4151,7 @@
     </row>
     <row r="8" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A8" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -4356,18 +4181,18 @@
     </row>
     <row r="9" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A9" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -4392,29 +4217,25 @@
     </row>
     <row r="10" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A10" s="41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
-      <c r="F10" s="41" t="s">
-        <v>97</v>
-      </c>
+      <c r="F10" s="41"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="42" t="s">
-        <v>132</v>
-      </c>
+      <c r="L10" s="13"/>
       <c r="M10" s="42" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="1"/>
@@ -4432,13 +4253,13 @@
     </row>
     <row r="11" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A11" s="41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
@@ -4450,7 +4271,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="42" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="1"/>
@@ -4468,25 +4289,29 @@
     </row>
     <row r="12" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A12" s="41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
-      <c r="F12" s="41"/>
+      <c r="F12" s="41" t="s">
+        <v>94</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="L12" s="42" t="s">
+        <v>129</v>
+      </c>
       <c r="M12" s="42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="1"/>
@@ -4504,13 +4329,13 @@
     </row>
     <row r="13" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A13" s="41" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>2</v>
@@ -4521,7 +4346,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -4542,7 +4367,7 @@
     </row>
     <row r="14" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A14" s="41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>27</v>
@@ -4557,7 +4382,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -4578,13 +4403,13 @@
     </row>
     <row r="15" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A15" s="41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
@@ -4593,7 +4418,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -4614,13 +4439,13 @@
     </row>
     <row r="16" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A16" s="41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
@@ -4629,7 +4454,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -4649,16 +4474,12 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A17" s="61" t="s">
-        <v>48</v>
+      <c r="A17" s="41" t="s">
+        <v>51</v>
       </c>
-      <c r="B17" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="62"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="10"/>
@@ -4683,18 +4504,12 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A18" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -4717,21 +4532,21 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A19" s="63" t="s">
-        <v>97</v>
+      <c r="A19" s="16" t="s">
+        <v>47</v>
       </c>
-      <c r="B19" s="64" t="s">
-        <v>82</v>
+      <c r="B19" s="16" t="s">
+        <v>107</v>
       </c>
-      <c r="C19" s="64" t="s">
-        <v>94</v>
+      <c r="C19" s="17" t="s">
+        <v>63</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -4750,22 +4565,24 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A20" s="63" t="s">
-        <v>97</v>
+    <row r="20" spans="1:26" ht="13.2">
+      <c r="A20" s="19" t="s">
+        <v>1</v>
       </c>
-      <c r="B20" s="64" t="s">
-        <v>83</v>
+      <c r="B20" s="19" t="s">
+        <v>108</v>
       </c>
-      <c r="C20" s="64" t="s">
-        <v>94</v>
+      <c r="C20" s="20" t="s">
+        <v>0</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="D20" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -4784,76 +4601,98 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" s="55" customFormat="1" ht="13.2">
-      <c r="A21" s="66"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-    </row>
-    <row r="22" spans="1:26" s="55" customFormat="1" ht="13.2">
-      <c r="A22" s="65" t="s">
-        <v>52</v>
+    <row r="21" spans="1:26" ht="13.2">
+      <c r="A21" s="19" t="s">
+        <v>37</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-    </row>
-    <row r="23" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A23" s="41" t="s">
-        <v>52</v>
+      <c r="B21" s="19" t="s">
+        <v>140</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
+      <c r="C21" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="1:26" ht="13.2">
+      <c r="A22" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="1:26" ht="19.2" customHeight="1">
+      <c r="A23" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="21"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
@@ -4872,94 +4711,58 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A24" s="16" t="s">
-        <v>48</v>
+    <row r="24" spans="1:26" s="24" customFormat="1" ht="19.2" customHeight="1">
+      <c r="A24" s="24" t="s">
+        <v>77</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>64</v>
+      <c r="C24" s="24" t="s">
+        <v>4</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="1:26" ht="13.2">
-      <c r="A25" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="19" t="s">
+      <c r="J24" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>0</v>
+    </row>
+    <row r="25" spans="1:26" s="24" customFormat="1" ht="19.2" customHeight="1">
+      <c r="A25" s="24" t="s">
+        <v>77</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="B25" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="13.2">
+      <c r="A26" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="1:26" ht="13.2">
-      <c r="A26" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="19" t="s">
+      <c r="E26" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>3</v>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="21" t="s">
+        <v>43</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>2</v>
+      <c r="I26" s="21" t="s">
+        <v>41</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="21"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
@@ -4978,25 +4781,25 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="13.2">
-      <c r="A27" s="19" t="s">
-        <v>67</v>
+    <row r="27" spans="1:26" s="2" customFormat="1" ht="13.2">
+      <c r="A27" s="44" t="s">
+        <v>77</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>55</v>
+      <c r="B27" s="42" t="s">
+        <v>115</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>141</v>
+      <c r="C27" s="42" t="s">
+        <v>91</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>2</v>
+      <c r="D27" s="19"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="13" t="s">
+        <v>113</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
@@ -5014,27 +4817,25 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="19.2" customHeight="1">
-      <c r="A28" s="24" t="s">
-        <v>5</v>
+    <row r="28" spans="1:26" s="2" customFormat="1" ht="13.2">
+      <c r="A28" s="44" t="s">
+        <v>77</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>32</v>
+      <c r="B28" s="42" t="s">
+        <v>116</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>4</v>
+      <c r="C28" s="42" t="s">
+        <v>91</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>145</v>
-      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="23"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="21"/>
-      <c r="J28" s="13"/>
+      <c r="J28" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
@@ -5052,58 +4853,94 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" s="24" customFormat="1" ht="19.2" customHeight="1">
-      <c r="A29" s="24" t="s">
-        <v>80</v>
+    <row r="29" spans="1:26" s="2" customFormat="1" ht="13.2">
+      <c r="A29" s="45" t="s">
+        <v>11</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>113</v>
+      <c r="B29" s="42" t="s">
+        <v>117</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>4</v>
+      <c r="C29" s="42" t="s">
+        <v>137</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>114</v>
+      <c r="D29" s="19"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="1:26" ht="13.2">
+      <c r="A30" s="19" t="s">
+        <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" s="24" customFormat="1" ht="19.2" customHeight="1">
-      <c r="A30" s="24" t="s">
-        <v>80</v>
+      <c r="B30" s="19" t="s">
+        <v>33</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>112</v>
+      <c r="C30" s="19" t="s">
+        <v>8</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>94</v>
+      <c r="D30" s="19" t="s">
+        <v>2</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>115</v>
-      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="13.2">
       <c r="A31" s="19" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>42</v>
-      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
@@ -5123,23 +4960,23 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A32" s="44" t="s">
-        <v>80</v>
+      <c r="A32" s="43" t="s">
+        <v>77</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="42" t="s">
-        <v>94</v>
+      <c r="C32" s="43" t="s">
+        <v>91</v>
       </c>
       <c r="D32" s="19"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -5159,23 +4996,23 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A33" s="44" t="s">
-        <v>80</v>
+      <c r="A33" s="43" t="s">
+        <v>77</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="42" t="s">
-        <v>94</v>
+      <c r="C33" s="43" t="s">
+        <v>120</v>
       </c>
       <c r="D33" s="19"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="13" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -5195,22 +5032,24 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A34" s="45" t="s">
-        <v>11</v>
+      <c r="A34" s="43" t="s">
+        <v>77</v>
       </c>
-      <c r="B34" s="42" t="s">
-        <v>120</v>
+      <c r="B34" s="43" t="s">
+        <v>121</v>
       </c>
-      <c r="C34" s="42" t="s">
-        <v>140</v>
+      <c r="C34" s="43" t="s">
+        <v>122</v>
       </c>
       <c r="D34" s="19"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
-      <c r="J34" s="13"/>
+      <c r="J34" s="13" t="s">
+        <v>125</v>
+      </c>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
@@ -5228,22 +5067,16 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="13.2">
+    <row r="35" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A35" s="19" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="13"/>
@@ -5264,19 +5097,11 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="13.2">
-      <c r="A36" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>9</v>
-      </c>
+    <row r="36" spans="1:26" s="2" customFormat="1" ht="13.2">
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
@@ -5300,187 +5125,192 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A37" s="43" t="s">
-        <v>80</v>
+    <row r="37" spans="1:26" s="8" customFormat="1" ht="13.2">
+      <c r="A37" s="26" t="s">
+        <v>47</v>
       </c>
-      <c r="B37" s="43" t="s">
-        <v>121</v>
+      <c r="B37" s="47" t="s">
+        <v>48</v>
       </c>
-      <c r="C37" s="43" t="s">
-        <v>94</v>
+      <c r="C37" s="26" t="s">
+        <v>49</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="13" t="s">
-        <v>126</v>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="31" t="s">
+        <v>70</v>
       </c>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-    </row>
-    <row r="38" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A38" s="43" t="s">
-        <v>80</v>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+    </row>
+    <row r="38" spans="1:26" s="8" customFormat="1" ht="13.2">
+      <c r="A38" s="30" t="s">
+        <v>159</v>
       </c>
-      <c r="B38" s="43" t="s">
-        <v>122</v>
+      <c r="B38" s="30" t="s">
+        <v>136</v>
       </c>
-      <c r="C38" s="43" t="s">
-        <v>123</v>
+      <c r="C38" s="30" t="s">
+        <v>139</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="13" t="s">
-        <v>127</v>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+    </row>
+    <row r="39" spans="1:26" s="8" customFormat="1" ht="13.2">
+      <c r="A39" s="12" t="s">
+        <v>11</v>
       </c>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-    </row>
-    <row r="39" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A39" s="43" t="s">
-        <v>80</v>
+      <c r="B39" s="12" t="s">
+        <v>64</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>124</v>
+      <c r="C39" s="12" t="s">
+        <v>50</v>
       </c>
-      <c r="C39" s="43" t="s">
-        <v>125</v>
+      <c r="D39" s="27"/>
+      <c r="E39" s="31" t="s">
+        <v>157</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="13" t="s">
-        <v>128</v>
+      <c r="G39" s="31"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+    </row>
+    <row r="40" spans="1:26" s="8" customFormat="1" ht="13.2">
+      <c r="A40" s="30" t="s">
+        <v>51</v>
       </c>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-    </row>
-    <row r="40" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A40" s="19" t="s">
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+    </row>
+    <row r="41" spans="1:26" s="8" customFormat="1" ht="13.2">
+      <c r="A41" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-    </row>
-    <row r="41" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
+      <c r="C41" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
     </row>
     <row r="42" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A42" s="26" t="s">
-        <v>48</v>
+      <c r="A42" s="32" t="s">
+        <v>74</v>
       </c>
-      <c r="B42" s="47" t="s">
-        <v>49</v>
+      <c r="B42" s="48" t="s">
+        <v>136</v>
       </c>
-      <c r="C42" s="26" t="s">
-        <v>50</v>
+      <c r="C42" s="30" t="s">
+        <v>73</v>
       </c>
-      <c r="D42" s="27"/>
+      <c r="D42" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="E42" s="27"/>
-      <c r="F42" s="31" t="s">
-        <v>71</v>
-      </c>
+      <c r="F42" s="27"/>
       <c r="G42" s="27"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
@@ -5503,25 +5333,31 @@
       <c r="Z42" s="9"/>
     </row>
     <row r="43" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A43" s="30" t="s">
-        <v>75</v>
+      <c r="A43" s="46" t="s">
+        <v>94</v>
       </c>
-      <c r="B43" s="30" t="s">
-        <v>36</v>
+      <c r="B43" s="46" t="s">
+        <v>21</v>
       </c>
-      <c r="C43" s="30" t="s">
-        <v>142</v>
+      <c r="C43" s="46" t="s">
+        <v>126</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
+      <c r="F43" s="46" t="s">
+        <v>94</v>
+      </c>
       <c r="G43" s="27"/>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
+      <c r="L43" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="M43" s="46" t="s">
+        <v>93</v>
+      </c>
       <c r="N43" s="29"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
@@ -5537,26 +5373,31 @@
       <c r="Z43" s="9"/>
     </row>
     <row r="44" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A44" s="12" t="s">
-        <v>11</v>
+      <c r="A44" s="46" t="s">
+        <v>94</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>65</v>
+      <c r="B44" s="46" t="s">
+        <v>96</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>51</v>
+      <c r="C44" s="46" t="s">
+        <v>97</v>
       </c>
       <c r="D44" s="27"/>
-      <c r="E44" s="31" t="s">
-        <v>76</v>
+      <c r="E44" s="27"/>
+      <c r="F44" s="46" t="s">
+        <v>94</v>
       </c>
-      <c r="G44" s="31"/>
+      <c r="G44" s="27"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
+      <c r="L44" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="M44" s="46" t="s">
+        <v>130</v>
+      </c>
       <c r="N44" s="29"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
@@ -5572,21 +5413,31 @@
       <c r="Z44" s="9"/>
     </row>
     <row r="45" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A45" s="30" t="s">
-        <v>52</v>
+      <c r="A45" s="46" t="s">
+        <v>94</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
+      <c r="B45" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>99</v>
+      </c>
       <c r="D45" s="27"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="42" t="s">
+        <v>94</v>
+      </c>
       <c r="G45" s="27"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
+      <c r="L45" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="M45" s="42" t="s">
+        <v>131</v>
+      </c>
       <c r="N45" s="29"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
@@ -5602,19 +5453,19 @@
       <c r="Z45" s="9"/>
     </row>
     <row r="46" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A46" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="30" t="s">
+      <c r="A46" s="46" t="s">
         <v>53</v>
       </c>
+      <c r="B46" s="46" t="s">
+        <v>22</v>
+      </c>
       <c r="C46" s="30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="31" t="s">
-        <v>147</v>
+      <c r="D46" s="27" t="s">
+        <v>2</v>
       </c>
+      <c r="E46" s="27"/>
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
       <c r="H46" s="28"/>
@@ -5638,24 +5489,24 @@
       <c r="Z46" s="9"/>
     </row>
     <row r="47" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="48" t="s">
-        <v>139</v>
+      <c r="B47" s="46" t="s">
+        <v>127</v>
       </c>
-      <c r="C47" s="30" t="s">
-        <v>74</v>
+      <c r="C47" s="46" t="s">
+        <v>91</v>
       </c>
-      <c r="D47" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="D47" s="27"/>
       <c r="E47" s="27"/>
       <c r="F47" s="27"/>
       <c r="G47" s="27"/>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
-      <c r="J47" s="29"/>
+      <c r="J47" s="29" t="s">
+        <v>128</v>
+      </c>
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
@@ -5674,31 +5525,25 @@
       <c r="Z47" s="9"/>
     </row>
     <row r="48" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A48" s="46" t="s">
-        <v>97</v>
+      <c r="A48" s="30" t="s">
+        <v>37</v>
       </c>
-      <c r="B48" s="46" t="s">
-        <v>21</v>
+      <c r="B48" s="30" t="s">
+        <v>27</v>
       </c>
-      <c r="C48" s="46" t="s">
-        <v>129</v>
+      <c r="C48" s="30" t="s">
+        <v>3</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
-      <c r="F48" s="46" t="s">
-        <v>97</v>
-      </c>
+      <c r="F48" s="27"/>
       <c r="G48" s="27"/>
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
       <c r="J48" s="29"/>
       <c r="K48" s="29"/>
-      <c r="L48" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="M48" s="46" t="s">
-        <v>96</v>
-      </c>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
       <c r="N48" s="29"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
@@ -5713,389 +5558,405 @@
       <c r="Y48" s="9"/>
       <c r="Z48" s="9"/>
     </row>
-    <row r="49" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A49" s="46" t="s">
-        <v>97</v>
+    <row r="49" spans="1:31" s="8" customFormat="1" ht="13.2">
+      <c r="A49" s="30" t="s">
+        <v>66</v>
       </c>
-      <c r="B49" s="46" t="s">
-        <v>99</v>
+      <c r="B49" s="30" t="s">
+        <v>54</v>
       </c>
-      <c r="C49" s="46" t="s">
-        <v>100</v>
+      <c r="C49" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="46" t="s">
-        <v>97</v>
-      </c>
+      <c r="E49" s="42"/>
+      <c r="F49" s="27"/>
       <c r="G49" s="27"/>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="46" t="s">
-        <v>132</v>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+    </row>
+    <row r="50" spans="1:31" s="8" customFormat="1" ht="13.2">
+      <c r="A50" s="30" t="s">
+        <v>5</v>
       </c>
-      <c r="M49" s="46" t="s">
-        <v>149</v>
+      <c r="B50" s="30" t="s">
+        <v>32</v>
       </c>
-      <c r="N49" s="29"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-    </row>
-    <row r="50" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A50" s="46" t="s">
-        <v>97</v>
+      <c r="C50" s="30" t="s">
+        <v>4</v>
       </c>
-      <c r="B50" s="48" t="s">
-        <v>101</v>
+      <c r="D50" s="27" t="s">
+        <v>2</v>
       </c>
-      <c r="C50" s="42" t="s">
-        <v>102</v>
+      <c r="E50" s="25" t="s">
+        <v>71</v>
       </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="G50" s="27"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="42" t="s">
-        <v>132</v>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+    </row>
+    <row r="51" spans="1:31" s="8" customFormat="1" ht="13.2">
+      <c r="A51" s="41" t="s">
+        <v>77</v>
       </c>
-      <c r="M50" s="42" t="s">
+      <c r="B51" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="27"/>
+      <c r="E51" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+    </row>
+    <row r="52" spans="1:31" s="8" customFormat="1" ht="13.2">
+      <c r="A52" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="N50" s="29"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-    </row>
-    <row r="51" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A51" s="46" t="s">
-        <v>54</v>
+      <c r="D52" s="27"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+    </row>
+    <row r="53" spans="1:31" s="8" customFormat="1" ht="13.2">
+      <c r="A53" s="30" t="s">
+        <v>7</v>
       </c>
-      <c r="B51" s="46" t="s">
-        <v>22</v>
+      <c r="B53" s="30" t="s">
+        <v>67</v>
       </c>
-      <c r="C51" s="30" t="s">
-        <v>69</v>
+      <c r="C53" s="30" t="s">
+        <v>55</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D53" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-    </row>
-    <row r="52" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A52" s="46" t="s">
-        <v>80</v>
+      <c r="E53" s="25" t="s">
+        <v>72</v>
       </c>
-      <c r="B52" s="46" t="s">
-        <v>130</v>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+    </row>
+    <row r="54" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A54" s="56" t="s">
+        <v>77</v>
       </c>
-      <c r="C52" s="46" t="s">
+      <c r="B54" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="56"/>
+      <c r="T54" s="56"/>
+      <c r="U54" s="56"/>
+      <c r="V54" s="56"/>
+      <c r="W54" s="56"/>
+      <c r="X54" s="56"/>
+      <c r="Y54" s="56"/>
+      <c r="Z54" s="56"/>
+      <c r="AA54" s="56"/>
+      <c r="AB54" s="56"/>
+      <c r="AC54" s="56"/>
+      <c r="AD54" s="56"/>
+      <c r="AE54" s="56"/>
+    </row>
+    <row r="55" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A55" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="52"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="54"/>
+      <c r="S55" s="54"/>
+      <c r="T55" s="54"/>
+      <c r="U55" s="54"/>
+      <c r="V55" s="54"/>
+      <c r="W55" s="54"/>
+      <c r="X55" s="54"/>
+      <c r="Y55" s="54"/>
+      <c r="Z55" s="54"/>
+      <c r="AA55" s="54"/>
+      <c r="AB55" s="54"/>
+      <c r="AC55" s="54"/>
+      <c r="AD55" s="54"/>
+      <c r="AE55" s="54"/>
+    </row>
+    <row r="56" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A56" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="52"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="54"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="54"/>
+      <c r="Q56" s="54"/>
+      <c r="R56" s="54"/>
+      <c r="S56" s="54"/>
+      <c r="T56" s="54"/>
+      <c r="U56" s="54"/>
+      <c r="V56" s="54"/>
+      <c r="W56" s="54"/>
+      <c r="X56" s="54"/>
+      <c r="Y56" s="54"/>
+      <c r="Z56" s="54"/>
+      <c r="AA56" s="54"/>
+      <c r="AB56" s="54"/>
+      <c r="AC56" s="54"/>
+      <c r="AD56" s="54"/>
+      <c r="AE56" s="54"/>
+    </row>
+    <row r="57" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A57" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="52"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="54"/>
+      <c r="Q57" s="54"/>
+      <c r="R57" s="54"/>
+      <c r="S57" s="54"/>
+      <c r="T57" s="54"/>
+      <c r="U57" s="54"/>
+      <c r="V57" s="54"/>
+      <c r="W57" s="54"/>
+      <c r="X57" s="54"/>
+      <c r="Y57" s="54"/>
+      <c r="Z57" s="54"/>
+      <c r="AA57" s="54"/>
+      <c r="AB57" s="54"/>
+      <c r="AC57" s="54"/>
+      <c r="AD57" s="54"/>
+      <c r="AE57" s="54"/>
+    </row>
+    <row r="58" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A58" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="51"/>
+      <c r="O58" s="51"/>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="51"/>
+      <c r="R58" s="51"/>
+      <c r="S58" s="51"/>
+      <c r="T58" s="51"/>
+      <c r="U58" s="51"/>
+      <c r="V58" s="51"/>
+      <c r="W58" s="51"/>
+      <c r="X58" s="51"/>
+      <c r="Y58" s="51"/>
+      <c r="Z58" s="51"/>
+      <c r="AA58" s="51"/>
+      <c r="AB58" s="51"/>
+      <c r="AC58" s="51"/>
+      <c r="AD58" s="51"/>
+      <c r="AE58" s="51"/>
+    </row>
+    <row r="59" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A59" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="29" t="s">
-        <v>131</v>
+      <c r="B59" s="52" t="s">
+        <v>78</v>
       </c>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-    </row>
-    <row r="53" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A53" s="19" t="s">
-        <v>38</v>
+      <c r="C59" s="52" t="s">
+        <v>91</v>
       </c>
-      <c r="B53" s="30" t="s">
-        <v>156</v>
+      <c r="D59" s="52" t="s">
+        <v>91</v>
       </c>
-      <c r="C53" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-    </row>
-    <row r="54" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A54" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-    </row>
-    <row r="55" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A55" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-    </row>
-    <row r="56" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A56" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-    </row>
-    <row r="57" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A57" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-    </row>
-    <row r="58" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A58" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-    </row>
-    <row r="59" spans="1:26" s="60" customFormat="1" ht="13.2">
-      <c r="A59" s="56"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="53"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
       <c r="O59" s="54"/>
       <c r="P59" s="54"/>
       <c r="Q59" s="54"/>
@@ -6108,111 +5969,135 @@
       <c r="X59" s="54"/>
       <c r="Y59" s="54"/>
       <c r="Z59" s="54"/>
-    </row>
-    <row r="60" spans="1:26" s="8" customFormat="1" ht="21">
-      <c r="A60" s="46" t="s">
-        <v>11</v>
+      <c r="AA59" s="54"/>
+      <c r="AB59" s="54"/>
+      <c r="AC59" s="54"/>
+      <c r="AD59" s="54"/>
+      <c r="AE59" s="54"/>
+    </row>
+    <row r="60" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A60" s="53" t="s">
+        <v>94</v>
       </c>
-      <c r="B60" s="46" t="s">
-        <v>11</v>
+      <c r="B60" s="52" t="s">
+        <v>79</v>
       </c>
-      <c r="C60" s="46" t="s">
-        <v>148</v>
+      <c r="C60" s="52" t="s">
+        <v>91</v>
       </c>
-      <c r="D60" s="46"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-    </row>
-    <row r="61" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A61" s="32" t="s">
-        <v>78</v>
+      <c r="D60" s="52" t="s">
+        <v>91</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-    </row>
-    <row r="62" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A62" s="32" t="s">
-        <v>52</v>
+      <c r="E60" s="54"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="54"/>
+      <c r="R60" s="54"/>
+      <c r="S60" s="54"/>
+      <c r="T60" s="54"/>
+      <c r="U60" s="54"/>
+      <c r="V60" s="54"/>
+      <c r="W60" s="54"/>
+      <c r="X60" s="54"/>
+      <c r="Y60" s="54"/>
+      <c r="Z60" s="54"/>
+      <c r="AA60" s="54"/>
+      <c r="AB60" s="54"/>
+      <c r="AC60" s="54"/>
+      <c r="AD60" s="54"/>
+      <c r="AE60" s="54"/>
+    </row>
+    <row r="61" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A61" s="53" t="s">
+        <v>94</v>
       </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-    </row>
-    <row r="63" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A63" s="46" t="s">
-        <v>48</v>
+      <c r="B61" s="52" t="s">
+        <v>80</v>
       </c>
-      <c r="B63" s="46" t="s">
-        <v>149</v>
+      <c r="C61" s="52" t="s">
+        <v>91</v>
       </c>
-      <c r="C63" s="46" t="s">
-        <v>150</v>
+      <c r="D61" s="52" t="s">
+        <v>91</v>
       </c>
+      <c r="E61" s="54"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="54"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="54"/>
+      <c r="V61" s="54"/>
+      <c r="W61" s="54"/>
+      <c r="X61" s="54"/>
+      <c r="Y61" s="54"/>
+      <c r="Z61" s="54"/>
+      <c r="AA61" s="54"/>
+      <c r="AB61" s="54"/>
+      <c r="AC61" s="54"/>
+      <c r="AD61" s="54"/>
+      <c r="AE61" s="54"/>
+    </row>
+    <row r="62" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A62" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="51"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="51"/>
+      <c r="Q62" s="51"/>
+      <c r="R62" s="51"/>
+      <c r="S62" s="51"/>
+      <c r="T62" s="51"/>
+      <c r="U62" s="51"/>
+      <c r="V62" s="51"/>
+      <c r="W62" s="51"/>
+      <c r="X62" s="51"/>
+      <c r="Y62" s="51"/>
+      <c r="Z62" s="51"/>
+      <c r="AA62" s="51"/>
+      <c r="AB62" s="51"/>
+      <c r="AC62" s="51"/>
+      <c r="AD62" s="51"/>
+      <c r="AE62" s="51"/>
+    </row>
+    <row r="63" spans="1:31" s="2" customFormat="1" ht="13.2">
+      <c r="A63" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="33"/>
+      <c r="C63" s="34"/>
       <c r="D63" s="34"/>
       <c r="E63" s="34"/>
       <c r="F63" s="34"/>
@@ -6237,337 +6122,396 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A64" s="46" t="s">
-        <v>97</v>
+    <row r="64" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A64" s="56" t="s">
+        <v>11</v>
       </c>
-      <c r="B64" s="46" t="s">
-        <v>101</v>
+      <c r="B64" s="56" t="s">
+        <v>11</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C64" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" s="56"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="56"/>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="56"/>
+      <c r="R64" s="56"/>
+      <c r="S64" s="56"/>
+      <c r="T64" s="56"/>
+      <c r="U64" s="56"/>
+      <c r="V64" s="56"/>
+      <c r="W64" s="56"/>
+      <c r="X64" s="56"/>
+      <c r="Y64" s="56"/>
+      <c r="Z64" s="56"/>
+      <c r="AA64" s="56"/>
+      <c r="AB64" s="56"/>
+      <c r="AC64" s="56"/>
+      <c r="AD64" s="56"/>
+      <c r="AE64" s="56"/>
+    </row>
+    <row r="65" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A65" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="56"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="56"/>
+      <c r="L65" s="56"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="56"/>
+      <c r="P65" s="56"/>
+      <c r="Q65" s="56"/>
+      <c r="R65" s="56"/>
+      <c r="S65" s="56"/>
+      <c r="T65" s="56"/>
+      <c r="U65" s="56"/>
+      <c r="V65" s="56"/>
+      <c r="W65" s="56"/>
+      <c r="X65" s="56"/>
+      <c r="Y65" s="56"/>
+      <c r="Z65" s="56"/>
+      <c r="AA65" s="56"/>
+      <c r="AB65" s="56"/>
+      <c r="AC65" s="56"/>
+      <c r="AD65" s="56"/>
+      <c r="AE65" s="56"/>
+    </row>
+    <row r="66" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A66" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="56"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="P66" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="56"/>
+      <c r="T66" s="56"/>
+      <c r="U66" s="56"/>
+      <c r="V66" s="56"/>
+      <c r="W66" s="56"/>
+      <c r="X66" s="56"/>
+      <c r="Y66" s="56"/>
+      <c r="Z66" s="56"/>
+      <c r="AA66" s="56"/>
+      <c r="AB66" s="56"/>
+      <c r="AC66" s="56"/>
+      <c r="AD66" s="56"/>
+      <c r="AE66" s="56"/>
+    </row>
+    <row r="67" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A67" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="N64" s="13"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-    </row>
-    <row r="65" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A65" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B65" s="46" t="s">
+      <c r="B67" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="46" t="s">
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="56"/>
+      <c r="Q67" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="R67" s="56"/>
+      <c r="S67" s="56"/>
+      <c r="T67" s="56"/>
+      <c r="U67" s="56"/>
+      <c r="V67" s="56"/>
+      <c r="W67" s="56"/>
+      <c r="X67" s="56"/>
+      <c r="Y67" s="56"/>
+      <c r="Z67" s="56"/>
+      <c r="AA67" s="56"/>
+      <c r="AB67" s="56"/>
+      <c r="AC67" s="56"/>
+      <c r="AD67" s="56"/>
+      <c r="AE67" s="56"/>
+    </row>
+    <row r="68" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A68" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="2" t="s">
+      <c r="B68" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="N65" s="13"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-    </row>
-    <row r="66" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A66" s="46" t="s">
-        <v>97</v>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="56"/>
+      <c r="P68" s="56"/>
+      <c r="Q68" s="57" t="s">
+        <v>149</v>
       </c>
-      <c r="B66" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="C66" s="46" t="s">
+      <c r="R68" s="56"/>
+      <c r="S68" s="56"/>
+      <c r="T68" s="56"/>
+      <c r="U68" s="56"/>
+      <c r="V68" s="56"/>
+      <c r="W68" s="56"/>
+      <c r="X68" s="56"/>
+      <c r="Y68" s="56"/>
+      <c r="Z68" s="56"/>
+      <c r="AA68" s="56"/>
+      <c r="AB68" s="56"/>
+      <c r="AC68" s="56"/>
+      <c r="AD68" s="56"/>
+      <c r="AE68" s="56"/>
+    </row>
+    <row r="69" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A69" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="2" t="s">
-        <v>149</v>
+      <c r="B69" s="57" t="s">
+        <v>98</v>
       </c>
-      <c r="N66" s="13"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-    </row>
-    <row r="67" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A67" s="46" t="s">
-        <v>80</v>
+      <c r="C69" s="57" t="s">
+        <v>91</v>
       </c>
-      <c r="B67" s="46" t="s">
+      <c r="D69" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="57"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="N69" s="56"/>
+      <c r="O69" s="56"/>
+      <c r="P69" s="56"/>
+      <c r="Q69" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="R69" s="56"/>
+      <c r="S69" s="56"/>
+      <c r="T69" s="56"/>
+      <c r="U69" s="56"/>
+      <c r="V69" s="56"/>
+      <c r="W69" s="56"/>
+      <c r="X69" s="56"/>
+      <c r="Y69" s="56"/>
+      <c r="Z69" s="56"/>
+      <c r="AA69" s="56"/>
+      <c r="AB69" s="56"/>
+      <c r="AC69" s="56"/>
+      <c r="AD69" s="56"/>
+      <c r="AE69" s="56"/>
+    </row>
+    <row r="70" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A70" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="46" t="s">
-        <v>94</v>
+      <c r="C70" s="57" t="s">
+        <v>91</v>
       </c>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="13" t="s">
+      <c r="D70" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="57"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="N70" s="56"/>
+      <c r="O70" s="56"/>
+      <c r="P70" s="56"/>
+      <c r="Q70" s="56"/>
+      <c r="R70" s="56"/>
+      <c r="S70" s="56"/>
+      <c r="T70" s="56"/>
+      <c r="U70" s="56"/>
+      <c r="V70" s="56"/>
+      <c r="W70" s="56"/>
+      <c r="X70" s="56"/>
+      <c r="Y70" s="56"/>
+      <c r="Z70" s="56"/>
+      <c r="AA70" s="56"/>
+      <c r="AB70" s="56"/>
+      <c r="AC70" s="56"/>
+      <c r="AD70" s="56"/>
+      <c r="AE70" s="56"/>
+    </row>
+    <row r="71" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A71" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-    </row>
-    <row r="68" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A68" s="46" t="s">
-        <v>80</v>
+      <c r="D71" s="57" t="s">
+        <v>155</v>
       </c>
-      <c r="B68" s="46" t="s">
-        <v>151</v>
+      <c r="E71" s="57"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="56" t="s">
+        <v>146</v>
       </c>
-      <c r="C68" s="46" t="s">
-        <v>152</v>
+      <c r="N71" s="56"/>
+      <c r="O71" s="56"/>
+      <c r="P71" s="56"/>
+      <c r="Q71" s="56"/>
+      <c r="R71" s="56"/>
+      <c r="S71" s="56"/>
+      <c r="T71" s="56"/>
+      <c r="U71" s="56"/>
+      <c r="V71" s="56"/>
+      <c r="W71" s="56"/>
+      <c r="X71" s="56"/>
+      <c r="Y71" s="56"/>
+      <c r="Z71" s="56"/>
+      <c r="AA71" s="56"/>
+      <c r="AB71" s="56"/>
+      <c r="AC71" s="56"/>
+      <c r="AD71" s="56"/>
+      <c r="AE71" s="56"/>
+    </row>
+    <row r="72" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A72" s="57" t="s">
+        <v>77</v>
       </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="13" t="s">
-        <v>153</v>
+      <c r="B72" s="57" t="s">
+        <v>93</v>
       </c>
-      <c r="K68" s="46"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-    </row>
-    <row r="69" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A69" s="46" t="s">
-        <v>80</v>
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="56"/>
+      <c r="L72" s="56"/>
+      <c r="M72" s="56" t="s">
+        <v>156</v>
       </c>
-      <c r="B69" s="46" t="s">
-        <v>96</v>
+      <c r="N72" s="56"/>
+      <c r="O72" s="56" t="s">
+        <v>129</v>
       </c>
-      <c r="C69" s="46" t="s">
-        <v>94</v>
+      <c r="P72" s="56"/>
+      <c r="Q72" s="56"/>
+      <c r="R72" s="56"/>
+      <c r="S72" s="56"/>
+      <c r="T72" s="56"/>
+      <c r="U72" s="56"/>
+      <c r="V72" s="56"/>
+      <c r="W72" s="56"/>
+      <c r="X72" s="56"/>
+      <c r="Y72" s="56"/>
+      <c r="Z72" s="56"/>
+      <c r="AA72" s="56"/>
+      <c r="AB72" s="56"/>
+      <c r="AC72" s="56"/>
+      <c r="AD72" s="56"/>
+      <c r="AE72" s="56"/>
+    </row>
+    <row r="73" spans="1:31" s="2" customFormat="1" ht="13.2">
+      <c r="A73" s="36" t="s">
+        <v>47</v>
       </c>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="13" t="s">
-        <v>154</v>
+      <c r="B73" s="37" t="s">
+        <v>76</v>
       </c>
-      <c r="K69" s="46"/>
-      <c r="L69" s="46" t="s">
-        <v>132</v>
+      <c r="C73" s="43" t="s">
+        <v>91</v>
       </c>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-    </row>
-    <row r="70" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A70" s="46"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-    </row>
-    <row r="71" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A71" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-    </row>
-    <row r="72" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A72" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
-    </row>
-    <row r="73" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A73" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" s="34"/>
       <c r="D73" s="34"/>
       <c r="E73" s="34"/>
       <c r="F73" s="34"/>
       <c r="G73" s="34"/>
       <c r="H73" s="35"/>
       <c r="I73" s="35"/>
-      <c r="J73" s="40" t="s">
-        <v>91</v>
-      </c>
+      <c r="J73" s="13"/>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
       <c r="M73" s="13"/>
@@ -6585,12 +6529,12 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" s="2" customFormat="1" ht="13.2">
+    <row r="74" spans="1:31" s="2" customFormat="1" ht="13.2">
       <c r="A74" s="38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C74" s="34"/>
       <c r="D74" s="34"/>
@@ -6600,7 +6544,7 @@
       <c r="H74" s="35"/>
       <c r="I74" s="35"/>
       <c r="J74" s="40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
@@ -6619,11 +6563,13 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A75" s="40" t="s">
-        <v>52</v>
+    <row r="75" spans="1:31" s="2" customFormat="1" ht="13.2">
+      <c r="A75" s="38" t="s">
+        <v>77</v>
       </c>
-      <c r="B75" s="40"/>
+      <c r="B75" s="39" t="s">
+        <v>79</v>
+      </c>
       <c r="C75" s="34"/>
       <c r="D75" s="34"/>
       <c r="E75" s="34"/>
@@ -6631,7 +6577,9 @@
       <c r="G75" s="34"/>
       <c r="H75" s="35"/>
       <c r="I75" s="35"/>
-      <c r="J75" s="13"/>
+      <c r="J75" s="40" t="s">
+        <v>88</v>
+      </c>
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
       <c r="M75" s="13"/>
@@ -6649,11 +6597,13 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A76" s="32" t="s">
-        <v>52</v>
+    <row r="76" spans="1:31" s="2" customFormat="1" ht="13.2">
+      <c r="A76" s="38" t="s">
+        <v>77</v>
       </c>
-      <c r="B76" s="33"/>
+      <c r="B76" s="39" t="s">
+        <v>80</v>
+      </c>
       <c r="C76" s="34"/>
       <c r="D76" s="34"/>
       <c r="E76" s="34"/>
@@ -6661,7 +6611,9 @@
       <c r="G76" s="34"/>
       <c r="H76" s="35"/>
       <c r="I76" s="35"/>
-      <c r="J76" s="13"/>
+      <c r="J76" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
       <c r="M76" s="13"/>
@@ -6679,21 +6631,23 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="13.2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
+    <row r="77" spans="1:31" s="2" customFormat="1" ht="13.2">
+      <c r="A77" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="40"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -6707,21 +6661,23 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="13.2">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
+    <row r="78" spans="1:31" s="2" customFormat="1" ht="13.2">
+      <c r="A78" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" s="33"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -6735,7 +6691,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="13.2">
+    <row r="79" spans="1:31" ht="13.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -6763,7 +6719,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="13.2">
+    <row r="80" spans="1:31" ht="14.25" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -6791,7 +6747,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="13.2">
+    <row r="81" spans="1:26" ht="14.25" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -6819,7 +6775,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="13.2">
+    <row r="82" spans="1:26" ht="14.25" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -6847,7 +6803,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="13.2">
+    <row r="83" spans="1:26" ht="14.25" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -6875,7 +6831,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="13.2">
+    <row r="84" spans="1:26" ht="14.25" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -6903,7 +6859,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="13.2">
+    <row r="85" spans="1:26" ht="14.25" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -6931,7 +6887,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="13.2">
+    <row r="86" spans="1:26" ht="14.25" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -6959,7 +6915,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="13.2">
+    <row r="87" spans="1:26" ht="14.25" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6987,7 +6943,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="13.2">
+    <row r="88" spans="1:26" ht="14.25" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -7015,7 +6971,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="13.2">
+    <row r="89" spans="1:26" ht="14.25" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -7043,7 +6999,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="13.2">
+    <row r="90" spans="1:26" ht="14.25" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -7071,7 +7027,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="13.2">
+    <row r="91" spans="1:26" ht="14.25" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -7099,7 +7055,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="13.2">
+    <row r="92" spans="1:26" ht="14.25" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -7127,7 +7083,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="13.2">
+    <row r="93" spans="1:26" ht="14.25" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -7155,7 +7111,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="13.2">
+    <row r="94" spans="1:26" ht="14.25" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -7183,7 +7139,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="13.2">
+    <row r="95" spans="1:26" ht="14.25" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -33951,1319 +33907,1295 @@
       <c r="Y1050" s="1"/>
       <c r="Z1050" s="1"/>
     </row>
+    <row r="1051" spans="1:26" ht="13.2">
+      <c r="A1051" s="1"/>
+      <c r="B1051" s="1"/>
+      <c r="C1051" s="1"/>
+      <c r="D1051" s="1"/>
+      <c r="E1051" s="1"/>
+      <c r="F1051" s="1"/>
+      <c r="G1051" s="1"/>
+      <c r="H1051" s="1"/>
+      <c r="I1051" s="1"/>
+      <c r="J1051" s="1"/>
+      <c r="K1051" s="1"/>
+      <c r="L1051" s="1"/>
+      <c r="M1051" s="1"/>
+      <c r="N1051" s="1"/>
+      <c r="O1051" s="1"/>
+      <c r="P1051" s="1"/>
+      <c r="Q1051" s="1"/>
+      <c r="R1051" s="1"/>
+      <c r="S1051" s="1"/>
+      <c r="T1051" s="1"/>
+      <c r="U1051" s="1"/>
+      <c r="V1051" s="1"/>
+      <c r="W1051" s="1"/>
+      <c r="X1051" s="1"/>
+      <c r="Y1051" s="1"/>
+      <c r="Z1051" s="1"/>
+    </row>
+    <row r="1052" spans="1:26" ht="13.2">
+      <c r="A1052" s="1"/>
+      <c r="B1052" s="1"/>
+      <c r="C1052" s="1"/>
+      <c r="D1052" s="1"/>
+      <c r="E1052" s="1"/>
+      <c r="F1052" s="1"/>
+      <c r="G1052" s="1"/>
+      <c r="H1052" s="1"/>
+      <c r="I1052" s="1"/>
+      <c r="J1052" s="1"/>
+      <c r="K1052" s="1"/>
+      <c r="L1052" s="1"/>
+      <c r="M1052" s="1"/>
+      <c r="N1052" s="1"/>
+      <c r="O1052" s="1"/>
+      <c r="P1052" s="1"/>
+      <c r="Q1052" s="1"/>
+      <c r="R1052" s="1"/>
+      <c r="S1052" s="1"/>
+      <c r="T1052" s="1"/>
+      <c r="U1052" s="1"/>
+      <c r="V1052" s="1"/>
+      <c r="W1052" s="1"/>
+      <c r="X1052" s="1"/>
+      <c r="Y1052" s="1"/>
+      <c r="Z1052" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C4 A44:C46 A5:B5 A6:C8 B53:C53 A10:F16 L10:M10 A64:C70">
-    <cfRule type="expression" dxfId="261" priority="313">
+  <conditionalFormatting sqref="A2:C4 A39:C41 A5:B5 A6:C8 A48:C48 A19:B19 A27:C29 A32:C34 A53:C53 A18:C18 L12:M12 M10:M11 A9:F17 N55:AE57 J55:L57">
+    <cfRule type="expression" dxfId="245" priority="338">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C4 B53:C53 A45:C45 A5:B5 A6:C8">
-    <cfRule type="expression" dxfId="260" priority="314">
+  <conditionalFormatting sqref="A2:C4 A48:C48 A40:C40 A5:B5 A6:C8 A19:B19 A53:C53 A18:C18">
+    <cfRule type="expression" dxfId="244" priority="339">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C4 A43:C46 A42 C42 C47 A5:B5 A6:C8 B53:C53 C51 A10:F16 A64:C70">
-    <cfRule type="cellIs" dxfId="259" priority="315" operator="equal">
+  <conditionalFormatting sqref="A2:C4 A38:C41 A37 C37 C42 A5:B5 A6:C8 A48:C48 C46 A18:C18 A17:F17 N55:AE57 J55:L57">
+    <cfRule type="cellIs" dxfId="243" priority="340" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B46 B2:B8 B53 B10:B16 B64:B70">
-    <cfRule type="expression" dxfId="258" priority="316">
+  <conditionalFormatting sqref="B39:B41 B48 B27:B29 B32:B34 B53 B2:B19">
+    <cfRule type="expression" dxfId="242" priority="341">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C4 A44:C46 A5:B5 A6:C8 B53:C53 A10:F16 L10:M10 A64:C70">
-    <cfRule type="expression" dxfId="257" priority="318">
+  <conditionalFormatting sqref="A2:C4 A39:C41 A5:B5 A6:C8 A48:C48 A19:B19 A27:C29 A32:C34 A53:C53 A18:C18 L12:M12 M10:M11 A9:F17 N55:AE57 J55:L57">
+    <cfRule type="expression" dxfId="241" priority="343">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C4 B53:C53 A45:C45 A5:B5 A6:C8">
-    <cfRule type="expression" dxfId="256" priority="319">
+  <conditionalFormatting sqref="A2:C4 A48:C48 A40:C40 A5:B5 A6:C8 A19:B19 A53:C53 A18:C18">
+    <cfRule type="expression" dxfId="240" priority="344">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A59 A2:A8 A42:A46 A10:A16 A64:A70">
-    <cfRule type="containsText" dxfId="255" priority="323" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="A53 A2:A8 A48 A17:A18 A37:A41">
+    <cfRule type="containsText" dxfId="239" priority="348" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C4 C6:C8 C53 C42:C47 C10:C16 C64:C70">
-    <cfRule type="expression" dxfId="254" priority="324">
+  <conditionalFormatting sqref="C2:C4 C48 C27:C29 C32:C34 C53 C6:C18 C37:C42">
+    <cfRule type="expression" dxfId="238" priority="349">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A8 A42:A46 A10:A16 A64:A70">
-    <cfRule type="cellIs" dxfId="253" priority="325" operator="equal">
+  <conditionalFormatting sqref="A2:A8 A48 A17:A18 A37:A41">
+    <cfRule type="cellIs" dxfId="237" priority="350" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:C59">
-    <cfRule type="expression" dxfId="252" priority="326">
+  <conditionalFormatting sqref="A53:C53">
+    <cfRule type="cellIs" dxfId="236" priority="353" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="cellIs" dxfId="235" priority="356" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:C49">
+    <cfRule type="containsText" dxfId="234" priority="368" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A49))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:C49">
+    <cfRule type="expression" dxfId="233" priority="369">
+      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:C49">
+    <cfRule type="expression" dxfId="232" priority="370">
+      <formula>AND($A49="end group", $B49 = "", $C49 = "", $E49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:C49">
+    <cfRule type="cellIs" dxfId="231" priority="371" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:C49">
+    <cfRule type="cellIs" dxfId="230" priority="372" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:C49">
+    <cfRule type="expression" dxfId="229" priority="373">
+      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:C49">
+    <cfRule type="expression" dxfId="228" priority="374">
+      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $E49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="containsText" dxfId="227" priority="375" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A50))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:C50">
+    <cfRule type="expression" dxfId="226" priority="359">
+      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:C50">
+    <cfRule type="expression" dxfId="225" priority="360">
+      <formula>AND($A50="end group", $B50 = "", $C50 = "", $E50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "", $O50 = "", $P50 = "", $Q50 = "", $S50 = "", $T50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:C50">
+    <cfRule type="cellIs" dxfId="224" priority="361" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="223" priority="362">
+      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="222" priority="363">
+      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $B50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="cellIs" dxfId="221" priority="364" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:C50">
+    <cfRule type="expression" dxfId="220" priority="366">
+      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:C50">
+    <cfRule type="expression" dxfId="219" priority="367">
+      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $E50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "", $O50 = "", $P50 = "", $Q50 = "", $S50 = "", $T50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="containsText" dxfId="218" priority="331" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="cellIs" dxfId="217" priority="334" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="cellIs" dxfId="216" priority="335" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="cellIs" dxfId="215" priority="326" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="expression" dxfId="214" priority="310">
+      <formula>AND($A78="begin group", NOT($B78 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="expression" dxfId="213" priority="311">
+      <formula>AND($A78="end group", $B78 = "", $C78 = "", $E78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "", $O78 = "", $P78 = "", $Q78 = "", $S78 = "", $T78 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="cellIs" dxfId="212" priority="312" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="expression" dxfId="211" priority="313">
+      <formula>AND($A78="begin repeat", NOT($B78 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="expression" dxfId="210" priority="314">
+      <formula>AND($A78="end repeat", $B78 = "", $C78 = "", $E78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "", $O78 = "", $P78 = "", $Q78 = "", $S78 = "", $T78 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="containsText" dxfId="209" priority="315" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A78))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:C41 A39:C39">
+    <cfRule type="expression" dxfId="208" priority="492">
+      <formula>AND($A39="end group", $B39 = "", $C39 = "", #REF! = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "", $O39 = "", $P39 = "", $Q39 = "", $S39 = "", $T39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:C41 A39:C39">
+    <cfRule type="expression" dxfId="207" priority="495">
+      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", #REF! = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "", $O39 = "", $P39 = "", $Q39 = "", $S39 = "", $T39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38 C38">
+    <cfRule type="expression" dxfId="206" priority="521">
+      <formula>AND($A38="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38 C38">
+    <cfRule type="expression" dxfId="205" priority="529">
+      <formula>AND($A38="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="cellIs" dxfId="204" priority="290" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="containsText" dxfId="203" priority="292" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="cellIs" dxfId="202" priority="293" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="expression" dxfId="201" priority="283">
+      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="expression" dxfId="200" priority="284">
+      <formula>AND($A63="end group", $B63 = "", $C63 = "", $E63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "", $O63 = "", $P63 = "", $Q63 = "", $S63 = "", $T63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="cellIs" dxfId="199" priority="285" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="expression" dxfId="198" priority="286">
+      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="expression" dxfId="197" priority="287">
+      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $E63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "", $O63 = "", $P63 = "", $Q63 = "", $S63 = "", $T63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="containsText" dxfId="196" priority="288" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A63))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:A77">
+    <cfRule type="cellIs" dxfId="195" priority="270" operator="equal">
+      <formula>"begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:A77">
+    <cfRule type="cellIs" dxfId="194" priority="271" operator="equal">
+      <formula>"end group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
+    <cfRule type="cellIs" dxfId="193" priority="272" operator="equal">
+      <formula>"begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
+    <cfRule type="cellIs" dxfId="192" priority="273" operator="equal">
+      <formula>"end group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="cellIs" dxfId="191" priority="274" operator="equal">
+      <formula>"begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="cellIs" dxfId="190" priority="275" operator="equal">
+      <formula>"end group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="189" priority="258">
+      <formula>AND($A5="begin group", NOT($B5 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="188" priority="261">
+      <formula>AND($A5="begin repeat", NOT($B5 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="187" priority="259">
+      <formula>AND($A5="end group", $B5 = "", $C5 = "", $E5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "", $O5 = "", $P5 = "", $Q5 = "", $S5 = "", $T5 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="cellIs" dxfId="186" priority="260" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="185" priority="262">
+      <formula>AND($A5="end repeat", $B5 = "", $C5 = "", $E5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "", $O5 = "", $P5 = "", $Q5 = "", $S5 = "", $T5 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="184" priority="263">
+      <formula>AND(AND(NOT($A5 = "end group"), NOT($A5 = "end repeat"), NOT($A5 = "")), $C5 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A16">
+    <cfRule type="containsText" dxfId="183" priority="248" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:F16">
+    <cfRule type="cellIs" dxfId="182" priority="250" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A16">
+    <cfRule type="cellIs" dxfId="181" priority="253" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C29 A32:C34 L12:M12 M10:M11 A9:F17">
+    <cfRule type="expression" dxfId="180" priority="255">
+      <formula>AND($A9="end group", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C29 A32:C34 L12:M12 M10:M11 A9:F17">
+    <cfRule type="expression" dxfId="179" priority="256">
+      <formula>AND($A9="end repeat", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:A29">
+    <cfRule type="containsText" dxfId="178" priority="209" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C29">
+    <cfRule type="cellIs" dxfId="177" priority="211" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:A29">
+    <cfRule type="cellIs" dxfId="176" priority="214" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:A34">
+    <cfRule type="containsText" dxfId="175" priority="193" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:C34">
+    <cfRule type="cellIs" dxfId="174" priority="195" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:A34">
+    <cfRule type="cellIs" dxfId="173" priority="198" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="172" priority="175">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="cellIs" dxfId="171" priority="176" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="170" priority="177">
+      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="169" priority="178">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="168" priority="631">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", #REF! = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="167" priority="632">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", #REF! = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:A46">
+    <cfRule type="containsText" dxfId="166" priority="165" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:C45 A46:B46">
+    <cfRule type="expression" dxfId="165" priority="166">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:C45 A46:B46">
+    <cfRule type="cellIs" dxfId="164" priority="167" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:C45">
+    <cfRule type="expression" dxfId="163" priority="168">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:B46">
+    <cfRule type="expression" dxfId="162" priority="169">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:A46">
+    <cfRule type="cellIs" dxfId="161" priority="170" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:C45 A46:B46">
+    <cfRule type="expression" dxfId="160" priority="171">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:C45">
+    <cfRule type="expression" dxfId="159" priority="172">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:C45">
+    <cfRule type="expression" dxfId="158" priority="173">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:B46">
+    <cfRule type="expression" dxfId="157" priority="645">
+      <formula>AND($A46="end group", $B46 = "", #REF! = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:B46">
+    <cfRule type="expression" dxfId="156" priority="646">
+      <formula>AND($A46="end repeat", $B46 = "", #REF! = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="155" priority="661">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="154" priority="662">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="153" priority="663">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="152" priority="664">
+      <formula>AND(#REF!="end group", #REF! = "", $C46 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="151" priority="665">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C46 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="containsText" dxfId="150" priority="155" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:C47">
+    <cfRule type="expression" dxfId="149" priority="156">
+      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:C47">
+    <cfRule type="cellIs" dxfId="148" priority="157" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="147" priority="158">
+      <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $C47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="expression" dxfId="146" priority="159">
+      <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $B47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="cellIs" dxfId="145" priority="160" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:C47">
+    <cfRule type="expression" dxfId="144" priority="161">
+      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:C47">
+    <cfRule type="expression" dxfId="143" priority="162">
+      <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:C47">
+    <cfRule type="expression" dxfId="142" priority="163">
+      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:F45">
+    <cfRule type="expression" dxfId="141" priority="144">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:F45">
+    <cfRule type="cellIs" dxfId="140" priority="145" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:F45">
+    <cfRule type="expression" dxfId="139" priority="146">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:F45">
+    <cfRule type="expression" dxfId="138" priority="147">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:F45">
+    <cfRule type="expression" dxfId="137" priority="148">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43:M45">
+    <cfRule type="expression" dxfId="136" priority="139">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43:M45">
+    <cfRule type="cellIs" dxfId="135" priority="140" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43:M45">
+    <cfRule type="expression" dxfId="134" priority="141">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43:M45">
+    <cfRule type="expression" dxfId="133" priority="142">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43:M45">
+    <cfRule type="expression" dxfId="132" priority="143">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="131" priority="132" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="130" priority="135">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="129" priority="136">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="128" priority="137">
+      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", $E49 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="127" priority="138">
+      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", $E49 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="containsText" dxfId="126" priority="122" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A51))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:C51">
+    <cfRule type="expression" dxfId="125" priority="123">
+      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:C51">
+    <cfRule type="cellIs" dxfId="124" priority="124" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="123" priority="125">
+      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $C51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
+    <cfRule type="expression" dxfId="122" priority="126">
+      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $B51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="cellIs" dxfId="121" priority="127" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:C51">
+    <cfRule type="expression" dxfId="120" priority="128">
+      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:C51">
+    <cfRule type="expression" dxfId="119" priority="129">
+      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $M51 = "", $N51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:C51">
+    <cfRule type="expression" dxfId="118" priority="130">
+      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $M51 = "", $N51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="containsText" dxfId="117" priority="106" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:C52">
+    <cfRule type="expression" dxfId="116" priority="107">
+      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:C52">
+    <cfRule type="cellIs" dxfId="115" priority="108" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="114" priority="109">
+      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $C52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="113" priority="110">
+      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $B52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="cellIs" dxfId="112" priority="111" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:C52">
+    <cfRule type="expression" dxfId="111" priority="112">
+      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:C52">
+    <cfRule type="expression" dxfId="110" priority="113">
+      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $M52 = "", $N52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:C52">
+    <cfRule type="expression" dxfId="109" priority="114">
+      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $M52 = "", $N52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:M12">
+    <cfRule type="cellIs" dxfId="108" priority="97" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10:M11">
+    <cfRule type="cellIs" dxfId="107" priority="92" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="106" priority="77">
+      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="105" priority="78">
+      <formula>AND($A42="end group", $B42 = "", $C42 = "", $E42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $M42 = "", $N42 = "", $O42 = "", $Q42 = "", $R42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="cellIs" dxfId="104" priority="79" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="103" priority="80">
+      <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $B42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="102" priority="82">
+      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="101" priority="83">
+      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $E42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $M42 = "", $N42 = "", $O42 = "", $Q42 = "", $R42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="expression" dxfId="100" priority="71">
+      <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="cellIs" dxfId="99" priority="72" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="expression" dxfId="98" priority="73">
+      <formula>AND(AND(NOT($A73 = "end group"), NOT($A73 = "end repeat"), NOT($A73 = "")), $C73 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="expression" dxfId="97" priority="74">
+      <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="expression" dxfId="96" priority="75">
+      <formula>AND($A73="end group", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $M73 = "", $N73 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="expression" dxfId="95" priority="76">
+      <formula>AND($A73="end repeat", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $M73 = "", $N73 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:A62">
+    <cfRule type="containsText" dxfId="94" priority="59" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A58))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:AE62">
+    <cfRule type="expression" dxfId="93" priority="60">
       <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:C59">
-    <cfRule type="expression" dxfId="251" priority="327">
-      <formula>AND($A58="end group", $B58 = "", $C58 = "", $E58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "", $O58 = "", $P58 = "", $Q58 = "", $S58 = "", $T58 = "")</formula>
+  <conditionalFormatting sqref="A58:AE62">
+    <cfRule type="expression" dxfId="92" priority="61">
+      <formula>AND($A58="end group", $B58 = "", $C58 = "", $E58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "", $O58 = "", $Q58 = "", $R58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:C59">
-    <cfRule type="cellIs" dxfId="250" priority="328" operator="equal">
+  <conditionalFormatting sqref="A58:AE62">
+    <cfRule type="cellIs" dxfId="91" priority="62" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58:C59">
-    <cfRule type="expression" dxfId="249" priority="329">
+  <conditionalFormatting sqref="M58:M62">
+    <cfRule type="expression" dxfId="90" priority="63">
+      <formula>AND($M58 = "", $A58 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58:D62">
+    <cfRule type="expression" dxfId="89" priority="64">
       <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $C58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:B59">
-    <cfRule type="expression" dxfId="248" priority="330">
+  <conditionalFormatting sqref="B58:B62">
+    <cfRule type="expression" dxfId="88" priority="65">
       <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $B58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A59">
-    <cfRule type="cellIs" dxfId="247" priority="331" operator="equal">
+  <conditionalFormatting sqref="A58:A62">
+    <cfRule type="cellIs" dxfId="87" priority="66" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:C59">
-    <cfRule type="expression" dxfId="246" priority="332">
+  <conditionalFormatting sqref="K58:L62">
+    <cfRule type="expression" dxfId="86" priority="68">
+      <formula>AND(NOT($J58 = ""), $K58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:AE62">
+    <cfRule type="expression" dxfId="85" priority="69">
       <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:C59">
-    <cfRule type="expression" dxfId="245" priority="333">
-      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $E58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "", $O58 = "", $P58 = "", $Q58 = "", $S58 = "", $T58 = "")</formula>
+  <conditionalFormatting sqref="A58:AE62">
+    <cfRule type="expression" dxfId="84" priority="70">
+      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $E58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "", $O58 = "", $Q58 = "", $R58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:C54">
-    <cfRule type="containsText" dxfId="244" priority="343" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="B51 B42">
+    <cfRule type="expression" dxfId="83" priority="724">
+      <formula>COUNTIF($B$2:$B$1134,B42)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:A65">
+    <cfRule type="containsText" dxfId="82" priority="47" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A64))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:AE65">
+    <cfRule type="expression" dxfId="81" priority="48">
+      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:AE65">
+    <cfRule type="expression" dxfId="80" priority="49">
+      <formula>AND($A64="end group", $B64 = "", $C64 = "", $E64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $M64 = "", $N64 = "", $O64 = "", $Q64 = "", $R64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:AE65">
+    <cfRule type="cellIs" dxfId="79" priority="50" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M64:M65">
+    <cfRule type="expression" dxfId="78" priority="51">
+      <formula>AND($M64 = "", $A64 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64:D65">
+    <cfRule type="expression" dxfId="77" priority="52">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64:B65">
+    <cfRule type="expression" dxfId="76" priority="53">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $B64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:A65">
+    <cfRule type="cellIs" dxfId="75" priority="54" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:B62">
+    <cfRule type="expression" dxfId="74" priority="55">
+      <formula>COUNTIF($B$2:$B$1129,B58)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64:L65">
+    <cfRule type="expression" dxfId="73" priority="56">
+      <formula>AND(NOT($J64 = ""), $K64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:AE65">
+    <cfRule type="expression" dxfId="72" priority="57">
+      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:AE65">
+    <cfRule type="expression" dxfId="71" priority="58">
+      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $E64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $M64 = "", $N64 = "", $O64 = "", $Q64 = "", $R64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:A72">
+    <cfRule type="containsText" dxfId="70" priority="35" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A66))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:AE72">
+    <cfRule type="expression" dxfId="69" priority="36">
+      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:AE72">
+    <cfRule type="expression" dxfId="68" priority="37">
+      <formula>AND($A66="end group", $B66 = "", $C66 = "", $E66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "", $O66 = "", $Q66 = "", $R66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:AE72">
+    <cfRule type="cellIs" dxfId="67" priority="38" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M66:M72">
+    <cfRule type="expression" dxfId="66" priority="39">
+      <formula>AND($M66 = "", $A66 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66:D72">
+    <cfRule type="expression" dxfId="65" priority="40">
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66:B72">
+    <cfRule type="expression" dxfId="64" priority="41">
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:A72">
+    <cfRule type="cellIs" dxfId="63" priority="42" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66:L72">
+    <cfRule type="expression" dxfId="62" priority="44">
+      <formula>AND(NOT($J66 = ""), $K66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:AE72">
+    <cfRule type="expression" dxfId="61" priority="45">
+      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:AE72">
+    <cfRule type="expression" dxfId="60" priority="46">
+      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $E66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "", $O66 = "", $Q66 = "", $R66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64:B65">
+    <cfRule type="expression" dxfId="59" priority="743">
+      <formula>COUNTIF($B$2:$B$1128,B64)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66:B72 B54">
+    <cfRule type="expression" dxfId="58" priority="744">
+      <formula>COUNTIF($B$2:$B$1120,B54)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="57" priority="762">
+      <formula>AND(#REF!="begin group", NOT($B38 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="56" priority="765">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="55" priority="766">
+      <formula>AND(#REF!="begin repeat", NOT($B38 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="54" priority="769">
+      <formula>AND(#REF!="end group", $B38 = "", #REF! = "", $E40 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38 C38">
+    <cfRule type="expression" dxfId="53" priority="770">
+      <formula>AND($A38="end group", #REF! = "", $C38 = "", $E39 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "", $O38 = "", $P38 = "", $Q38 = "", $S38 = "", $T38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="52" priority="772">
+      <formula>AND(#REF!="end repeat", $B38 = "", #REF! = "", $E40 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38 C38">
+    <cfRule type="expression" dxfId="51" priority="773">
+      <formula>AND($A38="end repeat", #REF! = "", $C38 = "", $E39 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "", $O38 = "", $P38 = "", $Q38 = "", $S38 = "", $T38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37 C37">
+    <cfRule type="expression" dxfId="50" priority="775">
+      <formula>AND($A37="begin group", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37 C37">
+    <cfRule type="expression" dxfId="49" priority="777">
+      <formula>AND($A37="end group", $B42 = "", $C37 = "", $E37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "", $O37 = "", $P37 = "", $Q37 = "", $S37 = "", $T37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37 C37">
+    <cfRule type="expression" dxfId="48" priority="779">
+      <formula>AND($A37="begin repeat", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37 C37">
+    <cfRule type="expression" dxfId="47" priority="781">
+      <formula>AND($A37="end repeat", $B42 = "", $C37 = "", $E37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "", $O37 = "", $P37 = "", $Q37 = "", $S37 = "", $T37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42 A42">
+    <cfRule type="expression" dxfId="46" priority="783">
+      <formula>AND($A42="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42 A42">
+    <cfRule type="expression" dxfId="45" priority="785">
+      <formula>AND($A42="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="44" priority="787">
+      <formula>AND($A42="end group", $B37 = "", $C42 = "", #REF! = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "", $O42 = "", $P42 = "", $Q42 = "", $S42 = "", $T42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42 A42">
+    <cfRule type="expression" dxfId="43" priority="788">
+      <formula>AND($A42="end repeat", $B37 = "", $C42 = "", #REF! = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "", $O42 = "", $P42 = "", $Q42 = "", $S42 = "", $T42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="expression" dxfId="42" priority="789">
+      <formula>AND($A42="end group", $B37 = "", $C42 = "", #REF! = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "", $O42 = "", $P42 = "", $Q42 = "", $S42 = "", $T42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="41" priority="791">
+      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E37 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $M49 = "", $N49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="40" priority="792">
+      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E37 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $M49 = "", $N49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52 B19">
+    <cfRule type="expression" dxfId="39" priority="802">
+      <formula>COUNTIF($B$2:$B$1133,B19)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="containsText" dxfId="38" priority="23" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A54))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:C54">
-    <cfRule type="expression" dxfId="243" priority="344">
+  <conditionalFormatting sqref="A54:AE54">
+    <cfRule type="expression" dxfId="37" priority="24">
       <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:C54">
-    <cfRule type="expression" dxfId="242" priority="345">
-      <formula>AND($A54="end group", $B54 = "", $C54 = "", $E54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "", $O54 = "", $P54 = "", $Q54 = "", $S54 = "", $T54 = "")</formula>
+  <conditionalFormatting sqref="A54:AE54">
+    <cfRule type="expression" dxfId="36" priority="25">
+      <formula>AND($A54="end group", $B54 = "", $C54 = "", $E54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $M54 = "", $N54 = "", $O54 = "", $Q54 = "", $R54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:C54">
-    <cfRule type="cellIs" dxfId="241" priority="346" operator="equal">
+  <conditionalFormatting sqref="A54:AE54">
+    <cfRule type="cellIs" dxfId="35" priority="26" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:C54">
-    <cfRule type="cellIs" dxfId="240" priority="347" operator="equal">
+  <conditionalFormatting sqref="M54">
+    <cfRule type="expression" dxfId="34" priority="27">
+      <formula>AND($M54 = "", $A54 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54:D54">
+    <cfRule type="expression" dxfId="33" priority="28">
+      <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $C54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="32" priority="29">
+      <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $B54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:C54">
-    <cfRule type="expression" dxfId="239" priority="348">
+  <conditionalFormatting sqref="K54:L54">
+    <cfRule type="expression" dxfId="30" priority="32">
+      <formula>AND(NOT($J54 = ""), $K54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:AE54">
+    <cfRule type="expression" dxfId="29" priority="33">
       <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:C54">
-    <cfRule type="expression" dxfId="238" priority="349">
-      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $E54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "", $O54 = "", $P54 = "", $Q54 = "", $S54 = "", $T54 = "")</formula>
+  <conditionalFormatting sqref="A54:AE54">
+    <cfRule type="expression" dxfId="28" priority="34">
+      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $E54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $M54 = "", $N54 = "", $O54 = "", $Q54 = "", $R54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="containsText" dxfId="237" priority="350" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A55))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:C55">
-    <cfRule type="expression" dxfId="236" priority="334">
+  <conditionalFormatting sqref="A55:I55 D56:I57">
+    <cfRule type="expression" dxfId="26" priority="12">
       <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:C55">
-    <cfRule type="expression" dxfId="235" priority="335">
-      <formula>AND($A55="end group", $B55 = "", $C55 = "", $E55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "", $O55 = "", $P55 = "", $Q55 = "", $S55 = "", $T55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:C55">
-    <cfRule type="cellIs" dxfId="234" priority="336" operator="equal">
+  <conditionalFormatting sqref="A55:I55 D56:I57">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="233" priority="337">
+  <conditionalFormatting sqref="C55:D55 D56:D57">
+    <cfRule type="expression" dxfId="24" priority="16">
       <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" dxfId="232" priority="338">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="231" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:C55">
-    <cfRule type="expression" dxfId="230" priority="341">
+  <conditionalFormatting sqref="A55:I55 D56:I57">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:C55">
-    <cfRule type="expression" dxfId="229" priority="342">
-      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $E55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "", $O55 = "", $P55 = "", $Q55 = "", $S55 = "", $T55 = "")</formula>
+  <conditionalFormatting sqref="N55:AE57 A55:L55 D56:L57">
+    <cfRule type="expression" dxfId="20" priority="807">
+      <formula>AND($A55="end group", $B55 = "", $C55 = "", $E55 = "", $H55 = "", $I55 = "", #REF! = "", $K55 = "", $J55 = "", $N55 = "", $O55 = "", $Q55 = "", $R55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="228" priority="306" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A24))))</formula>
+  <conditionalFormatting sqref="J55:J57">
+    <cfRule type="expression" dxfId="19" priority="813">
+      <formula>AND($J55 = "", $A55 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="227" priority="307">
-      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
+  <conditionalFormatting sqref="K55:L57">
+    <cfRule type="expression" dxfId="18" priority="814">
+      <formula>AND(NOT(#REF! = ""), $K55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="226" priority="308">
-      <formula>AND($A24="end group", $B24 = "", $C24 = "", $E24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
+  <conditionalFormatting sqref="N55:AE57 A55:L55 D56:L57">
+    <cfRule type="expression" dxfId="17" priority="817">
+      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $E55 = "", $H55 = "", $I55 = "", #REF! = "", $K55 = "", $J55 = "", $N55 = "", $O55 = "", $Q55 = "", $R55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="225" priority="309" operator="equal">
+  <conditionalFormatting sqref="A56:A57">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A56))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:C57">
+    <cfRule type="expression" dxfId="15" priority="2">
+      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:C57">
+    <cfRule type="expression" dxfId="14" priority="3">
+      <formula>AND($A56="end group", $B56 = "", $C56 = "", $E56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $M56 = "", $N56 = "", $O56 = "", $Q56 = "", $R56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:C57">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="224" priority="310" operator="equal">
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="12" priority="5">
+      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $C56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:B57">
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $B56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:A57">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="223" priority="311">
-      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="222" priority="312">
-      <formula>AND($A24="end repeat", $B24 = "", $C24 = "", $E24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="221" priority="299">
-      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="220" priority="300">
-      <formula>AND($A24="end group", $B24 = "", $C24 = "", $E24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="219" priority="301" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="218" priority="302">
-      <formula>AND(AND(NOT($A24 = "end group"), NOT($A24 = "end repeat"), NOT($A24 = "")), $B24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="217" priority="304">
-      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="216" priority="305">
-      <formula>AND($A24="end repeat", $B24 = "", $C24 = "", $E24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
-    <cfRule type="expression" dxfId="215" priority="285">
-      <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
-    <cfRule type="expression" dxfId="214" priority="286">
-      <formula>AND($A76="end group", $B76 = "", $C76 = "", $E76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "", $O76 = "", $P76 = "", $Q76 = "", $S76 = "", $T76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
-    <cfRule type="cellIs" dxfId="213" priority="287" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
-    <cfRule type="expression" dxfId="212" priority="288">
-      <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
-    <cfRule type="expression" dxfId="211" priority="289">
-      <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $E76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "", $O76 = "", $P76 = "", $Q76 = "", $S76 = "", $T76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
-    <cfRule type="containsText" dxfId="210" priority="290" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A76))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:C46 A44:C44">
-    <cfRule type="expression" dxfId="209" priority="467">
-      <formula>AND($A44="end group", $B44 = "", $C44 = "", #REF! = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "", $O44 = "", $P44 = "", $Q44 = "", $S44 = "", $T44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:C46 A44:C44">
-    <cfRule type="expression" dxfId="208" priority="470">
-      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", #REF! = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "", $O44 = "", $P44 = "", $Q44 = "", $S44 = "", $T44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43 C43">
-    <cfRule type="expression" dxfId="207" priority="496">
-      <formula>AND($A43="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43 C43">
-    <cfRule type="expression" dxfId="206" priority="504">
-      <formula>AND($A43="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="205" priority="265" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="containsText" dxfId="204" priority="267" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A47))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="203" priority="268" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A62">
-    <cfRule type="expression" dxfId="202" priority="258">
-      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A62">
-    <cfRule type="expression" dxfId="201" priority="259">
-      <formula>AND($A61="end group", $B61 = "", $C61 = "", $E61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "", $O61 = "", $P61 = "", $Q61 = "", $S61 = "", $T61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A62">
-    <cfRule type="cellIs" dxfId="200" priority="260" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A62">
-    <cfRule type="expression" dxfId="199" priority="261">
-      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A62">
-    <cfRule type="expression" dxfId="198" priority="262">
-      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $E61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "", $O61 = "", $P61 = "", $Q61 = "", $S61 = "", $T61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A62">
-    <cfRule type="containsText" dxfId="197" priority="263" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A61))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73:A75">
-    <cfRule type="cellIs" dxfId="196" priority="245" operator="equal">
-      <formula>"begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73:A75">
-    <cfRule type="cellIs" dxfId="195" priority="246" operator="equal">
-      <formula>"end group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="cellIs" dxfId="194" priority="247" operator="equal">
-      <formula>"begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="cellIs" dxfId="193" priority="248" operator="equal">
-      <formula>"end group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="cellIs" dxfId="192" priority="249" operator="equal">
-      <formula>"begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="cellIs" dxfId="191" priority="250" operator="equal">
-      <formula>"end group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="190" priority="233">
-      <formula>AND($A5="begin group", NOT($B5 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="189" priority="236">
-      <formula>AND($A5="begin repeat", NOT($B5 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="188" priority="234">
-      <formula>AND($A5="end group", $B5 = "", $C5 = "", $E5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "", $O5 = "", $P5 = "", $Q5 = "", $S5 = "", $T5 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="187" priority="235" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="186" priority="237">
-      <formula>AND($A5="end repeat", $B5 = "", $C5 = "", $E5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "", $O5 = "", $P5 = "", $Q5 = "", $S5 = "", $T5 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="185" priority="238">
-      <formula>AND(AND(NOT($A5 = "end group"), NOT($A5 = "end repeat"), NOT($A5 = "")), $C5 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="184" priority="223" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:F9 B22:F23 E17:F21">
-    <cfRule type="expression" dxfId="183" priority="224">
-      <formula>AND($A9="begin group", NOT($B9 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:F9 B22:F23 E17:F21">
-    <cfRule type="cellIs" dxfId="182" priority="225" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9 C22:C23">
-    <cfRule type="expression" dxfId="181" priority="226">
-      <formula>AND(AND(NOT($A9 = "end group"), NOT($A9 = "end repeat"), NOT($A9 = "")), $C9 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9 B22:B23">
-    <cfRule type="expression" dxfId="180" priority="227">
-      <formula>AND(AND(NOT($A9 = "end group"), NOT($A9 = "end repeat"), NOT($A9 = "")), $B9 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="179" priority="228" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:F9 B22:F23 E17:F21">
-    <cfRule type="expression" dxfId="178" priority="229">
-      <formula>AND($A9="begin repeat", NOT($B9 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:F23 E17:F21 A9:F16 L10:M10 A64:C70">
-    <cfRule type="expression" dxfId="177" priority="230">
-      <formula>AND($A9="end group", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:F23 E17:F21 A9:F16 L10:M10 A64:C70">
-    <cfRule type="expression" dxfId="176" priority="231">
-      <formula>AND($A9="end repeat", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:A34">
-    <cfRule type="containsText" dxfId="175" priority="184" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:C34">
-    <cfRule type="expression" dxfId="174" priority="185">
-      <formula>AND($A32="begin group", NOT($B32 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:C34">
-    <cfRule type="cellIs" dxfId="173" priority="186" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C34">
-    <cfRule type="expression" dxfId="172" priority="187">
-      <formula>AND(AND(NOT($A32 = "end group"), NOT($A32 = "end repeat"), NOT($A32 = "")), $C32 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B34">
-    <cfRule type="expression" dxfId="171" priority="188">
-      <formula>AND(AND(NOT($A32 = "end group"), NOT($A32 = "end repeat"), NOT($A32 = "")), $B32 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:A34">
-    <cfRule type="cellIs" dxfId="170" priority="189" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:C34">
-    <cfRule type="expression" dxfId="169" priority="190">
-      <formula>AND($A32="begin repeat", NOT($B32 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:C34">
-    <cfRule type="expression" dxfId="168" priority="191">
-      <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:C34">
-    <cfRule type="expression" dxfId="167" priority="192">
-      <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A39">
-    <cfRule type="containsText" dxfId="166" priority="168" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:C39">
-    <cfRule type="expression" dxfId="165" priority="169">
-      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:C39">
-    <cfRule type="cellIs" dxfId="164" priority="170" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C39">
-    <cfRule type="expression" dxfId="163" priority="171">
-      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $C37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37:B39">
-    <cfRule type="expression" dxfId="162" priority="172">
-      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A39">
-    <cfRule type="cellIs" dxfId="161" priority="173" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:C39">
-    <cfRule type="expression" dxfId="160" priority="174">
-      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:C39">
-    <cfRule type="expression" dxfId="159" priority="175">
-      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:C39">
-    <cfRule type="expression" dxfId="158" priority="176">
-      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="157" priority="150">
-      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="cellIs" dxfId="156" priority="151" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="155" priority="152">
-      <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $B42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="154" priority="153">
-      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="153" priority="606">
-      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", #REF! = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="152" priority="607">
-      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", #REF! = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:A51">
-    <cfRule type="containsText" dxfId="151" priority="140" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:C50 A51:B51">
-    <cfRule type="expression" dxfId="150" priority="141">
-      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:C50 A51:B51">
-    <cfRule type="cellIs" dxfId="149" priority="142" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C50">
-    <cfRule type="expression" dxfId="148" priority="143">
-      <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $C48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48:B51">
-    <cfRule type="expression" dxfId="147" priority="144">
-      <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $B48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:A51">
-    <cfRule type="cellIs" dxfId="146" priority="145" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:C50 A51:B51">
-    <cfRule type="expression" dxfId="145" priority="146">
-      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:C50">
-    <cfRule type="expression" dxfId="144" priority="147">
-      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:C50">
-    <cfRule type="expression" dxfId="143" priority="148">
-      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:B51">
-    <cfRule type="expression" dxfId="142" priority="620">
-      <formula>AND($A51="end group", $B51 = "", #REF! = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:B51">
-    <cfRule type="expression" dxfId="141" priority="621">
-      <formula>AND($A51="end repeat", $B51 = "", #REF! = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56 B47">
-    <cfRule type="expression" dxfId="140" priority="629">
-      <formula>COUNTIF($B$2:$B$1132,B47)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="139" priority="636">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="138" priority="637">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="137" priority="638">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="136" priority="639">
-      <formula>AND(#REF!="end group", #REF! = "", $C51 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="135" priority="640">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C51 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="containsText" dxfId="134" priority="130" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A52))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="133" priority="131">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:C52">
-    <cfRule type="cellIs" dxfId="132" priority="132" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="131" priority="133">
-      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $C52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="130" priority="134">
-      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $B52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="128" priority="136">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="127" priority="137">
-      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="126" priority="138">
-      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48:F50">
-    <cfRule type="expression" dxfId="125" priority="119">
-      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48:F50">
-    <cfRule type="cellIs" dxfId="124" priority="120" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48:F50">
-    <cfRule type="expression" dxfId="123" priority="121">
-      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48:F50">
-    <cfRule type="expression" dxfId="122" priority="122">
-      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48:F50">
-    <cfRule type="expression" dxfId="121" priority="123">
-      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L48:M50">
-    <cfRule type="expression" dxfId="120" priority="114">
-      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L48:M50">
-    <cfRule type="cellIs" dxfId="119" priority="115" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L48:M50">
-    <cfRule type="expression" dxfId="118" priority="116">
-      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L48:M50">
-    <cfRule type="expression" dxfId="117" priority="117">
-      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L48:M50">
-    <cfRule type="expression" dxfId="116" priority="118">
-      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="115" priority="107" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="114" priority="110">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="113" priority="111">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="112" priority="112">
-      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", $E54 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="111" priority="113">
-      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", $E54 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
-    <cfRule type="containsText" dxfId="110" priority="97" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A56))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:C56">
-    <cfRule type="expression" dxfId="109" priority="98">
-      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:C56">
-    <cfRule type="cellIs" dxfId="108" priority="99" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="107" priority="100">
-      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $C56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
-    <cfRule type="expression" dxfId="106" priority="101">
-      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $B56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
-    <cfRule type="cellIs" dxfId="105" priority="102" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:C56">
-    <cfRule type="expression" dxfId="104" priority="103">
+  <conditionalFormatting sqref="A56:C57">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:C56">
-    <cfRule type="expression" dxfId="103" priority="104">
-      <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $M56 = "", $N56 = "")</formula>
+  <conditionalFormatting sqref="A56:C57">
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $E56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $M56 = "", $N56 = "", $O56 = "", $Q56 = "", $R56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:C56">
-    <cfRule type="expression" dxfId="102" priority="105">
-      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $M56 = "", $N56 = "")</formula>
+  <conditionalFormatting sqref="B43:B47">
+    <cfRule type="expression" dxfId="7" priority="822">
+      <formula>COUNTIF($B$2:$B$1017,B43)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
-    <cfRule type="containsText" dxfId="101" priority="81" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A57))))</formula>
+  <conditionalFormatting sqref="B50 B38:B41 B48 B53">
+    <cfRule type="expression" dxfId="6" priority="823">
+      <formula>COUNTIF($B$20:$B$1140,B38)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="100" priority="82">
-      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+  <conditionalFormatting sqref="B37 B32:B34">
+    <cfRule type="expression" dxfId="5" priority="827">
+      <formula>COUNTIF($B$2:$B$1021,B32)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:C57">
-    <cfRule type="cellIs" dxfId="99" priority="83" operator="equal">
-      <formula>"note"</formula>
+  <conditionalFormatting sqref="B9:B17">
+    <cfRule type="expression" dxfId="4" priority="829">
+      <formula>COUNTIF($B$2:$B$1030,B9)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="98" priority="84">
-      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
+  <conditionalFormatting sqref="B2:B8 B18">
+    <cfRule type="expression" dxfId="3" priority="830">
+      <formula>COUNTIF($B$2:$B$1132,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="97" priority="85">
-      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $B57 = "")</formula>
+  <conditionalFormatting sqref="B27:B29">
+    <cfRule type="expression" dxfId="2" priority="832">
+      <formula>COUNTIF($B$2:$B$1024,B27)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" dxfId="96" priority="86" operator="equal">
-      <formula>"hidden"</formula>
+  <conditionalFormatting sqref="B55">
+    <cfRule type="expression" dxfId="1" priority="834">
+      <formula>COUNTIF($B$2:$B$1118,B55)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="95" priority="87">
-      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="94" priority="88">
-      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="93" priority="89">
-      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10:M10">
-    <cfRule type="cellIs" dxfId="92" priority="72" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M12">
-    <cfRule type="expression" dxfId="91" priority="66">
-      <formula>AND($A11="begin group", NOT($B11 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M12">
-    <cfRule type="cellIs" dxfId="90" priority="67" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M12">
-    <cfRule type="expression" dxfId="89" priority="68">
-      <formula>AND($A11="begin repeat", NOT($B11 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M12">
-    <cfRule type="expression" dxfId="88" priority="69">
-      <formula>AND($A11="end group", $B11 = "", $C11 = "", $D11 = "", $E11 = "", $F11 = "", $G11 = "", $H11 = "", $I11 = "", $J11 = "", $K11 = "", $L11 = "", $M11 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M12">
-    <cfRule type="expression" dxfId="87" priority="70">
-      <formula>AND($A11="end repeat", $B11 = "", $C11 = "", $D11 = "", $E11 = "", $F11 = "", $G11 = "", $H11 = "", $I11 = "", $J11 = "", $K11 = "", $L11 = "", $M11 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="86" priority="59" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="85" priority="60">
-      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="84" priority="61" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="83" priority="62" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="82" priority="63">
-      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="81" priority="64">
-      <formula>AND($A23="end group", $B23 = "", $C23 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="80" priority="65">
-      <formula>AND($A23="end repeat", $B23 = "", $C23 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="79" priority="52">
-      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="78" priority="53">
-      <formula>AND($A47="end group", $B47 = "", $C47 = "", $E47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $M47 = "", $N47 = "", $O47 = "", $Q47 = "", $R47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="cellIs" dxfId="77" priority="54" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="76" priority="55">
-      <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $B47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="75" priority="57">
-      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="74" priority="58">
-      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $E47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $M47 = "", $N47 = "", $O47 = "", $Q47 = "", $R47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="73" priority="647">
-      <formula>AND(#REF!="begin group", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="72" priority="650">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="71" priority="651">
-      <formula>AND(#REF!="begin repeat", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="70" priority="654">
-      <formula>AND(#REF!="end group", $B43 = "", #REF! = "", $E45 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43 C43">
-    <cfRule type="expression" dxfId="69" priority="655">
-      <formula>AND($A43="end group", #REF! = "", $C43 = "", $E44 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "", $O43 = "", $P43 = "", $Q43 = "", $S43 = "", $T43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="68" priority="657">
-      <formula>AND(#REF!="end repeat", $B43 = "", #REF! = "", $E45 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43 C43">
-    <cfRule type="expression" dxfId="67" priority="658">
-      <formula>AND($A43="end repeat", #REF! = "", $C43 = "", $E44 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "", $O43 = "", $P43 = "", $Q43 = "", $S43 = "", $T43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42 C42">
-    <cfRule type="expression" dxfId="66" priority="660">
-      <formula>AND($A42="begin group", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42 C42">
-    <cfRule type="expression" dxfId="65" priority="662">
-      <formula>AND($A42="end group", $B47 = "", $C42 = "", $E42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "", $O42 = "", $P42 = "", $Q42 = "", $S42 = "", $T42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42 C42">
-    <cfRule type="expression" dxfId="64" priority="664">
-      <formula>AND($A42="begin repeat", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42 C42">
-    <cfRule type="expression" dxfId="63" priority="666">
-      <formula>AND($A42="end repeat", $B47 = "", $C42 = "", $E42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "", $O42 = "", $P42 = "", $Q42 = "", $S42 = "", $T42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47 A47">
-    <cfRule type="expression" dxfId="62" priority="668">
-      <formula>AND($A47="begin group", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47 A47">
-    <cfRule type="expression" dxfId="61" priority="670">
-      <formula>AND($A47="begin repeat", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="60" priority="672">
-      <formula>AND($A47="end group", $B42 = "", $C47 = "", #REF! = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "", $O47 = "", $P47 = "", $Q47 = "", $S47 = "", $T47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47 A47">
-    <cfRule type="expression" dxfId="59" priority="673">
-      <formula>AND($A47="end repeat", $B42 = "", $C47 = "", #REF! = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "", $O47 = "", $P47 = "", $Q47 = "", $S47 = "", $T47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="58" priority="674">
-      <formula>AND($A47="end group", $B42 = "", $C47 = "", #REF! = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "", $O47 = "", $P47 = "", $Q47 = "", $S47 = "", $T47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="57" priority="686">
-      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E42 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $M54 = "", $N54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="56" priority="687">
-      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E42 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $M54 = "", $N54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="containsText" dxfId="55" priority="40" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A60))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:M60">
-    <cfRule type="expression" dxfId="54" priority="41">
-      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:M60">
-    <cfRule type="cellIs" dxfId="53" priority="42" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="52" priority="43">
-      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="51" priority="44">
-      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" dxfId="50" priority="45" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="expression" dxfId="49" priority="47">
-      <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:M60">
-    <cfRule type="expression" dxfId="48" priority="48">
-      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
-    <cfRule type="expression" dxfId="47" priority="49">
-      <formula>AND($I60 = "", $A60 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:M60">
-    <cfRule type="expression" dxfId="46" priority="50">
-      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:M60">
-    <cfRule type="expression" dxfId="45" priority="51">
-      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="containsText" dxfId="44" priority="30" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A63))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:C63">
-    <cfRule type="expression" dxfId="43" priority="31">
-      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:C63">
-    <cfRule type="cellIs" dxfId="42" priority="32" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="41" priority="33">
-      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $C63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="expression" dxfId="40" priority="34">
-      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $B63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" dxfId="39" priority="35" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B70">
-    <cfRule type="expression" dxfId="38" priority="36">
-      <formula>COUNTIF($B$2:$B$1123,B63)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:C63">
-    <cfRule type="expression" dxfId="37" priority="37">
-      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:C63">
-    <cfRule type="expression" dxfId="36" priority="38">
-      <formula>AND($A63="end group", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:C63">
-    <cfRule type="expression" dxfId="35" priority="39">
-      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67:L69">
-    <cfRule type="expression" dxfId="34" priority="24">
-      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67:L69">
-    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67:L69">
-    <cfRule type="expression" dxfId="32" priority="26">
-      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67:L69">
-    <cfRule type="expression" dxfId="31" priority="28">
-      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67:L69">
-    <cfRule type="expression" dxfId="30" priority="29">
-      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="29" priority="18">
-      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="27" priority="20">
-      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $C71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="26" priority="21">
-      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="25" priority="22">
-      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="24" priority="23">
-      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A21">
-    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:D21">
-    <cfRule type="expression" dxfId="22" priority="9">
-      <formula>AND($A17="begin group", NOT($B17 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:D21">
-    <cfRule type="expression" dxfId="21" priority="10">
-      <formula>AND($A17="end group", $B17 = "", $C17 = "", $E17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $M17 = "", $N17 = "", $O17 = "", $Q17 = "", $R17 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:D21">
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:D21">
-    <cfRule type="expression" dxfId="19" priority="12">
-      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $C17 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B21">
-    <cfRule type="expression" dxfId="18" priority="13">
-      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $B17 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A21">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:D21">
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>AND($A17="begin repeat", NOT($B17 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:D21">
-    <cfRule type="expression" dxfId="15" priority="17">
-      <formula>AND($A17="end repeat", $B17 = "", $C17 = "", $E17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $M17 = "", $N17 = "", $O17 = "", $Q17 = "", $R17 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="13" priority="2">
-      <formula>AND($A22="begin group", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="12" priority="3">
-      <formula>AND($A22="end group", $B22 = "", $C22 = "", $E22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $M22 = "", $N22 = "", $O22 = "", $Q22 = "", $R22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="9" priority="6">
-      <formula>AND($A22="begin repeat", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>AND($A22="end repeat", $B22 = "", $C22 = "", $E22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $M22 = "", $N22 = "", $O22 = "", $Q22 = "", $R22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24 B57 B60">
-    <cfRule type="expression" dxfId="7" priority="696">
-      <formula>COUNTIF($B$2:$B$1131,B24)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55 B43:B46 B53 B58:B59">
-    <cfRule type="expression" dxfId="6" priority="697">
-      <formula>COUNTIF($B$25:$B$1138,B43)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48:B52">
-    <cfRule type="expression" dxfId="5" priority="704">
-      <formula>COUNTIF($B$2:$B$1015,B48)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B23 B9:B16">
-    <cfRule type="expression" dxfId="4" priority="707">
-      <formula>COUNTIF($B$2:$B$1028,B9)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B34">
-    <cfRule type="expression" dxfId="3" priority="709">
-      <formula>COUNTIF($B$2:$B$1022,B32)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37:B39 B42">
-    <cfRule type="expression" dxfId="2" priority="710">
-      <formula>COUNTIF($B$2:$B$1019,B37)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B21">
-    <cfRule type="expression" dxfId="1" priority="713">
-      <formula>COUNTIF($B$2:$B$1118,B17)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B8">
-    <cfRule type="expression" dxfId="0" priority="714">
-      <formula>COUNTIF($B$2:$B$1130,B2)&gt;1</formula>
+  <conditionalFormatting sqref="B56:B57">
+    <cfRule type="expression" dxfId="0" priority="835">
+      <formula>COUNTIF($B$2:$B$1116,B56)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D60 D22:D23 D9:D12 D13:D16">
+    <dataValidation type="list" allowBlank="1" sqref="D9:D17 E64:E72 E54:E62">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -35277,7 +35209,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -35303,7 +35235,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -35314,7 +35246,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>26</v>
@@ -35342,9 +35274,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1">
-      <c r="A6" s="6" t="s">
-        <v>36</v>
+    <row r="6" spans="1:6" s="6" customFormat="1" ht="13.8">
+      <c r="A6" s="59" t="s">
+        <v>160</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>2</v>
@@ -35353,9 +35285,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>36</v>
+    <row r="7" spans="1:6" ht="13.8">
+      <c r="A7" s="59" t="s">
+        <v>160</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
@@ -35391,7 +35323,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>2</v>
@@ -35402,7 +35334,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>9</v>
@@ -35429,7 +35361,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
@@ -35469,19 +35401,19 @@
         <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 0-13</v>
+        <v>2022-11-08 5-36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -494,9 +494,6 @@
     <t>.</t>
   </si>
   <si>
-    <t>concat('Banja la ',../../contact/name)</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -537,6 +534,9 @@
   </si>
   <si>
     <t>Secondary phone number</t>
+  </si>
+  <si>
+    <t>concat('Nyumba ya ',../../contact/name)</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1051,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="246">
+  <dxfs count="244">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1675,14 +1675,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
@@ -1706,17 +1698,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFF9900"/>
           <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF980000"/>
-          <bgColor rgb="FF980000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3873,10 +3854,10 @@
   <dimension ref="A1:AE1052"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B72" sqref="B72"/>
+      <selection pane="bottomRight" activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5163,7 +5144,7 @@
     </row>
     <row r="38" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A38" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>136</v>
@@ -5207,7 +5188,7 @@
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G39" s="31"/>
       <c r="H39" s="28"/>
@@ -5272,7 +5253,7 @@
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
@@ -5745,7 +5726,7 @@
         <v>77</v>
       </c>
       <c r="B54" s="56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C54" s="56" t="s">
         <v>91</v>
@@ -5757,7 +5738,7 @@
       <c r="H54" s="56"/>
       <c r="I54" s="56"/>
       <c r="J54" s="56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K54" s="56"/>
       <c r="L54" s="56"/>
@@ -5786,7 +5767,7 @@
         <v>77</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C55" s="52" t="s">
         <v>91</v>
@@ -5798,7 +5779,7 @@
       <c r="H55" s="54"/>
       <c r="I55" s="54"/>
       <c r="J55" s="61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K55" s="54"/>
       <c r="L55" s="54"/>
@@ -5826,10 +5807,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="52"/>
       <c r="E56" s="54"/>
@@ -5864,10 +5845,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C57" s="56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="52"/>
       <c r="E57" s="54"/>
@@ -6386,12 +6367,11 @@
       <c r="G70" s="58"/>
       <c r="H70" s="56"/>
       <c r="I70" s="56"/>
-      <c r="J70" s="56"/>
+      <c r="J70" s="56" t="s">
+        <v>168</v>
+      </c>
       <c r="K70" s="56"/>
       <c r="L70" s="56"/>
-      <c r="M70" s="56" t="s">
-        <v>154</v>
-      </c>
       <c r="N70" s="56"/>
       <c r="O70" s="56"/>
       <c r="P70" s="56"/>
@@ -6419,22 +6399,21 @@
         <v>145</v>
       </c>
       <c r="C71" s="57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D71" s="57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E71" s="57"/>
       <c r="F71" s="58"/>
       <c r="G71" s="58"/>
       <c r="H71" s="56"/>
       <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
+      <c r="J71" s="56" t="s">
+        <v>146</v>
+      </c>
       <c r="K71" s="56"/>
       <c r="L71" s="56"/>
-      <c r="M71" s="56" t="s">
-        <v>146</v>
-      </c>
       <c r="N71" s="56"/>
       <c r="O71" s="56"/>
       <c r="P71" s="56"/>
@@ -6472,7 +6451,7 @@
       <c r="K72" s="56"/>
       <c r="L72" s="56"/>
       <c r="M72" s="56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N72" s="56"/>
       <c r="O72" s="56" t="s">
@@ -33964,932 +33943,922 @@
       <c r="Z1052" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C4 A39:C41 A5:B5 A6:C8 A48:C48 A19:B19 A27:C29 A32:C34 A53:C53 A18:C18 L12:M12 M10:M11 A9:F17 N55:AE57 J55:L57">
-    <cfRule type="expression" dxfId="245" priority="338">
+  <conditionalFormatting sqref="A2:C4 A39:C41 A5:B5 A6:C8 A48:C48 A19:B19 A27:C29 A32:C34 A53:C53 A18:C18 L12:M12 M10:M11 A9:F17 N55:AE57 J55:L57 N70:AE71 J70:L71">
+    <cfRule type="expression" dxfId="243" priority="338">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C4 A48:C48 A40:C40 A5:B5 A6:C8 A19:B19 A53:C53 A18:C18">
-    <cfRule type="expression" dxfId="244" priority="339">
+    <cfRule type="expression" dxfId="242" priority="339">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C4 A38:C41 A37 C37 C42 A5:B5 A6:C8 A48:C48 C46 A18:C18 A17:F17 N55:AE57 J55:L57">
-    <cfRule type="cellIs" dxfId="243" priority="340" operator="equal">
+  <conditionalFormatting sqref="A2:C4 A38:C41 A37 C37 C42 A5:B5 A6:C8 A48:C48 C46 A18:C18 A17:F17 N55:AE57 J55:L57 N70:AE71 J70:L71">
+    <cfRule type="cellIs" dxfId="241" priority="340" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:B41 B48 B27:B29 B32:B34 B53 B2:B19">
-    <cfRule type="expression" dxfId="242" priority="341">
+    <cfRule type="expression" dxfId="240" priority="341">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C4 A39:C41 A5:B5 A6:C8 A48:C48 A19:B19 A27:C29 A32:C34 A53:C53 A18:C18 L12:M12 M10:M11 A9:F17 N55:AE57 J55:L57">
-    <cfRule type="expression" dxfId="241" priority="343">
+  <conditionalFormatting sqref="A2:C4 A39:C41 A5:B5 A6:C8 A48:C48 A19:B19 A27:C29 A32:C34 A53:C53 A18:C18 L12:M12 M10:M11 A9:F17 N55:AE57 J55:L57 N70:AE71 J70:L71">
+    <cfRule type="expression" dxfId="239" priority="343">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C4 A48:C48 A40:C40 A5:B5 A6:C8 A19:B19 A53:C53 A18:C18">
-    <cfRule type="expression" dxfId="240" priority="344">
+    <cfRule type="expression" dxfId="238" priority="344">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53 A2:A8 A48 A17:A18 A37:A41">
-    <cfRule type="containsText" dxfId="239" priority="348" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="237" priority="348" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4 C48 C27:C29 C32:C34 C53 C6:C18 C37:C42">
-    <cfRule type="expression" dxfId="238" priority="349">
+    <cfRule type="expression" dxfId="236" priority="349">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A8 A48 A17:A18 A37:A41">
-    <cfRule type="cellIs" dxfId="237" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="350" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:C53">
-    <cfRule type="cellIs" dxfId="236" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="353" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" dxfId="235" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="356" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="containsText" dxfId="234" priority="368" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="232" priority="368" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A49))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="expression" dxfId="233" priority="369">
+    <cfRule type="expression" dxfId="231" priority="369">
       <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="expression" dxfId="232" priority="370">
+    <cfRule type="expression" dxfId="230" priority="370">
       <formula>AND($A49="end group", $B49 = "", $C49 = "", $E49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="cellIs" dxfId="231" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="371" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="cellIs" dxfId="230" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="372" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="expression" dxfId="229" priority="373">
+    <cfRule type="expression" dxfId="227" priority="373">
       <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="expression" dxfId="228" priority="374">
+    <cfRule type="expression" dxfId="226" priority="374">
       <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $E49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="containsText" dxfId="227" priority="375" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="225" priority="375" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A50))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="expression" dxfId="226" priority="359">
+    <cfRule type="expression" dxfId="224" priority="359">
       <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="expression" dxfId="225" priority="360">
+    <cfRule type="expression" dxfId="223" priority="360">
       <formula>AND($A50="end group", $B50 = "", $C50 = "", $E50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "", $O50 = "", $P50 = "", $Q50 = "", $S50 = "", $T50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="cellIs" dxfId="224" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="361" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="223" priority="362">
+    <cfRule type="expression" dxfId="221" priority="362">
       <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="222" priority="363">
+    <cfRule type="expression" dxfId="220" priority="363">
       <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $B50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="221" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="364" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="expression" dxfId="220" priority="366">
+    <cfRule type="expression" dxfId="218" priority="366">
       <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="expression" dxfId="219" priority="367">
+    <cfRule type="expression" dxfId="217" priority="367">
       <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $E50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "", $O50 = "", $P50 = "", $Q50 = "", $S50 = "", $T50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="218" priority="331" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="216" priority="331" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A19))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="217" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="334" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="216" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="335" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="215" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="326" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="expression" dxfId="214" priority="310">
+    <cfRule type="expression" dxfId="212" priority="310">
       <formula>AND($A78="begin group", NOT($B78 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="expression" dxfId="213" priority="311">
+    <cfRule type="expression" dxfId="211" priority="311">
       <formula>AND($A78="end group", $B78 = "", $C78 = "", $E78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "", $O78 = "", $P78 = "", $Q78 = "", $S78 = "", $T78 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="cellIs" dxfId="212" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="312" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="expression" dxfId="211" priority="313">
+    <cfRule type="expression" dxfId="209" priority="313">
       <formula>AND($A78="begin repeat", NOT($B78 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="expression" dxfId="210" priority="314">
+    <cfRule type="expression" dxfId="208" priority="314">
       <formula>AND($A78="end repeat", $B78 = "", $C78 = "", $E78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "", $O78 = "", $P78 = "", $Q78 = "", $S78 = "", $T78 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="containsText" dxfId="209" priority="315" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="207" priority="315" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A78))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:C41 A39:C39">
-    <cfRule type="expression" dxfId="208" priority="492">
+    <cfRule type="expression" dxfId="206" priority="492">
       <formula>AND($A39="end group", $B39 = "", $C39 = "", #REF! = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "", $O39 = "", $P39 = "", $Q39 = "", $S39 = "", $T39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:C41 A39:C39">
-    <cfRule type="expression" dxfId="207" priority="495">
+    <cfRule type="expression" dxfId="205" priority="495">
       <formula>AND($A39="end repeat", $B39 = "", $C39 = "", #REF! = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "", $O39 = "", $P39 = "", $Q39 = "", $S39 = "", $T39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38 C38">
-    <cfRule type="expression" dxfId="206" priority="521">
+    <cfRule type="expression" dxfId="204" priority="521">
       <formula>AND($A38="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38 C38">
-    <cfRule type="expression" dxfId="205" priority="529">
+    <cfRule type="expression" dxfId="203" priority="529">
       <formula>AND($A38="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="204" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="290" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="containsText" dxfId="203" priority="292" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="201" priority="292" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A42))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="202" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="293" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="expression" dxfId="201" priority="283">
+    <cfRule type="expression" dxfId="199" priority="283">
       <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="expression" dxfId="200" priority="284">
+    <cfRule type="expression" dxfId="198" priority="284">
       <formula>AND($A63="end group", $B63 = "", $C63 = "", $E63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "", $O63 = "", $P63 = "", $Q63 = "", $S63 = "", $T63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" dxfId="199" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="285" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="expression" dxfId="198" priority="286">
+    <cfRule type="expression" dxfId="196" priority="286">
       <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="expression" dxfId="197" priority="287">
+    <cfRule type="expression" dxfId="195" priority="287">
       <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $E63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "", $O63 = "", $P63 = "", $Q63 = "", $S63 = "", $T63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="containsText" dxfId="196" priority="288" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="194" priority="288" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A63))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A77">
-    <cfRule type="cellIs" dxfId="195" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="270" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A77">
-    <cfRule type="cellIs" dxfId="194" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="271" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73">
-    <cfRule type="cellIs" dxfId="193" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="272" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73">
-    <cfRule type="cellIs" dxfId="192" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="273" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="cellIs" dxfId="191" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="274" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="cellIs" dxfId="190" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="275" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="189" priority="258">
+    <cfRule type="expression" dxfId="187" priority="258">
       <formula>AND($A5="begin group", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="188" priority="261">
+    <cfRule type="expression" dxfId="186" priority="261">
       <formula>AND($A5="begin repeat", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="187" priority="259">
+    <cfRule type="expression" dxfId="185" priority="259">
       <formula>AND($A5="end group", $B5 = "", $C5 = "", $E5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "", $O5 = "", $P5 = "", $Q5 = "", $S5 = "", $T5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="186" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="260" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="185" priority="262">
+    <cfRule type="expression" dxfId="183" priority="262">
       <formula>AND($A5="end repeat", $B5 = "", $C5 = "", $E5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "", $O5 = "", $P5 = "", $Q5 = "", $S5 = "", $T5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="184" priority="263">
+    <cfRule type="expression" dxfId="182" priority="263">
       <formula>AND(AND(NOT($A5 = "end group"), NOT($A5 = "end repeat"), NOT($A5 = "")), $C5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A16">
-    <cfRule type="containsText" dxfId="183" priority="248" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="181" priority="248" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:F16">
-    <cfRule type="cellIs" dxfId="182" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="250" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A16">
-    <cfRule type="cellIs" dxfId="181" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="253" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C29 A32:C34 L12:M12 M10:M11 A9:F17">
-    <cfRule type="expression" dxfId="180" priority="255">
+    <cfRule type="expression" dxfId="178" priority="255">
       <formula>AND($A9="end group", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C29 A32:C34 L12:M12 M10:M11 A9:F17">
-    <cfRule type="expression" dxfId="179" priority="256">
+    <cfRule type="expression" dxfId="177" priority="256">
       <formula>AND($A9="end repeat", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:A29">
-    <cfRule type="containsText" dxfId="178" priority="209" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="176" priority="209" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C29">
-    <cfRule type="cellIs" dxfId="177" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="211" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:A29">
-    <cfRule type="cellIs" dxfId="176" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="214" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A34">
-    <cfRule type="containsText" dxfId="175" priority="193" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="173" priority="193" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:C34">
-    <cfRule type="cellIs" dxfId="174" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="195" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A34">
-    <cfRule type="cellIs" dxfId="173" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="198" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="172" priority="175">
+    <cfRule type="expression" dxfId="170" priority="175">
       <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="171" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="176" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="170" priority="177">
+    <cfRule type="expression" dxfId="168" priority="177">
       <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="169" priority="178">
+    <cfRule type="expression" dxfId="167" priority="178">
       <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="168" priority="631">
+    <cfRule type="expression" dxfId="166" priority="631">
       <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", #REF! = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="167" priority="632">
+    <cfRule type="expression" dxfId="165" priority="632">
       <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", #REF! = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:A46">
-    <cfRule type="containsText" dxfId="166" priority="165" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="164" priority="165" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A43))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:C45 A46:B46">
-    <cfRule type="expression" dxfId="165" priority="166">
+    <cfRule type="expression" dxfId="163" priority="166">
       <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:C45 A46:B46">
-    <cfRule type="cellIs" dxfId="164" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="167" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C45">
-    <cfRule type="expression" dxfId="163" priority="168">
+    <cfRule type="expression" dxfId="161" priority="168">
       <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B46">
-    <cfRule type="expression" dxfId="162" priority="169">
+    <cfRule type="expression" dxfId="160" priority="169">
       <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:A46">
-    <cfRule type="cellIs" dxfId="161" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="170" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:C45 A46:B46">
-    <cfRule type="expression" dxfId="160" priority="171">
+    <cfRule type="expression" dxfId="158" priority="171">
       <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:C45">
-    <cfRule type="expression" dxfId="159" priority="172">
+    <cfRule type="expression" dxfId="157" priority="172">
       <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:C45">
-    <cfRule type="expression" dxfId="158" priority="173">
+    <cfRule type="expression" dxfId="156" priority="173">
       <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B46">
-    <cfRule type="expression" dxfId="157" priority="645">
+    <cfRule type="expression" dxfId="155" priority="645">
       <formula>AND($A46="end group", $B46 = "", #REF! = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B46">
-    <cfRule type="expression" dxfId="156" priority="646">
+    <cfRule type="expression" dxfId="154" priority="646">
       <formula>AND($A46="end repeat", $B46 = "", #REF! = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="155" priority="661">
+    <cfRule type="expression" dxfId="153" priority="661">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="154" priority="662">
+    <cfRule type="expression" dxfId="152" priority="662">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="153" priority="663">
+    <cfRule type="expression" dxfId="151" priority="663">
       <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="152" priority="664">
+    <cfRule type="expression" dxfId="150" priority="664">
       <formula>AND(#REF!="end group", #REF! = "", $C46 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="151" priority="665">
+    <cfRule type="expression" dxfId="149" priority="665">
       <formula>AND(#REF!="end repeat", #REF! = "", $C46 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="containsText" dxfId="150" priority="155" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="148" priority="155" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A47))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:C47">
-    <cfRule type="expression" dxfId="149" priority="156">
+    <cfRule type="expression" dxfId="147" priority="156">
       <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:C47">
-    <cfRule type="cellIs" dxfId="148" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="157" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="147" priority="158">
+    <cfRule type="expression" dxfId="145" priority="158">
       <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $C47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="146" priority="159">
+    <cfRule type="expression" dxfId="144" priority="159">
       <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $B47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="145" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="160" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:C47">
-    <cfRule type="expression" dxfId="144" priority="161">
+    <cfRule type="expression" dxfId="142" priority="161">
       <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:C47">
-    <cfRule type="expression" dxfId="143" priority="162">
+    <cfRule type="expression" dxfId="141" priority="162">
       <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:C47">
-    <cfRule type="expression" dxfId="142" priority="163">
+    <cfRule type="expression" dxfId="140" priority="163">
       <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F45">
-    <cfRule type="expression" dxfId="141" priority="144">
+    <cfRule type="expression" dxfId="139" priority="144">
       <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F45">
-    <cfRule type="cellIs" dxfId="140" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="145" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F45">
-    <cfRule type="expression" dxfId="139" priority="146">
+    <cfRule type="expression" dxfId="137" priority="146">
       <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F45">
-    <cfRule type="expression" dxfId="138" priority="147">
+    <cfRule type="expression" dxfId="136" priority="147">
       <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F45">
-    <cfRule type="expression" dxfId="137" priority="148">
+    <cfRule type="expression" dxfId="135" priority="148">
       <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:M45">
-    <cfRule type="expression" dxfId="136" priority="139">
+    <cfRule type="expression" dxfId="134" priority="139">
       <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:M45">
-    <cfRule type="cellIs" dxfId="135" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="140" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:M45">
-    <cfRule type="expression" dxfId="134" priority="141">
+    <cfRule type="expression" dxfId="132" priority="141">
       <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:M45">
-    <cfRule type="expression" dxfId="133" priority="142">
+    <cfRule type="expression" dxfId="131" priority="142">
       <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:M45">
-    <cfRule type="expression" dxfId="132" priority="143">
+    <cfRule type="expression" dxfId="130" priority="143">
       <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="131" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="132" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="130" priority="135">
+    <cfRule type="expression" dxfId="128" priority="135">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="129" priority="136">
+    <cfRule type="expression" dxfId="127" priority="136">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="128" priority="137">
+    <cfRule type="expression" dxfId="126" priority="137">
       <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", $E49 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="127" priority="138">
+    <cfRule type="expression" dxfId="125" priority="138">
       <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", $E49 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="containsText" dxfId="126" priority="122" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="124" priority="122" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A51))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:C51">
-    <cfRule type="expression" dxfId="125" priority="123">
+    <cfRule type="expression" dxfId="123" priority="123">
       <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:C51">
-    <cfRule type="cellIs" dxfId="124" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="124" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="123" priority="125">
+    <cfRule type="expression" dxfId="121" priority="125">
       <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $C51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="122" priority="126">
+    <cfRule type="expression" dxfId="120" priority="126">
       <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $B51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" dxfId="121" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="127" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:C51">
-    <cfRule type="expression" dxfId="120" priority="128">
+    <cfRule type="expression" dxfId="118" priority="128">
       <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:C51">
-    <cfRule type="expression" dxfId="119" priority="129">
+    <cfRule type="expression" dxfId="117" priority="129">
       <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $M51 = "", $N51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:C51">
-    <cfRule type="expression" dxfId="118" priority="130">
+    <cfRule type="expression" dxfId="116" priority="130">
       <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $M51 = "", $N51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="containsText" dxfId="117" priority="106" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="115" priority="106" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A52))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="116" priority="107">
+    <cfRule type="expression" dxfId="114" priority="107">
       <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="cellIs" dxfId="115" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="108" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="114" priority="109">
+    <cfRule type="expression" dxfId="112" priority="109">
       <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $C52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="113" priority="110">
+    <cfRule type="expression" dxfId="111" priority="110">
       <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $B52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="112" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="111" priority="112">
+    <cfRule type="expression" dxfId="109" priority="112">
       <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="110" priority="113">
+    <cfRule type="expression" dxfId="108" priority="113">
       <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $M52 = "", $N52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="109" priority="114">
+    <cfRule type="expression" dxfId="107" priority="114">
       <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $M52 = "", $N52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M12">
-    <cfRule type="cellIs" dxfId="108" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="97" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M11">
-    <cfRule type="cellIs" dxfId="107" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="92" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="106" priority="77">
+    <cfRule type="expression" dxfId="104" priority="77">
       <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="105" priority="78">
+    <cfRule type="expression" dxfId="103" priority="78">
       <formula>AND($A42="end group", $B42 = "", $C42 = "", $E42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $M42 = "", $N42 = "", $O42 = "", $Q42 = "", $R42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="cellIs" dxfId="104" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="79" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="103" priority="80">
+    <cfRule type="expression" dxfId="101" priority="80">
       <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $B42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="102" priority="82">
+    <cfRule type="expression" dxfId="100" priority="82">
       <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="101" priority="83">
+    <cfRule type="expression" dxfId="99" priority="83">
       <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $E42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $M42 = "", $N42 = "", $O42 = "", $Q42 = "", $R42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="100" priority="71">
+    <cfRule type="expression" dxfId="98" priority="71">
       <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73">
-    <cfRule type="cellIs" dxfId="99" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="72" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="98" priority="73">
+    <cfRule type="expression" dxfId="96" priority="73">
       <formula>AND(AND(NOT($A73 = "end group"), NOT($A73 = "end repeat"), NOT($A73 = "")), $C73 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="97" priority="74">
+    <cfRule type="expression" dxfId="95" priority="74">
       <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="96" priority="75">
+    <cfRule type="expression" dxfId="94" priority="75">
       <formula>AND($A73="end group", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $M73 = "", $N73 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="95" priority="76">
+    <cfRule type="expression" dxfId="93" priority="76">
       <formula>AND($A73="end repeat", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $M73 = "", $N73 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:A62">
-    <cfRule type="containsText" dxfId="94" priority="59" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="92" priority="59" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A58))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:AE62">
-    <cfRule type="expression" dxfId="93" priority="60">
+    <cfRule type="expression" dxfId="91" priority="60">
       <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:AE62">
-    <cfRule type="expression" dxfId="92" priority="61">
+    <cfRule type="expression" dxfId="90" priority="61">
       <formula>AND($A58="end group", $B58 = "", $C58 = "", $E58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "", $O58 = "", $Q58 = "", $R58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:AE62">
-    <cfRule type="cellIs" dxfId="91" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="62" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M58:M62">
-    <cfRule type="expression" dxfId="90" priority="63">
+  <conditionalFormatting sqref="M58:M62 M66:M69 M72">
+    <cfRule type="expression" dxfId="88" priority="63">
       <formula>AND($M58 = "", $A58 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:D62">
-    <cfRule type="expression" dxfId="89" priority="64">
+    <cfRule type="expression" dxfId="87" priority="64">
       <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $C58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:B62">
-    <cfRule type="expression" dxfId="88" priority="65">
+    <cfRule type="expression" dxfId="86" priority="65">
       <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $B58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:A62">
-    <cfRule type="cellIs" dxfId="87" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="66" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:L62">
-    <cfRule type="expression" dxfId="86" priority="68">
+  <conditionalFormatting sqref="K58:L62 K66:L69 K72:L72">
+    <cfRule type="expression" dxfId="84" priority="68">
       <formula>AND(NOT($J58 = ""), $K58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:AE62">
-    <cfRule type="expression" dxfId="85" priority="69">
+    <cfRule type="expression" dxfId="83" priority="69">
       <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:AE62">
-    <cfRule type="expression" dxfId="84" priority="70">
+    <cfRule type="expression" dxfId="82" priority="70">
       <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $E58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "", $O58 = "", $Q58 = "", $R58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51 B42">
-    <cfRule type="expression" dxfId="83" priority="724">
+    <cfRule type="expression" dxfId="81" priority="724">
       <formula>COUNTIF($B$2:$B$1134,B42)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:A65">
-    <cfRule type="containsText" dxfId="82" priority="47" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="80" priority="47" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A64))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:AE65">
-    <cfRule type="expression" dxfId="81" priority="48">
+    <cfRule type="expression" dxfId="79" priority="48">
       <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:AE65">
-    <cfRule type="expression" dxfId="80" priority="49">
+    <cfRule type="expression" dxfId="78" priority="49">
       <formula>AND($A64="end group", $B64 = "", $C64 = "", $E64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $M64 = "", $N64 = "", $O64 = "", $Q64 = "", $R64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:AE65">
-    <cfRule type="cellIs" dxfId="79" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="50" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:M65">
-    <cfRule type="expression" dxfId="78" priority="51">
+    <cfRule type="expression" dxfId="76" priority="51">
       <formula>AND($M64 = "", $A64 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:D65">
-    <cfRule type="expression" dxfId="77" priority="52">
+    <cfRule type="expression" dxfId="75" priority="52">
       <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="expression" dxfId="76" priority="53">
+    <cfRule type="expression" dxfId="74" priority="53">
       <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $B64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:A65">
-    <cfRule type="cellIs" dxfId="75" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="54" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:B62">
-    <cfRule type="expression" dxfId="74" priority="55">
+    <cfRule type="expression" dxfId="72" priority="55">
       <formula>COUNTIF($B$2:$B$1129,B58)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K64:L65">
-    <cfRule type="expression" dxfId="73" priority="56">
+    <cfRule type="expression" dxfId="71" priority="56">
       <formula>AND(NOT($J64 = ""), $K64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:AE65">
-    <cfRule type="expression" dxfId="72" priority="57">
+    <cfRule type="expression" dxfId="70" priority="57">
       <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:AE65">
-    <cfRule type="expression" dxfId="71" priority="58">
+    <cfRule type="expression" dxfId="69" priority="58">
       <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $E64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $M64 = "", $N64 = "", $O64 = "", $Q64 = "", $R64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:A72">
-    <cfRule type="containsText" dxfId="70" priority="35" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="68" priority="35" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A66))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:AE72">
-    <cfRule type="expression" dxfId="69" priority="36">
+  <conditionalFormatting sqref="A66:AE69 A72:AE72 A70:I71">
+    <cfRule type="expression" dxfId="67" priority="36">
       <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:AE72">
-    <cfRule type="expression" dxfId="68" priority="37">
+  <conditionalFormatting sqref="A66:AE69 A72:AE72">
+    <cfRule type="expression" dxfId="66" priority="37">
       <formula>AND($A66="end group", $B66 = "", $C66 = "", $E66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "", $O66 = "", $Q66 = "", $R66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:AE72">
-    <cfRule type="cellIs" dxfId="67" priority="38" operator="equal">
+  <conditionalFormatting sqref="A66:AE69 A72:AE72 A70:I71">
+    <cfRule type="cellIs" dxfId="65" priority="38" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M66:M72">
-    <cfRule type="expression" dxfId="66" priority="39">
-      <formula>AND($M66 = "", $A66 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C66:D72">
-    <cfRule type="expression" dxfId="65" priority="40">
+    <cfRule type="expression" dxfId="64" priority="40">
       <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66:B72">
-    <cfRule type="expression" dxfId="64" priority="41">
+    <cfRule type="expression" dxfId="63" priority="41">
       <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:A72">
-    <cfRule type="cellIs" dxfId="63" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="42" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66:L72">
-    <cfRule type="expression" dxfId="62" priority="44">
-      <formula>AND(NOT($J66 = ""), $K66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:AE72">
+  <conditionalFormatting sqref="A66:AE69 A72:AE72 A70:I71">
     <cfRule type="expression" dxfId="61" priority="45">
       <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:AE72">
+  <conditionalFormatting sqref="A66:AE69 A72:AE72">
     <cfRule type="expression" dxfId="60" priority="46">
       <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $E66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "", $O66 = "", $Q66 = "", $R66 = "")</formula>
     </cfRule>
@@ -35089,22 +35058,22 @@
       <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N55:AE57 A55:L55 D56:L57">
+  <conditionalFormatting sqref="N55:AE57 A55:L55 D56:L57 N70:AE71 A70:L71">
     <cfRule type="expression" dxfId="20" priority="807">
       <formula>AND($A55="end group", $B55 = "", $C55 = "", $E55 = "", $H55 = "", $I55 = "", #REF! = "", $K55 = "", $J55 = "", $N55 = "", $O55 = "", $Q55 = "", $R55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55:J57">
+  <conditionalFormatting sqref="J55:J57 J70:J71">
     <cfRule type="expression" dxfId="19" priority="813">
       <formula>AND($J55 = "", $A55 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:L57">
+  <conditionalFormatting sqref="K55:L57 K70:L71">
     <cfRule type="expression" dxfId="18" priority="814">
       <formula>AND(NOT(#REF! = ""), $K55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N55:AE57 A55:L55 D56:L57">
+  <conditionalFormatting sqref="N55:AE57 A55:L55 D56:L57 N70:AE71 A70:L71">
     <cfRule type="expression" dxfId="17" priority="817">
       <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $E55 = "", $H55 = "", $I55 = "", #REF! = "", $K55 = "", $J55 = "", $N55 = "", $O55 = "", $Q55 = "", $R55 = "")</formula>
     </cfRule>
@@ -35276,7 +35245,7 @@
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" ht="13.8">
       <c r="A6" s="59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>2</v>
@@ -35287,7 +35256,7 @@
     </row>
     <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
@@ -35413,7 +35382,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 5-36</v>
+        <v>2022-11-08 5-39</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="168">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -497,9 +497,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>"NEW"</t>
-  </si>
-  <si>
     <t>selected(../child, 'yes')</t>
   </si>
   <si>
@@ -543,7 +540,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -730,6 +727,11 @@
       <color rgb="FFB7B7B7"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="24">
     <fill>
@@ -913,8 +915,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1048,10 +1051,35 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="244">
+  <dxfs count="242">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1645,14 +1673,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFC27BA0"/>
       </font>
@@ -1682,22 +1702,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFF2CC"/>
           <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1772,14 +1776,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFF9900"/>
           <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1862,14 +1858,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9EAD3"/>
           <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3851,13 +3839,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE1052"/>
+  <dimension ref="A1:AE1051"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M81" sqref="M81"/>
+      <selection pane="bottomRight" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5144,7 +5132,7 @@
     </row>
     <row r="38" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A38" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>136</v>
@@ -5188,7 +5176,7 @@
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G39" s="31"/>
       <c r="H39" s="28"/>
@@ -5253,7 +5241,7 @@
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
@@ -5726,7 +5714,7 @@
         <v>77</v>
       </c>
       <c r="B54" s="56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C54" s="56" t="s">
         <v>91</v>
@@ -5738,7 +5726,7 @@
       <c r="H54" s="56"/>
       <c r="I54" s="56"/>
       <c r="J54" s="56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K54" s="56"/>
       <c r="L54" s="56"/>
@@ -5767,7 +5755,7 @@
         <v>77</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C55" s="52" t="s">
         <v>91</v>
@@ -5779,7 +5767,7 @@
       <c r="H55" s="54"/>
       <c r="I55" s="54"/>
       <c r="J55" s="61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K55" s="54"/>
       <c r="L55" s="54"/>
@@ -5807,10 +5795,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="52"/>
       <c r="E56" s="54"/>
@@ -5845,10 +5833,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C57" s="56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="52"/>
       <c r="E57" s="54"/>
@@ -6368,7 +6356,7 @@
       <c r="H70" s="56"/>
       <c r="I70" s="56"/>
       <c r="J70" s="56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K70" s="56"/>
       <c r="L70" s="56"/>
@@ -6433,64 +6421,57 @@
       <c r="AD71" s="56"/>
       <c r="AE71" s="56"/>
     </row>
-    <row r="72" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A72" s="57" t="s">
+    <row r="72" spans="1:31" s="2" customFormat="1" ht="13.2">
+      <c r="A72" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+    </row>
+    <row r="73" spans="1:31" s="2" customFormat="1" ht="13.2">
+      <c r="A73" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="57" t="s">
-        <v>93</v>
+      <c r="B73" s="39" t="s">
+        <v>78</v>
       </c>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="56"/>
-      <c r="K72" s="56"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="N72" s="56"/>
-      <c r="O72" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="P72" s="56"/>
-      <c r="Q72" s="56"/>
-      <c r="R72" s="56"/>
-      <c r="S72" s="56"/>
-      <c r="T72" s="56"/>
-      <c r="U72" s="56"/>
-      <c r="V72" s="56"/>
-      <c r="W72" s="56"/>
-      <c r="X72" s="56"/>
-      <c r="Y72" s="56"/>
-      <c r="Z72" s="56"/>
-      <c r="AA72" s="56"/>
-      <c r="AB72" s="56"/>
-      <c r="AC72" s="56"/>
-      <c r="AD72" s="56"/>
-      <c r="AE72" s="56"/>
-    </row>
-    <row r="73" spans="1:31" s="2" customFormat="1" ht="13.2">
-      <c r="A73" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B73" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" s="43" t="s">
-        <v>91</v>
-      </c>
+      <c r="C73" s="34"/>
       <c r="D73" s="34"/>
       <c r="E73" s="34"/>
       <c r="F73" s="34"/>
       <c r="G73" s="34"/>
       <c r="H73" s="35"/>
       <c r="I73" s="35"/>
-      <c r="J73" s="13"/>
+      <c r="J73" s="40" t="s">
+        <v>87</v>
+      </c>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
       <c r="M73" s="13"/>
@@ -6513,7 +6494,7 @@
         <v>77</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C74" s="34"/>
       <c r="D74" s="34"/>
@@ -6523,7 +6504,7 @@
       <c r="H74" s="35"/>
       <c r="I74" s="35"/>
       <c r="J74" s="40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
@@ -6547,7 +6528,7 @@
         <v>77</v>
       </c>
       <c r="B75" s="39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C75" s="34"/>
       <c r="D75" s="34"/>
@@ -6557,7 +6538,7 @@
       <c r="H75" s="35"/>
       <c r="I75" s="35"/>
       <c r="J75" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
@@ -6577,12 +6558,10 @@
       <c r="Z75" s="1"/>
     </row>
     <row r="76" spans="1:31" s="2" customFormat="1" ht="13.2">
-      <c r="A76" s="38" t="s">
-        <v>77</v>
+      <c r="A76" s="40" t="s">
+        <v>51</v>
       </c>
-      <c r="B76" s="39" t="s">
-        <v>80</v>
-      </c>
+      <c r="B76" s="40"/>
       <c r="C76" s="34"/>
       <c r="D76" s="34"/>
       <c r="E76" s="34"/>
@@ -6590,9 +6569,7 @@
       <c r="G76" s="34"/>
       <c r="H76" s="35"/>
       <c r="I76" s="35"/>
-      <c r="J76" s="40" t="s">
-        <v>89</v>
-      </c>
+      <c r="J76" s="13"/>
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
       <c r="M76" s="13"/>
@@ -6611,10 +6588,10 @@
       <c r="Z76" s="1"/>
     </row>
     <row r="77" spans="1:31" s="2" customFormat="1" ht="13.2">
-      <c r="A77" s="40" t="s">
+      <c r="A77" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B77" s="40"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="34"/>
       <c r="D77" s="34"/>
       <c r="E77" s="34"/>
@@ -6640,23 +6617,21 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:31" s="2" customFormat="1" ht="13.2">
-      <c r="A78" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
+    <row r="78" spans="1:31" ht="13.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -6670,7 +6645,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:31" ht="13.2">
+    <row r="79" spans="1:31" ht="14.25" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -7118,7 +7093,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="14.25" customHeight="1">
+    <row r="95" spans="1:26" ht="13.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -33914,893 +33889,855 @@
       <c r="Y1051" s="1"/>
       <c r="Z1051" s="1"/>
     </row>
-    <row r="1052" spans="1:26" ht="13.2">
-      <c r="A1052" s="1"/>
-      <c r="B1052" s="1"/>
-      <c r="C1052" s="1"/>
-      <c r="D1052" s="1"/>
-      <c r="E1052" s="1"/>
-      <c r="F1052" s="1"/>
-      <c r="G1052" s="1"/>
-      <c r="H1052" s="1"/>
-      <c r="I1052" s="1"/>
-      <c r="J1052" s="1"/>
-      <c r="K1052" s="1"/>
-      <c r="L1052" s="1"/>
-      <c r="M1052" s="1"/>
-      <c r="N1052" s="1"/>
-      <c r="O1052" s="1"/>
-      <c r="P1052" s="1"/>
-      <c r="Q1052" s="1"/>
-      <c r="R1052" s="1"/>
-      <c r="S1052" s="1"/>
-      <c r="T1052" s="1"/>
-      <c r="U1052" s="1"/>
-      <c r="V1052" s="1"/>
-      <c r="W1052" s="1"/>
-      <c r="X1052" s="1"/>
-      <c r="Y1052" s="1"/>
-      <c r="Z1052" s="1"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C4 A39:C41 A5:B5 A6:C8 A48:C48 A19:B19 A27:C29 A32:C34 A53:C53 A18:C18 L12:M12 M10:M11 A9:F17 N55:AE57 J55:L57 N70:AE71 J70:L71">
-    <cfRule type="expression" dxfId="243" priority="338">
+    <cfRule type="expression" dxfId="241" priority="338">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C4 A48:C48 A40:C40 A5:B5 A6:C8 A19:B19 A53:C53 A18:C18">
-    <cfRule type="expression" dxfId="242" priority="339">
+    <cfRule type="expression" dxfId="240" priority="339">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C4 A38:C41 A37 C37 C42 A5:B5 A6:C8 A48:C48 C46 A18:C18 A17:F17 N55:AE57 J55:L57 N70:AE71 J70:L71">
-    <cfRule type="cellIs" dxfId="241" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="340" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:B41 B48 B27:B29 B32:B34 B53 B2:B19">
-    <cfRule type="expression" dxfId="240" priority="341">
+  <conditionalFormatting sqref="B39:B41 B48 B27:B29 B32:B34 B53 B2:B19 B66:B71">
+    <cfRule type="expression" dxfId="238" priority="341">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C4 A39:C41 A5:B5 A6:C8 A48:C48 A19:B19 A27:C29 A32:C34 A53:C53 A18:C18 L12:M12 M10:M11 A9:F17 N55:AE57 J55:L57 N70:AE71 J70:L71">
-    <cfRule type="expression" dxfId="239" priority="343">
+    <cfRule type="expression" dxfId="237" priority="343">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C4 A48:C48 A40:C40 A5:B5 A6:C8 A19:B19 A53:C53 A18:C18">
-    <cfRule type="expression" dxfId="238" priority="344">
+    <cfRule type="expression" dxfId="236" priority="344">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53 A2:A8 A48 A17:A18 A37:A41">
-    <cfRule type="containsText" dxfId="237" priority="348" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="235" priority="348" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C4 C48 C27:C29 C32:C34 C53 C6:C18 C37:C42">
-    <cfRule type="expression" dxfId="236" priority="349">
+  <conditionalFormatting sqref="C2:C4 C48 C27:C29 C32:C34 C53 C6:C18 C37:C42 C66:D71">
+    <cfRule type="expression" dxfId="234" priority="349">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A8 A48 A17:A18 A37:A41">
-    <cfRule type="cellIs" dxfId="235" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="350" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:C53">
-    <cfRule type="cellIs" dxfId="234" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="353" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" dxfId="233" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="356" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="containsText" dxfId="232" priority="368" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="230" priority="368" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A49))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="expression" dxfId="231" priority="369">
+    <cfRule type="expression" dxfId="229" priority="369">
       <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="expression" dxfId="230" priority="370">
+    <cfRule type="expression" dxfId="228" priority="370">
       <formula>AND($A49="end group", $B49 = "", $C49 = "", $E49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="cellIs" dxfId="229" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="371" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="cellIs" dxfId="228" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="372" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="expression" dxfId="227" priority="373">
+    <cfRule type="expression" dxfId="225" priority="373">
       <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="expression" dxfId="226" priority="374">
+    <cfRule type="expression" dxfId="224" priority="374">
       <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $E49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="containsText" dxfId="225" priority="375" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="223" priority="375" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A50))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="expression" dxfId="224" priority="359">
+    <cfRule type="expression" dxfId="222" priority="359">
       <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="expression" dxfId="223" priority="360">
+    <cfRule type="expression" dxfId="221" priority="360">
       <formula>AND($A50="end group", $B50 = "", $C50 = "", $E50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "", $O50 = "", $P50 = "", $Q50 = "", $S50 = "", $T50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="cellIs" dxfId="222" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="361" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="221" priority="362">
+    <cfRule type="expression" dxfId="219" priority="362">
       <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="220" priority="363">
+    <cfRule type="expression" dxfId="218" priority="363">
       <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $B50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="219" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="364" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="expression" dxfId="218" priority="366">
+    <cfRule type="expression" dxfId="216" priority="366">
       <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="expression" dxfId="217" priority="367">
+    <cfRule type="expression" dxfId="215" priority="367">
       <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $E50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "", $O50 = "", $P50 = "", $Q50 = "", $S50 = "", $T50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="216" priority="331" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="214" priority="331" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A19))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="215" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="334" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="214" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="335" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="213" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="326" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="expression" dxfId="212" priority="310">
-      <formula>AND($A78="begin group", NOT($B78 = ""))</formula>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="expression" dxfId="210" priority="310">
+      <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="expression" dxfId="211" priority="311">
-      <formula>AND($A78="end group", $B78 = "", $C78 = "", $E78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "", $O78 = "", $P78 = "", $Q78 = "", $S78 = "", $T78 = "")</formula>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="expression" dxfId="209" priority="311">
+      <formula>AND($A77="end group", $B77 = "", $C77 = "", $E77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "", $O77 = "", $P77 = "", $Q77 = "", $S77 = "", $T77 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="cellIs" dxfId="210" priority="312" operator="equal">
+  <conditionalFormatting sqref="A77">
+    <cfRule type="cellIs" dxfId="208" priority="312" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="expression" dxfId="209" priority="313">
-      <formula>AND($A78="begin repeat", NOT($B78 = ""))</formula>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="expression" dxfId="207" priority="313">
+      <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="expression" dxfId="208" priority="314">
-      <formula>AND($A78="end repeat", $B78 = "", $C78 = "", $E78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "", $O78 = "", $P78 = "", $Q78 = "", $S78 = "", $T78 = "")</formula>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="expression" dxfId="206" priority="314">
+      <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $E77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "", $O77 = "", $P77 = "", $Q77 = "", $S77 = "", $T77 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="containsText" dxfId="207" priority="315" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A78))))</formula>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="containsText" dxfId="205" priority="315" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A77))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:C41 A39:C39">
-    <cfRule type="expression" dxfId="206" priority="492">
+    <cfRule type="expression" dxfId="204" priority="492">
       <formula>AND($A39="end group", $B39 = "", $C39 = "", #REF! = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "", $O39 = "", $P39 = "", $Q39 = "", $S39 = "", $T39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:C41 A39:C39">
-    <cfRule type="expression" dxfId="205" priority="495">
+    <cfRule type="expression" dxfId="203" priority="495">
       <formula>AND($A39="end repeat", $B39 = "", $C39 = "", #REF! = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "", $O39 = "", $P39 = "", $Q39 = "", $S39 = "", $T39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38 C38">
-    <cfRule type="expression" dxfId="204" priority="521">
+    <cfRule type="expression" dxfId="202" priority="521">
       <formula>AND($A38="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38 C38">
-    <cfRule type="expression" dxfId="203" priority="529">
+    <cfRule type="expression" dxfId="201" priority="529">
       <formula>AND($A38="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="202" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="290" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="containsText" dxfId="201" priority="292" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="199" priority="292" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A42))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="200" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="293" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="expression" dxfId="199" priority="283">
+    <cfRule type="expression" dxfId="197" priority="283">
       <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="expression" dxfId="198" priority="284">
+    <cfRule type="expression" dxfId="196" priority="284">
       <formula>AND($A63="end group", $B63 = "", $C63 = "", $E63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "", $O63 = "", $P63 = "", $Q63 = "", $S63 = "", $T63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" dxfId="197" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="285" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="expression" dxfId="196" priority="286">
+    <cfRule type="expression" dxfId="194" priority="286">
       <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="expression" dxfId="195" priority="287">
+    <cfRule type="expression" dxfId="193" priority="287">
       <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $E63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "", $O63 = "", $P63 = "", $Q63 = "", $S63 = "", $T63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="containsText" dxfId="194" priority="288" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="192" priority="288" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A63))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75:A77">
-    <cfRule type="cellIs" dxfId="193" priority="270" operator="equal">
+  <conditionalFormatting sqref="A74:A76">
+    <cfRule type="cellIs" dxfId="191" priority="270" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75:A77">
-    <cfRule type="cellIs" dxfId="192" priority="271" operator="equal">
+  <conditionalFormatting sqref="A74:A76">
+    <cfRule type="cellIs" dxfId="190" priority="271" operator="equal">
+      <formula>"end group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="cellIs" dxfId="189" priority="272" operator="equal">
+      <formula>"begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="cellIs" dxfId="188" priority="273" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73">
-    <cfRule type="cellIs" dxfId="191" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="274" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73">
-    <cfRule type="cellIs" dxfId="190" priority="273" operator="equal">
-      <formula>"end group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
-    <cfRule type="cellIs" dxfId="189" priority="274" operator="equal">
-      <formula>"begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
-    <cfRule type="cellIs" dxfId="188" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="275" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="187" priority="258">
+    <cfRule type="expression" dxfId="185" priority="258">
       <formula>AND($A5="begin group", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="186" priority="261">
+    <cfRule type="expression" dxfId="184" priority="261">
       <formula>AND($A5="begin repeat", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="185" priority="259">
+    <cfRule type="expression" dxfId="183" priority="259">
       <formula>AND($A5="end group", $B5 = "", $C5 = "", $E5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "", $O5 = "", $P5 = "", $Q5 = "", $S5 = "", $T5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="184" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="260" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="183" priority="262">
+    <cfRule type="expression" dxfId="181" priority="262">
       <formula>AND($A5="end repeat", $B5 = "", $C5 = "", $E5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "", $O5 = "", $P5 = "", $Q5 = "", $S5 = "", $T5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="182" priority="263">
+    <cfRule type="expression" dxfId="180" priority="263">
       <formula>AND(AND(NOT($A5 = "end group"), NOT($A5 = "end repeat"), NOT($A5 = "")), $C5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A16">
-    <cfRule type="containsText" dxfId="181" priority="248" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="179" priority="248" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:F16">
-    <cfRule type="cellIs" dxfId="180" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="250" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A16">
-    <cfRule type="cellIs" dxfId="179" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="253" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C29 A32:C34 L12:M12 M10:M11 A9:F17">
-    <cfRule type="expression" dxfId="178" priority="255">
+    <cfRule type="expression" dxfId="176" priority="255">
       <formula>AND($A9="end group", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C29 A32:C34 L12:M12 M10:M11 A9:F17">
-    <cfRule type="expression" dxfId="177" priority="256">
+    <cfRule type="expression" dxfId="175" priority="256">
       <formula>AND($A9="end repeat", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:A29">
-    <cfRule type="containsText" dxfId="176" priority="209" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="174" priority="209" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C29">
-    <cfRule type="cellIs" dxfId="175" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="211" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:A29">
-    <cfRule type="cellIs" dxfId="174" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="214" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A34">
-    <cfRule type="containsText" dxfId="173" priority="193" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="171" priority="193" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:C34">
-    <cfRule type="cellIs" dxfId="172" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="195" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A34">
-    <cfRule type="cellIs" dxfId="171" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="198" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="170" priority="175">
+    <cfRule type="expression" dxfId="168" priority="175">
       <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="169" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="176" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="168" priority="177">
+    <cfRule type="expression" dxfId="166" priority="177">
       <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="167" priority="178">
+    <cfRule type="expression" dxfId="165" priority="178">
       <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="166" priority="631">
+    <cfRule type="expression" dxfId="164" priority="631">
       <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", #REF! = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="165" priority="632">
+    <cfRule type="expression" dxfId="163" priority="632">
       <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", #REF! = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:A46">
-    <cfRule type="containsText" dxfId="164" priority="165" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="162" priority="165" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A43))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:C45 A46:B46">
-    <cfRule type="expression" dxfId="163" priority="166">
+    <cfRule type="expression" dxfId="161" priority="166">
       <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:C45 A46:B46">
-    <cfRule type="cellIs" dxfId="162" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="167" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C45">
-    <cfRule type="expression" dxfId="161" priority="168">
+    <cfRule type="expression" dxfId="159" priority="168">
       <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B46">
-    <cfRule type="expression" dxfId="160" priority="169">
+    <cfRule type="expression" dxfId="158" priority="169">
       <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:A46">
-    <cfRule type="cellIs" dxfId="159" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="170" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:C45 A46:B46">
-    <cfRule type="expression" dxfId="158" priority="171">
+    <cfRule type="expression" dxfId="156" priority="171">
       <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:C45">
-    <cfRule type="expression" dxfId="157" priority="172">
+    <cfRule type="expression" dxfId="155" priority="172">
       <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:C45">
-    <cfRule type="expression" dxfId="156" priority="173">
+    <cfRule type="expression" dxfId="154" priority="173">
       <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B46">
-    <cfRule type="expression" dxfId="155" priority="645">
+    <cfRule type="expression" dxfId="153" priority="645">
       <formula>AND($A46="end group", $B46 = "", #REF! = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B46">
-    <cfRule type="expression" dxfId="154" priority="646">
+    <cfRule type="expression" dxfId="152" priority="646">
       <formula>AND($A46="end repeat", $B46 = "", #REF! = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="153" priority="661">
+    <cfRule type="expression" dxfId="151" priority="661">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="152" priority="662">
+    <cfRule type="expression" dxfId="150" priority="662">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="151" priority="663">
+    <cfRule type="expression" dxfId="149" priority="663">
       <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="150" priority="664">
+    <cfRule type="expression" dxfId="148" priority="664">
       <formula>AND(#REF!="end group", #REF! = "", $C46 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="149" priority="665">
+    <cfRule type="expression" dxfId="147" priority="665">
       <formula>AND(#REF!="end repeat", #REF! = "", $C46 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="containsText" dxfId="148" priority="155" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="146" priority="155" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A47))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:C47">
-    <cfRule type="expression" dxfId="147" priority="156">
+    <cfRule type="expression" dxfId="145" priority="156">
       <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:C47">
-    <cfRule type="cellIs" dxfId="146" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="157" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="145" priority="158">
+    <cfRule type="expression" dxfId="143" priority="158">
       <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $C47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="144" priority="159">
+    <cfRule type="expression" dxfId="142" priority="159">
       <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $B47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="143" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="160" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:C47">
-    <cfRule type="expression" dxfId="142" priority="161">
+    <cfRule type="expression" dxfId="140" priority="161">
       <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:C47">
-    <cfRule type="expression" dxfId="141" priority="162">
+    <cfRule type="expression" dxfId="139" priority="162">
       <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:C47">
-    <cfRule type="expression" dxfId="140" priority="163">
+    <cfRule type="expression" dxfId="138" priority="163">
       <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F45">
-    <cfRule type="expression" dxfId="139" priority="144">
+    <cfRule type="expression" dxfId="137" priority="144">
       <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F45">
-    <cfRule type="cellIs" dxfId="138" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="145" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F45">
-    <cfRule type="expression" dxfId="137" priority="146">
+    <cfRule type="expression" dxfId="135" priority="146">
       <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F45">
-    <cfRule type="expression" dxfId="136" priority="147">
+    <cfRule type="expression" dxfId="134" priority="147">
       <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F45">
-    <cfRule type="expression" dxfId="135" priority="148">
+    <cfRule type="expression" dxfId="133" priority="148">
       <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:M45">
-    <cfRule type="expression" dxfId="134" priority="139">
+    <cfRule type="expression" dxfId="132" priority="139">
       <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:M45">
-    <cfRule type="cellIs" dxfId="133" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="140" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:M45">
-    <cfRule type="expression" dxfId="132" priority="141">
+    <cfRule type="expression" dxfId="130" priority="141">
       <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:M45">
-    <cfRule type="expression" dxfId="131" priority="142">
+    <cfRule type="expression" dxfId="129" priority="142">
       <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:M45">
-    <cfRule type="expression" dxfId="130" priority="143">
+    <cfRule type="expression" dxfId="128" priority="143">
       <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="129" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="132" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="128" priority="135">
+    <cfRule type="expression" dxfId="126" priority="135">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="127" priority="136">
+    <cfRule type="expression" dxfId="125" priority="136">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="126" priority="137">
+    <cfRule type="expression" dxfId="124" priority="137">
       <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", $E49 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="125" priority="138">
+    <cfRule type="expression" dxfId="123" priority="138">
       <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", $E49 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="containsText" dxfId="124" priority="122" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="122" priority="122" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A51))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:C51">
-    <cfRule type="expression" dxfId="123" priority="123">
+    <cfRule type="expression" dxfId="121" priority="123">
       <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:C51">
-    <cfRule type="cellIs" dxfId="122" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="124" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="121" priority="125">
+    <cfRule type="expression" dxfId="119" priority="125">
       <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $C51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="120" priority="126">
+    <cfRule type="expression" dxfId="118" priority="126">
       <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $B51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" dxfId="119" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="127" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:C51">
-    <cfRule type="expression" dxfId="118" priority="128">
+    <cfRule type="expression" dxfId="116" priority="128">
       <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:C51">
-    <cfRule type="expression" dxfId="117" priority="129">
+    <cfRule type="expression" dxfId="115" priority="129">
       <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $M51 = "", $N51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:C51">
-    <cfRule type="expression" dxfId="116" priority="130">
+    <cfRule type="expression" dxfId="114" priority="130">
       <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $M51 = "", $N51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="containsText" dxfId="115" priority="106" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="113" priority="106" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A52))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="114" priority="107">
+    <cfRule type="expression" dxfId="112" priority="107">
       <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="cellIs" dxfId="113" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="108" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="112" priority="109">
+    <cfRule type="expression" dxfId="110" priority="109">
       <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $C52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="111" priority="110">
+    <cfRule type="expression" dxfId="109" priority="110">
       <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $B52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="111" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="109" priority="112">
+    <cfRule type="expression" dxfId="107" priority="112">
       <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="108" priority="113">
+    <cfRule type="expression" dxfId="106" priority="113">
       <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $M52 = "", $N52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="107" priority="114">
+    <cfRule type="expression" dxfId="105" priority="114">
       <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $M52 = "", $N52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M12">
-    <cfRule type="cellIs" dxfId="106" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="97" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M11">
-    <cfRule type="cellIs" dxfId="105" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="92" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="104" priority="77">
+    <cfRule type="expression" dxfId="102" priority="77">
       <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="103" priority="78">
+    <cfRule type="expression" dxfId="101" priority="78">
       <formula>AND($A42="end group", $B42 = "", $C42 = "", $E42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $M42 = "", $N42 = "", $O42 = "", $Q42 = "", $R42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="cellIs" dxfId="102" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="79" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="101" priority="80">
+    <cfRule type="expression" dxfId="99" priority="80">
       <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $B42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="100" priority="82">
+    <cfRule type="expression" dxfId="98" priority="82">
       <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="99" priority="83">
+    <cfRule type="expression" dxfId="97" priority="83">
       <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $E42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $M42 = "", $N42 = "", $O42 = "", $Q42 = "", $R42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="98" priority="71">
-      <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="expression" dxfId="96" priority="71">
+      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="cellIs" dxfId="97" priority="72" operator="equal">
+  <conditionalFormatting sqref="C72">
+    <cfRule type="cellIs" dxfId="95" priority="72" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="96" priority="73">
-      <formula>AND(AND(NOT($A73 = "end group"), NOT($A73 = "end repeat"), NOT($A73 = "")), $C73 = "")</formula>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="expression" dxfId="94" priority="73">
+      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $C72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="95" priority="74">
-      <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="expression" dxfId="93" priority="74">
+      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="94" priority="75">
-      <formula>AND($A73="end group", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $M73 = "", $N73 = "")</formula>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="expression" dxfId="92" priority="75">
+      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $M72 = "", $N72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="93" priority="76">
-      <formula>AND($A73="end repeat", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $M73 = "", $N73 = "")</formula>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="expression" dxfId="91" priority="76">
+      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $M72 = "", $N72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:A62">
-    <cfRule type="containsText" dxfId="92" priority="59" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="90" priority="59" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A58))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:AE62">
-    <cfRule type="expression" dxfId="91" priority="60">
+    <cfRule type="expression" dxfId="89" priority="60">
       <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:AE62">
-    <cfRule type="expression" dxfId="90" priority="61">
+    <cfRule type="expression" dxfId="88" priority="61">
       <formula>AND($A58="end group", $B58 = "", $C58 = "", $E58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "", $O58 = "", $Q58 = "", $R58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:AE62">
-    <cfRule type="cellIs" dxfId="89" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="62" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M58:M62 M66:M69 M72">
-    <cfRule type="expression" dxfId="88" priority="63">
+  <conditionalFormatting sqref="M58:M62 M66:M69">
+    <cfRule type="expression" dxfId="86" priority="63">
       <formula>AND($M58 = "", $A58 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:D62">
-    <cfRule type="expression" dxfId="87" priority="64">
+    <cfRule type="expression" dxfId="85" priority="64">
       <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $C58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:B62">
-    <cfRule type="expression" dxfId="86" priority="65">
+    <cfRule type="expression" dxfId="84" priority="65">
       <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $B58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:A62">
-    <cfRule type="cellIs" dxfId="85" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="66" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:L62 K66:L69 K72:L72">
-    <cfRule type="expression" dxfId="84" priority="68">
+  <conditionalFormatting sqref="K58:L62 K66:L69">
+    <cfRule type="expression" dxfId="82" priority="68">
       <formula>AND(NOT($J58 = ""), $K58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:AE62">
-    <cfRule type="expression" dxfId="83" priority="69">
+    <cfRule type="expression" dxfId="81" priority="69">
       <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:AE62">
-    <cfRule type="expression" dxfId="82" priority="70">
+    <cfRule type="expression" dxfId="80" priority="70">
       <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $E58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "", $O58 = "", $Q58 = "", $R58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51 B42">
-    <cfRule type="expression" dxfId="81" priority="724">
-      <formula>COUNTIF($B$2:$B$1134,B42)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A64:A65">
-    <cfRule type="containsText" dxfId="80" priority="47" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="79" priority="47" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A64))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:AE65">
-    <cfRule type="expression" dxfId="79" priority="48">
+    <cfRule type="expression" dxfId="78" priority="48">
       <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:AE65">
-    <cfRule type="expression" dxfId="78" priority="49">
+    <cfRule type="expression" dxfId="77" priority="49">
       <formula>AND($A64="end group", $B64 = "", $C64 = "", $E64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $M64 = "", $N64 = "", $O64 = "", $Q64 = "", $R64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:AE65">
-    <cfRule type="cellIs" dxfId="77" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="50" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:M65">
-    <cfRule type="expression" dxfId="76" priority="51">
+    <cfRule type="expression" dxfId="75" priority="51">
       <formula>AND($M64 = "", $A64 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:D65">
-    <cfRule type="expression" dxfId="75" priority="52">
+    <cfRule type="expression" dxfId="74" priority="52">
       <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="expression" dxfId="74" priority="53">
+    <cfRule type="expression" dxfId="73" priority="53">
       <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $B64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:A65">
-    <cfRule type="cellIs" dxfId="73" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="54" operator="equal">
       <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58:B62">
-    <cfRule type="expression" dxfId="72" priority="55">
-      <formula>COUNTIF($B$2:$B$1129,B58)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K64:L65">
@@ -34818,353 +34755,353 @@
       <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $E64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $M64 = "", $N64 = "", $O64 = "", $Q64 = "", $R64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:A72">
+  <conditionalFormatting sqref="A66:A71">
     <cfRule type="containsText" dxfId="68" priority="35" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A66))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:AE69 A72:AE72 A70:I71">
+  <conditionalFormatting sqref="A66:AE69 A70:I71">
     <cfRule type="expression" dxfId="67" priority="36">
       <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:AE69 A72:AE72">
+  <conditionalFormatting sqref="A66:AE69">
     <cfRule type="expression" dxfId="66" priority="37">
       <formula>AND($A66="end group", $B66 = "", $C66 = "", $E66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "", $O66 = "", $Q66 = "", $R66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:AE69 A72:AE72 A70:I71">
+  <conditionalFormatting sqref="A66:AE69 A70:I71">
     <cfRule type="cellIs" dxfId="65" priority="38" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66:D72">
-    <cfRule type="expression" dxfId="64" priority="40">
-      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66:B72">
-    <cfRule type="expression" dxfId="63" priority="41">
-      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:A72">
-    <cfRule type="cellIs" dxfId="62" priority="42" operator="equal">
+  <conditionalFormatting sqref="A66:A71">
+    <cfRule type="cellIs" dxfId="64" priority="42" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:AE69 A72:AE72 A70:I71">
-    <cfRule type="expression" dxfId="61" priority="45">
+  <conditionalFormatting sqref="A66:AE69 A70:I71">
+    <cfRule type="expression" dxfId="63" priority="45">
       <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:AE69 A72:AE72">
-    <cfRule type="expression" dxfId="60" priority="46">
+  <conditionalFormatting sqref="A66:AE69">
+    <cfRule type="expression" dxfId="62" priority="46">
       <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $E66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "", $O66 = "", $Q66 = "", $R66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64:B65">
-    <cfRule type="expression" dxfId="59" priority="743">
-      <formula>COUNTIF($B$2:$B$1128,B64)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66:B72 B54">
-    <cfRule type="expression" dxfId="58" priority="744">
-      <formula>COUNTIF($B$2:$B$1120,B54)&gt;1</formula>
+  <conditionalFormatting sqref="B58:B62">
+    <cfRule type="expression" dxfId="61" priority="743">
+      <formula>COUNTIF($B$2:$B$1128,B58)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="57" priority="762">
+    <cfRule type="expression" dxfId="60" priority="762">
       <formula>AND(#REF!="begin group", NOT($B38 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="56" priority="765">
+    <cfRule type="expression" dxfId="59" priority="765">
       <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="55" priority="766">
+    <cfRule type="expression" dxfId="58" priority="766">
       <formula>AND(#REF!="begin repeat", NOT($B38 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="54" priority="769">
+    <cfRule type="expression" dxfId="57" priority="769">
       <formula>AND(#REF!="end group", $B38 = "", #REF! = "", $E40 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38 C38">
-    <cfRule type="expression" dxfId="53" priority="770">
+    <cfRule type="expression" dxfId="56" priority="770">
       <formula>AND($A38="end group", #REF! = "", $C38 = "", $E39 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "", $O38 = "", $P38 = "", $Q38 = "", $S38 = "", $T38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="52" priority="772">
+    <cfRule type="expression" dxfId="55" priority="772">
       <formula>AND(#REF!="end repeat", $B38 = "", #REF! = "", $E40 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38 C38">
-    <cfRule type="expression" dxfId="51" priority="773">
+    <cfRule type="expression" dxfId="54" priority="773">
       <formula>AND($A38="end repeat", #REF! = "", $C38 = "", $E39 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "", $O38 = "", $P38 = "", $Q38 = "", $S38 = "", $T38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37 C37">
-    <cfRule type="expression" dxfId="50" priority="775">
+    <cfRule type="expression" dxfId="53" priority="775">
       <formula>AND($A37="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37 C37">
-    <cfRule type="expression" dxfId="49" priority="777">
+    <cfRule type="expression" dxfId="52" priority="777">
       <formula>AND($A37="end group", $B42 = "", $C37 = "", $E37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "", $O37 = "", $P37 = "", $Q37 = "", $S37 = "", $T37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37 C37">
-    <cfRule type="expression" dxfId="48" priority="779">
+    <cfRule type="expression" dxfId="51" priority="779">
       <formula>AND($A37="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37 C37">
-    <cfRule type="expression" dxfId="47" priority="781">
+    <cfRule type="expression" dxfId="50" priority="781">
       <formula>AND($A37="end repeat", $B42 = "", $C37 = "", $E37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "", $O37 = "", $P37 = "", $Q37 = "", $S37 = "", $T37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42 A42">
-    <cfRule type="expression" dxfId="46" priority="783">
+    <cfRule type="expression" dxfId="49" priority="783">
       <formula>AND($A42="begin group", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42 A42">
-    <cfRule type="expression" dxfId="45" priority="785">
+    <cfRule type="expression" dxfId="48" priority="785">
       <formula>AND($A42="begin repeat", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="44" priority="787">
+    <cfRule type="expression" dxfId="47" priority="787">
       <formula>AND($A42="end group", $B37 = "", $C42 = "", #REF! = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "", $O42 = "", $P42 = "", $Q42 = "", $S42 = "", $T42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42 A42">
-    <cfRule type="expression" dxfId="43" priority="788">
+    <cfRule type="expression" dxfId="46" priority="788">
       <formula>AND($A42="end repeat", $B37 = "", $C42 = "", #REF! = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "", $O42 = "", $P42 = "", $Q42 = "", $S42 = "", $T42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="42" priority="789">
+    <cfRule type="expression" dxfId="45" priority="789">
       <formula>AND($A42="end group", $B37 = "", $C42 = "", #REF! = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "", $O42 = "", $P42 = "", $Q42 = "", $S42 = "", $T42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="41" priority="791">
+    <cfRule type="expression" dxfId="44" priority="791">
       <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E37 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $M49 = "", $N49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="40" priority="792">
+    <cfRule type="expression" dxfId="43" priority="792">
       <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E37 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $M49 = "", $N49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52 B19">
-    <cfRule type="expression" dxfId="39" priority="802">
-      <formula>COUNTIF($B$2:$B$1133,B19)&gt;1</formula>
+  <conditionalFormatting sqref="B51 B42">
+    <cfRule type="expression" dxfId="42" priority="802">
+      <formula>COUNTIF($B$2:$B$1133,B42)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="38" priority="23" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A54))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:AE54">
-    <cfRule type="expression" dxfId="37" priority="24">
+    <cfRule type="expression" dxfId="40" priority="24">
       <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:AE54">
-    <cfRule type="expression" dxfId="36" priority="25">
+    <cfRule type="expression" dxfId="39" priority="25">
       <formula>AND($A54="end group", $B54 = "", $C54 = "", $E54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $M54 = "", $N54 = "", $O54 = "", $Q54 = "", $R54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:AE54">
-    <cfRule type="cellIs" dxfId="35" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54">
-    <cfRule type="expression" dxfId="34" priority="27">
+    <cfRule type="expression" dxfId="37" priority="27">
       <formula>AND($M54 = "", $A54 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:D54">
-    <cfRule type="expression" dxfId="33" priority="28">
+    <cfRule type="expression" dxfId="36" priority="28">
       <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $C54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="32" priority="29">
+    <cfRule type="expression" dxfId="35" priority="29">
       <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $B54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:L54">
-    <cfRule type="expression" dxfId="30" priority="32">
+    <cfRule type="expression" dxfId="33" priority="32">
       <formula>AND(NOT($J54 = ""), $K54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:AE54">
-    <cfRule type="expression" dxfId="29" priority="33">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:AE54">
-    <cfRule type="expression" dxfId="28" priority="34">
+    <cfRule type="expression" dxfId="31" priority="34">
       <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $E54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $M54 = "", $N54 = "", $O54 = "", $Q54 = "", $R54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A55))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:I55 D56:I57">
-    <cfRule type="expression" dxfId="26" priority="12">
+    <cfRule type="expression" dxfId="29" priority="12">
       <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:I55 D56:I57">
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:D55 D56:D57">
-    <cfRule type="expression" dxfId="24" priority="16">
+    <cfRule type="expression" dxfId="27" priority="16">
       <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="26" priority="17">
       <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:I55 D56:I57">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="24" priority="21">
       <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55:AE57 A55:L55 D56:L57 N70:AE71 A70:L71">
-    <cfRule type="expression" dxfId="20" priority="807">
+    <cfRule type="expression" dxfId="23" priority="807">
       <formula>AND($A55="end group", $B55 = "", $C55 = "", $E55 = "", $H55 = "", $I55 = "", #REF! = "", $K55 = "", $J55 = "", $N55 = "", $O55 = "", $Q55 = "", $R55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55:J57 J70:J71">
-    <cfRule type="expression" dxfId="19" priority="813">
+    <cfRule type="expression" dxfId="22" priority="813">
       <formula>AND($J55 = "", $A55 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55:L57 K70:L71">
-    <cfRule type="expression" dxfId="18" priority="814">
+    <cfRule type="expression" dxfId="21" priority="814">
       <formula>AND(NOT(#REF! = ""), $K55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55:AE57 A55:L55 D56:L57 N70:AE71 A70:L71">
-    <cfRule type="expression" dxfId="17" priority="817">
+    <cfRule type="expression" dxfId="20" priority="817">
       <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $E55 = "", $H55 = "", $I55 = "", #REF! = "", $K55 = "", $J55 = "", $N55 = "", $O55 = "", $Q55 = "", $R55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A57">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A56))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:C57">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:C57">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>AND($A56="end group", $B56 = "", $C56 = "", $E56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $M56 = "", $N56 = "", $O56 = "", $Q56 = "", $R56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:C57">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $C56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56:B57">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $B56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A57">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:C57">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:C57">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $E56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $M56 = "", $N56 = "", $O56 = "", $Q56 = "", $R56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B52 B19">
+    <cfRule type="expression" dxfId="10" priority="830">
+      <formula>COUNTIF($B$2:$B$1132,B19)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64:B65">
+    <cfRule type="expression" dxfId="9" priority="841">
+      <formula>COUNTIF($B$2:$B$1127,B64)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66:B71 B54">
+    <cfRule type="expression" dxfId="8" priority="842">
+      <formula>COUNTIF($B$2:$B$1119,B54)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B43:B47">
-    <cfRule type="expression" dxfId="7" priority="822">
-      <formula>COUNTIF($B$2:$B$1017,B43)&gt;1</formula>
+    <cfRule type="expression" dxfId="7" priority="846">
+      <formula>COUNTIF($B$2:$B$1016,B43)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50 B38:B41 B48 B53">
-    <cfRule type="expression" dxfId="6" priority="823">
-      <formula>COUNTIF($B$20:$B$1140,B38)&gt;1</formula>
+    <cfRule type="expression" dxfId="6" priority="847">
+      <formula>COUNTIF($B$20:$B$1139,B38)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37 B32:B34">
-    <cfRule type="expression" dxfId="5" priority="827">
-      <formula>COUNTIF($B$2:$B$1021,B32)&gt;1</formula>
+    <cfRule type="expression" dxfId="5" priority="851">
+      <formula>COUNTIF($B$2:$B$1020,B32)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B17">
-    <cfRule type="expression" dxfId="4" priority="829">
-      <formula>COUNTIF($B$2:$B$1030,B9)&gt;1</formula>
+    <cfRule type="expression" dxfId="4" priority="853">
+      <formula>COUNTIF($B$2:$B$1029,B9)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B8 B18">
-    <cfRule type="expression" dxfId="3" priority="830">
-      <formula>COUNTIF($B$2:$B$1132,B2)&gt;1</formula>
+    <cfRule type="expression" dxfId="3" priority="854">
+      <formula>COUNTIF($B$2:$B$1131,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B29">
-    <cfRule type="expression" dxfId="2" priority="832">
-      <formula>COUNTIF($B$2:$B$1024,B27)&gt;1</formula>
+    <cfRule type="expression" dxfId="2" priority="856">
+      <formula>COUNTIF($B$2:$B$1023,B27)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" dxfId="1" priority="834">
-      <formula>COUNTIF($B$2:$B$1118,B55)&gt;1</formula>
+    <cfRule type="expression" dxfId="1" priority="857">
+      <formula>COUNTIF($B$2:$B$1117,B55)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56:B57">
-    <cfRule type="expression" dxfId="0" priority="835">
-      <formula>COUNTIF($B$2:$B$1116,B56)&gt;1</formula>
+    <cfRule type="expression" dxfId="0" priority="858">
+      <formula>COUNTIF($B$2:$B$1115,B56)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D9:D17 E64:E72 E54:E62">
+    <dataValidation type="list" allowBlank="1" sqref="D9:D17 E64:E71 E54:E62">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -35245,7 +35182,7 @@
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" ht="13.8">
       <c r="A6" s="59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>2</v>
@@ -35256,7 +35193,7 @@
     </row>
     <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
@@ -35382,7 +35319,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 5-39</v>
+        <v>2022-11-08 5-43</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="177">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -226,9 +226,6 @@
     <t>select_one knows_dob</t>
   </si>
   <si>
-    <t>hm_age</t>
-  </si>
-  <si>
     <t>Family Member Name</t>
   </si>
   <si>
@@ -352,9 +349,6 @@
     <t>contact_name</t>
   </si>
   <si>
-    <t>hh_age_years</t>
-  </si>
-  <si>
     <t>dob_calendar1</t>
   </si>
   <si>
@@ -475,17 +469,10 @@
 Remove this person by pressing the - button&lt;/span&gt;</t>
   </si>
   <si>
-    <t>&lt;span style="color:#888;font-size:11px;"&gt;**Wonjezerani munthu wina potsindikiza batani ili +.** 
-Chotsani munthu uyu potsindikiza batani ili - &lt;/span&gt;</t>
-  </si>
-  <si>
     <t>household</t>
   </si>
   <si>
     <t>Add Household</t>
-  </si>
-  <si>
-    <t>Kuonjezera banja</t>
   </si>
   <si>
     <t>Posayenera kulumphidwa</t>
@@ -534,6 +521,45 @@
   </si>
   <si>
     <t>concat('Nyumba ya ',../../contact/name)</t>
+  </si>
+  <si>
+    <t>age_years</t>
+  </si>
+  <si>
+    <t>dob_iso</t>
+  </si>
+  <si>
+    <t>decimal-date-time(../dob_raw)</t>
+  </si>
+  <si>
+    <t>if(../dob_calendar != '', ../dob_calendar, ../dob_approx )</t>
+  </si>
+  <si>
+    <t>dob_approx</t>
+  </si>
+  <si>
+    <t>date(concat(string(../ephemeral_years),'-',if(../ephemeral_months&lt;10, concat('0',string(../ephemeral_months)), ../ephemeral_months),'-',string(format-date-time(today(), "%d"))))</t>
+  </si>
+  <si>
+    <t>ephemeral_years</t>
+  </si>
+  <si>
+    <t>if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
+  </si>
+  <si>
+    <t>ephemeral_months</t>
+  </si>
+  <si>
+    <t>if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%m") - ../age_months + 12, format-date-time(today(),"%m") - ../age_months)</t>
+  </si>
+  <si>
+    <t>age_months</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>selected(../knows_dob,  'yes')</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1081,62 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="242">
+  <dxfs count="355">
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1093,6 +1174,1152 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1458,14 +2685,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9EAD3"/>
           <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3522,28 +4741,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF9900"/>
@@ -3839,20 +5036,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE1051"/>
+  <dimension ref="A1:AE1058"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B77" sqref="B77"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="28.109375" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.109375" style="2" bestFit="1" customWidth="1"/>
@@ -3879,10 +5076,10 @@
         <v>46</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>42</v>
@@ -3891,19 +5088,19 @@
         <v>44</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -4025,10 +5222,10 @@
         <v>53</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="10"/>
@@ -4153,15 +5350,15 @@
         <v>47</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -4186,13 +5383,13 @@
     </row>
     <row r="10" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A10" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
@@ -4204,7 +5401,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="1"/>
@@ -4222,13 +5419,13 @@
     </row>
     <row r="11" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A11" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
@@ -4240,7 +5437,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="1"/>
@@ -4258,18 +5455,18 @@
     </row>
     <row r="12" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A12" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
       <c r="F12" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -4277,10 +5474,10 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="1"/>
@@ -4298,13 +5495,13 @@
     </row>
     <row r="13" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A13" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>2</v>
@@ -4315,7 +5512,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -4336,7 +5533,7 @@
     </row>
     <row r="14" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A14" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>27</v>
@@ -4351,7 +5548,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -4372,13 +5569,13 @@
     </row>
     <row r="15" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A15" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
@@ -4387,7 +5584,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -4408,13 +5605,13 @@
     </row>
     <row r="16" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A16" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
@@ -4423,7 +5620,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -4505,7 +5702,7 @@
         <v>47</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>63</v>
@@ -4539,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>0</v>
@@ -4575,7 +5772,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>3</v>
@@ -4614,7 +5811,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>2</v>
@@ -4656,7 +5853,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
@@ -4682,30 +5879,30 @@
     </row>
     <row r="24" spans="1:26" s="24" customFormat="1" ht="19.2" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>4</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:26" s="24" customFormat="1" ht="19.2" customHeight="1">
       <c r="A25" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="13.2">
@@ -4722,7 +5919,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
@@ -4752,13 +5949,13 @@
     </row>
     <row r="27" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A27" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="25"/>
@@ -4767,7 +5964,7 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
@@ -4788,13 +5985,13 @@
     </row>
     <row r="28" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A28" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="25"/>
@@ -4803,7 +6000,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
@@ -4827,10 +6024,10 @@
         <v>11</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="25"/>
@@ -4930,13 +6127,13 @@
     </row>
     <row r="32" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A32" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -4945,7 +6142,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -4966,13 +6163,13 @@
     </row>
     <row r="33" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A33" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -4981,7 +6178,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -5002,13 +6199,13 @@
     </row>
     <row r="34" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A34" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -5017,7 +6214,7 @@
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
@@ -5107,7 +6304,7 @@
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
@@ -5132,13 +6329,13 @@
     </row>
     <row r="38" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A38" s="30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
@@ -5176,7 +6373,7 @@
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="31" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G39" s="31"/>
       <c r="H39" s="28"/>
@@ -5241,7 +6438,7 @@
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
@@ -5267,13 +6464,13 @@
     </row>
     <row r="42" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A42" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>2</v>
@@ -5303,18 +6500,18 @@
     </row>
     <row r="43" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A43" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B43" s="46" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
       <c r="F43" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="28"/>
@@ -5322,10 +6519,10 @@
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
       <c r="L43" s="46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M43" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N43" s="29"/>
       <c r="O43" s="9"/>
@@ -5343,18 +6540,18 @@
     </row>
     <row r="44" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A44" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
       <c r="F44" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="28"/>
@@ -5362,10 +6559,10 @@
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M44" s="46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N44" s="29"/>
       <c r="O44" s="9"/>
@@ -5383,18 +6580,18 @@
     </row>
     <row r="45" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A45" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="28"/>
@@ -5402,10 +6599,10 @@
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M45" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N45" s="29"/>
       <c r="O45" s="9"/>
@@ -5429,7 +6626,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D46" s="27" t="s">
         <v>2</v>
@@ -5459,13 +6656,13 @@
     </row>
     <row r="47" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A47" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
@@ -5474,7 +6671,7 @@
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
       <c r="J47" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
@@ -5535,7 +6732,7 @@
         <v>54</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="42"/>
@@ -5575,7 +6772,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
@@ -5601,24 +6798,22 @@
     </row>
     <row r="51" spans="1:31" s="8" customFormat="1" ht="13.2">
       <c r="A51" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D51" s="27"/>
-      <c r="E51" s="25" t="s">
-        <v>71</v>
-      </c>
+      <c r="E51" s="25"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
       <c r="J51" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
@@ -5642,13 +6837,15 @@
         <v>11</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D52" s="27"/>
-      <c r="E52" s="25"/>
+      <c r="E52" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
       <c r="H52" s="28"/>
@@ -5672,24 +6869,24 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:31" s="8" customFormat="1" ht="13.2">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="30" t="s">
-        <v>67</v>
+      <c r="B53" s="56" t="s">
+        <v>164</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="56" t="s">
         <v>55</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="28"/>
+      <c r="H53" s="56"/>
       <c r="I53" s="28"/>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
@@ -5709,699 +6906,664 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+    <row r="54" spans="1:31" s="8" customFormat="1" ht="13.2">
       <c r="A54" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+    </row>
+    <row r="55" spans="1:31" s="8" customFormat="1" ht="13.2">
+      <c r="A55" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="27"/>
+      <c r="E55" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+    </row>
+    <row r="56" spans="1:31" s="8" customFormat="1" ht="21">
+      <c r="A56" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="27"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+    </row>
+    <row r="57" spans="1:31" s="8" customFormat="1" ht="21">
+      <c r="A57" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="27"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+    </row>
+    <row r="58" spans="1:31" s="8" customFormat="1" ht="21">
+      <c r="A58" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="27"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+    </row>
+    <row r="59" spans="1:31" s="8" customFormat="1" ht="13.2">
+      <c r="A59" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="27"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+    </row>
+    <row r="60" spans="1:31" s="8" customFormat="1" ht="13.2">
+      <c r="A60" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="27"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+    </row>
+    <row r="61" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A61" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="56"/>
+      <c r="Q61" s="56"/>
+      <c r="R61" s="56"/>
+      <c r="S61" s="56"/>
+      <c r="T61" s="56"/>
+      <c r="U61" s="56"/>
+      <c r="V61" s="56"/>
+      <c r="W61" s="56"/>
+      <c r="X61" s="56"/>
+      <c r="Y61" s="56"/>
+      <c r="Z61" s="56"/>
+      <c r="AA61" s="56"/>
+      <c r="AB61" s="56"/>
+      <c r="AC61" s="56"/>
+      <c r="AD61" s="56"/>
+      <c r="AE61" s="56"/>
+    </row>
+    <row r="62" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A62" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="52"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="54"/>
+      <c r="T62" s="54"/>
+      <c r="U62" s="54"/>
+      <c r="V62" s="54"/>
+      <c r="W62" s="54"/>
+      <c r="X62" s="54"/>
+      <c r="Y62" s="54"/>
+      <c r="Z62" s="54"/>
+      <c r="AA62" s="54"/>
+      <c r="AB62" s="54"/>
+      <c r="AC62" s="54"/>
+      <c r="AD62" s="54"/>
+      <c r="AE62" s="54"/>
+    </row>
+    <row r="63" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A63" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="52"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="54"/>
+      <c r="S63" s="54"/>
+      <c r="T63" s="54"/>
+      <c r="U63" s="54"/>
+      <c r="V63" s="54"/>
+      <c r="W63" s="54"/>
+      <c r="X63" s="54"/>
+      <c r="Y63" s="54"/>
+      <c r="Z63" s="54"/>
+      <c r="AA63" s="54"/>
+      <c r="AB63" s="54"/>
+      <c r="AC63" s="54"/>
+      <c r="AD63" s="54"/>
+      <c r="AE63" s="54"/>
+    </row>
+    <row r="64" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A64" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" s="52"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="54"/>
+      <c r="R64" s="54"/>
+      <c r="S64" s="54"/>
+      <c r="T64" s="54"/>
+      <c r="U64" s="54"/>
+      <c r="V64" s="54"/>
+      <c r="W64" s="54"/>
+      <c r="X64" s="54"/>
+      <c r="Y64" s="54"/>
+      <c r="Z64" s="54"/>
+      <c r="AA64" s="54"/>
+      <c r="AB64" s="54"/>
+      <c r="AC64" s="54"/>
+      <c r="AD64" s="54"/>
+      <c r="AE64" s="54"/>
+    </row>
+    <row r="65" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A65" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="51"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="51"/>
+      <c r="O65" s="51"/>
+      <c r="P65" s="51"/>
+      <c r="Q65" s="51"/>
+      <c r="R65" s="51"/>
+      <c r="S65" s="51"/>
+      <c r="T65" s="51"/>
+      <c r="U65" s="51"/>
+      <c r="V65" s="51"/>
+      <c r="W65" s="51"/>
+      <c r="X65" s="51"/>
+      <c r="Y65" s="51"/>
+      <c r="Z65" s="51"/>
+      <c r="AA65" s="51"/>
+      <c r="AB65" s="51"/>
+      <c r="AC65" s="51"/>
+      <c r="AD65" s="51"/>
+      <c r="AE65" s="51"/>
+    </row>
+    <row r="66" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A66" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="56" t="s">
-        <v>159</v>
+      <c r="C66" s="52" t="s">
+        <v>90</v>
       </c>
-      <c r="C54" s="56" t="s">
-        <v>91</v>
+      <c r="D66" s="52" t="s">
+        <v>90</v>
       </c>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56" t="s">
-        <v>160</v>
+      <c r="E66" s="54"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="54"/>
+      <c r="P66" s="54"/>
+      <c r="Q66" s="54"/>
+      <c r="R66" s="54"/>
+      <c r="S66" s="54"/>
+      <c r="T66" s="54"/>
+      <c r="U66" s="54"/>
+      <c r="V66" s="54"/>
+      <c r="W66" s="54"/>
+      <c r="X66" s="54"/>
+      <c r="Y66" s="54"/>
+      <c r="Z66" s="54"/>
+      <c r="AA66" s="54"/>
+      <c r="AB66" s="54"/>
+      <c r="AC66" s="54"/>
+      <c r="AD66" s="54"/>
+      <c r="AE66" s="54"/>
+    </row>
+    <row r="67" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A67" s="53" t="s">
+        <v>93</v>
       </c>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="56"/>
-      <c r="U54" s="56"/>
-      <c r="V54" s="56"/>
-      <c r="W54" s="56"/>
-      <c r="X54" s="56"/>
-      <c r="Y54" s="56"/>
-      <c r="Z54" s="56"/>
-      <c r="AA54" s="56"/>
-      <c r="AB54" s="56"/>
-      <c r="AC54" s="56"/>
-      <c r="AD54" s="56"/>
-      <c r="AE54" s="56"/>
-    </row>
-    <row r="55" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A55" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="B55" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="52"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="54"/>
-      <c r="S55" s="54"/>
-      <c r="T55" s="54"/>
-      <c r="U55" s="54"/>
-      <c r="V55" s="54"/>
-      <c r="W55" s="54"/>
-      <c r="X55" s="54"/>
-      <c r="Y55" s="54"/>
-      <c r="Z55" s="54"/>
-      <c r="AA55" s="54"/>
-      <c r="AB55" s="54"/>
-      <c r="AC55" s="54"/>
-      <c r="AD55" s="54"/>
-      <c r="AE55" s="54"/>
-    </row>
-    <row r="56" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A56" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="C56" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="D56" s="52"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="54"/>
-      <c r="N56" s="54"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="54"/>
-      <c r="R56" s="54"/>
-      <c r="S56" s="54"/>
-      <c r="T56" s="54"/>
-      <c r="U56" s="54"/>
-      <c r="V56" s="54"/>
-      <c r="W56" s="54"/>
-      <c r="X56" s="54"/>
-      <c r="Y56" s="54"/>
-      <c r="Z56" s="54"/>
-      <c r="AA56" s="54"/>
-      <c r="AB56" s="54"/>
-      <c r="AC56" s="54"/>
-      <c r="AD56" s="54"/>
-      <c r="AE56" s="54"/>
-    </row>
-    <row r="57" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A57" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="C57" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="D57" s="52"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="54"/>
-      <c r="S57" s="54"/>
-      <c r="T57" s="54"/>
-      <c r="U57" s="54"/>
-      <c r="V57" s="54"/>
-      <c r="W57" s="54"/>
-      <c r="X57" s="54"/>
-      <c r="Y57" s="54"/>
-      <c r="Z57" s="54"/>
-      <c r="AA57" s="54"/>
-      <c r="AB57" s="54"/>
-      <c r="AC57" s="54"/>
-      <c r="AD57" s="54"/>
-      <c r="AE57" s="54"/>
-    </row>
-    <row r="58" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A58" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="51"/>
-      <c r="M58" s="51"/>
-      <c r="N58" s="51"/>
-      <c r="O58" s="51"/>
-      <c r="P58" s="51"/>
-      <c r="Q58" s="51"/>
-      <c r="R58" s="51"/>
-      <c r="S58" s="51"/>
-      <c r="T58" s="51"/>
-      <c r="U58" s="51"/>
-      <c r="V58" s="51"/>
-      <c r="W58" s="51"/>
-      <c r="X58" s="51"/>
-      <c r="Y58" s="51"/>
-      <c r="Z58" s="51"/>
-      <c r="AA58" s="51"/>
-      <c r="AB58" s="51"/>
-      <c r="AC58" s="51"/>
-      <c r="AD58" s="51"/>
-      <c r="AE58" s="51"/>
-    </row>
-    <row r="59" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A59" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="52" t="s">
+      <c r="B67" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="52" t="s">
-        <v>91</v>
+      <c r="C67" s="52" t="s">
+        <v>90</v>
       </c>
-      <c r="D59" s="52" t="s">
-        <v>91</v>
+      <c r="D67" s="52" t="s">
+        <v>90</v>
       </c>
-      <c r="E59" s="54"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="54"/>
-      <c r="S59" s="54"/>
-      <c r="T59" s="54"/>
-      <c r="U59" s="54"/>
-      <c r="V59" s="54"/>
-      <c r="W59" s="54"/>
-      <c r="X59" s="54"/>
-      <c r="Y59" s="54"/>
-      <c r="Z59" s="54"/>
-      <c r="AA59" s="54"/>
-      <c r="AB59" s="54"/>
-      <c r="AC59" s="54"/>
-      <c r="AD59" s="54"/>
-      <c r="AE59" s="54"/>
-    </row>
-    <row r="60" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A60" s="53" t="s">
-        <v>94</v>
+      <c r="E67" s="54"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="54"/>
+      <c r="P67" s="54"/>
+      <c r="Q67" s="54"/>
+      <c r="R67" s="54"/>
+      <c r="S67" s="54"/>
+      <c r="T67" s="54"/>
+      <c r="U67" s="54"/>
+      <c r="V67" s="54"/>
+      <c r="W67" s="54"/>
+      <c r="X67" s="54"/>
+      <c r="Y67" s="54"/>
+      <c r="Z67" s="54"/>
+      <c r="AA67" s="54"/>
+      <c r="AB67" s="54"/>
+      <c r="AC67" s="54"/>
+      <c r="AD67" s="54"/>
+      <c r="AE67" s="54"/>
+    </row>
+    <row r="68" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A68" s="53" t="s">
+        <v>93</v>
       </c>
-      <c r="B60" s="52" t="s">
+      <c r="B68" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="52" t="s">
-        <v>91</v>
+      <c r="C68" s="52" t="s">
+        <v>90</v>
       </c>
-      <c r="D60" s="52" t="s">
-        <v>91</v>
+      <c r="D68" s="52" t="s">
+        <v>90</v>
       </c>
-      <c r="E60" s="54"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="54"/>
-      <c r="O60" s="54"/>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="54"/>
-      <c r="R60" s="54"/>
-      <c r="S60" s="54"/>
-      <c r="T60" s="54"/>
-      <c r="U60" s="54"/>
-      <c r="V60" s="54"/>
-      <c r="W60" s="54"/>
-      <c r="X60" s="54"/>
-      <c r="Y60" s="54"/>
-      <c r="Z60" s="54"/>
-      <c r="AA60" s="54"/>
-      <c r="AB60" s="54"/>
-      <c r="AC60" s="54"/>
-      <c r="AD60" s="54"/>
-      <c r="AE60" s="54"/>
-    </row>
-    <row r="61" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A61" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="E61" s="54"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="54"/>
-      <c r="R61" s="54"/>
-      <c r="S61" s="54"/>
-      <c r="T61" s="54"/>
-      <c r="U61" s="54"/>
-      <c r="V61" s="54"/>
-      <c r="W61" s="54"/>
-      <c r="X61" s="54"/>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="54"/>
-      <c r="AA61" s="54"/>
-      <c r="AB61" s="54"/>
-      <c r="AC61" s="54"/>
-      <c r="AD61" s="54"/>
-      <c r="AE61" s="54"/>
-    </row>
-    <row r="62" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A62" s="55" t="s">
+      <c r="E68" s="54"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="54"/>
+      <c r="P68" s="54"/>
+      <c r="Q68" s="54"/>
+      <c r="R68" s="54"/>
+      <c r="S68" s="54"/>
+      <c r="T68" s="54"/>
+      <c r="U68" s="54"/>
+      <c r="V68" s="54"/>
+      <c r="W68" s="54"/>
+      <c r="X68" s="54"/>
+      <c r="Y68" s="54"/>
+      <c r="Z68" s="54"/>
+      <c r="AA68" s="54"/>
+      <c r="AB68" s="54"/>
+      <c r="AC68" s="54"/>
+      <c r="AD68" s="54"/>
+      <c r="AE68" s="54"/>
+    </row>
+    <row r="69" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A69" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="51"/>
-      <c r="L62" s="51"/>
-      <c r="M62" s="51"/>
-      <c r="N62" s="51"/>
-      <c r="O62" s="51"/>
-      <c r="P62" s="51"/>
-      <c r="Q62" s="51"/>
-      <c r="R62" s="51"/>
-      <c r="S62" s="51"/>
-      <c r="T62" s="51"/>
-      <c r="U62" s="51"/>
-      <c r="V62" s="51"/>
-      <c r="W62" s="51"/>
-      <c r="X62" s="51"/>
-      <c r="Y62" s="51"/>
-      <c r="Z62" s="51"/>
-      <c r="AA62" s="51"/>
-      <c r="AB62" s="51"/>
-      <c r="AC62" s="51"/>
-      <c r="AD62" s="51"/>
-      <c r="AE62" s="51"/>
-    </row>
-    <row r="63" spans="1:31" s="2" customFormat="1" ht="13.2">
-      <c r="A63" s="32" t="s">
-        <v>75</v>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="51"/>
+      <c r="M69" s="51"/>
+      <c r="N69" s="51"/>
+      <c r="O69" s="51"/>
+      <c r="P69" s="51"/>
+      <c r="Q69" s="51"/>
+      <c r="R69" s="51"/>
+      <c r="S69" s="51"/>
+      <c r="T69" s="51"/>
+      <c r="U69" s="51"/>
+      <c r="V69" s="51"/>
+      <c r="W69" s="51"/>
+      <c r="X69" s="51"/>
+      <c r="Y69" s="51"/>
+      <c r="Z69" s="51"/>
+      <c r="AA69" s="51"/>
+      <c r="AB69" s="51"/>
+      <c r="AC69" s="51"/>
+      <c r="AD69" s="51"/>
+      <c r="AE69" s="51"/>
+    </row>
+    <row r="70" spans="1:31" s="2" customFormat="1" ht="13.2">
+      <c r="A70" s="32" t="s">
+        <v>74</v>
       </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-    </row>
-    <row r="64" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A64" s="56" t="s">
+      <c r="B70" s="33"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+    </row>
+    <row r="71" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A71" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="56" t="s">
+      <c r="B71" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="D64" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="E64" s="56"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="56"/>
-      <c r="L64" s="56"/>
-      <c r="M64" s="56"/>
-      <c r="N64" s="56"/>
-      <c r="O64" s="56"/>
-      <c r="P64" s="56"/>
-      <c r="Q64" s="56"/>
-      <c r="R64" s="56"/>
-      <c r="S64" s="56"/>
-      <c r="T64" s="56"/>
-      <c r="U64" s="56"/>
-      <c r="V64" s="56"/>
-      <c r="W64" s="56"/>
-      <c r="X64" s="56"/>
-      <c r="Y64" s="56"/>
-      <c r="Z64" s="56"/>
-      <c r="AA64" s="56"/>
-      <c r="AB64" s="56"/>
-      <c r="AC64" s="56"/>
-      <c r="AD64" s="56"/>
-      <c r="AE64" s="56"/>
-    </row>
-    <row r="65" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A65" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="56"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="56"/>
-      <c r="L65" s="56"/>
-      <c r="M65" s="56"/>
-      <c r="N65" s="56"/>
-      <c r="O65" s="56"/>
-      <c r="P65" s="56"/>
-      <c r="Q65" s="56"/>
-      <c r="R65" s="56"/>
-      <c r="S65" s="56"/>
-      <c r="T65" s="56"/>
-      <c r="U65" s="56"/>
-      <c r="V65" s="56"/>
-      <c r="W65" s="56"/>
-      <c r="X65" s="56"/>
-      <c r="Y65" s="56"/>
-      <c r="Z65" s="56"/>
-      <c r="AA65" s="56"/>
-      <c r="AB65" s="56"/>
-      <c r="AC65" s="56"/>
-      <c r="AD65" s="56"/>
-      <c r="AE65" s="56"/>
-    </row>
-    <row r="66" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A66" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C66" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="D66" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="E66" s="56"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="J66" s="56"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="P66" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q66" s="56"/>
-      <c r="R66" s="56"/>
-      <c r="S66" s="56"/>
-      <c r="T66" s="56"/>
-      <c r="U66" s="56"/>
-      <c r="V66" s="56"/>
-      <c r="W66" s="56"/>
-      <c r="X66" s="56"/>
-      <c r="Y66" s="56"/>
-      <c r="Z66" s="56"/>
-      <c r="AA66" s="56"/>
-      <c r="AB66" s="56"/>
-      <c r="AC66" s="56"/>
-      <c r="AD66" s="56"/>
-      <c r="AE66" s="56"/>
-    </row>
-    <row r="67" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A67" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="56"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="56"/>
-      <c r="O67" s="56"/>
-      <c r="P67" s="56"/>
-      <c r="Q67" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="R67" s="56"/>
-      <c r="S67" s="56"/>
-      <c r="T67" s="56"/>
-      <c r="U67" s="56"/>
-      <c r="V67" s="56"/>
-      <c r="W67" s="56"/>
-      <c r="X67" s="56"/>
-      <c r="Y67" s="56"/>
-      <c r="Z67" s="56"/>
-      <c r="AA67" s="56"/>
-      <c r="AB67" s="56"/>
-      <c r="AC67" s="56"/>
-      <c r="AD67" s="56"/>
-      <c r="AE67" s="56"/>
-    </row>
-    <row r="68" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A68" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="B68" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
-      <c r="O68" s="56"/>
-      <c r="P68" s="56"/>
-      <c r="Q68" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="R68" s="56"/>
-      <c r="S68" s="56"/>
-      <c r="T68" s="56"/>
-      <c r="U68" s="56"/>
-      <c r="V68" s="56"/>
-      <c r="W68" s="56"/>
-      <c r="X68" s="56"/>
-      <c r="Y68" s="56"/>
-      <c r="Z68" s="56"/>
-      <c r="AA68" s="56"/>
-      <c r="AB68" s="56"/>
-      <c r="AC68" s="56"/>
-      <c r="AD68" s="56"/>
-      <c r="AE68" s="56"/>
-    </row>
-    <row r="69" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A69" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="B69" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="C69" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D69" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="E69" s="57"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="56"/>
-      <c r="K69" s="56"/>
-      <c r="L69" s="56"/>
-      <c r="M69" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="N69" s="56"/>
-      <c r="O69" s="56"/>
-      <c r="P69" s="56"/>
-      <c r="Q69" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="R69" s="56"/>
-      <c r="S69" s="56"/>
-      <c r="T69" s="56"/>
-      <c r="U69" s="56"/>
-      <c r="V69" s="56"/>
-      <c r="W69" s="56"/>
-      <c r="X69" s="56"/>
-      <c r="Y69" s="56"/>
-      <c r="Z69" s="56"/>
-      <c r="AA69" s="56"/>
-      <c r="AB69" s="56"/>
-      <c r="AC69" s="56"/>
-      <c r="AD69" s="56"/>
-      <c r="AE69" s="56"/>
-    </row>
-    <row r="70" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A70" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D70" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" s="57"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="K70" s="56"/>
-      <c r="L70" s="56"/>
-      <c r="N70" s="56"/>
-      <c r="O70" s="56"/>
-      <c r="P70" s="56"/>
-      <c r="Q70" s="56"/>
-      <c r="R70" s="56"/>
-      <c r="S70" s="56"/>
-      <c r="T70" s="56"/>
-      <c r="U70" s="56"/>
-      <c r="V70" s="56"/>
-      <c r="W70" s="56"/>
-      <c r="X70" s="56"/>
-      <c r="Y70" s="56"/>
-      <c r="Z70" s="56"/>
-      <c r="AA70" s="56"/>
-      <c r="AB70" s="56"/>
-      <c r="AC70" s="56"/>
-      <c r="AD70" s="56"/>
-      <c r="AE70" s="56"/>
-    </row>
-    <row r="71" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A71" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" s="57" t="s">
+      <c r="C71" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="D71" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="E71" s="57"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
       <c r="H71" s="56"/>
       <c r="I71" s="56"/>
-      <c r="J71" s="56" t="s">
-        <v>146</v>
-      </c>
+      <c r="J71" s="56"/>
       <c r="K71" s="56"/>
       <c r="L71" s="56"/>
+      <c r="M71" s="56"/>
       <c r="N71" s="56"/>
       <c r="O71" s="56"/>
       <c r="P71" s="56"/>
@@ -6421,245 +7583,318 @@
       <c r="AD71" s="56"/>
       <c r="AE71" s="56"/>
     </row>
-    <row r="72" spans="1:31" s="2" customFormat="1" ht="13.2">
-      <c r="A72" s="36" t="s">
+    <row r="72" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A72" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="56"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="56"/>
+      <c r="L72" s="56"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="56"/>
+      <c r="O72" s="56"/>
+      <c r="P72" s="56"/>
+      <c r="Q72" s="56"/>
+      <c r="R72" s="56"/>
+      <c r="S72" s="56"/>
+      <c r="T72" s="56"/>
+      <c r="U72" s="56"/>
+      <c r="V72" s="56"/>
+      <c r="W72" s="56"/>
+      <c r="X72" s="56"/>
+      <c r="Y72" s="56"/>
+      <c r="Z72" s="56"/>
+      <c r="AA72" s="56"/>
+      <c r="AB72" s="56"/>
+      <c r="AC72" s="56"/>
+      <c r="AD72" s="56"/>
+      <c r="AE72" s="56"/>
+    </row>
+    <row r="73" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A73" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B72" s="37" t="s">
+      <c r="B73" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="J73" s="56"/>
+      <c r="K73" s="56"/>
+      <c r="L73" s="56"/>
+      <c r="M73" s="56"/>
+      <c r="N73" s="56"/>
+      <c r="O73" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="P73" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q73" s="56"/>
+      <c r="R73" s="56"/>
+      <c r="S73" s="56"/>
+      <c r="T73" s="56"/>
+      <c r="U73" s="56"/>
+      <c r="V73" s="56"/>
+      <c r="W73" s="56"/>
+      <c r="X73" s="56"/>
+      <c r="Y73" s="56"/>
+      <c r="Z73" s="56"/>
+      <c r="AA73" s="56"/>
+      <c r="AB73" s="56"/>
+      <c r="AC73" s="56"/>
+      <c r="AD73" s="56"/>
+      <c r="AE73" s="56"/>
+    </row>
+    <row r="74" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A74" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="58"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="56"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="56"/>
+      <c r="O74" s="56"/>
+      <c r="P74" s="56"/>
+      <c r="Q74" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="R74" s="56"/>
+      <c r="S74" s="56"/>
+      <c r="T74" s="56"/>
+      <c r="U74" s="56"/>
+      <c r="V74" s="56"/>
+      <c r="W74" s="56"/>
+      <c r="X74" s="56"/>
+      <c r="Y74" s="56"/>
+      <c r="Z74" s="56"/>
+      <c r="AA74" s="56"/>
+      <c r="AB74" s="56"/>
+      <c r="AC74" s="56"/>
+      <c r="AD74" s="56"/>
+      <c r="AE74" s="56"/>
+    </row>
+    <row r="75" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A75" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="58"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="56"/>
+      <c r="O75" s="56"/>
+      <c r="P75" s="56"/>
+      <c r="Q75" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="R75" s="56"/>
+      <c r="S75" s="56"/>
+      <c r="T75" s="56"/>
+      <c r="U75" s="56"/>
+      <c r="V75" s="56"/>
+      <c r="W75" s="56"/>
+      <c r="X75" s="56"/>
+      <c r="Y75" s="56"/>
+      <c r="Z75" s="56"/>
+      <c r="AA75" s="56"/>
+      <c r="AB75" s="56"/>
+      <c r="AC75" s="56"/>
+      <c r="AD75" s="56"/>
+      <c r="AE75" s="56"/>
+    </row>
+    <row r="76" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A76" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="57"/>
+      <c r="F76" s="58"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="N76" s="56"/>
+      <c r="O76" s="56"/>
+      <c r="P76" s="56"/>
+      <c r="Q76" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="R76" s="56"/>
+      <c r="S76" s="56"/>
+      <c r="T76" s="56"/>
+      <c r="U76" s="56"/>
+      <c r="V76" s="56"/>
+      <c r="W76" s="56"/>
+      <c r="X76" s="56"/>
+      <c r="Y76" s="56"/>
+      <c r="Z76" s="56"/>
+      <c r="AA76" s="56"/>
+      <c r="AB76" s="56"/>
+      <c r="AC76" s="56"/>
+      <c r="AD76" s="56"/>
+      <c r="AE76" s="56"/>
+    </row>
+    <row r="77" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A77" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="43" t="s">
-        <v>91</v>
+      <c r="B77" s="57" t="s">
+        <v>22</v>
       </c>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
-    </row>
-    <row r="73" spans="1:31" s="2" customFormat="1" ht="13.2">
-      <c r="A73" s="38" t="s">
-        <v>77</v>
+      <c r="C77" s="57" t="s">
+        <v>90</v>
       </c>
-      <c r="B73" s="39" t="s">
-        <v>78</v>
+      <c r="D77" s="57" t="s">
+        <v>90</v>
       </c>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="40" t="s">
-        <v>87</v>
+      <c r="E77" s="57"/>
+      <c r="F77" s="58"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="56" t="s">
+        <v>163</v>
       </c>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
-      <c r="Z73" s="1"/>
-    </row>
-    <row r="74" spans="1:31" s="2" customFormat="1" ht="13.2">
-      <c r="A74" s="38" t="s">
-        <v>77</v>
+      <c r="K77" s="56"/>
+      <c r="L77" s="56"/>
+      <c r="N77" s="56"/>
+      <c r="O77" s="56"/>
+      <c r="P77" s="56"/>
+      <c r="Q77" s="56"/>
+      <c r="R77" s="56"/>
+      <c r="S77" s="56"/>
+      <c r="T77" s="56"/>
+      <c r="U77" s="56"/>
+      <c r="V77" s="56"/>
+      <c r="W77" s="56"/>
+      <c r="X77" s="56"/>
+      <c r="Y77" s="56"/>
+      <c r="Z77" s="56"/>
+      <c r="AA77" s="56"/>
+      <c r="AB77" s="56"/>
+      <c r="AC77" s="56"/>
+      <c r="AD77" s="56"/>
+      <c r="AE77" s="56"/>
+    </row>
+    <row r="78" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A78" s="57" t="s">
+        <v>76</v>
       </c>
-      <c r="B74" s="39" t="s">
-        <v>79</v>
+      <c r="B78" s="57" t="s">
+        <v>143</v>
       </c>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="40" t="s">
-        <v>88</v>
+      <c r="C78" s="57" t="s">
+        <v>150</v>
       </c>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-    </row>
-    <row r="75" spans="1:31" s="2" customFormat="1" ht="13.2">
-      <c r="A75" s="38" t="s">
-        <v>77</v>
+      <c r="D78" s="57" t="s">
+        <v>150</v>
       </c>
-      <c r="B75" s="39" t="s">
-        <v>80</v>
+      <c r="E78" s="57"/>
+      <c r="F78" s="58"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="56"/>
+      <c r="J78" s="56" t="s">
+        <v>144</v>
       </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="40" t="s">
-        <v>89</v>
+      <c r="K78" s="56"/>
+      <c r="L78" s="56"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="56"/>
+      <c r="P78" s="56"/>
+      <c r="Q78" s="56"/>
+      <c r="R78" s="56"/>
+      <c r="S78" s="56"/>
+      <c r="T78" s="56"/>
+      <c r="U78" s="56"/>
+      <c r="V78" s="56"/>
+      <c r="W78" s="56"/>
+      <c r="X78" s="56"/>
+      <c r="Y78" s="56"/>
+      <c r="Z78" s="56"/>
+      <c r="AA78" s="56"/>
+      <c r="AB78" s="56"/>
+      <c r="AC78" s="56"/>
+      <c r="AD78" s="56"/>
+      <c r="AE78" s="56"/>
+    </row>
+    <row r="79" spans="1:31" s="2" customFormat="1" ht="13.2">
+      <c r="A79" s="36" t="s">
+        <v>47</v>
       </c>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-      <c r="W75" s="1"/>
-      <c r="X75" s="1"/>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="1"/>
-    </row>
-    <row r="76" spans="1:31" s="2" customFormat="1" ht="13.2">
-      <c r="A76" s="40" t="s">
-        <v>51</v>
+      <c r="B79" s="37" t="s">
+        <v>75</v>
       </c>
-      <c r="B76" s="40"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-      <c r="W76" s="1"/>
-      <c r="X76" s="1"/>
-      <c r="Y76" s="1"/>
-      <c r="Z76" s="1"/>
-    </row>
-    <row r="77" spans="1:31" s="2" customFormat="1" ht="13.2">
-      <c r="A77" s="32" t="s">
-        <v>51</v>
+      <c r="C79" s="43" t="s">
+        <v>90</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="1"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
-    </row>
-    <row r="78" spans="1:31" ht="13.2">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
-    </row>
-    <row r="79" spans="1:31" ht="14.25" customHeight="1">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -6673,21 +7908,27 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:31" ht="14.25" customHeight="1">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
+    <row r="80" spans="1:31" s="2" customFormat="1" ht="13.2">
+      <c r="A80" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -6701,21 +7942,27 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
+    <row r="81" spans="1:26" s="2" customFormat="1" ht="13.2">
+      <c r="A81" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -6729,21 +7976,27 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
+    <row r="82" spans="1:26" s="2" customFormat="1" ht="13.2">
+      <c r="A82" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -6757,21 +8010,23 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
+    <row r="83" spans="1:26" s="2" customFormat="1" ht="13.2">
+      <c r="A83" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83" s="40"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -6785,21 +8040,23 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
+    <row r="84" spans="1:26" s="2" customFormat="1" ht="13.2">
+      <c r="A84" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" s="33"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -6813,7 +8070,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="14.25" customHeight="1">
+    <row r="85" spans="1:26" ht="13.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -7093,7 +8350,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="13.2">
+    <row r="95" spans="1:26" ht="14.25" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -7121,7 +8378,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="13.2">
+    <row r="96" spans="1:26" ht="14.25" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -7149,7 +8406,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="13.2">
+    <row r="97" spans="1:26" ht="14.25" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -7177,7 +8434,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="13.2">
+    <row r="98" spans="1:26" ht="14.25" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -7205,7 +8462,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="13.2">
+    <row r="99" spans="1:26" ht="14.25" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -7233,7 +8490,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="13.2">
+    <row r="100" spans="1:26" ht="14.25" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -7261,7 +8518,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="13.2">
+    <row r="101" spans="1:26" ht="14.25" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -33889,1219 +35146,1980 @@
       <c r="Y1051" s="1"/>
       <c r="Z1051" s="1"/>
     </row>
+    <row r="1052" spans="1:26" ht="13.2">
+      <c r="A1052" s="1"/>
+      <c r="B1052" s="1"/>
+      <c r="C1052" s="1"/>
+      <c r="D1052" s="1"/>
+      <c r="E1052" s="1"/>
+      <c r="F1052" s="1"/>
+      <c r="G1052" s="1"/>
+      <c r="H1052" s="1"/>
+      <c r="I1052" s="1"/>
+      <c r="J1052" s="1"/>
+      <c r="K1052" s="1"/>
+      <c r="L1052" s="1"/>
+      <c r="M1052" s="1"/>
+      <c r="N1052" s="1"/>
+      <c r="O1052" s="1"/>
+      <c r="P1052" s="1"/>
+      <c r="Q1052" s="1"/>
+      <c r="R1052" s="1"/>
+      <c r="S1052" s="1"/>
+      <c r="T1052" s="1"/>
+      <c r="U1052" s="1"/>
+      <c r="V1052" s="1"/>
+      <c r="W1052" s="1"/>
+      <c r="X1052" s="1"/>
+      <c r="Y1052" s="1"/>
+      <c r="Z1052" s="1"/>
+    </row>
+    <row r="1053" spans="1:26" ht="13.2">
+      <c r="A1053" s="1"/>
+      <c r="B1053" s="1"/>
+      <c r="C1053" s="1"/>
+      <c r="D1053" s="1"/>
+      <c r="E1053" s="1"/>
+      <c r="F1053" s="1"/>
+      <c r="G1053" s="1"/>
+      <c r="H1053" s="1"/>
+      <c r="I1053" s="1"/>
+      <c r="J1053" s="1"/>
+      <c r="K1053" s="1"/>
+      <c r="L1053" s="1"/>
+      <c r="M1053" s="1"/>
+      <c r="N1053" s="1"/>
+      <c r="O1053" s="1"/>
+      <c r="P1053" s="1"/>
+      <c r="Q1053" s="1"/>
+      <c r="R1053" s="1"/>
+      <c r="S1053" s="1"/>
+      <c r="T1053" s="1"/>
+      <c r="U1053" s="1"/>
+      <c r="V1053" s="1"/>
+      <c r="W1053" s="1"/>
+      <c r="X1053" s="1"/>
+      <c r="Y1053" s="1"/>
+      <c r="Z1053" s="1"/>
+    </row>
+    <row r="1054" spans="1:26" ht="13.2">
+      <c r="A1054" s="1"/>
+      <c r="B1054" s="1"/>
+      <c r="C1054" s="1"/>
+      <c r="D1054" s="1"/>
+      <c r="E1054" s="1"/>
+      <c r="F1054" s="1"/>
+      <c r="G1054" s="1"/>
+      <c r="H1054" s="1"/>
+      <c r="I1054" s="1"/>
+      <c r="J1054" s="1"/>
+      <c r="K1054" s="1"/>
+      <c r="L1054" s="1"/>
+      <c r="M1054" s="1"/>
+      <c r="N1054" s="1"/>
+      <c r="O1054" s="1"/>
+      <c r="P1054" s="1"/>
+      <c r="Q1054" s="1"/>
+      <c r="R1054" s="1"/>
+      <c r="S1054" s="1"/>
+      <c r="T1054" s="1"/>
+      <c r="U1054" s="1"/>
+      <c r="V1054" s="1"/>
+      <c r="W1054" s="1"/>
+      <c r="X1054" s="1"/>
+      <c r="Y1054" s="1"/>
+      <c r="Z1054" s="1"/>
+    </row>
+    <row r="1055" spans="1:26" ht="13.2">
+      <c r="A1055" s="1"/>
+      <c r="B1055" s="1"/>
+      <c r="C1055" s="1"/>
+      <c r="D1055" s="1"/>
+      <c r="E1055" s="1"/>
+      <c r="F1055" s="1"/>
+      <c r="G1055" s="1"/>
+      <c r="H1055" s="1"/>
+      <c r="I1055" s="1"/>
+      <c r="J1055" s="1"/>
+      <c r="K1055" s="1"/>
+      <c r="L1055" s="1"/>
+      <c r="M1055" s="1"/>
+      <c r="N1055" s="1"/>
+      <c r="O1055" s="1"/>
+      <c r="P1055" s="1"/>
+      <c r="Q1055" s="1"/>
+      <c r="R1055" s="1"/>
+      <c r="S1055" s="1"/>
+      <c r="T1055" s="1"/>
+      <c r="U1055" s="1"/>
+      <c r="V1055" s="1"/>
+      <c r="W1055" s="1"/>
+      <c r="X1055" s="1"/>
+      <c r="Y1055" s="1"/>
+      <c r="Z1055" s="1"/>
+    </row>
+    <row r="1056" spans="1:26" ht="13.2">
+      <c r="A1056" s="1"/>
+      <c r="B1056" s="1"/>
+      <c r="C1056" s="1"/>
+      <c r="D1056" s="1"/>
+      <c r="E1056" s="1"/>
+      <c r="F1056" s="1"/>
+      <c r="G1056" s="1"/>
+      <c r="H1056" s="1"/>
+      <c r="I1056" s="1"/>
+      <c r="J1056" s="1"/>
+      <c r="K1056" s="1"/>
+      <c r="L1056" s="1"/>
+      <c r="M1056" s="1"/>
+      <c r="N1056" s="1"/>
+      <c r="O1056" s="1"/>
+      <c r="P1056" s="1"/>
+      <c r="Q1056" s="1"/>
+      <c r="R1056" s="1"/>
+      <c r="S1056" s="1"/>
+      <c r="T1056" s="1"/>
+      <c r="U1056" s="1"/>
+      <c r="V1056" s="1"/>
+      <c r="W1056" s="1"/>
+      <c r="X1056" s="1"/>
+      <c r="Y1056" s="1"/>
+      <c r="Z1056" s="1"/>
+    </row>
+    <row r="1057" spans="1:26" ht="13.2">
+      <c r="A1057" s="1"/>
+      <c r="B1057" s="1"/>
+      <c r="C1057" s="1"/>
+      <c r="D1057" s="1"/>
+      <c r="E1057" s="1"/>
+      <c r="F1057" s="1"/>
+      <c r="G1057" s="1"/>
+      <c r="H1057" s="1"/>
+      <c r="I1057" s="1"/>
+      <c r="J1057" s="1"/>
+      <c r="K1057" s="1"/>
+      <c r="L1057" s="1"/>
+      <c r="M1057" s="1"/>
+      <c r="N1057" s="1"/>
+      <c r="O1057" s="1"/>
+      <c r="P1057" s="1"/>
+      <c r="Q1057" s="1"/>
+      <c r="R1057" s="1"/>
+      <c r="S1057" s="1"/>
+      <c r="T1057" s="1"/>
+      <c r="U1057" s="1"/>
+      <c r="V1057" s="1"/>
+      <c r="W1057" s="1"/>
+      <c r="X1057" s="1"/>
+      <c r="Y1057" s="1"/>
+      <c r="Z1057" s="1"/>
+    </row>
+    <row r="1058" spans="1:26" ht="13.2">
+      <c r="A1058" s="1"/>
+      <c r="B1058" s="1"/>
+      <c r="C1058" s="1"/>
+      <c r="D1058" s="1"/>
+      <c r="E1058" s="1"/>
+      <c r="F1058" s="1"/>
+      <c r="G1058" s="1"/>
+      <c r="H1058" s="1"/>
+      <c r="I1058" s="1"/>
+      <c r="J1058" s="1"/>
+      <c r="K1058" s="1"/>
+      <c r="L1058" s="1"/>
+      <c r="M1058" s="1"/>
+      <c r="N1058" s="1"/>
+      <c r="O1058" s="1"/>
+      <c r="P1058" s="1"/>
+      <c r="Q1058" s="1"/>
+      <c r="R1058" s="1"/>
+      <c r="S1058" s="1"/>
+      <c r="T1058" s="1"/>
+      <c r="U1058" s="1"/>
+      <c r="V1058" s="1"/>
+      <c r="W1058" s="1"/>
+      <c r="X1058" s="1"/>
+      <c r="Y1058" s="1"/>
+      <c r="Z1058" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C4 A39:C41 A5:B5 A6:C8 A48:C48 A19:B19 A27:C29 A32:C34 A53:C53 A18:C18 L12:M12 M10:M11 A9:F17 N55:AE57 J55:L57 N70:AE71 J70:L71">
-    <cfRule type="expression" dxfId="241" priority="338">
+  <conditionalFormatting sqref="A2:C4 A39:C41 A5:B5 A6:C8 A48:C48 A19:B19 A27:C29 A32:C34 A18:C18 L12:M12 M10:M11 A9:F17 N62:AE64 J62:L64 N77:AE78 J77:L78">
+    <cfRule type="expression" dxfId="354" priority="483">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C4 A48:C48 A40:C40 A5:B5 A6:C8 A19:B19 A53:C53 A18:C18">
-    <cfRule type="expression" dxfId="240" priority="339">
+  <conditionalFormatting sqref="A2:C4 A48:C48 A40:C40 A5:B5 A6:C8 A19:B19 A18:C18">
+    <cfRule type="expression" dxfId="353" priority="484">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C4 A38:C41 A37 C37 C42 A5:B5 A6:C8 A48:C48 C46 A18:C18 A17:F17 N55:AE57 J55:L57 N70:AE71 J70:L71">
-    <cfRule type="cellIs" dxfId="239" priority="340" operator="equal">
+  <conditionalFormatting sqref="A2:C4 A38:C41 A37 C37 C42 A5:B5 A6:C8 A48:C48 C46 A18:C18 A17:F17 N62:AE64 J62:L64 N77:AE78 J77:L78">
+    <cfRule type="cellIs" dxfId="352" priority="485" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:B41 B48 B27:B29 B32:B34 B53 B2:B19 B66:B71">
-    <cfRule type="expression" dxfId="238" priority="341">
+  <conditionalFormatting sqref="B39:B41 B48 B27:B29 B32:B34 B2:B19 B73:B78">
+    <cfRule type="expression" dxfId="351" priority="486">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C4 A39:C41 A5:B5 A6:C8 A48:C48 A19:B19 A27:C29 A32:C34 A53:C53 A18:C18 L12:M12 M10:M11 A9:F17 N55:AE57 J55:L57 N70:AE71 J70:L71">
-    <cfRule type="expression" dxfId="237" priority="343">
+  <conditionalFormatting sqref="A2:C4 A39:C41 A5:B5 A6:C8 A48:C48 A19:B19 A27:C29 A32:C34 A18:C18 L12:M12 M10:M11 A9:F17 N62:AE64 J62:L64 N77:AE78 J77:L78">
+    <cfRule type="expression" dxfId="350" priority="488">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C4 A48:C48 A40:C40 A5:B5 A6:C8 A19:B19 A53:C53 A18:C18">
-    <cfRule type="expression" dxfId="236" priority="344">
+  <conditionalFormatting sqref="A2:C4 A48:C48 A40:C40 A5:B5 A6:C8 A19:B19 A18:C18">
+    <cfRule type="expression" dxfId="349" priority="489">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53 A2:A8 A48 A17:A18 A37:A41">
-    <cfRule type="containsText" dxfId="235" priority="348" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="A2:A8 A48 A17:A18 A37:A41">
+    <cfRule type="containsText" dxfId="348" priority="493" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C4 C48 C27:C29 C32:C34 C53 C6:C18 C37:C42 C66:D71">
-    <cfRule type="expression" dxfId="234" priority="349">
+  <conditionalFormatting sqref="C2:C4 C48 C27:C29 C32:C34 C6:C18 C37:C42 C73:D78">
+    <cfRule type="expression" dxfId="347" priority="494">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A8 A48 A17:A18 A37:A41">
-    <cfRule type="cellIs" dxfId="233" priority="350" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:C53">
-    <cfRule type="cellIs" dxfId="232" priority="353" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" dxfId="231" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="495" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="containsText" dxfId="230" priority="368" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="345" priority="513" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A49))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="expression" dxfId="229" priority="369">
+    <cfRule type="expression" dxfId="344" priority="514">
       <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="expression" dxfId="228" priority="370">
+    <cfRule type="expression" dxfId="343" priority="515">
       <formula>AND($A49="end group", $B49 = "", $C49 = "", $E49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="cellIs" dxfId="227" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="516" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="cellIs" dxfId="226" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="517" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="expression" dxfId="225" priority="373">
+    <cfRule type="expression" dxfId="340" priority="518">
       <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="expression" dxfId="224" priority="374">
+    <cfRule type="expression" dxfId="339" priority="519">
       <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $E49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="containsText" dxfId="223" priority="375" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="338" priority="520" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A50))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="expression" dxfId="222" priority="359">
+    <cfRule type="expression" dxfId="337" priority="504">
       <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="expression" dxfId="221" priority="360">
+    <cfRule type="expression" dxfId="336" priority="505">
       <formula>AND($A50="end group", $B50 = "", $C50 = "", $E50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "", $O50 = "", $P50 = "", $Q50 = "", $S50 = "", $T50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="cellIs" dxfId="220" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="506" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="219" priority="362">
+    <cfRule type="expression" dxfId="334" priority="507">
       <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="218" priority="363">
+    <cfRule type="expression" dxfId="333" priority="508">
       <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $B50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="217" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="509" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="expression" dxfId="216" priority="366">
+    <cfRule type="expression" dxfId="331" priority="511">
       <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="expression" dxfId="215" priority="367">
+    <cfRule type="expression" dxfId="330" priority="512">
       <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $E50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "", $O50 = "", $P50 = "", $Q50 = "", $S50 = "", $T50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="214" priority="331" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="329" priority="476" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A19))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="213" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="479" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="212" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="480" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="211" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="471" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="expression" dxfId="210" priority="310">
-      <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="expression" dxfId="325" priority="455">
+      <formula>AND($A84="begin group", NOT($B84 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="expression" dxfId="209" priority="311">
-      <formula>AND($A77="end group", $B77 = "", $C77 = "", $E77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "", $O77 = "", $P77 = "", $Q77 = "", $S77 = "", $T77 = "")</formula>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="expression" dxfId="324" priority="456">
+      <formula>AND($A84="end group", $B84 = "", $C84 = "", $E84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "", $O84 = "", $P84 = "", $Q84 = "", $S84 = "", $T84 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="cellIs" dxfId="208" priority="312" operator="equal">
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" dxfId="323" priority="457" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="expression" dxfId="207" priority="313">
-      <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="expression" dxfId="322" priority="458">
+      <formula>AND($A84="begin repeat", NOT($B84 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="expression" dxfId="206" priority="314">
-      <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $E77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "", $O77 = "", $P77 = "", $Q77 = "", $S77 = "", $T77 = "")</formula>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="expression" dxfId="321" priority="459">
+      <formula>AND($A84="end repeat", $B84 = "", $C84 = "", $E84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "", $O84 = "", $P84 = "", $Q84 = "", $S84 = "", $T84 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="containsText" dxfId="205" priority="315" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A77))))</formula>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="containsText" dxfId="320" priority="460" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A84))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:C41 A39:C39">
-    <cfRule type="expression" dxfId="204" priority="492">
+    <cfRule type="expression" dxfId="319" priority="637">
       <formula>AND($A39="end group", $B39 = "", $C39 = "", #REF! = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "", $O39 = "", $P39 = "", $Q39 = "", $S39 = "", $T39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:C41 A39:C39">
-    <cfRule type="expression" dxfId="203" priority="495">
+    <cfRule type="expression" dxfId="318" priority="640">
       <formula>AND($A39="end repeat", $B39 = "", $C39 = "", #REF! = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "", $O39 = "", $P39 = "", $Q39 = "", $S39 = "", $T39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38 C38">
-    <cfRule type="expression" dxfId="202" priority="521">
+    <cfRule type="expression" dxfId="317" priority="666">
       <formula>AND($A38="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38 C38">
-    <cfRule type="expression" dxfId="201" priority="529">
+    <cfRule type="expression" dxfId="316" priority="674">
       <formula>AND($A38="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="200" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="435" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="containsText" dxfId="199" priority="292" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="314" priority="437" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A42))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="198" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="438" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="expression" dxfId="197" priority="283">
-      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="312" priority="428">
+      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="expression" dxfId="196" priority="284">
-      <formula>AND($A63="end group", $B63 = "", $C63 = "", $E63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "", $O63 = "", $P63 = "", $Q63 = "", $S63 = "", $T63 = "")</formula>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="311" priority="429">
+      <formula>AND($A70="end group", $B70 = "", $C70 = "", $E70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "", $O70 = "", $P70 = "", $Q70 = "", $S70 = "", $T70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" dxfId="195" priority="285" operator="equal">
+  <conditionalFormatting sqref="A70">
+    <cfRule type="cellIs" dxfId="310" priority="430" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="expression" dxfId="194" priority="286">
-      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="309" priority="431">
+      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="expression" dxfId="193" priority="287">
-      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $E63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "", $O63 = "", $P63 = "", $Q63 = "", $S63 = "", $T63 = "")</formula>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="308" priority="432">
+      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $E70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "", $O70 = "", $P70 = "", $Q70 = "", $S70 = "", $T70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="containsText" dxfId="192" priority="288" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A63))))</formula>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="containsText" dxfId="307" priority="433" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A70))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74:A76">
-    <cfRule type="cellIs" dxfId="191" priority="270" operator="equal">
+  <conditionalFormatting sqref="A81:A83">
+    <cfRule type="cellIs" dxfId="306" priority="415" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74:A76">
-    <cfRule type="cellIs" dxfId="190" priority="271" operator="equal">
+  <conditionalFormatting sqref="A81:A83">
+    <cfRule type="cellIs" dxfId="305" priority="416" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="cellIs" dxfId="189" priority="272" operator="equal">
+  <conditionalFormatting sqref="A79">
+    <cfRule type="cellIs" dxfId="304" priority="417" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="cellIs" dxfId="188" priority="273" operator="equal">
+  <conditionalFormatting sqref="A79">
+    <cfRule type="cellIs" dxfId="303" priority="418" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
-    <cfRule type="cellIs" dxfId="187" priority="274" operator="equal">
+  <conditionalFormatting sqref="A80">
+    <cfRule type="cellIs" dxfId="302" priority="419" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
-    <cfRule type="cellIs" dxfId="186" priority="275" operator="equal">
+  <conditionalFormatting sqref="A80">
+    <cfRule type="cellIs" dxfId="301" priority="420" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="185" priority="258">
+    <cfRule type="expression" dxfId="300" priority="403">
       <formula>AND($A5="begin group", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="184" priority="261">
+    <cfRule type="expression" dxfId="299" priority="406">
       <formula>AND($A5="begin repeat", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="183" priority="259">
+    <cfRule type="expression" dxfId="298" priority="404">
       <formula>AND($A5="end group", $B5 = "", $C5 = "", $E5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "", $O5 = "", $P5 = "", $Q5 = "", $S5 = "", $T5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="182" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="405" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="181" priority="262">
+    <cfRule type="expression" dxfId="296" priority="407">
       <formula>AND($A5="end repeat", $B5 = "", $C5 = "", $E5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "", $O5 = "", $P5 = "", $Q5 = "", $S5 = "", $T5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="180" priority="263">
+    <cfRule type="expression" dxfId="295" priority="408">
       <formula>AND(AND(NOT($A5 = "end group"), NOT($A5 = "end repeat"), NOT($A5 = "")), $C5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A16">
-    <cfRule type="containsText" dxfId="179" priority="248" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="294" priority="393" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:F16">
-    <cfRule type="cellIs" dxfId="178" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="395" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A16">
-    <cfRule type="cellIs" dxfId="177" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="398" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C29 A32:C34 L12:M12 M10:M11 A9:F17">
-    <cfRule type="expression" dxfId="176" priority="255">
+    <cfRule type="expression" dxfId="291" priority="400">
       <formula>AND($A9="end group", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C29 A32:C34 L12:M12 M10:M11 A9:F17">
-    <cfRule type="expression" dxfId="175" priority="256">
+    <cfRule type="expression" dxfId="290" priority="401">
       <formula>AND($A9="end repeat", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:A29">
-    <cfRule type="containsText" dxfId="174" priority="209" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="289" priority="354" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C29">
-    <cfRule type="cellIs" dxfId="173" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="356" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:A29">
-    <cfRule type="cellIs" dxfId="172" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="359" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A34">
-    <cfRule type="containsText" dxfId="171" priority="193" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="286" priority="338" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:C34">
-    <cfRule type="cellIs" dxfId="170" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="340" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A34">
-    <cfRule type="cellIs" dxfId="169" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="343" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="168" priority="175">
+    <cfRule type="expression" dxfId="283" priority="320">
       <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="167" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="321" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="166" priority="177">
+    <cfRule type="expression" dxfId="281" priority="322">
       <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="165" priority="178">
+    <cfRule type="expression" dxfId="280" priority="323">
       <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="164" priority="631">
+    <cfRule type="expression" dxfId="279" priority="776">
       <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", #REF! = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="163" priority="632">
+    <cfRule type="expression" dxfId="278" priority="777">
       <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", #REF! = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:A46">
-    <cfRule type="containsText" dxfId="162" priority="165" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="277" priority="310" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A43))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:C45 A46:B46">
-    <cfRule type="expression" dxfId="161" priority="166">
+    <cfRule type="expression" dxfId="276" priority="311">
       <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:C45 A46:B46">
-    <cfRule type="cellIs" dxfId="160" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="312" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C45">
-    <cfRule type="expression" dxfId="159" priority="168">
+    <cfRule type="expression" dxfId="274" priority="313">
       <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B46">
-    <cfRule type="expression" dxfId="158" priority="169">
+    <cfRule type="expression" dxfId="273" priority="314">
       <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:A46">
-    <cfRule type="cellIs" dxfId="157" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="315" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:C45 A46:B46">
-    <cfRule type="expression" dxfId="156" priority="171">
+    <cfRule type="expression" dxfId="271" priority="316">
       <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:C45">
-    <cfRule type="expression" dxfId="155" priority="172">
+    <cfRule type="expression" dxfId="270" priority="317">
       <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:C45">
-    <cfRule type="expression" dxfId="154" priority="173">
+    <cfRule type="expression" dxfId="269" priority="318">
       <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B46">
-    <cfRule type="expression" dxfId="153" priority="645">
+    <cfRule type="expression" dxfId="268" priority="790">
       <formula>AND($A46="end group", $B46 = "", #REF! = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B46">
-    <cfRule type="expression" dxfId="152" priority="646">
+    <cfRule type="expression" dxfId="267" priority="791">
       <formula>AND($A46="end repeat", $B46 = "", #REF! = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="151" priority="661">
+    <cfRule type="expression" dxfId="266" priority="806">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="150" priority="662">
+    <cfRule type="expression" dxfId="265" priority="807">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="149" priority="663">
+    <cfRule type="expression" dxfId="264" priority="808">
       <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="148" priority="664">
+    <cfRule type="expression" dxfId="263" priority="809">
       <formula>AND(#REF!="end group", #REF! = "", $C46 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="147" priority="665">
+    <cfRule type="expression" dxfId="262" priority="810">
       <formula>AND(#REF!="end repeat", #REF! = "", $C46 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="containsText" dxfId="146" priority="155" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="261" priority="300" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A47))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:C47">
-    <cfRule type="expression" dxfId="145" priority="156">
+    <cfRule type="expression" dxfId="260" priority="301">
       <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:C47">
-    <cfRule type="cellIs" dxfId="144" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="302" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="143" priority="158">
+    <cfRule type="expression" dxfId="258" priority="303">
       <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $C47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="142" priority="159">
+    <cfRule type="expression" dxfId="257" priority="304">
       <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $B47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="141" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="305" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:C47">
-    <cfRule type="expression" dxfId="140" priority="161">
+    <cfRule type="expression" dxfId="255" priority="306">
       <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:C47">
-    <cfRule type="expression" dxfId="139" priority="162">
+    <cfRule type="expression" dxfId="254" priority="307">
       <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:C47">
-    <cfRule type="expression" dxfId="138" priority="163">
+    <cfRule type="expression" dxfId="253" priority="308">
       <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F45">
-    <cfRule type="expression" dxfId="137" priority="144">
+    <cfRule type="expression" dxfId="252" priority="289">
       <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F45">
-    <cfRule type="cellIs" dxfId="136" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="290" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F45">
-    <cfRule type="expression" dxfId="135" priority="146">
+    <cfRule type="expression" dxfId="250" priority="291">
       <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F45">
-    <cfRule type="expression" dxfId="134" priority="147">
+    <cfRule type="expression" dxfId="249" priority="292">
       <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F45">
-    <cfRule type="expression" dxfId="133" priority="148">
+    <cfRule type="expression" dxfId="248" priority="293">
       <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:M45">
-    <cfRule type="expression" dxfId="132" priority="139">
+    <cfRule type="expression" dxfId="247" priority="284">
       <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:M45">
-    <cfRule type="cellIs" dxfId="131" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="285" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:M45">
-    <cfRule type="expression" dxfId="130" priority="141">
+    <cfRule type="expression" dxfId="245" priority="286">
       <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:M45">
-    <cfRule type="expression" dxfId="129" priority="142">
+    <cfRule type="expression" dxfId="244" priority="287">
       <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:M45">
-    <cfRule type="expression" dxfId="128" priority="143">
+    <cfRule type="expression" dxfId="243" priority="288">
       <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="127" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="277" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="126" priority="135">
+    <cfRule type="expression" dxfId="241" priority="280">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="125" priority="136">
+    <cfRule type="expression" dxfId="240" priority="281">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="124" priority="137">
+    <cfRule type="expression" dxfId="239" priority="282">
       <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", $E49 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="123" priority="138">
+    <cfRule type="expression" dxfId="238" priority="283">
       <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", $E49 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="containsText" dxfId="122" priority="122" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="237" priority="267" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A51))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:C51">
-    <cfRule type="expression" dxfId="121" priority="123">
+    <cfRule type="expression" dxfId="236" priority="268">
       <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:C51">
-    <cfRule type="cellIs" dxfId="120" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="269" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="119" priority="125">
+    <cfRule type="expression" dxfId="234" priority="270">
       <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $C51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="118" priority="126">
+    <cfRule type="expression" dxfId="233" priority="271">
       <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $B51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" dxfId="117" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="272" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:C51">
-    <cfRule type="expression" dxfId="116" priority="128">
+    <cfRule type="expression" dxfId="231" priority="273">
       <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:C51">
-    <cfRule type="expression" dxfId="115" priority="129">
+    <cfRule type="expression" dxfId="230" priority="274">
       <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $M51 = "", $N51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:C51">
-    <cfRule type="expression" dxfId="114" priority="130">
+    <cfRule type="expression" dxfId="229" priority="275">
       <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $M51 = "", $N51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="containsText" dxfId="113" priority="106" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="228" priority="251" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A52))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="112" priority="107">
+    <cfRule type="expression" dxfId="227" priority="252">
       <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="cellIs" dxfId="111" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="253" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="110" priority="109">
+    <cfRule type="expression" dxfId="225" priority="254">
       <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $C52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="109" priority="110">
+    <cfRule type="expression" dxfId="224" priority="255">
       <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $B52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="108" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="256" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="107" priority="112">
+    <cfRule type="expression" dxfId="222" priority="257">
       <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="106" priority="113">
+    <cfRule type="expression" dxfId="221" priority="258">
       <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $M52 = "", $N52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="105" priority="114">
+    <cfRule type="expression" dxfId="220" priority="259">
       <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $M52 = "", $N52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M12">
-    <cfRule type="cellIs" dxfId="104" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="242" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M11">
-    <cfRule type="cellIs" dxfId="103" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="237" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="102" priority="77">
+    <cfRule type="expression" dxfId="217" priority="222">
       <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="101" priority="78">
+    <cfRule type="expression" dxfId="216" priority="223">
       <formula>AND($A42="end group", $B42 = "", $C42 = "", $E42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $M42 = "", $N42 = "", $O42 = "", $Q42 = "", $R42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="cellIs" dxfId="100" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="224" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="99" priority="80">
+    <cfRule type="expression" dxfId="214" priority="225">
       <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $B42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="98" priority="82">
+    <cfRule type="expression" dxfId="213" priority="227">
       <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="97" priority="83">
+    <cfRule type="expression" dxfId="212" priority="228">
       <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $E42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $M42 = "", $N42 = "", $O42 = "", $Q42 = "", $R42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="expression" dxfId="96" priority="71">
-      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="expression" dxfId="211" priority="216">
+      <formula>AND($A79="begin group", NOT($B79 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="cellIs" dxfId="95" priority="72" operator="equal">
+  <conditionalFormatting sqref="C79">
+    <cfRule type="cellIs" dxfId="210" priority="217" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="expression" dxfId="94" priority="73">
-      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $C72 = "")</formula>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="expression" dxfId="209" priority="218">
+      <formula>AND(AND(NOT($A79 = "end group"), NOT($A79 = "end repeat"), NOT($A79 = "")), $C79 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="expression" dxfId="93" priority="74">
-      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="expression" dxfId="208" priority="219">
+      <formula>AND($A79="begin repeat", NOT($B79 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="expression" dxfId="92" priority="75">
-      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $M72 = "", $N72 = "")</formula>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="expression" dxfId="207" priority="220">
+      <formula>AND($A79="end group", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $M79 = "", $N79 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="expression" dxfId="91" priority="76">
-      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $M72 = "", $N72 = "")</formula>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="expression" dxfId="206" priority="221">
+      <formula>AND($A79="end repeat", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $M79 = "", $N79 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A62">
-    <cfRule type="containsText" dxfId="90" priority="59" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A58))))</formula>
+  <conditionalFormatting sqref="A65:A69">
+    <cfRule type="containsText" dxfId="205" priority="204" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A65))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:AE62">
-    <cfRule type="expression" dxfId="89" priority="60">
-      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
+  <conditionalFormatting sqref="A65:AE69">
+    <cfRule type="expression" dxfId="204" priority="205">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:AE62">
-    <cfRule type="expression" dxfId="88" priority="61">
-      <formula>AND($A58="end group", $B58 = "", $C58 = "", $E58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "", $O58 = "", $Q58 = "", $R58 = "")</formula>
+  <conditionalFormatting sqref="A65:AE69">
+    <cfRule type="expression" dxfId="203" priority="206">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $E65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $M65 = "", $N65 = "", $O65 = "", $Q65 = "", $R65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:AE62">
-    <cfRule type="cellIs" dxfId="87" priority="62" operator="equal">
+  <conditionalFormatting sqref="A65:AE69">
+    <cfRule type="cellIs" dxfId="202" priority="207" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M58:M62 M66:M69">
-    <cfRule type="expression" dxfId="86" priority="63">
-      <formula>AND($M58 = "", $A58 = "calculate")</formula>
+  <conditionalFormatting sqref="M65:M69 M73:M76">
+    <cfRule type="expression" dxfId="201" priority="208">
+      <formula>AND($M65 = "", $A65 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58:D62">
-    <cfRule type="expression" dxfId="85" priority="64">
-      <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $C58 = "")</formula>
+  <conditionalFormatting sqref="C65:D69">
+    <cfRule type="expression" dxfId="200" priority="209">
+      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:B62">
-    <cfRule type="expression" dxfId="84" priority="65">
-      <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $B58 = "")</formula>
+  <conditionalFormatting sqref="B65:B69">
+    <cfRule type="expression" dxfId="199" priority="210">
+      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $B65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A62">
-    <cfRule type="cellIs" dxfId="83" priority="66" operator="equal">
+  <conditionalFormatting sqref="A65:A69">
+    <cfRule type="cellIs" dxfId="198" priority="211" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:L62 K66:L69">
-    <cfRule type="expression" dxfId="82" priority="68">
-      <formula>AND(NOT($J58 = ""), $K58 = "")</formula>
+  <conditionalFormatting sqref="K65:L69 K73:L76">
+    <cfRule type="expression" dxfId="197" priority="213">
+      <formula>AND(NOT($J65 = ""), $K65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:AE62">
-    <cfRule type="expression" dxfId="81" priority="69">
-      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
+  <conditionalFormatting sqref="A65:AE69">
+    <cfRule type="expression" dxfId="196" priority="214">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:AE62">
-    <cfRule type="expression" dxfId="80" priority="70">
-      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $E58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "", $O58 = "", $Q58 = "", $R58 = "")</formula>
+  <conditionalFormatting sqref="A65:AE69">
+    <cfRule type="expression" dxfId="195" priority="215">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $E65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $M65 = "", $N65 = "", $O65 = "", $Q65 = "", $R65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:A65">
-    <cfRule type="containsText" dxfId="79" priority="47" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A64))))</formula>
+  <conditionalFormatting sqref="A71:A72">
+    <cfRule type="containsText" dxfId="194" priority="192" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A71))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:AE65">
-    <cfRule type="expression" dxfId="78" priority="48">
-      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+  <conditionalFormatting sqref="A71:AE72">
+    <cfRule type="expression" dxfId="193" priority="193">
+      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:AE65">
-    <cfRule type="expression" dxfId="77" priority="49">
-      <formula>AND($A64="end group", $B64 = "", $C64 = "", $E64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $M64 = "", $N64 = "", $O64 = "", $Q64 = "", $R64 = "")</formula>
+  <conditionalFormatting sqref="A71:AE72">
+    <cfRule type="expression" dxfId="192" priority="194">
+      <formula>AND($A71="end group", $B71 = "", $C71 = "", $E71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $M71 = "", $N71 = "", $O71 = "", $Q71 = "", $R71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:AE65">
-    <cfRule type="cellIs" dxfId="76" priority="50" operator="equal">
+  <conditionalFormatting sqref="A71:AE72">
+    <cfRule type="cellIs" dxfId="191" priority="195" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M64:M65">
-    <cfRule type="expression" dxfId="75" priority="51">
-      <formula>AND($M64 = "", $A64 = "calculate")</formula>
+  <conditionalFormatting sqref="M71:M72">
+    <cfRule type="expression" dxfId="190" priority="196">
+      <formula>AND($M71 = "", $A71 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64:D65">
-    <cfRule type="expression" dxfId="74" priority="52">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
+  <conditionalFormatting sqref="C71:D72">
+    <cfRule type="expression" dxfId="189" priority="197">
+      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $C71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64:B65">
-    <cfRule type="expression" dxfId="73" priority="53">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $B64 = "")</formula>
+  <conditionalFormatting sqref="B71:B72">
+    <cfRule type="expression" dxfId="188" priority="198">
+      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $B71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:A65">
-    <cfRule type="cellIs" dxfId="72" priority="54" operator="equal">
+  <conditionalFormatting sqref="A71:A72">
+    <cfRule type="cellIs" dxfId="187" priority="199" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:L65">
-    <cfRule type="expression" dxfId="71" priority="56">
-      <formula>AND(NOT($J64 = ""), $K64 = "")</formula>
+  <conditionalFormatting sqref="K71:L72">
+    <cfRule type="expression" dxfId="186" priority="201">
+      <formula>AND(NOT($J71 = ""), $K71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:AE65">
-    <cfRule type="expression" dxfId="70" priority="57">
-      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+  <conditionalFormatting sqref="A71:AE72">
+    <cfRule type="expression" dxfId="185" priority="202">
+      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:AE65">
-    <cfRule type="expression" dxfId="69" priority="58">
-      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $E64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $M64 = "", $N64 = "", $O64 = "", $Q64 = "", $R64 = "")</formula>
+  <conditionalFormatting sqref="A71:AE72">
+    <cfRule type="expression" dxfId="184" priority="203">
+      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $E71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $M71 = "", $N71 = "", $O71 = "", $Q71 = "", $R71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:A71">
-    <cfRule type="containsText" dxfId="68" priority="35" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A66))))</formula>
+  <conditionalFormatting sqref="A73:A78">
+    <cfRule type="containsText" dxfId="183" priority="180" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A73))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:AE69 A70:I71">
-    <cfRule type="expression" dxfId="67" priority="36">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
+  <conditionalFormatting sqref="A77:I78 A73:AE76">
+    <cfRule type="expression" dxfId="182" priority="181">
+      <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:AE69">
-    <cfRule type="expression" dxfId="66" priority="37">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $E66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "", $O66 = "", $Q66 = "", $R66 = "")</formula>
+  <conditionalFormatting sqref="A73:AE76">
+    <cfRule type="expression" dxfId="181" priority="182">
+      <formula>AND($A73="end group", $B73 = "", $C73 = "", $E73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $M73 = "", $N73 = "", $O73 = "", $Q73 = "", $R73 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:AE69 A70:I71">
-    <cfRule type="cellIs" dxfId="65" priority="38" operator="equal">
+  <conditionalFormatting sqref="A77:I78 A73:AE76">
+    <cfRule type="cellIs" dxfId="180" priority="183" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:A71">
-    <cfRule type="cellIs" dxfId="64" priority="42" operator="equal">
+  <conditionalFormatting sqref="A73:A78">
+    <cfRule type="cellIs" dxfId="179" priority="187" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:AE69 A70:I71">
-    <cfRule type="expression" dxfId="63" priority="45">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
+  <conditionalFormatting sqref="A77:I78 A73:AE76">
+    <cfRule type="expression" dxfId="178" priority="190">
+      <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:AE69">
-    <cfRule type="expression" dxfId="62" priority="46">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $E66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "", $O66 = "", $Q66 = "", $R66 = "")</formula>
+  <conditionalFormatting sqref="A73:AE76">
+    <cfRule type="expression" dxfId="177" priority="191">
+      <formula>AND($A73="end repeat", $B73 = "", $C73 = "", $E73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $M73 = "", $N73 = "", $O73 = "", $Q73 = "", $R73 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:B62">
-    <cfRule type="expression" dxfId="61" priority="743">
-      <formula>COUNTIF($B$2:$B$1128,B58)&gt;1</formula>
+  <conditionalFormatting sqref="B65:B69">
+    <cfRule type="expression" dxfId="176" priority="888">
+      <formula>COUNTIF($B$2:$B$1135,B65)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="60" priority="762">
+    <cfRule type="expression" dxfId="175" priority="907">
       <formula>AND(#REF!="begin group", NOT($B38 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="59" priority="765">
+    <cfRule type="expression" dxfId="174" priority="910">
       <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="58" priority="766">
+    <cfRule type="expression" dxfId="173" priority="911">
       <formula>AND(#REF!="begin repeat", NOT($B38 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="57" priority="769">
+    <cfRule type="expression" dxfId="172" priority="914">
       <formula>AND(#REF!="end group", $B38 = "", #REF! = "", $E40 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38 C38">
-    <cfRule type="expression" dxfId="56" priority="770">
+    <cfRule type="expression" dxfId="171" priority="915">
       <formula>AND($A38="end group", #REF! = "", $C38 = "", $E39 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "", $O38 = "", $P38 = "", $Q38 = "", $S38 = "", $T38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="55" priority="772">
+    <cfRule type="expression" dxfId="170" priority="917">
       <formula>AND(#REF!="end repeat", $B38 = "", #REF! = "", $E40 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38 C38">
-    <cfRule type="expression" dxfId="54" priority="773">
+    <cfRule type="expression" dxfId="169" priority="918">
       <formula>AND($A38="end repeat", #REF! = "", $C38 = "", $E39 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "", $O38 = "", $P38 = "", $Q38 = "", $S38 = "", $T38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37 C37">
-    <cfRule type="expression" dxfId="53" priority="775">
+    <cfRule type="expression" dxfId="168" priority="920">
       <formula>AND($A37="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37 C37">
-    <cfRule type="expression" dxfId="52" priority="777">
+    <cfRule type="expression" dxfId="167" priority="922">
       <formula>AND($A37="end group", $B42 = "", $C37 = "", $E37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "", $O37 = "", $P37 = "", $Q37 = "", $S37 = "", $T37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37 C37">
-    <cfRule type="expression" dxfId="51" priority="779">
+    <cfRule type="expression" dxfId="166" priority="924">
       <formula>AND($A37="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37 C37">
-    <cfRule type="expression" dxfId="50" priority="781">
+    <cfRule type="expression" dxfId="165" priority="926">
       <formula>AND($A37="end repeat", $B42 = "", $C37 = "", $E37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "", $O37 = "", $P37 = "", $Q37 = "", $S37 = "", $T37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42 A42">
-    <cfRule type="expression" dxfId="49" priority="783">
+    <cfRule type="expression" dxfId="164" priority="928">
       <formula>AND($A42="begin group", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42 A42">
-    <cfRule type="expression" dxfId="48" priority="785">
+    <cfRule type="expression" dxfId="163" priority="930">
       <formula>AND($A42="begin repeat", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="47" priority="787">
+    <cfRule type="expression" dxfId="162" priority="932">
       <formula>AND($A42="end group", $B37 = "", $C42 = "", #REF! = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "", $O42 = "", $P42 = "", $Q42 = "", $S42 = "", $T42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42 A42">
-    <cfRule type="expression" dxfId="46" priority="788">
+    <cfRule type="expression" dxfId="161" priority="933">
       <formula>AND($A42="end repeat", $B37 = "", $C42 = "", #REF! = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "", $O42 = "", $P42 = "", $Q42 = "", $S42 = "", $T42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="45" priority="789">
+    <cfRule type="expression" dxfId="160" priority="934">
       <formula>AND($A42="end group", $B37 = "", $C42 = "", #REF! = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "", $O42 = "", $P42 = "", $Q42 = "", $S42 = "", $T42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="44" priority="791">
+    <cfRule type="expression" dxfId="159" priority="936">
       <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E37 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $M49 = "", $N49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="43" priority="792">
+    <cfRule type="expression" dxfId="158" priority="937">
       <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E37 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $M49 = "", $N49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="containsText" dxfId="157" priority="168" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A61))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:AE61">
+    <cfRule type="expression" dxfId="156" priority="169">
+      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:AE61">
+    <cfRule type="expression" dxfId="155" priority="170">
+      <formula>AND($A61="end group", $B61 = "", $C61 = "", $E61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $M61 = "", $N61 = "", $O61 = "", $Q61 = "", $R61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:AE61">
+    <cfRule type="cellIs" dxfId="154" priority="171" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M61">
+    <cfRule type="expression" dxfId="153" priority="172">
+      <formula>AND($M61 = "", $A61 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:D61">
+    <cfRule type="expression" dxfId="152" priority="173">
+      <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $C61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="expression" dxfId="151" priority="174">
+      <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $B61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="cellIs" dxfId="150" priority="175" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61:L61">
+    <cfRule type="expression" dxfId="149" priority="177">
+      <formula>AND(NOT($J61 = ""), $K61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:AE61">
+    <cfRule type="expression" dxfId="148" priority="178">
+      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:AE61">
+    <cfRule type="expression" dxfId="147" priority="179">
+      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $E61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $M61 = "", $N61 = "", $O61 = "", $Q61 = "", $R61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="containsText" dxfId="146" priority="156" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A62))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:I62 D63:I64">
+    <cfRule type="expression" dxfId="145" priority="157">
+      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:I62 D63:I64">
+    <cfRule type="cellIs" dxfId="144" priority="159" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:D62 D63:D64">
+    <cfRule type="expression" dxfId="143" priority="161">
+      <formula>AND(AND(NOT($A62 = "end group"), NOT($A62 = "end repeat"), NOT($A62 = "")), $C62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="expression" dxfId="142" priority="162">
+      <formula>AND(AND(NOT($A62 = "end group"), NOT($A62 = "end repeat"), NOT($A62 = "")), $B62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="cellIs" dxfId="141" priority="163" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:I62 D63:I64">
+    <cfRule type="expression" dxfId="140" priority="166">
+      <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N62:AE64 A62:L62 D63:L64 N77:AE78 A77:L78">
+    <cfRule type="expression" dxfId="139" priority="952">
+      <formula>AND($A62="end group", $B62 = "", $C62 = "", $E62 = "", $H62 = "", $I62 = "", #REF! = "", $K62 = "", $J62 = "", $N62 = "", $O62 = "", $Q62 = "", $R62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J62:J64 J77:J78">
+    <cfRule type="expression" dxfId="138" priority="958">
+      <formula>AND($J62 = "", $A62 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62:L64 K77:L78">
+    <cfRule type="expression" dxfId="137" priority="959">
+      <formula>AND(NOT(#REF! = ""), $K62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N62:AE64 A62:L62 D63:L64 N77:AE78 A77:L78">
+    <cfRule type="expression" dxfId="136" priority="962">
+      <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $E62 = "", $H62 = "", $I62 = "", #REF! = "", $K62 = "", $J62 = "", $N62 = "", $O62 = "", $Q62 = "", $R62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:A64">
+    <cfRule type="containsText" dxfId="135" priority="146" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A63))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:C64">
+    <cfRule type="expression" dxfId="134" priority="147">
+      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:C64">
+    <cfRule type="expression" dxfId="133" priority="148">
+      <formula>AND($A63="end group", $B63 = "", $C63 = "", $E63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $M63 = "", $N63 = "", $O63 = "", $Q63 = "", $R63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:C64">
+    <cfRule type="cellIs" dxfId="132" priority="149" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63:C64">
+    <cfRule type="expression" dxfId="131" priority="150">
+      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $C63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:B64">
+    <cfRule type="expression" dxfId="130" priority="151">
+      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $B63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:A64">
+    <cfRule type="cellIs" dxfId="129" priority="152" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:C64">
+    <cfRule type="expression" dxfId="128" priority="154">
+      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:C64">
+    <cfRule type="expression" dxfId="127" priority="155">
+      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $E63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $M63 = "", $N63 = "", $O63 = "", $Q63 = "", $R63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B51 B42">
-    <cfRule type="expression" dxfId="42" priority="802">
-      <formula>COUNTIF($B$2:$B$1133,B42)&gt;1</formula>
+    <cfRule type="expression" dxfId="126" priority="975">
+      <formula>COUNTIF($B$2:$B$1140,B42)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B72">
+    <cfRule type="expression" dxfId="125" priority="986">
+      <formula>COUNTIF($B$2:$B$1134,B71)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73:B78 B61">
+    <cfRule type="expression" dxfId="124" priority="987">
+      <formula>COUNTIF($B$2:$B$1126,B61)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52 B19">
+    <cfRule type="expression" dxfId="123" priority="999">
+      <formula>COUNTIF($B$2:$B$1139,B19)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="expression" dxfId="122" priority="1002">
+      <formula>COUNTIF($B$2:$B$1124,B62)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:B64">
+    <cfRule type="expression" dxfId="121" priority="1003">
+      <formula>COUNTIF($B$2:$B$1122,B63)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="containsText" dxfId="120" priority="136" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A60))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:C60">
+    <cfRule type="expression" dxfId="119" priority="137">
+      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:C60">
+    <cfRule type="expression" dxfId="118" priority="138">
+      <formula>AND($A60="end group", $B60 = "", $C60 = "", $E60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $M60 = "", $N60 = "", $O60 = "", $Q60 = "", $R60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:C60">
+    <cfRule type="cellIs" dxfId="117" priority="139" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="116" priority="140">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" dxfId="115" priority="141">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="cellIs" dxfId="114" priority="142" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" dxfId="113" priority="143">
+      <formula>COUNTIF($B$2:$B$1123,B60)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:C60">
+    <cfRule type="expression" dxfId="112" priority="144">
+      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:C60">
+    <cfRule type="expression" dxfId="111" priority="145">
+      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $E60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $M60 = "", $N60 = "", $O60 = "", $Q60 = "", $R60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J60">
+    <cfRule type="expression" dxfId="110" priority="124">
+      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J60">
+    <cfRule type="expression" dxfId="109" priority="125">
+      <formula>AND($A60="end group", $B60 = "", $C60 = "", $E60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $M60 = "", $N60 = "", $O60 = "", $Q60 = "", $R60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J60">
+    <cfRule type="cellIs" dxfId="108" priority="126" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J60">
+    <cfRule type="expression" dxfId="107" priority="127">
+      <formula>AND($M60 = "", $A60 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J60">
+    <cfRule type="expression" dxfId="106" priority="128">
+      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J60">
+    <cfRule type="expression" dxfId="105" priority="129">
+      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $E60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $M60 = "", $N60 = "", $O60 = "", $Q60 = "", $R60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="containsText" dxfId="104" priority="114" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A59))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:C59">
+    <cfRule type="expression" dxfId="103" priority="115">
+      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:C59">
+    <cfRule type="expression" dxfId="102" priority="116">
+      <formula>AND($A59="end group", $B59 = "", $C59 = "", $E59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $M59 = "", $N59 = "", $O59 = "", $Q59 = "", $R59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:C59">
+    <cfRule type="cellIs" dxfId="101" priority="117" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="100" priority="118">
+      <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $C59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
+    <cfRule type="expression" dxfId="99" priority="119">
+      <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $B59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="cellIs" dxfId="98" priority="120" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
+    <cfRule type="expression" dxfId="97" priority="121">
+      <formula>COUNTIF($B$2:$B$1122,B59)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:C59">
+    <cfRule type="expression" dxfId="96" priority="122">
+      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:C59">
+    <cfRule type="expression" dxfId="95" priority="123">
+      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $E59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $M59 = "", $N59 = "", $O59 = "", $Q59 = "", $R59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59">
+    <cfRule type="expression" dxfId="94" priority="102">
+      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59">
+    <cfRule type="expression" dxfId="93" priority="103">
+      <formula>AND($A59="end group", $B59 = "", $C59 = "", $E59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $M59 = "", $N59 = "", $O59 = "", $Q59 = "", $R59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59">
+    <cfRule type="cellIs" dxfId="92" priority="104" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59">
+    <cfRule type="expression" dxfId="91" priority="105">
+      <formula>AND($M59 = "", $A59 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59">
+    <cfRule type="expression" dxfId="90" priority="106">
+      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59">
+    <cfRule type="expression" dxfId="89" priority="107">
+      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $E59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $M59 = "", $N59 = "", $O59 = "", $Q59 = "", $R59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="containsText" dxfId="88" priority="92" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A58))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:C58">
+    <cfRule type="expression" dxfId="87" priority="93">
+      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:C58">
+    <cfRule type="expression" dxfId="86" priority="94">
+      <formula>AND($A58="end group", $B58 = "", $C58 = "", $E58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "", $O58 = "", $Q58 = "", $R58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:C58">
+    <cfRule type="cellIs" dxfId="85" priority="95" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="84" priority="96">
+      <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $C58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="83" priority="97">
+      <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $B58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="cellIs" dxfId="82" priority="98" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="81" priority="99">
+      <formula>COUNTIF($B$2:$B$1121,B58)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:C58">
+    <cfRule type="expression" dxfId="80" priority="100">
+      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:C58">
+    <cfRule type="expression" dxfId="79" priority="101">
+      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $E58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "", $O58 = "", $Q58 = "", $R58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58">
+    <cfRule type="expression" dxfId="78" priority="80">
+      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58">
+    <cfRule type="expression" dxfId="77" priority="81">
+      <formula>AND($A58="end group", $B58 = "", $C58 = "", $E58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "", $O58 = "", $Q58 = "", $R58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58">
+    <cfRule type="cellIs" dxfId="76" priority="82" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58">
+    <cfRule type="expression" dxfId="75" priority="83">
+      <formula>AND($M58 = "", $A58 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58">
+    <cfRule type="expression" dxfId="74" priority="84">
+      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58">
+    <cfRule type="expression" dxfId="73" priority="85">
+      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $E58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "", $O58 = "", $Q58 = "", $R58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="containsText" dxfId="72" priority="70" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A57))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:C57">
+    <cfRule type="expression" dxfId="71" priority="71">
+      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:C57">
+    <cfRule type="expression" dxfId="70" priority="72">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $E57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "", $O57 = "", $Q57 = "", $R57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:C57">
+    <cfRule type="cellIs" dxfId="69" priority="73" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="68" priority="74">
+      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="expression" dxfId="67" priority="75">
+      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $B57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="cellIs" dxfId="66" priority="76" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="expression" dxfId="65" priority="77">
+      <formula>COUNTIF($B$2:$B$1120,B57)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:C57">
+    <cfRule type="expression" dxfId="64" priority="78">
+      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:C57">
+    <cfRule type="expression" dxfId="63" priority="79">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $E57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "", $O57 = "", $Q57 = "", $R57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="expression" dxfId="62" priority="58">
+      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="expression" dxfId="61" priority="59">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $E57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "", $O57 = "", $Q57 = "", $R57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="expression" dxfId="59" priority="61">
+      <formula>AND($M57 = "", $A57 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="expression" dxfId="58" priority="62">
+      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="expression" dxfId="57" priority="63">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $E57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "", $O57 = "", $Q57 = "", $R57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="containsText" dxfId="56" priority="48" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A56))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:C56">
+    <cfRule type="expression" dxfId="55" priority="49">
+      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:C56">
+    <cfRule type="expression" dxfId="54" priority="50">
+      <formula>AND($A56="end group", $B56 = "", $C56 = "", $E56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $M56 = "", $N56 = "", $O56 = "", $Q56 = "", $R56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:C56">
+    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="52" priority="52">
+      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $C56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56">
+    <cfRule type="expression" dxfId="51" priority="53">
+      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $B56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56">
+    <cfRule type="expression" dxfId="49" priority="55">
+      <formula>COUNTIF($B$2:$B$1119,B56)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:C56">
+    <cfRule type="expression" dxfId="48" priority="56">
+      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:C56">
+    <cfRule type="expression" dxfId="47" priority="57">
+      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $E56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $M56 = "", $N56 = "", $O56 = "", $Q56 = "", $R56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="expression" dxfId="46" priority="36">
+      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="expression" dxfId="45" priority="37">
+      <formula>AND($A56="end group", $B56 = "", $C56 = "", $E56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $M56 = "", $N56 = "", $O56 = "", $Q56 = "", $R56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="expression" dxfId="43" priority="39">
+      <formula>AND($M56 = "", $A56 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="expression" dxfId="42" priority="40">
+      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="expression" dxfId="41" priority="41">
+      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $E56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $M56 = "", $N56 = "", $O56 = "", $Q56 = "", $R56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="containsText" dxfId="40" priority="26" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A55))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:C55">
+    <cfRule type="expression" dxfId="39" priority="27">
+      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:C55">
+    <cfRule type="expression" dxfId="38" priority="28">
+      <formula>AND($A55="end group", $B55 = "", $C55 = "", $E55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $M55 = "", $N55 = "", $O55 = "", $Q55 = "", $R55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:C55">
+    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="36" priority="30">
+      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
+    <cfRule type="expression" dxfId="35" priority="31">
+      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
+    <cfRule type="expression" dxfId="33" priority="33">
+      <formula>COUNTIF($B$2:$B$1118,B55)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:C55">
+    <cfRule type="expression" dxfId="32" priority="34">
+      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:C55">
+    <cfRule type="expression" dxfId="31" priority="35">
+      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $E55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $M55 = "", $N55 = "", $O55 = "", $Q55 = "", $R55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A54))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:AE54">
-    <cfRule type="expression" dxfId="40" priority="24">
+  <conditionalFormatting sqref="A54:C54">
+    <cfRule type="expression" dxfId="29" priority="17">
       <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:AE54">
-    <cfRule type="expression" dxfId="39" priority="25">
+  <conditionalFormatting sqref="A54:C54">
+    <cfRule type="expression" dxfId="28" priority="18">
       <formula>AND($A54="end group", $B54 = "", $C54 = "", $E54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $M54 = "", $N54 = "", $O54 = "", $Q54 = "", $R54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:AE54">
-    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
+  <conditionalFormatting sqref="A54:C54">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M54">
-    <cfRule type="expression" dxfId="37" priority="27">
-      <formula>AND($M54 = "", $A54 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54:D54">
-    <cfRule type="expression" dxfId="36" priority="28">
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="26" priority="20">
       <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $C54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="25" priority="21">
       <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $B54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:L54">
-    <cfRule type="expression" dxfId="33" priority="32">
-      <formula>AND(NOT($J54 = ""), $K54 = "")</formula>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>COUNTIF($B$2:$B$1117,B54)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:AE54">
-    <cfRule type="expression" dxfId="32" priority="33">
+  <conditionalFormatting sqref="A54:C54">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:AE54">
-    <cfRule type="expression" dxfId="31" priority="34">
+  <conditionalFormatting sqref="A54:C54">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $E54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $M54 = "", $N54 = "", $O54 = "", $Q54 = "", $R54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A55))))</formula>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A53))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:I55 D56:I57">
-    <cfRule type="expression" dxfId="29" priority="12">
-      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
+  <conditionalFormatting sqref="A53:C53">
+    <cfRule type="expression" dxfId="19" priority="7">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:I55 D56:I57">
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+  <conditionalFormatting sqref="A53:C53">
+    <cfRule type="expression" dxfId="18" priority="8">
+      <formula>AND($A53="end group", $B53 = "", $C53 = "", $E53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $M53 = "", $N53 = "", $O53 = "", $Q53 = "", $R53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:C53">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55:D55 D56:D57">
-    <cfRule type="expression" dxfId="27" priority="16">
-      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="16" priority="10">
+      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="expression" dxfId="26" priority="17">
-      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" dxfId="15" priority="11">
+      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $B53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+  <conditionalFormatting sqref="A53">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:I55 D56:I57">
-    <cfRule type="expression" dxfId="24" priority="21">
-      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>COUNTIF($B$2:$B$1116,B53)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N55:AE57 A55:L55 D56:L57 N70:AE71 A70:L71">
-    <cfRule type="expression" dxfId="23" priority="807">
-      <formula>AND($A55="end group", $B55 = "", $C55 = "", $E55 = "", $H55 = "", $I55 = "", #REF! = "", $K55 = "", $J55 = "", $N55 = "", $O55 = "", $Q55 = "", $R55 = "")</formula>
+  <conditionalFormatting sqref="A53:C53">
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55:J57 J70:J71">
-    <cfRule type="expression" dxfId="22" priority="813">
-      <formula>AND($J55 = "", $A55 = "calculate")</formula>
+  <conditionalFormatting sqref="A53:C53">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $E53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $M53 = "", $N53 = "", $O53 = "", $Q53 = "", $R53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:L57 K70:L71">
-    <cfRule type="expression" dxfId="21" priority="814">
-      <formula>AND(NOT(#REF! = ""), $K55 = "")</formula>
+  <conditionalFormatting sqref="B43:B47">
+    <cfRule type="expression" dxfId="10" priority="1009">
+      <formula>COUNTIF($B$2:$B$1023,B43)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N55:AE57 A55:L55 D56:L57 N70:AE71 A70:L71">
-    <cfRule type="expression" dxfId="20" priority="817">
-      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $E55 = "", $H55 = "", $I55 = "", #REF! = "", $K55 = "", $J55 = "", $N55 = "", $O55 = "", $Q55 = "", $R55 = "")</formula>
+  <conditionalFormatting sqref="B50 B38:B41 B48">
+    <cfRule type="expression" dxfId="9" priority="1010">
+      <formula>COUNTIF($B$20:$B$1146,B38)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:A57">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A56))))</formula>
+  <conditionalFormatting sqref="B37 B32:B34">
+    <cfRule type="expression" dxfId="8" priority="1013">
+      <formula>COUNTIF($B$2:$B$1027,B32)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:C57">
-    <cfRule type="expression" dxfId="18" priority="2">
-      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
+  <conditionalFormatting sqref="B9:B17">
+    <cfRule type="expression" dxfId="7" priority="1015">
+      <formula>COUNTIF($B$2:$B$1036,B9)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:C57">
-    <cfRule type="expression" dxfId="17" priority="3">
-      <formula>AND($A56="end group", $B56 = "", $C56 = "", $E56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $M56 = "", $N56 = "", $O56 = "", $Q56 = "", $R56 = "")</formula>
+  <conditionalFormatting sqref="B2:B8 B18">
+    <cfRule type="expression" dxfId="6" priority="1016">
+      <formula>COUNTIF($B$2:$B$1138,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:C57">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+  <conditionalFormatting sqref="B27:B29">
+    <cfRule type="expression" dxfId="5" priority="1018">
+      <formula>COUNTIF($B$2:$B$1030,B27)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>AND($A53="end group", $B53 = "", $C53 = "", $E53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $M53 = "", $N53 = "", $O53 = "", $Q53 = "", $R53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="15" priority="5">
-      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $C56 = "")</formula>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56:B57">
-    <cfRule type="expression" dxfId="14" priority="6">
-      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $B56 = "")</formula>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $E53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $M53 = "", $N53 = "", $O53 = "", $Q53 = "", $R53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:A57">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:C57">
-    <cfRule type="expression" dxfId="12" priority="9">
-      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:C57">
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $E56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $M56 = "", $N56 = "", $O56 = "", $Q56 = "", $R56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52 B19">
-    <cfRule type="expression" dxfId="10" priority="830">
-      <formula>COUNTIF($B$2:$B$1132,B19)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64:B65">
-    <cfRule type="expression" dxfId="9" priority="841">
-      <formula>COUNTIF($B$2:$B$1127,B64)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66:B71 B54">
-    <cfRule type="expression" dxfId="8" priority="842">
-      <formula>COUNTIF($B$2:$B$1119,B54)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43:B47">
-    <cfRule type="expression" dxfId="7" priority="846">
-      <formula>COUNTIF($B$2:$B$1016,B43)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50 B38:B41 B48 B53">
-    <cfRule type="expression" dxfId="6" priority="847">
-      <formula>COUNTIF($B$20:$B$1139,B38)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37 B32:B34">
-    <cfRule type="expression" dxfId="5" priority="851">
-      <formula>COUNTIF($B$2:$B$1020,B32)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B17">
-    <cfRule type="expression" dxfId="4" priority="853">
-      <formula>COUNTIF($B$2:$B$1029,B9)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B8 B18">
-    <cfRule type="expression" dxfId="3" priority="854">
-      <formula>COUNTIF($B$2:$B$1131,B2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B29">
-    <cfRule type="expression" dxfId="2" priority="856">
-      <formula>COUNTIF($B$2:$B$1023,B27)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="expression" dxfId="1" priority="857">
-      <formula>COUNTIF($B$2:$B$1117,B55)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56:B57">
-    <cfRule type="expression" dxfId="0" priority="858">
-      <formula>COUNTIF($B$2:$B$1115,B56)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D9:D17 E64:E71 E54:E62">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" sqref="D9:D17 E71:E78 E61:E69">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -35182,7 +37200,7 @@
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" ht="13.8">
       <c r="A6" s="59" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>2</v>
@@ -35193,7 +37211,7 @@
     </row>
     <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="59" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
@@ -35315,11 +37333,11 @@
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 5-43</v>
+        <v>2022-11-08 8-10</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -559,7 +559,7 @@
     <t>Months</t>
   </si>
   <si>
-    <t>selected(../knows_dob,  'yes')</t>
+    <t>format-date-time(date(../dob_iso),'%Y-%m-%d')</t>
   </si>
 </sst>
 </file>
@@ -5039,10 +5039,10 @@
   <dimension ref="A1:AE1058"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6955,14 +6955,14 @@
         <v>90</v>
       </c>
       <c r="D55" s="27"/>
-      <c r="E55" s="25" t="s">
-        <v>176</v>
-      </c>
+      <c r="E55" s="25"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
-      <c r="J55" s="13"/>
+      <c r="J55" s="13" t="s">
+        <v>176</v>
+      </c>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
@@ -37118,7 +37118,7 @@
       <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $E53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $M53 = "", $N53 = "", $O53 = "", $Q53 = "", $R53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="D9:D17 E71:E78 E61:E69">
       <formula1>"yes,no"</formula1>
     </dataValidation>
@@ -37337,7 +37337,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 8-10</v>
+        <v>2022-11-08 15-23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -358,12 +358,6 @@
     <t>if(../dob_calendar != '',floor( difference-in-months( ../contact_dob_iso, today() ) div 12 ),../age)</t>
   </si>
   <si>
-    <t>../hh_age_years</t>
-  </si>
-  <si>
-    <t>concat(${hh_age_years}, ' years')</t>
-  </si>
-  <si>
     <t>hh_age_in_years</t>
   </si>
   <si>
@@ -560,6 +554,12 @@
   </si>
   <si>
     <t>format-date-time(date(../dob_iso),'%Y-%m-%d')</t>
+  </si>
+  <si>
+    <t>../age_years</t>
+  </si>
+  <si>
+    <t>concat(${age_years}, ' years')</t>
   </si>
 </sst>
 </file>
@@ -5039,10 +5039,10 @@
   <dimension ref="A1:AE1058"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5437,7 +5437,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="1"/>
@@ -5474,10 +5474,10 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="1"/>
@@ -5548,7 +5548,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -5772,7 +5772,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>3</v>
@@ -5811,7 +5811,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>2</v>
@@ -5853,7 +5853,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
@@ -5896,7 +5896,7 @@
         <v>76</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>90</v>
@@ -5919,7 +5919,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
@@ -5952,7 +5952,7 @@
         <v>76</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>90</v>
@@ -5964,7 +5964,7 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="13" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
@@ -5988,7 +5988,7 @@
         <v>76</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C28" s="42" t="s">
         <v>90</v>
@@ -6000,7 +6000,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="13" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
@@ -6024,10 +6024,10 @@
         <v>11</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="25"/>
@@ -6130,7 +6130,7 @@
         <v>76</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C32" s="43" t="s">
         <v>90</v>
@@ -6142,7 +6142,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -6166,10 +6166,10 @@
         <v>76</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -6178,7 +6178,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -6202,10 +6202,10 @@
         <v>76</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -6214,7 +6214,7 @@
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
@@ -6329,13 +6329,13 @@
     </row>
     <row r="38" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A38" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G39" s="31"/>
       <c r="H39" s="28"/>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
@@ -6467,7 +6467,7 @@
         <v>73</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>72</v>
@@ -6506,7 +6506,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
@@ -6519,7 +6519,7 @@
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
       <c r="L43" s="46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M43" s="46" t="s">
         <v>92</v>
@@ -6559,10 +6559,10 @@
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M44" s="46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N44" s="29"/>
       <c r="O44" s="9"/>
@@ -6599,10 +6599,10 @@
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M45" s="42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N45" s="29"/>
       <c r="O45" s="9"/>
@@ -6659,7 +6659,7 @@
         <v>76</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C47" s="46" t="s">
         <v>90</v>
@@ -6671,7 +6671,7 @@
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
       <c r="J47" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
@@ -6732,7 +6732,7 @@
         <v>54</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="42"/>
@@ -6801,7 +6801,7 @@
         <v>76</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C51" s="43" t="s">
         <v>90</v>
@@ -6837,10 +6837,10 @@
         <v>11</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="25" t="s">
@@ -6873,7 +6873,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C53" s="56" t="s">
         <v>55</v>
@@ -6911,10 +6911,10 @@
         <v>7</v>
       </c>
       <c r="B54" s="56" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C54" s="56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D54" s="27" t="s">
         <v>9</v>
@@ -6961,7 +6961,7 @@
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
       <c r="J55" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
@@ -6985,7 +6985,7 @@
         <v>76</v>
       </c>
       <c r="B56" s="56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C56" s="56" t="s">
         <v>90</v>
@@ -6997,7 +6997,7 @@
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
       <c r="J56" s="56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
@@ -7021,7 +7021,7 @@
         <v>76</v>
       </c>
       <c r="B57" s="56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C57" s="56" t="s">
         <v>90</v>
@@ -7033,7 +7033,7 @@
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
       <c r="J57" s="56" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
@@ -7057,7 +7057,7 @@
         <v>76</v>
       </c>
       <c r="B58" s="56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C58" s="56" t="s">
         <v>90</v>
@@ -7069,7 +7069,7 @@
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
       <c r="J58" s="56" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
@@ -7093,7 +7093,7 @@
         <v>76</v>
       </c>
       <c r="B59" s="56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C59" s="56" t="s">
         <v>90</v>
@@ -7105,7 +7105,7 @@
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
       <c r="J59" s="56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
@@ -7129,7 +7129,7 @@
         <v>76</v>
       </c>
       <c r="B60" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C60" s="56" t="s">
         <v>90</v>
@@ -7141,7 +7141,7 @@
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
       <c r="J60" s="52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
@@ -7165,7 +7165,7 @@
         <v>76</v>
       </c>
       <c r="B61" s="56" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C61" s="56" t="s">
         <v>90</v>
@@ -7177,7 +7177,7 @@
       <c r="H61" s="56"/>
       <c r="I61" s="56"/>
       <c r="J61" s="56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K61" s="56"/>
       <c r="L61" s="56"/>
@@ -7206,7 +7206,7 @@
         <v>76</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C62" s="52" t="s">
         <v>90</v>
@@ -7218,7 +7218,7 @@
       <c r="H62" s="54"/>
       <c r="I62" s="54"/>
       <c r="J62" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K62" s="54"/>
       <c r="L62" s="54"/>
@@ -7246,10 +7246,10 @@
         <v>1</v>
       </c>
       <c r="B63" s="56" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C63" s="56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D63" s="52"/>
       <c r="E63" s="54"/>
@@ -7284,10 +7284,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C64" s="56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D64" s="52"/>
       <c r="E64" s="54"/>
@@ -7552,7 +7552,7 @@
         <v>11</v>
       </c>
       <c r="C71" s="56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D71" s="56"/>
       <c r="E71" s="56"/>
@@ -7623,10 +7623,10 @@
         <v>47</v>
       </c>
       <c r="B73" s="56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C73" s="56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D73" s="56"/>
       <c r="E73" s="56"/>
@@ -7642,10 +7642,10 @@
       <c r="M73" s="56"/>
       <c r="N73" s="56"/>
       <c r="O73" s="56" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P73" s="56" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q73" s="56"/>
       <c r="R73" s="56"/>
@@ -7728,7 +7728,7 @@
       <c r="O75" s="56"/>
       <c r="P75" s="56"/>
       <c r="Q75" s="57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R75" s="56"/>
       <c r="S75" s="56"/>
@@ -7767,13 +7767,13 @@
       <c r="K76" s="56"/>
       <c r="L76" s="56"/>
       <c r="M76" s="56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N76" s="56"/>
       <c r="O76" s="56"/>
       <c r="P76" s="56"/>
       <c r="Q76" s="57" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R76" s="56"/>
       <c r="S76" s="56"/>
@@ -7809,7 +7809,7 @@
       <c r="H77" s="56"/>
       <c r="I77" s="56"/>
       <c r="J77" s="56" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K77" s="56"/>
       <c r="L77" s="56"/>
@@ -7837,13 +7837,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C78" s="57" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D78" s="57" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E78" s="57"/>
       <c r="F78" s="58"/>
@@ -7851,7 +7851,7 @@
       <c r="H78" s="56"/>
       <c r="I78" s="56"/>
       <c r="J78" s="56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K78" s="56"/>
       <c r="L78" s="56"/>
@@ -37200,7 +37200,7 @@
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" ht="13.8">
       <c r="A6" s="59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>2</v>
@@ -37211,7 +37211,7 @@
     </row>
     <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
@@ -37333,11 +37333,11 @@
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 15-23</v>
+        <v>2022-11-08 15-26</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="178">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -358,6 +358,12 @@
     <t>if(../dob_calendar != '',floor( difference-in-months( ../contact_dob_iso, today() ) div 12 ),../age)</t>
   </si>
   <si>
+    <t>../hh_age_years</t>
+  </si>
+  <si>
+    <t>concat(${hh_age_years}, ' years')</t>
+  </si>
+  <si>
     <t>hh_age_in_years</t>
   </si>
   <si>
@@ -556,10 +562,7 @@
     <t>format-date-time(date(../dob_iso),'%Y-%m-%d')</t>
   </si>
   <si>
-    <t>../age_years</t>
-  </si>
-  <si>
-    <t>concat(${age_years}, ' years')</t>
+    <t>hh_age_years</t>
   </si>
 </sst>
 </file>
@@ -5039,10 +5042,10 @@
   <dimension ref="A1:AE1058"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5437,7 +5440,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="42" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="1"/>
@@ -5474,10 +5477,10 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="42" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="1"/>
@@ -5548,7 +5551,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -5772,7 +5775,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>3</v>
@@ -5811,7 +5814,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>2</v>
@@ -5853,7 +5856,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
@@ -5896,7 +5899,7 @@
         <v>76</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>90</v>
@@ -5919,7 +5922,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
@@ -5952,7 +5955,7 @@
         <v>76</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>90</v>
@@ -5964,7 +5967,7 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="13" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
@@ -5988,7 +5991,7 @@
         <v>76</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C28" s="42" t="s">
         <v>90</v>
@@ -6000,7 +6003,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="13" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
@@ -6024,10 +6027,10 @@
         <v>11</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="25"/>
@@ -6130,7 +6133,7 @@
         <v>76</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C32" s="43" t="s">
         <v>90</v>
@@ -6142,7 +6145,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -6166,10 +6169,10 @@
         <v>76</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -6178,7 +6181,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -6202,10 +6205,10 @@
         <v>76</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -6214,7 +6217,7 @@
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
@@ -6329,13 +6332,13 @@
     </row>
     <row r="38" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A38" s="30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
@@ -6373,7 +6376,7 @@
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G39" s="31"/>
       <c r="H39" s="28"/>
@@ -6438,7 +6441,7 @@
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
@@ -6467,7 +6470,7 @@
         <v>73</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>72</v>
@@ -6506,7 +6509,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
@@ -6519,7 +6522,7 @@
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
       <c r="L43" s="46" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M43" s="46" t="s">
         <v>92</v>
@@ -6559,10 +6562,10 @@
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="46" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M44" s="46" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N44" s="29"/>
       <c r="O44" s="9"/>
@@ -6599,10 +6602,10 @@
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="42" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M45" s="42" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N45" s="29"/>
       <c r="O45" s="9"/>
@@ -6659,7 +6662,7 @@
         <v>76</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C47" s="46" t="s">
         <v>90</v>
@@ -6671,7 +6674,7 @@
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
       <c r="J47" s="29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
@@ -6732,7 +6735,7 @@
         <v>54</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="42"/>
@@ -6801,7 +6804,7 @@
         <v>76</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C51" s="43" t="s">
         <v>90</v>
@@ -6837,10 +6840,10 @@
         <v>11</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="25" t="s">
@@ -6873,7 +6876,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="56" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C53" s="56" t="s">
         <v>55</v>
@@ -6911,10 +6914,10 @@
         <v>7</v>
       </c>
       <c r="B54" s="56" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C54" s="56" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D54" s="27" t="s">
         <v>9</v>
@@ -6961,7 +6964,7 @@
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
       <c r="J55" s="13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
@@ -6985,7 +6988,7 @@
         <v>76</v>
       </c>
       <c r="B56" s="56" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C56" s="56" t="s">
         <v>90</v>
@@ -6997,7 +7000,7 @@
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
       <c r="J56" s="56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
@@ -7021,7 +7024,7 @@
         <v>76</v>
       </c>
       <c r="B57" s="56" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C57" s="56" t="s">
         <v>90</v>
@@ -7033,7 +7036,7 @@
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
       <c r="J57" s="56" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
@@ -7057,7 +7060,7 @@
         <v>76</v>
       </c>
       <c r="B58" s="56" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C58" s="56" t="s">
         <v>90</v>
@@ -7069,7 +7072,7 @@
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
       <c r="J58" s="56" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
@@ -7093,7 +7096,7 @@
         <v>76</v>
       </c>
       <c r="B59" s="56" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C59" s="56" t="s">
         <v>90</v>
@@ -7105,7 +7108,7 @@
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
       <c r="J59" s="56" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
@@ -7129,7 +7132,7 @@
         <v>76</v>
       </c>
       <c r="B60" s="56" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C60" s="56" t="s">
         <v>90</v>
@@ -7141,7 +7144,7 @@
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
       <c r="J60" s="52" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
@@ -7165,7 +7168,7 @@
         <v>76</v>
       </c>
       <c r="B61" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C61" s="56" t="s">
         <v>90</v>
@@ -7177,7 +7180,7 @@
       <c r="H61" s="56"/>
       <c r="I61" s="56"/>
       <c r="J61" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K61" s="56"/>
       <c r="L61" s="56"/>
@@ -7206,7 +7209,7 @@
         <v>76</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C62" s="52" t="s">
         <v>90</v>
@@ -7218,7 +7221,7 @@
       <c r="H62" s="54"/>
       <c r="I62" s="54"/>
       <c r="J62" s="61" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K62" s="54"/>
       <c r="L62" s="54"/>
@@ -7246,10 +7249,10 @@
         <v>1</v>
       </c>
       <c r="B63" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C63" s="56" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D63" s="52"/>
       <c r="E63" s="54"/>
@@ -7284,10 +7287,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="56" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C64" s="56" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D64" s="52"/>
       <c r="E64" s="54"/>
@@ -7552,7 +7555,7 @@
         <v>11</v>
       </c>
       <c r="C71" s="56" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D71" s="56"/>
       <c r="E71" s="56"/>
@@ -7623,10 +7626,10 @@
         <v>47</v>
       </c>
       <c r="B73" s="56" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C73" s="56" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D73" s="56"/>
       <c r="E73" s="56"/>
@@ -7642,10 +7645,10 @@
       <c r="M73" s="56"/>
       <c r="N73" s="56"/>
       <c r="O73" s="56" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P73" s="56" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q73" s="56"/>
       <c r="R73" s="56"/>
@@ -7728,7 +7731,7 @@
       <c r="O75" s="56"/>
       <c r="P75" s="56"/>
       <c r="Q75" s="57" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R75" s="56"/>
       <c r="S75" s="56"/>
@@ -7767,13 +7770,13 @@
       <c r="K76" s="56"/>
       <c r="L76" s="56"/>
       <c r="M76" s="56" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N76" s="56"/>
       <c r="O76" s="56"/>
       <c r="P76" s="56"/>
       <c r="Q76" s="57" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="R76" s="56"/>
       <c r="S76" s="56"/>
@@ -7809,7 +7812,7 @@
       <c r="H77" s="56"/>
       <c r="I77" s="56"/>
       <c r="J77" s="56" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K77" s="56"/>
       <c r="L77" s="56"/>
@@ -7837,13 +7840,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="57" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C78" s="57" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D78" s="57" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E78" s="57"/>
       <c r="F78" s="58"/>
@@ -7851,7 +7854,7 @@
       <c r="H78" s="56"/>
       <c r="I78" s="56"/>
       <c r="J78" s="56" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K78" s="56"/>
       <c r="L78" s="56"/>
@@ -37200,7 +37203,7 @@
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" ht="13.8">
       <c r="A6" s="59" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>2</v>
@@ -37211,7 +37214,7 @@
     </row>
     <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="59" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
@@ -37333,11 +37336,11 @@
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 15-26</v>
+        <v>2022-11-08 15-29</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="179">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -559,10 +559,13 @@
     <t>Months</t>
   </si>
   <si>
-    <t>format-date-time(date(../dob_iso),'%Y-%m-%d')</t>
+    <t>selected(../knows_dob,  'yes')</t>
   </si>
   <si>
     <t>hh_age_years</t>
+  </si>
+  <si>
+    <t>hm_age_years</t>
   </si>
 </sst>
 </file>
@@ -762,7 +765,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -901,6 +904,18 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -948,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1079,6 +1094,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5039,13 +5064,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE1058"/>
+  <dimension ref="A1:AE1059"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J61" sqref="J61"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5908,67 +5933,45 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="13.2">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:26" s="24" customFormat="1" ht="19.2" customHeight="1">
+      <c r="A26" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="13.2">
+      <c r="A27" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B27" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C27" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D27" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E27" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="21" t="s">
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I27" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A27" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="13" t="s">
-        <v>111</v>
-      </c>
+      <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
@@ -5991,7 +5994,7 @@
         <v>76</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" s="42" t="s">
         <v>90</v>
@@ -6003,7 +6006,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
@@ -6023,14 +6026,14 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A29" s="45" t="s">
-        <v>11</v>
+      <c r="A29" s="44" t="s">
+        <v>76</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="25"/>
@@ -6038,7 +6041,9 @@
       <c r="G29" s="25"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
-      <c r="J29" s="13"/>
+      <c r="J29" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
@@ -6056,22 +6061,20 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="13.2">
-      <c r="A30" s="19" t="s">
-        <v>1</v>
+    <row r="30" spans="1:26" s="2" customFormat="1" ht="13.2">
+      <c r="A30" s="45" t="s">
+        <v>11</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>33</v>
+      <c r="B30" s="42" t="s">
+        <v>115</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>8</v>
+      <c r="C30" s="42" t="s">
+        <v>135</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="13"/>
@@ -6097,17 +6100,17 @@
         <v>1</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="13"/>
@@ -6128,25 +6131,25 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A32" s="43" t="s">
-        <v>76</v>
+    <row r="32" spans="1:26" ht="13.2">
+      <c r="A32" s="19" t="s">
+        <v>1</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>116</v>
+      <c r="B32" s="19" t="s">
+        <v>34</v>
       </c>
-      <c r="C32" s="43" t="s">
-        <v>90</v>
+      <c r="C32" s="19" t="s">
+        <v>10</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
-      <c r="J32" s="13" t="s">
-        <v>121</v>
-      </c>
+      <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
@@ -6169,10 +6172,10 @@
         <v>76</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -6181,7 +6184,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -6205,10 +6208,10 @@
         <v>76</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -6217,7 +6220,7 @@
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
@@ -6237,18 +6240,24 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A35" s="19" t="s">
-        <v>51</v>
+      <c r="A35" s="43" t="s">
+        <v>76</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
+      <c r="B35" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>120</v>
+      </c>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
-      <c r="J35" s="13"/>
+      <c r="J35" s="13" t="s">
+        <v>123</v>
+      </c>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
@@ -6267,9 +6276,11 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
+      <c r="A36" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
@@ -6294,55 +6305,49 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A37" s="26" t="s">
+    <row r="37" spans="1:26" s="2" customFormat="1" ht="13.2">
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+    </row>
+    <row r="38" spans="1:26" s="8" customFormat="1" ht="13.2">
+      <c r="A38" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B38" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C38" s="26" t="s">
         <v>49</v>
-      </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-    </row>
-    <row r="38" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A38" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>137</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
+      <c r="F38" s="31" t="s">
+        <v>69</v>
+      </c>
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
@@ -6365,20 +6370,19 @@
       <c r="Z38" s="9"/>
     </row>
     <row r="39" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A39" s="12" t="s">
-        <v>11</v>
+      <c r="A39" s="30" t="s">
+        <v>153</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>64</v>
+      <c r="B39" s="30" t="s">
+        <v>134</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>50</v>
+      <c r="C39" s="30" t="s">
+        <v>137</v>
       </c>
       <c r="D39" s="27"/>
-      <c r="E39" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="G39" s="31"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
       <c r="J39" s="29"/>
@@ -6400,15 +6404,20 @@
       <c r="Z39" s="9"/>
     </row>
     <row r="40" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A40" s="30" t="s">
-        <v>51</v>
+      <c r="A40" s="12" t="s">
+        <v>11</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
+      <c r="B40" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="D40" s="27"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
+      <c r="E40" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" s="31"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
       <c r="J40" s="29"/>
@@ -6431,18 +6440,12 @@
     </row>
     <row r="41" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A41" s="30" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
-      <c r="B41" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>65</v>
-      </c>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
       <c r="D41" s="27"/>
-      <c r="E41" s="31" t="s">
-        <v>152</v>
-      </c>
+      <c r="E41" s="31"/>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
       <c r="H41" s="28"/>
@@ -6466,19 +6469,19 @@
       <c r="Z41" s="9"/>
     </row>
     <row r="42" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A42" s="32" t="s">
-        <v>73</v>
+      <c r="A42" s="30" t="s">
+        <v>47</v>
       </c>
-      <c r="B42" s="48" t="s">
-        <v>134</v>
+      <c r="B42" s="30" t="s">
+        <v>52</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
-      <c r="D42" s="27" t="s">
-        <v>2</v>
+      <c r="D42" s="27"/>
+      <c r="E42" s="31" t="s">
+        <v>152</v>
       </c>
-      <c r="E42" s="27"/>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
       <c r="H42" s="28"/>
@@ -6502,31 +6505,27 @@
       <c r="Z42" s="9"/>
     </row>
     <row r="43" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A43" s="46" t="s">
-        <v>93</v>
+      <c r="A43" s="32" t="s">
+        <v>73</v>
       </c>
-      <c r="B43" s="46" t="s">
-        <v>21</v>
+      <c r="B43" s="48" t="s">
+        <v>134</v>
       </c>
-      <c r="C43" s="46" t="s">
-        <v>124</v>
+      <c r="C43" s="30" t="s">
+        <v>72</v>
       </c>
-      <c r="D43" s="27"/>
+      <c r="D43" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="E43" s="27"/>
-      <c r="F43" s="46" t="s">
-        <v>93</v>
-      </c>
+      <c r="F43" s="27"/>
       <c r="G43" s="27"/>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
-      <c r="L43" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="M43" s="46" t="s">
-        <v>92</v>
-      </c>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
       <c r="N43" s="29"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
@@ -6546,10 +6545,10 @@
         <v>93</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
@@ -6565,7 +6564,7 @@
         <v>127</v>
       </c>
       <c r="M44" s="46" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="N44" s="29"/>
       <c r="O44" s="9"/>
@@ -6585,15 +6584,15 @@
       <c r="A45" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="48" t="s">
-        <v>97</v>
+      <c r="B45" s="46" t="s">
+        <v>95</v>
       </c>
-      <c r="C45" s="42" t="s">
-        <v>98</v>
+      <c r="C45" s="46" t="s">
+        <v>96</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
-      <c r="F45" s="42" t="s">
+      <c r="F45" s="46" t="s">
         <v>93</v>
       </c>
       <c r="G45" s="27"/>
@@ -6601,11 +6600,11 @@
       <c r="I45" s="28"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
-      <c r="L45" s="42" t="s">
+      <c r="L45" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="M45" s="42" t="s">
-        <v>129</v>
+      <c r="M45" s="46" t="s">
+        <v>128</v>
       </c>
       <c r="N45" s="29"/>
       <c r="O45" s="9"/>
@@ -6623,26 +6622,30 @@
     </row>
     <row r="46" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A46" s="46" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
-      <c r="B46" s="46" t="s">
-        <v>22</v>
+      <c r="B46" s="48" t="s">
+        <v>97</v>
       </c>
-      <c r="C46" s="30" t="s">
-        <v>67</v>
+      <c r="C46" s="42" t="s">
+        <v>98</v>
       </c>
-      <c r="D46" s="27" t="s">
-        <v>2</v>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="42" t="s">
+        <v>93</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
       <c r="G46" s="27"/>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
+      <c r="L46" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M46" s="42" t="s">
+        <v>129</v>
+      </c>
       <c r="N46" s="29"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
@@ -6659,23 +6662,23 @@
     </row>
     <row r="47" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A47" s="46" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
-      <c r="C47" s="46" t="s">
-        <v>90</v>
+      <c r="C47" s="30" t="s">
+        <v>67</v>
       </c>
-      <c r="D47" s="27"/>
+      <c r="D47" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="E47" s="27"/>
       <c r="F47" s="27"/>
       <c r="G47" s="27"/>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
-      <c r="J47" s="29" t="s">
-        <v>126</v>
-      </c>
+      <c r="J47" s="29"/>
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
@@ -6694,14 +6697,14 @@
       <c r="Z47" s="9"/>
     </row>
     <row r="48" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A48" s="30" t="s">
-        <v>37</v>
+      <c r="A48" s="46" t="s">
+        <v>76</v>
       </c>
-      <c r="B48" s="30" t="s">
-        <v>27</v>
+      <c r="B48" s="46" t="s">
+        <v>125</v>
       </c>
-      <c r="C48" s="30" t="s">
-        <v>3</v>
+      <c r="C48" s="46" t="s">
+        <v>90</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
@@ -6709,7 +6712,9 @@
       <c r="G48" s="27"/>
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
-      <c r="J48" s="29"/>
+      <c r="J48" s="29" t="s">
+        <v>126</v>
+      </c>
       <c r="K48" s="29"/>
       <c r="L48" s="29"/>
       <c r="M48" s="29"/>
@@ -6729,56 +6734,52 @@
     </row>
     <row r="49" spans="1:31" s="8" customFormat="1" ht="13.2">
       <c r="A49" s="30" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="D49" s="27"/>
-      <c r="E49" s="42"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="27"/>
       <c r="G49" s="27"/>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
     </row>
     <row r="50" spans="1:31" s="8" customFormat="1" ht="13.2">
       <c r="A50" s="30" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
-      <c r="D50" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
       <c r="J50" s="13"/>
@@ -6800,24 +6801,26 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:31" s="8" customFormat="1" ht="13.2">
-      <c r="A51" s="41" t="s">
-        <v>76</v>
+      <c r="A51" s="30" t="s">
+        <v>5</v>
       </c>
-      <c r="B51" s="41" t="s">
-        <v>133</v>
+      <c r="B51" s="30" t="s">
+        <v>32</v>
       </c>
-      <c r="C51" s="43" t="s">
-        <v>90</v>
+      <c r="C51" s="30" t="s">
+        <v>4</v>
       </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="25"/>
+      <c r="D51" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
-      <c r="J51" s="29" t="s">
-        <v>109</v>
-      </c>
+      <c r="J51" s="13"/>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
@@ -6836,24 +6839,24 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:31" s="8" customFormat="1" ht="13.2">
-      <c r="A52" s="46" t="s">
-        <v>11</v>
+      <c r="A52" s="41" t="s">
+        <v>76</v>
       </c>
-      <c r="B52" s="46" t="s">
-        <v>131</v>
+      <c r="B52" s="41" t="s">
+        <v>133</v>
       </c>
-      <c r="C52" s="46" t="s">
-        <v>132</v>
+      <c r="C52" s="43" t="s">
+        <v>90</v>
       </c>
       <c r="D52" s="27"/>
-      <c r="E52" s="25" t="s">
-        <v>70</v>
-      </c>
+      <c r="E52" s="25"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
-      <c r="J52" s="29"/>
+      <c r="J52" s="29" t="s">
+        <v>109</v>
+      </c>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
@@ -6872,26 +6875,24 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:31" s="8" customFormat="1" ht="13.2">
-      <c r="A53" s="56" t="s">
-        <v>7</v>
+      <c r="A53" s="46" t="s">
+        <v>11</v>
       </c>
-      <c r="B53" s="56" t="s">
-        <v>177</v>
+      <c r="B53" s="46" t="s">
+        <v>131</v>
       </c>
-      <c r="C53" s="56" t="s">
-        <v>55</v>
+      <c r="C53" s="46" t="s">
+        <v>132</v>
       </c>
-      <c r="D53" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="D53" s="27"/>
       <c r="E53" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="56"/>
+      <c r="H53" s="28"/>
       <c r="I53" s="28"/>
-      <c r="J53" s="13"/>
+      <c r="J53" s="29"/>
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
       <c r="M53" s="13"/>
@@ -6909,63 +6910,65 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:31" s="8" customFormat="1" ht="13.2">
-      <c r="A54" s="56" t="s">
+    <row r="54" spans="1:31" s="67" customFormat="1" ht="13.2">
+      <c r="A54" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="66"/>
+      <c r="Q54" s="66"/>
+      <c r="R54" s="66"/>
+      <c r="S54" s="66"/>
+      <c r="T54" s="66"/>
+      <c r="U54" s="66"/>
+      <c r="V54" s="66"/>
+      <c r="W54" s="66"/>
+      <c r="X54" s="66"/>
+      <c r="Y54" s="66"/>
+      <c r="Z54" s="66"/>
+    </row>
+    <row r="55" spans="1:31" s="8" customFormat="1" ht="13.2">
+      <c r="A55" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C55" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D55" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="25" t="s">
+      <c r="E55" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-    </row>
-    <row r="55" spans="1:31" s="8" customFormat="1" ht="13.2">
-      <c r="A55" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="25"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
-      <c r="J55" s="13" t="s">
-        <v>176</v>
-      </c>
+      <c r="J55" s="13"/>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
@@ -6983,25 +6986,25 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:31" s="8" customFormat="1" ht="21">
+    <row r="56" spans="1:31" s="8" customFormat="1" ht="13.2">
       <c r="A56" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B56" s="56" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="C56" s="56" t="s">
         <v>90</v>
       </c>
       <c r="D56" s="27"/>
-      <c r="E56" s="25"/>
+      <c r="E56" s="25" t="s">
+        <v>176</v>
+      </c>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
-      <c r="J56" s="56" t="s">
-        <v>173</v>
-      </c>
+      <c r="J56" s="13"/>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
@@ -7024,7 +7027,7 @@
         <v>76</v>
       </c>
       <c r="B57" s="56" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C57" s="56" t="s">
         <v>90</v>
@@ -7036,7 +7039,7 @@
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
       <c r="J57" s="56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
@@ -7060,7 +7063,7 @@
         <v>76</v>
       </c>
       <c r="B58" s="56" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C58" s="56" t="s">
         <v>90</v>
@@ -7072,7 +7075,7 @@
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
       <c r="J58" s="56" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
@@ -7091,12 +7094,12 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:31" s="8" customFormat="1" ht="13.2">
+    <row r="59" spans="1:31" s="8" customFormat="1" ht="21">
       <c r="A59" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B59" s="56" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="C59" s="56" t="s">
         <v>90</v>
@@ -7108,7 +7111,7 @@
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
       <c r="J59" s="56" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
@@ -7132,7 +7135,7 @@
         <v>76</v>
       </c>
       <c r="B60" s="56" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="C60" s="56" t="s">
         <v>90</v>
@@ -7143,8 +7146,8 @@
       <c r="G60" s="25"/>
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
-      <c r="J60" s="52" t="s">
-        <v>166</v>
+      <c r="J60" s="56" t="s">
+        <v>167</v>
       </c>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
@@ -7163,96 +7166,92 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+    <row r="61" spans="1:31" s="8" customFormat="1" ht="13.2">
       <c r="A61" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B61" s="56" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C61" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="56" t="s">
+      <c r="D61" s="27"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+    </row>
+    <row r="62" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A62" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="K61" s="56"/>
-      <c r="L61" s="56"/>
-      <c r="M61" s="56"/>
-      <c r="N61" s="56"/>
-      <c r="O61" s="56"/>
-      <c r="P61" s="56"/>
-      <c r="Q61" s="56"/>
-      <c r="R61" s="56"/>
-      <c r="S61" s="56"/>
-      <c r="T61" s="56"/>
-      <c r="U61" s="56"/>
-      <c r="V61" s="56"/>
-      <c r="W61" s="56"/>
-      <c r="X61" s="56"/>
-      <c r="Y61" s="56"/>
-      <c r="Z61" s="56"/>
-      <c r="AA61" s="56"/>
-      <c r="AB61" s="56"/>
-      <c r="AC61" s="56"/>
-      <c r="AD61" s="56"/>
-      <c r="AE61" s="56"/>
-    </row>
-    <row r="62" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A62" s="60" t="s">
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="56"/>
+      <c r="P62" s="56"/>
+      <c r="Q62" s="56"/>
+      <c r="R62" s="56"/>
+      <c r="S62" s="56"/>
+      <c r="T62" s="56"/>
+      <c r="U62" s="56"/>
+      <c r="V62" s="56"/>
+      <c r="W62" s="56"/>
+      <c r="X62" s="56"/>
+      <c r="Y62" s="56"/>
+      <c r="Z62" s="56"/>
+      <c r="AA62" s="56"/>
+      <c r="AB62" s="56"/>
+      <c r="AC62" s="56"/>
+      <c r="AD62" s="56"/>
+      <c r="AE62" s="56"/>
+    </row>
+    <row r="63" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A63" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="52" t="s">
+      <c r="B63" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="C62" s="52" t="s">
+      <c r="C63" s="52" t="s">
         <v>90</v>
-      </c>
-      <c r="D62" s="52"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="54"/>
-      <c r="R62" s="54"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="54"/>
-      <c r="V62" s="54"/>
-      <c r="W62" s="54"/>
-      <c r="X62" s="54"/>
-      <c r="Y62" s="54"/>
-      <c r="Z62" s="54"/>
-      <c r="AA62" s="54"/>
-      <c r="AB62" s="54"/>
-      <c r="AC62" s="54"/>
-      <c r="AD62" s="54"/>
-      <c r="AE62" s="54"/>
-    </row>
-    <row r="63" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A63" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" s="56" t="s">
-        <v>160</v>
       </c>
       <c r="D63" s="52"/>
       <c r="E63" s="54"/>
@@ -7260,7 +7259,9 @@
       <c r="G63" s="52"/>
       <c r="H63" s="54"/>
       <c r="I63" s="54"/>
-      <c r="J63" s="61"/>
+      <c r="J63" s="61" t="s">
+        <v>158</v>
+      </c>
       <c r="K63" s="54"/>
       <c r="L63" s="54"/>
       <c r="N63" s="54"/>
@@ -7287,10 +7288,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C64" s="56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D64" s="52"/>
       <c r="E64" s="54"/>
@@ -7321,91 +7322,88 @@
       <c r="AE64" s="54"/>
     </row>
     <row r="65" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A65" s="50" t="s">
+      <c r="A65" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" s="52"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="54"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="54"/>
+      <c r="Q65" s="54"/>
+      <c r="R65" s="54"/>
+      <c r="S65" s="54"/>
+      <c r="T65" s="54"/>
+      <c r="U65" s="54"/>
+      <c r="V65" s="54"/>
+      <c r="W65" s="54"/>
+      <c r="X65" s="54"/>
+      <c r="Y65" s="54"/>
+      <c r="Z65" s="54"/>
+      <c r="AA65" s="54"/>
+      <c r="AB65" s="54"/>
+      <c r="AC65" s="54"/>
+      <c r="AD65" s="54"/>
+      <c r="AE65" s="54"/>
+    </row>
+    <row r="66" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A66" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B66" s="50" t="s">
         <v>75</v>
-      </c>
-      <c r="C65" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="51"/>
-      <c r="M65" s="51"/>
-      <c r="N65" s="51"/>
-      <c r="O65" s="51"/>
-      <c r="P65" s="51"/>
-      <c r="Q65" s="51"/>
-      <c r="R65" s="51"/>
-      <c r="S65" s="51"/>
-      <c r="T65" s="51"/>
-      <c r="U65" s="51"/>
-      <c r="V65" s="51"/>
-      <c r="W65" s="51"/>
-      <c r="X65" s="51"/>
-      <c r="Y65" s="51"/>
-      <c r="Z65" s="51"/>
-      <c r="AA65" s="51"/>
-      <c r="AB65" s="51"/>
-      <c r="AC65" s="51"/>
-      <c r="AD65" s="51"/>
-      <c r="AE65" s="51"/>
-    </row>
-    <row r="66" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A66" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66" s="52" t="s">
-        <v>77</v>
       </c>
       <c r="C66" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="D66" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="E66" s="54"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
       <c r="F66" s="52"/>
       <c r="G66" s="52"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="54"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="54"/>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="54"/>
-      <c r="R66" s="54"/>
-      <c r="S66" s="54"/>
-      <c r="T66" s="54"/>
-      <c r="U66" s="54"/>
-      <c r="V66" s="54"/>
-      <c r="W66" s="54"/>
-      <c r="X66" s="54"/>
-      <c r="Y66" s="54"/>
-      <c r="Z66" s="54"/>
-      <c r="AA66" s="54"/>
-      <c r="AB66" s="54"/>
-      <c r="AC66" s="54"/>
-      <c r="AD66" s="54"/>
-      <c r="AE66" s="54"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="51"/>
+      <c r="O66" s="51"/>
+      <c r="P66" s="51"/>
+      <c r="Q66" s="51"/>
+      <c r="R66" s="51"/>
+      <c r="S66" s="51"/>
+      <c r="T66" s="51"/>
+      <c r="U66" s="51"/>
+      <c r="V66" s="51"/>
+      <c r="W66" s="51"/>
+      <c r="X66" s="51"/>
+      <c r="Y66" s="51"/>
+      <c r="Z66" s="51"/>
+      <c r="AA66" s="51"/>
+      <c r="AB66" s="51"/>
+      <c r="AC66" s="51"/>
+      <c r="AD66" s="51"/>
+      <c r="AE66" s="51"/>
     </row>
     <row r="67" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A67" s="53" t="s">
         <v>93</v>
       </c>
       <c r="B67" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C67" s="52" t="s">
         <v>90</v>
@@ -7446,7 +7444,7 @@
         <v>93</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C68" s="52" t="s">
         <v>90</v>
@@ -7483,115 +7481,121 @@
       <c r="AE68" s="54"/>
     </row>
     <row r="69" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A69" s="55" t="s">
+      <c r="A69" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="54"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="54"/>
+      <c r="P69" s="54"/>
+      <c r="Q69" s="54"/>
+      <c r="R69" s="54"/>
+      <c r="S69" s="54"/>
+      <c r="T69" s="54"/>
+      <c r="U69" s="54"/>
+      <c r="V69" s="54"/>
+      <c r="W69" s="54"/>
+      <c r="X69" s="54"/>
+      <c r="Y69" s="54"/>
+      <c r="Z69" s="54"/>
+      <c r="AA69" s="54"/>
+      <c r="AB69" s="54"/>
+      <c r="AC69" s="54"/>
+      <c r="AD69" s="54"/>
+      <c r="AE69" s="54"/>
+    </row>
+    <row r="70" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A70" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="51"/>
-      <c r="M69" s="51"/>
-      <c r="N69" s="51"/>
-      <c r="O69" s="51"/>
-      <c r="P69" s="51"/>
-      <c r="Q69" s="51"/>
-      <c r="R69" s="51"/>
-      <c r="S69" s="51"/>
-      <c r="T69" s="51"/>
-      <c r="U69" s="51"/>
-      <c r="V69" s="51"/>
-      <c r="W69" s="51"/>
-      <c r="X69" s="51"/>
-      <c r="Y69" s="51"/>
-      <c r="Z69" s="51"/>
-      <c r="AA69" s="51"/>
-      <c r="AB69" s="51"/>
-      <c r="AC69" s="51"/>
-      <c r="AD69" s="51"/>
-      <c r="AE69" s="51"/>
-    </row>
-    <row r="70" spans="1:31" s="2" customFormat="1" ht="13.2">
-      <c r="A70" s="32" t="s">
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="51"/>
+      <c r="M70" s="51"/>
+      <c r="N70" s="51"/>
+      <c r="O70" s="51"/>
+      <c r="P70" s="51"/>
+      <c r="Q70" s="51"/>
+      <c r="R70" s="51"/>
+      <c r="S70" s="51"/>
+      <c r="T70" s="51"/>
+      <c r="U70" s="51"/>
+      <c r="V70" s="51"/>
+      <c r="W70" s="51"/>
+      <c r="X70" s="51"/>
+      <c r="Y70" s="51"/>
+      <c r="Z70" s="51"/>
+      <c r="AA70" s="51"/>
+      <c r="AB70" s="51"/>
+      <c r="AC70" s="51"/>
+      <c r="AD70" s="51"/>
+      <c r="AE70" s="51"/>
+    </row>
+    <row r="71" spans="1:31" s="2" customFormat="1" ht="13.2">
+      <c r="A71" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="33"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-    </row>
-    <row r="71" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A71" s="56" t="s">
+      <c r="B71" s="33"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+    </row>
+    <row r="72" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A72" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="56" t="s">
+      <c r="B72" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C72" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="56"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
-      <c r="O71" s="56"/>
-      <c r="P71" s="56"/>
-      <c r="Q71" s="56"/>
-      <c r="R71" s="56"/>
-      <c r="S71" s="56"/>
-      <c r="T71" s="56"/>
-      <c r="U71" s="56"/>
-      <c r="V71" s="56"/>
-      <c r="W71" s="56"/>
-      <c r="X71" s="56"/>
-      <c r="Y71" s="56"/>
-      <c r="Z71" s="56"/>
-      <c r="AA71" s="56"/>
-      <c r="AB71" s="56"/>
-      <c r="AC71" s="56"/>
-      <c r="AD71" s="56"/>
-      <c r="AE71" s="56"/>
-    </row>
-    <row r="72" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A72" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="56"/>
       <c r="D72" s="56"/>
       <c r="E72" s="56"/>
       <c r="F72" s="52"/>
@@ -7623,33 +7627,23 @@
     </row>
     <row r="73" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A73" s="56" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
-      <c r="B73" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" s="56" t="s">
-        <v>147</v>
-      </c>
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
       <c r="D73" s="56"/>
       <c r="E73" s="56"/>
       <c r="F73" s="52"/>
       <c r="G73" s="52"/>
       <c r="H73" s="56"/>
-      <c r="I73" s="56" t="s">
-        <v>69</v>
-      </c>
+      <c r="I73" s="56"/>
       <c r="J73" s="56"/>
       <c r="K73" s="56"/>
       <c r="L73" s="56"/>
       <c r="M73" s="56"/>
       <c r="N73" s="56"/>
-      <c r="O73" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="P73" s="56" t="s">
-        <v>148</v>
-      </c>
+      <c r="O73" s="56"/>
+      <c r="P73" s="56"/>
       <c r="Q73" s="56"/>
       <c r="R73" s="56"/>
       <c r="S73" s="56"/>
@@ -7667,31 +7661,35 @@
       <c r="AE73" s="56"/>
     </row>
     <row r="74" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A74" s="57" t="s">
-        <v>93</v>
+      <c r="A74" s="56" t="s">
+        <v>47</v>
       </c>
-      <c r="B74" s="57" t="s">
-        <v>21</v>
+      <c r="B74" s="56" t="s">
+        <v>146</v>
       </c>
-      <c r="C74" s="57" t="s">
-        <v>90</v>
+      <c r="C74" s="56" t="s">
+        <v>147</v>
       </c>
-      <c r="D74" s="57"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="58"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
       <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
+      <c r="I74" s="56" t="s">
+        <v>69</v>
+      </c>
       <c r="J74" s="56"/>
       <c r="K74" s="56"/>
       <c r="L74" s="56"/>
       <c r="M74" s="56"/>
       <c r="N74" s="56"/>
-      <c r="O74" s="56"/>
-      <c r="P74" s="56"/>
-      <c r="Q74" s="57" t="s">
-        <v>92</v>
+      <c r="O74" s="56" t="s">
+        <v>127</v>
       </c>
+      <c r="P74" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q74" s="56"/>
       <c r="R74" s="56"/>
       <c r="S74" s="56"/>
       <c r="T74" s="56"/>
@@ -7712,7 +7710,7 @@
         <v>93</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="C75" s="57" t="s">
         <v>90</v>
@@ -7731,7 +7729,7 @@
       <c r="O75" s="56"/>
       <c r="P75" s="56"/>
       <c r="Q75" s="57" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="R75" s="56"/>
       <c r="S75" s="56"/>
@@ -7753,14 +7751,12 @@
         <v>93</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C76" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D76" s="57" t="s">
-        <v>90</v>
-      </c>
+      <c r="D76" s="57"/>
       <c r="E76" s="57"/>
       <c r="F76" s="58"/>
       <c r="G76" s="58"/>
@@ -7769,14 +7765,12 @@
       <c r="J76" s="56"/>
       <c r="K76" s="56"/>
       <c r="L76" s="56"/>
-      <c r="M76" s="56" t="s">
-        <v>149</v>
-      </c>
+      <c r="M76" s="56"/>
       <c r="N76" s="56"/>
       <c r="O76" s="56"/>
       <c r="P76" s="56"/>
       <c r="Q76" s="57" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="R76" s="56"/>
       <c r="S76" s="56"/>
@@ -7795,10 +7789,10 @@
     </row>
     <row r="77" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A77" s="57" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B77" s="57" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="C77" s="57" t="s">
         <v>90</v>
@@ -7811,15 +7805,18 @@
       <c r="G77" s="58"/>
       <c r="H77" s="56"/>
       <c r="I77" s="56"/>
-      <c r="J77" s="56" t="s">
-        <v>163</v>
-      </c>
+      <c r="J77" s="56"/>
       <c r="K77" s="56"/>
       <c r="L77" s="56"/>
+      <c r="M77" s="56" t="s">
+        <v>149</v>
+      </c>
       <c r="N77" s="56"/>
       <c r="O77" s="56"/>
       <c r="P77" s="56"/>
-      <c r="Q77" s="56"/>
+      <c r="Q77" s="57" t="s">
+        <v>129</v>
+      </c>
       <c r="R77" s="56"/>
       <c r="S77" s="56"/>
       <c r="T77" s="56"/>
@@ -7840,13 +7837,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="57" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="C78" s="57" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D78" s="57" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="E78" s="57"/>
       <c r="F78" s="58"/>
@@ -7854,7 +7851,7 @@
       <c r="H78" s="56"/>
       <c r="I78" s="56"/>
       <c r="J78" s="56" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="K78" s="56"/>
       <c r="L78" s="56"/>
@@ -7877,57 +7874,65 @@
       <c r="AD78" s="56"/>
       <c r="AE78" s="56"/>
     </row>
-    <row r="79" spans="1:31" s="2" customFormat="1" ht="13.2">
-      <c r="A79" s="36" t="s">
+    <row r="79" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A79" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="E79" s="57"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="K79" s="56"/>
+      <c r="L79" s="56"/>
+      <c r="N79" s="56"/>
+      <c r="O79" s="56"/>
+      <c r="P79" s="56"/>
+      <c r="Q79" s="56"/>
+      <c r="R79" s="56"/>
+      <c r="S79" s="56"/>
+      <c r="T79" s="56"/>
+      <c r="U79" s="56"/>
+      <c r="V79" s="56"/>
+      <c r="W79" s="56"/>
+      <c r="X79" s="56"/>
+      <c r="Y79" s="56"/>
+      <c r="Z79" s="56"/>
+      <c r="AA79" s="56"/>
+      <c r="AB79" s="56"/>
+      <c r="AC79" s="56"/>
+      <c r="AD79" s="56"/>
+      <c r="AE79" s="56"/>
+    </row>
+    <row r="80" spans="1:31" s="2" customFormat="1" ht="13.2">
+      <c r="A80" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="37" t="s">
+      <c r="B80" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C79" s="43" t="s">
+      <c r="C80" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
-      <c r="Z79" s="1"/>
-    </row>
-    <row r="80" spans="1:31" s="2" customFormat="1" ht="13.2">
-      <c r="A80" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C80" s="34"/>
       <c r="D80" s="34"/>
       <c r="E80" s="34"/>
       <c r="F80" s="34"/>
       <c r="G80" s="34"/>
       <c r="H80" s="35"/>
       <c r="I80" s="35"/>
-      <c r="J80" s="40" t="s">
-        <v>86</v>
-      </c>
+      <c r="J80" s="13"/>
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
       <c r="M80" s="13"/>
@@ -7950,7 +7955,7 @@
         <v>76</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="34"/>
       <c r="D81" s="34"/>
@@ -7960,7 +7965,7 @@
       <c r="H81" s="35"/>
       <c r="I81" s="35"/>
       <c r="J81" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
@@ -7984,7 +7989,7 @@
         <v>76</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82" s="34"/>
       <c r="D82" s="34"/>
@@ -7994,7 +7999,7 @@
       <c r="H82" s="35"/>
       <c r="I82" s="35"/>
       <c r="J82" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
@@ -8014,10 +8019,12 @@
       <c r="Z82" s="1"/>
     </row>
     <row r="83" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A83" s="40" t="s">
-        <v>51</v>
+      <c r="A83" s="38" t="s">
+        <v>76</v>
       </c>
-      <c r="B83" s="40"/>
+      <c r="B83" s="39" t="s">
+        <v>79</v>
+      </c>
       <c r="C83" s="34"/>
       <c r="D83" s="34"/>
       <c r="E83" s="34"/>
@@ -8025,7 +8032,9 @@
       <c r="G83" s="34"/>
       <c r="H83" s="35"/>
       <c r="I83" s="35"/>
-      <c r="J83" s="13"/>
+      <c r="J83" s="40" t="s">
+        <v>88</v>
+      </c>
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
@@ -8044,10 +8053,10 @@
       <c r="Z83" s="1"/>
     </row>
     <row r="84" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A84" s="32" t="s">
+      <c r="A84" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B84" s="33"/>
+      <c r="B84" s="40"/>
       <c r="C84" s="34"/>
       <c r="D84" s="34"/>
       <c r="E84" s="34"/>
@@ -8073,21 +8082,23 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="13.2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
+    <row r="85" spans="1:26" s="2" customFormat="1" ht="13.2">
+      <c r="A85" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="33"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -8101,7 +8112,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="14.25" customHeight="1">
+    <row r="86" spans="1:26" ht="13.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -8549,7 +8560,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="13.2">
+    <row r="102" spans="1:26" ht="14.25" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -35345,130 +35356,158 @@
       <c r="Y1058" s="1"/>
       <c r="Z1058" s="1"/>
     </row>
+    <row r="1059" spans="1:26" ht="13.2">
+      <c r="A1059" s="1"/>
+      <c r="B1059" s="1"/>
+      <c r="C1059" s="1"/>
+      <c r="D1059" s="1"/>
+      <c r="E1059" s="1"/>
+      <c r="F1059" s="1"/>
+      <c r="G1059" s="1"/>
+      <c r="H1059" s="1"/>
+      <c r="I1059" s="1"/>
+      <c r="J1059" s="1"/>
+      <c r="K1059" s="1"/>
+      <c r="L1059" s="1"/>
+      <c r="M1059" s="1"/>
+      <c r="N1059" s="1"/>
+      <c r="O1059" s="1"/>
+      <c r="P1059" s="1"/>
+      <c r="Q1059" s="1"/>
+      <c r="R1059" s="1"/>
+      <c r="S1059" s="1"/>
+      <c r="T1059" s="1"/>
+      <c r="U1059" s="1"/>
+      <c r="V1059" s="1"/>
+      <c r="W1059" s="1"/>
+      <c r="X1059" s="1"/>
+      <c r="Y1059" s="1"/>
+      <c r="Z1059" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C4 A39:C41 A5:B5 A6:C8 A48:C48 A19:B19 A27:C29 A32:C34 A18:C18 L12:M12 M10:M11 A9:F17 N62:AE64 J62:L64 N77:AE78 J77:L78">
+  <conditionalFormatting sqref="A2:C4 A40:C42 A5:B5 A6:C8 A49:C49 A19:B19 A28:C30 A33:C35 A18:C18 L12:M12 M10:M11 A9:F17 N63:AE65 J63:L65 N78:AE79 J78:L79">
     <cfRule type="expression" dxfId="354" priority="483">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C4 A48:C48 A40:C40 A5:B5 A6:C8 A19:B19 A18:C18">
+  <conditionalFormatting sqref="A2:C4 A49:C49 A41:C41 A5:B5 A6:C8 A19:B19 A18:C18">
     <cfRule type="expression" dxfId="353" priority="484">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C4 A38:C41 A37 C37 C42 A5:B5 A6:C8 A48:C48 C46 A18:C18 A17:F17 N62:AE64 J62:L64 N77:AE78 J77:L78">
+  <conditionalFormatting sqref="A2:C4 A39:C42 A38 C38 C43 A5:B5 A6:C8 A49:C49 C47 A18:C18 A17:F17 N63:AE65 J63:L65 N78:AE79 J78:L79">
     <cfRule type="cellIs" dxfId="352" priority="485" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:B41 B48 B27:B29 B32:B34 B2:B19 B73:B78">
+  <conditionalFormatting sqref="B40:B42 B49 B28:B30 B33:B35 B2:B19 B74:B79">
     <cfRule type="expression" dxfId="351" priority="486">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C4 A39:C41 A5:B5 A6:C8 A48:C48 A19:B19 A27:C29 A32:C34 A18:C18 L12:M12 M10:M11 A9:F17 N62:AE64 J62:L64 N77:AE78 J77:L78">
+  <conditionalFormatting sqref="A2:C4 A40:C42 A5:B5 A6:C8 A49:C49 A19:B19 A28:C30 A33:C35 A18:C18 L12:M12 M10:M11 A9:F17 N63:AE65 J63:L65 N78:AE79 J78:L79">
     <cfRule type="expression" dxfId="350" priority="488">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C4 A48:C48 A40:C40 A5:B5 A6:C8 A19:B19 A18:C18">
+  <conditionalFormatting sqref="A2:C4 A49:C49 A41:C41 A5:B5 A6:C8 A19:B19 A18:C18">
     <cfRule type="expression" dxfId="349" priority="489">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A8 A48 A17:A18 A37:A41">
+  <conditionalFormatting sqref="A2:A8 A49 A17:A18 A38:A42">
     <cfRule type="containsText" dxfId="348" priority="493" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C4 C48 C27:C29 C32:C34 C6:C18 C37:C42 C73:D78">
+  <conditionalFormatting sqref="C2:C4 C49 C28:C30 C33:C35 C6:C18 C38:C43 C74:D79">
     <cfRule type="expression" dxfId="347" priority="494">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A8 A48 A17:A18 A37:A41">
+  <conditionalFormatting sqref="A2:A8 A49 A17:A18 A38:A42">
     <cfRule type="cellIs" dxfId="346" priority="495" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49:C49">
+  <conditionalFormatting sqref="A50:C50">
     <cfRule type="containsText" dxfId="345" priority="513" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A49))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A50))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49:C49">
+  <conditionalFormatting sqref="A50:C50">
     <cfRule type="expression" dxfId="344" priority="514">
-      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
+      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49:C49">
+  <conditionalFormatting sqref="A50:C50">
     <cfRule type="expression" dxfId="343" priority="515">
-      <formula>AND($A49="end group", $B49 = "", $C49 = "", $E49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
+      <formula>AND($A50="end group", $B50 = "", $C50 = "", $E50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "", $O50 = "", $P50 = "", $Q50 = "", $S50 = "", $T50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49:C49">
+  <conditionalFormatting sqref="A50:C50">
     <cfRule type="cellIs" dxfId="342" priority="516" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49:C49">
+  <conditionalFormatting sqref="A50:C50">
     <cfRule type="cellIs" dxfId="341" priority="517" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49:C49">
+  <conditionalFormatting sqref="A50:C50">
     <cfRule type="expression" dxfId="340" priority="518">
-      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49:C49">
-    <cfRule type="expression" dxfId="339" priority="519">
-      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $E49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="containsText" dxfId="338" priority="520" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A50))))</formula>
+      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="expression" dxfId="337" priority="504">
-      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
+    <cfRule type="expression" dxfId="339" priority="519">
+      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $E50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "", $O50 = "", $P50 = "", $Q50 = "", $S50 = "", $T50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:C50">
-    <cfRule type="expression" dxfId="336" priority="505">
-      <formula>AND($A50="end group", $B50 = "", $C50 = "", $E50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "", $O50 = "", $P50 = "", $Q50 = "", $S50 = "", $T50 = "")</formula>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="containsText" dxfId="338" priority="520" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A51))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:C50">
+  <conditionalFormatting sqref="A51:C51">
+    <cfRule type="expression" dxfId="337" priority="504">
+      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:C51">
+    <cfRule type="expression" dxfId="336" priority="505">
+      <formula>AND($A51="end group", $B51 = "", $C51 = "", $E51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "", $O51 = "", $P51 = "", $Q51 = "", $S51 = "", $T51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:C51">
     <cfRule type="cellIs" dxfId="335" priority="506" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
+  <conditionalFormatting sqref="C51">
     <cfRule type="expression" dxfId="334" priority="507">
-      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
+      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $C51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
+  <conditionalFormatting sqref="B51">
     <cfRule type="expression" dxfId="333" priority="508">
-      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $B50 = "")</formula>
+      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $B51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
+  <conditionalFormatting sqref="A51">
     <cfRule type="cellIs" dxfId="332" priority="509" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:C50">
+  <conditionalFormatting sqref="A51:C51">
     <cfRule type="expression" dxfId="331" priority="511">
-      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
+      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:C50">
+  <conditionalFormatting sqref="A51:C51">
     <cfRule type="expression" dxfId="330" priority="512">
-      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $E50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "", $O50 = "", $P50 = "", $Q50 = "", $S50 = "", $T50 = "")</formula>
+      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $E51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "", $O51 = "", $P51 = "", $Q51 = "", $S51 = "", $T51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
@@ -35491,127 +35530,127 @@
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
+  <conditionalFormatting sqref="A85">
     <cfRule type="expression" dxfId="325" priority="455">
-      <formula>AND($A84="begin group", NOT($B84 = ""))</formula>
+      <formula>AND($A85="begin group", NOT($B85 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
+  <conditionalFormatting sqref="A85">
     <cfRule type="expression" dxfId="324" priority="456">
-      <formula>AND($A84="end group", $B84 = "", $C84 = "", $E84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "", $O84 = "", $P84 = "", $Q84 = "", $S84 = "", $T84 = "")</formula>
+      <formula>AND($A85="end group", $B85 = "", $C85 = "", $E85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "", $O85 = "", $P85 = "", $Q85 = "", $S85 = "", $T85 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
+  <conditionalFormatting sqref="A85">
     <cfRule type="cellIs" dxfId="323" priority="457" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
+  <conditionalFormatting sqref="A85">
     <cfRule type="expression" dxfId="322" priority="458">
-      <formula>AND($A84="begin repeat", NOT($B84 = ""))</formula>
+      <formula>AND($A85="begin repeat", NOT($B85 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
+  <conditionalFormatting sqref="A85">
     <cfRule type="expression" dxfId="321" priority="459">
-      <formula>AND($A84="end repeat", $B84 = "", $C84 = "", $E84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "", $O84 = "", $P84 = "", $Q84 = "", $S84 = "", $T84 = "")</formula>
+      <formula>AND($A85="end repeat", $B85 = "", $C85 = "", $E85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "", $O85 = "", $P85 = "", $Q85 = "", $S85 = "", $T85 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
+  <conditionalFormatting sqref="A85">
     <cfRule type="containsText" dxfId="320" priority="460" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A84))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A85))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:C41 A39:C39">
+  <conditionalFormatting sqref="A42:C42 A40:C40">
     <cfRule type="expression" dxfId="319" priority="637">
-      <formula>AND($A39="end group", $B39 = "", $C39 = "", #REF! = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "", $O39 = "", $P39 = "", $Q39 = "", $S39 = "", $T39 = "")</formula>
+      <formula>AND($A40="end group", $B40 = "", $C40 = "", #REF! = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "", $O40 = "", $P40 = "", $Q40 = "", $S40 = "", $T40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:C41 A39:C39">
+  <conditionalFormatting sqref="A42:C42 A40:C40">
     <cfRule type="expression" dxfId="318" priority="640">
-      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", #REF! = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "", $O39 = "", $P39 = "", $Q39 = "", $S39 = "", $T39 = "")</formula>
+      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", #REF! = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "", $O40 = "", $P40 = "", $Q40 = "", $S40 = "", $T40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38 C38">
+  <conditionalFormatting sqref="A39 C39">
     <cfRule type="expression" dxfId="317" priority="666">
-      <formula>AND($A38="begin group", NOT(#REF! = ""))</formula>
+      <formula>AND($A39="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38 C38">
+  <conditionalFormatting sqref="A39 C39">
     <cfRule type="expression" dxfId="316" priority="674">
-      <formula>AND($A38="begin repeat", NOT(#REF! = ""))</formula>
+      <formula>AND($A39="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
+  <conditionalFormatting sqref="A43">
     <cfRule type="cellIs" dxfId="315" priority="435" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
+  <conditionalFormatting sqref="A43">
     <cfRule type="containsText" dxfId="314" priority="437" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A42))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A43))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
+  <conditionalFormatting sqref="A43">
     <cfRule type="cellIs" dxfId="313" priority="438" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
+  <conditionalFormatting sqref="A71">
     <cfRule type="expression" dxfId="312" priority="428">
-      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
+      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
+  <conditionalFormatting sqref="A71">
     <cfRule type="expression" dxfId="311" priority="429">
-      <formula>AND($A70="end group", $B70 = "", $C70 = "", $E70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "", $O70 = "", $P70 = "", $Q70 = "", $S70 = "", $T70 = "")</formula>
+      <formula>AND($A71="end group", $B71 = "", $C71 = "", $E71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "", $O71 = "", $P71 = "", $Q71 = "", $S71 = "", $T71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
+  <conditionalFormatting sqref="A71">
     <cfRule type="cellIs" dxfId="310" priority="430" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
+  <conditionalFormatting sqref="A71">
     <cfRule type="expression" dxfId="309" priority="431">
-      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
+      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
+  <conditionalFormatting sqref="A71">
     <cfRule type="expression" dxfId="308" priority="432">
-      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $E70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "", $O70 = "", $P70 = "", $Q70 = "", $S70 = "", $T70 = "")</formula>
+      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $E71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "", $O71 = "", $P71 = "", $Q71 = "", $S71 = "", $T71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
+  <conditionalFormatting sqref="A71">
     <cfRule type="containsText" dxfId="307" priority="433" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A70))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A71))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:A83">
+  <conditionalFormatting sqref="A82:A84">
     <cfRule type="cellIs" dxfId="306" priority="415" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:A83">
+  <conditionalFormatting sqref="A82:A84">
     <cfRule type="cellIs" dxfId="305" priority="416" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79">
+  <conditionalFormatting sqref="A80">
     <cfRule type="cellIs" dxfId="304" priority="417" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79">
+  <conditionalFormatting sqref="A80">
     <cfRule type="cellIs" dxfId="303" priority="418" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
+  <conditionalFormatting sqref="A81">
     <cfRule type="cellIs" dxfId="302" priority="419" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
+  <conditionalFormatting sqref="A81">
     <cfRule type="cellIs" dxfId="301" priority="420" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
@@ -35661,364 +35700,364 @@
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C29 A32:C34 L12:M12 M10:M11 A9:F17">
+  <conditionalFormatting sqref="A28:C30 A33:C35 L12:M12 M10:M11 A9:F17">
     <cfRule type="expression" dxfId="291" priority="400">
       <formula>AND($A9="end group", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C29 A32:C34 L12:M12 M10:M11 A9:F17">
+  <conditionalFormatting sqref="A28:C30 A33:C35 L12:M12 M10:M11 A9:F17">
     <cfRule type="expression" dxfId="290" priority="401">
       <formula>AND($A9="end repeat", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:A29">
+  <conditionalFormatting sqref="A28:A30">
     <cfRule type="containsText" dxfId="289" priority="354" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A28))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C29">
+  <conditionalFormatting sqref="A28:C30">
     <cfRule type="cellIs" dxfId="288" priority="356" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:A29">
+  <conditionalFormatting sqref="A28:A30">
     <cfRule type="cellIs" dxfId="287" priority="359" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:A34">
+  <conditionalFormatting sqref="A33:A35">
     <cfRule type="containsText" dxfId="286" priority="338" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A32))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:C34">
+  <conditionalFormatting sqref="A33:C35">
     <cfRule type="cellIs" dxfId="285" priority="340" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:A34">
+  <conditionalFormatting sqref="A33:A35">
     <cfRule type="cellIs" dxfId="284" priority="343" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
+  <conditionalFormatting sqref="B38">
     <cfRule type="expression" dxfId="283" priority="320">
-      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+      <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
+  <conditionalFormatting sqref="B38">
     <cfRule type="cellIs" dxfId="282" priority="321" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
+  <conditionalFormatting sqref="B38">
     <cfRule type="expression" dxfId="281" priority="322">
-      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
+      <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $B38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
+  <conditionalFormatting sqref="B38">
     <cfRule type="expression" dxfId="280" priority="323">
-      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+      <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
+  <conditionalFormatting sqref="B38">
     <cfRule type="expression" dxfId="279" priority="776">
-      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", #REF! = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", #REF! = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
+  <conditionalFormatting sqref="B38">
     <cfRule type="expression" dxfId="278" priority="777">
-      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", #REF! = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", #REF! = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:A46">
+  <conditionalFormatting sqref="A44:A47">
     <cfRule type="containsText" dxfId="277" priority="310" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A43))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A44))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:C45 A46:B46">
+  <conditionalFormatting sqref="A44:C46 A47:B47">
     <cfRule type="expression" dxfId="276" priority="311">
-      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:C45 A46:B46">
+  <conditionalFormatting sqref="A44:C46 A47:B47">
     <cfRule type="cellIs" dxfId="275" priority="312" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C45">
+  <conditionalFormatting sqref="C44:C46">
     <cfRule type="expression" dxfId="274" priority="313">
-      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
+      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $C44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:B46">
+  <conditionalFormatting sqref="B44:B47">
     <cfRule type="expression" dxfId="273" priority="314">
-      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
+      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:A46">
+  <conditionalFormatting sqref="A44:A47">
     <cfRule type="cellIs" dxfId="272" priority="315" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:C45 A46:B46">
+  <conditionalFormatting sqref="A44:C46 A47:B47">
     <cfRule type="expression" dxfId="271" priority="316">
-      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:C45">
+  <conditionalFormatting sqref="A44:C46">
     <cfRule type="expression" dxfId="270" priority="317">
-      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:C45">
+  <conditionalFormatting sqref="A44:C46">
     <cfRule type="expression" dxfId="269" priority="318">
-      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B46">
+  <conditionalFormatting sqref="A47:B47">
     <cfRule type="expression" dxfId="268" priority="790">
-      <formula>AND($A46="end group", $B46 = "", #REF! = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+      <formula>AND($A47="end group", $B47 = "", #REF! = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B46">
+  <conditionalFormatting sqref="A47:B47">
     <cfRule type="expression" dxfId="267" priority="791">
-      <formula>AND($A46="end repeat", $B46 = "", #REF! = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+      <formula>AND($A47="end repeat", $B47 = "", #REF! = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
+  <conditionalFormatting sqref="C47">
     <cfRule type="expression" dxfId="266" priority="806">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
+  <conditionalFormatting sqref="C47">
     <cfRule type="expression" dxfId="265" priority="807">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
+  <conditionalFormatting sqref="C47">
     <cfRule type="expression" dxfId="264" priority="808">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C46 = "")</formula>
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
+  <conditionalFormatting sqref="C47">
     <cfRule type="expression" dxfId="263" priority="809">
-      <formula>AND(#REF!="end group", #REF! = "", $C46 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+      <formula>AND(#REF!="end group", #REF! = "", $C47 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
+  <conditionalFormatting sqref="C47">
     <cfRule type="expression" dxfId="262" priority="810">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C46 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+      <formula>AND(#REF!="end repeat", #REF! = "", $C47 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
+  <conditionalFormatting sqref="A48">
     <cfRule type="containsText" dxfId="261" priority="300" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A47))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A48))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:C47">
+  <conditionalFormatting sqref="A48:C48">
     <cfRule type="expression" dxfId="260" priority="301">
-      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
+      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:C47">
+  <conditionalFormatting sqref="A48:C48">
     <cfRule type="cellIs" dxfId="259" priority="302" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
+  <conditionalFormatting sqref="C48">
     <cfRule type="expression" dxfId="258" priority="303">
-      <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $C47 = "")</formula>
+      <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $C48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
+  <conditionalFormatting sqref="B48">
     <cfRule type="expression" dxfId="257" priority="304">
-      <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $B47 = "")</formula>
+      <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $B48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
+  <conditionalFormatting sqref="A48">
     <cfRule type="cellIs" dxfId="256" priority="305" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:C47">
+  <conditionalFormatting sqref="A48:C48">
     <cfRule type="expression" dxfId="255" priority="306">
-      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
+      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:C47">
+  <conditionalFormatting sqref="A48:C48">
     <cfRule type="expression" dxfId="254" priority="307">
-      <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:C47">
+  <conditionalFormatting sqref="A48:C48">
     <cfRule type="expression" dxfId="253" priority="308">
-      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F45">
+  <conditionalFormatting sqref="F44:F46">
     <cfRule type="expression" dxfId="252" priority="289">
-      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F45">
+  <conditionalFormatting sqref="F44:F46">
     <cfRule type="cellIs" dxfId="251" priority="290" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F45">
+  <conditionalFormatting sqref="F44:F46">
     <cfRule type="expression" dxfId="250" priority="291">
-      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F45">
+  <conditionalFormatting sqref="F44:F46">
     <cfRule type="expression" dxfId="249" priority="292">
-      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F45">
+  <conditionalFormatting sqref="F44:F46">
     <cfRule type="expression" dxfId="248" priority="293">
-      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L43:M45">
+  <conditionalFormatting sqref="L44:M46">
     <cfRule type="expression" dxfId="247" priority="284">
-      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L43:M45">
+  <conditionalFormatting sqref="L44:M46">
     <cfRule type="cellIs" dxfId="246" priority="285" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L43:M45">
+  <conditionalFormatting sqref="L44:M46">
     <cfRule type="expression" dxfId="245" priority="286">
-      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L43:M45">
+  <conditionalFormatting sqref="L44:M46">
     <cfRule type="expression" dxfId="244" priority="287">
-      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L43:M45">
+  <conditionalFormatting sqref="L44:M46">
     <cfRule type="expression" dxfId="243" priority="288">
-      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
+  <conditionalFormatting sqref="E50">
     <cfRule type="cellIs" dxfId="242" priority="277" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
+  <conditionalFormatting sqref="E50">
     <cfRule type="expression" dxfId="241" priority="280">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
+  <conditionalFormatting sqref="E50">
     <cfRule type="expression" dxfId="240" priority="281">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
+  <conditionalFormatting sqref="E50">
     <cfRule type="expression" dxfId="239" priority="282">
-      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", $E49 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", $E50 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
+  <conditionalFormatting sqref="E50">
     <cfRule type="expression" dxfId="238" priority="283">
-      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", $E49 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", $E50 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
+  <conditionalFormatting sqref="A52">
     <cfRule type="containsText" dxfId="237" priority="267" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A51))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A52))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:C51">
+  <conditionalFormatting sqref="A52:C52">
     <cfRule type="expression" dxfId="236" priority="268">
-      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
+      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:C51">
+  <conditionalFormatting sqref="A52:C52">
     <cfRule type="cellIs" dxfId="235" priority="269" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
+  <conditionalFormatting sqref="C52">
     <cfRule type="expression" dxfId="234" priority="270">
-      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $C51 = "")</formula>
+      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $C52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
+  <conditionalFormatting sqref="B52">
     <cfRule type="expression" dxfId="233" priority="271">
-      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $B51 = "")</formula>
+      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $B52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
+  <conditionalFormatting sqref="A52">
     <cfRule type="cellIs" dxfId="232" priority="272" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:C51">
+  <conditionalFormatting sqref="A52:C52">
     <cfRule type="expression" dxfId="231" priority="273">
-      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:C51">
-    <cfRule type="expression" dxfId="230" priority="274">
-      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $M51 = "", $N51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:C51">
-    <cfRule type="expression" dxfId="229" priority="275">
-      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $M51 = "", $N51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="containsText" dxfId="228" priority="251" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A52))))</formula>
+      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="227" priority="252">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+    <cfRule type="expression" dxfId="230" priority="274">
+      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $M52 = "", $N52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
+    <cfRule type="expression" dxfId="229" priority="275">
+      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $M52 = "", $N52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="containsText" dxfId="228" priority="251" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A53))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:C53">
+    <cfRule type="expression" dxfId="227" priority="252">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:C53">
     <cfRule type="cellIs" dxfId="226" priority="253" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
+  <conditionalFormatting sqref="C53">
     <cfRule type="expression" dxfId="225" priority="254">
-      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $C52 = "")</formula>
+      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
+  <conditionalFormatting sqref="B53">
     <cfRule type="expression" dxfId="224" priority="255">
-      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $B52 = "")</formula>
+      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $B53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
+  <conditionalFormatting sqref="A53">
     <cfRule type="cellIs" dxfId="223" priority="256" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:C52">
+  <conditionalFormatting sqref="A53:C53">
     <cfRule type="expression" dxfId="222" priority="257">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:C52">
+  <conditionalFormatting sqref="A53:C53">
     <cfRule type="expression" dxfId="221" priority="258">
-      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $M52 = "", $N52 = "")</formula>
+      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $M53 = "", $N53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:C52">
+  <conditionalFormatting sqref="A53:C53">
     <cfRule type="expression" dxfId="220" priority="259">
-      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $M52 = "", $N52 = "")</formula>
+      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $M53 = "", $N53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M12">
@@ -36031,1098 +36070,1098 @@
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
+  <conditionalFormatting sqref="B43">
     <cfRule type="expression" dxfId="217" priority="222">
-      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
+  <conditionalFormatting sqref="B43">
     <cfRule type="expression" dxfId="216" priority="223">
-      <formula>AND($A42="end group", $B42 = "", $C42 = "", $E42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $M42 = "", $N42 = "", $O42 = "", $Q42 = "", $R42 = "")</formula>
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $E43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $M43 = "", $N43 = "", $O43 = "", $Q43 = "", $R43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
+  <conditionalFormatting sqref="B43">
     <cfRule type="cellIs" dxfId="215" priority="224" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
+  <conditionalFormatting sqref="B43">
     <cfRule type="expression" dxfId="214" priority="225">
-      <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $B42 = "")</formula>
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
+  <conditionalFormatting sqref="B43">
     <cfRule type="expression" dxfId="213" priority="227">
-      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
+  <conditionalFormatting sqref="B43">
     <cfRule type="expression" dxfId="212" priority="228">
-      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $E42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $M42 = "", $N42 = "", $O42 = "", $Q42 = "", $R42 = "")</formula>
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $E43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $M43 = "", $N43 = "", $O43 = "", $Q43 = "", $R43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
+  <conditionalFormatting sqref="C80">
     <cfRule type="expression" dxfId="211" priority="216">
-      <formula>AND($A79="begin group", NOT($B79 = ""))</formula>
+      <formula>AND($A80="begin group", NOT($B80 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
+  <conditionalFormatting sqref="C80">
     <cfRule type="cellIs" dxfId="210" priority="217" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
+  <conditionalFormatting sqref="C80">
     <cfRule type="expression" dxfId="209" priority="218">
-      <formula>AND(AND(NOT($A79 = "end group"), NOT($A79 = "end repeat"), NOT($A79 = "")), $C79 = "")</formula>
+      <formula>AND(AND(NOT($A80 = "end group"), NOT($A80 = "end repeat"), NOT($A80 = "")), $C80 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
+  <conditionalFormatting sqref="C80">
     <cfRule type="expression" dxfId="208" priority="219">
-      <formula>AND($A79="begin repeat", NOT($B79 = ""))</formula>
+      <formula>AND($A80="begin repeat", NOT($B80 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
+  <conditionalFormatting sqref="C80">
     <cfRule type="expression" dxfId="207" priority="220">
-      <formula>AND($A79="end group", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $M79 = "", $N79 = "")</formula>
+      <formula>AND($A80="end group", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $M80 = "", $N80 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
+  <conditionalFormatting sqref="C80">
     <cfRule type="expression" dxfId="206" priority="221">
-      <formula>AND($A79="end repeat", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $M79 = "", $N79 = "")</formula>
+      <formula>AND($A80="end repeat", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $M80 = "", $N80 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:A69">
+  <conditionalFormatting sqref="A66:A70">
     <cfRule type="containsText" dxfId="205" priority="204" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A65))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A66))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:AE69">
+  <conditionalFormatting sqref="A66:AE70">
     <cfRule type="expression" dxfId="204" priority="205">
-      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:AE69">
+  <conditionalFormatting sqref="A66:AE70">
     <cfRule type="expression" dxfId="203" priority="206">
-      <formula>AND($A65="end group", $B65 = "", $C65 = "", $E65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $M65 = "", $N65 = "", $O65 = "", $Q65 = "", $R65 = "")</formula>
+      <formula>AND($A66="end group", $B66 = "", $C66 = "", $E66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "", $O66 = "", $Q66 = "", $R66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:AE69">
+  <conditionalFormatting sqref="A66:AE70">
     <cfRule type="cellIs" dxfId="202" priority="207" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M65:M69 M73:M76">
+  <conditionalFormatting sqref="M66:M70 M74:M77">
     <cfRule type="expression" dxfId="201" priority="208">
-      <formula>AND($M65 = "", $A65 = "calculate")</formula>
+      <formula>AND($M66 = "", $A66 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65:D69">
+  <conditionalFormatting sqref="C66:D70">
     <cfRule type="expression" dxfId="200" priority="209">
-      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:B69">
+  <conditionalFormatting sqref="B66:B70">
     <cfRule type="expression" dxfId="199" priority="210">
-      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $B65 = "")</formula>
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:A69">
+  <conditionalFormatting sqref="A66:A70">
     <cfRule type="cellIs" dxfId="198" priority="211" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:L69 K73:L76">
+  <conditionalFormatting sqref="K66:L70 K74:L77">
     <cfRule type="expression" dxfId="197" priority="213">
-      <formula>AND(NOT($J65 = ""), $K65 = "")</formula>
+      <formula>AND(NOT($J66 = ""), $K66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:AE69">
+  <conditionalFormatting sqref="A66:AE70">
     <cfRule type="expression" dxfId="196" priority="214">
-      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:AE69">
+  <conditionalFormatting sqref="A66:AE70">
     <cfRule type="expression" dxfId="195" priority="215">
-      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $E65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $M65 = "", $N65 = "", $O65 = "", $Q65 = "", $R65 = "")</formula>
+      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $E66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "", $O66 = "", $Q66 = "", $R66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:A72">
+  <conditionalFormatting sqref="A72:A73">
     <cfRule type="containsText" dxfId="194" priority="192" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A71))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A72))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:AE72">
+  <conditionalFormatting sqref="A72:AE73">
     <cfRule type="expression" dxfId="193" priority="193">
-      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
+      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:AE72">
+  <conditionalFormatting sqref="A72:AE73">
     <cfRule type="expression" dxfId="192" priority="194">
-      <formula>AND($A71="end group", $B71 = "", $C71 = "", $E71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $M71 = "", $N71 = "", $O71 = "", $Q71 = "", $R71 = "")</formula>
+      <formula>AND($A72="end group", $B72 = "", $C72 = "", $E72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $M72 = "", $N72 = "", $O72 = "", $Q72 = "", $R72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:AE72">
+  <conditionalFormatting sqref="A72:AE73">
     <cfRule type="cellIs" dxfId="191" priority="195" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M71:M72">
+  <conditionalFormatting sqref="M72:M73">
     <cfRule type="expression" dxfId="190" priority="196">
-      <formula>AND($M71 = "", $A71 = "calculate")</formula>
+      <formula>AND($M72 = "", $A72 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C71:D72">
+  <conditionalFormatting sqref="C72:D73">
     <cfRule type="expression" dxfId="189" priority="197">
-      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $C71 = "")</formula>
+      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $C72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B72">
+  <conditionalFormatting sqref="B72:B73">
     <cfRule type="expression" dxfId="188" priority="198">
-      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $B71 = "")</formula>
+      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $B72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:A72">
+  <conditionalFormatting sqref="A72:A73">
     <cfRule type="cellIs" dxfId="187" priority="199" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K71:L72">
+  <conditionalFormatting sqref="K72:L73">
     <cfRule type="expression" dxfId="186" priority="201">
-      <formula>AND(NOT($J71 = ""), $K71 = "")</formula>
+      <formula>AND(NOT($J72 = ""), $K72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:AE72">
+  <conditionalFormatting sqref="A72:AE73">
     <cfRule type="expression" dxfId="185" priority="202">
-      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
+      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:AE72">
+  <conditionalFormatting sqref="A72:AE73">
     <cfRule type="expression" dxfId="184" priority="203">
-      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $E71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $M71 = "", $N71 = "", $O71 = "", $Q71 = "", $R71 = "")</formula>
+      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $E72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $M72 = "", $N72 = "", $O72 = "", $Q72 = "", $R72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:A78">
+  <conditionalFormatting sqref="A74:A79">
     <cfRule type="containsText" dxfId="183" priority="180" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A73))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A74))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77:I78 A73:AE76">
+  <conditionalFormatting sqref="A78:I79 A74:AE77">
     <cfRule type="expression" dxfId="182" priority="181">
-      <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
+      <formula>AND($A74="begin group", NOT($B74 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:AE76">
+  <conditionalFormatting sqref="A74:AE77">
     <cfRule type="expression" dxfId="181" priority="182">
-      <formula>AND($A73="end group", $B73 = "", $C73 = "", $E73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $M73 = "", $N73 = "", $O73 = "", $Q73 = "", $R73 = "")</formula>
+      <formula>AND($A74="end group", $B74 = "", $C74 = "", $E74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $M74 = "", $N74 = "", $O74 = "", $Q74 = "", $R74 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77:I78 A73:AE76">
+  <conditionalFormatting sqref="A78:I79 A74:AE77">
     <cfRule type="cellIs" dxfId="180" priority="183" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:A78">
+  <conditionalFormatting sqref="A74:A79">
     <cfRule type="cellIs" dxfId="179" priority="187" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77:I78 A73:AE76">
+  <conditionalFormatting sqref="A78:I79 A74:AE77">
     <cfRule type="expression" dxfId="178" priority="190">
-      <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
+      <formula>AND($A74="begin repeat", NOT($B74 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:AE76">
+  <conditionalFormatting sqref="A74:AE77">
     <cfRule type="expression" dxfId="177" priority="191">
-      <formula>AND($A73="end repeat", $B73 = "", $C73 = "", $E73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $M73 = "", $N73 = "", $O73 = "", $Q73 = "", $R73 = "")</formula>
+      <formula>AND($A74="end repeat", $B74 = "", $C74 = "", $E74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $M74 = "", $N74 = "", $O74 = "", $Q74 = "", $R74 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:B69">
+  <conditionalFormatting sqref="B66:B70">
     <cfRule type="expression" dxfId="176" priority="888">
-      <formula>COUNTIF($B$2:$B$1135,B65)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1136,B66)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
+  <conditionalFormatting sqref="B39">
     <cfRule type="expression" dxfId="175" priority="907">
-      <formula>AND(#REF!="begin group", NOT($B38 = ""))</formula>
+      <formula>AND(#REF!="begin group", NOT($B39 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
+  <conditionalFormatting sqref="B39">
     <cfRule type="expression" dxfId="174" priority="910">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B38 = "")</formula>
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
+  <conditionalFormatting sqref="B39">
     <cfRule type="expression" dxfId="173" priority="911">
-      <formula>AND(#REF!="begin repeat", NOT($B38 = ""))</formula>
+      <formula>AND(#REF!="begin repeat", NOT($B39 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
+  <conditionalFormatting sqref="B39">
     <cfRule type="expression" dxfId="172" priority="914">
-      <formula>AND(#REF!="end group", $B38 = "", #REF! = "", $E40 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+      <formula>AND(#REF!="end group", $B39 = "", #REF! = "", $E41 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39 C39">
+    <cfRule type="expression" dxfId="171" priority="915">
+      <formula>AND($A39="end group", #REF! = "", $C39 = "", $E40 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "", $O39 = "", $P39 = "", $Q39 = "", $S39 = "", $T39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" dxfId="170" priority="917">
+      <formula>AND(#REF!="end repeat", $B39 = "", #REF! = "", $E41 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39 C39">
+    <cfRule type="expression" dxfId="169" priority="918">
+      <formula>AND($A39="end repeat", #REF! = "", $C39 = "", $E40 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "", $O39 = "", $P39 = "", $Q39 = "", $S39 = "", $T39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38 C38">
-    <cfRule type="expression" dxfId="171" priority="915">
-      <formula>AND($A38="end group", #REF! = "", $C38 = "", $E39 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "", $O38 = "", $P38 = "", $Q38 = "", $S38 = "", $T38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="170" priority="917">
-      <formula>AND(#REF!="end repeat", $B38 = "", #REF! = "", $E40 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    <cfRule type="expression" dxfId="168" priority="920">
+      <formula>AND($A38="begin group", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38 C38">
-    <cfRule type="expression" dxfId="169" priority="918">
-      <formula>AND($A38="end repeat", #REF! = "", $C38 = "", $E39 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "", $O38 = "", $P38 = "", $Q38 = "", $S38 = "", $T38 = "")</formula>
+    <cfRule type="expression" dxfId="167" priority="922">
+      <formula>AND($A38="end group", $B43 = "", $C38 = "", $E38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "", $O38 = "", $P38 = "", $Q38 = "", $S38 = "", $T38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37 C37">
-    <cfRule type="expression" dxfId="168" priority="920">
-      <formula>AND($A37="begin group", NOT($B42 = ""))</formula>
+  <conditionalFormatting sqref="A38 C38">
+    <cfRule type="expression" dxfId="166" priority="924">
+      <formula>AND($A38="begin repeat", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37 C37">
-    <cfRule type="expression" dxfId="167" priority="922">
-      <formula>AND($A37="end group", $B42 = "", $C37 = "", $E37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "", $O37 = "", $P37 = "", $Q37 = "", $S37 = "", $T37 = "")</formula>
+  <conditionalFormatting sqref="A38 C38">
+    <cfRule type="expression" dxfId="165" priority="926">
+      <formula>AND($A38="end repeat", $B43 = "", $C38 = "", $E38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "", $O38 = "", $P38 = "", $Q38 = "", $S38 = "", $T38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37 C37">
-    <cfRule type="expression" dxfId="166" priority="924">
-      <formula>AND($A37="begin repeat", NOT($B42 = ""))</formula>
+  <conditionalFormatting sqref="C43 A43">
+    <cfRule type="expression" dxfId="164" priority="928">
+      <formula>AND($A43="begin group", NOT($B38 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37 C37">
-    <cfRule type="expression" dxfId="165" priority="926">
-      <formula>AND($A37="end repeat", $B42 = "", $C37 = "", $E37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "", $O37 = "", $P37 = "", $Q37 = "", $S37 = "", $T37 = "")</formula>
+  <conditionalFormatting sqref="C43 A43">
+    <cfRule type="expression" dxfId="163" priority="930">
+      <formula>AND($A43="begin repeat", NOT($B38 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42 A42">
-    <cfRule type="expression" dxfId="164" priority="928">
-      <formula>AND($A42="begin group", NOT($B37 = ""))</formula>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="162" priority="932">
+      <formula>AND($A43="end group", $B38 = "", $C43 = "", #REF! = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "", $O43 = "", $P43 = "", $Q43 = "", $S43 = "", $T43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42 A42">
-    <cfRule type="expression" dxfId="163" priority="930">
-      <formula>AND($A42="begin repeat", NOT($B37 = ""))</formula>
+  <conditionalFormatting sqref="C43 A43">
+    <cfRule type="expression" dxfId="161" priority="933">
+      <formula>AND($A43="end repeat", $B38 = "", $C43 = "", #REF! = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "", $O43 = "", $P43 = "", $Q43 = "", $S43 = "", $T43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="162" priority="932">
-      <formula>AND($A42="end group", $B37 = "", $C42 = "", #REF! = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "", $O42 = "", $P42 = "", $Q42 = "", $S42 = "", $T42 = "")</formula>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="expression" dxfId="160" priority="934">
+      <formula>AND($A43="end group", $B38 = "", $C43 = "", #REF! = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "", $O43 = "", $P43 = "", $Q43 = "", $S43 = "", $T43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42 A42">
-    <cfRule type="expression" dxfId="161" priority="933">
-      <formula>AND($A42="end repeat", $B37 = "", $C42 = "", #REF! = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "", $O42 = "", $P42 = "", $Q42 = "", $S42 = "", $T42 = "")</formula>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" dxfId="159" priority="936">
+      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E38 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $M50 = "", $N50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="160" priority="934">
-      <formula>AND($A42="end group", $B37 = "", $C42 = "", #REF! = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "", $O42 = "", $P42 = "", $Q42 = "", $S42 = "", $T42 = "")</formula>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" dxfId="158" priority="937">
+      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E38 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $M50 = "", $N50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="159" priority="936">
-      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E37 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $M49 = "", $N49 = "")</formula>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="containsText" dxfId="157" priority="168" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A62))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="158" priority="937">
-      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E37 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $M49 = "", $N49 = "")</formula>
+  <conditionalFormatting sqref="A62:AE62">
+    <cfRule type="expression" dxfId="156" priority="169">
+      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
-    <cfRule type="containsText" dxfId="157" priority="168" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A61))))</formula>
+  <conditionalFormatting sqref="A62:AE62">
+    <cfRule type="expression" dxfId="155" priority="170">
+      <formula>AND($A62="end group", $B62 = "", $C62 = "", $E62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $M62 = "", $N62 = "", $O62 = "", $Q62 = "", $R62 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:AE61">
-    <cfRule type="expression" dxfId="156" priority="169">
-      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:AE61">
-    <cfRule type="expression" dxfId="155" priority="170">
-      <formula>AND($A61="end group", $B61 = "", $C61 = "", $E61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $M61 = "", $N61 = "", $O61 = "", $Q61 = "", $R61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:AE61">
+  <conditionalFormatting sqref="A62:AE62">
     <cfRule type="cellIs" dxfId="154" priority="171" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M61">
+  <conditionalFormatting sqref="M62">
     <cfRule type="expression" dxfId="153" priority="172">
-      <formula>AND($M61 = "", $A61 = "calculate")</formula>
+      <formula>AND($M62 = "", $A62 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61:D61">
+  <conditionalFormatting sqref="C62:D62">
     <cfRule type="expression" dxfId="152" priority="173">
+      <formula>AND(AND(NOT($A62 = "end group"), NOT($A62 = "end repeat"), NOT($A62 = "")), $C62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="expression" dxfId="151" priority="174">
+      <formula>AND(AND(NOT($A62 = "end group"), NOT($A62 = "end repeat"), NOT($A62 = "")), $B62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="cellIs" dxfId="150" priority="175" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62:L62">
+    <cfRule type="expression" dxfId="149" priority="177">
+      <formula>AND(NOT($J62 = ""), $K62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:AE62">
+    <cfRule type="expression" dxfId="148" priority="178">
+      <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:AE62">
+    <cfRule type="expression" dxfId="147" priority="179">
+      <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $E62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $M62 = "", $N62 = "", $O62 = "", $Q62 = "", $R62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="containsText" dxfId="146" priority="156" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A63))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:I63 D64:I65">
+    <cfRule type="expression" dxfId="145" priority="157">
+      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:I63 D64:I65">
+    <cfRule type="cellIs" dxfId="144" priority="159" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63:D63 D64:D65">
+    <cfRule type="expression" dxfId="143" priority="161">
+      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $C63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="142" priority="162">
+      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $B63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="cellIs" dxfId="141" priority="163" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:I63 D64:I65">
+    <cfRule type="expression" dxfId="140" priority="166">
+      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N63:AE65 A63:L63 D64:L65 N78:AE79 A78:L79">
+    <cfRule type="expression" dxfId="139" priority="952">
+      <formula>AND($A63="end group", $B63 = "", $C63 = "", $E63 = "", $H63 = "", $I63 = "", #REF! = "", $K63 = "", $J63 = "", $N63 = "", $O63 = "", $Q63 = "", $R63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J63:J65 J78:J79">
+    <cfRule type="expression" dxfId="138" priority="958">
+      <formula>AND($J63 = "", $A63 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63:L65 K78:L79">
+    <cfRule type="expression" dxfId="137" priority="959">
+      <formula>AND(NOT(#REF! = ""), $K63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N63:AE65 A63:L63 D64:L65 N78:AE79 A78:L79">
+    <cfRule type="expression" dxfId="136" priority="962">
+      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $E63 = "", $H63 = "", $I63 = "", #REF! = "", $K63 = "", $J63 = "", $N63 = "", $O63 = "", $Q63 = "", $R63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:A65">
+    <cfRule type="containsText" dxfId="135" priority="146" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A64))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:C65">
+    <cfRule type="expression" dxfId="134" priority="147">
+      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:C65">
+    <cfRule type="expression" dxfId="133" priority="148">
+      <formula>AND($A64="end group", $B64 = "", $C64 = "", $E64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $M64 = "", $N64 = "", $O64 = "", $Q64 = "", $R64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:C65">
+    <cfRule type="cellIs" dxfId="132" priority="149" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64:C65">
+    <cfRule type="expression" dxfId="131" priority="150">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64:B65">
+    <cfRule type="expression" dxfId="130" priority="151">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $B64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:A65">
+    <cfRule type="cellIs" dxfId="129" priority="152" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:C65">
+    <cfRule type="expression" dxfId="128" priority="154">
+      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:C65">
+    <cfRule type="expression" dxfId="127" priority="155">
+      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $E64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $M64 = "", $N64 = "", $O64 = "", $Q64 = "", $R64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52 B43">
+    <cfRule type="expression" dxfId="126" priority="975">
+      <formula>COUNTIF($B$2:$B$1141,B43)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72:B73">
+    <cfRule type="expression" dxfId="125" priority="986">
+      <formula>COUNTIF($B$2:$B$1135,B72)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74:B79 B62">
+    <cfRule type="expression" dxfId="124" priority="987">
+      <formula>COUNTIF($B$2:$B$1127,B62)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53 B19">
+    <cfRule type="expression" dxfId="123" priority="999">
+      <formula>COUNTIF($B$2:$B$1140,B19)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="122" priority="1002">
+      <formula>COUNTIF($B$2:$B$1125,B63)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64:B65">
+    <cfRule type="expression" dxfId="121" priority="1003">
+      <formula>COUNTIF($B$2:$B$1123,B64)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="containsText" dxfId="120" priority="136" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A61))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:C61">
+    <cfRule type="expression" dxfId="119" priority="137">
+      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:C61">
+    <cfRule type="expression" dxfId="118" priority="138">
+      <formula>AND($A61="end group", $B61 = "", $C61 = "", $E61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $M61 = "", $N61 = "", $O61 = "", $Q61 = "", $R61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:C61">
+    <cfRule type="cellIs" dxfId="117" priority="139" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="116" priority="140">
       <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $C61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="expression" dxfId="151" priority="174">
+    <cfRule type="expression" dxfId="115" priority="141">
       <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $B61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="cellIs" dxfId="150" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="142" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:L61">
-    <cfRule type="expression" dxfId="149" priority="177">
-      <formula>AND(NOT($J61 = ""), $K61 = "")</formula>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="expression" dxfId="113" priority="143">
+      <formula>COUNTIF($B$2:$B$1124,B61)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:AE61">
-    <cfRule type="expression" dxfId="148" priority="178">
+  <conditionalFormatting sqref="A61:C61">
+    <cfRule type="expression" dxfId="112" priority="144">
       <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:AE61">
-    <cfRule type="expression" dxfId="147" priority="179">
+  <conditionalFormatting sqref="A61:C61">
+    <cfRule type="expression" dxfId="111" priority="145">
       <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $E61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $M61 = "", $N61 = "", $O61 = "", $Q61 = "", $R61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="containsText" dxfId="146" priority="156" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A62))))</formula>
+  <conditionalFormatting sqref="J61">
+    <cfRule type="expression" dxfId="110" priority="124">
+      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62:I62 D63:I64">
-    <cfRule type="expression" dxfId="145" priority="157">
-      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
+  <conditionalFormatting sqref="J61">
+    <cfRule type="expression" dxfId="109" priority="125">
+      <formula>AND($A61="end group", $B61 = "", $C61 = "", $E61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $M61 = "", $N61 = "", $O61 = "", $Q61 = "", $R61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62:I62 D63:I64">
-    <cfRule type="cellIs" dxfId="144" priority="159" operator="equal">
+  <conditionalFormatting sqref="J61">
+    <cfRule type="cellIs" dxfId="108" priority="126" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62:D62 D63:D64">
-    <cfRule type="expression" dxfId="143" priority="161">
-      <formula>AND(AND(NOT($A62 = "end group"), NOT($A62 = "end repeat"), NOT($A62 = "")), $C62 = "")</formula>
+  <conditionalFormatting sqref="J61">
+    <cfRule type="expression" dxfId="107" priority="127">
+      <formula>AND($M61 = "", $A61 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="expression" dxfId="142" priority="162">
-      <formula>AND(AND(NOT($A62 = "end group"), NOT($A62 = "end repeat"), NOT($A62 = "")), $B62 = "")</formula>
+  <conditionalFormatting sqref="J61">
+    <cfRule type="expression" dxfId="106" priority="128">
+      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="cellIs" dxfId="141" priority="163" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:I62 D63:I64">
-    <cfRule type="expression" dxfId="140" priority="166">
-      <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N62:AE64 A62:L62 D63:L64 N77:AE78 A77:L78">
-    <cfRule type="expression" dxfId="139" priority="952">
-      <formula>AND($A62="end group", $B62 = "", $C62 = "", $E62 = "", $H62 = "", $I62 = "", #REF! = "", $K62 = "", $J62 = "", $N62 = "", $O62 = "", $Q62 = "", $R62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J62:J64 J77:J78">
-    <cfRule type="expression" dxfId="138" priority="958">
-      <formula>AND($J62 = "", $A62 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62:L64 K77:L78">
-    <cfRule type="expression" dxfId="137" priority="959">
-      <formula>AND(NOT(#REF! = ""), $K62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N62:AE64 A62:L62 D63:L64 N77:AE78 A77:L78">
-    <cfRule type="expression" dxfId="136" priority="962">
-      <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $E62 = "", $H62 = "", $I62 = "", #REF! = "", $K62 = "", $J62 = "", $N62 = "", $O62 = "", $Q62 = "", $R62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A64">
-    <cfRule type="containsText" dxfId="135" priority="146" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A63))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:C64">
-    <cfRule type="expression" dxfId="134" priority="147">
-      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:C64">
-    <cfRule type="expression" dxfId="133" priority="148">
-      <formula>AND($A63="end group", $B63 = "", $C63 = "", $E63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $M63 = "", $N63 = "", $O63 = "", $Q63 = "", $R63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:C64">
-    <cfRule type="cellIs" dxfId="132" priority="149" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63:C64">
-    <cfRule type="expression" dxfId="131" priority="150">
-      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $C63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B64">
-    <cfRule type="expression" dxfId="130" priority="151">
-      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $B63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A64">
-    <cfRule type="cellIs" dxfId="129" priority="152" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:C64">
-    <cfRule type="expression" dxfId="128" priority="154">
-      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:C64">
-    <cfRule type="expression" dxfId="127" priority="155">
-      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $E63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $M63 = "", $N63 = "", $O63 = "", $Q63 = "", $R63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51 B42">
-    <cfRule type="expression" dxfId="126" priority="975">
-      <formula>COUNTIF($B$2:$B$1140,B42)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B72">
-    <cfRule type="expression" dxfId="125" priority="986">
-      <formula>COUNTIF($B$2:$B$1134,B71)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73:B78 B61">
-    <cfRule type="expression" dxfId="124" priority="987">
-      <formula>COUNTIF($B$2:$B$1126,B61)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52 B19">
-    <cfRule type="expression" dxfId="123" priority="999">
-      <formula>COUNTIF($B$2:$B$1139,B19)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="expression" dxfId="122" priority="1002">
-      <formula>COUNTIF($B$2:$B$1124,B62)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B64">
-    <cfRule type="expression" dxfId="121" priority="1003">
-      <formula>COUNTIF($B$2:$B$1122,B63)&gt;1</formula>
+  <conditionalFormatting sqref="J61">
+    <cfRule type="expression" dxfId="105" priority="129">
+      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $E61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $M61 = "", $N61 = "", $O61 = "", $Q61 = "", $R61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="containsText" dxfId="120" priority="136" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="104" priority="114" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A60))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:C60">
-    <cfRule type="expression" dxfId="119" priority="137">
+    <cfRule type="expression" dxfId="103" priority="115">
       <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:C60">
-    <cfRule type="expression" dxfId="118" priority="138">
+    <cfRule type="expression" dxfId="102" priority="116">
       <formula>AND($A60="end group", $B60 = "", $C60 = "", $E60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $M60 = "", $N60 = "", $O60 = "", $Q60 = "", $R60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:C60">
-    <cfRule type="cellIs" dxfId="117" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="117" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="116" priority="140">
+    <cfRule type="expression" dxfId="100" priority="118">
       <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="115" priority="141">
+    <cfRule type="expression" dxfId="99" priority="119">
       <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" dxfId="114" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="120" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="113" priority="143">
+    <cfRule type="expression" dxfId="97" priority="121">
       <formula>COUNTIF($B$2:$B$1123,B60)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:C60">
-    <cfRule type="expression" dxfId="112" priority="144">
+    <cfRule type="expression" dxfId="96" priority="122">
       <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:C60">
-    <cfRule type="expression" dxfId="111" priority="145">
+    <cfRule type="expression" dxfId="95" priority="123">
       <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $E60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $M60 = "", $N60 = "", $O60 = "", $Q60 = "", $R60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60">
-    <cfRule type="expression" dxfId="110" priority="124">
+    <cfRule type="expression" dxfId="94" priority="102">
       <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60">
-    <cfRule type="expression" dxfId="109" priority="125">
+    <cfRule type="expression" dxfId="93" priority="103">
       <formula>AND($A60="end group", $B60 = "", $C60 = "", $E60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $M60 = "", $N60 = "", $O60 = "", $Q60 = "", $R60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60">
-    <cfRule type="cellIs" dxfId="108" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="104" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60">
-    <cfRule type="expression" dxfId="107" priority="127">
+    <cfRule type="expression" dxfId="91" priority="105">
       <formula>AND($M60 = "", $A60 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60">
-    <cfRule type="expression" dxfId="106" priority="128">
+    <cfRule type="expression" dxfId="90" priority="106">
       <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60">
-    <cfRule type="expression" dxfId="105" priority="129">
+    <cfRule type="expression" dxfId="89" priority="107">
       <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $E60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $M60 = "", $N60 = "", $O60 = "", $Q60 = "", $R60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="containsText" dxfId="104" priority="114" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="88" priority="92" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A59))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:C59">
-    <cfRule type="expression" dxfId="103" priority="115">
+    <cfRule type="expression" dxfId="87" priority="93">
       <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:C59">
-    <cfRule type="expression" dxfId="102" priority="116">
+    <cfRule type="expression" dxfId="86" priority="94">
       <formula>AND($A59="end group", $B59 = "", $C59 = "", $E59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $M59 = "", $N59 = "", $O59 = "", $Q59 = "", $R59 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:C59">
-    <cfRule type="cellIs" dxfId="101" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="95" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="100" priority="118">
+    <cfRule type="expression" dxfId="84" priority="96">
       <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $C59 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="99" priority="119">
+    <cfRule type="expression" dxfId="83" priority="97">
       <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $B59 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="cellIs" dxfId="98" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="98" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="97" priority="121">
+    <cfRule type="expression" dxfId="81" priority="99">
       <formula>COUNTIF($B$2:$B$1122,B59)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:C59">
-    <cfRule type="expression" dxfId="96" priority="122">
+    <cfRule type="expression" dxfId="80" priority="100">
       <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:C59">
-    <cfRule type="expression" dxfId="95" priority="123">
+    <cfRule type="expression" dxfId="79" priority="101">
       <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $E59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $M59 = "", $N59 = "", $O59 = "", $Q59 = "", $R59 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59">
-    <cfRule type="expression" dxfId="94" priority="102">
+    <cfRule type="expression" dxfId="78" priority="80">
       <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59">
-    <cfRule type="expression" dxfId="93" priority="103">
+    <cfRule type="expression" dxfId="77" priority="81">
       <formula>AND($A59="end group", $B59 = "", $C59 = "", $E59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $M59 = "", $N59 = "", $O59 = "", $Q59 = "", $R59 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59">
-    <cfRule type="cellIs" dxfId="92" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="82" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59">
-    <cfRule type="expression" dxfId="91" priority="105">
+    <cfRule type="expression" dxfId="75" priority="83">
       <formula>AND($M59 = "", $A59 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59">
-    <cfRule type="expression" dxfId="90" priority="106">
+    <cfRule type="expression" dxfId="74" priority="84">
       <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59">
-    <cfRule type="expression" dxfId="89" priority="107">
+    <cfRule type="expression" dxfId="73" priority="85">
       <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $E59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $M59 = "", $N59 = "", $O59 = "", $Q59 = "", $R59 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="containsText" dxfId="88" priority="92" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="72" priority="70" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A58))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:C58">
-    <cfRule type="expression" dxfId="87" priority="93">
+    <cfRule type="expression" dxfId="71" priority="71">
       <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:C58">
-    <cfRule type="expression" dxfId="86" priority="94">
+    <cfRule type="expression" dxfId="70" priority="72">
       <formula>AND($A58="end group", $B58 = "", $C58 = "", $E58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "", $O58 = "", $Q58 = "", $R58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:C58">
-    <cfRule type="cellIs" dxfId="85" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="73" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="84" priority="96">
+    <cfRule type="expression" dxfId="68" priority="74">
       <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $C58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="83" priority="97">
+    <cfRule type="expression" dxfId="67" priority="75">
       <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $B58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="cellIs" dxfId="82" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="76" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="81" priority="99">
+    <cfRule type="expression" dxfId="65" priority="77">
       <formula>COUNTIF($B$2:$B$1121,B58)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:C58">
-    <cfRule type="expression" dxfId="80" priority="100">
+    <cfRule type="expression" dxfId="64" priority="78">
       <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:C58">
-    <cfRule type="expression" dxfId="79" priority="101">
+    <cfRule type="expression" dxfId="63" priority="79">
       <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $E58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "", $O58 = "", $Q58 = "", $R58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58">
-    <cfRule type="expression" dxfId="78" priority="80">
+    <cfRule type="expression" dxfId="62" priority="58">
       <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58">
-    <cfRule type="expression" dxfId="77" priority="81">
+    <cfRule type="expression" dxfId="61" priority="59">
       <formula>AND($A58="end group", $B58 = "", $C58 = "", $E58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "", $O58 = "", $Q58 = "", $R58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58">
-    <cfRule type="cellIs" dxfId="76" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58">
-    <cfRule type="expression" dxfId="75" priority="83">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>AND($M58 = "", $A58 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58">
-    <cfRule type="expression" dxfId="74" priority="84">
+    <cfRule type="expression" dxfId="58" priority="62">
       <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58">
-    <cfRule type="expression" dxfId="73" priority="85">
+    <cfRule type="expression" dxfId="57" priority="63">
       <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $E58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "", $O58 = "", $Q58 = "", $R58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="containsText" dxfId="72" priority="70" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="56" priority="48" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A57))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="71" priority="71">
+    <cfRule type="expression" dxfId="55" priority="49">
       <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="70" priority="72">
+    <cfRule type="expression" dxfId="54" priority="50">
       <formula>AND($A57="end group", $B57 = "", $C57 = "", $E57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "", $O57 = "", $Q57 = "", $R57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="cellIs" dxfId="69" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="68" priority="74">
+    <cfRule type="expression" dxfId="52" priority="52">
       <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="67" priority="75">
+    <cfRule type="expression" dxfId="51" priority="53">
       <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $B57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" dxfId="66" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="65" priority="77">
+    <cfRule type="expression" dxfId="49" priority="55">
       <formula>COUNTIF($B$2:$B$1120,B57)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="64" priority="78">
+    <cfRule type="expression" dxfId="48" priority="56">
       <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="63" priority="79">
+    <cfRule type="expression" dxfId="47" priority="57">
       <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $E57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "", $O57 = "", $Q57 = "", $R57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57">
-    <cfRule type="expression" dxfId="62" priority="58">
+    <cfRule type="expression" dxfId="46" priority="36">
       <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57">
-    <cfRule type="expression" dxfId="61" priority="59">
+    <cfRule type="expression" dxfId="45" priority="37">
       <formula>AND($A57="end group", $B57 = "", $C57 = "", $E57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "", $O57 = "", $Q57 = "", $R57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57">
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57">
-    <cfRule type="expression" dxfId="59" priority="61">
+    <cfRule type="expression" dxfId="43" priority="39">
       <formula>AND($M57 = "", $A57 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57">
-    <cfRule type="expression" dxfId="58" priority="62">
+    <cfRule type="expression" dxfId="42" priority="40">
       <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57">
-    <cfRule type="expression" dxfId="57" priority="63">
+    <cfRule type="expression" dxfId="41" priority="41">
       <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $E57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "", $O57 = "", $Q57 = "", $R57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="containsText" dxfId="56" priority="48" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="40" priority="26" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A56))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:C56">
-    <cfRule type="expression" dxfId="55" priority="49">
+    <cfRule type="expression" dxfId="39" priority="27">
       <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:C56">
-    <cfRule type="expression" dxfId="54" priority="50">
+    <cfRule type="expression" dxfId="38" priority="28">
       <formula>AND($A56="end group", $B56 = "", $C56 = "", $E56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $M56 = "", $N56 = "", $O56 = "", $Q56 = "", $R56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:C56">
-    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="36" priority="30">
       <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $C56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="35" priority="31">
       <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $B56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="expression" dxfId="49" priority="55">
+    <cfRule type="expression" dxfId="33" priority="33">
       <formula>COUNTIF($B$2:$B$1119,B56)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:C56">
-    <cfRule type="expression" dxfId="48" priority="56">
+    <cfRule type="expression" dxfId="32" priority="34">
       <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:C56">
-    <cfRule type="expression" dxfId="47" priority="57">
-      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $E56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $M56 = "", $N56 = "", $O56 = "", $Q56 = "", $R56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
-    <cfRule type="expression" dxfId="46" priority="36">
-      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
-    <cfRule type="expression" dxfId="45" priority="37">
-      <formula>AND($A56="end group", $B56 = "", $C56 = "", $E56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $M56 = "", $N56 = "", $O56 = "", $Q56 = "", $R56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
-    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
-    <cfRule type="expression" dxfId="43" priority="39">
-      <formula>AND($M56 = "", $A56 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
-    <cfRule type="expression" dxfId="42" priority="40">
-      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="31" priority="35">
       <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $E56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $M56 = "", $N56 = "", $O56 = "", $Q56 = "", $R56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="containsText" dxfId="40" priority="26" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A55))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:C55">
-    <cfRule type="expression" dxfId="39" priority="27">
+    <cfRule type="expression" dxfId="29" priority="17">
       <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:C55">
-    <cfRule type="expression" dxfId="38" priority="28">
+    <cfRule type="expression" dxfId="28" priority="18">
       <formula>AND($A55="end group", $B55 = "", $C55 = "", $E55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $M55 = "", $N55 = "", $O55 = "", $Q55 = "", $R55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:C55">
-    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="36" priority="30">
+    <cfRule type="expression" dxfId="26" priority="20">
       <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" dxfId="35" priority="31">
+    <cfRule type="expression" dxfId="25" priority="21">
       <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="23" priority="23">
       <formula>COUNTIF($B$2:$B$1118,B55)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:C55">
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:C55">
-    <cfRule type="expression" dxfId="31" priority="35">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $E55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $M55 = "", $N55 = "", $O55 = "", $Q55 = "", $R55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A54))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:C54">
-    <cfRule type="expression" dxfId="29" priority="17">
+    <cfRule type="expression" dxfId="19" priority="7">
       <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:C54">
-    <cfRule type="expression" dxfId="28" priority="18">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>AND($A54="end group", $B54 = "", $C54 = "", $E54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $M54 = "", $N54 = "", $O54 = "", $Q54 = "", $R54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:C54">
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="26" priority="20">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $C54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="25" priority="21">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $B54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>COUNTIF($B$2:$B$1117,B54)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:C54">
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:C54">
-    <cfRule type="expression" dxfId="21" priority="25">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $E54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $M54 = "", $N54 = "", $O54 = "", $Q54 = "", $R54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A53))))</formula>
+  <conditionalFormatting sqref="B44:B48">
+    <cfRule type="expression" dxfId="10" priority="1009">
+      <formula>COUNTIF($B$2:$B$1024,B44)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:C53">
-    <cfRule type="expression" dxfId="19" priority="7">
-      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+  <conditionalFormatting sqref="B51 B39:B42 B49">
+    <cfRule type="expression" dxfId="9" priority="1010">
+      <formula>COUNTIF($B$20:$B$1147,B39)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:C53">
-    <cfRule type="expression" dxfId="18" priority="8">
-      <formula>AND($A53="end group", $B53 = "", $C53 = "", $E53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $M53 = "", $N53 = "", $O53 = "", $Q53 = "", $R53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:C53">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="16" priority="10">
-      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="15" priority="11">
-      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $B53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>COUNTIF($B$2:$B$1116,B53)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:C53">
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:C53">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $E53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $M53 = "", $N53 = "", $O53 = "", $Q53 = "", $R53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43:B47">
-    <cfRule type="expression" dxfId="10" priority="1009">
-      <formula>COUNTIF($B$2:$B$1023,B43)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50 B38:B41 B48">
-    <cfRule type="expression" dxfId="9" priority="1010">
-      <formula>COUNTIF($B$20:$B$1146,B38)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37 B32:B34">
+  <conditionalFormatting sqref="B38 B33:B35">
     <cfRule type="expression" dxfId="8" priority="1013">
-      <formula>COUNTIF($B$2:$B$1027,B32)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1028,B33)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B17">
     <cfRule type="expression" dxfId="7" priority="1015">
-      <formula>COUNTIF($B$2:$B$1036,B9)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1037,B9)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B8 B18">
     <cfRule type="expression" dxfId="6" priority="1016">
-      <formula>COUNTIF($B$2:$B$1138,B2)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1139,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B29">
+  <conditionalFormatting sqref="B28:B30">
     <cfRule type="expression" dxfId="5" priority="1018">
-      <formula>COUNTIF($B$2:$B$1030,B27)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1031,B28)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
+  <conditionalFormatting sqref="H54">
     <cfRule type="expression" dxfId="4" priority="1">
-      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
+  <conditionalFormatting sqref="H54">
     <cfRule type="expression" dxfId="3" priority="2">
-      <formula>AND($A53="end group", $B53 = "", $C53 = "", $E53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $M53 = "", $N53 = "", $O53 = "", $Q53 = "", $R53 = "")</formula>
+      <formula>AND($A54="end group", $B54 = "", $C54 = "", $E54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $M54 = "", $N54 = "", $O54 = "", $Q54 = "", $R54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
+  <conditionalFormatting sqref="H54">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
+  <conditionalFormatting sqref="H54">
     <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
+      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
+  <conditionalFormatting sqref="H54">
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $E53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $M53 = "", $N53 = "", $O53 = "", $Q53 = "", $R53 = "")</formula>
+      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $E54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $M54 = "", $N54 = "", $O54 = "", $Q54 = "", $R54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D9:D17 E71:E78 E61:E69">
+    <dataValidation type="list" allowBlank="1" sqref="D9:D17 E72:E79 E62:E70">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -37340,7 +37379,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 15-29</v>
+        <v>2022-11-08 15-40</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -559,7 +559,7 @@
     <t>Months</t>
   </si>
   <si>
-    <t>selected(../knows_dob,  'yes')</t>
+    <t>format-date-time(date(../dob_iso),'%Y-%m-%d')</t>
   </si>
   <si>
     <t>hh_age_years</t>
@@ -5067,10 +5067,10 @@
   <dimension ref="A1:AE1059"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6997,14 +6997,14 @@
         <v>90</v>
       </c>
       <c r="D56" s="27"/>
-      <c r="E56" s="25" t="s">
-        <v>176</v>
-      </c>
+      <c r="E56" s="25"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
-      <c r="J56" s="13"/>
+      <c r="J56" s="13" t="s">
+        <v>176</v>
+      </c>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
@@ -37379,7 +37379,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 15-40</v>
+        <v>2022-11-08 15-43</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -364,9 +364,6 @@
     <t>concat(${hh_age_years}, ' years')</t>
   </si>
   <si>
-    <t>hh_age_in_years</t>
-  </si>
-  <si>
     <t>hh_age_string</t>
   </si>
   <si>
@@ -550,6 +547,9 @@
   </si>
   <si>
     <t>format-date-time(date(../dob_iso),'%Y-%m-%d')</t>
+  </si>
+  <si>
+    <t>hh_age_years</t>
   </si>
   <si>
     <t>if(../dob_calendar != '',floor( difference-in-months( ../contact_dob_iso, today() ) div 12 ),../hh_age_years)</t>
@@ -5368,10 +5368,10 @@
   <dimension ref="A1:AE1065"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5731,10 +5731,10 @@
       <c r="J10" s="68"/>
       <c r="K10" s="13"/>
       <c r="L10" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="1"/>
@@ -5806,7 +5806,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="1"/>
@@ -5877,7 +5877,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -6237,7 +6237,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>3</v>
@@ -6276,7 +6276,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>2</v>
@@ -6318,7 +6318,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
@@ -6361,7 +6361,7 @@
         <v>76</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>90</v>
@@ -6375,7 +6375,7 @@
         <v>76</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>90</v>
@@ -6398,7 +6398,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
@@ -6434,7 +6434,7 @@
         <v>176</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J32" s="25"/>
     </row>
@@ -6449,7 +6449,7 @@
         <v>90</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:26" s="2" customFormat="1" ht="13.2">
@@ -6457,7 +6457,7 @@
         <v>76</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="C34" s="42" t="s">
         <v>90</v>
@@ -6493,7 +6493,7 @@
         <v>76</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="42" t="s">
         <v>90</v>
@@ -6529,10 +6529,10 @@
         <v>11</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="25"/>
@@ -6637,7 +6637,7 @@
         <v>76</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" s="43" t="s">
         <v>90</v>
@@ -6673,10 +6673,10 @@
         <v>76</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -6709,10 +6709,10 @@
         <v>76</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
@@ -6721,7 +6721,7 @@
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
@@ -6836,13 +6836,13 @@
     </row>
     <row r="45" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A45" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
@@ -6880,7 +6880,7 @@
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G46" s="31"/>
       <c r="H46" s="28"/>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F48" s="27"/>
       <c r="G48" s="27"/>
@@ -6974,7 +6974,7 @@
         <v>73</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="30" t="s">
         <v>72</v>
@@ -7013,7 +7013,7 @@
         <v>21</v>
       </c>
       <c r="C50" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
@@ -7026,7 +7026,7 @@
       <c r="J50" s="69"/>
       <c r="K50" s="29"/>
       <c r="L50" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M50" s="46" t="s">
         <v>92</v>
@@ -7066,10 +7066,10 @@
       <c r="J51" s="69"/>
       <c r="K51" s="29"/>
       <c r="L51" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M51" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N51" s="29"/>
       <c r="O51" s="9"/>
@@ -7106,10 +7106,10 @@
       <c r="J52" s="69"/>
       <c r="K52" s="29"/>
       <c r="L52" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M52" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N52" s="29"/>
       <c r="O52" s="9"/>
@@ -7166,7 +7166,7 @@
         <v>76</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C54" s="46" t="s">
         <v>90</v>
@@ -7178,7 +7178,7 @@
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
       <c r="J54" s="69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
@@ -7239,7 +7239,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D56" s="27"/>
       <c r="E56" s="42"/>
@@ -7308,7 +7308,7 @@
         <v>76</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C58" s="43" t="s">
         <v>90</v>
@@ -7344,10 +7344,10 @@
         <v>11</v>
       </c>
       <c r="B59" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C59" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D59" s="27"/>
       <c r="E59" s="25" t="s">
@@ -7380,7 +7380,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C60" s="57" t="s">
         <v>55</v>
@@ -7418,10 +7418,10 @@
         <v>7</v>
       </c>
       <c r="B61" s="56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C61" s="56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D61" s="27" t="s">
         <v>9</v>
@@ -7468,7 +7468,7 @@
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
       <c r="J62" s="68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
@@ -7492,7 +7492,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C63" s="56" t="s">
         <v>90</v>
@@ -7504,7 +7504,7 @@
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
       <c r="J63" s="56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
@@ -7528,7 +7528,7 @@
         <v>76</v>
       </c>
       <c r="B64" s="56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C64" s="56" t="s">
         <v>90</v>
@@ -7540,7 +7540,7 @@
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>
       <c r="J64" s="56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
@@ -7564,7 +7564,7 @@
         <v>76</v>
       </c>
       <c r="B65" s="56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C65" s="56" t="s">
         <v>90</v>
@@ -7576,7 +7576,7 @@
       <c r="H65" s="28"/>
       <c r="I65" s="28"/>
       <c r="J65" s="56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
@@ -7600,7 +7600,7 @@
         <v>76</v>
       </c>
       <c r="B66" s="56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C66" s="56" t="s">
         <v>90</v>
@@ -7612,7 +7612,7 @@
       <c r="H66" s="28"/>
       <c r="I66" s="28"/>
       <c r="J66" s="56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
@@ -7636,7 +7636,7 @@
         <v>76</v>
       </c>
       <c r="B67" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C67" s="56" t="s">
         <v>90</v>
@@ -7648,7 +7648,7 @@
       <c r="H67" s="28"/>
       <c r="I67" s="28"/>
       <c r="J67" s="52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
@@ -7672,7 +7672,7 @@
         <v>76</v>
       </c>
       <c r="B68" s="56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C68" s="56" t="s">
         <v>90</v>
@@ -7684,7 +7684,7 @@
       <c r="H68" s="56"/>
       <c r="I68" s="56"/>
       <c r="J68" s="56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K68" s="56"/>
       <c r="L68" s="56"/>
@@ -7713,7 +7713,7 @@
         <v>76</v>
       </c>
       <c r="B69" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C69" s="52" t="s">
         <v>90</v>
@@ -7725,7 +7725,7 @@
       <c r="H69" s="54"/>
       <c r="I69" s="54"/>
       <c r="J69" s="52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K69" s="54"/>
       <c r="L69" s="54"/>
@@ -7753,10 +7753,10 @@
         <v>1</v>
       </c>
       <c r="B70" s="56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C70" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D70" s="52"/>
       <c r="E70" s="54"/>
@@ -7791,10 +7791,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C71" s="56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D71" s="52"/>
       <c r="E71" s="54"/>
@@ -8059,7 +8059,7 @@
         <v>11</v>
       </c>
       <c r="C78" s="56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D78" s="56"/>
       <c r="E78" s="56"/>
@@ -8130,10 +8130,10 @@
         <v>47</v>
       </c>
       <c r="B80" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C80" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D80" s="56"/>
       <c r="E80" s="56"/>
@@ -8149,10 +8149,10 @@
       <c r="M80" s="56"/>
       <c r="N80" s="56"/>
       <c r="O80" s="56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P80" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q80" s="56"/>
       <c r="R80" s="56"/>
@@ -8235,7 +8235,7 @@
       <c r="O82" s="56"/>
       <c r="P82" s="56"/>
       <c r="Q82" s="57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R82" s="56"/>
       <c r="S82" s="56"/>
@@ -8274,13 +8274,13 @@
       <c r="K83" s="56"/>
       <c r="L83" s="56"/>
       <c r="M83" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N83" s="56"/>
       <c r="O83" s="56"/>
       <c r="P83" s="56"/>
       <c r="Q83" s="57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R83" s="56"/>
       <c r="S83" s="56"/>
@@ -8316,7 +8316,7 @@
       <c r="H84" s="56"/>
       <c r="I84" s="56"/>
       <c r="J84" s="56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K84" s="56"/>
       <c r="L84" s="56"/>
@@ -8344,13 +8344,13 @@
         <v>76</v>
       </c>
       <c r="B85" s="57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C85" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D85" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E85" s="57"/>
       <c r="F85" s="58"/>
@@ -8358,7 +8358,7 @@
       <c r="H85" s="56"/>
       <c r="I85" s="56"/>
       <c r="J85" s="56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K85" s="56"/>
       <c r="L85" s="56"/>
@@ -37705,7 +37705,7 @@
       <formula>COUNTIF($B$2:$B$1119,B17)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" sqref="E68:E76 E78:E85 D9:D22">
       <formula1>"yes,no"</formula1>
     </dataValidation>
@@ -37787,7 +37787,7 @@
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" ht="13.8">
       <c r="A6" s="59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>2</v>
@@ -37798,7 +37798,7 @@
     </row>
     <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
@@ -37920,11 +37920,11 @@
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 19-33</v>
+        <v>2022-11-08 19-47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="180">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -5368,10 +5368,10 @@
   <dimension ref="A1:AE1065"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5975,7 +5975,9 @@
       <c r="B17" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="52" t="s">
+        <v>90</v>
+      </c>
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -37615,17 +37617,17 @@
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A17))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C20 B21:C21">
+  <conditionalFormatting sqref="B21:C21 A17:C20">
     <cfRule type="expression" dxfId="27" priority="39">
       <formula>AND($A17="begin group", NOT($B17 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C20 B21:C21">
+  <conditionalFormatting sqref="B21:C21 A17:C20">
     <cfRule type="expression" dxfId="26" priority="40">
       <formula>AND($A17="end group", $B17 = "", $C17 = "", $E17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $M17 = "", $N17 = "", $O17 = "", $Q17 = "", $R17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C20 B21:C21">
+  <conditionalFormatting sqref="B21:C21 A17:C20">
     <cfRule type="cellIs" dxfId="25" priority="41" operator="equal">
       <formula>"note"</formula>
     </cfRule>
@@ -37645,12 +37647,12 @@
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C20 B21:C21">
+  <conditionalFormatting sqref="B21:C21 A17:C20">
     <cfRule type="expression" dxfId="21" priority="46">
       <formula>AND($A17="begin repeat", NOT($B17 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C20 B21:C21">
+  <conditionalFormatting sqref="B21:C21 A17:C20">
     <cfRule type="expression" dxfId="20" priority="47">
       <formula>AND($A17="end repeat", $B17 = "", $C17 = "", $E17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $M17 = "", $N17 = "", $O17 = "", $Q17 = "", $R17 = "")</formula>
     </cfRule>
@@ -37705,7 +37707,7 @@
       <formula>COUNTIF($B$2:$B$1119,B17)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="E68:E76 E78:E85 D9:D22">
       <formula1>"yes,no"</formula1>
     </dataValidation>
@@ -37924,7 +37926,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 19-47</v>
+        <v>2022-11-08 19-52</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="180">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -1139,108 +1139,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="381">
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="371">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5365,13 +5264,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE1065"/>
+  <dimension ref="A1:AE1064"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6440,26 +6339,48 @@
       </c>
       <c r="J32" s="25"/>
     </row>
-    <row r="33" spans="1:26" s="24" customFormat="1" ht="11.4">
-      <c r="A33" s="24" t="s">
+    <row r="33" spans="1:26" s="2" customFormat="1" ht="13.2">
+      <c r="A33" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>29</v>
+      <c r="B33" s="42" t="s">
+        <v>174</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="J33" s="24" t="s">
-        <v>173</v>
+      <c r="D33" s="19"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="68" t="s">
+        <v>111</v>
       </c>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A34" s="44" t="s">
         <v>76</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="C34" s="42" t="s">
         <v>90</v>
@@ -6471,7 +6392,7 @@
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="68" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
@@ -6491,14 +6412,14 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A35" s="44" t="s">
-        <v>76</v>
+      <c r="A35" s="45" t="s">
+        <v>11</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="25"/>
@@ -6507,7 +6428,7 @@
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="68" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
@@ -6526,25 +6447,25 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A36" s="45" t="s">
-        <v>11</v>
+    <row r="36" spans="1:26" ht="13.2">
+      <c r="A36" s="19" t="s">
+        <v>1</v>
       </c>
-      <c r="B36" s="42" t="s">
-        <v>114</v>
+      <c r="B36" s="19" t="s">
+        <v>33</v>
       </c>
-      <c r="C36" s="42" t="s">
-        <v>132</v>
+      <c r="C36" s="19" t="s">
+        <v>8</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
+      <c r="D36" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
-      <c r="J36" s="68" t="s">
-        <v>179</v>
-      </c>
+      <c r="J36" s="68"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
@@ -6567,17 +6488,17 @@
         <v>1</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="68"/>
@@ -6598,25 +6519,25 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="13.2">
-      <c r="A38" s="19" t="s">
-        <v>1</v>
+    <row r="38" spans="1:26" s="2" customFormat="1" ht="23.4" customHeight="1">
+      <c r="A38" s="43" t="s">
+        <v>76</v>
       </c>
-      <c r="B38" s="19" t="s">
-        <v>34</v>
+      <c r="B38" s="43" t="s">
+        <v>115</v>
       </c>
-      <c r="C38" s="19" t="s">
-        <v>10</v>
+      <c r="C38" s="43" t="s">
+        <v>90</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>9</v>
-      </c>
+      <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
-      <c r="J38" s="68"/>
+      <c r="J38" s="68" t="s">
+        <v>178</v>
+      </c>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
@@ -6634,15 +6555,15 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" s="2" customFormat="1" ht="23.4" customHeight="1">
+    <row r="39" spans="1:26" s="2" customFormat="1" ht="23.4">
       <c r="A39" s="43" t="s">
         <v>76</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -6651,7 +6572,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
@@ -6670,15 +6591,15 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" s="2" customFormat="1" ht="23.4">
+    <row r="40" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A40" s="43" t="s">
         <v>76</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -6687,7 +6608,7 @@
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="68" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
@@ -6707,24 +6628,18 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A41" s="43" t="s">
-        <v>76</v>
+      <c r="A41" s="19" t="s">
+        <v>51</v>
       </c>
-      <c r="B41" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>119</v>
-      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
-      <c r="J41" s="68" t="s">
-        <v>120</v>
-      </c>
+      <c r="J41" s="68"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
@@ -6743,11 +6658,9 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A42" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
@@ -6772,49 +6685,55 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-    </row>
-    <row r="44" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A44" s="26" t="s">
+    <row r="43" spans="1:26" s="8" customFormat="1" ht="13.2">
+      <c r="A43" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B43" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C43" s="26" t="s">
         <v>49</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+    </row>
+    <row r="44" spans="1:26" s="8" customFormat="1" ht="13.2">
+      <c r="A44" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>134</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
-      <c r="F44" s="31" t="s">
-        <v>69</v>
-      </c>
+      <c r="F44" s="27"/>
       <c r="G44" s="27"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
@@ -6837,19 +6756,20 @@
       <c r="Z44" s="9"/>
     </row>
     <row r="45" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A45" s="30" t="s">
-        <v>150</v>
+      <c r="A45" s="12" t="s">
+        <v>11</v>
       </c>
-      <c r="B45" s="30" t="s">
-        <v>131</v>
+      <c r="B45" s="12" t="s">
+        <v>64</v>
       </c>
-      <c r="C45" s="30" t="s">
-        <v>134</v>
+      <c r="C45" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
+      <c r="E45" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" s="31"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
       <c r="J45" s="69"/>
@@ -6871,20 +6791,15 @@
       <c r="Z45" s="9"/>
     </row>
     <row r="46" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A46" s="12" t="s">
-        <v>11</v>
+      <c r="A46" s="30" t="s">
+        <v>51</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>50</v>
-      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="27"/>
-      <c r="E46" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="G46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
       <c r="J46" s="69"/>
@@ -6907,12 +6822,18 @@
     </row>
     <row r="47" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A47" s="30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
+      <c r="B47" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>65</v>
+      </c>
       <c r="D47" s="27"/>
-      <c r="E47" s="31"/>
+      <c r="E47" s="31" t="s">
+        <v>149</v>
+      </c>
       <c r="F47" s="27"/>
       <c r="G47" s="27"/>
       <c r="H47" s="28"/>
@@ -6936,19 +6857,19 @@
       <c r="Z47" s="9"/>
     </row>
     <row r="48" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A48" s="30" t="s">
-        <v>47</v>
+      <c r="A48" s="32" t="s">
+        <v>73</v>
       </c>
-      <c r="B48" s="30" t="s">
-        <v>52</v>
+      <c r="B48" s="48" t="s">
+        <v>131</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="31" t="s">
-        <v>149</v>
+      <c r="D48" s="27" t="s">
+        <v>2</v>
       </c>
+      <c r="E48" s="27"/>
       <c r="F48" s="27"/>
       <c r="G48" s="27"/>
       <c r="H48" s="28"/>
@@ -6972,27 +6893,31 @@
       <c r="Z48" s="9"/>
     </row>
     <row r="49" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A49" s="32" t="s">
-        <v>73</v>
+      <c r="A49" s="46" t="s">
+        <v>93</v>
       </c>
-      <c r="B49" s="48" t="s">
-        <v>131</v>
+      <c r="B49" s="46" t="s">
+        <v>21</v>
       </c>
-      <c r="C49" s="30" t="s">
-        <v>72</v>
+      <c r="C49" s="46" t="s">
+        <v>121</v>
       </c>
-      <c r="D49" s="27" t="s">
-        <v>2</v>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="46" t="s">
+        <v>93</v>
       </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
       <c r="G49" s="27"/>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
       <c r="J49" s="69"/>
       <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
+      <c r="L49" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="M49" s="46" t="s">
+        <v>92</v>
+      </c>
       <c r="N49" s="29"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
@@ -7012,10 +6937,10 @@
         <v>93</v>
       </c>
       <c r="B50" s="46" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C50" s="46" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
@@ -7031,7 +6956,7 @@
         <v>124</v>
       </c>
       <c r="M50" s="46" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="N50" s="29"/>
       <c r="O50" s="9"/>
@@ -7051,15 +6976,15 @@
       <c r="A51" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="46" t="s">
-        <v>95</v>
+      <c r="B51" s="48" t="s">
+        <v>97</v>
       </c>
-      <c r="C51" s="46" t="s">
-        <v>96</v>
+      <c r="C51" s="42" t="s">
+        <v>98</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="42" t="s">
         <v>93</v>
       </c>
       <c r="G51" s="27"/>
@@ -7067,11 +6992,11 @@
       <c r="I51" s="28"/>
       <c r="J51" s="69"/>
       <c r="K51" s="29"/>
-      <c r="L51" s="46" t="s">
+      <c r="L51" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="M51" s="46" t="s">
-        <v>125</v>
+      <c r="M51" s="42" t="s">
+        <v>126</v>
       </c>
       <c r="N51" s="29"/>
       <c r="O51" s="9"/>
@@ -7089,30 +7014,26 @@
     </row>
     <row r="52" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A52" s="46" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
-      <c r="B52" s="48" t="s">
-        <v>97</v>
+      <c r="B52" s="46" t="s">
+        <v>22</v>
       </c>
-      <c r="C52" s="42" t="s">
-        <v>98</v>
+      <c r="C52" s="30" t="s">
+        <v>67</v>
       </c>
-      <c r="D52" s="27"/>
+      <c r="D52" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="E52" s="27"/>
-      <c r="F52" s="42" t="s">
-        <v>93</v>
-      </c>
+      <c r="F52" s="27"/>
       <c r="G52" s="27"/>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
       <c r="J52" s="69"/>
       <c r="K52" s="29"/>
-      <c r="L52" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="M52" s="42" t="s">
-        <v>126</v>
-      </c>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
       <c r="N52" s="29"/>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
@@ -7129,23 +7050,23 @@
     </row>
     <row r="53" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A53" s="46" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B53" s="46" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
-      <c r="C53" s="30" t="s">
-        <v>67</v>
+      <c r="C53" s="46" t="s">
+        <v>90</v>
       </c>
-      <c r="D53" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="D53" s="27"/>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
-      <c r="J53" s="69"/>
+      <c r="J53" s="69" t="s">
+        <v>123</v>
+      </c>
       <c r="K53" s="29"/>
       <c r="L53" s="29"/>
       <c r="M53" s="29"/>
@@ -7164,14 +7085,14 @@
       <c r="Z53" s="9"/>
     </row>
     <row r="54" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A54" s="46" t="s">
-        <v>76</v>
+      <c r="A54" s="30" t="s">
+        <v>37</v>
       </c>
-      <c r="B54" s="46" t="s">
-        <v>122</v>
+      <c r="B54" s="30" t="s">
+        <v>27</v>
       </c>
-      <c r="C54" s="46" t="s">
-        <v>90</v>
+      <c r="C54" s="30" t="s">
+        <v>3</v>
       </c>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
@@ -7179,9 +7100,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
-      <c r="J54" s="69" t="s">
-        <v>123</v>
-      </c>
+      <c r="J54" s="69"/>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
       <c r="M54" s="29"/>
@@ -7201,52 +7120,56 @@
     </row>
     <row r="55" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A55" s="30" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
+      <c r="E55" s="42"/>
       <c r="F55" s="27"/>
       <c r="G55" s="27"/>
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A56" s="30" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
+      <c r="D56" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
       <c r="J56" s="68"/>
@@ -7268,26 +7191,24 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A57" s="30" t="s">
-        <v>5</v>
+      <c r="A57" s="41" t="s">
+        <v>76</v>
       </c>
-      <c r="B57" s="30" t="s">
-        <v>32</v>
+      <c r="B57" s="41" t="s">
+        <v>130</v>
       </c>
-      <c r="C57" s="30" t="s">
-        <v>4</v>
+      <c r="C57" s="43" t="s">
+        <v>90</v>
       </c>
-      <c r="D57" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>70</v>
-      </c>
+      <c r="D57" s="27"/>
+      <c r="E57" s="25"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
-      <c r="J57" s="68"/>
+      <c r="J57" s="69" t="s">
+        <v>109</v>
+      </c>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
@@ -7306,24 +7227,24 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A58" s="41" t="s">
-        <v>76</v>
+      <c r="A58" s="46" t="s">
+        <v>11</v>
       </c>
-      <c r="B58" s="41" t="s">
-        <v>130</v>
+      <c r="B58" s="46" t="s">
+        <v>128</v>
       </c>
-      <c r="C58" s="43" t="s">
-        <v>90</v>
+      <c r="C58" s="46" t="s">
+        <v>129</v>
       </c>
       <c r="D58" s="27"/>
-      <c r="E58" s="25"/>
+      <c r="E58" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
-      <c r="J58" s="69" t="s">
-        <v>109</v>
-      </c>
+      <c r="J58" s="69"/>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
@@ -7341,101 +7262,101 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" s="8" customFormat="1" ht="13.2">
-      <c r="A59" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="D59" s="27"/>
-      <c r="E59" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-    </row>
-    <row r="60" spans="1:26" s="66" customFormat="1" ht="13.2">
-      <c r="A60" s="57" t="s">
+    <row r="59" spans="1:26" s="66" customFormat="1" ht="13.2">
+      <c r="A59" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="76" t="s">
+      <c r="B59" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="C60" s="57" t="s">
+      <c r="C59" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="61" t="s">
+      <c r="D59" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="62" t="s">
+      <c r="E59" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="F60" s="62"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="64"/>
-      <c r="L60" s="64"/>
-      <c r="M60" s="64"/>
-      <c r="N60" s="64"/>
-      <c r="O60" s="65"/>
-      <c r="P60" s="65"/>
-      <c r="Q60" s="65"/>
-      <c r="R60" s="65"/>
-      <c r="S60" s="65"/>
-      <c r="T60" s="65"/>
-      <c r="U60" s="65"/>
-      <c r="V60" s="65"/>
-      <c r="W60" s="65"/>
-      <c r="X60" s="65"/>
-      <c r="Y60" s="65"/>
-      <c r="Z60" s="65"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="65"/>
+      <c r="P59" s="65"/>
+      <c r="Q59" s="65"/>
+      <c r="R59" s="65"/>
+      <c r="S59" s="65"/>
+      <c r="T59" s="65"/>
+      <c r="U59" s="65"/>
+      <c r="V59" s="65"/>
+      <c r="W59" s="65"/>
+      <c r="X59" s="65"/>
+      <c r="Y59" s="65"/>
+      <c r="Z59" s="65"/>
+    </row>
+    <row r="60" spans="1:26" s="8" customFormat="1" ht="13.2">
+      <c r="A60" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A61" s="56" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="B61" s="56" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="C61" s="56" t="s">
-        <v>172</v>
+        <v>90</v>
       </c>
-      <c r="D61" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>71</v>
-      </c>
+      <c r="D61" s="27"/>
+      <c r="E61" s="25"/>
       <c r="F61" s="25"/>
       <c r="G61" s="25"/>
       <c r="H61" s="28"/>
       <c r="I61" s="28"/>
-      <c r="J61" s="68"/>
+      <c r="J61" s="68" t="s">
+        <v>173</v>
+      </c>
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
@@ -7453,12 +7374,12 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" s="8" customFormat="1" ht="13.2">
+    <row r="62" spans="1:26" s="8" customFormat="1" ht="21">
       <c r="A62" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B62" s="56" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="C62" s="56" t="s">
         <v>90</v>
@@ -7469,8 +7390,8 @@
       <c r="G62" s="25"/>
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
-      <c r="J62" s="68" t="s">
-        <v>173</v>
+      <c r="J62" s="56" t="s">
+        <v>170</v>
       </c>
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
@@ -7494,7 +7415,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="56" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C63" s="56" t="s">
         <v>90</v>
@@ -7506,7 +7427,7 @@
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
       <c r="J63" s="56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
@@ -7530,7 +7451,7 @@
         <v>76</v>
       </c>
       <c r="B64" s="56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C64" s="56" t="s">
         <v>90</v>
@@ -7542,7 +7463,7 @@
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>
       <c r="J64" s="56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
@@ -7561,12 +7482,12 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:31" s="8" customFormat="1" ht="21">
+    <row r="65" spans="1:31" s="8" customFormat="1" ht="13.2">
       <c r="A65" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B65" s="56" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="C65" s="56" t="s">
         <v>90</v>
@@ -7578,7 +7499,7 @@
       <c r="H65" s="28"/>
       <c r="I65" s="28"/>
       <c r="J65" s="56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
@@ -7602,7 +7523,7 @@
         <v>76</v>
       </c>
       <c r="B66" s="56" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="C66" s="56" t="s">
         <v>90</v>
@@ -7613,8 +7534,8 @@
       <c r="G66" s="25"/>
       <c r="H66" s="28"/>
       <c r="I66" s="28"/>
-      <c r="J66" s="56" t="s">
-        <v>164</v>
+      <c r="J66" s="52" t="s">
+        <v>163</v>
       </c>
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
@@ -7633,92 +7554,96 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:31" s="8" customFormat="1" ht="13.2">
+    <row r="67" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A67" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B67" s="56" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C67" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="D67" s="27"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="52" t="s">
-        <v>163</v>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="56" t="s">
+        <v>153</v>
       </c>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="56"/>
+      <c r="Q67" s="56"/>
+      <c r="R67" s="56"/>
+      <c r="S67" s="56"/>
+      <c r="T67" s="56"/>
+      <c r="U67" s="56"/>
+      <c r="V67" s="56"/>
+      <c r="W67" s="56"/>
+      <c r="X67" s="56"/>
+      <c r="Y67" s="56"/>
+      <c r="Z67" s="56"/>
+      <c r="AA67" s="56"/>
+      <c r="AB67" s="56"/>
+      <c r="AC67" s="56"/>
+      <c r="AD67" s="56"/>
+      <c r="AE67" s="56"/>
     </row>
     <row r="68" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A68" s="56" t="s">
+      <c r="A68" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="56" t="s">
-        <v>152</v>
+      <c r="B68" s="52" t="s">
+        <v>154</v>
       </c>
-      <c r="C68" s="56" t="s">
+      <c r="C68" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="54"/>
       <c r="F68" s="52"/>
       <c r="G68" s="52"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56" t="s">
-        <v>153</v>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="52" t="s">
+        <v>155</v>
       </c>
-      <c r="K68" s="56"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
-      <c r="O68" s="56"/>
-      <c r="P68" s="56"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="56"/>
-      <c r="S68" s="56"/>
-      <c r="T68" s="56"/>
-      <c r="U68" s="56"/>
-      <c r="V68" s="56"/>
-      <c r="W68" s="56"/>
-      <c r="X68" s="56"/>
-      <c r="Y68" s="56"/>
-      <c r="Z68" s="56"/>
-      <c r="AA68" s="56"/>
-      <c r="AB68" s="56"/>
-      <c r="AC68" s="56"/>
-      <c r="AD68" s="56"/>
-      <c r="AE68" s="56"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="54"/>
+      <c r="P68" s="54"/>
+      <c r="Q68" s="54"/>
+      <c r="R68" s="54"/>
+      <c r="S68" s="54"/>
+      <c r="T68" s="54"/>
+      <c r="U68" s="54"/>
+      <c r="V68" s="54"/>
+      <c r="W68" s="54"/>
+      <c r="X68" s="54"/>
+      <c r="Y68" s="54"/>
+      <c r="Z68" s="54"/>
+      <c r="AA68" s="54"/>
+      <c r="AB68" s="54"/>
+      <c r="AC68" s="54"/>
+      <c r="AD68" s="54"/>
+      <c r="AE68" s="54"/>
     </row>
     <row r="69" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A69" s="60" t="s">
-        <v>76</v>
+      <c r="A69" s="56" t="s">
+        <v>1</v>
       </c>
-      <c r="B69" s="52" t="s">
-        <v>154</v>
+      <c r="B69" s="56" t="s">
+        <v>156</v>
       </c>
-      <c r="C69" s="52" t="s">
-        <v>90</v>
+      <c r="C69" s="56" t="s">
+        <v>157</v>
       </c>
       <c r="D69" s="52"/>
       <c r="E69" s="54"/>
@@ -7726,9 +7651,7 @@
       <c r="G69" s="52"/>
       <c r="H69" s="54"/>
       <c r="I69" s="54"/>
-      <c r="J69" s="52" t="s">
-        <v>155</v>
-      </c>
+      <c r="J69" s="52"/>
       <c r="K69" s="54"/>
       <c r="L69" s="54"/>
       <c r="N69" s="54"/>
@@ -7755,10 +7678,10 @@
         <v>1</v>
       </c>
       <c r="B70" s="56" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C70" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D70" s="52"/>
       <c r="E70" s="54"/>
@@ -7789,88 +7712,91 @@
       <c r="AE70" s="54"/>
     </row>
     <row r="71" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A71" s="56" t="s">
-        <v>1</v>
+      <c r="A71" s="50" t="s">
+        <v>47</v>
       </c>
-      <c r="B71" s="56" t="s">
-        <v>158</v>
+      <c r="B71" s="50" t="s">
+        <v>75</v>
       </c>
-      <c r="C71" s="56" t="s">
-        <v>159</v>
+      <c r="C71" s="52" t="s">
+        <v>90</v>
       </c>
-      <c r="D71" s="52"/>
-      <c r="E71" s="54"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
       <c r="F71" s="52"/>
       <c r="G71" s="52"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="54"/>
-      <c r="N71" s="54"/>
-      <c r="O71" s="54"/>
-      <c r="P71" s="54"/>
-      <c r="Q71" s="54"/>
-      <c r="R71" s="54"/>
-      <c r="S71" s="54"/>
-      <c r="T71" s="54"/>
-      <c r="U71" s="54"/>
-      <c r="V71" s="54"/>
-      <c r="W71" s="54"/>
-      <c r="X71" s="54"/>
-      <c r="Y71" s="54"/>
-      <c r="Z71" s="54"/>
-      <c r="AA71" s="54"/>
-      <c r="AB71" s="54"/>
-      <c r="AC71" s="54"/>
-      <c r="AD71" s="54"/>
-      <c r="AE71" s="54"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="71"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="51"/>
+      <c r="M71" s="51"/>
+      <c r="N71" s="51"/>
+      <c r="O71" s="51"/>
+      <c r="P71" s="51"/>
+      <c r="Q71" s="51"/>
+      <c r="R71" s="51"/>
+      <c r="S71" s="51"/>
+      <c r="T71" s="51"/>
+      <c r="U71" s="51"/>
+      <c r="V71" s="51"/>
+      <c r="W71" s="51"/>
+      <c r="X71" s="51"/>
+      <c r="Y71" s="51"/>
+      <c r="Z71" s="51"/>
+      <c r="AA71" s="51"/>
+      <c r="AB71" s="51"/>
+      <c r="AC71" s="51"/>
+      <c r="AD71" s="51"/>
+      <c r="AE71" s="51"/>
     </row>
     <row r="72" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A72" s="50" t="s">
-        <v>47</v>
+      <c r="A72" s="53" t="s">
+        <v>93</v>
       </c>
-      <c r="B72" s="50" t="s">
-        <v>75</v>
+      <c r="B72" s="52" t="s">
+        <v>77</v>
       </c>
       <c r="C72" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
+      <c r="D72" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="54"/>
       <c r="F72" s="52"/>
       <c r="G72" s="52"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="51"/>
-      <c r="J72" s="71"/>
-      <c r="K72" s="51"/>
-      <c r="L72" s="51"/>
-      <c r="M72" s="51"/>
-      <c r="N72" s="51"/>
-      <c r="O72" s="51"/>
-      <c r="P72" s="51"/>
-      <c r="Q72" s="51"/>
-      <c r="R72" s="51"/>
-      <c r="S72" s="51"/>
-      <c r="T72" s="51"/>
-      <c r="U72" s="51"/>
-      <c r="V72" s="51"/>
-      <c r="W72" s="51"/>
-      <c r="X72" s="51"/>
-      <c r="Y72" s="51"/>
-      <c r="Z72" s="51"/>
-      <c r="AA72" s="51"/>
-      <c r="AB72" s="51"/>
-      <c r="AC72" s="51"/>
-      <c r="AD72" s="51"/>
-      <c r="AE72" s="51"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="72"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="54"/>
+      <c r="N72" s="54"/>
+      <c r="O72" s="54"/>
+      <c r="P72" s="54"/>
+      <c r="Q72" s="54"/>
+      <c r="R72" s="54"/>
+      <c r="S72" s="54"/>
+      <c r="T72" s="54"/>
+      <c r="U72" s="54"/>
+      <c r="V72" s="54"/>
+      <c r="W72" s="54"/>
+      <c r="X72" s="54"/>
+      <c r="Y72" s="54"/>
+      <c r="Z72" s="54"/>
+      <c r="AA72" s="54"/>
+      <c r="AB72" s="54"/>
+      <c r="AC72" s="54"/>
+      <c r="AD72" s="54"/>
+      <c r="AE72" s="54"/>
     </row>
     <row r="73" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A73" s="53" t="s">
         <v>93</v>
       </c>
       <c r="B73" s="52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C73" s="52" t="s">
         <v>90</v>
@@ -7911,7 +7837,7 @@
         <v>93</v>
       </c>
       <c r="B74" s="52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C74" s="52" t="s">
         <v>90</v>
@@ -7948,121 +7874,115 @@
       <c r="AE74" s="54"/>
     </row>
     <row r="75" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A75" s="53" t="s">
-        <v>93</v>
+      <c r="A75" s="55" t="s">
+        <v>51</v>
       </c>
-      <c r="B75" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="D75" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" s="54"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="51"/>
       <c r="F75" s="52"/>
       <c r="G75" s="52"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="72"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="54"/>
-      <c r="M75" s="54"/>
-      <c r="N75" s="54"/>
-      <c r="O75" s="54"/>
-      <c r="P75" s="54"/>
-      <c r="Q75" s="54"/>
-      <c r="R75" s="54"/>
-      <c r="S75" s="54"/>
-      <c r="T75" s="54"/>
-      <c r="U75" s="54"/>
-      <c r="V75" s="54"/>
-      <c r="W75" s="54"/>
-      <c r="X75" s="54"/>
-      <c r="Y75" s="54"/>
-      <c r="Z75" s="54"/>
-      <c r="AA75" s="54"/>
-      <c r="AB75" s="54"/>
-      <c r="AC75" s="54"/>
-      <c r="AD75" s="54"/>
-      <c r="AE75" s="54"/>
-    </row>
-    <row r="76" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A76" s="55" t="s">
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="71"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="51"/>
+      <c r="M75" s="51"/>
+      <c r="N75" s="51"/>
+      <c r="O75" s="51"/>
+      <c r="P75" s="51"/>
+      <c r="Q75" s="51"/>
+      <c r="R75" s="51"/>
+      <c r="S75" s="51"/>
+      <c r="T75" s="51"/>
+      <c r="U75" s="51"/>
+      <c r="V75" s="51"/>
+      <c r="W75" s="51"/>
+      <c r="X75" s="51"/>
+      <c r="Y75" s="51"/>
+      <c r="Z75" s="51"/>
+      <c r="AA75" s="51"/>
+      <c r="AB75" s="51"/>
+      <c r="AC75" s="51"/>
+      <c r="AD75" s="51"/>
+      <c r="AE75" s="51"/>
+    </row>
+    <row r="76" spans="1:31" s="2" customFormat="1" ht="13.2">
+      <c r="A76" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="33"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="68"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+    </row>
+    <row r="77" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A77" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="56"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="56"/>
+      <c r="O77" s="56"/>
+      <c r="P77" s="56"/>
+      <c r="Q77" s="56"/>
+      <c r="R77" s="56"/>
+      <c r="S77" s="56"/>
+      <c r="T77" s="56"/>
+      <c r="U77" s="56"/>
+      <c r="V77" s="56"/>
+      <c r="W77" s="56"/>
+      <c r="X77" s="56"/>
+      <c r="Y77" s="56"/>
+      <c r="Z77" s="56"/>
+      <c r="AA77" s="56"/>
+      <c r="AB77" s="56"/>
+      <c r="AC77" s="56"/>
+      <c r="AD77" s="56"/>
+      <c r="AE77" s="56"/>
+    </row>
+    <row r="78" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A78" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="52"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="51"/>
-      <c r="M76" s="51"/>
-      <c r="N76" s="51"/>
-      <c r="O76" s="51"/>
-      <c r="P76" s="51"/>
-      <c r="Q76" s="51"/>
-      <c r="R76" s="51"/>
-      <c r="S76" s="51"/>
-      <c r="T76" s="51"/>
-      <c r="U76" s="51"/>
-      <c r="V76" s="51"/>
-      <c r="W76" s="51"/>
-      <c r="X76" s="51"/>
-      <c r="Y76" s="51"/>
-      <c r="Z76" s="51"/>
-      <c r="AA76" s="51"/>
-      <c r="AB76" s="51"/>
-      <c r="AC76" s="51"/>
-      <c r="AD76" s="51"/>
-      <c r="AE76" s="51"/>
-    </row>
-    <row r="77" spans="1:31" s="2" customFormat="1" ht="13.2">
-      <c r="A77" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="68"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="1"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
-    </row>
-    <row r="78" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A78" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="56" t="s">
-        <v>142</v>
-      </c>
+      <c r="B78" s="56"/>
+      <c r="C78" s="56"/>
       <c r="D78" s="56"/>
       <c r="E78" s="56"/>
       <c r="F78" s="52"/>
@@ -8094,23 +8014,33 @@
     </row>
     <row r="79" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A79" s="56" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
-      <c r="B79" s="56"/>
-      <c r="C79" s="56"/>
+      <c r="B79" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="56" t="s">
+        <v>144</v>
+      </c>
       <c r="D79" s="56"/>
       <c r="E79" s="56"/>
       <c r="F79" s="52"/>
       <c r="G79" s="52"/>
       <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
+      <c r="I79" s="56" t="s">
+        <v>69</v>
+      </c>
       <c r="J79" s="56"/>
       <c r="K79" s="56"/>
       <c r="L79" s="56"/>
       <c r="M79" s="56"/>
       <c r="N79" s="56"/>
-      <c r="O79" s="56"/>
-      <c r="P79" s="56"/>
+      <c r="O79" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="P79" s="56" t="s">
+        <v>145</v>
+      </c>
       <c r="Q79" s="56"/>
       <c r="R79" s="56"/>
       <c r="S79" s="56"/>
@@ -8128,35 +8058,31 @@
       <c r="AE79" s="56"/>
     </row>
     <row r="80" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A80" s="56" t="s">
-        <v>47</v>
+      <c r="A80" s="57" t="s">
+        <v>93</v>
       </c>
-      <c r="B80" s="56" t="s">
-        <v>143</v>
+      <c r="B80" s="57" t="s">
+        <v>21</v>
       </c>
-      <c r="C80" s="56" t="s">
-        <v>144</v>
+      <c r="C80" s="57" t="s">
+        <v>90</v>
       </c>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="52"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="58"/>
+      <c r="G80" s="58"/>
       <c r="H80" s="56"/>
-      <c r="I80" s="56" t="s">
-        <v>69</v>
-      </c>
+      <c r="I80" s="56"/>
       <c r="J80" s="56"/>
       <c r="K80" s="56"/>
       <c r="L80" s="56"/>
       <c r="M80" s="56"/>
       <c r="N80" s="56"/>
-      <c r="O80" s="56" t="s">
-        <v>124</v>
+      <c r="O80" s="56"/>
+      <c r="P80" s="56"/>
+      <c r="Q80" s="57" t="s">
+        <v>92</v>
       </c>
-      <c r="P80" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q80" s="56"/>
       <c r="R80" s="56"/>
       <c r="S80" s="56"/>
       <c r="T80" s="56"/>
@@ -8177,7 +8103,7 @@
         <v>93</v>
       </c>
       <c r="B81" s="57" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C81" s="57" t="s">
         <v>90</v>
@@ -8196,7 +8122,7 @@
       <c r="O81" s="56"/>
       <c r="P81" s="56"/>
       <c r="Q81" s="57" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="R81" s="56"/>
       <c r="S81" s="56"/>
@@ -8218,12 +8144,14 @@
         <v>93</v>
       </c>
       <c r="B82" s="57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C82" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D82" s="57"/>
+      <c r="D82" s="57" t="s">
+        <v>90</v>
+      </c>
       <c r="E82" s="57"/>
       <c r="F82" s="58"/>
       <c r="G82" s="58"/>
@@ -8232,12 +8160,14 @@
       <c r="J82" s="56"/>
       <c r="K82" s="56"/>
       <c r="L82" s="56"/>
-      <c r="M82" s="56"/>
+      <c r="M82" s="56" t="s">
+        <v>146</v>
+      </c>
       <c r="N82" s="56"/>
       <c r="O82" s="56"/>
       <c r="P82" s="56"/>
       <c r="Q82" s="57" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="R82" s="56"/>
       <c r="S82" s="56"/>
@@ -8256,10 +8186,10 @@
     </row>
     <row r="83" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A83" s="57" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B83" s="57" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="C83" s="57" t="s">
         <v>90</v>
@@ -8272,18 +8202,15 @@
       <c r="G83" s="58"/>
       <c r="H83" s="56"/>
       <c r="I83" s="56"/>
-      <c r="J83" s="56"/>
+      <c r="J83" s="56" t="s">
+        <v>160</v>
+      </c>
       <c r="K83" s="56"/>
       <c r="L83" s="56"/>
-      <c r="M83" s="56" t="s">
-        <v>146</v>
-      </c>
       <c r="N83" s="56"/>
       <c r="O83" s="56"/>
       <c r="P83" s="56"/>
-      <c r="Q83" s="57" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q83" s="56"/>
       <c r="R83" s="56"/>
       <c r="S83" s="56"/>
       <c r="T83" s="56"/>
@@ -8304,13 +8231,13 @@
         <v>76</v>
       </c>
       <c r="B84" s="57" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="C84" s="57" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="D84" s="57" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="E84" s="57"/>
       <c r="F84" s="58"/>
@@ -8318,7 +8245,7 @@
       <c r="H84" s="56"/>
       <c r="I84" s="56"/>
       <c r="J84" s="56" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="K84" s="56"/>
       <c r="L84" s="56"/>
@@ -8341,65 +8268,57 @@
       <c r="AD84" s="56"/>
       <c r="AE84" s="56"/>
     </row>
-    <row r="85" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A85" s="57" t="s">
+    <row r="85" spans="1:31" s="2" customFormat="1" ht="13.2">
+      <c r="A85" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+    </row>
+    <row r="86" spans="1:31" s="2" customFormat="1" ht="13.2">
+      <c r="A86" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B85" s="57" t="s">
-        <v>140</v>
+      <c r="B86" s="39" t="s">
+        <v>77</v>
       </c>
-      <c r="C85" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="D85" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="E85" s="57"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="58"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="K85" s="56"/>
-      <c r="L85" s="56"/>
-      <c r="N85" s="56"/>
-      <c r="O85" s="56"/>
-      <c r="P85" s="56"/>
-      <c r="Q85" s="56"/>
-      <c r="R85" s="56"/>
-      <c r="S85" s="56"/>
-      <c r="T85" s="56"/>
-      <c r="U85" s="56"/>
-      <c r="V85" s="56"/>
-      <c r="W85" s="56"/>
-      <c r="X85" s="56"/>
-      <c r="Y85" s="56"/>
-      <c r="Z85" s="56"/>
-      <c r="AA85" s="56"/>
-      <c r="AB85" s="56"/>
-      <c r="AC85" s="56"/>
-      <c r="AD85" s="56"/>
-      <c r="AE85" s="56"/>
-    </row>
-    <row r="86" spans="1:31" s="2" customFormat="1" ht="13.2">
-      <c r="A86" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C86" s="43" t="s">
-        <v>90</v>
-      </c>
+      <c r="C86" s="34"/>
       <c r="D86" s="34"/>
       <c r="E86" s="34"/>
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
       <c r="H86" s="35"/>
       <c r="I86" s="35"/>
-      <c r="J86" s="68"/>
+      <c r="J86" s="73" t="s">
+        <v>86</v>
+      </c>
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
       <c r="M86" s="13"/>
@@ -8422,7 +8341,7 @@
         <v>76</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C87" s="34"/>
       <c r="D87" s="34"/>
@@ -8432,7 +8351,7 @@
       <c r="H87" s="35"/>
       <c r="I87" s="35"/>
       <c r="J87" s="73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
@@ -8456,7 +8375,7 @@
         <v>76</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C88" s="34"/>
       <c r="D88" s="34"/>
@@ -8466,7 +8385,7 @@
       <c r="H88" s="35"/>
       <c r="I88" s="35"/>
       <c r="J88" s="73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
@@ -8486,12 +8405,10 @@
       <c r="Z88" s="1"/>
     </row>
     <row r="89" spans="1:31" s="2" customFormat="1" ht="13.2">
-      <c r="A89" s="38" t="s">
-        <v>76</v>
+      <c r="A89" s="40" t="s">
+        <v>51</v>
       </c>
-      <c r="B89" s="39" t="s">
-        <v>79</v>
-      </c>
+      <c r="B89" s="40"/>
       <c r="C89" s="34"/>
       <c r="D89" s="34"/>
       <c r="E89" s="34"/>
@@ -8499,9 +8416,7 @@
       <c r="G89" s="34"/>
       <c r="H89" s="35"/>
       <c r="I89" s="35"/>
-      <c r="J89" s="73" t="s">
-        <v>88</v>
-      </c>
+      <c r="J89" s="68"/>
       <c r="K89" s="13"/>
       <c r="L89" s="13"/>
       <c r="M89" s="13"/>
@@ -8520,10 +8435,10 @@
       <c r="Z89" s="1"/>
     </row>
     <row r="90" spans="1:31" s="2" customFormat="1" ht="13.2">
-      <c r="A90" s="40" t="s">
+      <c r="A90" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B90" s="40"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="34"/>
       <c r="D90" s="34"/>
       <c r="E90" s="34"/>
@@ -8549,23 +8464,21 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:31" s="2" customFormat="1" ht="13.2">
-      <c r="A91" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B91" s="33"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="68"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
+    <row r="91" spans="1:31" ht="13.2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="74"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -8579,7 +8492,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:31" ht="13.2">
+    <row r="92" spans="1:31" ht="14.25" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -9027,7 +8940,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="14.25" customHeight="1">
+    <row r="108" spans="1:26" ht="13.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -35823,1892 +35736,1864 @@
       <c r="Y1064" s="1"/>
       <c r="Z1064" s="1"/>
     </row>
-    <row r="1065" spans="1:26" ht="13.2">
-      <c r="A1065" s="1"/>
-      <c r="B1065" s="1"/>
-      <c r="C1065" s="1"/>
-      <c r="D1065" s="1"/>
-      <c r="E1065" s="1"/>
-      <c r="F1065" s="1"/>
-      <c r="G1065" s="1"/>
-      <c r="H1065" s="1"/>
-      <c r="I1065" s="1"/>
-      <c r="J1065" s="74"/>
-      <c r="K1065" s="1"/>
-      <c r="L1065" s="1"/>
-      <c r="M1065" s="1"/>
-      <c r="N1065" s="1"/>
-      <c r="O1065" s="1"/>
-      <c r="P1065" s="1"/>
-      <c r="Q1065" s="1"/>
-      <c r="R1065" s="1"/>
-      <c r="S1065" s="1"/>
-      <c r="T1065" s="1"/>
-      <c r="U1065" s="1"/>
-      <c r="V1065" s="1"/>
-      <c r="W1065" s="1"/>
-      <c r="X1065" s="1"/>
-      <c r="Y1065" s="1"/>
-      <c r="Z1065" s="1"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C4 A46:C48 A5:B5 A6:C8 A55:C55 A23:B23 A34:C36 A39:C41 M11:M12 N69:AE71 J69:L71 N84:AE85 J84:L85 L10:M10 A9:F16 A22:F22 D17:F21">
-    <cfRule type="expression" dxfId="380" priority="530">
+  <conditionalFormatting sqref="A2:C4 A45:C47 A5:B5 A6:C8 A54:C54 A23:B23 A33:C35 A38:C40 M11:M12 N68:AE70 J68:L70 N83:AE84 J83:L84 L10:M10 A9:F16 A22:F22 D17:F21">
+    <cfRule type="expression" dxfId="370" priority="530">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C4 A55:C55 A47:C47 A5:B5 A6:C8 A23:B23">
-    <cfRule type="expression" dxfId="379" priority="531">
+  <conditionalFormatting sqref="A2:C4 A54:C54 A46:C46 A5:B5 A6:C8 A23:B23">
+    <cfRule type="expression" dxfId="369" priority="531">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C4 A45:C48 A44 C44 C49 A5:B5 A6:C8 A55:C55 C53 N69:AE71 J69:L71 N84:AE85 J84:L85 A10:F16 A22:F22 D17:F21">
-    <cfRule type="cellIs" dxfId="378" priority="532" operator="equal">
+  <conditionalFormatting sqref="A2:C4 A44:C47 A43 C43 C48 A5:B5 A6:C8 A54:C54 C52 N68:AE70 J68:L70 N83:AE84 J83:L84 A10:F16 A22:F22 D17:F21">
+    <cfRule type="cellIs" dxfId="368" priority="532" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:B48 B55 B34:B36 B39:B41 B80:B85 B2:B16 B22:B23">
-    <cfRule type="expression" dxfId="377" priority="533">
+  <conditionalFormatting sqref="B45:B47 B54 B33:B35 B38:B40 B79:B84 B2:B16 B22:B23">
+    <cfRule type="expression" dxfId="367" priority="533">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C4 A46:C48 A5:B5 A6:C8 A55:C55 A23:B23 A34:C36 A39:C41 M11:M12 N69:AE71 J69:L71 N84:AE85 J84:L85 L10:M10 A9:F16 A22:F22 D17:F21">
-    <cfRule type="expression" dxfId="376" priority="535">
+  <conditionalFormatting sqref="A2:C4 A45:C47 A5:B5 A6:C8 A54:C54 A23:B23 A33:C35 A38:C40 M11:M12 N68:AE70 J68:L70 N83:AE84 J83:L84 L10:M10 A9:F16 A22:F22 D17:F21">
+    <cfRule type="expression" dxfId="366" priority="535">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C4 A55:C55 A47:C47 A5:B5 A6:C8 A23:B23">
-    <cfRule type="expression" dxfId="375" priority="536">
+  <conditionalFormatting sqref="A2:C4 A54:C54 A46:C46 A5:B5 A6:C8 A23:B23">
+    <cfRule type="expression" dxfId="365" priority="536">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A8 A55 A44:A48 A10:A16 A22">
-    <cfRule type="containsText" dxfId="374" priority="540" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="A2:A8 A54 A43:A47 A10:A16 A22">
+    <cfRule type="containsText" dxfId="364" priority="540" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C4 C55 C34:C36 C39:C41 C44:C49 C80:D85 C6:C16 C22">
-    <cfRule type="expression" dxfId="373" priority="541">
+  <conditionalFormatting sqref="C2:C4 C54 C33:C35 C38:C40 C43:C48 C79:D84 C6:C16 C22">
+    <cfRule type="expression" dxfId="363" priority="541">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A8 A55 A44:A48 A10:A16 A22">
-    <cfRule type="cellIs" dxfId="372" priority="542" operator="equal">
+  <conditionalFormatting sqref="A2:A8 A54 A43:A47 A10:A16 A22">
+    <cfRule type="cellIs" dxfId="362" priority="542" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:C55">
+    <cfRule type="containsText" dxfId="361" priority="560" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A55))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:C55">
+    <cfRule type="expression" dxfId="360" priority="561">
+      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:C55">
+    <cfRule type="expression" dxfId="359" priority="562">
+      <formula>AND($A55="end group", $B55 = "", $C55 = "", $E55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "", $O55 = "", $P55 = "", $Q55 = "", $S55 = "", $T55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:C55">
+    <cfRule type="cellIs" dxfId="358" priority="563" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:C55">
+    <cfRule type="cellIs" dxfId="357" priority="564" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:C55">
+    <cfRule type="expression" dxfId="356" priority="565">
+      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:C55">
+    <cfRule type="expression" dxfId="355" priority="566">
+      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $E55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "", $O55 = "", $P55 = "", $Q55 = "", $S55 = "", $T55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="containsText" dxfId="354" priority="567" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A56))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:C56">
+    <cfRule type="expression" dxfId="353" priority="551">
+      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:C56">
+    <cfRule type="expression" dxfId="352" priority="552">
+      <formula>AND($A56="end group", $B56 = "", $C56 = "", $E56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "", $O56 = "", $P56 = "", $Q56 = "", $S56 = "", $T56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:C56">
+    <cfRule type="cellIs" dxfId="351" priority="553" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="350" priority="554">
+      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $C56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56">
+    <cfRule type="expression" dxfId="349" priority="555">
+      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $B56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="cellIs" dxfId="348" priority="556" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:C56">
-    <cfRule type="containsText" dxfId="371" priority="560" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A56))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:C56">
-    <cfRule type="expression" dxfId="370" priority="561">
-      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:C56">
-    <cfRule type="expression" dxfId="369" priority="562">
-      <formula>AND($A56="end group", $B56 = "", $C56 = "", $E56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "", $O56 = "", $P56 = "", $Q56 = "", $S56 = "", $T56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:C56">
-    <cfRule type="cellIs" dxfId="368" priority="563" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:C56">
-    <cfRule type="cellIs" dxfId="367" priority="564" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:C56">
-    <cfRule type="expression" dxfId="366" priority="565">
+    <cfRule type="expression" dxfId="347" priority="558">
       <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:C56">
-    <cfRule type="expression" dxfId="365" priority="566">
+    <cfRule type="expression" dxfId="346" priority="559">
       <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $E56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "", $O56 = "", $P56 = "", $Q56 = "", $S56 = "", $T56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="containsText" dxfId="345" priority="523" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="344" priority="526" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="343" priority="527" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="cellIs" dxfId="342" priority="518" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="expression" dxfId="341" priority="502">
+      <formula>AND($A90="begin group", NOT($B90 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="expression" dxfId="340" priority="503">
+      <formula>AND($A90="end group", $B90 = "", $C90 = "", $E90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "", $O90 = "", $P90 = "", $Q90 = "", $S90 = "", $T90 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="cellIs" dxfId="339" priority="504" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="expression" dxfId="338" priority="505">
+      <formula>AND($A90="begin repeat", NOT($B90 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="expression" dxfId="337" priority="506">
+      <formula>AND($A90="end repeat", $B90 = "", $C90 = "", $E90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "", $O90 = "", $P90 = "", $Q90 = "", $S90 = "", $T90 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="containsText" dxfId="336" priority="507" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A90))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:C47 A45:C45">
+    <cfRule type="expression" dxfId="335" priority="684">
+      <formula>AND($A45="end group", $B45 = "", $C45 = "", #REF! = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "", $O45 = "", $P45 = "", $Q45 = "", $S45 = "", $T45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:C47 A45:C45">
+    <cfRule type="expression" dxfId="334" priority="687">
+      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", #REF! = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "", $O45 = "", $P45 = "", $Q45 = "", $S45 = "", $T45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44 C44">
+    <cfRule type="expression" dxfId="333" priority="713">
+      <formula>AND($A44="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44 C44">
+    <cfRule type="expression" dxfId="332" priority="721">
+      <formula>AND($A44="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="cellIs" dxfId="331" priority="482" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="containsText" dxfId="330" priority="484" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="cellIs" dxfId="329" priority="485" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="expression" dxfId="328" priority="475">
+      <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="expression" dxfId="327" priority="476">
+      <formula>AND($A76="end group", $B76 = "", $C76 = "", $E76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "", $O76 = "", $P76 = "", $Q76 = "", $S76 = "", $T76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="cellIs" dxfId="326" priority="477" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="expression" dxfId="325" priority="478">
+      <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="expression" dxfId="324" priority="479">
+      <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $E76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "", $O76 = "", $P76 = "", $Q76 = "", $S76 = "", $T76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="containsText" dxfId="323" priority="480" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A76))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:A89">
+    <cfRule type="cellIs" dxfId="322" priority="462" operator="equal">
+      <formula>"begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:A89">
+    <cfRule type="cellIs" dxfId="321" priority="463" operator="equal">
+      <formula>"end group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="cellIs" dxfId="320" priority="464" operator="equal">
+      <formula>"begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="cellIs" dxfId="319" priority="465" operator="equal">
+      <formula>"end group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86">
+    <cfRule type="cellIs" dxfId="318" priority="466" operator="equal">
+      <formula>"begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86">
+    <cfRule type="cellIs" dxfId="317" priority="467" operator="equal">
+      <formula>"end group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="316" priority="450">
+      <formula>AND($A5="begin group", NOT($B5 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="315" priority="453">
+      <formula>AND($A5="begin repeat", NOT($B5 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="314" priority="451">
+      <formula>AND($A5="end group", $B5 = "", $C5 = "", $E5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "", $O5 = "", $P5 = "", $Q5 = "", $S5 = "", $T5 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="cellIs" dxfId="313" priority="452" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="312" priority="454">
+      <formula>AND($A5="end repeat", $B5 = "", $C5 = "", $E5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "", $O5 = "", $P5 = "", $Q5 = "", $S5 = "", $T5 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="311" priority="455">
+      <formula>AND(AND(NOT($A5 = "end group"), NOT($A5 = "end repeat"), NOT($A5 = "")), $C5 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="containsText" dxfId="310" priority="440" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:F9">
+    <cfRule type="cellIs" dxfId="309" priority="442" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="308" priority="445" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:C35 A38:C40 M11:M12 L10:M10 A9:F16 A22:F22 D17:F21">
+    <cfRule type="expression" dxfId="307" priority="447">
+      <formula>AND($A9="end group", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:C35 A38:C40 M11:M12 L10:M10 A9:F16 A22:F22 D17:F21">
+    <cfRule type="expression" dxfId="306" priority="448">
+      <formula>AND($A9="end repeat", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:A35">
+    <cfRule type="containsText" dxfId="305" priority="401" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:C35">
+    <cfRule type="cellIs" dxfId="304" priority="403" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:A35">
+    <cfRule type="cellIs" dxfId="303" priority="406" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:A40">
+    <cfRule type="containsText" dxfId="302" priority="385" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:C40">
+    <cfRule type="cellIs" dxfId="301" priority="387" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:A40">
+    <cfRule type="cellIs" dxfId="300" priority="390" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="299" priority="367">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="cellIs" dxfId="298" priority="368" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="297" priority="369">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="296" priority="370">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="295" priority="823">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", #REF! = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="294" priority="824">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", #REF! = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:A52">
+    <cfRule type="containsText" dxfId="293" priority="357" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A49))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:C51 A52:B52">
+    <cfRule type="expression" dxfId="292" priority="358">
+      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:C51 A52:B52">
+    <cfRule type="cellIs" dxfId="291" priority="359" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:C51">
+    <cfRule type="expression" dxfId="290" priority="360">
+      <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $C49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:B52">
+    <cfRule type="expression" dxfId="289" priority="361">
+      <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $B49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:A52">
+    <cfRule type="cellIs" dxfId="288" priority="362" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:C51 A52:B52">
+    <cfRule type="expression" dxfId="287" priority="363">
+      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:C51">
+    <cfRule type="expression" dxfId="286" priority="364">
+      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:C51">
+    <cfRule type="expression" dxfId="285" priority="365">
+      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:B52">
+    <cfRule type="expression" dxfId="284" priority="837">
+      <formula>AND($A52="end group", $B52 = "", #REF! = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:B52">
+    <cfRule type="expression" dxfId="283" priority="838">
+      <formula>AND($A52="end repeat", $B52 = "", #REF! = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="282" priority="853">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="281" priority="854">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="280" priority="855">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="279" priority="856">
+      <formula>AND(#REF!="end group", #REF! = "", $C52 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="278" priority="857">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C52 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="containsText" dxfId="277" priority="347" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A53))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:C53">
+    <cfRule type="expression" dxfId="276" priority="348">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:C53">
+    <cfRule type="cellIs" dxfId="275" priority="349" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="274" priority="350">
+      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" dxfId="273" priority="351">
+      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $B53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="cellIs" dxfId="272" priority="352" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:C53">
+    <cfRule type="expression" dxfId="271" priority="353">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:C53">
+    <cfRule type="expression" dxfId="270" priority="354">
+      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:C53">
+    <cfRule type="expression" dxfId="269" priority="355">
+      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:F51">
+    <cfRule type="expression" dxfId="268" priority="336">
+      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:F51">
+    <cfRule type="cellIs" dxfId="267" priority="337" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:F51">
+    <cfRule type="expression" dxfId="266" priority="338">
+      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:F51">
+    <cfRule type="expression" dxfId="265" priority="339">
+      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:F51">
+    <cfRule type="expression" dxfId="264" priority="340">
+      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49:M51">
+    <cfRule type="expression" dxfId="263" priority="331">
+      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49:M51">
+    <cfRule type="cellIs" dxfId="262" priority="332" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49:M51">
+    <cfRule type="expression" dxfId="261" priority="333">
+      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49:M51">
+    <cfRule type="expression" dxfId="260" priority="334">
+      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49:M51">
+    <cfRule type="expression" dxfId="259" priority="335">
+      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="258" priority="324" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="257" priority="327">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="256" priority="328">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="255" priority="329">
+      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", $E55 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="254" priority="330">
+      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", $E55 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="containsText" dxfId="364" priority="567" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="253" priority="314" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A57))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="363" priority="551">
+    <cfRule type="expression" dxfId="252" priority="315">
       <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="362" priority="552">
-      <formula>AND($A57="end group", $B57 = "", $C57 = "", $E57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "", $O57 = "", $P57 = "", $Q57 = "", $S57 = "", $T57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:C57">
-    <cfRule type="cellIs" dxfId="361" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="316" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="360" priority="554">
+    <cfRule type="expression" dxfId="250" priority="317">
       <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="359" priority="555">
+    <cfRule type="expression" dxfId="249" priority="318">
       <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $B57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" dxfId="358" priority="556" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="319" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="357" priority="558">
+    <cfRule type="expression" dxfId="247" priority="320">
       <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="356" priority="559">
-      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $E57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "", $O57 = "", $P57 = "", $Q57 = "", $S57 = "", $T57 = "")</formula>
+    <cfRule type="expression" dxfId="246" priority="321">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="355" priority="523" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="354" priority="526" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="353" priority="527" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="352" priority="518" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="351" priority="502">
-      <formula>AND($A91="begin group", NOT($B91 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="350" priority="503">
-      <formula>AND($A91="end group", $B91 = "", $C91 = "", $E91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "", $O91 = "", $P91 = "", $Q91 = "", $S91 = "", $T91 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="cellIs" dxfId="349" priority="504" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="348" priority="505">
-      <formula>AND($A91="begin repeat", NOT($B91 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="347" priority="506">
-      <formula>AND($A91="end repeat", $B91 = "", $C91 = "", $E91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "", $O91 = "", $P91 = "", $Q91 = "", $S91 = "", $T91 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="containsText" dxfId="346" priority="507" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A91))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:C48 A46:C46">
-    <cfRule type="expression" dxfId="345" priority="684">
-      <formula>AND($A46="end group", $B46 = "", $C46 = "", #REF! = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "", $O46 = "", $P46 = "", $Q46 = "", $S46 = "", $T46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:C48 A46:C46">
-    <cfRule type="expression" dxfId="344" priority="687">
-      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", #REF! = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "", $O46 = "", $P46 = "", $Q46 = "", $S46 = "", $T46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45 C45">
-    <cfRule type="expression" dxfId="343" priority="713">
-      <formula>AND($A45="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45 C45">
-    <cfRule type="expression" dxfId="342" priority="721">
-      <formula>AND($A45="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" dxfId="341" priority="482" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="containsText" dxfId="340" priority="484" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A49))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" dxfId="339" priority="485" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="expression" dxfId="338" priority="475">
-      <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="expression" dxfId="337" priority="476">
-      <formula>AND($A77="end group", $B77 = "", $C77 = "", $E77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "", $O77 = "", $P77 = "", $Q77 = "", $S77 = "", $T77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="cellIs" dxfId="336" priority="477" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="expression" dxfId="335" priority="478">
-      <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="expression" dxfId="334" priority="479">
-      <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $E77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "", $O77 = "", $P77 = "", $Q77 = "", $S77 = "", $T77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="containsText" dxfId="333" priority="480" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A77))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88:A90">
-    <cfRule type="cellIs" dxfId="332" priority="462" operator="equal">
-      <formula>"begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88:A90">
-    <cfRule type="cellIs" dxfId="331" priority="463" operator="equal">
-      <formula>"end group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A86">
-    <cfRule type="cellIs" dxfId="330" priority="464" operator="equal">
-      <formula>"begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A86">
-    <cfRule type="cellIs" dxfId="329" priority="465" operator="equal">
-      <formula>"end group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
-    <cfRule type="cellIs" dxfId="328" priority="466" operator="equal">
-      <formula>"begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
-    <cfRule type="cellIs" dxfId="327" priority="467" operator="equal">
-      <formula>"end group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="326" priority="450">
-      <formula>AND($A5="begin group", NOT($B5 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="325" priority="453">
-      <formula>AND($A5="begin repeat", NOT($B5 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="324" priority="451">
-      <formula>AND($A5="end group", $B5 = "", $C5 = "", $E5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "", $O5 = "", $P5 = "", $Q5 = "", $S5 = "", $T5 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="323" priority="452" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="322" priority="454">
-      <formula>AND($A5="end repeat", $B5 = "", $C5 = "", $E5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "", $O5 = "", $P5 = "", $Q5 = "", $S5 = "", $T5 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="321" priority="455">
-      <formula>AND(AND(NOT($A5 = "end group"), NOT($A5 = "end repeat"), NOT($A5 = "")), $C5 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="320" priority="440" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:F9">
-    <cfRule type="cellIs" dxfId="319" priority="442" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="318" priority="445" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C36 A39:C41 M11:M12 L10:M10 A9:F16 A22:F22 D17:F21">
-    <cfRule type="expression" dxfId="317" priority="447">
-      <formula>AND($A9="end group", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C36 A39:C41 M11:M12 L10:M10 A9:F16 A22:F22 D17:F21">
-    <cfRule type="expression" dxfId="316" priority="448">
-      <formula>AND($A9="end repeat", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:A36">
-    <cfRule type="containsText" dxfId="315" priority="401" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C36">
-    <cfRule type="cellIs" dxfId="314" priority="403" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:A36">
-    <cfRule type="cellIs" dxfId="313" priority="406" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:A41">
-    <cfRule type="containsText" dxfId="312" priority="385" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:C41">
-    <cfRule type="cellIs" dxfId="311" priority="387" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:A41">
-    <cfRule type="cellIs" dxfId="310" priority="390" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="309" priority="367">
-      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="cellIs" dxfId="308" priority="368" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="307" priority="369">
-      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="306" priority="370">
-      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="305" priority="823">
-      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", #REF! = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="304" priority="824">
-      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", #REF! = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:A53">
-    <cfRule type="containsText" dxfId="303" priority="357" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A50))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:C52 A53:B53">
-    <cfRule type="expression" dxfId="302" priority="358">
-      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:C52 A53:B53">
-    <cfRule type="cellIs" dxfId="301" priority="359" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50:C52">
-    <cfRule type="expression" dxfId="300" priority="360">
-      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B53">
-    <cfRule type="expression" dxfId="299" priority="361">
-      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $B50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:A53">
-    <cfRule type="cellIs" dxfId="298" priority="362" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:C52 A53:B53">
-    <cfRule type="expression" dxfId="297" priority="363">
-      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:C52">
-    <cfRule type="expression" dxfId="296" priority="364">
-      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:C52">
-    <cfRule type="expression" dxfId="295" priority="365">
-      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:B53">
-    <cfRule type="expression" dxfId="294" priority="837">
-      <formula>AND($A53="end group", $B53 = "", #REF! = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:B53">
-    <cfRule type="expression" dxfId="293" priority="838">
-      <formula>AND($A53="end repeat", $B53 = "", #REF! = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="292" priority="853">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="291" priority="854">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="290" priority="855">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="289" priority="856">
-      <formula>AND(#REF!="end group", #REF! = "", $C53 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="288" priority="857">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C53 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="287" priority="347" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A54))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:C54">
-    <cfRule type="expression" dxfId="286" priority="348">
-      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:C54">
-    <cfRule type="cellIs" dxfId="285" priority="349" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="284" priority="350">
-      <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $C54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="283" priority="351">
-      <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $B54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="282" priority="352" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:C54">
-    <cfRule type="expression" dxfId="281" priority="353">
-      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:C54">
-    <cfRule type="expression" dxfId="280" priority="354">
-      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:C54">
-    <cfRule type="expression" dxfId="279" priority="355">
-      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50:F52">
-    <cfRule type="expression" dxfId="278" priority="336">
-      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50:F52">
-    <cfRule type="cellIs" dxfId="277" priority="337" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50:F52">
-    <cfRule type="expression" dxfId="276" priority="338">
-      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50:F52">
-    <cfRule type="expression" dxfId="275" priority="339">
-      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50:F52">
-    <cfRule type="expression" dxfId="274" priority="340">
-      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L50:M52">
-    <cfRule type="expression" dxfId="273" priority="331">
-      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L50:M52">
-    <cfRule type="cellIs" dxfId="272" priority="332" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L50:M52">
-    <cfRule type="expression" dxfId="271" priority="333">
-      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L50:M52">
-    <cfRule type="expression" dxfId="270" priority="334">
-      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L50:M52">
-    <cfRule type="expression" dxfId="269" priority="335">
-      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="268" priority="324" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="267" priority="327">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="266" priority="328">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="265" priority="329">
-      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", $E56 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="264" priority="330">
-      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", $E56 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+  <conditionalFormatting sqref="A57:C57">
+    <cfRule type="expression" dxfId="245" priority="322">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="containsText" dxfId="263" priority="314" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="244" priority="298" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A58))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:C58">
-    <cfRule type="expression" dxfId="262" priority="315">
+    <cfRule type="expression" dxfId="243" priority="299">
       <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:C58">
-    <cfRule type="cellIs" dxfId="261" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="300" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="260" priority="317">
+    <cfRule type="expression" dxfId="241" priority="301">
       <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $C58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="259" priority="318">
+    <cfRule type="expression" dxfId="240" priority="302">
       <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $B58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="cellIs" dxfId="258" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="303" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:C58">
-    <cfRule type="expression" dxfId="257" priority="320">
+    <cfRule type="expression" dxfId="238" priority="304">
       <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:C58">
-    <cfRule type="expression" dxfId="256" priority="321">
+    <cfRule type="expression" dxfId="237" priority="305">
       <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:C58">
-    <cfRule type="expression" dxfId="255" priority="322">
+    <cfRule type="expression" dxfId="236" priority="306">
       <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L10:M10">
+    <cfRule type="cellIs" dxfId="235" priority="289" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:M12">
+    <cfRule type="cellIs" dxfId="234" priority="284" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="expression" dxfId="233" priority="269">
+      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="expression" dxfId="232" priority="270">
+      <formula>AND($A48="end group", $B48 = "", $C48 = "", $E48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $M48 = "", $N48 = "", $O48 = "", $Q48 = "", $R48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="cellIs" dxfId="231" priority="271" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="expression" dxfId="230" priority="272">
+      <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $B48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="expression" dxfId="229" priority="274">
+      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="expression" dxfId="228" priority="275">
+      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $E48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $M48 = "", $N48 = "", $O48 = "", $Q48 = "", $R48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="expression" dxfId="227" priority="263">
+      <formula>AND($A85="begin group", NOT($B85 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="cellIs" dxfId="226" priority="264" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="expression" dxfId="225" priority="265">
+      <formula>AND(AND(NOT($A85 = "end group"), NOT($A85 = "end repeat"), NOT($A85 = "")), $C85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="expression" dxfId="224" priority="266">
+      <formula>AND($A85="begin repeat", NOT($B85 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="expression" dxfId="223" priority="267">
+      <formula>AND($A85="end group", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $M85 = "", $N85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="expression" dxfId="222" priority="268">
+      <formula>AND($A85="end repeat", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $M85 = "", $N85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:A75">
+    <cfRule type="containsText" dxfId="221" priority="251" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A71))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:AE75">
+    <cfRule type="expression" dxfId="220" priority="252">
+      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:AE75">
+    <cfRule type="expression" dxfId="219" priority="253">
+      <formula>AND($A71="end group", $B71 = "", $C71 = "", $E71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $M71 = "", $N71 = "", $O71 = "", $Q71 = "", $R71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:AE75">
+    <cfRule type="cellIs" dxfId="218" priority="254" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M71:M75 M79:M82">
+    <cfRule type="expression" dxfId="217" priority="255">
+      <formula>AND($M71 = "", $A71 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:D75">
+    <cfRule type="expression" dxfId="216" priority="256">
+      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $C71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B75">
+    <cfRule type="expression" dxfId="215" priority="257">
+      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $B71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:A75">
+    <cfRule type="cellIs" dxfId="214" priority="258" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K71:L75 K79:L82">
+    <cfRule type="expression" dxfId="213" priority="260">
+      <formula>AND(NOT($J71 = ""), $K71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:AE75">
+    <cfRule type="expression" dxfId="212" priority="261">
+      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:AE75">
+    <cfRule type="expression" dxfId="211" priority="262">
+      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $E71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $M71 = "", $N71 = "", $O71 = "", $Q71 = "", $R71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:A78">
+    <cfRule type="containsText" dxfId="210" priority="239" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A77))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:AE78">
+    <cfRule type="expression" dxfId="209" priority="240">
+      <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:AE78">
+    <cfRule type="expression" dxfId="208" priority="241">
+      <formula>AND($A77="end group", $B77 = "", $C77 = "", $E77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $M77 = "", $N77 = "", $O77 = "", $Q77 = "", $R77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:AE78">
+    <cfRule type="cellIs" dxfId="207" priority="242" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M77:M78">
+    <cfRule type="expression" dxfId="206" priority="243">
+      <formula>AND($M77 = "", $A77 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77:D78">
+    <cfRule type="expression" dxfId="205" priority="244">
+      <formula>AND(AND(NOT($A77 = "end group"), NOT($A77 = "end repeat"), NOT($A77 = "")), $C77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77:B78">
+    <cfRule type="expression" dxfId="204" priority="245">
+      <formula>AND(AND(NOT($A77 = "end group"), NOT($A77 = "end repeat"), NOT($A77 = "")), $B77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:A78">
+    <cfRule type="cellIs" dxfId="203" priority="246" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K77:L78">
+    <cfRule type="expression" dxfId="202" priority="248">
+      <formula>AND(NOT($J77 = ""), $K77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:AE78">
+    <cfRule type="expression" dxfId="201" priority="249">
+      <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:AE78">
+    <cfRule type="expression" dxfId="200" priority="250">
+      <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $E77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $M77 = "", $N77 = "", $O77 = "", $Q77 = "", $R77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79:A84">
+    <cfRule type="containsText" dxfId="199" priority="227" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A79))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:I84 A79:AE82">
+    <cfRule type="expression" dxfId="198" priority="228">
+      <formula>AND($A79="begin group", NOT($B79 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79:AE82">
+    <cfRule type="expression" dxfId="197" priority="229">
+      <formula>AND($A79="end group", $B79 = "", $C79 = "", $E79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $M79 = "", $N79 = "", $O79 = "", $Q79 = "", $R79 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:I84 A79:AE82">
+    <cfRule type="cellIs" dxfId="196" priority="230" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79:A84">
+    <cfRule type="cellIs" dxfId="195" priority="234" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:I84 A79:AE82">
+    <cfRule type="expression" dxfId="194" priority="237">
+      <formula>AND($A79="begin repeat", NOT($B79 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79:AE82">
+    <cfRule type="expression" dxfId="193" priority="238">
+      <formula>AND($A79="end repeat", $B79 = "", $C79 = "", $E79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $M79 = "", $N79 = "", $O79 = "", $Q79 = "", $R79 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B75">
+    <cfRule type="expression" dxfId="192" priority="935">
+      <formula>COUNTIF($B$2:$B$1141,B71)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="191" priority="954">
+      <formula>AND(#REF!="begin group", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="190" priority="957">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="189" priority="958">
+      <formula>AND(#REF!="begin repeat", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="188" priority="961">
+      <formula>AND(#REF!="end group", $B44 = "", #REF! = "", $E46 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44 C44">
+    <cfRule type="expression" dxfId="187" priority="962">
+      <formula>AND($A44="end group", #REF! = "", $C44 = "", $E45 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "", $O44 = "", $P44 = "", $Q44 = "", $S44 = "", $T44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="186" priority="964">
+      <formula>AND(#REF!="end repeat", $B44 = "", #REF! = "", $E46 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44 C44">
+    <cfRule type="expression" dxfId="185" priority="965">
+      <formula>AND($A44="end repeat", #REF! = "", $C44 = "", $E45 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "", $O44 = "", $P44 = "", $Q44 = "", $S44 = "", $T44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43 C43">
+    <cfRule type="expression" dxfId="184" priority="967">
+      <formula>AND($A43="begin group", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43 C43">
+    <cfRule type="expression" dxfId="183" priority="969">
+      <formula>AND($A43="end group", $B48 = "", $C43 = "", $E43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "", $O43 = "", $P43 = "", $Q43 = "", $S43 = "", $T43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43 C43">
+    <cfRule type="expression" dxfId="182" priority="971">
+      <formula>AND($A43="begin repeat", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43 C43">
+    <cfRule type="expression" dxfId="181" priority="973">
+      <formula>AND($A43="end repeat", $B48 = "", $C43 = "", $E43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "", $O43 = "", $P43 = "", $Q43 = "", $S43 = "", $T43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48 A48">
+    <cfRule type="expression" dxfId="180" priority="975">
+      <formula>AND($A48="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48 A48">
+    <cfRule type="expression" dxfId="179" priority="977">
+      <formula>AND($A48="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="178" priority="979">
+      <formula>AND($A48="end group", $B43 = "", $C48 = "", #REF! = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "", $O48 = "", $P48 = "", $Q48 = "", $S48 = "", $T48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48 A48">
+    <cfRule type="expression" dxfId="177" priority="980">
+      <formula>AND($A48="end repeat", $B43 = "", $C48 = "", #REF! = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "", $O48 = "", $P48 = "", $Q48 = "", $S48 = "", $T48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="expression" dxfId="176" priority="981">
+      <formula>AND($A48="end group", $B43 = "", $C48 = "", #REF! = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "", $O48 = "", $P48 = "", $Q48 = "", $S48 = "", $T48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="175" priority="983">
+      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E43 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $M55 = "", $N55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="174" priority="984">
+      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E43 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $M55 = "", $N55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="containsText" dxfId="173" priority="215" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A67))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:AE67">
+    <cfRule type="expression" dxfId="172" priority="216">
+      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:AE67">
+    <cfRule type="expression" dxfId="171" priority="217">
+      <formula>AND($A67="end group", $B67 = "", $C67 = "", $E67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $M67 = "", $N67 = "", $O67 = "", $Q67 = "", $R67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:AE67">
+    <cfRule type="cellIs" dxfId="170" priority="218" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M67">
+    <cfRule type="expression" dxfId="169" priority="219">
+      <formula>AND($M67 = "", $A67 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67:D67">
+    <cfRule type="expression" dxfId="168" priority="220">
+      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $C67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="expression" dxfId="167" priority="221">
+      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $B67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="cellIs" dxfId="166" priority="222" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67:L67">
+    <cfRule type="expression" dxfId="165" priority="224">
+      <formula>AND(NOT($J67 = ""), $K67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:AE67">
+    <cfRule type="expression" dxfId="164" priority="225">
+      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:AE67">
+    <cfRule type="expression" dxfId="163" priority="226">
+      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $E67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $M67 = "", $N67 = "", $O67 = "", $Q67 = "", $R67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="containsText" dxfId="162" priority="203" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A68))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:I68 D69:I70">
+    <cfRule type="expression" dxfId="161" priority="204">
+      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:I68 D69:I70">
+    <cfRule type="cellIs" dxfId="160" priority="206" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:D68 D69:D70">
+    <cfRule type="expression" dxfId="159" priority="208">
+      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $C68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="expression" dxfId="158" priority="209">
+      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $B68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="cellIs" dxfId="157" priority="210" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:I68 D69:I70">
+    <cfRule type="expression" dxfId="156" priority="213">
+      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N68:AE70 A68:L68 D69:L70 N83:AE84 A83:L84">
+    <cfRule type="expression" dxfId="155" priority="999">
+      <formula>AND($A68="end group", $B68 = "", $C68 = "", $E68 = "", $H68 = "", $I68 = "", #REF! = "", $K68 = "", $J68 = "", $N68 = "", $O68 = "", $Q68 = "", $R68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68:J70 J83:J84">
+    <cfRule type="expression" dxfId="154" priority="1005">
+      <formula>AND($J68 = "", $A68 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68:L70 K83:L84">
+    <cfRule type="expression" dxfId="153" priority="1006">
+      <formula>AND(NOT(#REF! = ""), $K68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N68:AE70 A68:L68 D69:L70 N83:AE84 A83:L84">
+    <cfRule type="expression" dxfId="152" priority="1009">
+      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $E68 = "", $H68 = "", $I68 = "", #REF! = "", $K68 = "", $J68 = "", $N68 = "", $O68 = "", $Q68 = "", $R68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:A70">
+    <cfRule type="containsText" dxfId="151" priority="193" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A69))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:C70">
+    <cfRule type="expression" dxfId="150" priority="194">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:C70">
+    <cfRule type="expression" dxfId="149" priority="195">
+      <formula>AND($A69="end group", $B69 = "", $C69 = "", $E69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $M69 = "", $N69 = "", $O69 = "", $Q69 = "", $R69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:C70">
+    <cfRule type="cellIs" dxfId="148" priority="196" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69:C70">
+    <cfRule type="expression" dxfId="147" priority="197">
+      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $C69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:B70">
+    <cfRule type="expression" dxfId="146" priority="198">
+      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $B69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:A70">
+    <cfRule type="cellIs" dxfId="145" priority="199" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:C70">
+    <cfRule type="expression" dxfId="144" priority="201">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:C70">
+    <cfRule type="expression" dxfId="143" priority="202">
+      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $E69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $M69 = "", $N69 = "", $O69 = "", $Q69 = "", $R69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57 B48">
+    <cfRule type="expression" dxfId="142" priority="1022">
+      <formula>COUNTIF($B$2:$B$1146,B48)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77:B78">
+    <cfRule type="expression" dxfId="141" priority="1033">
+      <formula>COUNTIF($B$2:$B$1140,B77)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79:B84 B67">
+    <cfRule type="expression" dxfId="140" priority="1034">
+      <formula>COUNTIF($B$2:$B$1132,B67)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58 B23">
+    <cfRule type="expression" dxfId="139" priority="1046">
+      <formula>COUNTIF($B$2:$B$1145,B23)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="expression" dxfId="138" priority="1049">
+      <formula>COUNTIF($B$2:$B$1130,B68)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:B70 B65">
+    <cfRule type="expression" dxfId="137" priority="1050">
+      <formula>COUNTIF($B$2:$B$1128,B65)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="containsText" dxfId="136" priority="183" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A66))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:C66">
+    <cfRule type="expression" dxfId="135" priority="184">
+      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:C66">
+    <cfRule type="expression" dxfId="134" priority="185">
+      <formula>AND($A66="end group", $B66 = "", $C66 = "", $E66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "", $O66 = "", $Q66 = "", $R66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:C66">
+    <cfRule type="cellIs" dxfId="133" priority="186" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="132" priority="187">
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" dxfId="131" priority="188">
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="cellIs" dxfId="130" priority="189" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" dxfId="129" priority="190">
+      <formula>COUNTIF($B$2:$B$1129,B66)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:C66">
+    <cfRule type="expression" dxfId="128" priority="191">
+      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:C66">
+    <cfRule type="expression" dxfId="127" priority="192">
+      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $E66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "", $O66 = "", $Q66 = "", $R66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66">
+    <cfRule type="expression" dxfId="126" priority="171">
+      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66">
+    <cfRule type="expression" dxfId="125" priority="172">
+      <formula>AND($A66="end group", $B66 = "", $C66 = "", $E66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "", $O66 = "", $Q66 = "", $R66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66">
+    <cfRule type="cellIs" dxfId="124" priority="173" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66">
+    <cfRule type="expression" dxfId="123" priority="174">
+      <formula>AND($M66 = "", $A66 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66">
+    <cfRule type="expression" dxfId="122" priority="175">
+      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66">
+    <cfRule type="expression" dxfId="121" priority="176">
+      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $E66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "", $O66 = "", $Q66 = "", $R66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="containsText" dxfId="120" priority="161" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A65))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:C65">
+    <cfRule type="expression" dxfId="119" priority="162">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:C65">
+    <cfRule type="expression" dxfId="118" priority="163">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $E65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $M65 = "", $N65 = "", $O65 = "", $Q65 = "", $R65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:C65">
+    <cfRule type="cellIs" dxfId="117" priority="164" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="116" priority="165">
+      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" dxfId="115" priority="166">
+      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $B65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="cellIs" dxfId="114" priority="167" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:C65">
+    <cfRule type="expression" dxfId="113" priority="169">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:C65">
+    <cfRule type="expression" dxfId="112" priority="170">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $E65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $M65 = "", $N65 = "", $O65 = "", $Q65 = "", $R65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J65">
+    <cfRule type="expression" dxfId="111" priority="149">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J65">
+    <cfRule type="expression" dxfId="110" priority="150">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $E65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $M65 = "", $N65 = "", $O65 = "", $Q65 = "", $R65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J65">
+    <cfRule type="cellIs" dxfId="109" priority="151" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J65">
+    <cfRule type="expression" dxfId="108" priority="152">
+      <formula>AND($M65 = "", $A65 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J65">
+    <cfRule type="expression" dxfId="107" priority="153">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J65">
+    <cfRule type="expression" dxfId="106" priority="154">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $E65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $M65 = "", $N65 = "", $O65 = "", $Q65 = "", $R65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="containsText" dxfId="105" priority="139" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A64))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:C64">
+    <cfRule type="expression" dxfId="104" priority="140">
+      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:C64">
+    <cfRule type="expression" dxfId="103" priority="141">
+      <formula>AND($A64="end group", $B64 = "", $C64 = "", $E64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $M64 = "", $N64 = "", $O64 = "", $Q64 = "", $R64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:C64">
+    <cfRule type="cellIs" dxfId="102" priority="142" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="101" priority="143">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="expression" dxfId="100" priority="144">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $B64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="cellIs" dxfId="99" priority="145" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="expression" dxfId="98" priority="146">
+      <formula>COUNTIF($B$2:$B$1127,B64)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:C64">
+    <cfRule type="expression" dxfId="97" priority="147">
+      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:C64">
+    <cfRule type="expression" dxfId="96" priority="148">
+      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $E64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $M64 = "", $N64 = "", $O64 = "", $Q64 = "", $R64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64">
+    <cfRule type="expression" dxfId="95" priority="127">
+      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64">
+    <cfRule type="expression" dxfId="94" priority="128">
+      <formula>AND($A64="end group", $B64 = "", $C64 = "", $E64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $M64 = "", $N64 = "", $O64 = "", $Q64 = "", $R64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64">
+    <cfRule type="cellIs" dxfId="93" priority="129" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64">
+    <cfRule type="expression" dxfId="92" priority="130">
+      <formula>AND($M64 = "", $A64 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64">
+    <cfRule type="expression" dxfId="91" priority="131">
+      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64">
+    <cfRule type="expression" dxfId="90" priority="132">
+      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $E64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $M64 = "", $N64 = "", $O64 = "", $Q64 = "", $R64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="containsText" dxfId="89" priority="117" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A63))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:C63">
+    <cfRule type="expression" dxfId="88" priority="118">
+      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:C63">
+    <cfRule type="expression" dxfId="87" priority="119">
+      <formula>AND($A63="end group", $B63 = "", $C63 = "", $E63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $M63 = "", $N63 = "", $O63 = "", $Q63 = "", $R63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:C63">
+    <cfRule type="cellIs" dxfId="86" priority="120" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="85" priority="121">
+      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $C63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="84" priority="122">
+      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $B63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="cellIs" dxfId="83" priority="123" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="82" priority="124">
+      <formula>COUNTIF($B$2:$B$1126,B63)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:C63">
+    <cfRule type="expression" dxfId="81" priority="125">
+      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:C63">
+    <cfRule type="expression" dxfId="80" priority="126">
+      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $E63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $M63 = "", $N63 = "", $O63 = "", $Q63 = "", $R63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J63">
+    <cfRule type="expression" dxfId="79" priority="105">
+      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J63">
+    <cfRule type="expression" dxfId="78" priority="106">
+      <formula>AND($A63="end group", $B63 = "", $C63 = "", $E63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $M63 = "", $N63 = "", $O63 = "", $Q63 = "", $R63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J63">
+    <cfRule type="cellIs" dxfId="77" priority="107" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J63">
+    <cfRule type="expression" dxfId="76" priority="108">
+      <formula>AND($M63 = "", $A63 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J63">
+    <cfRule type="expression" dxfId="75" priority="109">
+      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J63">
+    <cfRule type="expression" dxfId="74" priority="110">
+      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $E63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $M63 = "", $N63 = "", $O63 = "", $Q63 = "", $R63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="containsText" dxfId="73" priority="95" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A62))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:C62">
+    <cfRule type="expression" dxfId="72" priority="96">
+      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:C62">
+    <cfRule type="expression" dxfId="71" priority="97">
+      <formula>AND($A62="end group", $B62 = "", $C62 = "", $E62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $M62 = "", $N62 = "", $O62 = "", $Q62 = "", $R62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:C62">
+    <cfRule type="cellIs" dxfId="70" priority="98" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="69" priority="99">
+      <formula>AND(AND(NOT($A62 = "end group"), NOT($A62 = "end repeat"), NOT($A62 = "")), $C62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="expression" dxfId="68" priority="100">
+      <formula>AND(AND(NOT($A62 = "end group"), NOT($A62 = "end repeat"), NOT($A62 = "")), $B62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="cellIs" dxfId="67" priority="101" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="expression" dxfId="66" priority="102">
+      <formula>COUNTIF($B$2:$B$1125,B62)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:C62">
+    <cfRule type="expression" dxfId="65" priority="103">
+      <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:C62">
+    <cfRule type="expression" dxfId="64" priority="104">
+      <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $E62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $M62 = "", $N62 = "", $O62 = "", $Q62 = "", $R62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J62">
+    <cfRule type="expression" dxfId="63" priority="83">
+      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J62">
+    <cfRule type="expression" dxfId="62" priority="84">
+      <formula>AND($A62="end group", $B62 = "", $C62 = "", $E62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $M62 = "", $N62 = "", $O62 = "", $Q62 = "", $R62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J62">
+    <cfRule type="cellIs" dxfId="61" priority="85" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J62">
+    <cfRule type="expression" dxfId="60" priority="86">
+      <formula>AND($M62 = "", $A62 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J62">
+    <cfRule type="expression" dxfId="59" priority="87">
+      <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J62">
+    <cfRule type="expression" dxfId="58" priority="88">
+      <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $E62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $M62 = "", $N62 = "", $O62 = "", $Q62 = "", $R62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="containsText" dxfId="57" priority="73" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A61))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:C61">
+    <cfRule type="expression" dxfId="56" priority="74">
+      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:C61">
+    <cfRule type="expression" dxfId="55" priority="75">
+      <formula>AND($A61="end group", $B61 = "", $C61 = "", $E61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $M61 = "", $N61 = "", $O61 = "", $Q61 = "", $R61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:C61">
+    <cfRule type="cellIs" dxfId="54" priority="76" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="53" priority="77">
+      <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $C61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="expression" dxfId="52" priority="78">
+      <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $B61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="cellIs" dxfId="51" priority="79" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="expression" dxfId="50" priority="80">
+      <formula>COUNTIF($B$2:$B$1124,B61)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:C61">
+    <cfRule type="expression" dxfId="49" priority="81">
+      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:C61">
+    <cfRule type="expression" dxfId="48" priority="82">
+      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $E61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $M61 = "", $N61 = "", $O61 = "", $Q61 = "", $R61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="containsText" dxfId="47" priority="63" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A60))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:C60">
+    <cfRule type="expression" dxfId="46" priority="64">
+      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:C60">
+    <cfRule type="expression" dxfId="45" priority="65">
+      <formula>AND($A60="end group", $B60 = "", $C60 = "", $E60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $M60 = "", $N60 = "", $O60 = "", $Q60 = "", $R60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:C60">
+    <cfRule type="cellIs" dxfId="44" priority="66" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="43" priority="67">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" dxfId="42" priority="68">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="cellIs" dxfId="41" priority="69" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" dxfId="40" priority="70">
+      <formula>COUNTIF($B$2:$B$1123,B60)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:C60">
+    <cfRule type="expression" dxfId="39" priority="71">
+      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:C60">
+    <cfRule type="expression" dxfId="38" priority="72">
+      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $E60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $M60 = "", $N60 = "", $O60 = "", $Q60 = "", $R60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="containsText" dxfId="254" priority="298" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="37" priority="53" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A59))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:C59">
-    <cfRule type="expression" dxfId="253" priority="299">
+    <cfRule type="expression" dxfId="36" priority="54">
       <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:C59">
-    <cfRule type="cellIs" dxfId="252" priority="300" operator="equal">
+    <cfRule type="expression" dxfId="35" priority="55">
+      <formula>AND($A59="end group", $B59 = "", $C59 = "", $E59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $M59 = "", $N59 = "", $O59 = "", $Q59 = "", $R59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:C59">
+    <cfRule type="cellIs" dxfId="34" priority="56" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="251" priority="301">
+    <cfRule type="expression" dxfId="33" priority="57">
       <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $C59 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="250" priority="302">
+    <cfRule type="expression" dxfId="32" priority="58">
       <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $B59 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="cellIs" dxfId="249" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="59" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
+    <cfRule type="expression" dxfId="30" priority="60">
+      <formula>COUNTIF($B$2:$B$1122,B59)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A59:C59">
-    <cfRule type="expression" dxfId="248" priority="304">
+    <cfRule type="expression" dxfId="29" priority="61">
       <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:C59">
-    <cfRule type="expression" dxfId="247" priority="305">
-      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $M59 = "", $N59 = "")</formula>
+    <cfRule type="expression" dxfId="28" priority="62">
+      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $E59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $M59 = "", $N59 = "", $O59 = "", $Q59 = "", $R59 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59:C59">
-    <cfRule type="expression" dxfId="246" priority="306">
-      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $M59 = "", $N59 = "")</formula>
+  <conditionalFormatting sqref="B49:B53">
+    <cfRule type="expression" dxfId="27" priority="1056">
+      <formula>COUNTIF($B$2:$B$1029,B49)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10:M10">
-    <cfRule type="cellIs" dxfId="245" priority="289" operator="equal">
+  <conditionalFormatting sqref="B56 B44:B47 B54">
+    <cfRule type="expression" dxfId="26" priority="1057">
+      <formula>COUNTIF($B$24:$B$1152,B44)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43 B38:B40">
+    <cfRule type="expression" dxfId="25" priority="1060">
+      <formula>COUNTIF($B$2:$B$1033,B38)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:B35">
+    <cfRule type="expression" dxfId="24" priority="1065">
+      <formula>COUNTIF($B$2:$B$1036,B33)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="expression" dxfId="23" priority="48">
+      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="expression" dxfId="22" priority="49">
+      <formula>AND($A59="end group", $B59 = "", $C59 = "", $E59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $M59 = "", $N59 = "", $O59 = "", $Q59 = "", $R59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="21" priority="50" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M12">
-    <cfRule type="cellIs" dxfId="244" priority="284" operator="equal">
-      <formula>"note"</formula>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="expression" dxfId="20" priority="51">
+      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="243" priority="269">
-      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="242" priority="270">
-      <formula>AND($A49="end group", $B49 = "", $C49 = "", $E49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $M49 = "", $N49 = "", $O49 = "", $Q49 = "", $R49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="cellIs" dxfId="241" priority="271" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="240" priority="272">
-      <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $B49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="239" priority="274">
-      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="238" priority="275">
-      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $E49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $M49 = "", $N49 = "", $O49 = "", $Q49 = "", $R49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
-    <cfRule type="expression" dxfId="237" priority="263">
-      <formula>AND($A86="begin group", NOT($B86 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
-    <cfRule type="cellIs" dxfId="236" priority="264" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
-    <cfRule type="expression" dxfId="235" priority="265">
-      <formula>AND(AND(NOT($A86 = "end group"), NOT($A86 = "end repeat"), NOT($A86 = "")), $C86 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
-    <cfRule type="expression" dxfId="234" priority="266">
-      <formula>AND($A86="begin repeat", NOT($B86 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
-    <cfRule type="expression" dxfId="233" priority="267">
-      <formula>AND($A86="end group", $B86 = "", $C86 = "", $D86 = "", $E86 = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $M86 = "", $N86 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
-    <cfRule type="expression" dxfId="232" priority="268">
-      <formula>AND($A86="end repeat", $B86 = "", $C86 = "", $D86 = "", $E86 = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $M86 = "", $N86 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A76">
-    <cfRule type="containsText" dxfId="231" priority="251" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A72))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:AE76">
-    <cfRule type="expression" dxfId="230" priority="252">
-      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:AE76">
-    <cfRule type="expression" dxfId="229" priority="253">
-      <formula>AND($A72="end group", $B72 = "", $C72 = "", $E72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $M72 = "", $N72 = "", $O72 = "", $Q72 = "", $R72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:AE76">
-    <cfRule type="cellIs" dxfId="228" priority="254" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M72:M76 M80:M83">
-    <cfRule type="expression" dxfId="227" priority="255">
-      <formula>AND($M72 = "", $A72 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72:D76">
-    <cfRule type="expression" dxfId="226" priority="256">
-      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $C72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B76">
-    <cfRule type="expression" dxfId="225" priority="257">
-      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $B72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A76">
-    <cfRule type="cellIs" dxfId="224" priority="258" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K72:L76 K80:L83">
-    <cfRule type="expression" dxfId="223" priority="260">
-      <formula>AND(NOT($J72 = ""), $K72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:AE76">
-    <cfRule type="expression" dxfId="222" priority="261">
-      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:AE76">
-    <cfRule type="expression" dxfId="221" priority="262">
-      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $E72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $M72 = "", $N72 = "", $O72 = "", $Q72 = "", $R72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:A79">
-    <cfRule type="containsText" dxfId="220" priority="239" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A78))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:AE79">
-    <cfRule type="expression" dxfId="219" priority="240">
-      <formula>AND($A78="begin group", NOT($B78 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:AE79">
-    <cfRule type="expression" dxfId="218" priority="241">
-      <formula>AND($A78="end group", $B78 = "", $C78 = "", $E78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $M78 = "", $N78 = "", $O78 = "", $Q78 = "", $R78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:AE79">
-    <cfRule type="cellIs" dxfId="217" priority="242" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M78:M79">
-    <cfRule type="expression" dxfId="216" priority="243">
-      <formula>AND($M78 = "", $A78 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78:D79">
-    <cfRule type="expression" dxfId="215" priority="244">
-      <formula>AND(AND(NOT($A78 = "end group"), NOT($A78 = "end repeat"), NOT($A78 = "")), $C78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78:B79">
-    <cfRule type="expression" dxfId="214" priority="245">
-      <formula>AND(AND(NOT($A78 = "end group"), NOT($A78 = "end repeat"), NOT($A78 = "")), $B78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:A79">
-    <cfRule type="cellIs" dxfId="213" priority="246" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K78:L79">
-    <cfRule type="expression" dxfId="212" priority="248">
-      <formula>AND(NOT($J78 = ""), $K78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:AE79">
-    <cfRule type="expression" dxfId="211" priority="249">
-      <formula>AND($A78="begin repeat", NOT($B78 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:AE79">
-    <cfRule type="expression" dxfId="210" priority="250">
-      <formula>AND($A78="end repeat", $B78 = "", $C78 = "", $E78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $M78 = "", $N78 = "", $O78 = "", $Q78 = "", $R78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80:A85">
-    <cfRule type="containsText" dxfId="209" priority="227" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A80))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84:I85 A80:AE83">
-    <cfRule type="expression" dxfId="208" priority="228">
-      <formula>AND($A80="begin group", NOT($B80 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80:AE83">
-    <cfRule type="expression" dxfId="207" priority="229">
-      <formula>AND($A80="end group", $B80 = "", $C80 = "", $E80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $M80 = "", $N80 = "", $O80 = "", $Q80 = "", $R80 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84:I85 A80:AE83">
-    <cfRule type="cellIs" dxfId="206" priority="230" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80:A85">
-    <cfRule type="cellIs" dxfId="205" priority="234" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84:I85 A80:AE83">
-    <cfRule type="expression" dxfId="204" priority="237">
-      <formula>AND($A80="begin repeat", NOT($B80 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80:AE83">
-    <cfRule type="expression" dxfId="203" priority="238">
-      <formula>AND($A80="end repeat", $B80 = "", $C80 = "", $E80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $M80 = "", $N80 = "", $O80 = "", $Q80 = "", $R80 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B76">
-    <cfRule type="expression" dxfId="202" priority="935">
-      <formula>COUNTIF($B$2:$B$1142,B72)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="201" priority="954">
-      <formula>AND(#REF!="begin group", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="200" priority="957">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="199" priority="958">
-      <formula>AND(#REF!="begin repeat", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="198" priority="961">
-      <formula>AND(#REF!="end group", $B45 = "", #REF! = "", $E47 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45 C45">
-    <cfRule type="expression" dxfId="197" priority="962">
-      <formula>AND($A45="end group", #REF! = "", $C45 = "", $E46 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "", $O45 = "", $P45 = "", $Q45 = "", $S45 = "", $T45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="196" priority="964">
-      <formula>AND(#REF!="end repeat", $B45 = "", #REF! = "", $E47 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45 C45">
-    <cfRule type="expression" dxfId="195" priority="965">
-      <formula>AND($A45="end repeat", #REF! = "", $C45 = "", $E46 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "", $O45 = "", $P45 = "", $Q45 = "", $S45 = "", $T45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44 C44">
-    <cfRule type="expression" dxfId="194" priority="967">
-      <formula>AND($A44="begin group", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44 C44">
-    <cfRule type="expression" dxfId="193" priority="969">
-      <formula>AND($A44="end group", $B49 = "", $C44 = "", $E44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "", $O44 = "", $P44 = "", $Q44 = "", $S44 = "", $T44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44 C44">
-    <cfRule type="expression" dxfId="192" priority="971">
-      <formula>AND($A44="begin repeat", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44 C44">
-    <cfRule type="expression" dxfId="191" priority="973">
-      <formula>AND($A44="end repeat", $B49 = "", $C44 = "", $E44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "", $O44 = "", $P44 = "", $Q44 = "", $S44 = "", $T44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49 A49">
-    <cfRule type="expression" dxfId="190" priority="975">
-      <formula>AND($A49="begin group", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49 A49">
-    <cfRule type="expression" dxfId="189" priority="977">
-      <formula>AND($A49="begin repeat", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="188" priority="979">
-      <formula>AND($A49="end group", $B44 = "", $C49 = "", #REF! = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49 A49">
-    <cfRule type="expression" dxfId="187" priority="980">
-      <formula>AND($A49="end repeat", $B44 = "", $C49 = "", #REF! = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="expression" dxfId="186" priority="981">
-      <formula>AND($A49="end group", $B44 = "", $C49 = "", #REF! = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="185" priority="983">
-      <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E44 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $M56 = "", $N56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="184" priority="984">
-      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E44 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $M56 = "", $N56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="containsText" dxfId="183" priority="215" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A68))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:AE68">
-    <cfRule type="expression" dxfId="182" priority="216">
-      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:AE68">
-    <cfRule type="expression" dxfId="181" priority="217">
-      <formula>AND($A68="end group", $B68 = "", $C68 = "", $E68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $M68 = "", $N68 = "", $O68 = "", $Q68 = "", $R68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:AE68">
-    <cfRule type="cellIs" dxfId="180" priority="218" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M68">
-    <cfRule type="expression" dxfId="179" priority="219">
-      <formula>AND($M68 = "", $A68 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68:D68">
-    <cfRule type="expression" dxfId="178" priority="220">
-      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $C68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="expression" dxfId="177" priority="221">
-      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $B68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="cellIs" dxfId="176" priority="222" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K68:L68">
-    <cfRule type="expression" dxfId="175" priority="224">
-      <formula>AND(NOT($J68 = ""), $K68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:AE68">
-    <cfRule type="expression" dxfId="174" priority="225">
-      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:AE68">
-    <cfRule type="expression" dxfId="173" priority="226">
-      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $E68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $M68 = "", $N68 = "", $O68 = "", $Q68 = "", $R68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="containsText" dxfId="172" priority="203" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A69))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:I69 D70:I71">
-    <cfRule type="expression" dxfId="171" priority="204">
-      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:I69 D70:I71">
-    <cfRule type="cellIs" dxfId="170" priority="206" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69:D69 D70:D71">
-    <cfRule type="expression" dxfId="169" priority="208">
-      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $C69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="expression" dxfId="168" priority="209">
-      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $B69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="cellIs" dxfId="167" priority="210" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:I69 D70:I71">
-    <cfRule type="expression" dxfId="166" priority="213">
-      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N69:AE71 A69:L69 D70:L71 N84:AE85 A84:L85">
-    <cfRule type="expression" dxfId="165" priority="999">
-      <formula>AND($A69="end group", $B69 = "", $C69 = "", $E69 = "", $H69 = "", $I69 = "", #REF! = "", $K69 = "", $J69 = "", $N69 = "", $O69 = "", $Q69 = "", $R69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69:J71 J84:J85">
-    <cfRule type="expression" dxfId="164" priority="1005">
-      <formula>AND($J69 = "", $A69 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K69:L71 K84:L85">
-    <cfRule type="expression" dxfId="163" priority="1006">
-      <formula>AND(NOT(#REF! = ""), $K69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N69:AE71 A69:L69 D70:L71 N84:AE85 A84:L85">
-    <cfRule type="expression" dxfId="162" priority="1009">
-      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $E69 = "", $H69 = "", $I69 = "", #REF! = "", $K69 = "", $J69 = "", $N69 = "", $O69 = "", $Q69 = "", $R69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:A71">
-    <cfRule type="containsText" dxfId="161" priority="193" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A70))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:C71">
-    <cfRule type="expression" dxfId="160" priority="194">
-      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:C71">
-    <cfRule type="expression" dxfId="159" priority="195">
-      <formula>AND($A70="end group", $B70 = "", $C70 = "", $E70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $M70 = "", $N70 = "", $O70 = "", $Q70 = "", $R70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:C71">
-    <cfRule type="cellIs" dxfId="158" priority="196" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70:C71">
-    <cfRule type="expression" dxfId="157" priority="197">
-      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $C70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B71">
-    <cfRule type="expression" dxfId="156" priority="198">
-      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $B70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:A71">
-    <cfRule type="cellIs" dxfId="155" priority="199" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:C71">
-    <cfRule type="expression" dxfId="154" priority="201">
-      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:C71">
-    <cfRule type="expression" dxfId="153" priority="202">
-      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $E70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $M70 = "", $N70 = "", $O70 = "", $Q70 = "", $R70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58 B49">
-    <cfRule type="expression" dxfId="152" priority="1022">
-      <formula>COUNTIF($B$2:$B$1147,B49)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78:B79">
-    <cfRule type="expression" dxfId="151" priority="1033">
-      <formula>COUNTIF($B$2:$B$1141,B78)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80:B85 B68">
-    <cfRule type="expression" dxfId="150" priority="1034">
-      <formula>COUNTIF($B$2:$B$1133,B68)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59 B23">
-    <cfRule type="expression" dxfId="149" priority="1046">
-      <formula>COUNTIF($B$2:$B$1146,B23)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="expression" dxfId="148" priority="1049">
-      <formula>COUNTIF($B$2:$B$1131,B69)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B71 B66">
-    <cfRule type="expression" dxfId="147" priority="1050">
-      <formula>COUNTIF($B$2:$B$1129,B66)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="containsText" dxfId="146" priority="183" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A67))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:C67">
-    <cfRule type="expression" dxfId="145" priority="184">
-      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:C67">
-    <cfRule type="expression" dxfId="144" priority="185">
-      <formula>AND($A67="end group", $B67 = "", $C67 = "", $E67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $M67 = "", $N67 = "", $O67 = "", $Q67 = "", $R67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:C67">
-    <cfRule type="cellIs" dxfId="143" priority="186" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="142" priority="187">
-      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $C67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="141" priority="188">
-      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $B67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="cellIs" dxfId="140" priority="189" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="139" priority="190">
-      <formula>COUNTIF($B$2:$B$1130,B67)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:C67">
-    <cfRule type="expression" dxfId="138" priority="191">
-      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:C67">
-    <cfRule type="expression" dxfId="137" priority="192">
-      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $E67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $M67 = "", $N67 = "", $O67 = "", $Q67 = "", $R67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
-    <cfRule type="expression" dxfId="136" priority="171">
-      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
-    <cfRule type="expression" dxfId="135" priority="172">
-      <formula>AND($A67="end group", $B67 = "", $C67 = "", $E67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $M67 = "", $N67 = "", $O67 = "", $Q67 = "", $R67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
-    <cfRule type="cellIs" dxfId="134" priority="173" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
-    <cfRule type="expression" dxfId="133" priority="174">
-      <formula>AND($M67 = "", $A67 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
-    <cfRule type="expression" dxfId="132" priority="175">
-      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
-    <cfRule type="expression" dxfId="131" priority="176">
-      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $E67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $M67 = "", $N67 = "", $O67 = "", $Q67 = "", $R67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="containsText" dxfId="130" priority="161" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A66))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:C66">
-    <cfRule type="expression" dxfId="129" priority="162">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:C66">
-    <cfRule type="expression" dxfId="128" priority="163">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $E66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "", $O66 = "", $Q66 = "", $R66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:C66">
-    <cfRule type="cellIs" dxfId="127" priority="164" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="126" priority="165">
-      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="expression" dxfId="125" priority="166">
-      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" dxfId="124" priority="167" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:C66">
-    <cfRule type="expression" dxfId="123" priority="169">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:C66">
-    <cfRule type="expression" dxfId="122" priority="170">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $E66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "", $O66 = "", $Q66 = "", $R66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="expression" dxfId="121" priority="149">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="expression" dxfId="120" priority="150">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $E66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "", $O66 = "", $Q66 = "", $R66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="cellIs" dxfId="119" priority="151" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="expression" dxfId="118" priority="152">
-      <formula>AND($M66 = "", $A66 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="expression" dxfId="117" priority="153">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="expression" dxfId="116" priority="154">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $E66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "", $O66 = "", $Q66 = "", $R66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="containsText" dxfId="115" priority="139" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A65))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:C65">
-    <cfRule type="expression" dxfId="114" priority="140">
-      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:C65">
-    <cfRule type="expression" dxfId="113" priority="141">
-      <formula>AND($A65="end group", $B65 = "", $C65 = "", $E65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $M65 = "", $N65 = "", $O65 = "", $Q65 = "", $R65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:C65">
-    <cfRule type="cellIs" dxfId="112" priority="142" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="111" priority="143">
-      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="expression" dxfId="110" priority="144">
-      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $B65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="cellIs" dxfId="109" priority="145" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="expression" dxfId="108" priority="146">
-      <formula>COUNTIF($B$2:$B$1128,B65)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:C65">
-    <cfRule type="expression" dxfId="107" priority="147">
-      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:C65">
-    <cfRule type="expression" dxfId="106" priority="148">
-      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $E65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $M65 = "", $N65 = "", $O65 = "", $Q65 = "", $R65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J65">
-    <cfRule type="expression" dxfId="105" priority="127">
-      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J65">
-    <cfRule type="expression" dxfId="104" priority="128">
-      <formula>AND($A65="end group", $B65 = "", $C65 = "", $E65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $M65 = "", $N65 = "", $O65 = "", $Q65 = "", $R65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J65">
-    <cfRule type="cellIs" dxfId="103" priority="129" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J65">
-    <cfRule type="expression" dxfId="102" priority="130">
-      <formula>AND($M65 = "", $A65 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J65">
-    <cfRule type="expression" dxfId="101" priority="131">
-      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J65">
-    <cfRule type="expression" dxfId="100" priority="132">
-      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $E65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $M65 = "", $N65 = "", $O65 = "", $Q65 = "", $R65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="containsText" dxfId="99" priority="117" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A64))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:C64">
-    <cfRule type="expression" dxfId="98" priority="118">
-      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:C64">
-    <cfRule type="expression" dxfId="97" priority="119">
-      <formula>AND($A64="end group", $B64 = "", $C64 = "", $E64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $M64 = "", $N64 = "", $O64 = "", $Q64 = "", $R64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:C64">
-    <cfRule type="cellIs" dxfId="96" priority="120" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="95" priority="121">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="expression" dxfId="94" priority="122">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $B64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="cellIs" dxfId="93" priority="123" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="expression" dxfId="92" priority="124">
-      <formula>COUNTIF($B$2:$B$1127,B64)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:C64">
-    <cfRule type="expression" dxfId="91" priority="125">
-      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:C64">
-    <cfRule type="expression" dxfId="90" priority="126">
-      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $E64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $M64 = "", $N64 = "", $O64 = "", $Q64 = "", $R64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64">
-    <cfRule type="expression" dxfId="89" priority="105">
-      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64">
-    <cfRule type="expression" dxfId="88" priority="106">
-      <formula>AND($A64="end group", $B64 = "", $C64 = "", $E64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $M64 = "", $N64 = "", $O64 = "", $Q64 = "", $R64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64">
-    <cfRule type="cellIs" dxfId="87" priority="107" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64">
-    <cfRule type="expression" dxfId="86" priority="108">
-      <formula>AND($M64 = "", $A64 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64">
-    <cfRule type="expression" dxfId="85" priority="109">
-      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64">
-    <cfRule type="expression" dxfId="84" priority="110">
-      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $E64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $M64 = "", $N64 = "", $O64 = "", $Q64 = "", $R64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="containsText" dxfId="83" priority="95" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A63))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:C63">
-    <cfRule type="expression" dxfId="82" priority="96">
-      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:C63">
-    <cfRule type="expression" dxfId="81" priority="97">
-      <formula>AND($A63="end group", $B63 = "", $C63 = "", $E63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $M63 = "", $N63 = "", $O63 = "", $Q63 = "", $R63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:C63">
-    <cfRule type="cellIs" dxfId="80" priority="98" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="79" priority="99">
-      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $C63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="expression" dxfId="78" priority="100">
-      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $B63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" dxfId="77" priority="101" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="expression" dxfId="76" priority="102">
-      <formula>COUNTIF($B$2:$B$1126,B63)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:C63">
-    <cfRule type="expression" dxfId="75" priority="103">
-      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:C63">
-    <cfRule type="expression" dxfId="74" priority="104">
-      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $E63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $M63 = "", $N63 = "", $O63 = "", $Q63 = "", $R63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="expression" dxfId="73" priority="83">
-      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="expression" dxfId="72" priority="84">
-      <formula>AND($A63="end group", $B63 = "", $C63 = "", $E63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $M63 = "", $N63 = "", $O63 = "", $Q63 = "", $R63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="cellIs" dxfId="71" priority="85" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="expression" dxfId="70" priority="86">
-      <formula>AND($M63 = "", $A63 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="expression" dxfId="69" priority="87">
-      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="expression" dxfId="68" priority="88">
-      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $E63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $M63 = "", $N63 = "", $O63 = "", $Q63 = "", $R63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="containsText" dxfId="67" priority="73" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A62))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:C62">
-    <cfRule type="expression" dxfId="66" priority="74">
-      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:C62">
-    <cfRule type="expression" dxfId="65" priority="75">
-      <formula>AND($A62="end group", $B62 = "", $C62 = "", $E62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $M62 = "", $N62 = "", $O62 = "", $Q62 = "", $R62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:C62">
-    <cfRule type="cellIs" dxfId="64" priority="76" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="63" priority="77">
-      <formula>AND(AND(NOT($A62 = "end group"), NOT($A62 = "end repeat"), NOT($A62 = "")), $C62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="expression" dxfId="62" priority="78">
-      <formula>AND(AND(NOT($A62 = "end group"), NOT($A62 = "end repeat"), NOT($A62 = "")), $B62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="cellIs" dxfId="61" priority="79" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="expression" dxfId="60" priority="80">
-      <formula>COUNTIF($B$2:$B$1125,B62)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:C62">
-    <cfRule type="expression" dxfId="59" priority="81">
-      <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:C62">
-    <cfRule type="expression" dxfId="58" priority="82">
-      <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $E62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $M62 = "", $N62 = "", $O62 = "", $Q62 = "", $R62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
-    <cfRule type="containsText" dxfId="57" priority="63" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A61))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:C61">
-    <cfRule type="expression" dxfId="56" priority="64">
-      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:C61">
-    <cfRule type="expression" dxfId="55" priority="65">
-      <formula>AND($A61="end group", $B61 = "", $C61 = "", $E61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $M61 = "", $N61 = "", $O61 = "", $Q61 = "", $R61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:C61">
-    <cfRule type="cellIs" dxfId="54" priority="66" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="53" priority="67">
-      <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $C61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="expression" dxfId="52" priority="68">
-      <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $B61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
-    <cfRule type="cellIs" dxfId="51" priority="69" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="expression" dxfId="50" priority="70">
-      <formula>COUNTIF($B$2:$B$1124,B61)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:C61">
-    <cfRule type="expression" dxfId="49" priority="71">
-      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:C61">
-    <cfRule type="expression" dxfId="48" priority="72">
-      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $E61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $M61 = "", $N61 = "", $O61 = "", $Q61 = "", $R61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="containsText" dxfId="47" priority="53" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A60))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:C60">
-    <cfRule type="expression" dxfId="46" priority="54">
-      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:C60">
-    <cfRule type="expression" dxfId="45" priority="55">
-      <formula>AND($A60="end group", $B60 = "", $C60 = "", $E60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $M60 = "", $N60 = "", $O60 = "", $Q60 = "", $R60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:C60">
-    <cfRule type="cellIs" dxfId="44" priority="56" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="43" priority="57">
-      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="42" priority="58">
-      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" dxfId="41" priority="59" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="40" priority="60">
-      <formula>COUNTIF($B$2:$B$1123,B60)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:C60">
-    <cfRule type="expression" dxfId="39" priority="61">
-      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:C60">
-    <cfRule type="expression" dxfId="38" priority="62">
-      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $E60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $M60 = "", $N60 = "", $O60 = "", $Q60 = "", $R60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B54">
-    <cfRule type="expression" dxfId="37" priority="1056">
-      <formula>COUNTIF($B$2:$B$1030,B50)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57 B45:B48 B55">
-    <cfRule type="expression" dxfId="36" priority="1057">
-      <formula>COUNTIF($B$24:$B$1153,B45)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44 B39:B41">
-    <cfRule type="expression" dxfId="35" priority="1060">
-      <formula>COUNTIF($B$2:$B$1034,B39)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:B36">
-    <cfRule type="expression" dxfId="34" priority="1065">
-      <formula>COUNTIF($B$2:$B$1037,B34)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="expression" dxfId="33" priority="48">
-      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="expression" dxfId="32" priority="49">
-      <formula>AND($A60="end group", $B60 = "", $C60 = "", $E60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $M60 = "", $N60 = "", $O60 = "", $Q60 = "", $R60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="31" priority="50" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="expression" dxfId="30" priority="51">
-      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="expression" dxfId="29" priority="52">
-      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $E60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $M60 = "", $N60 = "", $O60 = "", $Q60 = "", $R60 = "")</formula>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="expression" dxfId="19" priority="52">
+      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $E59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $M59 = "", $N59 = "", $O59 = "", $Q59 = "", $R59 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A20">
-    <cfRule type="containsText" dxfId="28" priority="38" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="18" priority="38" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21 A17:C20">
-    <cfRule type="expression" dxfId="27" priority="39">
+    <cfRule type="expression" dxfId="17" priority="39">
       <formula>AND($A17="begin group", NOT($B17 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21 A17:C20">
-    <cfRule type="expression" dxfId="26" priority="40">
+    <cfRule type="expression" dxfId="16" priority="40">
       <formula>AND($A17="end group", $B17 = "", $C17 = "", $E17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $M17 = "", $N17 = "", $O17 = "", $Q17 = "", $R17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21 A17:C20">
-    <cfRule type="cellIs" dxfId="25" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="41" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="expression" dxfId="24" priority="42">
+    <cfRule type="expression" dxfId="14" priority="42">
       <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $C17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B21">
-    <cfRule type="expression" dxfId="23" priority="43">
+    <cfRule type="expression" dxfId="13" priority="43">
       <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $B17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A20">
-    <cfRule type="cellIs" dxfId="22" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="44" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21 A17:C20">
-    <cfRule type="expression" dxfId="21" priority="46">
+    <cfRule type="expression" dxfId="11" priority="46">
       <formula>AND($A17="begin repeat", NOT($B17 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21 A17:C20">
-    <cfRule type="expression" dxfId="20" priority="47">
+    <cfRule type="expression" dxfId="10" priority="47">
       <formula>AND($A17="end repeat", $B17 = "", $C17 = "", $E17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $M17 = "", $N17 = "", $O17 = "", $Q17 = "", $R17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="19" priority="31" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="9" priority="31" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="18" priority="32">
+    <cfRule type="expression" dxfId="8" priority="32">
       <formula>AND($A21="begin group", NOT($B21 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="17" priority="33">
+    <cfRule type="expression" dxfId="7" priority="33">
       <formula>AND($A21="end group", $B21 = "", $C21 = "", $E21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $M21 = "", $N21 = "", $O21 = "", $Q21 = "", $R21 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="16" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="34" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="15" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="35" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="14" priority="36">
+    <cfRule type="expression" dxfId="4" priority="36">
       <formula>AND($A21="begin repeat", NOT($B21 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="13" priority="37">
+    <cfRule type="expression" dxfId="3" priority="37">
       <formula>AND($A21="end repeat", $B21 = "", $C21 = "", $E21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $M21 = "", $N21 = "", $O21 = "", $Q21 = "", $R21 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B16 B22">
-    <cfRule type="expression" dxfId="12" priority="1085">
-      <formula>COUNTIF($B$2:$B$1043,B9)&gt;1</formula>
+    <cfRule type="expression" dxfId="2" priority="1096">
+      <formula>COUNTIF($B$2:$B$1042,B9)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B8">
-    <cfRule type="expression" dxfId="11" priority="1087">
-      <formula>COUNTIF($B$2:$B$1145,B2)&gt;1</formula>
+    <cfRule type="expression" dxfId="1" priority="1098">
+      <formula>COUNTIF($B$2:$B$1144,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B21">
-    <cfRule type="expression" dxfId="10" priority="1088">
-      <formula>COUNTIF($B$2:$B$1119,B17)&gt;1</formula>
+    <cfRule type="expression" dxfId="0" priority="1099">
+      <formula>COUNTIF($B$2:$B$1118,B17)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E68:E76 E78:E85 D9:D22">
+    <dataValidation type="list" allowBlank="1" sqref="E67:E75 E77:E84 D9:D22">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -37926,7 +37811,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 19-52</v>
+        <v>2022-11-08 20-02</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="180">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -5267,10 +5267,10 @@
   <dimension ref="A1:AE1064"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5621,9 +5621,7 @@
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
-      <c r="F10" s="41" t="s">
-        <v>93</v>
-      </c>
+      <c r="F10" s="41"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -6904,9 +6902,7 @@
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
-      <c r="F49" s="46" t="s">
-        <v>93</v>
-      </c>
+      <c r="F49" s="46"/>
       <c r="G49" s="27"/>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
@@ -6944,9 +6940,7 @@
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
-      <c r="F50" s="46" t="s">
-        <v>93</v>
-      </c>
+      <c r="F50" s="46"/>
       <c r="G50" s="27"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
@@ -6984,9 +6978,7 @@
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
-      <c r="F51" s="42" t="s">
-        <v>93</v>
-      </c>
+      <c r="F51" s="42"/>
       <c r="G51" s="27"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
@@ -37811,7 +37803,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 20-02</v>
+        <v>2022-11-08 20-25</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -235,12 +235,6 @@
     <t>field-list</t>
   </si>
   <si>
-    <t>selected(../knows_dob, 'yes')</t>
-  </si>
-  <si>
-    <t>selected(../knows_dob,  'no')</t>
-  </si>
-  <si>
     <t>Family Members</t>
   </si>
   <si>
@@ -436,13 +430,6 @@
     <t>${h_gender}</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(../knows_dob, 'yes')
-</t>
-  </si>
-  <si>
-    <t>selected(../knows_dob, 'no')</t>
-  </si>
-  <si>
     <t>contact:household:create</t>
   </si>
   <si>
@@ -562,11 +549,25 @@
 ../dob_calendar,</t>
   </si>
   <si>
-    <t>if(selected( ../knows_dob, 'no'), 
+    <t>../dob_calendar != '' or ../age != ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${knows_dob}, 'yes')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${knows_dob}, 'no')
+</t>
+  </si>
+  <si>
+    <t>if(selected( ${knows_dob}, 'no'), 
 ../age,  floor( difference-in-months( ../dob_calendar, today() ) div 12 ))</t>
   </si>
   <si>
-    <t>../dob_calendar != '' or ../age != ''</t>
+    <t>selected(${knows_dob}, 'yes')</t>
+  </si>
+  <si>
+    <t>selected(${knows_dob},  'no')</t>
   </si>
 </sst>
 </file>
@@ -964,7 +965,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1134,6 +1135,11 @@
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5266,11 +5272,11 @@
   </sheetPr>
   <dimension ref="A1:AE1064"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F106" sqref="F106"/>
+      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5307,7 +5313,7 @@
         <v>68</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>42</v>
@@ -5316,19 +5322,19 @@
         <v>44</v>
       </c>
       <c r="J1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -5450,10 +5456,10 @@
         <v>53</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="10"/>
@@ -5578,10 +5584,10 @@
         <v>47</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -5611,13 +5617,13 @@
     </row>
     <row r="10" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A10" s="41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
@@ -5628,10 +5634,10 @@
       <c r="J10" s="68"/>
       <c r="K10" s="13"/>
       <c r="L10" s="42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="1"/>
@@ -5649,13 +5655,13 @@
     </row>
     <row r="11" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A11" s="41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B11" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
@@ -5667,7 +5673,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="1"/>
@@ -5685,13 +5691,13 @@
     </row>
     <row r="12" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A12" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>95</v>
-      </c>
       <c r="C12" s="41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
@@ -5703,7 +5709,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="1"/>
@@ -5721,13 +5727,13 @@
     </row>
     <row r="13" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A13" s="41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>2</v>
@@ -5738,7 +5744,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -5759,7 +5765,7 @@
     </row>
     <row r="14" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A14" s="41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>27</v>
@@ -5774,7 +5780,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -5795,13 +5801,13 @@
     </row>
     <row r="15" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A15" s="41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
@@ -5810,7 +5816,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="68" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -5831,13 +5837,13 @@
     </row>
     <row r="16" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A16" s="41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
@@ -5846,7 +5852,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="68" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -5870,10 +5876,10 @@
         <v>47</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
@@ -5901,13 +5907,13 @@
     </row>
     <row r="18" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A18" s="53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="42"/>
@@ -5935,13 +5941,13 @@
     </row>
     <row r="19" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A19" s="53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
@@ -5969,13 +5975,13 @@
     </row>
     <row r="20" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A20" s="53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="42"/>
@@ -6066,7 +6072,7 @@
         <v>47</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>63</v>
@@ -6100,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>0</v>
@@ -6136,7 +6142,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>3</v>
@@ -6175,7 +6181,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>2</v>
@@ -6203,87 +6209,87 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="19.2" customHeight="1">
-      <c r="A27" s="24" t="s">
+    <row r="27" spans="1:26" s="79" customFormat="1" ht="19.2" customHeight="1">
+      <c r="A27" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="25" t="s">
-        <v>137</v>
+      <c r="E27" s="62" t="s">
+        <v>175</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-    </row>
-    <row r="28" spans="1:26" s="24" customFormat="1" ht="19.2" customHeight="1">
-      <c r="A28" s="24" t="s">
-        <v>76</v>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="65"/>
+    </row>
+    <row r="28" spans="1:26" s="77" customFormat="1" ht="19.2" customHeight="1">
+      <c r="A28" s="77" t="s">
+        <v>74</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" s="77" customFormat="1" ht="19.2" customHeight="1">
+      <c r="A29" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" s="68" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" s="24" customFormat="1" ht="19.2" customHeight="1">
-      <c r="A29" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="J29" s="68" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="30" spans="1:26" s="24" customFormat="1" ht="19.2" customHeight="1">
       <c r="A30" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B30" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="J30" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="13.2">
+    </row>
+    <row r="31" spans="1:26" ht="34.200000000000003">
       <c r="A31" s="19" t="s">
         <v>7</v>
       </c>
@@ -6296,8 +6302,8 @@
       <c r="D31" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>138</v>
+      <c r="E31" s="62" t="s">
+        <v>176</v>
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
@@ -6330,22 +6336,22 @@
         <v>7</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A33" s="44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="25"/>
@@ -6354,7 +6360,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="68" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -6375,13 +6381,13 @@
     </row>
     <row r="34" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A34" s="44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="25"/>
@@ -6390,7 +6396,7 @@
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="68" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
@@ -6414,10 +6420,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="25"/>
@@ -6426,7 +6432,7 @@
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="68" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
@@ -6519,13 +6525,13 @@
     </row>
     <row r="38" spans="1:26" s="2" customFormat="1" ht="23.4" customHeight="1">
       <c r="A38" s="43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
@@ -6534,7 +6540,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
@@ -6555,13 +6561,13 @@
     </row>
     <row r="39" spans="1:26" s="2" customFormat="1" ht="23.4">
       <c r="A39" s="43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -6570,7 +6576,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="68" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
@@ -6591,13 +6597,13 @@
     </row>
     <row r="40" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A40" s="43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -6606,7 +6612,7 @@
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
@@ -6721,13 +6727,13 @@
     </row>
     <row r="44" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A44" s="30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
@@ -6765,7 +6771,7 @@
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="31" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G45" s="31"/>
       <c r="H45" s="28"/>
@@ -6830,7 +6836,7 @@
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="31" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F47" s="27"/>
       <c r="G47" s="27"/>
@@ -6856,13 +6862,13 @@
     </row>
     <row r="48" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A48" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D48" s="27" t="s">
         <v>2</v>
@@ -6892,13 +6898,13 @@
     </row>
     <row r="49" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A49" s="46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49" s="46" t="s">
         <v>21</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
@@ -6909,10 +6915,10 @@
       <c r="J49" s="69"/>
       <c r="K49" s="29"/>
       <c r="L49" s="46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M49" s="46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N49" s="29"/>
       <c r="O49" s="9"/>
@@ -6930,13 +6936,13 @@
     </row>
     <row r="50" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A50" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="46" t="s">
-        <v>95</v>
-      </c>
       <c r="C50" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
@@ -6947,10 +6953,10 @@
       <c r="J50" s="69"/>
       <c r="K50" s="29"/>
       <c r="L50" s="46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M50" s="46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N50" s="29"/>
       <c r="O50" s="9"/>
@@ -6968,13 +6974,13 @@
     </row>
     <row r="51" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A51" s="46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
@@ -6985,10 +6991,10 @@
       <c r="J51" s="69"/>
       <c r="K51" s="29"/>
       <c r="L51" s="42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M51" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N51" s="29"/>
       <c r="O51" s="9"/>
@@ -7042,13 +7048,13 @@
     </row>
     <row r="53" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A53" s="46" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B53" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C53" s="46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
@@ -7057,7 +7063,7 @@
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
       <c r="J53" s="69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K53" s="29"/>
       <c r="L53" s="29"/>
@@ -7118,7 +7124,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="42"/>
@@ -7158,7 +7164,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
@@ -7184,13 +7190,13 @@
     </row>
     <row r="57" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A57" s="41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D57" s="27"/>
       <c r="E57" s="25"/>
@@ -7199,7 +7205,7 @@
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
       <c r="J57" s="69" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
@@ -7223,14 +7229,14 @@
         <v>11</v>
       </c>
       <c r="B58" s="46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C58" s="46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D58" s="27"/>
       <c r="E58" s="25" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
@@ -7259,7 +7265,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="76" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C59" s="57" t="s">
         <v>55</v>
@@ -7268,7 +7274,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="62" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="F59" s="62"/>
       <c r="G59" s="62"/>
@@ -7297,16 +7303,16 @@
         <v>7</v>
       </c>
       <c r="B60" s="56" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C60" s="56" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D60" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="F60" s="25"/>
       <c r="G60" s="25"/>
@@ -7332,13 +7338,13 @@
     </row>
     <row r="61" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A61" s="56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B61" s="56" t="s">
         <v>29</v>
       </c>
       <c r="C61" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="25"/>
@@ -7347,7 +7353,7 @@
       <c r="H61" s="28"/>
       <c r="I61" s="28"/>
       <c r="J61" s="68" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
@@ -7368,13 +7374,13 @@
     </row>
     <row r="62" spans="1:26" s="8" customFormat="1" ht="21">
       <c r="A62" s="56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B62" s="56" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C62" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D62" s="27"/>
       <c r="E62" s="25"/>
@@ -7383,7 +7389,7 @@
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
       <c r="J62" s="56" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
@@ -7404,13 +7410,13 @@
     </row>
     <row r="63" spans="1:26" s="8" customFormat="1" ht="21">
       <c r="A63" s="56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B63" s="56" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C63" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D63" s="27"/>
       <c r="E63" s="25"/>
@@ -7419,7 +7425,7 @@
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
       <c r="J63" s="56" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
@@ -7440,13 +7446,13 @@
     </row>
     <row r="64" spans="1:26" s="8" customFormat="1" ht="21">
       <c r="A64" s="56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B64" s="56" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C64" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D64" s="27"/>
       <c r="E64" s="25"/>
@@ -7455,7 +7461,7 @@
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>
       <c r="J64" s="56" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
@@ -7476,13 +7482,13 @@
     </row>
     <row r="65" spans="1:31" s="8" customFormat="1" ht="13.2">
       <c r="A65" s="56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B65" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C65" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="25"/>
@@ -7491,7 +7497,7 @@
       <c r="H65" s="28"/>
       <c r="I65" s="28"/>
       <c r="J65" s="56" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
@@ -7512,13 +7518,13 @@
     </row>
     <row r="66" spans="1:31" s="8" customFormat="1" ht="13.2">
       <c r="A66" s="56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B66" s="56" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C66" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D66" s="27"/>
       <c r="E66" s="25"/>
@@ -7527,7 +7533,7 @@
       <c r="H66" s="28"/>
       <c r="I66" s="28"/>
       <c r="J66" s="52" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
@@ -7548,13 +7554,13 @@
     </row>
     <row r="67" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A67" s="56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B67" s="56" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C67" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D67" s="56"/>
       <c r="E67" s="56"/>
@@ -7563,7 +7569,7 @@
       <c r="H67" s="56"/>
       <c r="I67" s="56"/>
       <c r="J67" s="56" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K67" s="56"/>
       <c r="L67" s="56"/>
@@ -7589,13 +7595,13 @@
     </row>
     <row r="68" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A68" s="60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C68" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D68" s="52"/>
       <c r="E68" s="54"/>
@@ -7604,7 +7610,7 @@
       <c r="H68" s="54"/>
       <c r="I68" s="54"/>
       <c r="J68" s="52" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K68" s="54"/>
       <c r="L68" s="54"/>
@@ -7632,10 +7638,10 @@
         <v>1</v>
       </c>
       <c r="B69" s="56" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C69" s="56" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D69" s="52"/>
       <c r="E69" s="54"/>
@@ -7670,10 +7676,10 @@
         <v>1</v>
       </c>
       <c r="B70" s="56" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C70" s="56" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D70" s="52"/>
       <c r="E70" s="54"/>
@@ -7708,10 +7714,10 @@
         <v>47</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C71" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D71" s="51"/>
       <c r="E71" s="51"/>
@@ -7744,16 +7750,16 @@
     </row>
     <row r="72" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A72" s="53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C72" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D72" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E72" s="54"/>
       <c r="F72" s="52"/>
@@ -7785,16 +7791,16 @@
     </row>
     <row r="73" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A73" s="53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B73" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C73" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D73" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E73" s="54"/>
       <c r="F73" s="52"/>
@@ -7826,16 +7832,16 @@
     </row>
     <row r="74" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A74" s="53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B74" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D74" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E74" s="54"/>
       <c r="F74" s="52"/>
@@ -7902,7 +7908,7 @@
     </row>
     <row r="76" spans="1:31" s="2" customFormat="1" ht="13.2">
       <c r="A76" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76" s="33"/>
       <c r="C76" s="34"/>
@@ -7938,7 +7944,7 @@
         <v>11</v>
       </c>
       <c r="C77" s="56" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D77" s="56"/>
       <c r="E77" s="56"/>
@@ -8009,10 +8015,10 @@
         <v>47</v>
       </c>
       <c r="B79" s="56" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C79" s="56" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D79" s="56"/>
       <c r="E79" s="56"/>
@@ -8028,10 +8034,10 @@
       <c r="M79" s="56"/>
       <c r="N79" s="56"/>
       <c r="O79" s="56" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P79" s="56" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q79" s="56"/>
       <c r="R79" s="56"/>
@@ -8051,13 +8057,13 @@
     </row>
     <row r="80" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A80" s="57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B80" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C80" s="57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D80" s="57"/>
       <c r="E80" s="57"/>
@@ -8073,7 +8079,7 @@
       <c r="O80" s="56"/>
       <c r="P80" s="56"/>
       <c r="Q80" s="57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R80" s="56"/>
       <c r="S80" s="56"/>
@@ -8092,13 +8098,13 @@
     </row>
     <row r="81" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A81" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="57" t="s">
-        <v>95</v>
-      </c>
       <c r="C81" s="57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D81" s="57"/>
       <c r="E81" s="57"/>
@@ -8114,7 +8120,7 @@
       <c r="O81" s="56"/>
       <c r="P81" s="56"/>
       <c r="Q81" s="57" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="R81" s="56"/>
       <c r="S81" s="56"/>
@@ -8133,16 +8139,16 @@
     </row>
     <row r="82" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A82" s="57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B82" s="57" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C82" s="57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D82" s="57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E82" s="57"/>
       <c r="F82" s="58"/>
@@ -8153,13 +8159,13 @@
       <c r="K82" s="56"/>
       <c r="L82" s="56"/>
       <c r="M82" s="56" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N82" s="56"/>
       <c r="O82" s="56"/>
       <c r="P82" s="56"/>
       <c r="Q82" s="57" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R82" s="56"/>
       <c r="S82" s="56"/>
@@ -8178,16 +8184,16 @@
     </row>
     <row r="83" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A83" s="57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B83" s="57" t="s">
         <v>22</v>
       </c>
       <c r="C83" s="57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D83" s="57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E83" s="57"/>
       <c r="F83" s="58"/>
@@ -8195,7 +8201,7 @@
       <c r="H83" s="56"/>
       <c r="I83" s="56"/>
       <c r="J83" s="56" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K83" s="56"/>
       <c r="L83" s="56"/>
@@ -8220,16 +8226,16 @@
     </row>
     <row r="84" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A84" s="57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B84" s="57" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C84" s="57" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D84" s="57" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E84" s="57"/>
       <c r="F84" s="58"/>
@@ -8237,7 +8243,7 @@
       <c r="H84" s="56"/>
       <c r="I84" s="56"/>
       <c r="J84" s="56" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K84" s="56"/>
       <c r="L84" s="56"/>
@@ -8265,10 +8271,10 @@
         <v>47</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D85" s="34"/>
       <c r="E85" s="34"/>
@@ -8296,10 +8302,10 @@
     </row>
     <row r="86" spans="1:31" s="2" customFormat="1" ht="13.2">
       <c r="A86" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C86" s="34"/>
       <c r="D86" s="34"/>
@@ -8309,7 +8315,7 @@
       <c r="H86" s="35"/>
       <c r="I86" s="35"/>
       <c r="J86" s="73" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
@@ -8330,10 +8336,10 @@
     </row>
     <row r="87" spans="1:31" s="2" customFormat="1" ht="13.2">
       <c r="A87" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C87" s="34"/>
       <c r="D87" s="34"/>
@@ -8343,7 +8349,7 @@
       <c r="H87" s="35"/>
       <c r="I87" s="35"/>
       <c r="J87" s="73" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
@@ -8364,10 +8370,10 @@
     </row>
     <row r="88" spans="1:31" s="2" customFormat="1" ht="13.2">
       <c r="A88" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C88" s="34"/>
       <c r="D88" s="34"/>
@@ -8377,7 +8383,7 @@
       <c r="H88" s="35"/>
       <c r="I88" s="35"/>
       <c r="J88" s="73" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
@@ -37666,7 +37672,7 @@
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" ht="13.8">
       <c r="A6" s="59" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>2</v>
@@ -37677,7 +37683,7 @@
     </row>
     <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="59" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
@@ -37799,11 +37805,11 @@
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 20-25</v>
+        <v>2022-11-08 21-06</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="160">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -480,9 +480,6 @@
   </si>
   <si>
     <t>Months</t>
-  </si>
-  <si>
-    <t>format-date-time(date(../dob_iso),'%Y-%m-%d')</t>
   </si>
   <si>
     <t>hh_age_years</t>
@@ -3706,10 +3703,10 @@
   <dimension ref="A1:AE1052"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4656,7 +4653,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F27" s="61"/>
       <c r="G27" s="61"/>
@@ -4719,7 +4716,7 @@
         <v>88</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="34.200000000000003">
@@ -4736,7 +4733,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
@@ -4769,7 +4766,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>151</v>
@@ -4781,7 +4778,7 @@
         <v>74</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>88</v>
@@ -4865,7 +4862,7 @@
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
@@ -4973,7 +4970,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
@@ -5009,7 +5006,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="67" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
@@ -5601,9 +5598,7 @@
       <c r="G56" s="25"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
-      <c r="J56" s="67" t="s">
-        <v>152</v>
-      </c>
+      <c r="J56" s="67"/>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
@@ -35072,7 +35067,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 21-17</v>
+        <v>2022-11-08 21-20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -3703,10 +3703,10 @@
   <dimension ref="A1:AE1052"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="56" spans="1:31" s="8" customFormat="1" ht="13.2">
       <c r="A56" s="56" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B56" s="56" t="s">
         <v>29</v>
@@ -35067,7 +35067,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 21-20</v>
+        <v>2022-11-08 21-23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="121">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -382,6 +382,9 @@
   <si>
     <t xml:space="preserve">selected(${knows_dob} 'no')
 </t>
+  </si>
+  <si>
+    <t>if(format-date-time(today(),"%Y") - ${age_years} - 1, format-date-time(today(),"%Y") - ${age_years})</t>
   </si>
   <si>
     <t>date(concat(string(${ephemeral_years}),'-',string(format-date-time(today(), "%d"))))</t>
@@ -1891,10 +1894,10 @@
   <dimension ref="A1:AE1021"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2887,6 +2890,9 @@
       </c>
       <c r="C30" s="18" t="s">
         <v>112</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:26" s="18" customFormat="1" ht="11.4">
@@ -31347,7 +31353,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 22-22</v>
+        <v>2022-11-08 22-26</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="122">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>date(concat(string(${ephemeral_years}),'-',string(format-date-time(today(), "%d"))))</t>
+  </si>
+  <si>
+    <t>floor( difference-in-months( ${date_of_birth}, today() ) div 12 )</t>
   </si>
 </sst>
 </file>
@@ -1894,10 +1897,10 @@
   <dimension ref="A1:AE1021"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2915,6 +2918,9 @@
       </c>
       <c r="C32" s="18" t="s">
         <v>116</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="13.2">
@@ -31353,7 +31359,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 22-26</v>
+        <v>2022-11-08 22-28</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -286,9 +286,6 @@
     <t>${contact_name}</t>
   </si>
   <si>
-    <t>${contact_dob_iso}</t>
-  </si>
-  <si>
     <t>${primary_phone}</t>
   </si>
   <si>
@@ -391,6 +388,9 @@
   </si>
   <si>
     <t>floor( difference-in-months( ${date_of_birth}, today() ) div 12 )</t>
+  </si>
+  <si>
+    <t>(${dob_calendar} or ${age_years})</t>
   </si>
 </sst>
 </file>
@@ -1897,10 +1897,10 @@
   <dimension ref="A1:AE1021"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2258,10 +2258,10 @@
       <c r="J10" s="44"/>
       <c r="K10" s="12"/>
       <c r="L10" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M10" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="1"/>
@@ -2333,7 +2333,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="1"/>
@@ -2404,7 +2404,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
@@ -2440,7 +2440,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="44" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -2476,7 +2476,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
@@ -2696,7 +2696,7 @@
         <v>43</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>54</v>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>3</v>
@@ -2805,7 +2805,7 @@
         <v>46</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>2</v>
@@ -2847,10 +2847,10 @@
         <v>2</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:26" s="18" customFormat="1" ht="19.2" customHeight="1">
@@ -2858,16 +2858,16 @@
         <v>6</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:26" s="18" customFormat="1" ht="11.4">
@@ -2875,13 +2875,13 @@
         <v>59</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>73</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:26" s="18" customFormat="1" ht="11.4">
@@ -2889,13 +2889,13 @@
         <v>59</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:26" s="18" customFormat="1" ht="11.4">
@@ -2903,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:26" s="18" customFormat="1" ht="11.4">
@@ -2914,13 +2914,13 @@
         <v>59</v>
       </c>
       <c r="B32" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>116</v>
-      </c>
       <c r="J32" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="13.2">
@@ -3030,10 +3030,10 @@
         <v>43</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
@@ -3049,10 +3049,10 @@
       <c r="M36" s="39"/>
       <c r="N36" s="39"/>
       <c r="O36" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P36" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q36" s="39"/>
       <c r="R36" s="39"/>
@@ -3135,7 +3135,7 @@
       <c r="O38" s="39"/>
       <c r="P38" s="39"/>
       <c r="Q38" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R38" s="39"/>
       <c r="S38" s="39"/>
@@ -3174,13 +3174,13 @@
       <c r="K39" s="39"/>
       <c r="L39" s="39"/>
       <c r="M39" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N39" s="39"/>
       <c r="O39" s="39"/>
       <c r="P39" s="39"/>
       <c r="Q39" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R39" s="39"/>
       <c r="S39" s="39"/>
@@ -3216,7 +3216,7 @@
       <c r="H40" s="39"/>
       <c r="I40" s="39"/>
       <c r="J40" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K40" s="39"/>
       <c r="L40" s="39"/>
@@ -3244,13 +3244,13 @@
         <v>59</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E41" s="40"/>
       <c r="F41" s="41"/>
@@ -3258,7 +3258,7 @@
       <c r="H41" s="39"/>
       <c r="I41" s="39"/>
       <c r="J41" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K41" s="39"/>
       <c r="L41" s="39"/>
@@ -31222,7 +31222,7 @@
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" ht="13.8">
       <c r="A6" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>2</v>
@@ -31233,7 +31233,7 @@
     </row>
     <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -31355,11 +31355,11 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 22-28</v>
+        <v>2022-11-08 22-31</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -365,9 +365,6 @@
     <t>dob_debug</t>
   </si>
   <si>
-    <t>Year: ${ephemeral_years} DOB Approx: ${dob_approx} DOB Calendar: ${dob_calendar} AGE Years: ${age_in_years}</t>
-  </si>
-  <si>
     <t>age_in_years</t>
   </si>
   <si>
@@ -391,6 +388,9 @@
   </si>
   <si>
     <t>(${dob_calendar} or ${age_years})</t>
+  </si>
+  <si>
+    <t>Age: ${age_in_years}, "Years"</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,6 +657,12 @@
         <bgColor rgb="FFE5B8B7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -704,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -798,9 +804,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -812,6 +815,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1897,10 +1906,10 @@
   <dimension ref="A1:AE1021"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1914,7 +1923,7 @@
     <col min="7" max="7" width="11.109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="76.21875" style="47" customWidth="1"/>
+    <col min="10" max="10" width="76.21875" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.2">
@@ -2440,7 +2449,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -2801,7 +2810,7 @@
       <c r="A26" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="47" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="19" t="s">
@@ -2850,7 +2859,7 @@
         <v>109</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:26" s="18" customFormat="1" ht="19.2" customHeight="1">
@@ -2866,8 +2875,8 @@
       <c r="D28" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="49" t="s">
-        <v>117</v>
+      <c r="E28" s="48" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:26" s="18" customFormat="1" ht="11.4">
@@ -2881,7 +2890,7 @@
         <v>73</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:26" s="18" customFormat="1" ht="11.4">
@@ -2895,7 +2904,7 @@
         <v>111</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:26" s="18" customFormat="1" ht="11.4">
@@ -2906,7 +2915,7 @@
         <v>112</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:26" s="18" customFormat="1" ht="11.4">
@@ -2914,13 +2923,13 @@
         <v>59</v>
       </c>
       <c r="B32" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>115</v>
-      </c>
       <c r="J32" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="13.2">
@@ -3297,7 +3306,7 @@
       <c r="G42" s="25"/>
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
-      <c r="J42" s="44"/>
+      <c r="J42" s="49"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
@@ -3329,7 +3338,7 @@
       <c r="G43" s="25"/>
       <c r="H43" s="26"/>
       <c r="I43" s="26"/>
-      <c r="J43" s="45" t="s">
+      <c r="J43" s="50" t="s">
         <v>69</v>
       </c>
       <c r="K43" s="12"/>
@@ -3363,7 +3372,7 @@
       <c r="G44" s="25"/>
       <c r="H44" s="26"/>
       <c r="I44" s="26"/>
-      <c r="J44" s="45" t="s">
+      <c r="J44" s="50" t="s">
         <v>70</v>
       </c>
       <c r="K44" s="12"/>
@@ -3397,7 +3406,7 @@
       <c r="G45" s="25"/>
       <c r="H45" s="26"/>
       <c r="I45" s="26"/>
-      <c r="J45" s="45" t="s">
+      <c r="J45" s="50" t="s">
         <v>71</v>
       </c>
       <c r="K45" s="12"/>
@@ -3487,7 +3496,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="46"/>
+      <c r="J48" s="45"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -3515,7 +3524,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="46"/>
+      <c r="J49" s="45"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -3543,7 +3552,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="46"/>
+      <c r="J50" s="45"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -3571,7 +3580,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="46"/>
+      <c r="J51" s="45"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -3599,7 +3608,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="46"/>
+      <c r="J52" s="45"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -3627,7 +3636,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="46"/>
+      <c r="J53" s="45"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3655,7 +3664,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="46"/>
+      <c r="J54" s="45"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -3683,7 +3692,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="46"/>
+      <c r="J55" s="45"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -3711,7 +3720,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="46"/>
+      <c r="J56" s="45"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -3739,7 +3748,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="46"/>
+      <c r="J57" s="45"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3767,7 +3776,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="46"/>
+      <c r="J58" s="45"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -3795,7 +3804,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="46"/>
+      <c r="J59" s="45"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -3823,7 +3832,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="46"/>
+      <c r="J60" s="45"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -3851,7 +3860,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="46"/>
+      <c r="J61" s="45"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -3879,7 +3888,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="46"/>
+      <c r="J62" s="45"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -3907,7 +3916,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="46"/>
+      <c r="J63" s="45"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3935,7 +3944,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="46"/>
+      <c r="J64" s="45"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3963,7 +3972,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="46"/>
+      <c r="J65" s="45"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3991,7 +4000,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="46"/>
+      <c r="J66" s="45"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -4019,7 +4028,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="46"/>
+      <c r="J67" s="45"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -4047,7 +4056,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="46"/>
+      <c r="J68" s="45"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -4075,7 +4084,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="46"/>
+      <c r="J69" s="45"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -4103,7 +4112,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="46"/>
+      <c r="J70" s="45"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -4131,7 +4140,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="46"/>
+      <c r="J71" s="45"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -4159,7 +4168,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="46"/>
+      <c r="J72" s="45"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -4187,7 +4196,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="46"/>
+      <c r="J73" s="45"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -4215,7 +4224,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="46"/>
+      <c r="J74" s="45"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -4243,7 +4252,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="46"/>
+      <c r="J75" s="45"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -4271,7 +4280,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="46"/>
+      <c r="J76" s="45"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
@@ -4299,7 +4308,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="46"/>
+      <c r="J77" s="45"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -4327,7 +4336,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="46"/>
+      <c r="J78" s="45"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -4355,7 +4364,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="46"/>
+      <c r="J79" s="45"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -4383,7 +4392,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="46"/>
+      <c r="J80" s="45"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
@@ -4411,7 +4420,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="46"/>
+      <c r="J81" s="45"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
@@ -4439,7 +4448,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="46"/>
+      <c r="J82" s="45"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
@@ -4467,7 +4476,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="46"/>
+      <c r="J83" s="45"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
@@ -4495,7 +4504,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="46"/>
+      <c r="J84" s="45"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
@@ -4523,7 +4532,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="46"/>
+      <c r="J85" s="45"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
@@ -4551,7 +4560,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="46"/>
+      <c r="J86" s="45"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
@@ -4579,7 +4588,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="46"/>
+      <c r="J87" s="45"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
@@ -4607,7 +4616,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="46"/>
+      <c r="J88" s="45"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
@@ -4635,7 +4644,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="46"/>
+      <c r="J89" s="45"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
@@ -4663,7 +4672,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="46"/>
+      <c r="J90" s="45"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
@@ -4691,7 +4700,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="46"/>
+      <c r="J91" s="45"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -4719,7 +4728,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="46"/>
+      <c r="J92" s="45"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -4747,7 +4756,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="46"/>
+      <c r="J93" s="45"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
@@ -4775,7 +4784,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="46"/>
+      <c r="J94" s="45"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -4803,7 +4812,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="46"/>
+      <c r="J95" s="45"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -4831,7 +4840,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="46"/>
+      <c r="J96" s="45"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
@@ -4859,7 +4868,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="46"/>
+      <c r="J97" s="45"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -4887,7 +4896,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="46"/>
+      <c r="J98" s="45"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
@@ -4915,7 +4924,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="46"/>
+      <c r="J99" s="45"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
@@ -4943,7 +4952,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="46"/>
+      <c r="J100" s="45"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
@@ -4971,7 +4980,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-      <c r="J101" s="46"/>
+      <c r="J101" s="45"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
@@ -4999,7 +5008,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="46"/>
+      <c r="J102" s="45"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
@@ -5027,7 +5036,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="46"/>
+      <c r="J103" s="45"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
@@ -5055,7 +5064,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="46"/>
+      <c r="J104" s="45"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
@@ -5083,7 +5092,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-      <c r="J105" s="46"/>
+      <c r="J105" s="45"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
@@ -5111,7 +5120,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-      <c r="J106" s="46"/>
+      <c r="J106" s="45"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
@@ -5139,7 +5148,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-      <c r="J107" s="46"/>
+      <c r="J107" s="45"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
@@ -5167,7 +5176,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108" s="46"/>
+      <c r="J108" s="45"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
@@ -5195,7 +5204,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-      <c r="J109" s="46"/>
+      <c r="J109" s="45"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
@@ -5223,7 +5232,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-      <c r="J110" s="46"/>
+      <c r="J110" s="45"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
@@ -5251,7 +5260,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-      <c r="J111" s="46"/>
+      <c r="J111" s="45"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
@@ -5279,7 +5288,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-      <c r="J112" s="46"/>
+      <c r="J112" s="45"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
@@ -5307,7 +5316,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="J113" s="46"/>
+      <c r="J113" s="45"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
@@ -5335,7 +5344,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-      <c r="J114" s="46"/>
+      <c r="J114" s="45"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
@@ -5363,7 +5372,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-      <c r="J115" s="46"/>
+      <c r="J115" s="45"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
@@ -5391,7 +5400,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="J116" s="46"/>
+      <c r="J116" s="45"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
@@ -5419,7 +5428,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-      <c r="J117" s="46"/>
+      <c r="J117" s="45"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
@@ -5447,7 +5456,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-      <c r="J118" s="46"/>
+      <c r="J118" s="45"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
@@ -5475,7 +5484,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-      <c r="J119" s="46"/>
+      <c r="J119" s="45"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
@@ -5503,7 +5512,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-      <c r="J120" s="46"/>
+      <c r="J120" s="45"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
@@ -5531,7 +5540,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-      <c r="J121" s="46"/>
+      <c r="J121" s="45"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
@@ -5559,7 +5568,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-      <c r="J122" s="46"/>
+      <c r="J122" s="45"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
@@ -5587,7 +5596,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-      <c r="J123" s="46"/>
+      <c r="J123" s="45"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
@@ -5615,7 +5624,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-      <c r="J124" s="46"/>
+      <c r="J124" s="45"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
@@ -5643,7 +5652,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-      <c r="J125" s="46"/>
+      <c r="J125" s="45"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
@@ -5671,7 +5680,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-      <c r="J126" s="46"/>
+      <c r="J126" s="45"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
@@ -5699,7 +5708,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
-      <c r="J127" s="46"/>
+      <c r="J127" s="45"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
@@ -5727,7 +5736,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-      <c r="J128" s="46"/>
+      <c r="J128" s="45"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
@@ -5755,7 +5764,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="46"/>
+      <c r="J129" s="45"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
@@ -5783,7 +5792,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="46"/>
+      <c r="J130" s="45"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
@@ -5811,7 +5820,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="46"/>
+      <c r="J131" s="45"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
@@ -5839,7 +5848,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-      <c r="J132" s="46"/>
+      <c r="J132" s="45"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
@@ -5867,7 +5876,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-      <c r="J133" s="46"/>
+      <c r="J133" s="45"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
@@ -5895,7 +5904,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-      <c r="J134" s="46"/>
+      <c r="J134" s="45"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
@@ -5923,7 +5932,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
-      <c r="J135" s="46"/>
+      <c r="J135" s="45"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
@@ -5951,7 +5960,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-      <c r="J136" s="46"/>
+      <c r="J136" s="45"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
@@ -5979,7 +5988,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
-      <c r="J137" s="46"/>
+      <c r="J137" s="45"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
@@ -6007,7 +6016,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-      <c r="J138" s="46"/>
+      <c r="J138" s="45"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
@@ -6035,7 +6044,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
-      <c r="J139" s="46"/>
+      <c r="J139" s="45"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
@@ -6063,7 +6072,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-      <c r="J140" s="46"/>
+      <c r="J140" s="45"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
@@ -6091,7 +6100,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-      <c r="J141" s="46"/>
+      <c r="J141" s="45"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
@@ -6119,7 +6128,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-      <c r="J142" s="46"/>
+      <c r="J142" s="45"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
@@ -6147,7 +6156,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-      <c r="J143" s="46"/>
+      <c r="J143" s="45"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
@@ -6175,7 +6184,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-      <c r="J144" s="46"/>
+      <c r="J144" s="45"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
@@ -6203,7 +6212,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-      <c r="J145" s="46"/>
+      <c r="J145" s="45"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
@@ -6231,7 +6240,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-      <c r="J146" s="46"/>
+      <c r="J146" s="45"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
@@ -6259,7 +6268,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
-      <c r="J147" s="46"/>
+      <c r="J147" s="45"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
@@ -6287,7 +6296,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-      <c r="J148" s="46"/>
+      <c r="J148" s="45"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
@@ -6315,7 +6324,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-      <c r="J149" s="46"/>
+      <c r="J149" s="45"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
@@ -6343,7 +6352,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-      <c r="J150" s="46"/>
+      <c r="J150" s="45"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
@@ -6371,7 +6380,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-      <c r="J151" s="46"/>
+      <c r="J151" s="45"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
@@ -6399,7 +6408,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-      <c r="J152" s="46"/>
+      <c r="J152" s="45"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
@@ -6427,7 +6436,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-      <c r="J153" s="46"/>
+      <c r="J153" s="45"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
@@ -6455,7 +6464,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-      <c r="J154" s="46"/>
+      <c r="J154" s="45"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
@@ -6483,7 +6492,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
-      <c r="J155" s="46"/>
+      <c r="J155" s="45"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
@@ -6511,7 +6520,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-      <c r="J156" s="46"/>
+      <c r="J156" s="45"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
@@ -6539,7 +6548,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
-      <c r="J157" s="46"/>
+      <c r="J157" s="45"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
@@ -6567,7 +6576,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
-      <c r="J158" s="46"/>
+      <c r="J158" s="45"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
@@ -6595,7 +6604,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
-      <c r="J159" s="46"/>
+      <c r="J159" s="45"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
@@ -6623,7 +6632,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-      <c r="J160" s="46"/>
+      <c r="J160" s="45"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
@@ -6651,7 +6660,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-      <c r="J161" s="46"/>
+      <c r="J161" s="45"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
@@ -6679,7 +6688,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-      <c r="J162" s="46"/>
+      <c r="J162" s="45"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
@@ -6707,7 +6716,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
-      <c r="J163" s="46"/>
+      <c r="J163" s="45"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
@@ -6735,7 +6744,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-      <c r="J164" s="46"/>
+      <c r="J164" s="45"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
@@ -6763,7 +6772,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
-      <c r="J165" s="46"/>
+      <c r="J165" s="45"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
@@ -6791,7 +6800,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
-      <c r="J166" s="46"/>
+      <c r="J166" s="45"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
@@ -6819,7 +6828,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
-      <c r="J167" s="46"/>
+      <c r="J167" s="45"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
@@ -6847,7 +6856,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-      <c r="J168" s="46"/>
+      <c r="J168" s="45"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
@@ -6875,7 +6884,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-      <c r="J169" s="46"/>
+      <c r="J169" s="45"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
@@ -6903,7 +6912,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-      <c r="J170" s="46"/>
+      <c r="J170" s="45"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
@@ -6931,7 +6940,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
-      <c r="J171" s="46"/>
+      <c r="J171" s="45"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
@@ -6959,7 +6968,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-      <c r="J172" s="46"/>
+      <c r="J172" s="45"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
@@ -6987,7 +6996,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
-      <c r="J173" s="46"/>
+      <c r="J173" s="45"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
@@ -7015,7 +7024,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-      <c r="J174" s="46"/>
+      <c r="J174" s="45"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
@@ -7043,7 +7052,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
-      <c r="J175" s="46"/>
+      <c r="J175" s="45"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
@@ -7071,7 +7080,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-      <c r="J176" s="46"/>
+      <c r="J176" s="45"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
@@ -7099,7 +7108,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-      <c r="J177" s="46"/>
+      <c r="J177" s="45"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
@@ -7127,7 +7136,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-      <c r="J178" s="46"/>
+      <c r="J178" s="45"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
@@ -7155,7 +7164,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
-      <c r="J179" s="46"/>
+      <c r="J179" s="45"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
@@ -7183,7 +7192,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-      <c r="J180" s="46"/>
+      <c r="J180" s="45"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
@@ -7211,7 +7220,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
-      <c r="J181" s="46"/>
+      <c r="J181" s="45"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
@@ -7239,7 +7248,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
-      <c r="J182" s="46"/>
+      <c r="J182" s="45"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
@@ -7267,7 +7276,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
-      <c r="J183" s="46"/>
+      <c r="J183" s="45"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
@@ -7295,7 +7304,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
-      <c r="J184" s="46"/>
+      <c r="J184" s="45"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
@@ -7323,7 +7332,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
-      <c r="J185" s="46"/>
+      <c r="J185" s="45"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
@@ -7351,7 +7360,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
-      <c r="J186" s="46"/>
+      <c r="J186" s="45"/>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
@@ -7379,7 +7388,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
-      <c r="J187" s="46"/>
+      <c r="J187" s="45"/>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
@@ -7407,7 +7416,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
-      <c r="J188" s="46"/>
+      <c r="J188" s="45"/>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
@@ -7435,7 +7444,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
-      <c r="J189" s="46"/>
+      <c r="J189" s="45"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
@@ -7463,7 +7472,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
-      <c r="J190" s="46"/>
+      <c r="J190" s="45"/>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
@@ -7491,7 +7500,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
-      <c r="J191" s="46"/>
+      <c r="J191" s="45"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
@@ -7519,7 +7528,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
-      <c r="J192" s="46"/>
+      <c r="J192" s="45"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
@@ -7547,7 +7556,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
-      <c r="J193" s="46"/>
+      <c r="J193" s="45"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
@@ -7575,7 +7584,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
-      <c r="J194" s="46"/>
+      <c r="J194" s="45"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
@@ -7603,7 +7612,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
-      <c r="J195" s="46"/>
+      <c r="J195" s="45"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
@@ -7631,7 +7640,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
-      <c r="J196" s="46"/>
+      <c r="J196" s="45"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
@@ -7659,7 +7668,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
-      <c r="J197" s="46"/>
+      <c r="J197" s="45"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
@@ -7687,7 +7696,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
-      <c r="J198" s="46"/>
+      <c r="J198" s="45"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
@@ -7715,7 +7724,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
-      <c r="J199" s="46"/>
+      <c r="J199" s="45"/>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
@@ -7743,7 +7752,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
-      <c r="J200" s="46"/>
+      <c r="J200" s="45"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
@@ -7771,7 +7780,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
-      <c r="J201" s="46"/>
+      <c r="J201" s="45"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
@@ -7799,7 +7808,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
-      <c r="J202" s="46"/>
+      <c r="J202" s="45"/>
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
@@ -7827,7 +7836,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
-      <c r="J203" s="46"/>
+      <c r="J203" s="45"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
@@ -7855,7 +7864,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
-      <c r="J204" s="46"/>
+      <c r="J204" s="45"/>
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
@@ -7883,7 +7892,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
-      <c r="J205" s="46"/>
+      <c r="J205" s="45"/>
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
@@ -7911,7 +7920,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
-      <c r="J206" s="46"/>
+      <c r="J206" s="45"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
       <c r="M206" s="1"/>
@@ -7939,7 +7948,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
-      <c r="J207" s="46"/>
+      <c r="J207" s="45"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
@@ -7967,7 +7976,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
-      <c r="J208" s="46"/>
+      <c r="J208" s="45"/>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
@@ -7995,7 +8004,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
-      <c r="J209" s="46"/>
+      <c r="J209" s="45"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
@@ -8023,7 +8032,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
-      <c r="J210" s="46"/>
+      <c r="J210" s="45"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
@@ -8051,7 +8060,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
-      <c r="J211" s="46"/>
+      <c r="J211" s="45"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
@@ -8079,7 +8088,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
-      <c r="J212" s="46"/>
+      <c r="J212" s="45"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
@@ -8107,7 +8116,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
-      <c r="J213" s="46"/>
+      <c r="J213" s="45"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
       <c r="M213" s="1"/>
@@ -8135,7 +8144,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
-      <c r="J214" s="46"/>
+      <c r="J214" s="45"/>
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
       <c r="M214" s="1"/>
@@ -8163,7 +8172,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
-      <c r="J215" s="46"/>
+      <c r="J215" s="45"/>
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
@@ -8191,7 +8200,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
-      <c r="J216" s="46"/>
+      <c r="J216" s="45"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
@@ -8219,7 +8228,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
-      <c r="J217" s="46"/>
+      <c r="J217" s="45"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
@@ -8247,7 +8256,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
-      <c r="J218" s="46"/>
+      <c r="J218" s="45"/>
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
@@ -8275,7 +8284,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
-      <c r="J219" s="46"/>
+      <c r="J219" s="45"/>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
@@ -8303,7 +8312,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
-      <c r="J220" s="46"/>
+      <c r="J220" s="45"/>
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
@@ -8331,7 +8340,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
-      <c r="J221" s="46"/>
+      <c r="J221" s="45"/>
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
@@ -8359,7 +8368,7 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
-      <c r="J222" s="46"/>
+      <c r="J222" s="45"/>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
@@ -8387,7 +8396,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
-      <c r="J223" s="46"/>
+      <c r="J223" s="45"/>
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
       <c r="M223" s="1"/>
@@ -8415,7 +8424,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
-      <c r="J224" s="46"/>
+      <c r="J224" s="45"/>
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
       <c r="M224" s="1"/>
@@ -8443,7 +8452,7 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
-      <c r="J225" s="46"/>
+      <c r="J225" s="45"/>
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
@@ -8471,7 +8480,7 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
-      <c r="J226" s="46"/>
+      <c r="J226" s="45"/>
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
@@ -8499,7 +8508,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
-      <c r="J227" s="46"/>
+      <c r="J227" s="45"/>
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
@@ -8527,7 +8536,7 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
-      <c r="J228" s="46"/>
+      <c r="J228" s="45"/>
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
       <c r="M228" s="1"/>
@@ -8555,7 +8564,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
-      <c r="J229" s="46"/>
+      <c r="J229" s="45"/>
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
@@ -8583,7 +8592,7 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
-      <c r="J230" s="46"/>
+      <c r="J230" s="45"/>
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
@@ -8611,7 +8620,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
-      <c r="J231" s="46"/>
+      <c r="J231" s="45"/>
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
@@ -8639,7 +8648,7 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
-      <c r="J232" s="46"/>
+      <c r="J232" s="45"/>
       <c r="K232" s="1"/>
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
@@ -8667,7 +8676,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
-      <c r="J233" s="46"/>
+      <c r="J233" s="45"/>
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
@@ -8695,7 +8704,7 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
-      <c r="J234" s="46"/>
+      <c r="J234" s="45"/>
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
       <c r="M234" s="1"/>
@@ -8723,7 +8732,7 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
-      <c r="J235" s="46"/>
+      <c r="J235" s="45"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
       <c r="M235" s="1"/>
@@ -8751,7 +8760,7 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
-      <c r="J236" s="46"/>
+      <c r="J236" s="45"/>
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
@@ -8779,7 +8788,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
-      <c r="J237" s="46"/>
+      <c r="J237" s="45"/>
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
       <c r="M237" s="1"/>
@@ -8807,7 +8816,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
-      <c r="J238" s="46"/>
+      <c r="J238" s="45"/>
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
       <c r="M238" s="1"/>
@@ -8835,7 +8844,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
-      <c r="J239" s="46"/>
+      <c r="J239" s="45"/>
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
       <c r="M239" s="1"/>
@@ -8863,7 +8872,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
-      <c r="J240" s="46"/>
+      <c r="J240" s="45"/>
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
       <c r="M240" s="1"/>
@@ -8891,7 +8900,7 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
-      <c r="J241" s="46"/>
+      <c r="J241" s="45"/>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
       <c r="M241" s="1"/>
@@ -8919,7 +8928,7 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
-      <c r="J242" s="46"/>
+      <c r="J242" s="45"/>
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
       <c r="M242" s="1"/>
@@ -8947,7 +8956,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
-      <c r="J243" s="46"/>
+      <c r="J243" s="45"/>
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
@@ -8975,7 +8984,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
-      <c r="J244" s="46"/>
+      <c r="J244" s="45"/>
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
@@ -9003,7 +9012,7 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
-      <c r="J245" s="46"/>
+      <c r="J245" s="45"/>
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
       <c r="M245" s="1"/>
@@ -9031,7 +9040,7 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
-      <c r="J246" s="46"/>
+      <c r="J246" s="45"/>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
       <c r="M246" s="1"/>
@@ -9059,7 +9068,7 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
-      <c r="J247" s="46"/>
+      <c r="J247" s="45"/>
       <c r="K247" s="1"/>
       <c r="L247" s="1"/>
       <c r="M247" s="1"/>
@@ -9087,7 +9096,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
-      <c r="J248" s="46"/>
+      <c r="J248" s="45"/>
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
       <c r="M248" s="1"/>
@@ -9115,7 +9124,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
-      <c r="J249" s="46"/>
+      <c r="J249" s="45"/>
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
       <c r="M249" s="1"/>
@@ -9143,7 +9152,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
-      <c r="J250" s="46"/>
+      <c r="J250" s="45"/>
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
       <c r="M250" s="1"/>
@@ -9171,7 +9180,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
-      <c r="J251" s="46"/>
+      <c r="J251" s="45"/>
       <c r="K251" s="1"/>
       <c r="L251" s="1"/>
       <c r="M251" s="1"/>
@@ -9199,7 +9208,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
-      <c r="J252" s="46"/>
+      <c r="J252" s="45"/>
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
       <c r="M252" s="1"/>
@@ -9227,7 +9236,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
-      <c r="J253" s="46"/>
+      <c r="J253" s="45"/>
       <c r="K253" s="1"/>
       <c r="L253" s="1"/>
       <c r="M253" s="1"/>
@@ -9255,7 +9264,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
-      <c r="J254" s="46"/>
+      <c r="J254" s="45"/>
       <c r="K254" s="1"/>
       <c r="L254" s="1"/>
       <c r="M254" s="1"/>
@@ -9283,7 +9292,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
-      <c r="J255" s="46"/>
+      <c r="J255" s="45"/>
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
       <c r="M255" s="1"/>
@@ -9311,7 +9320,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
-      <c r="J256" s="46"/>
+      <c r="J256" s="45"/>
       <c r="K256" s="1"/>
       <c r="L256" s="1"/>
       <c r="M256" s="1"/>
@@ -9339,7 +9348,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
-      <c r="J257" s="46"/>
+      <c r="J257" s="45"/>
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
       <c r="M257" s="1"/>
@@ -9367,7 +9376,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
-      <c r="J258" s="46"/>
+      <c r="J258" s="45"/>
       <c r="K258" s="1"/>
       <c r="L258" s="1"/>
       <c r="M258" s="1"/>
@@ -9395,7 +9404,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
-      <c r="J259" s="46"/>
+      <c r="J259" s="45"/>
       <c r="K259" s="1"/>
       <c r="L259" s="1"/>
       <c r="M259" s="1"/>
@@ -9423,7 +9432,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
-      <c r="J260" s="46"/>
+      <c r="J260" s="45"/>
       <c r="K260" s="1"/>
       <c r="L260" s="1"/>
       <c r="M260" s="1"/>
@@ -9451,7 +9460,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
-      <c r="J261" s="46"/>
+      <c r="J261" s="45"/>
       <c r="K261" s="1"/>
       <c r="L261" s="1"/>
       <c r="M261" s="1"/>
@@ -9479,7 +9488,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
-      <c r="J262" s="46"/>
+      <c r="J262" s="45"/>
       <c r="K262" s="1"/>
       <c r="L262" s="1"/>
       <c r="M262" s="1"/>
@@ -9507,7 +9516,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
-      <c r="J263" s="46"/>
+      <c r="J263" s="45"/>
       <c r="K263" s="1"/>
       <c r="L263" s="1"/>
       <c r="M263" s="1"/>
@@ -9535,7 +9544,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
-      <c r="J264" s="46"/>
+      <c r="J264" s="45"/>
       <c r="K264" s="1"/>
       <c r="L264" s="1"/>
       <c r="M264" s="1"/>
@@ -9563,7 +9572,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
-      <c r="J265" s="46"/>
+      <c r="J265" s="45"/>
       <c r="K265" s="1"/>
       <c r="L265" s="1"/>
       <c r="M265" s="1"/>
@@ -9591,7 +9600,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
-      <c r="J266" s="46"/>
+      <c r="J266" s="45"/>
       <c r="K266" s="1"/>
       <c r="L266" s="1"/>
       <c r="M266" s="1"/>
@@ -9619,7 +9628,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
-      <c r="J267" s="46"/>
+      <c r="J267" s="45"/>
       <c r="K267" s="1"/>
       <c r="L267" s="1"/>
       <c r="M267" s="1"/>
@@ -9647,7 +9656,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
-      <c r="J268" s="46"/>
+      <c r="J268" s="45"/>
       <c r="K268" s="1"/>
       <c r="L268" s="1"/>
       <c r="M268" s="1"/>
@@ -9675,7 +9684,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
-      <c r="J269" s="46"/>
+      <c r="J269" s="45"/>
       <c r="K269" s="1"/>
       <c r="L269" s="1"/>
       <c r="M269" s="1"/>
@@ -9703,7 +9712,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
-      <c r="J270" s="46"/>
+      <c r="J270" s="45"/>
       <c r="K270" s="1"/>
       <c r="L270" s="1"/>
       <c r="M270" s="1"/>
@@ -9731,7 +9740,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
-      <c r="J271" s="46"/>
+      <c r="J271" s="45"/>
       <c r="K271" s="1"/>
       <c r="L271" s="1"/>
       <c r="M271" s="1"/>
@@ -9759,7 +9768,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
-      <c r="J272" s="46"/>
+      <c r="J272" s="45"/>
       <c r="K272" s="1"/>
       <c r="L272" s="1"/>
       <c r="M272" s="1"/>
@@ -9787,7 +9796,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
-      <c r="J273" s="46"/>
+      <c r="J273" s="45"/>
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
       <c r="M273" s="1"/>
@@ -9815,7 +9824,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
-      <c r="J274" s="46"/>
+      <c r="J274" s="45"/>
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
       <c r="M274" s="1"/>
@@ -9843,7 +9852,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
-      <c r="J275" s="46"/>
+      <c r="J275" s="45"/>
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
       <c r="M275" s="1"/>
@@ -9871,7 +9880,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
-      <c r="J276" s="46"/>
+      <c r="J276" s="45"/>
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
       <c r="M276" s="1"/>
@@ -9899,7 +9908,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
-      <c r="J277" s="46"/>
+      <c r="J277" s="45"/>
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
       <c r="M277" s="1"/>
@@ -9927,7 +9936,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
-      <c r="J278" s="46"/>
+      <c r="J278" s="45"/>
       <c r="K278" s="1"/>
       <c r="L278" s="1"/>
       <c r="M278" s="1"/>
@@ -9955,7 +9964,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
-      <c r="J279" s="46"/>
+      <c r="J279" s="45"/>
       <c r="K279" s="1"/>
       <c r="L279" s="1"/>
       <c r="M279" s="1"/>
@@ -9983,7 +9992,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
-      <c r="J280" s="46"/>
+      <c r="J280" s="45"/>
       <c r="K280" s="1"/>
       <c r="L280" s="1"/>
       <c r="M280" s="1"/>
@@ -10011,7 +10020,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
-      <c r="J281" s="46"/>
+      <c r="J281" s="45"/>
       <c r="K281" s="1"/>
       <c r="L281" s="1"/>
       <c r="M281" s="1"/>
@@ -10039,7 +10048,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
-      <c r="J282" s="46"/>
+      <c r="J282" s="45"/>
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
       <c r="M282" s="1"/>
@@ -10067,7 +10076,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
-      <c r="J283" s="46"/>
+      <c r="J283" s="45"/>
       <c r="K283" s="1"/>
       <c r="L283" s="1"/>
       <c r="M283" s="1"/>
@@ -10095,7 +10104,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
-      <c r="J284" s="46"/>
+      <c r="J284" s="45"/>
       <c r="K284" s="1"/>
       <c r="L284" s="1"/>
       <c r="M284" s="1"/>
@@ -10123,7 +10132,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
-      <c r="J285" s="46"/>
+      <c r="J285" s="45"/>
       <c r="K285" s="1"/>
       <c r="L285" s="1"/>
       <c r="M285" s="1"/>
@@ -10151,7 +10160,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
-      <c r="J286" s="46"/>
+      <c r="J286" s="45"/>
       <c r="K286" s="1"/>
       <c r="L286" s="1"/>
       <c r="M286" s="1"/>
@@ -10179,7 +10188,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
-      <c r="J287" s="46"/>
+      <c r="J287" s="45"/>
       <c r="K287" s="1"/>
       <c r="L287" s="1"/>
       <c r="M287" s="1"/>
@@ -10207,7 +10216,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
-      <c r="J288" s="46"/>
+      <c r="J288" s="45"/>
       <c r="K288" s="1"/>
       <c r="L288" s="1"/>
       <c r="M288" s="1"/>
@@ -10235,7 +10244,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
-      <c r="J289" s="46"/>
+      <c r="J289" s="45"/>
       <c r="K289" s="1"/>
       <c r="L289" s="1"/>
       <c r="M289" s="1"/>
@@ -10263,7 +10272,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
-      <c r="J290" s="46"/>
+      <c r="J290" s="45"/>
       <c r="K290" s="1"/>
       <c r="L290" s="1"/>
       <c r="M290" s="1"/>
@@ -10291,7 +10300,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
-      <c r="J291" s="46"/>
+      <c r="J291" s="45"/>
       <c r="K291" s="1"/>
       <c r="L291" s="1"/>
       <c r="M291" s="1"/>
@@ -10319,7 +10328,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
-      <c r="J292" s="46"/>
+      <c r="J292" s="45"/>
       <c r="K292" s="1"/>
       <c r="L292" s="1"/>
       <c r="M292" s="1"/>
@@ -10347,7 +10356,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
-      <c r="J293" s="46"/>
+      <c r="J293" s="45"/>
       <c r="K293" s="1"/>
       <c r="L293" s="1"/>
       <c r="M293" s="1"/>
@@ -10375,7 +10384,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
-      <c r="J294" s="46"/>
+      <c r="J294" s="45"/>
       <c r="K294" s="1"/>
       <c r="L294" s="1"/>
       <c r="M294" s="1"/>
@@ -10403,7 +10412,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
-      <c r="J295" s="46"/>
+      <c r="J295" s="45"/>
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
       <c r="M295" s="1"/>
@@ -10431,7 +10440,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
-      <c r="J296" s="46"/>
+      <c r="J296" s="45"/>
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
       <c r="M296" s="1"/>
@@ -10459,7 +10468,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
-      <c r="J297" s="46"/>
+      <c r="J297" s="45"/>
       <c r="K297" s="1"/>
       <c r="L297" s="1"/>
       <c r="M297" s="1"/>
@@ -10487,7 +10496,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
-      <c r="J298" s="46"/>
+      <c r="J298" s="45"/>
       <c r="K298" s="1"/>
       <c r="L298" s="1"/>
       <c r="M298" s="1"/>
@@ -10515,7 +10524,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
-      <c r="J299" s="46"/>
+      <c r="J299" s="45"/>
       <c r="K299" s="1"/>
       <c r="L299" s="1"/>
       <c r="M299" s="1"/>
@@ -10543,7 +10552,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
-      <c r="J300" s="46"/>
+      <c r="J300" s="45"/>
       <c r="K300" s="1"/>
       <c r="L300" s="1"/>
       <c r="M300" s="1"/>
@@ -10571,7 +10580,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
-      <c r="J301" s="46"/>
+      <c r="J301" s="45"/>
       <c r="K301" s="1"/>
       <c r="L301" s="1"/>
       <c r="M301" s="1"/>
@@ -10599,7 +10608,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
-      <c r="J302" s="46"/>
+      <c r="J302" s="45"/>
       <c r="K302" s="1"/>
       <c r="L302" s="1"/>
       <c r="M302" s="1"/>
@@ -10627,7 +10636,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
-      <c r="J303" s="46"/>
+      <c r="J303" s="45"/>
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
       <c r="M303" s="1"/>
@@ -10655,7 +10664,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
-      <c r="J304" s="46"/>
+      <c r="J304" s="45"/>
       <c r="K304" s="1"/>
       <c r="L304" s="1"/>
       <c r="M304" s="1"/>
@@ -10683,7 +10692,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
-      <c r="J305" s="46"/>
+      <c r="J305" s="45"/>
       <c r="K305" s="1"/>
       <c r="L305" s="1"/>
       <c r="M305" s="1"/>
@@ -10711,7 +10720,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
-      <c r="J306" s="46"/>
+      <c r="J306" s="45"/>
       <c r="K306" s="1"/>
       <c r="L306" s="1"/>
       <c r="M306" s="1"/>
@@ -10739,7 +10748,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
-      <c r="J307" s="46"/>
+      <c r="J307" s="45"/>
       <c r="K307" s="1"/>
       <c r="L307" s="1"/>
       <c r="M307" s="1"/>
@@ -10767,7 +10776,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
-      <c r="J308" s="46"/>
+      <c r="J308" s="45"/>
       <c r="K308" s="1"/>
       <c r="L308" s="1"/>
       <c r="M308" s="1"/>
@@ -10795,7 +10804,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
-      <c r="J309" s="46"/>
+      <c r="J309" s="45"/>
       <c r="K309" s="1"/>
       <c r="L309" s="1"/>
       <c r="M309" s="1"/>
@@ -10823,7 +10832,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
-      <c r="J310" s="46"/>
+      <c r="J310" s="45"/>
       <c r="K310" s="1"/>
       <c r="L310" s="1"/>
       <c r="M310" s="1"/>
@@ -10851,7 +10860,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
-      <c r="J311" s="46"/>
+      <c r="J311" s="45"/>
       <c r="K311" s="1"/>
       <c r="L311" s="1"/>
       <c r="M311" s="1"/>
@@ -10879,7 +10888,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
-      <c r="J312" s="46"/>
+      <c r="J312" s="45"/>
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
       <c r="M312" s="1"/>
@@ -10907,7 +10916,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
-      <c r="J313" s="46"/>
+      <c r="J313" s="45"/>
       <c r="K313" s="1"/>
       <c r="L313" s="1"/>
       <c r="M313" s="1"/>
@@ -10935,7 +10944,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
-      <c r="J314" s="46"/>
+      <c r="J314" s="45"/>
       <c r="K314" s="1"/>
       <c r="L314" s="1"/>
       <c r="M314" s="1"/>
@@ -10963,7 +10972,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
-      <c r="J315" s="46"/>
+      <c r="J315" s="45"/>
       <c r="K315" s="1"/>
       <c r="L315" s="1"/>
       <c r="M315" s="1"/>
@@ -10991,7 +11000,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
-      <c r="J316" s="46"/>
+      <c r="J316" s="45"/>
       <c r="K316" s="1"/>
       <c r="L316" s="1"/>
       <c r="M316" s="1"/>
@@ -11019,7 +11028,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
-      <c r="J317" s="46"/>
+      <c r="J317" s="45"/>
       <c r="K317" s="1"/>
       <c r="L317" s="1"/>
       <c r="M317" s="1"/>
@@ -11047,7 +11056,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
-      <c r="J318" s="46"/>
+      <c r="J318" s="45"/>
       <c r="K318" s="1"/>
       <c r="L318" s="1"/>
       <c r="M318" s="1"/>
@@ -11075,7 +11084,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
-      <c r="J319" s="46"/>
+      <c r="J319" s="45"/>
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
       <c r="M319" s="1"/>
@@ -11103,7 +11112,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
-      <c r="J320" s="46"/>
+      <c r="J320" s="45"/>
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
       <c r="M320" s="1"/>
@@ -11131,7 +11140,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
-      <c r="J321" s="46"/>
+      <c r="J321" s="45"/>
       <c r="K321" s="1"/>
       <c r="L321" s="1"/>
       <c r="M321" s="1"/>
@@ -11159,7 +11168,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
-      <c r="J322" s="46"/>
+      <c r="J322" s="45"/>
       <c r="K322" s="1"/>
       <c r="L322" s="1"/>
       <c r="M322" s="1"/>
@@ -11187,7 +11196,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
-      <c r="J323" s="46"/>
+      <c r="J323" s="45"/>
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
       <c r="M323" s="1"/>
@@ -11215,7 +11224,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
-      <c r="J324" s="46"/>
+      <c r="J324" s="45"/>
       <c r="K324" s="1"/>
       <c r="L324" s="1"/>
       <c r="M324" s="1"/>
@@ -11243,7 +11252,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
-      <c r="J325" s="46"/>
+      <c r="J325" s="45"/>
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
       <c r="M325" s="1"/>
@@ -11271,7 +11280,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
-      <c r="J326" s="46"/>
+      <c r="J326" s="45"/>
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
       <c r="M326" s="1"/>
@@ -11299,7 +11308,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
-      <c r="J327" s="46"/>
+      <c r="J327" s="45"/>
       <c r="K327" s="1"/>
       <c r="L327" s="1"/>
       <c r="M327" s="1"/>
@@ -11327,7 +11336,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
-      <c r="J328" s="46"/>
+      <c r="J328" s="45"/>
       <c r="K328" s="1"/>
       <c r="L328" s="1"/>
       <c r="M328" s="1"/>
@@ -11355,7 +11364,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
-      <c r="J329" s="46"/>
+      <c r="J329" s="45"/>
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
       <c r="M329" s="1"/>
@@ -11383,7 +11392,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
-      <c r="J330" s="46"/>
+      <c r="J330" s="45"/>
       <c r="K330" s="1"/>
       <c r="L330" s="1"/>
       <c r="M330" s="1"/>
@@ -11411,7 +11420,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
-      <c r="J331" s="46"/>
+      <c r="J331" s="45"/>
       <c r="K331" s="1"/>
       <c r="L331" s="1"/>
       <c r="M331" s="1"/>
@@ -11439,7 +11448,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
-      <c r="J332" s="46"/>
+      <c r="J332" s="45"/>
       <c r="K332" s="1"/>
       <c r="L332" s="1"/>
       <c r="M332" s="1"/>
@@ -11467,7 +11476,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
-      <c r="J333" s="46"/>
+      <c r="J333" s="45"/>
       <c r="K333" s="1"/>
       <c r="L333" s="1"/>
       <c r="M333" s="1"/>
@@ -11495,7 +11504,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
-      <c r="J334" s="46"/>
+      <c r="J334" s="45"/>
       <c r="K334" s="1"/>
       <c r="L334" s="1"/>
       <c r="M334" s="1"/>
@@ -11523,7 +11532,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
-      <c r="J335" s="46"/>
+      <c r="J335" s="45"/>
       <c r="K335" s="1"/>
       <c r="L335" s="1"/>
       <c r="M335" s="1"/>
@@ -11551,7 +11560,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
-      <c r="J336" s="46"/>
+      <c r="J336" s="45"/>
       <c r="K336" s="1"/>
       <c r="L336" s="1"/>
       <c r="M336" s="1"/>
@@ -11579,7 +11588,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
-      <c r="J337" s="46"/>
+      <c r="J337" s="45"/>
       <c r="K337" s="1"/>
       <c r="L337" s="1"/>
       <c r="M337" s="1"/>
@@ -11607,7 +11616,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
-      <c r="J338" s="46"/>
+      <c r="J338" s="45"/>
       <c r="K338" s="1"/>
       <c r="L338" s="1"/>
       <c r="M338" s="1"/>
@@ -11635,7 +11644,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
-      <c r="J339" s="46"/>
+      <c r="J339" s="45"/>
       <c r="K339" s="1"/>
       <c r="L339" s="1"/>
       <c r="M339" s="1"/>
@@ -11663,7 +11672,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
-      <c r="J340" s="46"/>
+      <c r="J340" s="45"/>
       <c r="K340" s="1"/>
       <c r="L340" s="1"/>
       <c r="M340" s="1"/>
@@ -11691,7 +11700,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
-      <c r="J341" s="46"/>
+      <c r="J341" s="45"/>
       <c r="K341" s="1"/>
       <c r="L341" s="1"/>
       <c r="M341" s="1"/>
@@ -11719,7 +11728,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
-      <c r="J342" s="46"/>
+      <c r="J342" s="45"/>
       <c r="K342" s="1"/>
       <c r="L342" s="1"/>
       <c r="M342" s="1"/>
@@ -11747,7 +11756,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
-      <c r="J343" s="46"/>
+      <c r="J343" s="45"/>
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -11775,7 +11784,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
-      <c r="J344" s="46"/>
+      <c r="J344" s="45"/>
       <c r="K344" s="1"/>
       <c r="L344" s="1"/>
       <c r="M344" s="1"/>
@@ -11803,7 +11812,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
-      <c r="J345" s="46"/>
+      <c r="J345" s="45"/>
       <c r="K345" s="1"/>
       <c r="L345" s="1"/>
       <c r="M345" s="1"/>
@@ -11831,7 +11840,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
-      <c r="J346" s="46"/>
+      <c r="J346" s="45"/>
       <c r="K346" s="1"/>
       <c r="L346" s="1"/>
       <c r="M346" s="1"/>
@@ -11859,7 +11868,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
-      <c r="J347" s="46"/>
+      <c r="J347" s="45"/>
       <c r="K347" s="1"/>
       <c r="L347" s="1"/>
       <c r="M347" s="1"/>
@@ -11887,7 +11896,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
-      <c r="J348" s="46"/>
+      <c r="J348" s="45"/>
       <c r="K348" s="1"/>
       <c r="L348" s="1"/>
       <c r="M348" s="1"/>
@@ -11915,7 +11924,7 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
-      <c r="J349" s="46"/>
+      <c r="J349" s="45"/>
       <c r="K349" s="1"/>
       <c r="L349" s="1"/>
       <c r="M349" s="1"/>
@@ -11943,7 +11952,7 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
-      <c r="J350" s="46"/>
+      <c r="J350" s="45"/>
       <c r="K350" s="1"/>
       <c r="L350" s="1"/>
       <c r="M350" s="1"/>
@@ -11971,7 +11980,7 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
-      <c r="J351" s="46"/>
+      <c r="J351" s="45"/>
       <c r="K351" s="1"/>
       <c r="L351" s="1"/>
       <c r="M351" s="1"/>
@@ -11999,7 +12008,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
-      <c r="J352" s="46"/>
+      <c r="J352" s="45"/>
       <c r="K352" s="1"/>
       <c r="L352" s="1"/>
       <c r="M352" s="1"/>
@@ -12027,7 +12036,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
-      <c r="J353" s="46"/>
+      <c r="J353" s="45"/>
       <c r="K353" s="1"/>
       <c r="L353" s="1"/>
       <c r="M353" s="1"/>
@@ -12055,7 +12064,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
-      <c r="J354" s="46"/>
+      <c r="J354" s="45"/>
       <c r="K354" s="1"/>
       <c r="L354" s="1"/>
       <c r="M354" s="1"/>
@@ -12083,7 +12092,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
-      <c r="J355" s="46"/>
+      <c r="J355" s="45"/>
       <c r="K355" s="1"/>
       <c r="L355" s="1"/>
       <c r="M355" s="1"/>
@@ -12111,7 +12120,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
-      <c r="J356" s="46"/>
+      <c r="J356" s="45"/>
       <c r="K356" s="1"/>
       <c r="L356" s="1"/>
       <c r="M356" s="1"/>
@@ -12139,7 +12148,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
-      <c r="J357" s="46"/>
+      <c r="J357" s="45"/>
       <c r="K357" s="1"/>
       <c r="L357" s="1"/>
       <c r="M357" s="1"/>
@@ -12167,7 +12176,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
-      <c r="J358" s="46"/>
+      <c r="J358" s="45"/>
       <c r="K358" s="1"/>
       <c r="L358" s="1"/>
       <c r="M358" s="1"/>
@@ -12195,7 +12204,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
-      <c r="J359" s="46"/>
+      <c r="J359" s="45"/>
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
       <c r="M359" s="1"/>
@@ -12223,7 +12232,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
-      <c r="J360" s="46"/>
+      <c r="J360" s="45"/>
       <c r="K360" s="1"/>
       <c r="L360" s="1"/>
       <c r="M360" s="1"/>
@@ -12251,7 +12260,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
-      <c r="J361" s="46"/>
+      <c r="J361" s="45"/>
       <c r="K361" s="1"/>
       <c r="L361" s="1"/>
       <c r="M361" s="1"/>
@@ -12279,7 +12288,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
-      <c r="J362" s="46"/>
+      <c r="J362" s="45"/>
       <c r="K362" s="1"/>
       <c r="L362" s="1"/>
       <c r="M362" s="1"/>
@@ -12307,7 +12316,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
-      <c r="J363" s="46"/>
+      <c r="J363" s="45"/>
       <c r="K363" s="1"/>
       <c r="L363" s="1"/>
       <c r="M363" s="1"/>
@@ -12335,7 +12344,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
-      <c r="J364" s="46"/>
+      <c r="J364" s="45"/>
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
       <c r="M364" s="1"/>
@@ -12363,7 +12372,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
-      <c r="J365" s="46"/>
+      <c r="J365" s="45"/>
       <c r="K365" s="1"/>
       <c r="L365" s="1"/>
       <c r="M365" s="1"/>
@@ -12391,7 +12400,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
-      <c r="J366" s="46"/>
+      <c r="J366" s="45"/>
       <c r="K366" s="1"/>
       <c r="L366" s="1"/>
       <c r="M366" s="1"/>
@@ -12419,7 +12428,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
-      <c r="J367" s="46"/>
+      <c r="J367" s="45"/>
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
       <c r="M367" s="1"/>
@@ -12447,7 +12456,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
-      <c r="J368" s="46"/>
+      <c r="J368" s="45"/>
       <c r="K368" s="1"/>
       <c r="L368" s="1"/>
       <c r="M368" s="1"/>
@@ -12475,7 +12484,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
       <c r="I369" s="1"/>
-      <c r="J369" s="46"/>
+      <c r="J369" s="45"/>
       <c r="K369" s="1"/>
       <c r="L369" s="1"/>
       <c r="M369" s="1"/>
@@ -12503,7 +12512,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
       <c r="I370" s="1"/>
-      <c r="J370" s="46"/>
+      <c r="J370" s="45"/>
       <c r="K370" s="1"/>
       <c r="L370" s="1"/>
       <c r="M370" s="1"/>
@@ -12531,7 +12540,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
       <c r="I371" s="1"/>
-      <c r="J371" s="46"/>
+      <c r="J371" s="45"/>
       <c r="K371" s="1"/>
       <c r="L371" s="1"/>
       <c r="M371" s="1"/>
@@ -12559,7 +12568,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
       <c r="I372" s="1"/>
-      <c r="J372" s="46"/>
+      <c r="J372" s="45"/>
       <c r="K372" s="1"/>
       <c r="L372" s="1"/>
       <c r="M372" s="1"/>
@@ -12587,7 +12596,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
       <c r="I373" s="1"/>
-      <c r="J373" s="46"/>
+      <c r="J373" s="45"/>
       <c r="K373" s="1"/>
       <c r="L373" s="1"/>
       <c r="M373" s="1"/>
@@ -12615,7 +12624,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
       <c r="I374" s="1"/>
-      <c r="J374" s="46"/>
+      <c r="J374" s="45"/>
       <c r="K374" s="1"/>
       <c r="L374" s="1"/>
       <c r="M374" s="1"/>
@@ -12643,7 +12652,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
       <c r="I375" s="1"/>
-      <c r="J375" s="46"/>
+      <c r="J375" s="45"/>
       <c r="K375" s="1"/>
       <c r="L375" s="1"/>
       <c r="M375" s="1"/>
@@ -12671,7 +12680,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
-      <c r="J376" s="46"/>
+      <c r="J376" s="45"/>
       <c r="K376" s="1"/>
       <c r="L376" s="1"/>
       <c r="M376" s="1"/>
@@ -12699,7 +12708,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
-      <c r="J377" s="46"/>
+      <c r="J377" s="45"/>
       <c r="K377" s="1"/>
       <c r="L377" s="1"/>
       <c r="M377" s="1"/>
@@ -12727,7 +12736,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
-      <c r="J378" s="46"/>
+      <c r="J378" s="45"/>
       <c r="K378" s="1"/>
       <c r="L378" s="1"/>
       <c r="M378" s="1"/>
@@ -12755,7 +12764,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
-      <c r="J379" s="46"/>
+      <c r="J379" s="45"/>
       <c r="K379" s="1"/>
       <c r="L379" s="1"/>
       <c r="M379" s="1"/>
@@ -12783,7 +12792,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
-      <c r="J380" s="46"/>
+      <c r="J380" s="45"/>
       <c r="K380" s="1"/>
       <c r="L380" s="1"/>
       <c r="M380" s="1"/>
@@ -12811,7 +12820,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
-      <c r="J381" s="46"/>
+      <c r="J381" s="45"/>
       <c r="K381" s="1"/>
       <c r="L381" s="1"/>
       <c r="M381" s="1"/>
@@ -12839,7 +12848,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
-      <c r="J382" s="46"/>
+      <c r="J382" s="45"/>
       <c r="K382" s="1"/>
       <c r="L382" s="1"/>
       <c r="M382" s="1"/>
@@ -12867,7 +12876,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
-      <c r="J383" s="46"/>
+      <c r="J383" s="45"/>
       <c r="K383" s="1"/>
       <c r="L383" s="1"/>
       <c r="M383" s="1"/>
@@ -12895,7 +12904,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
-      <c r="J384" s="46"/>
+      <c r="J384" s="45"/>
       <c r="K384" s="1"/>
       <c r="L384" s="1"/>
       <c r="M384" s="1"/>
@@ -12923,7 +12932,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
-      <c r="J385" s="46"/>
+      <c r="J385" s="45"/>
       <c r="K385" s="1"/>
       <c r="L385" s="1"/>
       <c r="M385" s="1"/>
@@ -12951,7 +12960,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
-      <c r="J386" s="46"/>
+      <c r="J386" s="45"/>
       <c r="K386" s="1"/>
       <c r="L386" s="1"/>
       <c r="M386" s="1"/>
@@ -12979,7 +12988,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
-      <c r="J387" s="46"/>
+      <c r="J387" s="45"/>
       <c r="K387" s="1"/>
       <c r="L387" s="1"/>
       <c r="M387" s="1"/>
@@ -13007,7 +13016,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
-      <c r="J388" s="46"/>
+      <c r="J388" s="45"/>
       <c r="K388" s="1"/>
       <c r="L388" s="1"/>
       <c r="M388" s="1"/>
@@ -13035,7 +13044,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
-      <c r="J389" s="46"/>
+      <c r="J389" s="45"/>
       <c r="K389" s="1"/>
       <c r="L389" s="1"/>
       <c r="M389" s="1"/>
@@ -13063,7 +13072,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
-      <c r="J390" s="46"/>
+      <c r="J390" s="45"/>
       <c r="K390" s="1"/>
       <c r="L390" s="1"/>
       <c r="M390" s="1"/>
@@ -13091,7 +13100,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
       <c r="I391" s="1"/>
-      <c r="J391" s="46"/>
+      <c r="J391" s="45"/>
       <c r="K391" s="1"/>
       <c r="L391" s="1"/>
       <c r="M391" s="1"/>
@@ -13119,7 +13128,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
       <c r="I392" s="1"/>
-      <c r="J392" s="46"/>
+      <c r="J392" s="45"/>
       <c r="K392" s="1"/>
       <c r="L392" s="1"/>
       <c r="M392" s="1"/>
@@ -13147,7 +13156,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
       <c r="I393" s="1"/>
-      <c r="J393" s="46"/>
+      <c r="J393" s="45"/>
       <c r="K393" s="1"/>
       <c r="L393" s="1"/>
       <c r="M393" s="1"/>
@@ -13175,7 +13184,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
       <c r="I394" s="1"/>
-      <c r="J394" s="46"/>
+      <c r="J394" s="45"/>
       <c r="K394" s="1"/>
       <c r="L394" s="1"/>
       <c r="M394" s="1"/>
@@ -13203,7 +13212,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
-      <c r="J395" s="46"/>
+      <c r="J395" s="45"/>
       <c r="K395" s="1"/>
       <c r="L395" s="1"/>
       <c r="M395" s="1"/>
@@ -13231,7 +13240,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
       <c r="I396" s="1"/>
-      <c r="J396" s="46"/>
+      <c r="J396" s="45"/>
       <c r="K396" s="1"/>
       <c r="L396" s="1"/>
       <c r="M396" s="1"/>
@@ -13259,7 +13268,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
       <c r="I397" s="1"/>
-      <c r="J397" s="46"/>
+      <c r="J397" s="45"/>
       <c r="K397" s="1"/>
       <c r="L397" s="1"/>
       <c r="M397" s="1"/>
@@ -13287,7 +13296,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
       <c r="I398" s="1"/>
-      <c r="J398" s="46"/>
+      <c r="J398" s="45"/>
       <c r="K398" s="1"/>
       <c r="L398" s="1"/>
       <c r="M398" s="1"/>
@@ -13315,7 +13324,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
       <c r="I399" s="1"/>
-      <c r="J399" s="46"/>
+      <c r="J399" s="45"/>
       <c r="K399" s="1"/>
       <c r="L399" s="1"/>
       <c r="M399" s="1"/>
@@ -13343,7 +13352,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
       <c r="I400" s="1"/>
-      <c r="J400" s="46"/>
+      <c r="J400" s="45"/>
       <c r="K400" s="1"/>
       <c r="L400" s="1"/>
       <c r="M400" s="1"/>
@@ -13371,7 +13380,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
       <c r="I401" s="1"/>
-      <c r="J401" s="46"/>
+      <c r="J401" s="45"/>
       <c r="K401" s="1"/>
       <c r="L401" s="1"/>
       <c r="M401" s="1"/>
@@ -13399,7 +13408,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
-      <c r="J402" s="46"/>
+      <c r="J402" s="45"/>
       <c r="K402" s="1"/>
       <c r="L402" s="1"/>
       <c r="M402" s="1"/>
@@ -13427,7 +13436,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
       <c r="I403" s="1"/>
-      <c r="J403" s="46"/>
+      <c r="J403" s="45"/>
       <c r="K403" s="1"/>
       <c r="L403" s="1"/>
       <c r="M403" s="1"/>
@@ -13455,7 +13464,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
       <c r="I404" s="1"/>
-      <c r="J404" s="46"/>
+      <c r="J404" s="45"/>
       <c r="K404" s="1"/>
       <c r="L404" s="1"/>
       <c r="M404" s="1"/>
@@ -13483,7 +13492,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
       <c r="I405" s="1"/>
-      <c r="J405" s="46"/>
+      <c r="J405" s="45"/>
       <c r="K405" s="1"/>
       <c r="L405" s="1"/>
       <c r="M405" s="1"/>
@@ -13511,7 +13520,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
       <c r="I406" s="1"/>
-      <c r="J406" s="46"/>
+      <c r="J406" s="45"/>
       <c r="K406" s="1"/>
       <c r="L406" s="1"/>
       <c r="M406" s="1"/>
@@ -13539,7 +13548,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
       <c r="I407" s="1"/>
-      <c r="J407" s="46"/>
+      <c r="J407" s="45"/>
       <c r="K407" s="1"/>
       <c r="L407" s="1"/>
       <c r="M407" s="1"/>
@@ -13567,7 +13576,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
-      <c r="J408" s="46"/>
+      <c r="J408" s="45"/>
       <c r="K408" s="1"/>
       <c r="L408" s="1"/>
       <c r="M408" s="1"/>
@@ -13595,7 +13604,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
-      <c r="J409" s="46"/>
+      <c r="J409" s="45"/>
       <c r="K409" s="1"/>
       <c r="L409" s="1"/>
       <c r="M409" s="1"/>
@@ -13623,7 +13632,7 @@
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
-      <c r="J410" s="46"/>
+      <c r="J410" s="45"/>
       <c r="K410" s="1"/>
       <c r="L410" s="1"/>
       <c r="M410" s="1"/>
@@ -13651,7 +13660,7 @@
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
-      <c r="J411" s="46"/>
+      <c r="J411" s="45"/>
       <c r="K411" s="1"/>
       <c r="L411" s="1"/>
       <c r="M411" s="1"/>
@@ -13679,7 +13688,7 @@
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
       <c r="I412" s="1"/>
-      <c r="J412" s="46"/>
+      <c r="J412" s="45"/>
       <c r="K412" s="1"/>
       <c r="L412" s="1"/>
       <c r="M412" s="1"/>
@@ -13707,7 +13716,7 @@
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
       <c r="I413" s="1"/>
-      <c r="J413" s="46"/>
+      <c r="J413" s="45"/>
       <c r="K413" s="1"/>
       <c r="L413" s="1"/>
       <c r="M413" s="1"/>
@@ -13735,7 +13744,7 @@
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
       <c r="I414" s="1"/>
-      <c r="J414" s="46"/>
+      <c r="J414" s="45"/>
       <c r="K414" s="1"/>
       <c r="L414" s="1"/>
       <c r="M414" s="1"/>
@@ -13763,7 +13772,7 @@
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
       <c r="I415" s="1"/>
-      <c r="J415" s="46"/>
+      <c r="J415" s="45"/>
       <c r="K415" s="1"/>
       <c r="L415" s="1"/>
       <c r="M415" s="1"/>
@@ -13791,7 +13800,7 @@
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
       <c r="I416" s="1"/>
-      <c r="J416" s="46"/>
+      <c r="J416" s="45"/>
       <c r="K416" s="1"/>
       <c r="L416" s="1"/>
       <c r="M416" s="1"/>
@@ -13819,7 +13828,7 @@
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
-      <c r="J417" s="46"/>
+      <c r="J417" s="45"/>
       <c r="K417" s="1"/>
       <c r="L417" s="1"/>
       <c r="M417" s="1"/>
@@ -13847,7 +13856,7 @@
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
-      <c r="J418" s="46"/>
+      <c r="J418" s="45"/>
       <c r="K418" s="1"/>
       <c r="L418" s="1"/>
       <c r="M418" s="1"/>
@@ -13875,7 +13884,7 @@
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
       <c r="I419" s="1"/>
-      <c r="J419" s="46"/>
+      <c r="J419" s="45"/>
       <c r="K419" s="1"/>
       <c r="L419" s="1"/>
       <c r="M419" s="1"/>
@@ -13903,7 +13912,7 @@
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
       <c r="I420" s="1"/>
-      <c r="J420" s="46"/>
+      <c r="J420" s="45"/>
       <c r="K420" s="1"/>
       <c r="L420" s="1"/>
       <c r="M420" s="1"/>
@@ -13931,7 +13940,7 @@
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
       <c r="I421" s="1"/>
-      <c r="J421" s="46"/>
+      <c r="J421" s="45"/>
       <c r="K421" s="1"/>
       <c r="L421" s="1"/>
       <c r="M421" s="1"/>
@@ -13959,7 +13968,7 @@
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
       <c r="I422" s="1"/>
-      <c r="J422" s="46"/>
+      <c r="J422" s="45"/>
       <c r="K422" s="1"/>
       <c r="L422" s="1"/>
       <c r="M422" s="1"/>
@@ -13987,7 +13996,7 @@
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
       <c r="I423" s="1"/>
-      <c r="J423" s="46"/>
+      <c r="J423" s="45"/>
       <c r="K423" s="1"/>
       <c r="L423" s="1"/>
       <c r="M423" s="1"/>
@@ -14015,7 +14024,7 @@
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
       <c r="I424" s="1"/>
-      <c r="J424" s="46"/>
+      <c r="J424" s="45"/>
       <c r="K424" s="1"/>
       <c r="L424" s="1"/>
       <c r="M424" s="1"/>
@@ -14043,7 +14052,7 @@
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
       <c r="I425" s="1"/>
-      <c r="J425" s="46"/>
+      <c r="J425" s="45"/>
       <c r="K425" s="1"/>
       <c r="L425" s="1"/>
       <c r="M425" s="1"/>
@@ -14071,7 +14080,7 @@
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
       <c r="I426" s="1"/>
-      <c r="J426" s="46"/>
+      <c r="J426" s="45"/>
       <c r="K426" s="1"/>
       <c r="L426" s="1"/>
       <c r="M426" s="1"/>
@@ -14099,7 +14108,7 @@
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
       <c r="I427" s="1"/>
-      <c r="J427" s="46"/>
+      <c r="J427" s="45"/>
       <c r="K427" s="1"/>
       <c r="L427" s="1"/>
       <c r="M427" s="1"/>
@@ -14127,7 +14136,7 @@
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
       <c r="I428" s="1"/>
-      <c r="J428" s="46"/>
+      <c r="J428" s="45"/>
       <c r="K428" s="1"/>
       <c r="L428" s="1"/>
       <c r="M428" s="1"/>
@@ -14155,7 +14164,7 @@
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
       <c r="I429" s="1"/>
-      <c r="J429" s="46"/>
+      <c r="J429" s="45"/>
       <c r="K429" s="1"/>
       <c r="L429" s="1"/>
       <c r="M429" s="1"/>
@@ -14183,7 +14192,7 @@
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
       <c r="I430" s="1"/>
-      <c r="J430" s="46"/>
+      <c r="J430" s="45"/>
       <c r="K430" s="1"/>
       <c r="L430" s="1"/>
       <c r="M430" s="1"/>
@@ -14211,7 +14220,7 @@
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
       <c r="I431" s="1"/>
-      <c r="J431" s="46"/>
+      <c r="J431" s="45"/>
       <c r="K431" s="1"/>
       <c r="L431" s="1"/>
       <c r="M431" s="1"/>
@@ -14239,7 +14248,7 @@
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
       <c r="I432" s="1"/>
-      <c r="J432" s="46"/>
+      <c r="J432" s="45"/>
       <c r="K432" s="1"/>
       <c r="L432" s="1"/>
       <c r="M432" s="1"/>
@@ -14267,7 +14276,7 @@
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
       <c r="I433" s="1"/>
-      <c r="J433" s="46"/>
+      <c r="J433" s="45"/>
       <c r="K433" s="1"/>
       <c r="L433" s="1"/>
       <c r="M433" s="1"/>
@@ -14295,7 +14304,7 @@
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
       <c r="I434" s="1"/>
-      <c r="J434" s="46"/>
+      <c r="J434" s="45"/>
       <c r="K434" s="1"/>
       <c r="L434" s="1"/>
       <c r="M434" s="1"/>
@@ -14323,7 +14332,7 @@
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
       <c r="I435" s="1"/>
-      <c r="J435" s="46"/>
+      <c r="J435" s="45"/>
       <c r="K435" s="1"/>
       <c r="L435" s="1"/>
       <c r="M435" s="1"/>
@@ -14351,7 +14360,7 @@
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
       <c r="I436" s="1"/>
-      <c r="J436" s="46"/>
+      <c r="J436" s="45"/>
       <c r="K436" s="1"/>
       <c r="L436" s="1"/>
       <c r="M436" s="1"/>
@@ -14379,7 +14388,7 @@
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
       <c r="I437" s="1"/>
-      <c r="J437" s="46"/>
+      <c r="J437" s="45"/>
       <c r="K437" s="1"/>
       <c r="L437" s="1"/>
       <c r="M437" s="1"/>
@@ -14407,7 +14416,7 @@
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
       <c r="I438" s="1"/>
-      <c r="J438" s="46"/>
+      <c r="J438" s="45"/>
       <c r="K438" s="1"/>
       <c r="L438" s="1"/>
       <c r="M438" s="1"/>
@@ -14435,7 +14444,7 @@
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
       <c r="I439" s="1"/>
-      <c r="J439" s="46"/>
+      <c r="J439" s="45"/>
       <c r="K439" s="1"/>
       <c r="L439" s="1"/>
       <c r="M439" s="1"/>
@@ -14463,7 +14472,7 @@
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
       <c r="I440" s="1"/>
-      <c r="J440" s="46"/>
+      <c r="J440" s="45"/>
       <c r="K440" s="1"/>
       <c r="L440" s="1"/>
       <c r="M440" s="1"/>
@@ -14491,7 +14500,7 @@
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
       <c r="I441" s="1"/>
-      <c r="J441" s="46"/>
+      <c r="J441" s="45"/>
       <c r="K441" s="1"/>
       <c r="L441" s="1"/>
       <c r="M441" s="1"/>
@@ -14519,7 +14528,7 @@
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
       <c r="I442" s="1"/>
-      <c r="J442" s="46"/>
+      <c r="J442" s="45"/>
       <c r="K442" s="1"/>
       <c r="L442" s="1"/>
       <c r="M442" s="1"/>
@@ -14547,7 +14556,7 @@
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
       <c r="I443" s="1"/>
-      <c r="J443" s="46"/>
+      <c r="J443" s="45"/>
       <c r="K443" s="1"/>
       <c r="L443" s="1"/>
       <c r="M443" s="1"/>
@@ -14575,7 +14584,7 @@
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
       <c r="I444" s="1"/>
-      <c r="J444" s="46"/>
+      <c r="J444" s="45"/>
       <c r="K444" s="1"/>
       <c r="L444" s="1"/>
       <c r="M444" s="1"/>
@@ -14603,7 +14612,7 @@
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
       <c r="I445" s="1"/>
-      <c r="J445" s="46"/>
+      <c r="J445" s="45"/>
       <c r="K445" s="1"/>
       <c r="L445" s="1"/>
       <c r="M445" s="1"/>
@@ -14631,7 +14640,7 @@
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
       <c r="I446" s="1"/>
-      <c r="J446" s="46"/>
+      <c r="J446" s="45"/>
       <c r="K446" s="1"/>
       <c r="L446" s="1"/>
       <c r="M446" s="1"/>
@@ -14659,7 +14668,7 @@
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
       <c r="I447" s="1"/>
-      <c r="J447" s="46"/>
+      <c r="J447" s="45"/>
       <c r="K447" s="1"/>
       <c r="L447" s="1"/>
       <c r="M447" s="1"/>
@@ -14687,7 +14696,7 @@
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
       <c r="I448" s="1"/>
-      <c r="J448" s="46"/>
+      <c r="J448" s="45"/>
       <c r="K448" s="1"/>
       <c r="L448" s="1"/>
       <c r="M448" s="1"/>
@@ -14715,7 +14724,7 @@
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
       <c r="I449" s="1"/>
-      <c r="J449" s="46"/>
+      <c r="J449" s="45"/>
       <c r="K449" s="1"/>
       <c r="L449" s="1"/>
       <c r="M449" s="1"/>
@@ -14743,7 +14752,7 @@
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
       <c r="I450" s="1"/>
-      <c r="J450" s="46"/>
+      <c r="J450" s="45"/>
       <c r="K450" s="1"/>
       <c r="L450" s="1"/>
       <c r="M450" s="1"/>
@@ -14771,7 +14780,7 @@
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
       <c r="I451" s="1"/>
-      <c r="J451" s="46"/>
+      <c r="J451" s="45"/>
       <c r="K451" s="1"/>
       <c r="L451" s="1"/>
       <c r="M451" s="1"/>
@@ -14799,7 +14808,7 @@
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
       <c r="I452" s="1"/>
-      <c r="J452" s="46"/>
+      <c r="J452" s="45"/>
       <c r="K452" s="1"/>
       <c r="L452" s="1"/>
       <c r="M452" s="1"/>
@@ -14827,7 +14836,7 @@
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
       <c r="I453" s="1"/>
-      <c r="J453" s="46"/>
+      <c r="J453" s="45"/>
       <c r="K453" s="1"/>
       <c r="L453" s="1"/>
       <c r="M453" s="1"/>
@@ -14855,7 +14864,7 @@
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
       <c r="I454" s="1"/>
-      <c r="J454" s="46"/>
+      <c r="J454" s="45"/>
       <c r="K454" s="1"/>
       <c r="L454" s="1"/>
       <c r="M454" s="1"/>
@@ -14883,7 +14892,7 @@
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
       <c r="I455" s="1"/>
-      <c r="J455" s="46"/>
+      <c r="J455" s="45"/>
       <c r="K455" s="1"/>
       <c r="L455" s="1"/>
       <c r="M455" s="1"/>
@@ -14911,7 +14920,7 @@
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
       <c r="I456" s="1"/>
-      <c r="J456" s="46"/>
+      <c r="J456" s="45"/>
       <c r="K456" s="1"/>
       <c r="L456" s="1"/>
       <c r="M456" s="1"/>
@@ -14939,7 +14948,7 @@
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
       <c r="I457" s="1"/>
-      <c r="J457" s="46"/>
+      <c r="J457" s="45"/>
       <c r="K457" s="1"/>
       <c r="L457" s="1"/>
       <c r="M457" s="1"/>
@@ -14967,7 +14976,7 @@
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
       <c r="I458" s="1"/>
-      <c r="J458" s="46"/>
+      <c r="J458" s="45"/>
       <c r="K458" s="1"/>
       <c r="L458" s="1"/>
       <c r="M458" s="1"/>
@@ -14995,7 +15004,7 @@
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
       <c r="I459" s="1"/>
-      <c r="J459" s="46"/>
+      <c r="J459" s="45"/>
       <c r="K459" s="1"/>
       <c r="L459" s="1"/>
       <c r="M459" s="1"/>
@@ -15023,7 +15032,7 @@
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
       <c r="I460" s="1"/>
-      <c r="J460" s="46"/>
+      <c r="J460" s="45"/>
       <c r="K460" s="1"/>
       <c r="L460" s="1"/>
       <c r="M460" s="1"/>
@@ -15051,7 +15060,7 @@
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
       <c r="I461" s="1"/>
-      <c r="J461" s="46"/>
+      <c r="J461" s="45"/>
       <c r="K461" s="1"/>
       <c r="L461" s="1"/>
       <c r="M461" s="1"/>
@@ -15079,7 +15088,7 @@
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
       <c r="I462" s="1"/>
-      <c r="J462" s="46"/>
+      <c r="J462" s="45"/>
       <c r="K462" s="1"/>
       <c r="L462" s="1"/>
       <c r="M462" s="1"/>
@@ -15107,7 +15116,7 @@
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
       <c r="I463" s="1"/>
-      <c r="J463" s="46"/>
+      <c r="J463" s="45"/>
       <c r="K463" s="1"/>
       <c r="L463" s="1"/>
       <c r="M463" s="1"/>
@@ -15135,7 +15144,7 @@
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
       <c r="I464" s="1"/>
-      <c r="J464" s="46"/>
+      <c r="J464" s="45"/>
       <c r="K464" s="1"/>
       <c r="L464" s="1"/>
       <c r="M464" s="1"/>
@@ -15163,7 +15172,7 @@
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
       <c r="I465" s="1"/>
-      <c r="J465" s="46"/>
+      <c r="J465" s="45"/>
       <c r="K465" s="1"/>
       <c r="L465" s="1"/>
       <c r="M465" s="1"/>
@@ -15191,7 +15200,7 @@
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
       <c r="I466" s="1"/>
-      <c r="J466" s="46"/>
+      <c r="J466" s="45"/>
       <c r="K466" s="1"/>
       <c r="L466" s="1"/>
       <c r="M466" s="1"/>
@@ -15219,7 +15228,7 @@
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
       <c r="I467" s="1"/>
-      <c r="J467" s="46"/>
+      <c r="J467" s="45"/>
       <c r="K467" s="1"/>
       <c r="L467" s="1"/>
       <c r="M467" s="1"/>
@@ -15247,7 +15256,7 @@
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
       <c r="I468" s="1"/>
-      <c r="J468" s="46"/>
+      <c r="J468" s="45"/>
       <c r="K468" s="1"/>
       <c r="L468" s="1"/>
       <c r="M468" s="1"/>
@@ -15275,7 +15284,7 @@
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
       <c r="I469" s="1"/>
-      <c r="J469" s="46"/>
+      <c r="J469" s="45"/>
       <c r="K469" s="1"/>
       <c r="L469" s="1"/>
       <c r="M469" s="1"/>
@@ -15303,7 +15312,7 @@
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
       <c r="I470" s="1"/>
-      <c r="J470" s="46"/>
+      <c r="J470" s="45"/>
       <c r="K470" s="1"/>
       <c r="L470" s="1"/>
       <c r="M470" s="1"/>
@@ -15331,7 +15340,7 @@
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
       <c r="I471" s="1"/>
-      <c r="J471" s="46"/>
+      <c r="J471" s="45"/>
       <c r="K471" s="1"/>
       <c r="L471" s="1"/>
       <c r="M471" s="1"/>
@@ -15359,7 +15368,7 @@
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
       <c r="I472" s="1"/>
-      <c r="J472" s="46"/>
+      <c r="J472" s="45"/>
       <c r="K472" s="1"/>
       <c r="L472" s="1"/>
       <c r="M472" s="1"/>
@@ -15387,7 +15396,7 @@
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
       <c r="I473" s="1"/>
-      <c r="J473" s="46"/>
+      <c r="J473" s="45"/>
       <c r="K473" s="1"/>
       <c r="L473" s="1"/>
       <c r="M473" s="1"/>
@@ -15415,7 +15424,7 @@
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
       <c r="I474" s="1"/>
-      <c r="J474" s="46"/>
+      <c r="J474" s="45"/>
       <c r="K474" s="1"/>
       <c r="L474" s="1"/>
       <c r="M474" s="1"/>
@@ -15443,7 +15452,7 @@
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
       <c r="I475" s="1"/>
-      <c r="J475" s="46"/>
+      <c r="J475" s="45"/>
       <c r="K475" s="1"/>
       <c r="L475" s="1"/>
       <c r="M475" s="1"/>
@@ -15471,7 +15480,7 @@
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
       <c r="I476" s="1"/>
-      <c r="J476" s="46"/>
+      <c r="J476" s="45"/>
       <c r="K476" s="1"/>
       <c r="L476" s="1"/>
       <c r="M476" s="1"/>
@@ -15499,7 +15508,7 @@
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
       <c r="I477" s="1"/>
-      <c r="J477" s="46"/>
+      <c r="J477" s="45"/>
       <c r="K477" s="1"/>
       <c r="L477" s="1"/>
       <c r="M477" s="1"/>
@@ -15527,7 +15536,7 @@
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
       <c r="I478" s="1"/>
-      <c r="J478" s="46"/>
+      <c r="J478" s="45"/>
       <c r="K478" s="1"/>
       <c r="L478" s="1"/>
       <c r="M478" s="1"/>
@@ -15555,7 +15564,7 @@
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
       <c r="I479" s="1"/>
-      <c r="J479" s="46"/>
+      <c r="J479" s="45"/>
       <c r="K479" s="1"/>
       <c r="L479" s="1"/>
       <c r="M479" s="1"/>
@@ -15583,7 +15592,7 @@
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
       <c r="I480" s="1"/>
-      <c r="J480" s="46"/>
+      <c r="J480" s="45"/>
       <c r="K480" s="1"/>
       <c r="L480" s="1"/>
       <c r="M480" s="1"/>
@@ -15611,7 +15620,7 @@
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
       <c r="I481" s="1"/>
-      <c r="J481" s="46"/>
+      <c r="J481" s="45"/>
       <c r="K481" s="1"/>
       <c r="L481" s="1"/>
       <c r="M481" s="1"/>
@@ -15639,7 +15648,7 @@
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
       <c r="I482" s="1"/>
-      <c r="J482" s="46"/>
+      <c r="J482" s="45"/>
       <c r="K482" s="1"/>
       <c r="L482" s="1"/>
       <c r="M482" s="1"/>
@@ -15667,7 +15676,7 @@
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
       <c r="I483" s="1"/>
-      <c r="J483" s="46"/>
+      <c r="J483" s="45"/>
       <c r="K483" s="1"/>
       <c r="L483" s="1"/>
       <c r="M483" s="1"/>
@@ -15695,7 +15704,7 @@
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
       <c r="I484" s="1"/>
-      <c r="J484" s="46"/>
+      <c r="J484" s="45"/>
       <c r="K484" s="1"/>
       <c r="L484" s="1"/>
       <c r="M484" s="1"/>
@@ -15723,7 +15732,7 @@
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
       <c r="I485" s="1"/>
-      <c r="J485" s="46"/>
+      <c r="J485" s="45"/>
       <c r="K485" s="1"/>
       <c r="L485" s="1"/>
       <c r="M485" s="1"/>
@@ -15751,7 +15760,7 @@
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
       <c r="I486" s="1"/>
-      <c r="J486" s="46"/>
+      <c r="J486" s="45"/>
       <c r="K486" s="1"/>
       <c r="L486" s="1"/>
       <c r="M486" s="1"/>
@@ -15779,7 +15788,7 @@
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
       <c r="I487" s="1"/>
-      <c r="J487" s="46"/>
+      <c r="J487" s="45"/>
       <c r="K487" s="1"/>
       <c r="L487" s="1"/>
       <c r="M487" s="1"/>
@@ -15807,7 +15816,7 @@
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
       <c r="I488" s="1"/>
-      <c r="J488" s="46"/>
+      <c r="J488" s="45"/>
       <c r="K488" s="1"/>
       <c r="L488" s="1"/>
       <c r="M488" s="1"/>
@@ -15835,7 +15844,7 @@
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
       <c r="I489" s="1"/>
-      <c r="J489" s="46"/>
+      <c r="J489" s="45"/>
       <c r="K489" s="1"/>
       <c r="L489" s="1"/>
       <c r="M489" s="1"/>
@@ -15863,7 +15872,7 @@
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
-      <c r="J490" s="46"/>
+      <c r="J490" s="45"/>
       <c r="K490" s="1"/>
       <c r="L490" s="1"/>
       <c r="M490" s="1"/>
@@ -15891,7 +15900,7 @@
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
       <c r="I491" s="1"/>
-      <c r="J491" s="46"/>
+      <c r="J491" s="45"/>
       <c r="K491" s="1"/>
       <c r="L491" s="1"/>
       <c r="M491" s="1"/>
@@ -15919,7 +15928,7 @@
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
       <c r="I492" s="1"/>
-      <c r="J492" s="46"/>
+      <c r="J492" s="45"/>
       <c r="K492" s="1"/>
       <c r="L492" s="1"/>
       <c r="M492" s="1"/>
@@ -15947,7 +15956,7 @@
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
       <c r="I493" s="1"/>
-      <c r="J493" s="46"/>
+      <c r="J493" s="45"/>
       <c r="K493" s="1"/>
       <c r="L493" s="1"/>
       <c r="M493" s="1"/>
@@ -15975,7 +15984,7 @@
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
       <c r="I494" s="1"/>
-      <c r="J494" s="46"/>
+      <c r="J494" s="45"/>
       <c r="K494" s="1"/>
       <c r="L494" s="1"/>
       <c r="M494" s="1"/>
@@ -16003,7 +16012,7 @@
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
       <c r="I495" s="1"/>
-      <c r="J495" s="46"/>
+      <c r="J495" s="45"/>
       <c r="K495" s="1"/>
       <c r="L495" s="1"/>
       <c r="M495" s="1"/>
@@ -16031,7 +16040,7 @@
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
       <c r="I496" s="1"/>
-      <c r="J496" s="46"/>
+      <c r="J496" s="45"/>
       <c r="K496" s="1"/>
       <c r="L496" s="1"/>
       <c r="M496" s="1"/>
@@ -16059,7 +16068,7 @@
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
       <c r="I497" s="1"/>
-      <c r="J497" s="46"/>
+      <c r="J497" s="45"/>
       <c r="K497" s="1"/>
       <c r="L497" s="1"/>
       <c r="M497" s="1"/>
@@ -16087,7 +16096,7 @@
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
       <c r="I498" s="1"/>
-      <c r="J498" s="46"/>
+      <c r="J498" s="45"/>
       <c r="K498" s="1"/>
       <c r="L498" s="1"/>
       <c r="M498" s="1"/>
@@ -16115,7 +16124,7 @@
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
       <c r="I499" s="1"/>
-      <c r="J499" s="46"/>
+      <c r="J499" s="45"/>
       <c r="K499" s="1"/>
       <c r="L499" s="1"/>
       <c r="M499" s="1"/>
@@ -16143,7 +16152,7 @@
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
       <c r="I500" s="1"/>
-      <c r="J500" s="46"/>
+      <c r="J500" s="45"/>
       <c r="K500" s="1"/>
       <c r="L500" s="1"/>
       <c r="M500" s="1"/>
@@ -16171,7 +16180,7 @@
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
       <c r="I501" s="1"/>
-      <c r="J501" s="46"/>
+      <c r="J501" s="45"/>
       <c r="K501" s="1"/>
       <c r="L501" s="1"/>
       <c r="M501" s="1"/>
@@ -16199,7 +16208,7 @@
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
       <c r="I502" s="1"/>
-      <c r="J502" s="46"/>
+      <c r="J502" s="45"/>
       <c r="K502" s="1"/>
       <c r="L502" s="1"/>
       <c r="M502" s="1"/>
@@ -16227,7 +16236,7 @@
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
       <c r="I503" s="1"/>
-      <c r="J503" s="46"/>
+      <c r="J503" s="45"/>
       <c r="K503" s="1"/>
       <c r="L503" s="1"/>
       <c r="M503" s="1"/>
@@ -16255,7 +16264,7 @@
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
       <c r="I504" s="1"/>
-      <c r="J504" s="46"/>
+      <c r="J504" s="45"/>
       <c r="K504" s="1"/>
       <c r="L504" s="1"/>
       <c r="M504" s="1"/>
@@ -16283,7 +16292,7 @@
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
       <c r="I505" s="1"/>
-      <c r="J505" s="46"/>
+      <c r="J505" s="45"/>
       <c r="K505" s="1"/>
       <c r="L505" s="1"/>
       <c r="M505" s="1"/>
@@ -16311,7 +16320,7 @@
       <c r="G506" s="1"/>
       <c r="H506" s="1"/>
       <c r="I506" s="1"/>
-      <c r="J506" s="46"/>
+      <c r="J506" s="45"/>
       <c r="K506" s="1"/>
       <c r="L506" s="1"/>
       <c r="M506" s="1"/>
@@ -16339,7 +16348,7 @@
       <c r="G507" s="1"/>
       <c r="H507" s="1"/>
       <c r="I507" s="1"/>
-      <c r="J507" s="46"/>
+      <c r="J507" s="45"/>
       <c r="K507" s="1"/>
       <c r="L507" s="1"/>
       <c r="M507" s="1"/>
@@ -16367,7 +16376,7 @@
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
       <c r="I508" s="1"/>
-      <c r="J508" s="46"/>
+      <c r="J508" s="45"/>
       <c r="K508" s="1"/>
       <c r="L508" s="1"/>
       <c r="M508" s="1"/>
@@ -16395,7 +16404,7 @@
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
       <c r="I509" s="1"/>
-      <c r="J509" s="46"/>
+      <c r="J509" s="45"/>
       <c r="K509" s="1"/>
       <c r="L509" s="1"/>
       <c r="M509" s="1"/>
@@ -16423,7 +16432,7 @@
       <c r="G510" s="1"/>
       <c r="H510" s="1"/>
       <c r="I510" s="1"/>
-      <c r="J510" s="46"/>
+      <c r="J510" s="45"/>
       <c r="K510" s="1"/>
       <c r="L510" s="1"/>
       <c r="M510" s="1"/>
@@ -16451,7 +16460,7 @@
       <c r="G511" s="1"/>
       <c r="H511" s="1"/>
       <c r="I511" s="1"/>
-      <c r="J511" s="46"/>
+      <c r="J511" s="45"/>
       <c r="K511" s="1"/>
       <c r="L511" s="1"/>
       <c r="M511" s="1"/>
@@ -16479,7 +16488,7 @@
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
       <c r="I512" s="1"/>
-      <c r="J512" s="46"/>
+      <c r="J512" s="45"/>
       <c r="K512" s="1"/>
       <c r="L512" s="1"/>
       <c r="M512" s="1"/>
@@ -16507,7 +16516,7 @@
       <c r="G513" s="1"/>
       <c r="H513" s="1"/>
       <c r="I513" s="1"/>
-      <c r="J513" s="46"/>
+      <c r="J513" s="45"/>
       <c r="K513" s="1"/>
       <c r="L513" s="1"/>
       <c r="M513" s="1"/>
@@ -16535,7 +16544,7 @@
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
       <c r="I514" s="1"/>
-      <c r="J514" s="46"/>
+      <c r="J514" s="45"/>
       <c r="K514" s="1"/>
       <c r="L514" s="1"/>
       <c r="M514" s="1"/>
@@ -16563,7 +16572,7 @@
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
       <c r="I515" s="1"/>
-      <c r="J515" s="46"/>
+      <c r="J515" s="45"/>
       <c r="K515" s="1"/>
       <c r="L515" s="1"/>
       <c r="M515" s="1"/>
@@ -16591,7 +16600,7 @@
       <c r="G516" s="1"/>
       <c r="H516" s="1"/>
       <c r="I516" s="1"/>
-      <c r="J516" s="46"/>
+      <c r="J516" s="45"/>
       <c r="K516" s="1"/>
       <c r="L516" s="1"/>
       <c r="M516" s="1"/>
@@ -16619,7 +16628,7 @@
       <c r="G517" s="1"/>
       <c r="H517" s="1"/>
       <c r="I517" s="1"/>
-      <c r="J517" s="46"/>
+      <c r="J517" s="45"/>
       <c r="K517" s="1"/>
       <c r="L517" s="1"/>
       <c r="M517" s="1"/>
@@ -16647,7 +16656,7 @@
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
       <c r="I518" s="1"/>
-      <c r="J518" s="46"/>
+      <c r="J518" s="45"/>
       <c r="K518" s="1"/>
       <c r="L518" s="1"/>
       <c r="M518" s="1"/>
@@ -16675,7 +16684,7 @@
       <c r="G519" s="1"/>
       <c r="H519" s="1"/>
       <c r="I519" s="1"/>
-      <c r="J519" s="46"/>
+      <c r="J519" s="45"/>
       <c r="K519" s="1"/>
       <c r="L519" s="1"/>
       <c r="M519" s="1"/>
@@ -16703,7 +16712,7 @@
       <c r="G520" s="1"/>
       <c r="H520" s="1"/>
       <c r="I520" s="1"/>
-      <c r="J520" s="46"/>
+      <c r="J520" s="45"/>
       <c r="K520" s="1"/>
       <c r="L520" s="1"/>
       <c r="M520" s="1"/>
@@ -16731,7 +16740,7 @@
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
       <c r="I521" s="1"/>
-      <c r="J521" s="46"/>
+      <c r="J521" s="45"/>
       <c r="K521" s="1"/>
       <c r="L521" s="1"/>
       <c r="M521" s="1"/>
@@ -16759,7 +16768,7 @@
       <c r="G522" s="1"/>
       <c r="H522" s="1"/>
       <c r="I522" s="1"/>
-      <c r="J522" s="46"/>
+      <c r="J522" s="45"/>
       <c r="K522" s="1"/>
       <c r="L522" s="1"/>
       <c r="M522" s="1"/>
@@ -16787,7 +16796,7 @@
       <c r="G523" s="1"/>
       <c r="H523" s="1"/>
       <c r="I523" s="1"/>
-      <c r="J523" s="46"/>
+      <c r="J523" s="45"/>
       <c r="K523" s="1"/>
       <c r="L523" s="1"/>
       <c r="M523" s="1"/>
@@ -16815,7 +16824,7 @@
       <c r="G524" s="1"/>
       <c r="H524" s="1"/>
       <c r="I524" s="1"/>
-      <c r="J524" s="46"/>
+      <c r="J524" s="45"/>
       <c r="K524" s="1"/>
       <c r="L524" s="1"/>
       <c r="M524" s="1"/>
@@ -16843,7 +16852,7 @@
       <c r="G525" s="1"/>
       <c r="H525" s="1"/>
       <c r="I525" s="1"/>
-      <c r="J525" s="46"/>
+      <c r="J525" s="45"/>
       <c r="K525" s="1"/>
       <c r="L525" s="1"/>
       <c r="M525" s="1"/>
@@ -16871,7 +16880,7 @@
       <c r="G526" s="1"/>
       <c r="H526" s="1"/>
       <c r="I526" s="1"/>
-      <c r="J526" s="46"/>
+      <c r="J526" s="45"/>
       <c r="K526" s="1"/>
       <c r="L526" s="1"/>
       <c r="M526" s="1"/>
@@ -16899,7 +16908,7 @@
       <c r="G527" s="1"/>
       <c r="H527" s="1"/>
       <c r="I527" s="1"/>
-      <c r="J527" s="46"/>
+      <c r="J527" s="45"/>
       <c r="K527" s="1"/>
       <c r="L527" s="1"/>
       <c r="M527" s="1"/>
@@ -16927,7 +16936,7 @@
       <c r="G528" s="1"/>
       <c r="H528" s="1"/>
       <c r="I528" s="1"/>
-      <c r="J528" s="46"/>
+      <c r="J528" s="45"/>
       <c r="K528" s="1"/>
       <c r="L528" s="1"/>
       <c r="M528" s="1"/>
@@ -16955,7 +16964,7 @@
       <c r="G529" s="1"/>
       <c r="H529" s="1"/>
       <c r="I529" s="1"/>
-      <c r="J529" s="46"/>
+      <c r="J529" s="45"/>
       <c r="K529" s="1"/>
       <c r="L529" s="1"/>
       <c r="M529" s="1"/>
@@ -16983,7 +16992,7 @@
       <c r="G530" s="1"/>
       <c r="H530" s="1"/>
       <c r="I530" s="1"/>
-      <c r="J530" s="46"/>
+      <c r="J530" s="45"/>
       <c r="K530" s="1"/>
       <c r="L530" s="1"/>
       <c r="M530" s="1"/>
@@ -17011,7 +17020,7 @@
       <c r="G531" s="1"/>
       <c r="H531" s="1"/>
       <c r="I531" s="1"/>
-      <c r="J531" s="46"/>
+      <c r="J531" s="45"/>
       <c r="K531" s="1"/>
       <c r="L531" s="1"/>
       <c r="M531" s="1"/>
@@ -17039,7 +17048,7 @@
       <c r="G532" s="1"/>
       <c r="H532" s="1"/>
       <c r="I532" s="1"/>
-      <c r="J532" s="46"/>
+      <c r="J532" s="45"/>
       <c r="K532" s="1"/>
       <c r="L532" s="1"/>
       <c r="M532" s="1"/>
@@ -17067,7 +17076,7 @@
       <c r="G533" s="1"/>
       <c r="H533" s="1"/>
       <c r="I533" s="1"/>
-      <c r="J533" s="46"/>
+      <c r="J533" s="45"/>
       <c r="K533" s="1"/>
       <c r="L533" s="1"/>
       <c r="M533" s="1"/>
@@ -17095,7 +17104,7 @@
       <c r="G534" s="1"/>
       <c r="H534" s="1"/>
       <c r="I534" s="1"/>
-      <c r="J534" s="46"/>
+      <c r="J534" s="45"/>
       <c r="K534" s="1"/>
       <c r="L534" s="1"/>
       <c r="M534" s="1"/>
@@ -17123,7 +17132,7 @@
       <c r="G535" s="1"/>
       <c r="H535" s="1"/>
       <c r="I535" s="1"/>
-      <c r="J535" s="46"/>
+      <c r="J535" s="45"/>
       <c r="K535" s="1"/>
       <c r="L535" s="1"/>
       <c r="M535" s="1"/>
@@ -17151,7 +17160,7 @@
       <c r="G536" s="1"/>
       <c r="H536" s="1"/>
       <c r="I536" s="1"/>
-      <c r="J536" s="46"/>
+      <c r="J536" s="45"/>
       <c r="K536" s="1"/>
       <c r="L536" s="1"/>
       <c r="M536" s="1"/>
@@ -17179,7 +17188,7 @@
       <c r="G537" s="1"/>
       <c r="H537" s="1"/>
       <c r="I537" s="1"/>
-      <c r="J537" s="46"/>
+      <c r="J537" s="45"/>
       <c r="K537" s="1"/>
       <c r="L537" s="1"/>
       <c r="M537" s="1"/>
@@ -17207,7 +17216,7 @@
       <c r="G538" s="1"/>
       <c r="H538" s="1"/>
       <c r="I538" s="1"/>
-      <c r="J538" s="46"/>
+      <c r="J538" s="45"/>
       <c r="K538" s="1"/>
       <c r="L538" s="1"/>
       <c r="M538" s="1"/>
@@ -17235,7 +17244,7 @@
       <c r="G539" s="1"/>
       <c r="H539" s="1"/>
       <c r="I539" s="1"/>
-      <c r="J539" s="46"/>
+      <c r="J539" s="45"/>
       <c r="K539" s="1"/>
       <c r="L539" s="1"/>
       <c r="M539" s="1"/>
@@ -17263,7 +17272,7 @@
       <c r="G540" s="1"/>
       <c r="H540" s="1"/>
       <c r="I540" s="1"/>
-      <c r="J540" s="46"/>
+      <c r="J540" s="45"/>
       <c r="K540" s="1"/>
       <c r="L540" s="1"/>
       <c r="M540" s="1"/>
@@ -17291,7 +17300,7 @@
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
       <c r="I541" s="1"/>
-      <c r="J541" s="46"/>
+      <c r="J541" s="45"/>
       <c r="K541" s="1"/>
       <c r="L541" s="1"/>
       <c r="M541" s="1"/>
@@ -17319,7 +17328,7 @@
       <c r="G542" s="1"/>
       <c r="H542" s="1"/>
       <c r="I542" s="1"/>
-      <c r="J542" s="46"/>
+      <c r="J542" s="45"/>
       <c r="K542" s="1"/>
       <c r="L542" s="1"/>
       <c r="M542" s="1"/>
@@ -17347,7 +17356,7 @@
       <c r="G543" s="1"/>
       <c r="H543" s="1"/>
       <c r="I543" s="1"/>
-      <c r="J543" s="46"/>
+      <c r="J543" s="45"/>
       <c r="K543" s="1"/>
       <c r="L543" s="1"/>
       <c r="M543" s="1"/>
@@ -17375,7 +17384,7 @@
       <c r="G544" s="1"/>
       <c r="H544" s="1"/>
       <c r="I544" s="1"/>
-      <c r="J544" s="46"/>
+      <c r="J544" s="45"/>
       <c r="K544" s="1"/>
       <c r="L544" s="1"/>
       <c r="M544" s="1"/>
@@ -17403,7 +17412,7 @@
       <c r="G545" s="1"/>
       <c r="H545" s="1"/>
       <c r="I545" s="1"/>
-      <c r="J545" s="46"/>
+      <c r="J545" s="45"/>
       <c r="K545" s="1"/>
       <c r="L545" s="1"/>
       <c r="M545" s="1"/>
@@ -17431,7 +17440,7 @@
       <c r="G546" s="1"/>
       <c r="H546" s="1"/>
       <c r="I546" s="1"/>
-      <c r="J546" s="46"/>
+      <c r="J546" s="45"/>
       <c r="K546" s="1"/>
       <c r="L546" s="1"/>
       <c r="M546" s="1"/>
@@ -17459,7 +17468,7 @@
       <c r="G547" s="1"/>
       <c r="H547" s="1"/>
       <c r="I547" s="1"/>
-      <c r="J547" s="46"/>
+      <c r="J547" s="45"/>
       <c r="K547" s="1"/>
       <c r="L547" s="1"/>
       <c r="M547" s="1"/>
@@ -17487,7 +17496,7 @@
       <c r="G548" s="1"/>
       <c r="H548" s="1"/>
       <c r="I548" s="1"/>
-      <c r="J548" s="46"/>
+      <c r="J548" s="45"/>
       <c r="K548" s="1"/>
       <c r="L548" s="1"/>
       <c r="M548" s="1"/>
@@ -17515,7 +17524,7 @@
       <c r="G549" s="1"/>
       <c r="H549" s="1"/>
       <c r="I549" s="1"/>
-      <c r="J549" s="46"/>
+      <c r="J549" s="45"/>
       <c r="K549" s="1"/>
       <c r="L549" s="1"/>
       <c r="M549" s="1"/>
@@ -17543,7 +17552,7 @@
       <c r="G550" s="1"/>
       <c r="H550" s="1"/>
       <c r="I550" s="1"/>
-      <c r="J550" s="46"/>
+      <c r="J550" s="45"/>
       <c r="K550" s="1"/>
       <c r="L550" s="1"/>
       <c r="M550" s="1"/>
@@ -17571,7 +17580,7 @@
       <c r="G551" s="1"/>
       <c r="H551" s="1"/>
       <c r="I551" s="1"/>
-      <c r="J551" s="46"/>
+      <c r="J551" s="45"/>
       <c r="K551" s="1"/>
       <c r="L551" s="1"/>
       <c r="M551" s="1"/>
@@ -17599,7 +17608,7 @@
       <c r="G552" s="1"/>
       <c r="H552" s="1"/>
       <c r="I552" s="1"/>
-      <c r="J552" s="46"/>
+      <c r="J552" s="45"/>
       <c r="K552" s="1"/>
       <c r="L552" s="1"/>
       <c r="M552" s="1"/>
@@ -17627,7 +17636,7 @@
       <c r="G553" s="1"/>
       <c r="H553" s="1"/>
       <c r="I553" s="1"/>
-      <c r="J553" s="46"/>
+      <c r="J553" s="45"/>
       <c r="K553" s="1"/>
       <c r="L553" s="1"/>
       <c r="M553" s="1"/>
@@ -17655,7 +17664,7 @@
       <c r="G554" s="1"/>
       <c r="H554" s="1"/>
       <c r="I554" s="1"/>
-      <c r="J554" s="46"/>
+      <c r="J554" s="45"/>
       <c r="K554" s="1"/>
       <c r="L554" s="1"/>
       <c r="M554" s="1"/>
@@ -17683,7 +17692,7 @@
       <c r="G555" s="1"/>
       <c r="H555" s="1"/>
       <c r="I555" s="1"/>
-      <c r="J555" s="46"/>
+      <c r="J555" s="45"/>
       <c r="K555" s="1"/>
       <c r="L555" s="1"/>
       <c r="M555" s="1"/>
@@ -17711,7 +17720,7 @@
       <c r="G556" s="1"/>
       <c r="H556" s="1"/>
       <c r="I556" s="1"/>
-      <c r="J556" s="46"/>
+      <c r="J556" s="45"/>
       <c r="K556" s="1"/>
       <c r="L556" s="1"/>
       <c r="M556" s="1"/>
@@ -17739,7 +17748,7 @@
       <c r="G557" s="1"/>
       <c r="H557" s="1"/>
       <c r="I557" s="1"/>
-      <c r="J557" s="46"/>
+      <c r="J557" s="45"/>
       <c r="K557" s="1"/>
       <c r="L557" s="1"/>
       <c r="M557" s="1"/>
@@ -17767,7 +17776,7 @@
       <c r="G558" s="1"/>
       <c r="H558" s="1"/>
       <c r="I558" s="1"/>
-      <c r="J558" s="46"/>
+      <c r="J558" s="45"/>
       <c r="K558" s="1"/>
       <c r="L558" s="1"/>
       <c r="M558" s="1"/>
@@ -17795,7 +17804,7 @@
       <c r="G559" s="1"/>
       <c r="H559" s="1"/>
       <c r="I559" s="1"/>
-      <c r="J559" s="46"/>
+      <c r="J559" s="45"/>
       <c r="K559" s="1"/>
       <c r="L559" s="1"/>
       <c r="M559" s="1"/>
@@ -17823,7 +17832,7 @@
       <c r="G560" s="1"/>
       <c r="H560" s="1"/>
       <c r="I560" s="1"/>
-      <c r="J560" s="46"/>
+      <c r="J560" s="45"/>
       <c r="K560" s="1"/>
       <c r="L560" s="1"/>
       <c r="M560" s="1"/>
@@ -17851,7 +17860,7 @@
       <c r="G561" s="1"/>
       <c r="H561" s="1"/>
       <c r="I561" s="1"/>
-      <c r="J561" s="46"/>
+      <c r="J561" s="45"/>
       <c r="K561" s="1"/>
       <c r="L561" s="1"/>
       <c r="M561" s="1"/>
@@ -17879,7 +17888,7 @@
       <c r="G562" s="1"/>
       <c r="H562" s="1"/>
       <c r="I562" s="1"/>
-      <c r="J562" s="46"/>
+      <c r="J562" s="45"/>
       <c r="K562" s="1"/>
       <c r="L562" s="1"/>
       <c r="M562" s="1"/>
@@ -17907,7 +17916,7 @@
       <c r="G563" s="1"/>
       <c r="H563" s="1"/>
       <c r="I563" s="1"/>
-      <c r="J563" s="46"/>
+      <c r="J563" s="45"/>
       <c r="K563" s="1"/>
       <c r="L563" s="1"/>
       <c r="M563" s="1"/>
@@ -17935,7 +17944,7 @@
       <c r="G564" s="1"/>
       <c r="H564" s="1"/>
       <c r="I564" s="1"/>
-      <c r="J564" s="46"/>
+      <c r="J564" s="45"/>
       <c r="K564" s="1"/>
       <c r="L564" s="1"/>
       <c r="M564" s="1"/>
@@ -17963,7 +17972,7 @@
       <c r="G565" s="1"/>
       <c r="H565" s="1"/>
       <c r="I565" s="1"/>
-      <c r="J565" s="46"/>
+      <c r="J565" s="45"/>
       <c r="K565" s="1"/>
       <c r="L565" s="1"/>
       <c r="M565" s="1"/>
@@ -17991,7 +18000,7 @@
       <c r="G566" s="1"/>
       <c r="H566" s="1"/>
       <c r="I566" s="1"/>
-      <c r="J566" s="46"/>
+      <c r="J566" s="45"/>
       <c r="K566" s="1"/>
       <c r="L566" s="1"/>
       <c r="M566" s="1"/>
@@ -18019,7 +18028,7 @@
       <c r="G567" s="1"/>
       <c r="H567" s="1"/>
       <c r="I567" s="1"/>
-      <c r="J567" s="46"/>
+      <c r="J567" s="45"/>
       <c r="K567" s="1"/>
       <c r="L567" s="1"/>
       <c r="M567" s="1"/>
@@ -18047,7 +18056,7 @@
       <c r="G568" s="1"/>
       <c r="H568" s="1"/>
       <c r="I568" s="1"/>
-      <c r="J568" s="46"/>
+      <c r="J568" s="45"/>
       <c r="K568" s="1"/>
       <c r="L568" s="1"/>
       <c r="M568" s="1"/>
@@ -18075,7 +18084,7 @@
       <c r="G569" s="1"/>
       <c r="H569" s="1"/>
       <c r="I569" s="1"/>
-      <c r="J569" s="46"/>
+      <c r="J569" s="45"/>
       <c r="K569" s="1"/>
       <c r="L569" s="1"/>
       <c r="M569" s="1"/>
@@ -18103,7 +18112,7 @@
       <c r="G570" s="1"/>
       <c r="H570" s="1"/>
       <c r="I570" s="1"/>
-      <c r="J570" s="46"/>
+      <c r="J570" s="45"/>
       <c r="K570" s="1"/>
       <c r="L570" s="1"/>
       <c r="M570" s="1"/>
@@ -18131,7 +18140,7 @@
       <c r="G571" s="1"/>
       <c r="H571" s="1"/>
       <c r="I571" s="1"/>
-      <c r="J571" s="46"/>
+      <c r="J571" s="45"/>
       <c r="K571" s="1"/>
       <c r="L571" s="1"/>
       <c r="M571" s="1"/>
@@ -18159,7 +18168,7 @@
       <c r="G572" s="1"/>
       <c r="H572" s="1"/>
       <c r="I572" s="1"/>
-      <c r="J572" s="46"/>
+      <c r="J572" s="45"/>
       <c r="K572" s="1"/>
       <c r="L572" s="1"/>
       <c r="M572" s="1"/>
@@ -18187,7 +18196,7 @@
       <c r="G573" s="1"/>
       <c r="H573" s="1"/>
       <c r="I573" s="1"/>
-      <c r="J573" s="46"/>
+      <c r="J573" s="45"/>
       <c r="K573" s="1"/>
       <c r="L573" s="1"/>
       <c r="M573" s="1"/>
@@ -18215,7 +18224,7 @@
       <c r="G574" s="1"/>
       <c r="H574" s="1"/>
       <c r="I574" s="1"/>
-      <c r="J574" s="46"/>
+      <c r="J574" s="45"/>
       <c r="K574" s="1"/>
       <c r="L574" s="1"/>
       <c r="M574" s="1"/>
@@ -18243,7 +18252,7 @@
       <c r="G575" s="1"/>
       <c r="H575" s="1"/>
       <c r="I575" s="1"/>
-      <c r="J575" s="46"/>
+      <c r="J575" s="45"/>
       <c r="K575" s="1"/>
       <c r="L575" s="1"/>
       <c r="M575" s="1"/>
@@ -18271,7 +18280,7 @@
       <c r="G576" s="1"/>
       <c r="H576" s="1"/>
       <c r="I576" s="1"/>
-      <c r="J576" s="46"/>
+      <c r="J576" s="45"/>
       <c r="K576" s="1"/>
       <c r="L576" s="1"/>
       <c r="M576" s="1"/>
@@ -18299,7 +18308,7 @@
       <c r="G577" s="1"/>
       <c r="H577" s="1"/>
       <c r="I577" s="1"/>
-      <c r="J577" s="46"/>
+      <c r="J577" s="45"/>
       <c r="K577" s="1"/>
       <c r="L577" s="1"/>
       <c r="M577" s="1"/>
@@ -18327,7 +18336,7 @@
       <c r="G578" s="1"/>
       <c r="H578" s="1"/>
       <c r="I578" s="1"/>
-      <c r="J578" s="46"/>
+      <c r="J578" s="45"/>
       <c r="K578" s="1"/>
       <c r="L578" s="1"/>
       <c r="M578" s="1"/>
@@ -18355,7 +18364,7 @@
       <c r="G579" s="1"/>
       <c r="H579" s="1"/>
       <c r="I579" s="1"/>
-      <c r="J579" s="46"/>
+      <c r="J579" s="45"/>
       <c r="K579" s="1"/>
       <c r="L579" s="1"/>
       <c r="M579" s="1"/>
@@ -18383,7 +18392,7 @@
       <c r="G580" s="1"/>
       <c r="H580" s="1"/>
       <c r="I580" s="1"/>
-      <c r="J580" s="46"/>
+      <c r="J580" s="45"/>
       <c r="K580" s="1"/>
       <c r="L580" s="1"/>
       <c r="M580" s="1"/>
@@ -18411,7 +18420,7 @@
       <c r="G581" s="1"/>
       <c r="H581" s="1"/>
       <c r="I581" s="1"/>
-      <c r="J581" s="46"/>
+      <c r="J581" s="45"/>
       <c r="K581" s="1"/>
       <c r="L581" s="1"/>
       <c r="M581" s="1"/>
@@ -18439,7 +18448,7 @@
       <c r="G582" s="1"/>
       <c r="H582" s="1"/>
       <c r="I582" s="1"/>
-      <c r="J582" s="46"/>
+      <c r="J582" s="45"/>
       <c r="K582" s="1"/>
       <c r="L582" s="1"/>
       <c r="M582" s="1"/>
@@ -18467,7 +18476,7 @@
       <c r="G583" s="1"/>
       <c r="H583" s="1"/>
       <c r="I583" s="1"/>
-      <c r="J583" s="46"/>
+      <c r="J583" s="45"/>
       <c r="K583" s="1"/>
       <c r="L583" s="1"/>
       <c r="M583" s="1"/>
@@ -18495,7 +18504,7 @@
       <c r="G584" s="1"/>
       <c r="H584" s="1"/>
       <c r="I584" s="1"/>
-      <c r="J584" s="46"/>
+      <c r="J584" s="45"/>
       <c r="K584" s="1"/>
       <c r="L584" s="1"/>
       <c r="M584" s="1"/>
@@ -18523,7 +18532,7 @@
       <c r="G585" s="1"/>
       <c r="H585" s="1"/>
       <c r="I585" s="1"/>
-      <c r="J585" s="46"/>
+      <c r="J585" s="45"/>
       <c r="K585" s="1"/>
       <c r="L585" s="1"/>
       <c r="M585" s="1"/>
@@ -18551,7 +18560,7 @@
       <c r="G586" s="1"/>
       <c r="H586" s="1"/>
       <c r="I586" s="1"/>
-      <c r="J586" s="46"/>
+      <c r="J586" s="45"/>
       <c r="K586" s="1"/>
       <c r="L586" s="1"/>
       <c r="M586" s="1"/>
@@ -18579,7 +18588,7 @@
       <c r="G587" s="1"/>
       <c r="H587" s="1"/>
       <c r="I587" s="1"/>
-      <c r="J587" s="46"/>
+      <c r="J587" s="45"/>
       <c r="K587" s="1"/>
       <c r="L587" s="1"/>
       <c r="M587" s="1"/>
@@ -18607,7 +18616,7 @@
       <c r="G588" s="1"/>
       <c r="H588" s="1"/>
       <c r="I588" s="1"/>
-      <c r="J588" s="46"/>
+      <c r="J588" s="45"/>
       <c r="K588" s="1"/>
       <c r="L588" s="1"/>
       <c r="M588" s="1"/>
@@ -18635,7 +18644,7 @@
       <c r="G589" s="1"/>
       <c r="H589" s="1"/>
       <c r="I589" s="1"/>
-      <c r="J589" s="46"/>
+      <c r="J589" s="45"/>
       <c r="K589" s="1"/>
       <c r="L589" s="1"/>
       <c r="M589" s="1"/>
@@ -18663,7 +18672,7 @@
       <c r="G590" s="1"/>
       <c r="H590" s="1"/>
       <c r="I590" s="1"/>
-      <c r="J590" s="46"/>
+      <c r="J590" s="45"/>
       <c r="K590" s="1"/>
       <c r="L590" s="1"/>
       <c r="M590" s="1"/>
@@ -18691,7 +18700,7 @@
       <c r="G591" s="1"/>
       <c r="H591" s="1"/>
       <c r="I591" s="1"/>
-      <c r="J591" s="46"/>
+      <c r="J591" s="45"/>
       <c r="K591" s="1"/>
       <c r="L591" s="1"/>
       <c r="M591" s="1"/>
@@ -18719,7 +18728,7 @@
       <c r="G592" s="1"/>
       <c r="H592" s="1"/>
       <c r="I592" s="1"/>
-      <c r="J592" s="46"/>
+      <c r="J592" s="45"/>
       <c r="K592" s="1"/>
       <c r="L592" s="1"/>
       <c r="M592" s="1"/>
@@ -18747,7 +18756,7 @@
       <c r="G593" s="1"/>
       <c r="H593" s="1"/>
       <c r="I593" s="1"/>
-      <c r="J593" s="46"/>
+      <c r="J593" s="45"/>
       <c r="K593" s="1"/>
       <c r="L593" s="1"/>
       <c r="M593" s="1"/>
@@ -18775,7 +18784,7 @@
       <c r="G594" s="1"/>
       <c r="H594" s="1"/>
       <c r="I594" s="1"/>
-      <c r="J594" s="46"/>
+      <c r="J594" s="45"/>
       <c r="K594" s="1"/>
       <c r="L594" s="1"/>
       <c r="M594" s="1"/>
@@ -18803,7 +18812,7 @@
       <c r="G595" s="1"/>
       <c r="H595" s="1"/>
       <c r="I595" s="1"/>
-      <c r="J595" s="46"/>
+      <c r="J595" s="45"/>
       <c r="K595" s="1"/>
       <c r="L595" s="1"/>
       <c r="M595" s="1"/>
@@ -18831,7 +18840,7 @@
       <c r="G596" s="1"/>
       <c r="H596" s="1"/>
       <c r="I596" s="1"/>
-      <c r="J596" s="46"/>
+      <c r="J596" s="45"/>
       <c r="K596" s="1"/>
       <c r="L596" s="1"/>
       <c r="M596" s="1"/>
@@ -18859,7 +18868,7 @@
       <c r="G597" s="1"/>
       <c r="H597" s="1"/>
       <c r="I597" s="1"/>
-      <c r="J597" s="46"/>
+      <c r="J597" s="45"/>
       <c r="K597" s="1"/>
       <c r="L597" s="1"/>
       <c r="M597" s="1"/>
@@ -18887,7 +18896,7 @@
       <c r="G598" s="1"/>
       <c r="H598" s="1"/>
       <c r="I598" s="1"/>
-      <c r="J598" s="46"/>
+      <c r="J598" s="45"/>
       <c r="K598" s="1"/>
       <c r="L598" s="1"/>
       <c r="M598" s="1"/>
@@ -18915,7 +18924,7 @@
       <c r="G599" s="1"/>
       <c r="H599" s="1"/>
       <c r="I599" s="1"/>
-      <c r="J599" s="46"/>
+      <c r="J599" s="45"/>
       <c r="K599" s="1"/>
       <c r="L599" s="1"/>
       <c r="M599" s="1"/>
@@ -18943,7 +18952,7 @@
       <c r="G600" s="1"/>
       <c r="H600" s="1"/>
       <c r="I600" s="1"/>
-      <c r="J600" s="46"/>
+      <c r="J600" s="45"/>
       <c r="K600" s="1"/>
       <c r="L600" s="1"/>
       <c r="M600" s="1"/>
@@ -18971,7 +18980,7 @@
       <c r="G601" s="1"/>
       <c r="H601" s="1"/>
       <c r="I601" s="1"/>
-      <c r="J601" s="46"/>
+      <c r="J601" s="45"/>
       <c r="K601" s="1"/>
       <c r="L601" s="1"/>
       <c r="M601" s="1"/>
@@ -18999,7 +19008,7 @@
       <c r="G602" s="1"/>
       <c r="H602" s="1"/>
       <c r="I602" s="1"/>
-      <c r="J602" s="46"/>
+      <c r="J602" s="45"/>
       <c r="K602" s="1"/>
       <c r="L602" s="1"/>
       <c r="M602" s="1"/>
@@ -19027,7 +19036,7 @@
       <c r="G603" s="1"/>
       <c r="H603" s="1"/>
       <c r="I603" s="1"/>
-      <c r="J603" s="46"/>
+      <c r="J603" s="45"/>
       <c r="K603" s="1"/>
       <c r="L603" s="1"/>
       <c r="M603" s="1"/>
@@ -19055,7 +19064,7 @@
       <c r="G604" s="1"/>
       <c r="H604" s="1"/>
       <c r="I604" s="1"/>
-      <c r="J604" s="46"/>
+      <c r="J604" s="45"/>
       <c r="K604" s="1"/>
       <c r="L604" s="1"/>
       <c r="M604" s="1"/>
@@ -19083,7 +19092,7 @@
       <c r="G605" s="1"/>
       <c r="H605" s="1"/>
       <c r="I605" s="1"/>
-      <c r="J605" s="46"/>
+      <c r="J605" s="45"/>
       <c r="K605" s="1"/>
       <c r="L605" s="1"/>
       <c r="M605" s="1"/>
@@ -19111,7 +19120,7 @@
       <c r="G606" s="1"/>
       <c r="H606" s="1"/>
       <c r="I606" s="1"/>
-      <c r="J606" s="46"/>
+      <c r="J606" s="45"/>
       <c r="K606" s="1"/>
       <c r="L606" s="1"/>
       <c r="M606" s="1"/>
@@ -19139,7 +19148,7 @@
       <c r="G607" s="1"/>
       <c r="H607" s="1"/>
       <c r="I607" s="1"/>
-      <c r="J607" s="46"/>
+      <c r="J607" s="45"/>
       <c r="K607" s="1"/>
       <c r="L607" s="1"/>
       <c r="M607" s="1"/>
@@ -19167,7 +19176,7 @@
       <c r="G608" s="1"/>
       <c r="H608" s="1"/>
       <c r="I608" s="1"/>
-      <c r="J608" s="46"/>
+      <c r="J608" s="45"/>
       <c r="K608" s="1"/>
       <c r="L608" s="1"/>
       <c r="M608" s="1"/>
@@ -19195,7 +19204,7 @@
       <c r="G609" s="1"/>
       <c r="H609" s="1"/>
       <c r="I609" s="1"/>
-      <c r="J609" s="46"/>
+      <c r="J609" s="45"/>
       <c r="K609" s="1"/>
       <c r="L609" s="1"/>
       <c r="M609" s="1"/>
@@ -19223,7 +19232,7 @@
       <c r="G610" s="1"/>
       <c r="H610" s="1"/>
       <c r="I610" s="1"/>
-      <c r="J610" s="46"/>
+      <c r="J610" s="45"/>
       <c r="K610" s="1"/>
       <c r="L610" s="1"/>
       <c r="M610" s="1"/>
@@ -19251,7 +19260,7 @@
       <c r="G611" s="1"/>
       <c r="H611" s="1"/>
       <c r="I611" s="1"/>
-      <c r="J611" s="46"/>
+      <c r="J611" s="45"/>
       <c r="K611" s="1"/>
       <c r="L611" s="1"/>
       <c r="M611" s="1"/>
@@ -19279,7 +19288,7 @@
       <c r="G612" s="1"/>
       <c r="H612" s="1"/>
       <c r="I612" s="1"/>
-      <c r="J612" s="46"/>
+      <c r="J612" s="45"/>
       <c r="K612" s="1"/>
       <c r="L612" s="1"/>
       <c r="M612" s="1"/>
@@ -19307,7 +19316,7 @@
       <c r="G613" s="1"/>
       <c r="H613" s="1"/>
       <c r="I613" s="1"/>
-      <c r="J613" s="46"/>
+      <c r="J613" s="45"/>
       <c r="K613" s="1"/>
       <c r="L613" s="1"/>
       <c r="M613" s="1"/>
@@ -19335,7 +19344,7 @@
       <c r="G614" s="1"/>
       <c r="H614" s="1"/>
       <c r="I614" s="1"/>
-      <c r="J614" s="46"/>
+      <c r="J614" s="45"/>
       <c r="K614" s="1"/>
       <c r="L614" s="1"/>
       <c r="M614" s="1"/>
@@ -19363,7 +19372,7 @@
       <c r="G615" s="1"/>
       <c r="H615" s="1"/>
       <c r="I615" s="1"/>
-      <c r="J615" s="46"/>
+      <c r="J615" s="45"/>
       <c r="K615" s="1"/>
       <c r="L615" s="1"/>
       <c r="M615" s="1"/>
@@ -19391,7 +19400,7 @@
       <c r="G616" s="1"/>
       <c r="H616" s="1"/>
       <c r="I616" s="1"/>
-      <c r="J616" s="46"/>
+      <c r="J616" s="45"/>
       <c r="K616" s="1"/>
       <c r="L616" s="1"/>
       <c r="M616" s="1"/>
@@ -19419,7 +19428,7 @@
       <c r="G617" s="1"/>
       <c r="H617" s="1"/>
       <c r="I617" s="1"/>
-      <c r="J617" s="46"/>
+      <c r="J617" s="45"/>
       <c r="K617" s="1"/>
       <c r="L617" s="1"/>
       <c r="M617" s="1"/>
@@ -19447,7 +19456,7 @@
       <c r="G618" s="1"/>
       <c r="H618" s="1"/>
       <c r="I618" s="1"/>
-      <c r="J618" s="46"/>
+      <c r="J618" s="45"/>
       <c r="K618" s="1"/>
       <c r="L618" s="1"/>
       <c r="M618" s="1"/>
@@ -19475,7 +19484,7 @@
       <c r="G619" s="1"/>
       <c r="H619" s="1"/>
       <c r="I619" s="1"/>
-      <c r="J619" s="46"/>
+      <c r="J619" s="45"/>
       <c r="K619" s="1"/>
       <c r="L619" s="1"/>
       <c r="M619" s="1"/>
@@ -19503,7 +19512,7 @@
       <c r="G620" s="1"/>
       <c r="H620" s="1"/>
       <c r="I620" s="1"/>
-      <c r="J620" s="46"/>
+      <c r="J620" s="45"/>
       <c r="K620" s="1"/>
       <c r="L620" s="1"/>
       <c r="M620" s="1"/>
@@ -19531,7 +19540,7 @@
       <c r="G621" s="1"/>
       <c r="H621" s="1"/>
       <c r="I621" s="1"/>
-      <c r="J621" s="46"/>
+      <c r="J621" s="45"/>
       <c r="K621" s="1"/>
       <c r="L621" s="1"/>
       <c r="M621" s="1"/>
@@ -19559,7 +19568,7 @@
       <c r="G622" s="1"/>
       <c r="H622" s="1"/>
       <c r="I622" s="1"/>
-      <c r="J622" s="46"/>
+      <c r="J622" s="45"/>
       <c r="K622" s="1"/>
       <c r="L622" s="1"/>
       <c r="M622" s="1"/>
@@ -19587,7 +19596,7 @@
       <c r="G623" s="1"/>
       <c r="H623" s="1"/>
       <c r="I623" s="1"/>
-      <c r="J623" s="46"/>
+      <c r="J623" s="45"/>
       <c r="K623" s="1"/>
       <c r="L623" s="1"/>
       <c r="M623" s="1"/>
@@ -19615,7 +19624,7 @@
       <c r="G624" s="1"/>
       <c r="H624" s="1"/>
       <c r="I624" s="1"/>
-      <c r="J624" s="46"/>
+      <c r="J624" s="45"/>
       <c r="K624" s="1"/>
       <c r="L624" s="1"/>
       <c r="M624" s="1"/>
@@ -19643,7 +19652,7 @@
       <c r="G625" s="1"/>
       <c r="H625" s="1"/>
       <c r="I625" s="1"/>
-      <c r="J625" s="46"/>
+      <c r="J625" s="45"/>
       <c r="K625" s="1"/>
       <c r="L625" s="1"/>
       <c r="M625" s="1"/>
@@ -19671,7 +19680,7 @@
       <c r="G626" s="1"/>
       <c r="H626" s="1"/>
       <c r="I626" s="1"/>
-      <c r="J626" s="46"/>
+      <c r="J626" s="45"/>
       <c r="K626" s="1"/>
       <c r="L626" s="1"/>
       <c r="M626" s="1"/>
@@ -19699,7 +19708,7 @@
       <c r="G627" s="1"/>
       <c r="H627" s="1"/>
       <c r="I627" s="1"/>
-      <c r="J627" s="46"/>
+      <c r="J627" s="45"/>
       <c r="K627" s="1"/>
       <c r="L627" s="1"/>
       <c r="M627" s="1"/>
@@ -19727,7 +19736,7 @@
       <c r="G628" s="1"/>
       <c r="H628" s="1"/>
       <c r="I628" s="1"/>
-      <c r="J628" s="46"/>
+      <c r="J628" s="45"/>
       <c r="K628" s="1"/>
       <c r="L628" s="1"/>
       <c r="M628" s="1"/>
@@ -19755,7 +19764,7 @@
       <c r="G629" s="1"/>
       <c r="H629" s="1"/>
       <c r="I629" s="1"/>
-      <c r="J629" s="46"/>
+      <c r="J629" s="45"/>
       <c r="K629" s="1"/>
       <c r="L629" s="1"/>
       <c r="M629" s="1"/>
@@ -19783,7 +19792,7 @@
       <c r="G630" s="1"/>
       <c r="H630" s="1"/>
       <c r="I630" s="1"/>
-      <c r="J630" s="46"/>
+      <c r="J630" s="45"/>
       <c r="K630" s="1"/>
       <c r="L630" s="1"/>
       <c r="M630" s="1"/>
@@ -19811,7 +19820,7 @@
       <c r="G631" s="1"/>
       <c r="H631" s="1"/>
       <c r="I631" s="1"/>
-      <c r="J631" s="46"/>
+      <c r="J631" s="45"/>
       <c r="K631" s="1"/>
       <c r="L631" s="1"/>
       <c r="M631" s="1"/>
@@ -19839,7 +19848,7 @@
       <c r="G632" s="1"/>
       <c r="H632" s="1"/>
       <c r="I632" s="1"/>
-      <c r="J632" s="46"/>
+      <c r="J632" s="45"/>
       <c r="K632" s="1"/>
       <c r="L632" s="1"/>
       <c r="M632" s="1"/>
@@ -19867,7 +19876,7 @@
       <c r="G633" s="1"/>
       <c r="H633" s="1"/>
       <c r="I633" s="1"/>
-      <c r="J633" s="46"/>
+      <c r="J633" s="45"/>
       <c r="K633" s="1"/>
       <c r="L633" s="1"/>
       <c r="M633" s="1"/>
@@ -19895,7 +19904,7 @@
       <c r="G634" s="1"/>
       <c r="H634" s="1"/>
       <c r="I634" s="1"/>
-      <c r="J634" s="46"/>
+      <c r="J634" s="45"/>
       <c r="K634" s="1"/>
       <c r="L634" s="1"/>
       <c r="M634" s="1"/>
@@ -19923,7 +19932,7 @@
       <c r="G635" s="1"/>
       <c r="H635" s="1"/>
       <c r="I635" s="1"/>
-      <c r="J635" s="46"/>
+      <c r="J635" s="45"/>
       <c r="K635" s="1"/>
       <c r="L635" s="1"/>
       <c r="M635" s="1"/>
@@ -19951,7 +19960,7 @@
       <c r="G636" s="1"/>
       <c r="H636" s="1"/>
       <c r="I636" s="1"/>
-      <c r="J636" s="46"/>
+      <c r="J636" s="45"/>
       <c r="K636" s="1"/>
       <c r="L636" s="1"/>
       <c r="M636" s="1"/>
@@ -19979,7 +19988,7 @@
       <c r="G637" s="1"/>
       <c r="H637" s="1"/>
       <c r="I637" s="1"/>
-      <c r="J637" s="46"/>
+      <c r="J637" s="45"/>
       <c r="K637" s="1"/>
       <c r="L637" s="1"/>
       <c r="M637" s="1"/>
@@ -20007,7 +20016,7 @@
       <c r="G638" s="1"/>
       <c r="H638" s="1"/>
       <c r="I638" s="1"/>
-      <c r="J638" s="46"/>
+      <c r="J638" s="45"/>
       <c r="K638" s="1"/>
       <c r="L638" s="1"/>
       <c r="M638" s="1"/>
@@ -20035,7 +20044,7 @@
       <c r="G639" s="1"/>
       <c r="H639" s="1"/>
       <c r="I639" s="1"/>
-      <c r="J639" s="46"/>
+      <c r="J639" s="45"/>
       <c r="K639" s="1"/>
       <c r="L639" s="1"/>
       <c r="M639" s="1"/>
@@ -20063,7 +20072,7 @@
       <c r="G640" s="1"/>
       <c r="H640" s="1"/>
       <c r="I640" s="1"/>
-      <c r="J640" s="46"/>
+      <c r="J640" s="45"/>
       <c r="K640" s="1"/>
       <c r="L640" s="1"/>
       <c r="M640" s="1"/>
@@ -20091,7 +20100,7 @@
       <c r="G641" s="1"/>
       <c r="H641" s="1"/>
       <c r="I641" s="1"/>
-      <c r="J641" s="46"/>
+      <c r="J641" s="45"/>
       <c r="K641" s="1"/>
       <c r="L641" s="1"/>
       <c r="M641" s="1"/>
@@ -20119,7 +20128,7 @@
       <c r="G642" s="1"/>
       <c r="H642" s="1"/>
       <c r="I642" s="1"/>
-      <c r="J642" s="46"/>
+      <c r="J642" s="45"/>
       <c r="K642" s="1"/>
       <c r="L642" s="1"/>
       <c r="M642" s="1"/>
@@ -20147,7 +20156,7 @@
       <c r="G643" s="1"/>
       <c r="H643" s="1"/>
       <c r="I643" s="1"/>
-      <c r="J643" s="46"/>
+      <c r="J643" s="45"/>
       <c r="K643" s="1"/>
       <c r="L643" s="1"/>
       <c r="M643" s="1"/>
@@ -20175,7 +20184,7 @@
       <c r="G644" s="1"/>
       <c r="H644" s="1"/>
       <c r="I644" s="1"/>
-      <c r="J644" s="46"/>
+      <c r="J644" s="45"/>
       <c r="K644" s="1"/>
       <c r="L644" s="1"/>
       <c r="M644" s="1"/>
@@ -20203,7 +20212,7 @@
       <c r="G645" s="1"/>
       <c r="H645" s="1"/>
       <c r="I645" s="1"/>
-      <c r="J645" s="46"/>
+      <c r="J645" s="45"/>
       <c r="K645" s="1"/>
       <c r="L645" s="1"/>
       <c r="M645" s="1"/>
@@ -20231,7 +20240,7 @@
       <c r="G646" s="1"/>
       <c r="H646" s="1"/>
       <c r="I646" s="1"/>
-      <c r="J646" s="46"/>
+      <c r="J646" s="45"/>
       <c r="K646" s="1"/>
       <c r="L646" s="1"/>
       <c r="M646" s="1"/>
@@ -20259,7 +20268,7 @@
       <c r="G647" s="1"/>
       <c r="H647" s="1"/>
       <c r="I647" s="1"/>
-      <c r="J647" s="46"/>
+      <c r="J647" s="45"/>
       <c r="K647" s="1"/>
       <c r="L647" s="1"/>
       <c r="M647" s="1"/>
@@ -20287,7 +20296,7 @@
       <c r="G648" s="1"/>
       <c r="H648" s="1"/>
       <c r="I648" s="1"/>
-      <c r="J648" s="46"/>
+      <c r="J648" s="45"/>
       <c r="K648" s="1"/>
       <c r="L648" s="1"/>
       <c r="M648" s="1"/>
@@ -20315,7 +20324,7 @@
       <c r="G649" s="1"/>
       <c r="H649" s="1"/>
       <c r="I649" s="1"/>
-      <c r="J649" s="46"/>
+      <c r="J649" s="45"/>
       <c r="K649" s="1"/>
       <c r="L649" s="1"/>
       <c r="M649" s="1"/>
@@ -20343,7 +20352,7 @@
       <c r="G650" s="1"/>
       <c r="H650" s="1"/>
       <c r="I650" s="1"/>
-      <c r="J650" s="46"/>
+      <c r="J650" s="45"/>
       <c r="K650" s="1"/>
       <c r="L650" s="1"/>
       <c r="M650" s="1"/>
@@ -20371,7 +20380,7 @@
       <c r="G651" s="1"/>
       <c r="H651" s="1"/>
       <c r="I651" s="1"/>
-      <c r="J651" s="46"/>
+      <c r="J651" s="45"/>
       <c r="K651" s="1"/>
       <c r="L651" s="1"/>
       <c r="M651" s="1"/>
@@ -20399,7 +20408,7 @@
       <c r="G652" s="1"/>
       <c r="H652" s="1"/>
       <c r="I652" s="1"/>
-      <c r="J652" s="46"/>
+      <c r="J652" s="45"/>
       <c r="K652" s="1"/>
       <c r="L652" s="1"/>
       <c r="M652" s="1"/>
@@ -20427,7 +20436,7 @@
       <c r="G653" s="1"/>
       <c r="H653" s="1"/>
       <c r="I653" s="1"/>
-      <c r="J653" s="46"/>
+      <c r="J653" s="45"/>
       <c r="K653" s="1"/>
       <c r="L653" s="1"/>
       <c r="M653" s="1"/>
@@ -20455,7 +20464,7 @@
       <c r="G654" s="1"/>
       <c r="H654" s="1"/>
       <c r="I654" s="1"/>
-      <c r="J654" s="46"/>
+      <c r="J654" s="45"/>
       <c r="K654" s="1"/>
       <c r="L654" s="1"/>
       <c r="M654" s="1"/>
@@ -20483,7 +20492,7 @@
       <c r="G655" s="1"/>
       <c r="H655" s="1"/>
       <c r="I655" s="1"/>
-      <c r="J655" s="46"/>
+      <c r="J655" s="45"/>
       <c r="K655" s="1"/>
       <c r="L655" s="1"/>
       <c r="M655" s="1"/>
@@ -20511,7 +20520,7 @@
       <c r="G656" s="1"/>
       <c r="H656" s="1"/>
       <c r="I656" s="1"/>
-      <c r="J656" s="46"/>
+      <c r="J656" s="45"/>
       <c r="K656" s="1"/>
       <c r="L656" s="1"/>
       <c r="M656" s="1"/>
@@ -20539,7 +20548,7 @@
       <c r="G657" s="1"/>
       <c r="H657" s="1"/>
       <c r="I657" s="1"/>
-      <c r="J657" s="46"/>
+      <c r="J657" s="45"/>
       <c r="K657" s="1"/>
       <c r="L657" s="1"/>
       <c r="M657" s="1"/>
@@ -20567,7 +20576,7 @@
       <c r="G658" s="1"/>
       <c r="H658" s="1"/>
       <c r="I658" s="1"/>
-      <c r="J658" s="46"/>
+      <c r="J658" s="45"/>
       <c r="K658" s="1"/>
       <c r="L658" s="1"/>
       <c r="M658" s="1"/>
@@ -20595,7 +20604,7 @@
       <c r="G659" s="1"/>
       <c r="H659" s="1"/>
       <c r="I659" s="1"/>
-      <c r="J659" s="46"/>
+      <c r="J659" s="45"/>
       <c r="K659" s="1"/>
       <c r="L659" s="1"/>
       <c r="M659" s="1"/>
@@ -20623,7 +20632,7 @@
       <c r="G660" s="1"/>
       <c r="H660" s="1"/>
       <c r="I660" s="1"/>
-      <c r="J660" s="46"/>
+      <c r="J660" s="45"/>
       <c r="K660" s="1"/>
       <c r="L660" s="1"/>
       <c r="M660" s="1"/>
@@ -20651,7 +20660,7 @@
       <c r="G661" s="1"/>
       <c r="H661" s="1"/>
       <c r="I661" s="1"/>
-      <c r="J661" s="46"/>
+      <c r="J661" s="45"/>
       <c r="K661" s="1"/>
       <c r="L661" s="1"/>
       <c r="M661" s="1"/>
@@ -20679,7 +20688,7 @@
       <c r="G662" s="1"/>
       <c r="H662" s="1"/>
       <c r="I662" s="1"/>
-      <c r="J662" s="46"/>
+      <c r="J662" s="45"/>
       <c r="K662" s="1"/>
       <c r="L662" s="1"/>
       <c r="M662" s="1"/>
@@ -20707,7 +20716,7 @@
       <c r="G663" s="1"/>
       <c r="H663" s="1"/>
       <c r="I663" s="1"/>
-      <c r="J663" s="46"/>
+      <c r="J663" s="45"/>
       <c r="K663" s="1"/>
       <c r="L663" s="1"/>
       <c r="M663" s="1"/>
@@ -20735,7 +20744,7 @@
       <c r="G664" s="1"/>
       <c r="H664" s="1"/>
       <c r="I664" s="1"/>
-      <c r="J664" s="46"/>
+      <c r="J664" s="45"/>
       <c r="K664" s="1"/>
       <c r="L664" s="1"/>
       <c r="M664" s="1"/>
@@ -20763,7 +20772,7 @@
       <c r="G665" s="1"/>
       <c r="H665" s="1"/>
       <c r="I665" s="1"/>
-      <c r="J665" s="46"/>
+      <c r="J665" s="45"/>
       <c r="K665" s="1"/>
       <c r="L665" s="1"/>
       <c r="M665" s="1"/>
@@ -20791,7 +20800,7 @@
       <c r="G666" s="1"/>
       <c r="H666" s="1"/>
       <c r="I666" s="1"/>
-      <c r="J666" s="46"/>
+      <c r="J666" s="45"/>
       <c r="K666" s="1"/>
       <c r="L666" s="1"/>
       <c r="M666" s="1"/>
@@ -20819,7 +20828,7 @@
       <c r="G667" s="1"/>
       <c r="H667" s="1"/>
       <c r="I667" s="1"/>
-      <c r="J667" s="46"/>
+      <c r="J667" s="45"/>
       <c r="K667" s="1"/>
       <c r="L667" s="1"/>
       <c r="M667" s="1"/>
@@ -20847,7 +20856,7 @@
       <c r="G668" s="1"/>
       <c r="H668" s="1"/>
       <c r="I668" s="1"/>
-      <c r="J668" s="46"/>
+      <c r="J668" s="45"/>
       <c r="K668" s="1"/>
       <c r="L668" s="1"/>
       <c r="M668" s="1"/>
@@ -20875,7 +20884,7 @@
       <c r="G669" s="1"/>
       <c r="H669" s="1"/>
       <c r="I669" s="1"/>
-      <c r="J669" s="46"/>
+      <c r="J669" s="45"/>
       <c r="K669" s="1"/>
       <c r="L669" s="1"/>
       <c r="M669" s="1"/>
@@ -20903,7 +20912,7 @@
       <c r="G670" s="1"/>
       <c r="H670" s="1"/>
       <c r="I670" s="1"/>
-      <c r="J670" s="46"/>
+      <c r="J670" s="45"/>
       <c r="K670" s="1"/>
       <c r="L670" s="1"/>
       <c r="M670" s="1"/>
@@ -20931,7 +20940,7 @@
       <c r="G671" s="1"/>
       <c r="H671" s="1"/>
       <c r="I671" s="1"/>
-      <c r="J671" s="46"/>
+      <c r="J671" s="45"/>
       <c r="K671" s="1"/>
       <c r="L671" s="1"/>
       <c r="M671" s="1"/>
@@ -20959,7 +20968,7 @@
       <c r="G672" s="1"/>
       <c r="H672" s="1"/>
       <c r="I672" s="1"/>
-      <c r="J672" s="46"/>
+      <c r="J672" s="45"/>
       <c r="K672" s="1"/>
       <c r="L672" s="1"/>
       <c r="M672" s="1"/>
@@ -20987,7 +20996,7 @@
       <c r="G673" s="1"/>
       <c r="H673" s="1"/>
       <c r="I673" s="1"/>
-      <c r="J673" s="46"/>
+      <c r="J673" s="45"/>
       <c r="K673" s="1"/>
       <c r="L673" s="1"/>
       <c r="M673" s="1"/>
@@ -21015,7 +21024,7 @@
       <c r="G674" s="1"/>
       <c r="H674" s="1"/>
       <c r="I674" s="1"/>
-      <c r="J674" s="46"/>
+      <c r="J674" s="45"/>
       <c r="K674" s="1"/>
       <c r="L674" s="1"/>
       <c r="M674" s="1"/>
@@ -21043,7 +21052,7 @@
       <c r="G675" s="1"/>
       <c r="H675" s="1"/>
       <c r="I675" s="1"/>
-      <c r="J675" s="46"/>
+      <c r="J675" s="45"/>
       <c r="K675" s="1"/>
       <c r="L675" s="1"/>
       <c r="M675" s="1"/>
@@ -21071,7 +21080,7 @@
       <c r="G676" s="1"/>
       <c r="H676" s="1"/>
       <c r="I676" s="1"/>
-      <c r="J676" s="46"/>
+      <c r="J676" s="45"/>
       <c r="K676" s="1"/>
       <c r="L676" s="1"/>
       <c r="M676" s="1"/>
@@ -21099,7 +21108,7 @@
       <c r="G677" s="1"/>
       <c r="H677" s="1"/>
       <c r="I677" s="1"/>
-      <c r="J677" s="46"/>
+      <c r="J677" s="45"/>
       <c r="K677" s="1"/>
       <c r="L677" s="1"/>
       <c r="M677" s="1"/>
@@ -21127,7 +21136,7 @@
       <c r="G678" s="1"/>
       <c r="H678" s="1"/>
       <c r="I678" s="1"/>
-      <c r="J678" s="46"/>
+      <c r="J678" s="45"/>
       <c r="K678" s="1"/>
       <c r="L678" s="1"/>
       <c r="M678" s="1"/>
@@ -21155,7 +21164,7 @@
       <c r="G679" s="1"/>
       <c r="H679" s="1"/>
       <c r="I679" s="1"/>
-      <c r="J679" s="46"/>
+      <c r="J679" s="45"/>
       <c r="K679" s="1"/>
       <c r="L679" s="1"/>
       <c r="M679" s="1"/>
@@ -21183,7 +21192,7 @@
       <c r="G680" s="1"/>
       <c r="H680" s="1"/>
       <c r="I680" s="1"/>
-      <c r="J680" s="46"/>
+      <c r="J680" s="45"/>
       <c r="K680" s="1"/>
       <c r="L680" s="1"/>
       <c r="M680" s="1"/>
@@ -21211,7 +21220,7 @@
       <c r="G681" s="1"/>
       <c r="H681" s="1"/>
       <c r="I681" s="1"/>
-      <c r="J681" s="46"/>
+      <c r="J681" s="45"/>
       <c r="K681" s="1"/>
       <c r="L681" s="1"/>
       <c r="M681" s="1"/>
@@ -21239,7 +21248,7 @@
       <c r="G682" s="1"/>
       <c r="H682" s="1"/>
       <c r="I682" s="1"/>
-      <c r="J682" s="46"/>
+      <c r="J682" s="45"/>
       <c r="K682" s="1"/>
       <c r="L682" s="1"/>
       <c r="M682" s="1"/>
@@ -21267,7 +21276,7 @@
       <c r="G683" s="1"/>
       <c r="H683" s="1"/>
       <c r="I683" s="1"/>
-      <c r="J683" s="46"/>
+      <c r="J683" s="45"/>
       <c r="K683" s="1"/>
       <c r="L683" s="1"/>
       <c r="M683" s="1"/>
@@ -21295,7 +21304,7 @@
       <c r="G684" s="1"/>
       <c r="H684" s="1"/>
       <c r="I684" s="1"/>
-      <c r="J684" s="46"/>
+      <c r="J684" s="45"/>
       <c r="K684" s="1"/>
       <c r="L684" s="1"/>
       <c r="M684" s="1"/>
@@ -21323,7 +21332,7 @@
       <c r="G685" s="1"/>
       <c r="H685" s="1"/>
       <c r="I685" s="1"/>
-      <c r="J685" s="46"/>
+      <c r="J685" s="45"/>
       <c r="K685" s="1"/>
       <c r="L685" s="1"/>
       <c r="M685" s="1"/>
@@ -21351,7 +21360,7 @@
       <c r="G686" s="1"/>
       <c r="H686" s="1"/>
       <c r="I686" s="1"/>
-      <c r="J686" s="46"/>
+      <c r="J686" s="45"/>
       <c r="K686" s="1"/>
       <c r="L686" s="1"/>
       <c r="M686" s="1"/>
@@ -21379,7 +21388,7 @@
       <c r="G687" s="1"/>
       <c r="H687" s="1"/>
       <c r="I687" s="1"/>
-      <c r="J687" s="46"/>
+      <c r="J687" s="45"/>
       <c r="K687" s="1"/>
       <c r="L687" s="1"/>
       <c r="M687" s="1"/>
@@ -21407,7 +21416,7 @@
       <c r="G688" s="1"/>
       <c r="H688" s="1"/>
       <c r="I688" s="1"/>
-      <c r="J688" s="46"/>
+      <c r="J688" s="45"/>
       <c r="K688" s="1"/>
       <c r="L688" s="1"/>
       <c r="M688" s="1"/>
@@ -21435,7 +21444,7 @@
       <c r="G689" s="1"/>
       <c r="H689" s="1"/>
       <c r="I689" s="1"/>
-      <c r="J689" s="46"/>
+      <c r="J689" s="45"/>
       <c r="K689" s="1"/>
       <c r="L689" s="1"/>
       <c r="M689" s="1"/>
@@ -21463,7 +21472,7 @@
       <c r="G690" s="1"/>
       <c r="H690" s="1"/>
       <c r="I690" s="1"/>
-      <c r="J690" s="46"/>
+      <c r="J690" s="45"/>
       <c r="K690" s="1"/>
       <c r="L690" s="1"/>
       <c r="M690" s="1"/>
@@ -21491,7 +21500,7 @@
       <c r="G691" s="1"/>
       <c r="H691" s="1"/>
       <c r="I691" s="1"/>
-      <c r="J691" s="46"/>
+      <c r="J691" s="45"/>
       <c r="K691" s="1"/>
       <c r="L691" s="1"/>
       <c r="M691" s="1"/>
@@ -21519,7 +21528,7 @@
       <c r="G692" s="1"/>
       <c r="H692" s="1"/>
       <c r="I692" s="1"/>
-      <c r="J692" s="46"/>
+      <c r="J692" s="45"/>
       <c r="K692" s="1"/>
       <c r="L692" s="1"/>
       <c r="M692" s="1"/>
@@ -21547,7 +21556,7 @@
       <c r="G693" s="1"/>
       <c r="H693" s="1"/>
       <c r="I693" s="1"/>
-      <c r="J693" s="46"/>
+      <c r="J693" s="45"/>
       <c r="K693" s="1"/>
       <c r="L693" s="1"/>
       <c r="M693" s="1"/>
@@ -21575,7 +21584,7 @@
       <c r="G694" s="1"/>
       <c r="H694" s="1"/>
       <c r="I694" s="1"/>
-      <c r="J694" s="46"/>
+      <c r="J694" s="45"/>
       <c r="K694" s="1"/>
       <c r="L694" s="1"/>
       <c r="M694" s="1"/>
@@ -21603,7 +21612,7 @@
       <c r="G695" s="1"/>
       <c r="H695" s="1"/>
       <c r="I695" s="1"/>
-      <c r="J695" s="46"/>
+      <c r="J695" s="45"/>
       <c r="K695" s="1"/>
       <c r="L695" s="1"/>
       <c r="M695" s="1"/>
@@ -21631,7 +21640,7 @@
       <c r="G696" s="1"/>
       <c r="H696" s="1"/>
       <c r="I696" s="1"/>
-      <c r="J696" s="46"/>
+      <c r="J696" s="45"/>
       <c r="K696" s="1"/>
       <c r="L696" s="1"/>
       <c r="M696" s="1"/>
@@ -21659,7 +21668,7 @@
       <c r="G697" s="1"/>
       <c r="H697" s="1"/>
       <c r="I697" s="1"/>
-      <c r="J697" s="46"/>
+      <c r="J697" s="45"/>
       <c r="K697" s="1"/>
       <c r="L697" s="1"/>
       <c r="M697" s="1"/>
@@ -21687,7 +21696,7 @@
       <c r="G698" s="1"/>
       <c r="H698" s="1"/>
       <c r="I698" s="1"/>
-      <c r="J698" s="46"/>
+      <c r="J698" s="45"/>
       <c r="K698" s="1"/>
       <c r="L698" s="1"/>
       <c r="M698" s="1"/>
@@ -21715,7 +21724,7 @@
       <c r="G699" s="1"/>
       <c r="H699" s="1"/>
       <c r="I699" s="1"/>
-      <c r="J699" s="46"/>
+      <c r="J699" s="45"/>
       <c r="K699" s="1"/>
       <c r="L699" s="1"/>
       <c r="M699" s="1"/>
@@ -21743,7 +21752,7 @@
       <c r="G700" s="1"/>
       <c r="H700" s="1"/>
       <c r="I700" s="1"/>
-      <c r="J700" s="46"/>
+      <c r="J700" s="45"/>
       <c r="K700" s="1"/>
       <c r="L700" s="1"/>
       <c r="M700" s="1"/>
@@ -21771,7 +21780,7 @@
       <c r="G701" s="1"/>
       <c r="H701" s="1"/>
       <c r="I701" s="1"/>
-      <c r="J701" s="46"/>
+      <c r="J701" s="45"/>
       <c r="K701" s="1"/>
       <c r="L701" s="1"/>
       <c r="M701" s="1"/>
@@ -21799,7 +21808,7 @@
       <c r="G702" s="1"/>
       <c r="H702" s="1"/>
       <c r="I702" s="1"/>
-      <c r="J702" s="46"/>
+      <c r="J702" s="45"/>
       <c r="K702" s="1"/>
       <c r="L702" s="1"/>
       <c r="M702" s="1"/>
@@ -21827,7 +21836,7 @@
       <c r="G703" s="1"/>
       <c r="H703" s="1"/>
       <c r="I703" s="1"/>
-      <c r="J703" s="46"/>
+      <c r="J703" s="45"/>
       <c r="K703" s="1"/>
       <c r="L703" s="1"/>
       <c r="M703" s="1"/>
@@ -21855,7 +21864,7 @@
       <c r="G704" s="1"/>
       <c r="H704" s="1"/>
       <c r="I704" s="1"/>
-      <c r="J704" s="46"/>
+      <c r="J704" s="45"/>
       <c r="K704" s="1"/>
       <c r="L704" s="1"/>
       <c r="M704" s="1"/>
@@ -21883,7 +21892,7 @@
       <c r="G705" s="1"/>
       <c r="H705" s="1"/>
       <c r="I705" s="1"/>
-      <c r="J705" s="46"/>
+      <c r="J705" s="45"/>
       <c r="K705" s="1"/>
       <c r="L705" s="1"/>
       <c r="M705" s="1"/>
@@ -21911,7 +21920,7 @@
       <c r="G706" s="1"/>
       <c r="H706" s="1"/>
       <c r="I706" s="1"/>
-      <c r="J706" s="46"/>
+      <c r="J706" s="45"/>
       <c r="K706" s="1"/>
       <c r="L706" s="1"/>
       <c r="M706" s="1"/>
@@ -21939,7 +21948,7 @@
       <c r="G707" s="1"/>
       <c r="H707" s="1"/>
       <c r="I707" s="1"/>
-      <c r="J707" s="46"/>
+      <c r="J707" s="45"/>
       <c r="K707" s="1"/>
       <c r="L707" s="1"/>
       <c r="M707" s="1"/>
@@ -21967,7 +21976,7 @@
       <c r="G708" s="1"/>
       <c r="H708" s="1"/>
       <c r="I708" s="1"/>
-      <c r="J708" s="46"/>
+      <c r="J708" s="45"/>
       <c r="K708" s="1"/>
       <c r="L708" s="1"/>
       <c r="M708" s="1"/>
@@ -21995,7 +22004,7 @@
       <c r="G709" s="1"/>
       <c r="H709" s="1"/>
       <c r="I709" s="1"/>
-      <c r="J709" s="46"/>
+      <c r="J709" s="45"/>
       <c r="K709" s="1"/>
       <c r="L709" s="1"/>
       <c r="M709" s="1"/>
@@ -22023,7 +22032,7 @@
       <c r="G710" s="1"/>
       <c r="H710" s="1"/>
       <c r="I710" s="1"/>
-      <c r="J710" s="46"/>
+      <c r="J710" s="45"/>
       <c r="K710" s="1"/>
       <c r="L710" s="1"/>
       <c r="M710" s="1"/>
@@ -22051,7 +22060,7 @@
       <c r="G711" s="1"/>
       <c r="H711" s="1"/>
       <c r="I711" s="1"/>
-      <c r="J711" s="46"/>
+      <c r="J711" s="45"/>
       <c r="K711" s="1"/>
       <c r="L711" s="1"/>
       <c r="M711" s="1"/>
@@ -22079,7 +22088,7 @@
       <c r="G712" s="1"/>
       <c r="H712" s="1"/>
       <c r="I712" s="1"/>
-      <c r="J712" s="46"/>
+      <c r="J712" s="45"/>
       <c r="K712" s="1"/>
       <c r="L712" s="1"/>
       <c r="M712" s="1"/>
@@ -22107,7 +22116,7 @@
       <c r="G713" s="1"/>
       <c r="H713" s="1"/>
       <c r="I713" s="1"/>
-      <c r="J713" s="46"/>
+      <c r="J713" s="45"/>
       <c r="K713" s="1"/>
       <c r="L713" s="1"/>
       <c r="M713" s="1"/>
@@ -22135,7 +22144,7 @@
       <c r="G714" s="1"/>
       <c r="H714" s="1"/>
       <c r="I714" s="1"/>
-      <c r="J714" s="46"/>
+      <c r="J714" s="45"/>
       <c r="K714" s="1"/>
       <c r="L714" s="1"/>
       <c r="M714" s="1"/>
@@ -22163,7 +22172,7 @@
       <c r="G715" s="1"/>
       <c r="H715" s="1"/>
       <c r="I715" s="1"/>
-      <c r="J715" s="46"/>
+      <c r="J715" s="45"/>
       <c r="K715" s="1"/>
       <c r="L715" s="1"/>
       <c r="M715" s="1"/>
@@ -22191,7 +22200,7 @@
       <c r="G716" s="1"/>
       <c r="H716" s="1"/>
       <c r="I716" s="1"/>
-      <c r="J716" s="46"/>
+      <c r="J716" s="45"/>
       <c r="K716" s="1"/>
       <c r="L716" s="1"/>
       <c r="M716" s="1"/>
@@ -22219,7 +22228,7 @@
       <c r="G717" s="1"/>
       <c r="H717" s="1"/>
       <c r="I717" s="1"/>
-      <c r="J717" s="46"/>
+      <c r="J717" s="45"/>
       <c r="K717" s="1"/>
       <c r="L717" s="1"/>
       <c r="M717" s="1"/>
@@ -22247,7 +22256,7 @@
       <c r="G718" s="1"/>
       <c r="H718" s="1"/>
       <c r="I718" s="1"/>
-      <c r="J718" s="46"/>
+      <c r="J718" s="45"/>
       <c r="K718" s="1"/>
       <c r="L718" s="1"/>
       <c r="M718" s="1"/>
@@ -22275,7 +22284,7 @@
       <c r="G719" s="1"/>
       <c r="H719" s="1"/>
       <c r="I719" s="1"/>
-      <c r="J719" s="46"/>
+      <c r="J719" s="45"/>
       <c r="K719" s="1"/>
       <c r="L719" s="1"/>
       <c r="M719" s="1"/>
@@ -22303,7 +22312,7 @@
       <c r="G720" s="1"/>
       <c r="H720" s="1"/>
       <c r="I720" s="1"/>
-      <c r="J720" s="46"/>
+      <c r="J720" s="45"/>
       <c r="K720" s="1"/>
       <c r="L720" s="1"/>
       <c r="M720" s="1"/>
@@ -22331,7 +22340,7 @@
       <c r="G721" s="1"/>
       <c r="H721" s="1"/>
       <c r="I721" s="1"/>
-      <c r="J721" s="46"/>
+      <c r="J721" s="45"/>
       <c r="K721" s="1"/>
       <c r="L721" s="1"/>
       <c r="M721" s="1"/>
@@ -22359,7 +22368,7 @@
       <c r="G722" s="1"/>
       <c r="H722" s="1"/>
       <c r="I722" s="1"/>
-      <c r="J722" s="46"/>
+      <c r="J722" s="45"/>
       <c r="K722" s="1"/>
       <c r="L722" s="1"/>
       <c r="M722" s="1"/>
@@ -22387,7 +22396,7 @@
       <c r="G723" s="1"/>
       <c r="H723" s="1"/>
       <c r="I723" s="1"/>
-      <c r="J723" s="46"/>
+      <c r="J723" s="45"/>
       <c r="K723" s="1"/>
       <c r="L723" s="1"/>
       <c r="M723" s="1"/>
@@ -22415,7 +22424,7 @@
       <c r="G724" s="1"/>
       <c r="H724" s="1"/>
       <c r="I724" s="1"/>
-      <c r="J724" s="46"/>
+      <c r="J724" s="45"/>
       <c r="K724" s="1"/>
       <c r="L724" s="1"/>
       <c r="M724" s="1"/>
@@ -22443,7 +22452,7 @@
       <c r="G725" s="1"/>
       <c r="H725" s="1"/>
       <c r="I725" s="1"/>
-      <c r="J725" s="46"/>
+      <c r="J725" s="45"/>
       <c r="K725" s="1"/>
       <c r="L725" s="1"/>
       <c r="M725" s="1"/>
@@ -22471,7 +22480,7 @@
       <c r="G726" s="1"/>
       <c r="H726" s="1"/>
       <c r="I726" s="1"/>
-      <c r="J726" s="46"/>
+      <c r="J726" s="45"/>
       <c r="K726" s="1"/>
       <c r="L726" s="1"/>
       <c r="M726" s="1"/>
@@ -22499,7 +22508,7 @@
       <c r="G727" s="1"/>
       <c r="H727" s="1"/>
       <c r="I727" s="1"/>
-      <c r="J727" s="46"/>
+      <c r="J727" s="45"/>
       <c r="K727" s="1"/>
       <c r="L727" s="1"/>
       <c r="M727" s="1"/>
@@ -22527,7 +22536,7 @@
       <c r="G728" s="1"/>
       <c r="H728" s="1"/>
       <c r="I728" s="1"/>
-      <c r="J728" s="46"/>
+      <c r="J728" s="45"/>
       <c r="K728" s="1"/>
       <c r="L728" s="1"/>
       <c r="M728" s="1"/>
@@ -22555,7 +22564,7 @@
       <c r="G729" s="1"/>
       <c r="H729" s="1"/>
       <c r="I729" s="1"/>
-      <c r="J729" s="46"/>
+      <c r="J729" s="45"/>
       <c r="K729" s="1"/>
       <c r="L729" s="1"/>
       <c r="M729" s="1"/>
@@ -22583,7 +22592,7 @@
       <c r="G730" s="1"/>
       <c r="H730" s="1"/>
       <c r="I730" s="1"/>
-      <c r="J730" s="46"/>
+      <c r="J730" s="45"/>
       <c r="K730" s="1"/>
       <c r="L730" s="1"/>
       <c r="M730" s="1"/>
@@ -22611,7 +22620,7 @@
       <c r="G731" s="1"/>
       <c r="H731" s="1"/>
       <c r="I731" s="1"/>
-      <c r="J731" s="46"/>
+      <c r="J731" s="45"/>
       <c r="K731" s="1"/>
       <c r="L731" s="1"/>
       <c r="M731" s="1"/>
@@ -22639,7 +22648,7 @@
       <c r="G732" s="1"/>
       <c r="H732" s="1"/>
       <c r="I732" s="1"/>
-      <c r="J732" s="46"/>
+      <c r="J732" s="45"/>
       <c r="K732" s="1"/>
       <c r="L732" s="1"/>
       <c r="M732" s="1"/>
@@ -22667,7 +22676,7 @@
       <c r="G733" s="1"/>
       <c r="H733" s="1"/>
       <c r="I733" s="1"/>
-      <c r="J733" s="46"/>
+      <c r="J733" s="45"/>
       <c r="K733" s="1"/>
       <c r="L733" s="1"/>
       <c r="M733" s="1"/>
@@ -22695,7 +22704,7 @@
       <c r="G734" s="1"/>
       <c r="H734" s="1"/>
       <c r="I734" s="1"/>
-      <c r="J734" s="46"/>
+      <c r="J734" s="45"/>
       <c r="K734" s="1"/>
       <c r="L734" s="1"/>
       <c r="M734" s="1"/>
@@ -22723,7 +22732,7 @@
       <c r="G735" s="1"/>
       <c r="H735" s="1"/>
       <c r="I735" s="1"/>
-      <c r="J735" s="46"/>
+      <c r="J735" s="45"/>
       <c r="K735" s="1"/>
       <c r="L735" s="1"/>
       <c r="M735" s="1"/>
@@ -22751,7 +22760,7 @@
       <c r="G736" s="1"/>
       <c r="H736" s="1"/>
       <c r="I736" s="1"/>
-      <c r="J736" s="46"/>
+      <c r="J736" s="45"/>
       <c r="K736" s="1"/>
       <c r="L736" s="1"/>
       <c r="M736" s="1"/>
@@ -22779,7 +22788,7 @@
       <c r="G737" s="1"/>
       <c r="H737" s="1"/>
       <c r="I737" s="1"/>
-      <c r="J737" s="46"/>
+      <c r="J737" s="45"/>
       <c r="K737" s="1"/>
       <c r="L737" s="1"/>
       <c r="M737" s="1"/>
@@ -22807,7 +22816,7 @@
       <c r="G738" s="1"/>
       <c r="H738" s="1"/>
       <c r="I738" s="1"/>
-      <c r="J738" s="46"/>
+      <c r="J738" s="45"/>
       <c r="K738" s="1"/>
       <c r="L738" s="1"/>
       <c r="M738" s="1"/>
@@ -22835,7 +22844,7 @@
       <c r="G739" s="1"/>
       <c r="H739" s="1"/>
       <c r="I739" s="1"/>
-      <c r="J739" s="46"/>
+      <c r="J739" s="45"/>
       <c r="K739" s="1"/>
       <c r="L739" s="1"/>
       <c r="M739" s="1"/>
@@ -22863,7 +22872,7 @@
       <c r="G740" s="1"/>
       <c r="H740" s="1"/>
       <c r="I740" s="1"/>
-      <c r="J740" s="46"/>
+      <c r="J740" s="45"/>
       <c r="K740" s="1"/>
       <c r="L740" s="1"/>
       <c r="M740" s="1"/>
@@ -22891,7 +22900,7 @@
       <c r="G741" s="1"/>
       <c r="H741" s="1"/>
       <c r="I741" s="1"/>
-      <c r="J741" s="46"/>
+      <c r="J741" s="45"/>
       <c r="K741" s="1"/>
       <c r="L741" s="1"/>
       <c r="M741" s="1"/>
@@ -22919,7 +22928,7 @@
       <c r="G742" s="1"/>
       <c r="H742" s="1"/>
       <c r="I742" s="1"/>
-      <c r="J742" s="46"/>
+      <c r="J742" s="45"/>
       <c r="K742" s="1"/>
       <c r="L742" s="1"/>
       <c r="M742" s="1"/>
@@ -22947,7 +22956,7 @@
       <c r="G743" s="1"/>
       <c r="H743" s="1"/>
       <c r="I743" s="1"/>
-      <c r="J743" s="46"/>
+      <c r="J743" s="45"/>
       <c r="K743" s="1"/>
       <c r="L743" s="1"/>
       <c r="M743" s="1"/>
@@ -22975,7 +22984,7 @@
       <c r="G744" s="1"/>
       <c r="H744" s="1"/>
       <c r="I744" s="1"/>
-      <c r="J744" s="46"/>
+      <c r="J744" s="45"/>
       <c r="K744" s="1"/>
       <c r="L744" s="1"/>
       <c r="M744" s="1"/>
@@ -23003,7 +23012,7 @@
       <c r="G745" s="1"/>
       <c r="H745" s="1"/>
       <c r="I745" s="1"/>
-      <c r="J745" s="46"/>
+      <c r="J745" s="45"/>
       <c r="K745" s="1"/>
       <c r="L745" s="1"/>
       <c r="M745" s="1"/>
@@ -23031,7 +23040,7 @@
       <c r="G746" s="1"/>
       <c r="H746" s="1"/>
       <c r="I746" s="1"/>
-      <c r="J746" s="46"/>
+      <c r="J746" s="45"/>
       <c r="K746" s="1"/>
       <c r="L746" s="1"/>
       <c r="M746" s="1"/>
@@ -23059,7 +23068,7 @@
       <c r="G747" s="1"/>
       <c r="H747" s="1"/>
       <c r="I747" s="1"/>
-      <c r="J747" s="46"/>
+      <c r="J747" s="45"/>
       <c r="K747" s="1"/>
       <c r="L747" s="1"/>
       <c r="M747" s="1"/>
@@ -23087,7 +23096,7 @@
       <c r="G748" s="1"/>
       <c r="H748" s="1"/>
       <c r="I748" s="1"/>
-      <c r="J748" s="46"/>
+      <c r="J748" s="45"/>
       <c r="K748" s="1"/>
       <c r="L748" s="1"/>
       <c r="M748" s="1"/>
@@ -23115,7 +23124,7 @@
       <c r="G749" s="1"/>
       <c r="H749" s="1"/>
       <c r="I749" s="1"/>
-      <c r="J749" s="46"/>
+      <c r="J749" s="45"/>
       <c r="K749" s="1"/>
       <c r="L749" s="1"/>
       <c r="M749" s="1"/>
@@ -23143,7 +23152,7 @@
       <c r="G750" s="1"/>
       <c r="H750" s="1"/>
       <c r="I750" s="1"/>
-      <c r="J750" s="46"/>
+      <c r="J750" s="45"/>
       <c r="K750" s="1"/>
       <c r="L750" s="1"/>
       <c r="M750" s="1"/>
@@ -23171,7 +23180,7 @@
       <c r="G751" s="1"/>
       <c r="H751" s="1"/>
       <c r="I751" s="1"/>
-      <c r="J751" s="46"/>
+      <c r="J751" s="45"/>
       <c r="K751" s="1"/>
       <c r="L751" s="1"/>
       <c r="M751" s="1"/>
@@ -23199,7 +23208,7 @@
       <c r="G752" s="1"/>
       <c r="H752" s="1"/>
       <c r="I752" s="1"/>
-      <c r="J752" s="46"/>
+      <c r="J752" s="45"/>
       <c r="K752" s="1"/>
       <c r="L752" s="1"/>
       <c r="M752" s="1"/>
@@ -23227,7 +23236,7 @@
       <c r="G753" s="1"/>
       <c r="H753" s="1"/>
       <c r="I753" s="1"/>
-      <c r="J753" s="46"/>
+      <c r="J753" s="45"/>
       <c r="K753" s="1"/>
       <c r="L753" s="1"/>
       <c r="M753" s="1"/>
@@ -23255,7 +23264,7 @@
       <c r="G754" s="1"/>
       <c r="H754" s="1"/>
       <c r="I754" s="1"/>
-      <c r="J754" s="46"/>
+      <c r="J754" s="45"/>
       <c r="K754" s="1"/>
       <c r="L754" s="1"/>
       <c r="M754" s="1"/>
@@ -23283,7 +23292,7 @@
       <c r="G755" s="1"/>
       <c r="H755" s="1"/>
       <c r="I755" s="1"/>
-      <c r="J755" s="46"/>
+      <c r="J755" s="45"/>
       <c r="K755" s="1"/>
       <c r="L755" s="1"/>
       <c r="M755" s="1"/>
@@ -23311,7 +23320,7 @@
       <c r="G756" s="1"/>
       <c r="H756" s="1"/>
       <c r="I756" s="1"/>
-      <c r="J756" s="46"/>
+      <c r="J756" s="45"/>
       <c r="K756" s="1"/>
       <c r="L756" s="1"/>
       <c r="M756" s="1"/>
@@ -23339,7 +23348,7 @@
       <c r="G757" s="1"/>
       <c r="H757" s="1"/>
       <c r="I757" s="1"/>
-      <c r="J757" s="46"/>
+      <c r="J757" s="45"/>
       <c r="K757" s="1"/>
       <c r="L757" s="1"/>
       <c r="M757" s="1"/>
@@ -23367,7 +23376,7 @@
       <c r="G758" s="1"/>
       <c r="H758" s="1"/>
       <c r="I758" s="1"/>
-      <c r="J758" s="46"/>
+      <c r="J758" s="45"/>
       <c r="K758" s="1"/>
       <c r="L758" s="1"/>
       <c r="M758" s="1"/>
@@ -23395,7 +23404,7 @@
       <c r="G759" s="1"/>
       <c r="H759" s="1"/>
       <c r="I759" s="1"/>
-      <c r="J759" s="46"/>
+      <c r="J759" s="45"/>
       <c r="K759" s="1"/>
       <c r="L759" s="1"/>
       <c r="M759" s="1"/>
@@ -23423,7 +23432,7 @@
       <c r="G760" s="1"/>
       <c r="H760" s="1"/>
       <c r="I760" s="1"/>
-      <c r="J760" s="46"/>
+      <c r="J760" s="45"/>
       <c r="K760" s="1"/>
       <c r="L760" s="1"/>
       <c r="M760" s="1"/>
@@ -23451,7 +23460,7 @@
       <c r="G761" s="1"/>
       <c r="H761" s="1"/>
       <c r="I761" s="1"/>
-      <c r="J761" s="46"/>
+      <c r="J761" s="45"/>
       <c r="K761" s="1"/>
       <c r="L761" s="1"/>
       <c r="M761" s="1"/>
@@ -23479,7 +23488,7 @@
       <c r="G762" s="1"/>
       <c r="H762" s="1"/>
       <c r="I762" s="1"/>
-      <c r="J762" s="46"/>
+      <c r="J762" s="45"/>
       <c r="K762" s="1"/>
       <c r="L762" s="1"/>
       <c r="M762" s="1"/>
@@ -23507,7 +23516,7 @@
       <c r="G763" s="1"/>
       <c r="H763" s="1"/>
       <c r="I763" s="1"/>
-      <c r="J763" s="46"/>
+      <c r="J763" s="45"/>
       <c r="K763" s="1"/>
       <c r="L763" s="1"/>
       <c r="M763" s="1"/>
@@ -23535,7 +23544,7 @@
       <c r="G764" s="1"/>
       <c r="H764" s="1"/>
       <c r="I764" s="1"/>
-      <c r="J764" s="46"/>
+      <c r="J764" s="45"/>
       <c r="K764" s="1"/>
       <c r="L764" s="1"/>
       <c r="M764" s="1"/>
@@ -23563,7 +23572,7 @@
       <c r="G765" s="1"/>
       <c r="H765" s="1"/>
       <c r="I765" s="1"/>
-      <c r="J765" s="46"/>
+      <c r="J765" s="45"/>
       <c r="K765" s="1"/>
       <c r="L765" s="1"/>
       <c r="M765" s="1"/>
@@ -23591,7 +23600,7 @@
       <c r="G766" s="1"/>
       <c r="H766" s="1"/>
       <c r="I766" s="1"/>
-      <c r="J766" s="46"/>
+      <c r="J766" s="45"/>
       <c r="K766" s="1"/>
       <c r="L766" s="1"/>
       <c r="M766" s="1"/>
@@ -23619,7 +23628,7 @@
       <c r="G767" s="1"/>
       <c r="H767" s="1"/>
       <c r="I767" s="1"/>
-      <c r="J767" s="46"/>
+      <c r="J767" s="45"/>
       <c r="K767" s="1"/>
       <c r="L767" s="1"/>
       <c r="M767" s="1"/>
@@ -23647,7 +23656,7 @@
       <c r="G768" s="1"/>
       <c r="H768" s="1"/>
       <c r="I768" s="1"/>
-      <c r="J768" s="46"/>
+      <c r="J768" s="45"/>
       <c r="K768" s="1"/>
       <c r="L768" s="1"/>
       <c r="M768" s="1"/>
@@ -23675,7 +23684,7 @@
       <c r="G769" s="1"/>
       <c r="H769" s="1"/>
       <c r="I769" s="1"/>
-      <c r="J769" s="46"/>
+      <c r="J769" s="45"/>
       <c r="K769" s="1"/>
       <c r="L769" s="1"/>
       <c r="M769" s="1"/>
@@ -23703,7 +23712,7 @@
       <c r="G770" s="1"/>
       <c r="H770" s="1"/>
       <c r="I770" s="1"/>
-      <c r="J770" s="46"/>
+      <c r="J770" s="45"/>
       <c r="K770" s="1"/>
       <c r="L770" s="1"/>
       <c r="M770" s="1"/>
@@ -23731,7 +23740,7 @@
       <c r="G771" s="1"/>
       <c r="H771" s="1"/>
       <c r="I771" s="1"/>
-      <c r="J771" s="46"/>
+      <c r="J771" s="45"/>
       <c r="K771" s="1"/>
       <c r="L771" s="1"/>
       <c r="M771" s="1"/>
@@ -23759,7 +23768,7 @@
       <c r="G772" s="1"/>
       <c r="H772" s="1"/>
       <c r="I772" s="1"/>
-      <c r="J772" s="46"/>
+      <c r="J772" s="45"/>
       <c r="K772" s="1"/>
       <c r="L772" s="1"/>
       <c r="M772" s="1"/>
@@ -23787,7 +23796,7 @@
       <c r="G773" s="1"/>
       <c r="H773" s="1"/>
       <c r="I773" s="1"/>
-      <c r="J773" s="46"/>
+      <c r="J773" s="45"/>
       <c r="K773" s="1"/>
       <c r="L773" s="1"/>
       <c r="M773" s="1"/>
@@ -23815,7 +23824,7 @@
       <c r="G774" s="1"/>
       <c r="H774" s="1"/>
       <c r="I774" s="1"/>
-      <c r="J774" s="46"/>
+      <c r="J774" s="45"/>
       <c r="K774" s="1"/>
       <c r="L774" s="1"/>
       <c r="M774" s="1"/>
@@ -23843,7 +23852,7 @@
       <c r="G775" s="1"/>
       <c r="H775" s="1"/>
       <c r="I775" s="1"/>
-      <c r="J775" s="46"/>
+      <c r="J775" s="45"/>
       <c r="K775" s="1"/>
       <c r="L775" s="1"/>
       <c r="M775" s="1"/>
@@ -23871,7 +23880,7 @@
       <c r="G776" s="1"/>
       <c r="H776" s="1"/>
       <c r="I776" s="1"/>
-      <c r="J776" s="46"/>
+      <c r="J776" s="45"/>
       <c r="K776" s="1"/>
       <c r="L776" s="1"/>
       <c r="M776" s="1"/>
@@ -23899,7 +23908,7 @@
       <c r="G777" s="1"/>
       <c r="H777" s="1"/>
       <c r="I777" s="1"/>
-      <c r="J777" s="46"/>
+      <c r="J777" s="45"/>
       <c r="K777" s="1"/>
       <c r="L777" s="1"/>
       <c r="M777" s="1"/>
@@ -23927,7 +23936,7 @@
       <c r="G778" s="1"/>
       <c r="H778" s="1"/>
       <c r="I778" s="1"/>
-      <c r="J778" s="46"/>
+      <c r="J778" s="45"/>
       <c r="K778" s="1"/>
       <c r="L778" s="1"/>
       <c r="M778" s="1"/>
@@ -23955,7 +23964,7 @@
       <c r="G779" s="1"/>
       <c r="H779" s="1"/>
       <c r="I779" s="1"/>
-      <c r="J779" s="46"/>
+      <c r="J779" s="45"/>
       <c r="K779" s="1"/>
       <c r="L779" s="1"/>
       <c r="M779" s="1"/>
@@ -23983,7 +23992,7 @@
       <c r="G780" s="1"/>
       <c r="H780" s="1"/>
       <c r="I780" s="1"/>
-      <c r="J780" s="46"/>
+      <c r="J780" s="45"/>
       <c r="K780" s="1"/>
       <c r="L780" s="1"/>
       <c r="M780" s="1"/>
@@ -24011,7 +24020,7 @@
       <c r="G781" s="1"/>
       <c r="H781" s="1"/>
       <c r="I781" s="1"/>
-      <c r="J781" s="46"/>
+      <c r="J781" s="45"/>
       <c r="K781" s="1"/>
       <c r="L781" s="1"/>
       <c r="M781" s="1"/>
@@ -24039,7 +24048,7 @@
       <c r="G782" s="1"/>
       <c r="H782" s="1"/>
       <c r="I782" s="1"/>
-      <c r="J782" s="46"/>
+      <c r="J782" s="45"/>
       <c r="K782" s="1"/>
       <c r="L782" s="1"/>
       <c r="M782" s="1"/>
@@ -24067,7 +24076,7 @@
       <c r="G783" s="1"/>
       <c r="H783" s="1"/>
       <c r="I783" s="1"/>
-      <c r="J783" s="46"/>
+      <c r="J783" s="45"/>
       <c r="K783" s="1"/>
       <c r="L783" s="1"/>
       <c r="M783" s="1"/>
@@ -24095,7 +24104,7 @@
       <c r="G784" s="1"/>
       <c r="H784" s="1"/>
       <c r="I784" s="1"/>
-      <c r="J784" s="46"/>
+      <c r="J784" s="45"/>
       <c r="K784" s="1"/>
       <c r="L784" s="1"/>
       <c r="M784" s="1"/>
@@ -24123,7 +24132,7 @@
       <c r="G785" s="1"/>
       <c r="H785" s="1"/>
       <c r="I785" s="1"/>
-      <c r="J785" s="46"/>
+      <c r="J785" s="45"/>
       <c r="K785" s="1"/>
       <c r="L785" s="1"/>
       <c r="M785" s="1"/>
@@ -24151,7 +24160,7 @@
       <c r="G786" s="1"/>
       <c r="H786" s="1"/>
       <c r="I786" s="1"/>
-      <c r="J786" s="46"/>
+      <c r="J786" s="45"/>
       <c r="K786" s="1"/>
       <c r="L786" s="1"/>
       <c r="M786" s="1"/>
@@ -24179,7 +24188,7 @@
       <c r="G787" s="1"/>
       <c r="H787" s="1"/>
       <c r="I787" s="1"/>
-      <c r="J787" s="46"/>
+      <c r="J787" s="45"/>
       <c r="K787" s="1"/>
       <c r="L787" s="1"/>
       <c r="M787" s="1"/>
@@ -24207,7 +24216,7 @@
       <c r="G788" s="1"/>
       <c r="H788" s="1"/>
       <c r="I788" s="1"/>
-      <c r="J788" s="46"/>
+      <c r="J788" s="45"/>
       <c r="K788" s="1"/>
       <c r="L788" s="1"/>
       <c r="M788" s="1"/>
@@ -24235,7 +24244,7 @@
       <c r="G789" s="1"/>
       <c r="H789" s="1"/>
       <c r="I789" s="1"/>
-      <c r="J789" s="46"/>
+      <c r="J789" s="45"/>
       <c r="K789" s="1"/>
       <c r="L789" s="1"/>
       <c r="M789" s="1"/>
@@ -24263,7 +24272,7 @@
       <c r="G790" s="1"/>
       <c r="H790" s="1"/>
       <c r="I790" s="1"/>
-      <c r="J790" s="46"/>
+      <c r="J790" s="45"/>
       <c r="K790" s="1"/>
       <c r="L790" s="1"/>
       <c r="M790" s="1"/>
@@ -24291,7 +24300,7 @@
       <c r="G791" s="1"/>
       <c r="H791" s="1"/>
       <c r="I791" s="1"/>
-      <c r="J791" s="46"/>
+      <c r="J791" s="45"/>
       <c r="K791" s="1"/>
       <c r="L791" s="1"/>
       <c r="M791" s="1"/>
@@ -24319,7 +24328,7 @@
       <c r="G792" s="1"/>
       <c r="H792" s="1"/>
       <c r="I792" s="1"/>
-      <c r="J792" s="46"/>
+      <c r="J792" s="45"/>
       <c r="K792" s="1"/>
       <c r="L792" s="1"/>
       <c r="M792" s="1"/>
@@ -24347,7 +24356,7 @@
       <c r="G793" s="1"/>
       <c r="H793" s="1"/>
       <c r="I793" s="1"/>
-      <c r="J793" s="46"/>
+      <c r="J793" s="45"/>
       <c r="K793" s="1"/>
       <c r="L793" s="1"/>
       <c r="M793" s="1"/>
@@ -24375,7 +24384,7 @@
       <c r="G794" s="1"/>
       <c r="H794" s="1"/>
       <c r="I794" s="1"/>
-      <c r="J794" s="46"/>
+      <c r="J794" s="45"/>
       <c r="K794" s="1"/>
       <c r="L794" s="1"/>
       <c r="M794" s="1"/>
@@ -24403,7 +24412,7 @@
       <c r="G795" s="1"/>
       <c r="H795" s="1"/>
       <c r="I795" s="1"/>
-      <c r="J795" s="46"/>
+      <c r="J795" s="45"/>
       <c r="K795" s="1"/>
       <c r="L795" s="1"/>
       <c r="M795" s="1"/>
@@ -24431,7 +24440,7 @@
       <c r="G796" s="1"/>
       <c r="H796" s="1"/>
       <c r="I796" s="1"/>
-      <c r="J796" s="46"/>
+      <c r="J796" s="45"/>
       <c r="K796" s="1"/>
       <c r="L796" s="1"/>
       <c r="M796" s="1"/>
@@ -24459,7 +24468,7 @@
       <c r="G797" s="1"/>
       <c r="H797" s="1"/>
       <c r="I797" s="1"/>
-      <c r="J797" s="46"/>
+      <c r="J797" s="45"/>
       <c r="K797" s="1"/>
       <c r="L797" s="1"/>
       <c r="M797" s="1"/>
@@ -24487,7 +24496,7 @@
       <c r="G798" s="1"/>
       <c r="H798" s="1"/>
       <c r="I798" s="1"/>
-      <c r="J798" s="46"/>
+      <c r="J798" s="45"/>
       <c r="K798" s="1"/>
       <c r="L798" s="1"/>
       <c r="M798" s="1"/>
@@ -24515,7 +24524,7 @@
       <c r="G799" s="1"/>
       <c r="H799" s="1"/>
       <c r="I799" s="1"/>
-      <c r="J799" s="46"/>
+      <c r="J799" s="45"/>
       <c r="K799" s="1"/>
       <c r="L799" s="1"/>
       <c r="M799" s="1"/>
@@ -24543,7 +24552,7 @@
       <c r="G800" s="1"/>
       <c r="H800" s="1"/>
       <c r="I800" s="1"/>
-      <c r="J800" s="46"/>
+      <c r="J800" s="45"/>
       <c r="K800" s="1"/>
       <c r="L800" s="1"/>
       <c r="M800" s="1"/>
@@ -24571,7 +24580,7 @@
       <c r="G801" s="1"/>
       <c r="H801" s="1"/>
       <c r="I801" s="1"/>
-      <c r="J801" s="46"/>
+      <c r="J801" s="45"/>
       <c r="K801" s="1"/>
       <c r="L801" s="1"/>
       <c r="M801" s="1"/>
@@ -24599,7 +24608,7 @@
       <c r="G802" s="1"/>
       <c r="H802" s="1"/>
       <c r="I802" s="1"/>
-      <c r="J802" s="46"/>
+      <c r="J802" s="45"/>
       <c r="K802" s="1"/>
       <c r="L802" s="1"/>
       <c r="M802" s="1"/>
@@ -24627,7 +24636,7 @@
       <c r="G803" s="1"/>
       <c r="H803" s="1"/>
       <c r="I803" s="1"/>
-      <c r="J803" s="46"/>
+      <c r="J803" s="45"/>
       <c r="K803" s="1"/>
       <c r="L803" s="1"/>
       <c r="M803" s="1"/>
@@ -24655,7 +24664,7 @@
       <c r="G804" s="1"/>
       <c r="H804" s="1"/>
       <c r="I804" s="1"/>
-      <c r="J804" s="46"/>
+      <c r="J804" s="45"/>
       <c r="K804" s="1"/>
       <c r="L804" s="1"/>
       <c r="M804" s="1"/>
@@ -24683,7 +24692,7 @@
       <c r="G805" s="1"/>
       <c r="H805" s="1"/>
       <c r="I805" s="1"/>
-      <c r="J805" s="46"/>
+      <c r="J805" s="45"/>
       <c r="K805" s="1"/>
       <c r="L805" s="1"/>
       <c r="M805" s="1"/>
@@ -24711,7 +24720,7 @@
       <c r="G806" s="1"/>
       <c r="H806" s="1"/>
       <c r="I806" s="1"/>
-      <c r="J806" s="46"/>
+      <c r="J806" s="45"/>
       <c r="K806" s="1"/>
       <c r="L806" s="1"/>
       <c r="M806" s="1"/>
@@ -24739,7 +24748,7 @@
       <c r="G807" s="1"/>
       <c r="H807" s="1"/>
       <c r="I807" s="1"/>
-      <c r="J807" s="46"/>
+      <c r="J807" s="45"/>
       <c r="K807" s="1"/>
       <c r="L807" s="1"/>
       <c r="M807" s="1"/>
@@ -24767,7 +24776,7 @@
       <c r="G808" s="1"/>
       <c r="H808" s="1"/>
       <c r="I808" s="1"/>
-      <c r="J808" s="46"/>
+      <c r="J808" s="45"/>
       <c r="K808" s="1"/>
       <c r="L808" s="1"/>
       <c r="M808" s="1"/>
@@ -24795,7 +24804,7 @@
       <c r="G809" s="1"/>
       <c r="H809" s="1"/>
       <c r="I809" s="1"/>
-      <c r="J809" s="46"/>
+      <c r="J809" s="45"/>
       <c r="K809" s="1"/>
       <c r="L809" s="1"/>
       <c r="M809" s="1"/>
@@ -24823,7 +24832,7 @@
       <c r="G810" s="1"/>
       <c r="H810" s="1"/>
       <c r="I810" s="1"/>
-      <c r="J810" s="46"/>
+      <c r="J810" s="45"/>
       <c r="K810" s="1"/>
       <c r="L810" s="1"/>
       <c r="M810" s="1"/>
@@ -24851,7 +24860,7 @@
       <c r="G811" s="1"/>
       <c r="H811" s="1"/>
       <c r="I811" s="1"/>
-      <c r="J811" s="46"/>
+      <c r="J811" s="45"/>
       <c r="K811" s="1"/>
       <c r="L811" s="1"/>
       <c r="M811" s="1"/>
@@ -24879,7 +24888,7 @@
       <c r="G812" s="1"/>
       <c r="H812" s="1"/>
       <c r="I812" s="1"/>
-      <c r="J812" s="46"/>
+      <c r="J812" s="45"/>
       <c r="K812" s="1"/>
       <c r="L812" s="1"/>
       <c r="M812" s="1"/>
@@ -24907,7 +24916,7 @@
       <c r="G813" s="1"/>
       <c r="H813" s="1"/>
       <c r="I813" s="1"/>
-      <c r="J813" s="46"/>
+      <c r="J813" s="45"/>
       <c r="K813" s="1"/>
       <c r="L813" s="1"/>
       <c r="M813" s="1"/>
@@ -24935,7 +24944,7 @@
       <c r="G814" s="1"/>
       <c r="H814" s="1"/>
       <c r="I814" s="1"/>
-      <c r="J814" s="46"/>
+      <c r="J814" s="45"/>
       <c r="K814" s="1"/>
       <c r="L814" s="1"/>
       <c r="M814" s="1"/>
@@ -24963,7 +24972,7 @@
       <c r="G815" s="1"/>
       <c r="H815" s="1"/>
       <c r="I815" s="1"/>
-      <c r="J815" s="46"/>
+      <c r="J815" s="45"/>
       <c r="K815" s="1"/>
       <c r="L815" s="1"/>
       <c r="M815" s="1"/>
@@ -24991,7 +25000,7 @@
       <c r="G816" s="1"/>
       <c r="H816" s="1"/>
       <c r="I816" s="1"/>
-      <c r="J816" s="46"/>
+      <c r="J816" s="45"/>
       <c r="K816" s="1"/>
       <c r="L816" s="1"/>
       <c r="M816" s="1"/>
@@ -25019,7 +25028,7 @@
       <c r="G817" s="1"/>
       <c r="H817" s="1"/>
       <c r="I817" s="1"/>
-      <c r="J817" s="46"/>
+      <c r="J817" s="45"/>
       <c r="K817" s="1"/>
       <c r="L817" s="1"/>
       <c r="M817" s="1"/>
@@ -25047,7 +25056,7 @@
       <c r="G818" s="1"/>
       <c r="H818" s="1"/>
       <c r="I818" s="1"/>
-      <c r="J818" s="46"/>
+      <c r="J818" s="45"/>
       <c r="K818" s="1"/>
       <c r="L818" s="1"/>
       <c r="M818" s="1"/>
@@ -25075,7 +25084,7 @@
       <c r="G819" s="1"/>
       <c r="H819" s="1"/>
       <c r="I819" s="1"/>
-      <c r="J819" s="46"/>
+      <c r="J819" s="45"/>
       <c r="K819" s="1"/>
       <c r="L819" s="1"/>
       <c r="M819" s="1"/>
@@ -25103,7 +25112,7 @@
       <c r="G820" s="1"/>
       <c r="H820" s="1"/>
       <c r="I820" s="1"/>
-      <c r="J820" s="46"/>
+      <c r="J820" s="45"/>
       <c r="K820" s="1"/>
       <c r="L820" s="1"/>
       <c r="M820" s="1"/>
@@ -25131,7 +25140,7 @@
       <c r="G821" s="1"/>
       <c r="H821" s="1"/>
       <c r="I821" s="1"/>
-      <c r="J821" s="46"/>
+      <c r="J821" s="45"/>
       <c r="K821" s="1"/>
       <c r="L821" s="1"/>
       <c r="M821" s="1"/>
@@ -25159,7 +25168,7 @@
       <c r="G822" s="1"/>
       <c r="H822" s="1"/>
       <c r="I822" s="1"/>
-      <c r="J822" s="46"/>
+      <c r="J822" s="45"/>
       <c r="K822" s="1"/>
       <c r="L822" s="1"/>
       <c r="M822" s="1"/>
@@ -25187,7 +25196,7 @@
       <c r="G823" s="1"/>
       <c r="H823" s="1"/>
       <c r="I823" s="1"/>
-      <c r="J823" s="46"/>
+      <c r="J823" s="45"/>
       <c r="K823" s="1"/>
       <c r="L823" s="1"/>
       <c r="M823" s="1"/>
@@ -25215,7 +25224,7 @@
       <c r="G824" s="1"/>
       <c r="H824" s="1"/>
       <c r="I824" s="1"/>
-      <c r="J824" s="46"/>
+      <c r="J824" s="45"/>
       <c r="K824" s="1"/>
       <c r="L824" s="1"/>
       <c r="M824" s="1"/>
@@ -25243,7 +25252,7 @@
       <c r="G825" s="1"/>
       <c r="H825" s="1"/>
       <c r="I825" s="1"/>
-      <c r="J825" s="46"/>
+      <c r="J825" s="45"/>
       <c r="K825" s="1"/>
       <c r="L825" s="1"/>
       <c r="M825" s="1"/>
@@ -25271,7 +25280,7 @@
       <c r="G826" s="1"/>
       <c r="H826" s="1"/>
       <c r="I826" s="1"/>
-      <c r="J826" s="46"/>
+      <c r="J826" s="45"/>
       <c r="K826" s="1"/>
       <c r="L826" s="1"/>
       <c r="M826" s="1"/>
@@ -25299,7 +25308,7 @@
       <c r="G827" s="1"/>
       <c r="H827" s="1"/>
       <c r="I827" s="1"/>
-      <c r="J827" s="46"/>
+      <c r="J827" s="45"/>
       <c r="K827" s="1"/>
       <c r="L827" s="1"/>
       <c r="M827" s="1"/>
@@ -25327,7 +25336,7 @@
       <c r="G828" s="1"/>
       <c r="H828" s="1"/>
       <c r="I828" s="1"/>
-      <c r="J828" s="46"/>
+      <c r="J828" s="45"/>
       <c r="K828" s="1"/>
       <c r="L828" s="1"/>
       <c r="M828" s="1"/>
@@ -25355,7 +25364,7 @@
       <c r="G829" s="1"/>
       <c r="H829" s="1"/>
       <c r="I829" s="1"/>
-      <c r="J829" s="46"/>
+      <c r="J829" s="45"/>
       <c r="K829" s="1"/>
       <c r="L829" s="1"/>
       <c r="M829" s="1"/>
@@ -25383,7 +25392,7 @@
       <c r="G830" s="1"/>
       <c r="H830" s="1"/>
       <c r="I830" s="1"/>
-      <c r="J830" s="46"/>
+      <c r="J830" s="45"/>
       <c r="K830" s="1"/>
       <c r="L830" s="1"/>
       <c r="M830" s="1"/>
@@ -25411,7 +25420,7 @@
       <c r="G831" s="1"/>
       <c r="H831" s="1"/>
       <c r="I831" s="1"/>
-      <c r="J831" s="46"/>
+      <c r="J831" s="45"/>
       <c r="K831" s="1"/>
       <c r="L831" s="1"/>
       <c r="M831" s="1"/>
@@ -25439,7 +25448,7 @@
       <c r="G832" s="1"/>
       <c r="H832" s="1"/>
       <c r="I832" s="1"/>
-      <c r="J832" s="46"/>
+      <c r="J832" s="45"/>
       <c r="K832" s="1"/>
       <c r="L832" s="1"/>
       <c r="M832" s="1"/>
@@ -25467,7 +25476,7 @@
       <c r="G833" s="1"/>
       <c r="H833" s="1"/>
       <c r="I833" s="1"/>
-      <c r="J833" s="46"/>
+      <c r="J833" s="45"/>
       <c r="K833" s="1"/>
       <c r="L833" s="1"/>
       <c r="M833" s="1"/>
@@ -25495,7 +25504,7 @@
       <c r="G834" s="1"/>
       <c r="H834" s="1"/>
       <c r="I834" s="1"/>
-      <c r="J834" s="46"/>
+      <c r="J834" s="45"/>
       <c r="K834" s="1"/>
       <c r="L834" s="1"/>
       <c r="M834" s="1"/>
@@ -25523,7 +25532,7 @@
       <c r="G835" s="1"/>
       <c r="H835" s="1"/>
       <c r="I835" s="1"/>
-      <c r="J835" s="46"/>
+      <c r="J835" s="45"/>
       <c r="K835" s="1"/>
       <c r="L835" s="1"/>
       <c r="M835" s="1"/>
@@ -25551,7 +25560,7 @@
       <c r="G836" s="1"/>
       <c r="H836" s="1"/>
       <c r="I836" s="1"/>
-      <c r="J836" s="46"/>
+      <c r="J836" s="45"/>
       <c r="K836" s="1"/>
       <c r="L836" s="1"/>
       <c r="M836" s="1"/>
@@ -25579,7 +25588,7 @@
       <c r="G837" s="1"/>
       <c r="H837" s="1"/>
       <c r="I837" s="1"/>
-      <c r="J837" s="46"/>
+      <c r="J837" s="45"/>
       <c r="K837" s="1"/>
       <c r="L837" s="1"/>
       <c r="M837" s="1"/>
@@ -25607,7 +25616,7 @@
       <c r="G838" s="1"/>
       <c r="H838" s="1"/>
       <c r="I838" s="1"/>
-      <c r="J838" s="46"/>
+      <c r="J838" s="45"/>
       <c r="K838" s="1"/>
       <c r="L838" s="1"/>
       <c r="M838" s="1"/>
@@ -25635,7 +25644,7 @@
       <c r="G839" s="1"/>
       <c r="H839" s="1"/>
       <c r="I839" s="1"/>
-      <c r="J839" s="46"/>
+      <c r="J839" s="45"/>
       <c r="K839" s="1"/>
       <c r="L839" s="1"/>
       <c r="M839" s="1"/>
@@ -25663,7 +25672,7 @@
       <c r="G840" s="1"/>
       <c r="H840" s="1"/>
       <c r="I840" s="1"/>
-      <c r="J840" s="46"/>
+      <c r="J840" s="45"/>
       <c r="K840" s="1"/>
       <c r="L840" s="1"/>
       <c r="M840" s="1"/>
@@ -25691,7 +25700,7 @@
       <c r="G841" s="1"/>
       <c r="H841" s="1"/>
       <c r="I841" s="1"/>
-      <c r="J841" s="46"/>
+      <c r="J841" s="45"/>
       <c r="K841" s="1"/>
       <c r="L841" s="1"/>
       <c r="M841" s="1"/>
@@ -25719,7 +25728,7 @@
       <c r="G842" s="1"/>
       <c r="H842" s="1"/>
       <c r="I842" s="1"/>
-      <c r="J842" s="46"/>
+      <c r="J842" s="45"/>
       <c r="K842" s="1"/>
       <c r="L842" s="1"/>
       <c r="M842" s="1"/>
@@ -25747,7 +25756,7 @@
       <c r="G843" s="1"/>
       <c r="H843" s="1"/>
       <c r="I843" s="1"/>
-      <c r="J843" s="46"/>
+      <c r="J843" s="45"/>
       <c r="K843" s="1"/>
       <c r="L843" s="1"/>
       <c r="M843" s="1"/>
@@ -25775,7 +25784,7 @@
       <c r="G844" s="1"/>
       <c r="H844" s="1"/>
       <c r="I844" s="1"/>
-      <c r="J844" s="46"/>
+      <c r="J844" s="45"/>
       <c r="K844" s="1"/>
       <c r="L844" s="1"/>
       <c r="M844" s="1"/>
@@ -25803,7 +25812,7 @@
       <c r="G845" s="1"/>
       <c r="H845" s="1"/>
       <c r="I845" s="1"/>
-      <c r="J845" s="46"/>
+      <c r="J845" s="45"/>
       <c r="K845" s="1"/>
       <c r="L845" s="1"/>
       <c r="M845" s="1"/>
@@ -25831,7 +25840,7 @@
       <c r="G846" s="1"/>
       <c r="H846" s="1"/>
       <c r="I846" s="1"/>
-      <c r="J846" s="46"/>
+      <c r="J846" s="45"/>
       <c r="K846" s="1"/>
       <c r="L846" s="1"/>
       <c r="M846" s="1"/>
@@ -25859,7 +25868,7 @@
       <c r="G847" s="1"/>
       <c r="H847" s="1"/>
       <c r="I847" s="1"/>
-      <c r="J847" s="46"/>
+      <c r="J847" s="45"/>
       <c r="K847" s="1"/>
       <c r="L847" s="1"/>
       <c r="M847" s="1"/>
@@ -25887,7 +25896,7 @@
       <c r="G848" s="1"/>
       <c r="H848" s="1"/>
       <c r="I848" s="1"/>
-      <c r="J848" s="46"/>
+      <c r="J848" s="45"/>
       <c r="K848" s="1"/>
       <c r="L848" s="1"/>
       <c r="M848" s="1"/>
@@ -25915,7 +25924,7 @@
       <c r="G849" s="1"/>
       <c r="H849" s="1"/>
       <c r="I849" s="1"/>
-      <c r="J849" s="46"/>
+      <c r="J849" s="45"/>
       <c r="K849" s="1"/>
       <c r="L849" s="1"/>
       <c r="M849" s="1"/>
@@ -25943,7 +25952,7 @@
       <c r="G850" s="1"/>
       <c r="H850" s="1"/>
       <c r="I850" s="1"/>
-      <c r="J850" s="46"/>
+      <c r="J850" s="45"/>
       <c r="K850" s="1"/>
       <c r="L850" s="1"/>
       <c r="M850" s="1"/>
@@ -25971,7 +25980,7 @@
       <c r="G851" s="1"/>
       <c r="H851" s="1"/>
       <c r="I851" s="1"/>
-      <c r="J851" s="46"/>
+      <c r="J851" s="45"/>
       <c r="K851" s="1"/>
       <c r="L851" s="1"/>
       <c r="M851" s="1"/>
@@ -25999,7 +26008,7 @@
       <c r="G852" s="1"/>
       <c r="H852" s="1"/>
       <c r="I852" s="1"/>
-      <c r="J852" s="46"/>
+      <c r="J852" s="45"/>
       <c r="K852" s="1"/>
       <c r="L852" s="1"/>
       <c r="M852" s="1"/>
@@ -26027,7 +26036,7 @@
       <c r="G853" s="1"/>
       <c r="H853" s="1"/>
       <c r="I853" s="1"/>
-      <c r="J853" s="46"/>
+      <c r="J853" s="45"/>
       <c r="K853" s="1"/>
       <c r="L853" s="1"/>
       <c r="M853" s="1"/>
@@ -26055,7 +26064,7 @@
       <c r="G854" s="1"/>
       <c r="H854" s="1"/>
       <c r="I854" s="1"/>
-      <c r="J854" s="46"/>
+      <c r="J854" s="45"/>
       <c r="K854" s="1"/>
       <c r="L854" s="1"/>
       <c r="M854" s="1"/>
@@ -26083,7 +26092,7 @@
       <c r="G855" s="1"/>
       <c r="H855" s="1"/>
       <c r="I855" s="1"/>
-      <c r="J855" s="46"/>
+      <c r="J855" s="45"/>
       <c r="K855" s="1"/>
       <c r="L855" s="1"/>
       <c r="M855" s="1"/>
@@ -26111,7 +26120,7 @@
       <c r="G856" s="1"/>
       <c r="H856" s="1"/>
       <c r="I856" s="1"/>
-      <c r="J856" s="46"/>
+      <c r="J856" s="45"/>
       <c r="K856" s="1"/>
       <c r="L856" s="1"/>
       <c r="M856" s="1"/>
@@ -26139,7 +26148,7 @@
       <c r="G857" s="1"/>
       <c r="H857" s="1"/>
       <c r="I857" s="1"/>
-      <c r="J857" s="46"/>
+      <c r="J857" s="45"/>
       <c r="K857" s="1"/>
       <c r="L857" s="1"/>
       <c r="M857" s="1"/>
@@ -26167,7 +26176,7 @@
       <c r="G858" s="1"/>
       <c r="H858" s="1"/>
       <c r="I858" s="1"/>
-      <c r="J858" s="46"/>
+      <c r="J858" s="45"/>
       <c r="K858" s="1"/>
       <c r="L858" s="1"/>
       <c r="M858" s="1"/>
@@ -26195,7 +26204,7 @@
       <c r="G859" s="1"/>
       <c r="H859" s="1"/>
       <c r="I859" s="1"/>
-      <c r="J859" s="46"/>
+      <c r="J859" s="45"/>
       <c r="K859" s="1"/>
       <c r="L859" s="1"/>
       <c r="M859" s="1"/>
@@ -26223,7 +26232,7 @@
       <c r="G860" s="1"/>
       <c r="H860" s="1"/>
       <c r="I860" s="1"/>
-      <c r="J860" s="46"/>
+      <c r="J860" s="45"/>
       <c r="K860" s="1"/>
       <c r="L860" s="1"/>
       <c r="M860" s="1"/>
@@ -26251,7 +26260,7 @@
       <c r="G861" s="1"/>
       <c r="H861" s="1"/>
       <c r="I861" s="1"/>
-      <c r="J861" s="46"/>
+      <c r="J861" s="45"/>
       <c r="K861" s="1"/>
       <c r="L861" s="1"/>
       <c r="M861" s="1"/>
@@ -26279,7 +26288,7 @@
       <c r="G862" s="1"/>
       <c r="H862" s="1"/>
       <c r="I862" s="1"/>
-      <c r="J862" s="46"/>
+      <c r="J862" s="45"/>
       <c r="K862" s="1"/>
       <c r="L862" s="1"/>
       <c r="M862" s="1"/>
@@ -26307,7 +26316,7 @@
       <c r="G863" s="1"/>
       <c r="H863" s="1"/>
       <c r="I863" s="1"/>
-      <c r="J863" s="46"/>
+      <c r="J863" s="45"/>
       <c r="K863" s="1"/>
       <c r="L863" s="1"/>
       <c r="M863" s="1"/>
@@ -26335,7 +26344,7 @@
       <c r="G864" s="1"/>
       <c r="H864" s="1"/>
       <c r="I864" s="1"/>
-      <c r="J864" s="46"/>
+      <c r="J864" s="45"/>
       <c r="K864" s="1"/>
       <c r="L864" s="1"/>
       <c r="M864" s="1"/>
@@ -26363,7 +26372,7 @@
       <c r="G865" s="1"/>
       <c r="H865" s="1"/>
       <c r="I865" s="1"/>
-      <c r="J865" s="46"/>
+      <c r="J865" s="45"/>
       <c r="K865" s="1"/>
       <c r="L865" s="1"/>
       <c r="M865" s="1"/>
@@ -26391,7 +26400,7 @@
       <c r="G866" s="1"/>
       <c r="H866" s="1"/>
       <c r="I866" s="1"/>
-      <c r="J866" s="46"/>
+      <c r="J866" s="45"/>
       <c r="K866" s="1"/>
       <c r="L866" s="1"/>
       <c r="M866" s="1"/>
@@ -26419,7 +26428,7 @@
       <c r="G867" s="1"/>
       <c r="H867" s="1"/>
       <c r="I867" s="1"/>
-      <c r="J867" s="46"/>
+      <c r="J867" s="45"/>
       <c r="K867" s="1"/>
       <c r="L867" s="1"/>
       <c r="M867" s="1"/>
@@ -26447,7 +26456,7 @@
       <c r="G868" s="1"/>
       <c r="H868" s="1"/>
       <c r="I868" s="1"/>
-      <c r="J868" s="46"/>
+      <c r="J868" s="45"/>
       <c r="K868" s="1"/>
       <c r="L868" s="1"/>
       <c r="M868" s="1"/>
@@ -26475,7 +26484,7 @@
       <c r="G869" s="1"/>
       <c r="H869" s="1"/>
       <c r="I869" s="1"/>
-      <c r="J869" s="46"/>
+      <c r="J869" s="45"/>
       <c r="K869" s="1"/>
       <c r="L869" s="1"/>
       <c r="M869" s="1"/>
@@ -26503,7 +26512,7 @@
       <c r="G870" s="1"/>
       <c r="H870" s="1"/>
       <c r="I870" s="1"/>
-      <c r="J870" s="46"/>
+      <c r="J870" s="45"/>
       <c r="K870" s="1"/>
       <c r="L870" s="1"/>
       <c r="M870" s="1"/>
@@ -26531,7 +26540,7 @@
       <c r="G871" s="1"/>
       <c r="H871" s="1"/>
       <c r="I871" s="1"/>
-      <c r="J871" s="46"/>
+      <c r="J871" s="45"/>
       <c r="K871" s="1"/>
       <c r="L871" s="1"/>
       <c r="M871" s="1"/>
@@ -26559,7 +26568,7 @@
       <c r="G872" s="1"/>
       <c r="H872" s="1"/>
       <c r="I872" s="1"/>
-      <c r="J872" s="46"/>
+      <c r="J872" s="45"/>
       <c r="K872" s="1"/>
       <c r="L872" s="1"/>
       <c r="M872" s="1"/>
@@ -26587,7 +26596,7 @@
       <c r="G873" s="1"/>
       <c r="H873" s="1"/>
       <c r="I873" s="1"/>
-      <c r="J873" s="46"/>
+      <c r="J873" s="45"/>
       <c r="K873" s="1"/>
       <c r="L873" s="1"/>
       <c r="M873" s="1"/>
@@ -26615,7 +26624,7 @@
       <c r="G874" s="1"/>
       <c r="H874" s="1"/>
       <c r="I874" s="1"/>
-      <c r="J874" s="46"/>
+      <c r="J874" s="45"/>
       <c r="K874" s="1"/>
       <c r="L874" s="1"/>
       <c r="M874" s="1"/>
@@ -26643,7 +26652,7 @@
       <c r="G875" s="1"/>
       <c r="H875" s="1"/>
       <c r="I875" s="1"/>
-      <c r="J875" s="46"/>
+      <c r="J875" s="45"/>
       <c r="K875" s="1"/>
       <c r="L875" s="1"/>
       <c r="M875" s="1"/>
@@ -26671,7 +26680,7 @@
       <c r="G876" s="1"/>
       <c r="H876" s="1"/>
       <c r="I876" s="1"/>
-      <c r="J876" s="46"/>
+      <c r="J876" s="45"/>
       <c r="K876" s="1"/>
       <c r="L876" s="1"/>
       <c r="M876" s="1"/>
@@ -26699,7 +26708,7 @@
       <c r="G877" s="1"/>
       <c r="H877" s="1"/>
       <c r="I877" s="1"/>
-      <c r="J877" s="46"/>
+      <c r="J877" s="45"/>
       <c r="K877" s="1"/>
       <c r="L877" s="1"/>
       <c r="M877" s="1"/>
@@ -26727,7 +26736,7 @@
       <c r="G878" s="1"/>
       <c r="H878" s="1"/>
       <c r="I878" s="1"/>
-      <c r="J878" s="46"/>
+      <c r="J878" s="45"/>
       <c r="K878" s="1"/>
       <c r="L878" s="1"/>
       <c r="M878" s="1"/>
@@ -26755,7 +26764,7 @@
       <c r="G879" s="1"/>
       <c r="H879" s="1"/>
       <c r="I879" s="1"/>
-      <c r="J879" s="46"/>
+      <c r="J879" s="45"/>
       <c r="K879" s="1"/>
       <c r="L879" s="1"/>
       <c r="M879" s="1"/>
@@ -26783,7 +26792,7 @@
       <c r="G880" s="1"/>
       <c r="H880" s="1"/>
       <c r="I880" s="1"/>
-      <c r="J880" s="46"/>
+      <c r="J880" s="45"/>
       <c r="K880" s="1"/>
       <c r="L880" s="1"/>
       <c r="M880" s="1"/>
@@ -26811,7 +26820,7 @@
       <c r="G881" s="1"/>
       <c r="H881" s="1"/>
       <c r="I881" s="1"/>
-      <c r="J881" s="46"/>
+      <c r="J881" s="45"/>
       <c r="K881" s="1"/>
       <c r="L881" s="1"/>
       <c r="M881" s="1"/>
@@ -26839,7 +26848,7 @@
       <c r="G882" s="1"/>
       <c r="H882" s="1"/>
       <c r="I882" s="1"/>
-      <c r="J882" s="46"/>
+      <c r="J882" s="45"/>
       <c r="K882" s="1"/>
       <c r="L882" s="1"/>
       <c r="M882" s="1"/>
@@ -26867,7 +26876,7 @@
       <c r="G883" s="1"/>
       <c r="H883" s="1"/>
       <c r="I883" s="1"/>
-      <c r="J883" s="46"/>
+      <c r="J883" s="45"/>
       <c r="K883" s="1"/>
       <c r="L883" s="1"/>
       <c r="M883" s="1"/>
@@ -26895,7 +26904,7 @@
       <c r="G884" s="1"/>
       <c r="H884" s="1"/>
       <c r="I884" s="1"/>
-      <c r="J884" s="46"/>
+      <c r="J884" s="45"/>
       <c r="K884" s="1"/>
       <c r="L884" s="1"/>
       <c r="M884" s="1"/>
@@ -26923,7 +26932,7 @@
       <c r="G885" s="1"/>
       <c r="H885" s="1"/>
       <c r="I885" s="1"/>
-      <c r="J885" s="46"/>
+      <c r="J885" s="45"/>
       <c r="K885" s="1"/>
       <c r="L885" s="1"/>
       <c r="M885" s="1"/>
@@ -26951,7 +26960,7 @@
       <c r="G886" s="1"/>
       <c r="H886" s="1"/>
       <c r="I886" s="1"/>
-      <c r="J886" s="46"/>
+      <c r="J886" s="45"/>
       <c r="K886" s="1"/>
       <c r="L886" s="1"/>
       <c r="M886" s="1"/>
@@ -26979,7 +26988,7 @@
       <c r="G887" s="1"/>
       <c r="H887" s="1"/>
       <c r="I887" s="1"/>
-      <c r="J887" s="46"/>
+      <c r="J887" s="45"/>
       <c r="K887" s="1"/>
       <c r="L887" s="1"/>
       <c r="M887" s="1"/>
@@ -27007,7 +27016,7 @@
       <c r="G888" s="1"/>
       <c r="H888" s="1"/>
       <c r="I888" s="1"/>
-      <c r="J888" s="46"/>
+      <c r="J888" s="45"/>
       <c r="K888" s="1"/>
       <c r="L888" s="1"/>
       <c r="M888" s="1"/>
@@ -27035,7 +27044,7 @@
       <c r="G889" s="1"/>
       <c r="H889" s="1"/>
       <c r="I889" s="1"/>
-      <c r="J889" s="46"/>
+      <c r="J889" s="45"/>
       <c r="K889" s="1"/>
       <c r="L889" s="1"/>
       <c r="M889" s="1"/>
@@ -27063,7 +27072,7 @@
       <c r="G890" s="1"/>
       <c r="H890" s="1"/>
       <c r="I890" s="1"/>
-      <c r="J890" s="46"/>
+      <c r="J890" s="45"/>
       <c r="K890" s="1"/>
       <c r="L890" s="1"/>
       <c r="M890" s="1"/>
@@ -27091,7 +27100,7 @@
       <c r="G891" s="1"/>
       <c r="H891" s="1"/>
       <c r="I891" s="1"/>
-      <c r="J891" s="46"/>
+      <c r="J891" s="45"/>
       <c r="K891" s="1"/>
       <c r="L891" s="1"/>
       <c r="M891" s="1"/>
@@ -27119,7 +27128,7 @@
       <c r="G892" s="1"/>
       <c r="H892" s="1"/>
       <c r="I892" s="1"/>
-      <c r="J892" s="46"/>
+      <c r="J892" s="45"/>
       <c r="K892" s="1"/>
       <c r="L892" s="1"/>
       <c r="M892" s="1"/>
@@ -27147,7 +27156,7 @@
       <c r="G893" s="1"/>
       <c r="H893" s="1"/>
       <c r="I893" s="1"/>
-      <c r="J893" s="46"/>
+      <c r="J893" s="45"/>
       <c r="K893" s="1"/>
       <c r="L893" s="1"/>
       <c r="M893" s="1"/>
@@ -27175,7 +27184,7 @@
       <c r="G894" s="1"/>
       <c r="H894" s="1"/>
       <c r="I894" s="1"/>
-      <c r="J894" s="46"/>
+      <c r="J894" s="45"/>
       <c r="K894" s="1"/>
       <c r="L894" s="1"/>
       <c r="M894" s="1"/>
@@ -27203,7 +27212,7 @@
       <c r="G895" s="1"/>
       <c r="H895" s="1"/>
       <c r="I895" s="1"/>
-      <c r="J895" s="46"/>
+      <c r="J895" s="45"/>
       <c r="K895" s="1"/>
       <c r="L895" s="1"/>
       <c r="M895" s="1"/>
@@ -27231,7 +27240,7 @@
       <c r="G896" s="1"/>
       <c r="H896" s="1"/>
       <c r="I896" s="1"/>
-      <c r="J896" s="46"/>
+      <c r="J896" s="45"/>
       <c r="K896" s="1"/>
       <c r="L896" s="1"/>
       <c r="M896" s="1"/>
@@ -27259,7 +27268,7 @@
       <c r="G897" s="1"/>
       <c r="H897" s="1"/>
       <c r="I897" s="1"/>
-      <c r="J897" s="46"/>
+      <c r="J897" s="45"/>
       <c r="K897" s="1"/>
       <c r="L897" s="1"/>
       <c r="M897" s="1"/>
@@ -27287,7 +27296,7 @@
       <c r="G898" s="1"/>
       <c r="H898" s="1"/>
       <c r="I898" s="1"/>
-      <c r="J898" s="46"/>
+      <c r="J898" s="45"/>
       <c r="K898" s="1"/>
       <c r="L898" s="1"/>
       <c r="M898" s="1"/>
@@ -27315,7 +27324,7 @@
       <c r="G899" s="1"/>
       <c r="H899" s="1"/>
       <c r="I899" s="1"/>
-      <c r="J899" s="46"/>
+      <c r="J899" s="45"/>
       <c r="K899" s="1"/>
       <c r="L899" s="1"/>
       <c r="M899" s="1"/>
@@ -27343,7 +27352,7 @@
       <c r="G900" s="1"/>
       <c r="H900" s="1"/>
       <c r="I900" s="1"/>
-      <c r="J900" s="46"/>
+      <c r="J900" s="45"/>
       <c r="K900" s="1"/>
       <c r="L900" s="1"/>
       <c r="M900" s="1"/>
@@ -27371,7 +27380,7 @@
       <c r="G901" s="1"/>
       <c r="H901" s="1"/>
       <c r="I901" s="1"/>
-      <c r="J901" s="46"/>
+      <c r="J901" s="45"/>
       <c r="K901" s="1"/>
       <c r="L901" s="1"/>
       <c r="M901" s="1"/>
@@ -27399,7 +27408,7 @@
       <c r="G902" s="1"/>
       <c r="H902" s="1"/>
       <c r="I902" s="1"/>
-      <c r="J902" s="46"/>
+      <c r="J902" s="45"/>
       <c r="K902" s="1"/>
       <c r="L902" s="1"/>
       <c r="M902" s="1"/>
@@ -27427,7 +27436,7 @@
       <c r="G903" s="1"/>
       <c r="H903" s="1"/>
       <c r="I903" s="1"/>
-      <c r="J903" s="46"/>
+      <c r="J903" s="45"/>
       <c r="K903" s="1"/>
       <c r="L903" s="1"/>
       <c r="M903" s="1"/>
@@ -27455,7 +27464,7 @@
       <c r="G904" s="1"/>
       <c r="H904" s="1"/>
       <c r="I904" s="1"/>
-      <c r="J904" s="46"/>
+      <c r="J904" s="45"/>
       <c r="K904" s="1"/>
       <c r="L904" s="1"/>
       <c r="M904" s="1"/>
@@ -27483,7 +27492,7 @@
       <c r="G905" s="1"/>
       <c r="H905" s="1"/>
       <c r="I905" s="1"/>
-      <c r="J905" s="46"/>
+      <c r="J905" s="45"/>
       <c r="K905" s="1"/>
       <c r="L905" s="1"/>
       <c r="M905" s="1"/>
@@ -27511,7 +27520,7 @@
       <c r="G906" s="1"/>
       <c r="H906" s="1"/>
       <c r="I906" s="1"/>
-      <c r="J906" s="46"/>
+      <c r="J906" s="45"/>
       <c r="K906" s="1"/>
       <c r="L906" s="1"/>
       <c r="M906" s="1"/>
@@ -27539,7 +27548,7 @@
       <c r="G907" s="1"/>
       <c r="H907" s="1"/>
       <c r="I907" s="1"/>
-      <c r="J907" s="46"/>
+      <c r="J907" s="45"/>
       <c r="K907" s="1"/>
       <c r="L907" s="1"/>
       <c r="M907" s="1"/>
@@ -27567,7 +27576,7 @@
       <c r="G908" s="1"/>
       <c r="H908" s="1"/>
       <c r="I908" s="1"/>
-      <c r="J908" s="46"/>
+      <c r="J908" s="45"/>
       <c r="K908" s="1"/>
       <c r="L908" s="1"/>
       <c r="M908" s="1"/>
@@ -27595,7 +27604,7 @@
       <c r="G909" s="1"/>
       <c r="H909" s="1"/>
       <c r="I909" s="1"/>
-      <c r="J909" s="46"/>
+      <c r="J909" s="45"/>
       <c r="K909" s="1"/>
       <c r="L909" s="1"/>
       <c r="M909" s="1"/>
@@ -27623,7 +27632,7 @@
       <c r="G910" s="1"/>
       <c r="H910" s="1"/>
       <c r="I910" s="1"/>
-      <c r="J910" s="46"/>
+      <c r="J910" s="45"/>
       <c r="K910" s="1"/>
       <c r="L910" s="1"/>
       <c r="M910" s="1"/>
@@ -27651,7 +27660,7 @@
       <c r="G911" s="1"/>
       <c r="H911" s="1"/>
       <c r="I911" s="1"/>
-      <c r="J911" s="46"/>
+      <c r="J911" s="45"/>
       <c r="K911" s="1"/>
       <c r="L911" s="1"/>
       <c r="M911" s="1"/>
@@ -27679,7 +27688,7 @@
       <c r="G912" s="1"/>
       <c r="H912" s="1"/>
       <c r="I912" s="1"/>
-      <c r="J912" s="46"/>
+      <c r="J912" s="45"/>
       <c r="K912" s="1"/>
       <c r="L912" s="1"/>
       <c r="M912" s="1"/>
@@ -27707,7 +27716,7 @@
       <c r="G913" s="1"/>
       <c r="H913" s="1"/>
       <c r="I913" s="1"/>
-      <c r="J913" s="46"/>
+      <c r="J913" s="45"/>
       <c r="K913" s="1"/>
       <c r="L913" s="1"/>
       <c r="M913" s="1"/>
@@ -27735,7 +27744,7 @@
       <c r="G914" s="1"/>
       <c r="H914" s="1"/>
       <c r="I914" s="1"/>
-      <c r="J914" s="46"/>
+      <c r="J914" s="45"/>
       <c r="K914" s="1"/>
       <c r="L914" s="1"/>
       <c r="M914" s="1"/>
@@ -27763,7 +27772,7 @@
       <c r="G915" s="1"/>
       <c r="H915" s="1"/>
       <c r="I915" s="1"/>
-      <c r="J915" s="46"/>
+      <c r="J915" s="45"/>
       <c r="K915" s="1"/>
       <c r="L915" s="1"/>
       <c r="M915" s="1"/>
@@ -27791,7 +27800,7 @@
       <c r="G916" s="1"/>
       <c r="H916" s="1"/>
       <c r="I916" s="1"/>
-      <c r="J916" s="46"/>
+      <c r="J916" s="45"/>
       <c r="K916" s="1"/>
       <c r="L916" s="1"/>
       <c r="M916" s="1"/>
@@ -27819,7 +27828,7 @@
       <c r="G917" s="1"/>
       <c r="H917" s="1"/>
       <c r="I917" s="1"/>
-      <c r="J917" s="46"/>
+      <c r="J917" s="45"/>
       <c r="K917" s="1"/>
       <c r="L917" s="1"/>
       <c r="M917" s="1"/>
@@ -27847,7 +27856,7 @@
       <c r="G918" s="1"/>
       <c r="H918" s="1"/>
       <c r="I918" s="1"/>
-      <c r="J918" s="46"/>
+      <c r="J918" s="45"/>
       <c r="K918" s="1"/>
       <c r="L918" s="1"/>
       <c r="M918" s="1"/>
@@ -27875,7 +27884,7 @@
       <c r="G919" s="1"/>
       <c r="H919" s="1"/>
       <c r="I919" s="1"/>
-      <c r="J919" s="46"/>
+      <c r="J919" s="45"/>
       <c r="K919" s="1"/>
       <c r="L919" s="1"/>
       <c r="M919" s="1"/>
@@ -27903,7 +27912,7 @@
       <c r="G920" s="1"/>
       <c r="H920" s="1"/>
       <c r="I920" s="1"/>
-      <c r="J920" s="46"/>
+      <c r="J920" s="45"/>
       <c r="K920" s="1"/>
       <c r="L920" s="1"/>
       <c r="M920" s="1"/>
@@ -27931,7 +27940,7 @@
       <c r="G921" s="1"/>
       <c r="H921" s="1"/>
       <c r="I921" s="1"/>
-      <c r="J921" s="46"/>
+      <c r="J921" s="45"/>
       <c r="K921" s="1"/>
       <c r="L921" s="1"/>
       <c r="M921" s="1"/>
@@ -27959,7 +27968,7 @@
       <c r="G922" s="1"/>
       <c r="H922" s="1"/>
       <c r="I922" s="1"/>
-      <c r="J922" s="46"/>
+      <c r="J922" s="45"/>
       <c r="K922" s="1"/>
       <c r="L922" s="1"/>
       <c r="M922" s="1"/>
@@ -27987,7 +27996,7 @@
       <c r="G923" s="1"/>
       <c r="H923" s="1"/>
       <c r="I923" s="1"/>
-      <c r="J923" s="46"/>
+      <c r="J923" s="45"/>
       <c r="K923" s="1"/>
       <c r="L923" s="1"/>
       <c r="M923" s="1"/>
@@ -28015,7 +28024,7 @@
       <c r="G924" s="1"/>
       <c r="H924" s="1"/>
       <c r="I924" s="1"/>
-      <c r="J924" s="46"/>
+      <c r="J924" s="45"/>
       <c r="K924" s="1"/>
       <c r="L924" s="1"/>
       <c r="M924" s="1"/>
@@ -28043,7 +28052,7 @@
       <c r="G925" s="1"/>
       <c r="H925" s="1"/>
       <c r="I925" s="1"/>
-      <c r="J925" s="46"/>
+      <c r="J925" s="45"/>
       <c r="K925" s="1"/>
       <c r="L925" s="1"/>
       <c r="M925" s="1"/>
@@ -28071,7 +28080,7 @@
       <c r="G926" s="1"/>
       <c r="H926" s="1"/>
       <c r="I926" s="1"/>
-      <c r="J926" s="46"/>
+      <c r="J926" s="45"/>
       <c r="K926" s="1"/>
       <c r="L926" s="1"/>
       <c r="M926" s="1"/>
@@ -28099,7 +28108,7 @@
       <c r="G927" s="1"/>
       <c r="H927" s="1"/>
       <c r="I927" s="1"/>
-      <c r="J927" s="46"/>
+      <c r="J927" s="45"/>
       <c r="K927" s="1"/>
       <c r="L927" s="1"/>
       <c r="M927" s="1"/>
@@ -28127,7 +28136,7 @@
       <c r="G928" s="1"/>
       <c r="H928" s="1"/>
       <c r="I928" s="1"/>
-      <c r="J928" s="46"/>
+      <c r="J928" s="45"/>
       <c r="K928" s="1"/>
       <c r="L928" s="1"/>
       <c r="M928" s="1"/>
@@ -28155,7 +28164,7 @@
       <c r="G929" s="1"/>
       <c r="H929" s="1"/>
       <c r="I929" s="1"/>
-      <c r="J929" s="46"/>
+      <c r="J929" s="45"/>
       <c r="K929" s="1"/>
       <c r="L929" s="1"/>
       <c r="M929" s="1"/>
@@ -28183,7 +28192,7 @@
       <c r="G930" s="1"/>
       <c r="H930" s="1"/>
       <c r="I930" s="1"/>
-      <c r="J930" s="46"/>
+      <c r="J930" s="45"/>
       <c r="K930" s="1"/>
       <c r="L930" s="1"/>
       <c r="M930" s="1"/>
@@ -28211,7 +28220,7 @@
       <c r="G931" s="1"/>
       <c r="H931" s="1"/>
       <c r="I931" s="1"/>
-      <c r="J931" s="46"/>
+      <c r="J931" s="45"/>
       <c r="K931" s="1"/>
       <c r="L931" s="1"/>
       <c r="M931" s="1"/>
@@ -28239,7 +28248,7 @@
       <c r="G932" s="1"/>
       <c r="H932" s="1"/>
       <c r="I932" s="1"/>
-      <c r="J932" s="46"/>
+      <c r="J932" s="45"/>
       <c r="K932" s="1"/>
       <c r="L932" s="1"/>
       <c r="M932" s="1"/>
@@ -28267,7 +28276,7 @@
       <c r="G933" s="1"/>
       <c r="H933" s="1"/>
       <c r="I933" s="1"/>
-      <c r="J933" s="46"/>
+      <c r="J933" s="45"/>
       <c r="K933" s="1"/>
       <c r="L933" s="1"/>
       <c r="M933" s="1"/>
@@ -28295,7 +28304,7 @@
       <c r="G934" s="1"/>
       <c r="H934" s="1"/>
       <c r="I934" s="1"/>
-      <c r="J934" s="46"/>
+      <c r="J934" s="45"/>
       <c r="K934" s="1"/>
       <c r="L934" s="1"/>
       <c r="M934" s="1"/>
@@ -28323,7 +28332,7 @@
       <c r="G935" s="1"/>
       <c r="H935" s="1"/>
       <c r="I935" s="1"/>
-      <c r="J935" s="46"/>
+      <c r="J935" s="45"/>
       <c r="K935" s="1"/>
       <c r="L935" s="1"/>
       <c r="M935" s="1"/>
@@ -28351,7 +28360,7 @@
       <c r="G936" s="1"/>
       <c r="H936" s="1"/>
       <c r="I936" s="1"/>
-      <c r="J936" s="46"/>
+      <c r="J936" s="45"/>
       <c r="K936" s="1"/>
       <c r="L936" s="1"/>
       <c r="M936" s="1"/>
@@ -28379,7 +28388,7 @@
       <c r="G937" s="1"/>
       <c r="H937" s="1"/>
       <c r="I937" s="1"/>
-      <c r="J937" s="46"/>
+      <c r="J937" s="45"/>
       <c r="K937" s="1"/>
       <c r="L937" s="1"/>
       <c r="M937" s="1"/>
@@ -28407,7 +28416,7 @@
       <c r="G938" s="1"/>
       <c r="H938" s="1"/>
       <c r="I938" s="1"/>
-      <c r="J938" s="46"/>
+      <c r="J938" s="45"/>
       <c r="K938" s="1"/>
       <c r="L938" s="1"/>
       <c r="M938" s="1"/>
@@ -28435,7 +28444,7 @@
       <c r="G939" s="1"/>
       <c r="H939" s="1"/>
       <c r="I939" s="1"/>
-      <c r="J939" s="46"/>
+      <c r="J939" s="45"/>
       <c r="K939" s="1"/>
       <c r="L939" s="1"/>
       <c r="M939" s="1"/>
@@ -28463,7 +28472,7 @@
       <c r="G940" s="1"/>
       <c r="H940" s="1"/>
       <c r="I940" s="1"/>
-      <c r="J940" s="46"/>
+      <c r="J940" s="45"/>
       <c r="K940" s="1"/>
       <c r="L940" s="1"/>
       <c r="M940" s="1"/>
@@ -28491,7 +28500,7 @@
       <c r="G941" s="1"/>
       <c r="H941" s="1"/>
       <c r="I941" s="1"/>
-      <c r="J941" s="46"/>
+      <c r="J941" s="45"/>
       <c r="K941" s="1"/>
       <c r="L941" s="1"/>
       <c r="M941" s="1"/>
@@ -28519,7 +28528,7 @@
       <c r="G942" s="1"/>
       <c r="H942" s="1"/>
       <c r="I942" s="1"/>
-      <c r="J942" s="46"/>
+      <c r="J942" s="45"/>
       <c r="K942" s="1"/>
       <c r="L942" s="1"/>
       <c r="M942" s="1"/>
@@ -28547,7 +28556,7 @@
       <c r="G943" s="1"/>
       <c r="H943" s="1"/>
       <c r="I943" s="1"/>
-      <c r="J943" s="46"/>
+      <c r="J943" s="45"/>
       <c r="K943" s="1"/>
       <c r="L943" s="1"/>
       <c r="M943" s="1"/>
@@ -28575,7 +28584,7 @@
       <c r="G944" s="1"/>
       <c r="H944" s="1"/>
       <c r="I944" s="1"/>
-      <c r="J944" s="46"/>
+      <c r="J944" s="45"/>
       <c r="K944" s="1"/>
       <c r="L944" s="1"/>
       <c r="M944" s="1"/>
@@ -28603,7 +28612,7 @@
       <c r="G945" s="1"/>
       <c r="H945" s="1"/>
       <c r="I945" s="1"/>
-      <c r="J945" s="46"/>
+      <c r="J945" s="45"/>
       <c r="K945" s="1"/>
       <c r="L945" s="1"/>
       <c r="M945" s="1"/>
@@ -28631,7 +28640,7 @@
       <c r="G946" s="1"/>
       <c r="H946" s="1"/>
       <c r="I946" s="1"/>
-      <c r="J946" s="46"/>
+      <c r="J946" s="45"/>
       <c r="K946" s="1"/>
       <c r="L946" s="1"/>
       <c r="M946" s="1"/>
@@ -28659,7 +28668,7 @@
       <c r="G947" s="1"/>
       <c r="H947" s="1"/>
       <c r="I947" s="1"/>
-      <c r="J947" s="46"/>
+      <c r="J947" s="45"/>
       <c r="K947" s="1"/>
       <c r="L947" s="1"/>
       <c r="M947" s="1"/>
@@ -28687,7 +28696,7 @@
       <c r="G948" s="1"/>
       <c r="H948" s="1"/>
       <c r="I948" s="1"/>
-      <c r="J948" s="46"/>
+      <c r="J948" s="45"/>
       <c r="K948" s="1"/>
       <c r="L948" s="1"/>
       <c r="M948" s="1"/>
@@ -28715,7 +28724,7 @@
       <c r="G949" s="1"/>
       <c r="H949" s="1"/>
       <c r="I949" s="1"/>
-      <c r="J949" s="46"/>
+      <c r="J949" s="45"/>
       <c r="K949" s="1"/>
       <c r="L949" s="1"/>
       <c r="M949" s="1"/>
@@ -28743,7 +28752,7 @@
       <c r="G950" s="1"/>
       <c r="H950" s="1"/>
       <c r="I950" s="1"/>
-      <c r="J950" s="46"/>
+      <c r="J950" s="45"/>
       <c r="K950" s="1"/>
       <c r="L950" s="1"/>
       <c r="M950" s="1"/>
@@ -28771,7 +28780,7 @@
       <c r="G951" s="1"/>
       <c r="H951" s="1"/>
       <c r="I951" s="1"/>
-      <c r="J951" s="46"/>
+      <c r="J951" s="45"/>
       <c r="K951" s="1"/>
       <c r="L951" s="1"/>
       <c r="M951" s="1"/>
@@ -28799,7 +28808,7 @@
       <c r="G952" s="1"/>
       <c r="H952" s="1"/>
       <c r="I952" s="1"/>
-      <c r="J952" s="46"/>
+      <c r="J952" s="45"/>
       <c r="K952" s="1"/>
       <c r="L952" s="1"/>
       <c r="M952" s="1"/>
@@ -28827,7 +28836,7 @@
       <c r="G953" s="1"/>
       <c r="H953" s="1"/>
       <c r="I953" s="1"/>
-      <c r="J953" s="46"/>
+      <c r="J953" s="45"/>
       <c r="K953" s="1"/>
       <c r="L953" s="1"/>
       <c r="M953" s="1"/>
@@ -28855,7 +28864,7 @@
       <c r="G954" s="1"/>
       <c r="H954" s="1"/>
       <c r="I954" s="1"/>
-      <c r="J954" s="46"/>
+      <c r="J954" s="45"/>
       <c r="K954" s="1"/>
       <c r="L954" s="1"/>
       <c r="M954" s="1"/>
@@ -28883,7 +28892,7 @@
       <c r="G955" s="1"/>
       <c r="H955" s="1"/>
       <c r="I955" s="1"/>
-      <c r="J955" s="46"/>
+      <c r="J955" s="45"/>
       <c r="K955" s="1"/>
       <c r="L955" s="1"/>
       <c r="M955" s="1"/>
@@ -28911,7 +28920,7 @@
       <c r="G956" s="1"/>
       <c r="H956" s="1"/>
       <c r="I956" s="1"/>
-      <c r="J956" s="46"/>
+      <c r="J956" s="45"/>
       <c r="K956" s="1"/>
       <c r="L956" s="1"/>
       <c r="M956" s="1"/>
@@ -28939,7 +28948,7 @@
       <c r="G957" s="1"/>
       <c r="H957" s="1"/>
       <c r="I957" s="1"/>
-      <c r="J957" s="46"/>
+      <c r="J957" s="45"/>
       <c r="K957" s="1"/>
       <c r="L957" s="1"/>
       <c r="M957" s="1"/>
@@ -28967,7 +28976,7 @@
       <c r="G958" s="1"/>
       <c r="H958" s="1"/>
       <c r="I958" s="1"/>
-      <c r="J958" s="46"/>
+      <c r="J958" s="45"/>
       <c r="K958" s="1"/>
       <c r="L958" s="1"/>
       <c r="M958" s="1"/>
@@ -28995,7 +29004,7 @@
       <c r="G959" s="1"/>
       <c r="H959" s="1"/>
       <c r="I959" s="1"/>
-      <c r="J959" s="46"/>
+      <c r="J959" s="45"/>
       <c r="K959" s="1"/>
       <c r="L959" s="1"/>
       <c r="M959" s="1"/>
@@ -29023,7 +29032,7 @@
       <c r="G960" s="1"/>
       <c r="H960" s="1"/>
       <c r="I960" s="1"/>
-      <c r="J960" s="46"/>
+      <c r="J960" s="45"/>
       <c r="K960" s="1"/>
       <c r="L960" s="1"/>
       <c r="M960" s="1"/>
@@ -29051,7 +29060,7 @@
       <c r="G961" s="1"/>
       <c r="H961" s="1"/>
       <c r="I961" s="1"/>
-      <c r="J961" s="46"/>
+      <c r="J961" s="45"/>
       <c r="K961" s="1"/>
       <c r="L961" s="1"/>
       <c r="M961" s="1"/>
@@ -29079,7 +29088,7 @@
       <c r="G962" s="1"/>
       <c r="H962" s="1"/>
       <c r="I962" s="1"/>
-      <c r="J962" s="46"/>
+      <c r="J962" s="45"/>
       <c r="K962" s="1"/>
       <c r="L962" s="1"/>
       <c r="M962" s="1"/>
@@ -29107,7 +29116,7 @@
       <c r="G963" s="1"/>
       <c r="H963" s="1"/>
       <c r="I963" s="1"/>
-      <c r="J963" s="46"/>
+      <c r="J963" s="45"/>
       <c r="K963" s="1"/>
       <c r="L963" s="1"/>
       <c r="M963" s="1"/>
@@ -29135,7 +29144,7 @@
       <c r="G964" s="1"/>
       <c r="H964" s="1"/>
       <c r="I964" s="1"/>
-      <c r="J964" s="46"/>
+      <c r="J964" s="45"/>
       <c r="K964" s="1"/>
       <c r="L964" s="1"/>
       <c r="M964" s="1"/>
@@ -29163,7 +29172,7 @@
       <c r="G965" s="1"/>
       <c r="H965" s="1"/>
       <c r="I965" s="1"/>
-      <c r="J965" s="46"/>
+      <c r="J965" s="45"/>
       <c r="K965" s="1"/>
       <c r="L965" s="1"/>
       <c r="M965" s="1"/>
@@ -29191,7 +29200,7 @@
       <c r="G966" s="1"/>
       <c r="H966" s="1"/>
       <c r="I966" s="1"/>
-      <c r="J966" s="46"/>
+      <c r="J966" s="45"/>
       <c r="K966" s="1"/>
       <c r="L966" s="1"/>
       <c r="M966" s="1"/>
@@ -29219,7 +29228,7 @@
       <c r="G967" s="1"/>
       <c r="H967" s="1"/>
       <c r="I967" s="1"/>
-      <c r="J967" s="46"/>
+      <c r="J967" s="45"/>
       <c r="K967" s="1"/>
       <c r="L967" s="1"/>
       <c r="M967" s="1"/>
@@ -29247,7 +29256,7 @@
       <c r="G968" s="1"/>
       <c r="H968" s="1"/>
       <c r="I968" s="1"/>
-      <c r="J968" s="46"/>
+      <c r="J968" s="45"/>
       <c r="K968" s="1"/>
       <c r="L968" s="1"/>
       <c r="M968" s="1"/>
@@ -29275,7 +29284,7 @@
       <c r="G969" s="1"/>
       <c r="H969" s="1"/>
       <c r="I969" s="1"/>
-      <c r="J969" s="46"/>
+      <c r="J969" s="45"/>
       <c r="K969" s="1"/>
       <c r="L969" s="1"/>
       <c r="M969" s="1"/>
@@ -29303,7 +29312,7 @@
       <c r="G970" s="1"/>
       <c r="H970" s="1"/>
       <c r="I970" s="1"/>
-      <c r="J970" s="46"/>
+      <c r="J970" s="45"/>
       <c r="K970" s="1"/>
       <c r="L970" s="1"/>
       <c r="M970" s="1"/>
@@ -29331,7 +29340,7 @@
       <c r="G971" s="1"/>
       <c r="H971" s="1"/>
       <c r="I971" s="1"/>
-      <c r="J971" s="46"/>
+      <c r="J971" s="45"/>
       <c r="K971" s="1"/>
       <c r="L971" s="1"/>
       <c r="M971" s="1"/>
@@ -29359,7 +29368,7 @@
       <c r="G972" s="1"/>
       <c r="H972" s="1"/>
       <c r="I972" s="1"/>
-      <c r="J972" s="46"/>
+      <c r="J972" s="45"/>
       <c r="K972" s="1"/>
       <c r="L972" s="1"/>
       <c r="M972" s="1"/>
@@ -29387,7 +29396,7 @@
       <c r="G973" s="1"/>
       <c r="H973" s="1"/>
       <c r="I973" s="1"/>
-      <c r="J973" s="46"/>
+      <c r="J973" s="45"/>
       <c r="K973" s="1"/>
       <c r="L973" s="1"/>
       <c r="M973" s="1"/>
@@ -29415,7 +29424,7 @@
       <c r="G974" s="1"/>
       <c r="H974" s="1"/>
       <c r="I974" s="1"/>
-      <c r="J974" s="46"/>
+      <c r="J974" s="45"/>
       <c r="K974" s="1"/>
       <c r="L974" s="1"/>
       <c r="M974" s="1"/>
@@ -29443,7 +29452,7 @@
       <c r="G975" s="1"/>
       <c r="H975" s="1"/>
       <c r="I975" s="1"/>
-      <c r="J975" s="46"/>
+      <c r="J975" s="45"/>
       <c r="K975" s="1"/>
       <c r="L975" s="1"/>
       <c r="M975" s="1"/>
@@ -29471,7 +29480,7 @@
       <c r="G976" s="1"/>
       <c r="H976" s="1"/>
       <c r="I976" s="1"/>
-      <c r="J976" s="46"/>
+      <c r="J976" s="45"/>
       <c r="K976" s="1"/>
       <c r="L976" s="1"/>
       <c r="M976" s="1"/>
@@ -29499,7 +29508,7 @@
       <c r="G977" s="1"/>
       <c r="H977" s="1"/>
       <c r="I977" s="1"/>
-      <c r="J977" s="46"/>
+      <c r="J977" s="45"/>
       <c r="K977" s="1"/>
       <c r="L977" s="1"/>
       <c r="M977" s="1"/>
@@ -29527,7 +29536,7 @@
       <c r="G978" s="1"/>
       <c r="H978" s="1"/>
       <c r="I978" s="1"/>
-      <c r="J978" s="46"/>
+      <c r="J978" s="45"/>
       <c r="K978" s="1"/>
       <c r="L978" s="1"/>
       <c r="M978" s="1"/>
@@ -29555,7 +29564,7 @@
       <c r="G979" s="1"/>
       <c r="H979" s="1"/>
       <c r="I979" s="1"/>
-      <c r="J979" s="46"/>
+      <c r="J979" s="45"/>
       <c r="K979" s="1"/>
       <c r="L979" s="1"/>
       <c r="M979" s="1"/>
@@ -29583,7 +29592,7 @@
       <c r="G980" s="1"/>
       <c r="H980" s="1"/>
       <c r="I980" s="1"/>
-      <c r="J980" s="46"/>
+      <c r="J980" s="45"/>
       <c r="K980" s="1"/>
       <c r="L980" s="1"/>
       <c r="M980" s="1"/>
@@ -29611,7 +29620,7 @@
       <c r="G981" s="1"/>
       <c r="H981" s="1"/>
       <c r="I981" s="1"/>
-      <c r="J981" s="46"/>
+      <c r="J981" s="45"/>
       <c r="K981" s="1"/>
       <c r="L981" s="1"/>
       <c r="M981" s="1"/>
@@ -29639,7 +29648,7 @@
       <c r="G982" s="1"/>
       <c r="H982" s="1"/>
       <c r="I982" s="1"/>
-      <c r="J982" s="46"/>
+      <c r="J982" s="45"/>
       <c r="K982" s="1"/>
       <c r="L982" s="1"/>
       <c r="M982" s="1"/>
@@ -29667,7 +29676,7 @@
       <c r="G983" s="1"/>
       <c r="H983" s="1"/>
       <c r="I983" s="1"/>
-      <c r="J983" s="46"/>
+      <c r="J983" s="45"/>
       <c r="K983" s="1"/>
       <c r="L983" s="1"/>
       <c r="M983" s="1"/>
@@ -29695,7 +29704,7 @@
       <c r="G984" s="1"/>
       <c r="H984" s="1"/>
       <c r="I984" s="1"/>
-      <c r="J984" s="46"/>
+      <c r="J984" s="45"/>
       <c r="K984" s="1"/>
       <c r="L984" s="1"/>
       <c r="M984" s="1"/>
@@ -29723,7 +29732,7 @@
       <c r="G985" s="1"/>
       <c r="H985" s="1"/>
       <c r="I985" s="1"/>
-      <c r="J985" s="46"/>
+      <c r="J985" s="45"/>
       <c r="K985" s="1"/>
       <c r="L985" s="1"/>
       <c r="M985" s="1"/>
@@ -29751,7 +29760,7 @@
       <c r="G986" s="1"/>
       <c r="H986" s="1"/>
       <c r="I986" s="1"/>
-      <c r="J986" s="46"/>
+      <c r="J986" s="45"/>
       <c r="K986" s="1"/>
       <c r="L986" s="1"/>
       <c r="M986" s="1"/>
@@ -29779,7 +29788,7 @@
       <c r="G987" s="1"/>
       <c r="H987" s="1"/>
       <c r="I987" s="1"/>
-      <c r="J987" s="46"/>
+      <c r="J987" s="45"/>
       <c r="K987" s="1"/>
       <c r="L987" s="1"/>
       <c r="M987" s="1"/>
@@ -29807,7 +29816,7 @@
       <c r="G988" s="1"/>
       <c r="H988" s="1"/>
       <c r="I988" s="1"/>
-      <c r="J988" s="46"/>
+      <c r="J988" s="45"/>
       <c r="K988" s="1"/>
       <c r="L988" s="1"/>
       <c r="M988" s="1"/>
@@ -29835,7 +29844,7 @@
       <c r="G989" s="1"/>
       <c r="H989" s="1"/>
       <c r="I989" s="1"/>
-      <c r="J989" s="46"/>
+      <c r="J989" s="45"/>
       <c r="K989" s="1"/>
       <c r="L989" s="1"/>
       <c r="M989" s="1"/>
@@ -29863,7 +29872,7 @@
       <c r="G990" s="1"/>
       <c r="H990" s="1"/>
       <c r="I990" s="1"/>
-      <c r="J990" s="46"/>
+      <c r="J990" s="45"/>
       <c r="K990" s="1"/>
       <c r="L990" s="1"/>
       <c r="M990" s="1"/>
@@ -29891,7 +29900,7 @@
       <c r="G991" s="1"/>
       <c r="H991" s="1"/>
       <c r="I991" s="1"/>
-      <c r="J991" s="46"/>
+      <c r="J991" s="45"/>
       <c r="K991" s="1"/>
       <c r="L991" s="1"/>
       <c r="M991" s="1"/>
@@ -29919,7 +29928,7 @@
       <c r="G992" s="1"/>
       <c r="H992" s="1"/>
       <c r="I992" s="1"/>
-      <c r="J992" s="46"/>
+      <c r="J992" s="45"/>
       <c r="K992" s="1"/>
       <c r="L992" s="1"/>
       <c r="M992" s="1"/>
@@ -29947,7 +29956,7 @@
       <c r="G993" s="1"/>
       <c r="H993" s="1"/>
       <c r="I993" s="1"/>
-      <c r="J993" s="46"/>
+      <c r="J993" s="45"/>
       <c r="K993" s="1"/>
       <c r="L993" s="1"/>
       <c r="M993" s="1"/>
@@ -29975,7 +29984,7 @@
       <c r="G994" s="1"/>
       <c r="H994" s="1"/>
       <c r="I994" s="1"/>
-      <c r="J994" s="46"/>
+      <c r="J994" s="45"/>
       <c r="K994" s="1"/>
       <c r="L994" s="1"/>
       <c r="M994" s="1"/>
@@ -30003,7 +30012,7 @@
       <c r="G995" s="1"/>
       <c r="H995" s="1"/>
       <c r="I995" s="1"/>
-      <c r="J995" s="46"/>
+      <c r="J995" s="45"/>
       <c r="K995" s="1"/>
       <c r="L995" s="1"/>
       <c r="M995" s="1"/>
@@ -30031,7 +30040,7 @@
       <c r="G996" s="1"/>
       <c r="H996" s="1"/>
       <c r="I996" s="1"/>
-      <c r="J996" s="46"/>
+      <c r="J996" s="45"/>
       <c r="K996" s="1"/>
       <c r="L996" s="1"/>
       <c r="M996" s="1"/>
@@ -30059,7 +30068,7 @@
       <c r="G997" s="1"/>
       <c r="H997" s="1"/>
       <c r="I997" s="1"/>
-      <c r="J997" s="46"/>
+      <c r="J997" s="45"/>
       <c r="K997" s="1"/>
       <c r="L997" s="1"/>
       <c r="M997" s="1"/>
@@ -30087,7 +30096,7 @@
       <c r="G998" s="1"/>
       <c r="H998" s="1"/>
       <c r="I998" s="1"/>
-      <c r="J998" s="46"/>
+      <c r="J998" s="45"/>
       <c r="K998" s="1"/>
       <c r="L998" s="1"/>
       <c r="M998" s="1"/>
@@ -30115,7 +30124,7 @@
       <c r="G999" s="1"/>
       <c r="H999" s="1"/>
       <c r="I999" s="1"/>
-      <c r="J999" s="46"/>
+      <c r="J999" s="45"/>
       <c r="K999" s="1"/>
       <c r="L999" s="1"/>
       <c r="M999" s="1"/>
@@ -30143,7 +30152,7 @@
       <c r="G1000" s="1"/>
       <c r="H1000" s="1"/>
       <c r="I1000" s="1"/>
-      <c r="J1000" s="46"/>
+      <c r="J1000" s="45"/>
       <c r="K1000" s="1"/>
       <c r="L1000" s="1"/>
       <c r="M1000" s="1"/>
@@ -30171,7 +30180,7 @@
       <c r="G1001" s="1"/>
       <c r="H1001" s="1"/>
       <c r="I1001" s="1"/>
-      <c r="J1001" s="46"/>
+      <c r="J1001" s="45"/>
       <c r="K1001" s="1"/>
       <c r="L1001" s="1"/>
       <c r="M1001" s="1"/>
@@ -30199,7 +30208,7 @@
       <c r="G1002" s="1"/>
       <c r="H1002" s="1"/>
       <c r="I1002" s="1"/>
-      <c r="J1002" s="46"/>
+      <c r="J1002" s="45"/>
       <c r="K1002" s="1"/>
       <c r="L1002" s="1"/>
       <c r="M1002" s="1"/>
@@ -30227,7 +30236,7 @@
       <c r="G1003" s="1"/>
       <c r="H1003" s="1"/>
       <c r="I1003" s="1"/>
-      <c r="J1003" s="46"/>
+      <c r="J1003" s="45"/>
       <c r="K1003" s="1"/>
       <c r="L1003" s="1"/>
       <c r="M1003" s="1"/>
@@ -30255,7 +30264,7 @@
       <c r="G1004" s="1"/>
       <c r="H1004" s="1"/>
       <c r="I1004" s="1"/>
-      <c r="J1004" s="46"/>
+      <c r="J1004" s="45"/>
       <c r="K1004" s="1"/>
       <c r="L1004" s="1"/>
       <c r="M1004" s="1"/>
@@ -30283,7 +30292,7 @@
       <c r="G1005" s="1"/>
       <c r="H1005" s="1"/>
       <c r="I1005" s="1"/>
-      <c r="J1005" s="46"/>
+      <c r="J1005" s="45"/>
       <c r="K1005" s="1"/>
       <c r="L1005" s="1"/>
       <c r="M1005" s="1"/>
@@ -30311,7 +30320,7 @@
       <c r="G1006" s="1"/>
       <c r="H1006" s="1"/>
       <c r="I1006" s="1"/>
-      <c r="J1006" s="46"/>
+      <c r="J1006" s="45"/>
       <c r="K1006" s="1"/>
       <c r="L1006" s="1"/>
       <c r="M1006" s="1"/>
@@ -30339,7 +30348,7 @@
       <c r="G1007" s="1"/>
       <c r="H1007" s="1"/>
       <c r="I1007" s="1"/>
-      <c r="J1007" s="46"/>
+      <c r="J1007" s="45"/>
       <c r="K1007" s="1"/>
       <c r="L1007" s="1"/>
       <c r="M1007" s="1"/>
@@ -30367,7 +30376,7 @@
       <c r="G1008" s="1"/>
       <c r="H1008" s="1"/>
       <c r="I1008" s="1"/>
-      <c r="J1008" s="46"/>
+      <c r="J1008" s="45"/>
       <c r="K1008" s="1"/>
       <c r="L1008" s="1"/>
       <c r="M1008" s="1"/>
@@ -30395,7 +30404,7 @@
       <c r="G1009" s="1"/>
       <c r="H1009" s="1"/>
       <c r="I1009" s="1"/>
-      <c r="J1009" s="46"/>
+      <c r="J1009" s="45"/>
       <c r="K1009" s="1"/>
       <c r="L1009" s="1"/>
       <c r="M1009" s="1"/>
@@ -30423,7 +30432,7 @@
       <c r="G1010" s="1"/>
       <c r="H1010" s="1"/>
       <c r="I1010" s="1"/>
-      <c r="J1010" s="46"/>
+      <c r="J1010" s="45"/>
       <c r="K1010" s="1"/>
       <c r="L1010" s="1"/>
       <c r="M1010" s="1"/>
@@ -30451,7 +30460,7 @@
       <c r="G1011" s="1"/>
       <c r="H1011" s="1"/>
       <c r="I1011" s="1"/>
-      <c r="J1011" s="46"/>
+      <c r="J1011" s="45"/>
       <c r="K1011" s="1"/>
       <c r="L1011" s="1"/>
       <c r="M1011" s="1"/>
@@ -30479,7 +30488,7 @@
       <c r="G1012" s="1"/>
       <c r="H1012" s="1"/>
       <c r="I1012" s="1"/>
-      <c r="J1012" s="46"/>
+      <c r="J1012" s="45"/>
       <c r="K1012" s="1"/>
       <c r="L1012" s="1"/>
       <c r="M1012" s="1"/>
@@ -30507,7 +30516,7 @@
       <c r="G1013" s="1"/>
       <c r="H1013" s="1"/>
       <c r="I1013" s="1"/>
-      <c r="J1013" s="46"/>
+      <c r="J1013" s="45"/>
       <c r="K1013" s="1"/>
       <c r="L1013" s="1"/>
       <c r="M1013" s="1"/>
@@ -30535,7 +30544,7 @@
       <c r="G1014" s="1"/>
       <c r="H1014" s="1"/>
       <c r="I1014" s="1"/>
-      <c r="J1014" s="46"/>
+      <c r="J1014" s="45"/>
       <c r="K1014" s="1"/>
       <c r="L1014" s="1"/>
       <c r="M1014" s="1"/>
@@ -30563,7 +30572,7 @@
       <c r="G1015" s="1"/>
       <c r="H1015" s="1"/>
       <c r="I1015" s="1"/>
-      <c r="J1015" s="46"/>
+      <c r="J1015" s="45"/>
       <c r="K1015" s="1"/>
       <c r="L1015" s="1"/>
       <c r="M1015" s="1"/>
@@ -30591,7 +30600,7 @@
       <c r="G1016" s="1"/>
       <c r="H1016" s="1"/>
       <c r="I1016" s="1"/>
-      <c r="J1016" s="46"/>
+      <c r="J1016" s="45"/>
       <c r="K1016" s="1"/>
       <c r="L1016" s="1"/>
       <c r="M1016" s="1"/>
@@ -30619,7 +30628,7 @@
       <c r="G1017" s="1"/>
       <c r="H1017" s="1"/>
       <c r="I1017" s="1"/>
-      <c r="J1017" s="46"/>
+      <c r="J1017" s="45"/>
       <c r="K1017" s="1"/>
       <c r="L1017" s="1"/>
       <c r="M1017" s="1"/>
@@ -30647,7 +30656,7 @@
       <c r="G1018" s="1"/>
       <c r="H1018" s="1"/>
       <c r="I1018" s="1"/>
-      <c r="J1018" s="46"/>
+      <c r="J1018" s="45"/>
       <c r="K1018" s="1"/>
       <c r="L1018" s="1"/>
       <c r="M1018" s="1"/>
@@ -30675,7 +30684,7 @@
       <c r="G1019" s="1"/>
       <c r="H1019" s="1"/>
       <c r="I1019" s="1"/>
-      <c r="J1019" s="46"/>
+      <c r="J1019" s="45"/>
       <c r="K1019" s="1"/>
       <c r="L1019" s="1"/>
       <c r="M1019" s="1"/>
@@ -30703,7 +30712,7 @@
       <c r="G1020" s="1"/>
       <c r="H1020" s="1"/>
       <c r="I1020" s="1"/>
-      <c r="J1020" s="46"/>
+      <c r="J1020" s="45"/>
       <c r="K1020" s="1"/>
       <c r="L1020" s="1"/>
       <c r="M1020" s="1"/>
@@ -30731,7 +30740,7 @@
       <c r="G1021" s="1"/>
       <c r="H1021" s="1"/>
       <c r="I1021" s="1"/>
-      <c r="J1021" s="46"/>
+      <c r="J1021" s="45"/>
       <c r="K1021" s="1"/>
       <c r="L1021" s="1"/>
       <c r="M1021" s="1"/>
@@ -31359,7 +31368,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 22-31</v>
+        <v>2022-11-08 22-54</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -365,6 +365,9 @@
     <t>dob_debug</t>
   </si>
   <si>
+    <t>Year: ${ephemeral_years} DOB Approx: ${dob_approx} DOB Calendar: ${dob_calendar} AGE Years: ${age_in_years}</t>
+  </si>
+  <si>
     <t>age_in_years</t>
   </si>
   <si>
@@ -389,15 +392,12 @@
   <si>
     <t>(${dob_calendar} or ${age_years})</t>
   </si>
-  <si>
-    <t>Age: ${age_in_years}, "Years"</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -547,8 +547,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,6 +666,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -710,7 +723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -816,18 +829,81 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="84">
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1906,10 +1982,10 @@
   <dimension ref="A1:AE1021"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2449,7 +2525,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -2859,7 +2935,7 @@
         <v>109</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:26" s="18" customFormat="1" ht="19.2" customHeight="1">
@@ -2876,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:26" s="18" customFormat="1" ht="11.4">
@@ -2890,7 +2966,7 @@
         <v>73</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:26" s="18" customFormat="1" ht="11.4">
@@ -2904,10 +2980,10 @@
         <v>111</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="18" customFormat="1" ht="11.4">
+    <row r="31" spans="1:26" s="18" customFormat="1" ht="13.8">
       <c r="A31" s="18" t="s">
         <v>10</v>
       </c>
@@ -2915,7 +2991,11 @@
         <v>112</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="E31" s="51" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:26" s="18" customFormat="1" ht="11.4">
@@ -2923,13 +3003,13 @@
         <v>59</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="13.2">
@@ -30760,393 +30840,421 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C4 A5:B5 A6:C8 A23:B23 M11:M12 N40:AE41 J40:L41 L10:M10 A9:F16 A22:F22 D17:F21">
-    <cfRule type="expression" dxfId="77" priority="583">
+    <cfRule type="expression" dxfId="83" priority="589">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C4 A5:B5 A6:C8 A23:B23">
-    <cfRule type="expression" dxfId="76" priority="584">
+    <cfRule type="expression" dxfId="82" priority="590">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C4 A5:B5 A6:C8 N40:AE41 J40:L41 A10:F16 A22:F22 D17:F21">
-    <cfRule type="cellIs" dxfId="75" priority="585" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="591" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B41 B2:B16 B22:B23">
-    <cfRule type="expression" dxfId="74" priority="586">
+    <cfRule type="expression" dxfId="80" priority="592">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C4 A5:B5 A6:C8 A23:B23 M11:M12 N40:AE41 J40:L41 L10:M10 A9:F16 A22:F22 D17:F21">
-    <cfRule type="expression" dxfId="73" priority="588">
+    <cfRule type="expression" dxfId="79" priority="594">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C4 A5:B5 A6:C8 A23:B23">
-    <cfRule type="expression" dxfId="72" priority="589">
+    <cfRule type="expression" dxfId="78" priority="595">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A8 A10:A16 A22">
-    <cfRule type="containsText" dxfId="71" priority="593" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="77" priority="599" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4 C36:D41 C6:C16 C22">
-    <cfRule type="expression" dxfId="70" priority="594">
+    <cfRule type="expression" dxfId="76" priority="600">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A8 A10:A16 A22">
-    <cfRule type="cellIs" dxfId="69" priority="595" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="601" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="68" priority="576" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="74" priority="582" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="67" priority="579" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="585" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="66" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="586" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="65" priority="571" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="577" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="64" priority="555">
+    <cfRule type="expression" dxfId="70" priority="561">
       <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="63" priority="556">
+    <cfRule type="expression" dxfId="69" priority="562">
       <formula>AND($A47="end group", $B47 = "", $C47 = "", $E47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "", $O47 = "", $P47 = "", $Q47 = "", $S47 = "", $T47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="62" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="563" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="61" priority="558">
+    <cfRule type="expression" dxfId="67" priority="564">
       <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="60" priority="559">
+    <cfRule type="expression" dxfId="66" priority="565">
       <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $E47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "", $O47 = "", $P47 = "", $Q47 = "", $S47 = "", $T47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="containsText" dxfId="59" priority="560" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="65" priority="566" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A47))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A46">
-    <cfRule type="cellIs" dxfId="58" priority="515" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="521" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A46">
-    <cfRule type="cellIs" dxfId="57" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="522" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="56" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="523" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="55" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="524" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" dxfId="54" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="525" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" dxfId="53" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="526" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="52" priority="503">
+    <cfRule type="expression" dxfId="58" priority="509">
       <formula>AND($A5="begin group", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="51" priority="506">
+    <cfRule type="expression" dxfId="57" priority="512">
       <formula>AND($A5="begin repeat", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="50" priority="504">
+    <cfRule type="expression" dxfId="56" priority="510">
       <formula>AND($A5="end group", $B5 = "", $C5 = "", $E5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "", $O5 = "", $P5 = "", $Q5 = "", $S5 = "", $T5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="49" priority="505" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="511" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="48" priority="507">
+    <cfRule type="expression" dxfId="54" priority="513">
       <formula>AND($A5="end repeat", $B5 = "", $C5 = "", $E5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "", $O5 = "", $P5 = "", $Q5 = "", $S5 = "", $T5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="47" priority="508">
+    <cfRule type="expression" dxfId="53" priority="514">
       <formula>AND(AND(NOT($A5 = "end group"), NOT($A5 = "end repeat"), NOT($A5 = "")), $C5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="46" priority="493" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="52" priority="499" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:F9">
-    <cfRule type="cellIs" dxfId="45" priority="495" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="501" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="44" priority="498" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="504" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M12 L10:M10 A9:F16 A22:F22 D17:F21">
-    <cfRule type="expression" dxfId="43" priority="500">
+    <cfRule type="expression" dxfId="49" priority="506">
       <formula>AND($A9="end group", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M12 L10:M10 A9:F16 A22:F22 D17:F21">
-    <cfRule type="expression" dxfId="42" priority="501">
+    <cfRule type="expression" dxfId="48" priority="507">
       <formula>AND($A9="end repeat", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:M10">
-    <cfRule type="cellIs" dxfId="41" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="348" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M12">
-    <cfRule type="cellIs" dxfId="40" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="343" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="39" priority="316">
+    <cfRule type="expression" dxfId="45" priority="322">
       <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="cellIs" dxfId="38" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="323" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="37" priority="318">
+    <cfRule type="expression" dxfId="43" priority="324">
       <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $C42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="36" priority="319">
+    <cfRule type="expression" dxfId="42" priority="325">
       <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="35" priority="320">
+    <cfRule type="expression" dxfId="41" priority="326">
       <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $M42 = "", $N42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="34" priority="321">
+    <cfRule type="expression" dxfId="40" priority="327">
       <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $M42 = "", $N42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36:M39">
-    <cfRule type="expression" dxfId="33" priority="308">
+    <cfRule type="expression" dxfId="39" priority="314">
       <formula>AND($M36 = "", $A36 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:L39">
-    <cfRule type="expression" dxfId="32" priority="313">
+    <cfRule type="expression" dxfId="38" priority="319">
       <formula>AND(NOT($J36 = ""), $K36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A41">
-    <cfRule type="containsText" dxfId="31" priority="280" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="37" priority="286" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A36))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:I41 A36:AE39">
-    <cfRule type="expression" dxfId="30" priority="281">
+    <cfRule type="expression" dxfId="36" priority="287">
       <formula>AND($A36="begin group", NOT($B36 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:AE39">
-    <cfRule type="expression" dxfId="29" priority="282">
+    <cfRule type="expression" dxfId="35" priority="288">
       <formula>AND($A36="end group", $B36 = "", $C36 = "", $E36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $M36 = "", $N36 = "", $O36 = "", $Q36 = "", $R36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:I41 A36:AE39">
-    <cfRule type="cellIs" dxfId="28" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="289" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A41">
-    <cfRule type="cellIs" dxfId="27" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="293" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:I41 A36:AE39">
-    <cfRule type="expression" dxfId="26" priority="290">
+    <cfRule type="expression" dxfId="32" priority="296">
       <formula>AND($A36="begin repeat", NOT($B36 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:AE39">
-    <cfRule type="expression" dxfId="25" priority="291">
+    <cfRule type="expression" dxfId="31" priority="297">
       <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $E36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $M36 = "", $N36 = "", $O36 = "", $Q36 = "", $R36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:AE41 A40:L41">
-    <cfRule type="expression" dxfId="24" priority="1052">
+    <cfRule type="expression" dxfId="30" priority="1058">
       <formula>AND($A40="end group", $B40 = "", $C40 = "", $E40 = "", $H40 = "", $I40 = "", #REF! = "", $K40 = "", $J40 = "", $N40 = "", $O40 = "", $Q40 = "", $R40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:J41">
-    <cfRule type="expression" dxfId="23" priority="1058">
+    <cfRule type="expression" dxfId="29" priority="1064">
       <formula>AND($J40 = "", $A40 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:L41">
-    <cfRule type="expression" dxfId="22" priority="1059">
+    <cfRule type="expression" dxfId="28" priority="1065">
       <formula>AND(NOT(#REF! = ""), $K40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:AE41 A40:L41">
-    <cfRule type="expression" dxfId="21" priority="1062">
+    <cfRule type="expression" dxfId="27" priority="1068">
       <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $E40 = "", $H40 = "", $I40 = "", #REF! = "", $K40 = "", $J40 = "", $N40 = "", $O40 = "", $Q40 = "", $R40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B41">
-    <cfRule type="expression" dxfId="20" priority="1087">
+    <cfRule type="expression" dxfId="26" priority="1093">
       <formula>COUNTIF($B$2:$B$1089,B36)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A20">
-    <cfRule type="containsText" dxfId="19" priority="91" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="25" priority="97" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21 A17:C20">
-    <cfRule type="expression" dxfId="18" priority="92">
+    <cfRule type="expression" dxfId="24" priority="98">
       <formula>AND($A17="begin group", NOT($B17 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21 A17:C20">
-    <cfRule type="expression" dxfId="17" priority="93">
+    <cfRule type="expression" dxfId="23" priority="99">
       <formula>AND($A17="end group", $B17 = "", $C17 = "", $E17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $M17 = "", $N17 = "", $O17 = "", $Q17 = "", $R17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21 A17:C20">
-    <cfRule type="cellIs" dxfId="16" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="100" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="expression" dxfId="15" priority="95">
+    <cfRule type="expression" dxfId="21" priority="101">
       <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $C17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B21">
-    <cfRule type="expression" dxfId="14" priority="96">
+    <cfRule type="expression" dxfId="20" priority="102">
       <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $B17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A20">
-    <cfRule type="cellIs" dxfId="13" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="103" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21 A17:C20">
-    <cfRule type="expression" dxfId="12" priority="99">
+    <cfRule type="expression" dxfId="18" priority="105">
       <formula>AND($A17="begin repeat", NOT($B17 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21 A17:C20">
-    <cfRule type="expression" dxfId="11" priority="100">
+    <cfRule type="expression" dxfId="17" priority="106">
       <formula>AND($A17="end repeat", $B17 = "", $C17 = "", $E17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $M17 = "", $N17 = "", $O17 = "", $Q17 = "", $R17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="10" priority="84" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="16" priority="90" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="9" priority="85">
+    <cfRule type="expression" dxfId="15" priority="91">
       <formula>AND($A21="begin group", NOT($B21 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="8" priority="86">
+    <cfRule type="expression" dxfId="14" priority="92">
       <formula>AND($A21="end group", $B21 = "", $C21 = "", $E21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $M21 = "", $N21 = "", $O21 = "", $Q21 = "", $R21 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="7" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="93" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="6" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="94" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="5" priority="89">
+    <cfRule type="expression" dxfId="11" priority="95">
       <formula>AND($A21="begin repeat", NOT($B21 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="4" priority="90">
+    <cfRule type="expression" dxfId="10" priority="96">
       <formula>AND($A21="end repeat", $B21 = "", $C21 = "", $E21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $M21 = "", $N21 = "", $O21 = "", $Q21 = "", $R21 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="3" priority="1244">
+    <cfRule type="expression" dxfId="9" priority="1250">
       <formula>COUNTIF($B$2:$B$1102,B23)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B16 B22">
-    <cfRule type="expression" dxfId="2" priority="1245">
+    <cfRule type="expression" dxfId="8" priority="1251">
       <formula>COUNTIF($B$2:$B$999,B9)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B8">
-    <cfRule type="expression" dxfId="1" priority="1247">
+    <cfRule type="expression" dxfId="7" priority="1253">
       <formula>COUNTIF($B$2:$B$1101,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B21">
-    <cfRule type="expression" dxfId="0" priority="1248">
+    <cfRule type="expression" dxfId="6" priority="1254">
       <formula>COUNTIF($B$2:$B$1075,B17)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -31368,7 +31476,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 22-54</v>
+        <v>2022-11-08 23-23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>

--- a/forms/contact/household-create.xlsx
+++ b/forms/contact/household-create.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -553,6 +553,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF76A5AF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="21">
@@ -723,7 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -838,12 +843,81 @@
     <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="90">
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -1982,10 +2056,10 @@
   <dimension ref="A1:AE1021"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2058,7 +2132,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" s="2" customFormat="1" ht="13.2">
+    <row r="2" spans="1:26" s="2" customFormat="1" ht="14.4">
       <c r="A2" s="11" t="s">
         <v>43</v>
       </c>
@@ -2069,7 +2143,10 @@
         <v>48</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="52" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -30840,421 +30917,451 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C4 A5:B5 A6:C8 A23:B23 M11:M12 N40:AE41 J40:L41 L10:M10 A9:F16 A22:F22 D17:F21">
-    <cfRule type="expression" dxfId="83" priority="589">
+    <cfRule type="expression" dxfId="89" priority="595">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C4 A5:B5 A6:C8 A23:B23">
-    <cfRule type="expression" dxfId="82" priority="590">
+    <cfRule type="expression" dxfId="88" priority="596">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C4 A5:B5 A6:C8 N40:AE41 J40:L41 A10:F16 A22:F22 D17:F21">
-    <cfRule type="cellIs" dxfId="81" priority="591" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="597" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B41 B2:B16 B22:B23">
-    <cfRule type="expression" dxfId="80" priority="592">
+    <cfRule type="expression" dxfId="86" priority="598">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C4 A5:B5 A6:C8 A23:B23 M11:M12 N40:AE41 J40:L41 L10:M10 A9:F16 A22:F22 D17:F21">
-    <cfRule type="expression" dxfId="79" priority="594">
+    <cfRule type="expression" dxfId="85" priority="600">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C4 A5:B5 A6:C8 A23:B23">
-    <cfRule type="expression" dxfId="78" priority="595">
+    <cfRule type="expression" dxfId="84" priority="601">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A8 A10:A16 A22">
-    <cfRule type="containsText" dxfId="77" priority="599" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="83" priority="605" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4 C36:D41 C6:C16 C22">
-    <cfRule type="expression" dxfId="76" priority="600">
+    <cfRule type="expression" dxfId="82" priority="606">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A8 A10:A16 A22">
-    <cfRule type="cellIs" dxfId="75" priority="601" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="607" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="74" priority="582" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="80" priority="588" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="73" priority="585" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="591" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="72" priority="586" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="592" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="71" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="583" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="70" priority="561">
+    <cfRule type="expression" dxfId="76" priority="567">
       <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="69" priority="562">
+    <cfRule type="expression" dxfId="75" priority="568">
       <formula>AND($A47="end group", $B47 = "", $C47 = "", $E47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "", $O47 = "", $P47 = "", $Q47 = "", $S47 = "", $T47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="68" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="569" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="67" priority="564">
+    <cfRule type="expression" dxfId="73" priority="570">
       <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="66" priority="565">
+    <cfRule type="expression" dxfId="72" priority="571">
       <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $E47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "", $O47 = "", $P47 = "", $Q47 = "", $S47 = "", $T47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="containsText" dxfId="65" priority="566" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="71" priority="572" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A47))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A46">
-    <cfRule type="cellIs" dxfId="64" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="527" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A46">
-    <cfRule type="cellIs" dxfId="63" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="528" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="62" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="529" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="61" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="530" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" dxfId="60" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="531" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" dxfId="59" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="532" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="58" priority="509">
+    <cfRule type="expression" dxfId="64" priority="515">
       <formula>AND($A5="begin group", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="57" priority="512">
+    <cfRule type="expression" dxfId="63" priority="518">
       <formula>AND($A5="begin repeat", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="56" priority="510">
+    <cfRule type="expression" dxfId="62" priority="516">
       <formula>AND($A5="end group", $B5 = "", $C5 = "", $E5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "", $O5 = "", $P5 = "", $Q5 = "", $S5 = "", $T5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="55" priority="511" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="517" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="54" priority="513">
+    <cfRule type="expression" dxfId="60" priority="519">
       <formula>AND($A5="end repeat", $B5 = "", $C5 = "", $E5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "", $O5 = "", $P5 = "", $Q5 = "", $S5 = "", $T5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="53" priority="514">
+    <cfRule type="expression" dxfId="59" priority="520">
       <formula>AND(AND(NOT($A5 = "end group"), NOT($A5 = "end repeat"), NOT($A5 = "")), $C5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="52" priority="499" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="58" priority="505" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:F9">
-    <cfRule type="cellIs" dxfId="51" priority="501" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="507" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="50" priority="504" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="510" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M12 L10:M10 A9:F16 A22:F22 D17:F21">
-    <cfRule type="expression" dxfId="49" priority="506">
+    <cfRule type="expression" dxfId="55" priority="512">
       <formula>AND($A9="end group", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M12 L10:M10 A9:F16 A22:F22 D17:F21">
-    <cfRule type="expression" dxfId="48" priority="507">
+    <cfRule type="expression" dxfId="54" priority="513">
       <formula>AND($A9="end repeat", $B9 = "", $C9 = "", $D9 = "", $E9 = "", $F9 = "", $G9 = "", $H9 = "", $I9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:M10">
-    <cfRule type="cellIs" dxfId="47" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="354" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M12">
-    <cfRule type="cellIs" dxfId="46" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="349" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="45" priority="322">
+    <cfRule type="expression" dxfId="51" priority="328">
       <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="cellIs" dxfId="44" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="329" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="43" priority="324">
+    <cfRule type="expression" dxfId="49" priority="330">
       <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $C42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="42" priority="325">
+    <cfRule type="expression" dxfId="48" priority="331">
       <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="41" priority="326">
+    <cfRule type="expression" dxfId="47" priority="332">
       <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $M42 = "", $N42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="40" priority="327">
+    <cfRule type="expression" dxfId="46" priority="333">
       <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $M42 = "", $N42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36:M39">
-    <cfRule type="expression" dxfId="39" priority="314">
+    <cfRule type="expression" dxfId="45" priority="320">
       <formula>AND($M36 = "", $A36 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:L39">
-    <cfRule type="expression" dxfId="38" priority="319">
+    <cfRule type="expression" dxfId="44" priority="325">
       <formula>AND(NOT($J36 = ""), $K36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A41">
-    <cfRule type="containsText" dxfId="37" priority="286" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="43" priority="292" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A36))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:I41 A36:AE39">
-    <cfRule type="expression" dxfId="36" priority="287">
+    <cfRule type="expression" dxfId="42" priority="293">
       <formula>AND($A36="begin group", NOT($B36 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:AE39">
-    <cfRule type="expression" dxfId="35" priority="288">
+    <cfRule type="expression" dxfId="41" priority="294">
       <formula>AND($A36="end group", $B36 = "", $C36 = "", $E36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $M36 = "", $N36 = "", $O36 = "", $Q36 = "", $R36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:I41 A36:AE39">
-    <cfRule type="cellIs" dxfId="34" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="295" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A41">
-    <cfRule type="cellIs" dxfId="33" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="299" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:I41 A36:AE39">
-    <cfRule type="expression" dxfId="32" priority="296">
+    <cfRule type="expression" dxfId="38" priority="302">
       <formula>AND($A36="begin repeat", NOT($B36 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:AE39">
-    <cfRule type="expression" dxfId="31" priority="297">
+    <cfRule type="expression" dxfId="37" priority="303">
       <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $E36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $M36 = "", $N36 = "", $O36 = "", $Q36 = "", $R36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:AE41 A40:L41">
-    <cfRule type="expression" dxfId="30" priority="1058">
+    <cfRule type="expression" dxfId="36" priority="1064">
       <formula>AND($A40="end group", $B40 = "", $C40 = "", $E40 = "", $H40 = "", $I40 = "", #REF! = "", $K40 = "", $J40 = "", $N40 = "", $O40 = "", $Q40 = "", $R40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:J41">
-    <cfRule type="expression" dxfId="29" priority="1064">
+    <cfRule type="expression" dxfId="35" priority="1070">
       <formula>AND($J40 = "", $A40 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:L41">
-    <cfRule type="expression" dxfId="28" priority="1065">
+    <cfRule type="expression" dxfId="34" priority="1071">
       <formula>AND(NOT(#REF! = ""), $K40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:AE41 A40:L41">
-    <cfRule type="expression" dxfId="27" priority="1068">
+    <cfRule type="expression" dxfId="33" priority="1074">
       <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $E40 = "", $H40 = "", $I40 = "", #REF! = "", $K40 = "", $J40 = "", $N40 = "", $O40 = "", $Q40 = "", $R40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B41">
-    <cfRule type="expression" dxfId="26" priority="1093">
+    <cfRule type="expression" dxfId="32" priority="1099">
       <formula>COUNTIF($B$2:$B$1089,B36)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A20">
-    <cfRule type="containsText" dxfId="25" priority="97" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="31" priority="103" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21 A17:C20">
-    <cfRule type="expression" dxfId="24" priority="98">
+    <cfRule type="expression" dxfId="30" priority="104">
       <formula>AND($A17="begin group", NOT($B17 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21 A17:C20">
-    <cfRule type="expression" dxfId="23" priority="99">
+    <cfRule type="expression" dxfId="29" priority="105">
       <formula>AND($A17="end group", $B17 = "", $C17 = "", $E17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $M17 = "", $N17 = "", $O17 = "", $Q17 = "", $R17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21 A17:C20">
-    <cfRule type="cellIs" dxfId="22" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="106" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="expression" dxfId="21" priority="101">
+    <cfRule type="expression" dxfId="27" priority="107">
       <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $C17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B21">
-    <cfRule type="expression" dxfId="20" priority="102">
+    <cfRule type="expression" dxfId="26" priority="108">
       <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $B17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A20">
-    <cfRule type="cellIs" dxfId="19" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="109" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21 A17:C20">
-    <cfRule type="expression" dxfId="18" priority="105">
+    <cfRule type="expression" dxfId="24" priority="111">
       <formula>AND($A17="begin repeat", NOT($B17 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21 A17:C20">
-    <cfRule type="expression" dxfId="17" priority="106">
+    <cfRule type="expression" dxfId="23" priority="112">
       <formula>AND($A17="end repeat", $B17 = "", $C17 = "", $E17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $M17 = "", $N17 = "", $O17 = "", $Q17 = "", $R17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="16" priority="90" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="22" priority="96" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="15" priority="91">
+    <cfRule type="expression" dxfId="21" priority="97">
       <formula>AND($A21="begin group", NOT($B21 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="14" priority="92">
+    <cfRule type="expression" dxfId="20" priority="98">
       <formula>AND($A21="end group", $B21 = "", $C21 = "", $E21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $M21 = "", $N21 = "", $O21 = "", $Q21 = "", $R21 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="13" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="99" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="12" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="100" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="11" priority="95">
+    <cfRule type="expression" dxfId="17" priority="101">
       <formula>AND($A21="begin repeat", NOT($B21 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="10" priority="96">
+    <cfRule type="expression" dxfId="16" priority="102">
       <formula>AND($A21="end repeat", $B21 = "", $C21 = "", $E21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $M21 = "", $N21 = "", $O21 = "", $Q21 = "", $R21 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="9" priority="1250">
+    <cfRule type="expression" dxfId="15" priority="1256">
       <formula>COUNTIF($B$2:$B$1102,B23)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B16 B22">
-    <cfRule type="expression" dxfId="8" priority="1251">
+    <cfRule type="expression" dxfId="14" priority="1257">
       <formula>COUNTIF($B$2:$B$999,B9)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B8">
-    <cfRule type="expression" dxfId="7" priority="1253">
+    <cfRule type="expression" dxfId="13" priority="1259">
       <formula>COUNTIF($B$2:$B$1101,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B21">
-    <cfRule type="expression" dxfId="6" priority="1254">
+    <cfRule type="expression" dxfId="12" priority="1260">
       <formula>COUNTIF($B$2:$B$1075,B17)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(E2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>AND($A2="end group", $B2 = "", $C2 = "", $D2 = "", $E2 = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E2">
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
+      <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E2">
     <cfRule type="expression" dxfId="0" priority="6">
-      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+      <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $D2 = "", $E2 = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -31476,7 +31583,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-08 23-23</v>
+        <v>2022-11-09 7-22</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
